--- a/covid_19_all/JenanMessage.xlsx
+++ b/covid_19_all/JenanMessage.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C410"/>
+  <dimension ref="A1:C406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -425,670 +425,670 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:56</t>
+          <t>2021/10/28 10:59:57</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[고성군청]10. 27.15시기준,확진자1명(고성118번, 관내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[용인시청]10월28일 0시기준 확진자 26명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:14</t>
+          <t>2021/10/28 10:59:56</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>경기도 부천시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[부천시청] 10.19(화) 18시~22시 중동포차(조마루로291번길 46) 방문자는 증상유무에 관계없이 선별진료소에서 코로나19검사를 받으시기 바랍니다.</t>
+          <t>[보은군청] 221(13:25백록동방향),721(15:35석화방향),940(17:20신함방향),431(19:00천남방향)이용자는 코로나 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:14</t>
+          <t>2021/10/28 10:44:26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[보은군청]10.19.(화)~10.22.(금)/10.25.(월)~10.26.(화)11:45~12:30즐거운집(보은읍 삼산리)이용자는 코로나 검사 받으시기 바랍니다</t>
+          <t>[완주군청] 10월 28일(목) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021/10/27 14:57:46</t>
+          <t>2021/10/28 10:42:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>전라북도 순창군</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[김제시청] 10.27.(수) 14시기준 확진자 1명 발생(확진자 접촉1, 동선파악중)/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
+          <t>[순창군청]서울 확진자 이동경로 안내 ▶10.23(토) 09:30 서울강남센트럴시티→ 12:50 순창터미널 도착▶고속버스 이용객은 가까운 선별진료소 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021/10/27 14:47:14</t>
+          <t>2021/10/28 10:23:12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[울산광역시] 10.23.(토)18:10~21:10 ▲동강병원 장례식장 6호실(중구 태화로 240, 태화동, 소독완료) 방문자는 코로나19 검사 받으시기 바랍니다</t>
+          <t>[강원도청] 10.27.(수) 도내 코로나19 확진 22명(원주13 춘천2 태백2 강릉1 홍천1 철원1 양구1 인제1)▶접촉의심 및 감기증상시 즉시검사 당부 드림</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021/10/27 14:31:59</t>
+          <t>2021/10/28 10:00:33</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19(화), 10.21(목)~10.24(일) 환금휘트니스사우나(마산회원구 북성로 106, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[수원시청] 10월 28일 0시 기준, 수원 확진자 60명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/xvl74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021/10/27 14:00:07</t>
+          <t>2021/10/28 09:58:53</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[사천시청] 10.27.(수) 14시 기준 확진자 5명(확진자 접촉자4명, 해외입국자1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[영광군청] 확진자 동선 관련 ▲10.24.(일), 10.26.(화) 영광성당 방문자는 보건소에서 진단검사 받으시기 바랍니다.▲마스크착용, 타지역 방문·접촉 자제</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021/10/27 13:40:54</t>
+          <t>2021/10/28 09:47:56</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[완도군청]외국인 확진자 자가격리중 1명 발생▶오늘 선별이동검사소 안내▶10/27(수)13:30~15:00 소안창조문화센터▶15:00~17:00 청산복지회관 2층</t>
+          <t>[진천군청]▲10.27 코로나 확진자 3명(내국인2, 외국인1). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021/10/27 11:02:53</t>
+          <t>2021/10/28 09:42:42</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[완도군청] 확진자동선▶10/22(금)보길보옥리→청별→노화이포 보길여객농어촌버스 첫차(08:00)▶노화 농협하나로마트09:00~09:10 동시간대 이용자 검사요망</t>
+          <t>[보은군청]10.28.(목) 확진자 8명 발생▲10. 23.(토)~10.24.(일) 시내버스(충북74자1014) 이용자는 보건소에서 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021/10/27 11:00:04</t>
+          <t>2021/10/28 09:36:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[용인시청]10월27일 0시기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[창원시청] 10.27. 확진자 22명 발생 ▲합포10,회원5,진해1,타지역1,격리중5 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021/10/27 10:39:48</t>
+          <t>2021/10/28 09:33:21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[부여군청]10월27일 10시 기준 확진자 18명 발생【부여387~404,학생등13,외국인5】 감기증상 시 보건소에서 코로나 검사(특히 학생) 받으시기 바랍니다.</t>
+          <t>[영광군청] 10.28.(목) 9시 기준, 확진자 1명(영광46번)발생▲10.24.(일)~10.27.(수)대동공업영광대리점 방문자는 보건소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021/10/27 10:37:52</t>
+          <t>2021/10/28 09:19:19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>강원도 원주시</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[강원도청] 10.26.(화) 도내 코로나19 확진 19명(원주6 태백5 춘천4 홍천3 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부 드림!!</t>
+          <t>[원주시청] 10.16.~10.24.'힐링타임아로마테라피(여대생마사지)[북원로2251, 단계동]' 이용자는 오늘 15시까지 보건소에서 코로나 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021/10/27 10:33:16</t>
+          <t>2021/10/28 09:05:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[아산시청] 10월26일 확진자 10명(가족7, 지인1, 조사중 2) /단계적 일상 회복 전환을 위해 방역수칙을 준수해 주시고, 코로나 의심시 검사 받으세요.</t>
+          <t>[양주시청] 10월 28일 00시 기준 확진자 11명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021/10/27 10:26:25</t>
+          <t>2021/10/28 08:31:40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[전주시청]10.27(수) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[남원시청]▲10.28(목)08시 기준 확진자 30명 발생(남원 172~201번)/감염경로조사중 ▲ 유증상시 접종유무와 상관없이 즉시 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021/10/27 10:08:04</t>
+          <t>2021/10/28 08:30:09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 27일(수) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[목포시청]10.27. 24시 기준 확진자 1명(자가격리중 외국인) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021/10/27 10:00:53</t>
+          <t>2021/10/28 08:28:21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 27일 0시 기준, 수원 확진자 58명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/ghswi</t>
+          <t>[여수시청]10.27.24:00 기준 총1명 발생(타지역거주자)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021/10/27 09:54:39</t>
+          <t>2021/10/27 21:09:37</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[김천시청]코로나19이동선별검사소 운영안내▲장소:녹색미래과학관(율곡동)▲27일:13:00~16:00, 28일-29일:10:00~16:00▲의심증상시 검사바랍니다.</t>
+          <t>[보성군] 10.27.(수) 확진자 3명 추가 발생(가족,지인모임/역학조사중) ▲외출 및 지인모임 자제, 마스크 상시 착용, 의심증상시 보건소에서 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021/10/27 09:53:25</t>
+          <t>2021/10/27 18:36:13</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 27.(수) 확진자 4명 발생 ▲ 10. 18.(월) 이후 복신경외과 내원자 및 유증상자는 인근 보건소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[홍성군청]10월27일(수) 18시 기준 확진자 5명(홍성301~305번) 발생.자가격리 1명, 병원격리 3명, 자발적검사 1명. 역학조사 및 방역조치 완료</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021/10/27 09:46:27</t>
+          <t>2021/10/27 18:35:33</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>경상남도 함양군</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[함양군청] 10. 18.(월) 14시 함양 출발 → 16시 부산(사상) 도착 시외버스 탑승객은 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021/10/27 09:31:50</t>
+          <t>2021/10/27 18:25:04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[창원시청] 10.18(월)~23(토) 온정백반(대산면 주남로503번길 8, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.(10.24 이후 검사자 제외)</t>
+          <t>[남양주시청]10.27.(수) 코로나19 확진자 26명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tbit 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:51</t>
+          <t>2021/10/27 18:03:16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.17(일)~10.25(월) JL연기학원 1층~4층(동구 구성로 167, 충장로5가)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
+          <t>[충주시청] 10월 27일 확진자 7명 발생(선행 확진자 접촉1, 자가격리중4, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:51</t>
+          <t>2021/10/27 17:47:38</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[창원시청] 10.26. 확진자 20명 발생 ▲의창4,합포6,회원4,진해2,타지역1,격리중3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[통영시청] 10.26.(화) 10:40~17:55 통영전문장례식장(정량동) 3층 특실을 방문하신분은 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:30</t>
+          <t>2021/10/27 17:44:59</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[완도군청]확진자동선▶10/21(목) 12:10해남출발→13:00완도도착▶13:20완도터미널→화흥포셔틀버스▶13:50화흥포→노화동천 여객선실 이용자 코로나검사요망</t>
+          <t>[구례군청]10.27.(수) 확진자 1명 발생(구례35번 가족), 접촉자 및 이동동선 없습니다. 타지역 방문을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:26</t>
+          <t>2021/10/27 17:32:06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲26일 도내 확진자 29명 발생</t>
+          <t>[광주시청] 10월 27일 17시 기준 확진자 28명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021/10/27 09:11:43</t>
+          <t>2021/10/27 17:04:55</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[포항시청]10.23 302번버스 영일고등학교정류장15:41→죽도시장정류장16:07 죽도시장정류장16:33→영일고등학교정류장17:01 탑승객은 보건소 검사바랍니다</t>
+          <t>[과천시청] 10월 27일 17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021/10/27 09:09:58</t>
+          <t>2021/10/27 16:52:03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 27일 00시 기준 확진자 4명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[강북구청] 10.24.~27. 로얄PC방(도봉로 313, 지하1층) 방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021/10/27 09:05:04</t>
+          <t>2021/10/27 16:32:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 17명 [타시민1, 천안시민16] ▶ 초·중·고교생 확진자 증가 ▶ 증상발현 시 병원 방문 전 검사 및 백신접종에 참여 바랍니다.</t>
+          <t>[창원시청] 10.21.(목)~10.23.(토), 10.25.(월) 대림식당(마산합포구 북성로 100, 상남동) 방문자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021/10/27 08:27:36</t>
+          <t>2021/10/27 15:43:47</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.27(수) 금일 확진자 1명 발생(남원 171번)/감염경로 조사중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[부산시]10.23.(토) 13:30~15:30에 대원목욕탕(부산진구 황령대로18번길 43(범천동))여탕 이용자는 코로나19검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021/10/27 08:00:07</t>
+          <t>2021/10/27 15:37:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[제천시청]10.27(수) 8시 현재. 확진자 2명 발생(타 지역 확진자 접촉 1, 격리중 1). 지역내 특이동선 없음. 증상발현시 선별진료소에서 검사 바랍니다.</t>
+          <t>[화성시청] 10.22.(금) 킹노래방(화성시 봉담읍 와우안길 43) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021/10/26 21:01:59</t>
+          <t>2021/10/27 15:36:38</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[보은군청]10.26.(화) 확진자 3명 발생, 10.18.(월)~10.26.(화) 복신경외과의원(보은읍) 방문자는 인근보건소에서 코로나검사를 받으시기 바랍니다.</t>
+          <t>[화성시청] 10.23.(토) 블루노래연습장(화성시 봉담읍 와우리 45-5 지하1층) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021/10/26 20:24:18</t>
+          <t>2021/10/27 15:36:10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>충청남도 서천군</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
+          <t>[서천군청] 10.24.~26. 기간 중 서면 홍원항어촌계 수산물판매장 내 한문이네를 방문한 분들은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021/10/26 19:06:08</t>
+          <t>2021/10/27 15:24:25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[강북구청]10.19.(화) 19:00~21:10 보스당구클럽(오패산로130)방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
+          <t>[김천시청]10월27일 15시기준 관내 초·중학교 관련 22명 발생(신규15, 자가격리중7)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021/10/26 19:04:20</t>
+          <t>2021/10/27 15:10:02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[강북구청] 10.22.(금) 얼짱노래연습장(한천로 140길 35, 지층)방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
+          <t>[고성군청]10.24.(일)14:00~15:42병산수산고성왕새우(삼산면소재, 방역완료) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021/10/26 18:15:19</t>
+          <t>2021/10/27 15:02:56</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[남양주시청]10.26.(화) 코로나19 확진자 35명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/taaa 증상의심시 코로나19 검사받으세요.</t>
+          <t>[보은군청]10. 23.(토) ~ 10. 26.(화) 보은개인택시(35아 5061 /소나타/은색)를 이용하신분은 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021/10/26 18:00:02</t>
+          <t>2021/10/27 14:59:56</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[안성시청]10.26코로나19확진자11명(자가격리2확진자접촉3자발적검사4해외입국2)발생.역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[고성군청]10. 27.15시기준,확진자1명(고성118번, 관내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021/10/26 17:47:56</t>
+          <t>2021/10/27 14:59:14</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 부천시</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 26일, 확진자 4명 발생(자가격리중 3, 감염경로 조사중 1) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[부천시청] 10.19(화) 18시~22시 중동포차(조마루로291번길 46) 방문자는 증상유무에 관계없이 선별진료소에서 코로나19검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021/10/26 17:29:09</t>
+          <t>2021/10/27 14:59:14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[고성군청]10.26.17시기준,확진자1명(고성117번,조사중)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[보은군청]10.19.(화)~10.22.(금)/10.25.(월)~10.26.(화)11:45~12:30즐거운집(보은읍 삼산리)이용자는 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021/10/26 17:01:15</t>
+          <t>2021/10/27 14:57:46</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 26일 17시 기준 확진자 21명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[김제시청] 10.27.(수) 14시기준 확진자 1명 발생(확진자 접촉1, 동선파악중)/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021/10/26 17:01:12</t>
+          <t>2021/10/27 14:47:14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[창원시청] 10.16(토)~10.20(수) 17:00~17:20 감계식당(북면 감계로156번길 6-8,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[울산광역시] 10.23.(토)18:10~21:10 ▲동강병원 장례식장 6호실(중구 태화로 240, 태화동, 소독완료) 방문자는 코로나19 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021/10/26 17:00:57</t>
+          <t>2021/10/27 14:31:59</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1098,1510 +1098,1510 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[창원시청] 10.16.(토)~10.20.(수) 12:00~12:30 윤현식당(북면 감계로188번길 21,방역완료)이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[창원시청] 10.19(화), 10.21(목)~10.24(일) 환금휘트니스사우나(마산회원구 북성로 106, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021/10/26 17:00:49</t>
+          <t>2021/10/27 14:00:07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[과천시청]10월26일 17시 기준 신규확진 2명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
+          <t>[사천시청] 10.27.(수) 14시 기준 확진자 5명(확진자 접촉자4명, 해외입국자1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021/10/26 16:14:21</t>
+          <t>2021/10/27 13:40:54</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[당진시청]10/26(화)16시기준 확진자17명발생(격리중5,관내접촉3,타지역접촉1,조사중8).총1080명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
+          <t>[완도군청]외국인 확진자 자가격리중 1명 발생▶오늘 선별이동검사소 안내▶10/27(수)13:30~15:00 소안창조문화센터▶15:00~17:00 청산복지회관 2층</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021/10/26 16:10:22</t>
+          <t>2021/10/27 11:02:53</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[사천시청]10.14(목)~10.24(일) 사천시 서부시장길 21, 2층(선원휴게실) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[완도군청] 확진자동선▶10/22(금)보길보옥리→청별→노화이포 보길여객농어촌버스 첫차(08:00)▶노화 농협하나로마트09:00~09:10 동시간대 이용자 검사요망</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021/10/26 16:05:02</t>
+          <t>2021/10/27 11:00:04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[진주시청] 26일 15시 기준 확진자 9명(관내 소재 회사 외국인 종사자 8명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[용인시청]10월27일 0시기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021/10/26 16:03:46</t>
+          <t>2021/10/27 10:39:48</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>경상북도 안동시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[안동시청]금일 16시기준 확진자1명 발생▲10.24(일)13:04~18:30 엔제리너스안동옥동점(광명로 175)방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
+          <t>[부여군청]10월27일 10시 기준 확진자 18명 발생【부여387~404,학생등13,외국인5】 감기증상 시 보건소에서 코로나 검사(특히 학생) 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021/10/26 15:57:55</t>
+          <t>2021/10/27 10:37:52</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.18(월) 10.20(수) 10.22(금) 07:30~09:00 서광사우나 여탕(서구 죽봉대로109, 4층, 광천동) 방문자는 검사 바랍니다</t>
+          <t>[강원도청] 10.26.(화) 도내 코로나19 확진 19명(원주6 태백5 춘천4 홍천3 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부 드림!!</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021/10/26 15:39:54</t>
+          <t>2021/10/27 10:33:16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>전라남도 장성군</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[장성군청] 10.26.(화) 확진자 1명 발생. 자가격리 중 확진으로 이동동선 없음. 외국인사업장 등 방역취약시설 운영자 및 종사자는 2주 1회 검사 바랍니다.</t>
+          <t>[아산시청] 10월26일 확진자 10명(가족7, 지인1, 조사중 2) /단계적 일상 회복 전환을 위해 방역수칙을 준수해 주시고, 코로나 의심시 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021/10/26 14:26:48</t>
+          <t>2021/10/27 10:26:25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[강진군청] 10월 23일 17:30 강진군 여성배드민턴 대회 후 회장 이취임식에 참석한 군민은 보건소 선별진료소에서 오후 5시까지 검사 받기 바랍니다.</t>
+          <t>[전주시청]10.27(수) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021/10/26 14:22:31</t>
+          <t>2021/10/27 10:08:04</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[음성군청]10월 26일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[완주군청] 10월 27일(수) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021/10/26 14:19:40</t>
+          <t>2021/10/27 10:00:53</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>충청남도 청양군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[청양군청] 10월 26일 기준 확진자 1명 발생. 청양98번(자가격리중 확진, 이동동선 없음). ▲타지역 방문 자제, 유증상 시 코로나19 검사 바랍니다.</t>
+          <t>[수원시청] 10월 27일 0시 기준, 수원 확진자 58명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/ghswi</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021/10/26 14:01:45</t>
+          <t>2021/10/27 09:54:39</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[사천시청]10.26.(화) 14시 기준 확진자 2명(확진자 접촉자1명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[김천시청]코로나19이동선별검사소 운영안내▲장소:녹색미래과학관(율곡동)▲27일:13:00~16:00, 28일-29일:10:00~16:00▲의심증상시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021/10/26 12:58:38</t>
+          <t>2021/10/27 09:53:25</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[사천시청]10.14.(목)~10.24(일) 08:00~12:00 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[보은군청] 10. 27.(수) 확진자 4명 발생 ▲ 10. 18.(월) 이후 복신경외과 내원자 및 유증상자는 인근 보건소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021/10/26 11:52:38</t>
+          <t>2021/10/27 09:46:27</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경상남도 함양군</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.22.(금)~10.25.(월) 산호장여관(왜관읍 중앙로5길 10, 왜관역 부근) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[함양군청] 10. 18.(월) 14시 함양 출발 → 16시 부산(사상) 도착 시외버스 탑승객은 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021/10/26 11:52:08</t>
+          <t>2021/10/27 09:31:50</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.12.(화)~10.24.(일) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[창원시청] 10.18(월)~23(토) 온정백반(대산면 주남로503번길 8, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.(10.24 이후 검사자 제외)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021/10/26 11:23:52</t>
+          <t>2021/10/27 09:30:51</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.26.(화) 11:00기준 신규확진자 24명 url.kr/eybpvx ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[광주광역시] 10.17(일)~10.25(월) JL연기학원 1층~4층(동구 구성로 167, 충장로5가)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021/10/26 11:11:36</t>
+          <t>2021/10/27 09:30:51</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>경상북도 성주군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[성주군] 10월23일(토) 13:50-14:20까지 박여사순대국밥(초전면 대장길 76) 방문자는 선별진료소에서 코로나19 PCR검사를 받으시기 바랍니다.</t>
+          <t>[창원시청] 10.26. 확진자 20명 발생 ▲의창4,합포6,회원4,진해2,타지역1,격리중3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021/10/26 10:59:58</t>
+          <t>2021/10/27 09:30:30</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자 5명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[완도군청]확진자동선▶10/21(목) 12:10해남출발→13:00완도도착▶13:20완도터미널→화흥포셔틀버스▶13:50화흥포→노화동천 여객선실 이용자 코로나검사요망</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021/10/26 10:28:11</t>
+          <t>2021/10/27 09:30:26</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[청주시청]10월 25일 확진자 13명 발생(상당구3,서원구1,흥덕구3,청원구5,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲26일 도내 확진자 29명 발생</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2021/10/26 10:18:06</t>
+          <t>2021/10/27 09:11:43</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>경상북도 성주군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[성주군청] 최근 타지역을 방문했거나 발열, 기침 등 코로나19 증상이 있을 경우 보건소 선별진료소를 방문하여 검사를 받으시기 바랍니다.</t>
+          <t>[포항시청]10.23 302번버스 영일고등학교정류장15:41→죽도시장정류장16:07 죽도시장정류장16:33→영일고등학교정류장17:01 탑승객은 보건소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021/10/26 10:13:53</t>
+          <t>2021/10/27 09:09:58</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.25 코로나 확진자 11명(외국인11). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[양주시청] 10월 27일 00시 기준 확진자 4명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021/10/26 10:05:39</t>
+          <t>2021/10/27 09:05:04</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 26일(화) 0시 기준 확진자 8명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[천안시청] 확진자 17명 [타시민1, 천안시민16] ▶ 초·중·고교생 확진자 증가 ▶ 증상발현 시 병원 방문 전 검사 및 백신접종에 참여 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2021/10/26 10:00:58</t>
+          <t>2021/10/27 08:27:36</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[강북구청]10.16.~22. 분홍미용실(강북구 도봉로97길 15), 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다. ☎901-7704</t>
+          <t>[남원시청]▲10.27(수) 금일 확진자 1명 발생(남원 171번)/감염경로 조사중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021/10/26 10:00:05</t>
+          <t>2021/10/27 08:00:07</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 26일 0시 기준, 수원 확진자 20명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/mwbj1</t>
+          <t>[제천시청]10.27(수) 8시 현재. 확진자 2명 발생(타 지역 확진자 접촉 1, 격리중 1). 지역내 특이동선 없음. 증상발현시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2021/10/26 09:57:38</t>
+          <t>2021/10/26 21:01:59</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[창원시청] 10.21(목)~10.24(일) 05:00~12:00 진해스파랜드(진해구 진해대로 762,지하) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[보은군청]10.26.(화) 확진자 3명 발생, 10.18.(월)~10.26.(화) 복신경외과의원(보은읍) 방문자는 인근보건소에서 코로나검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2021/10/26 09:52:28</t>
+          <t>2021/10/26 20:24:18</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[완도군청]확진자 2명 발생(신지면1, 보길면1) 자가격리 중 확진으로 이동동선 없음▶오전 금일, 보길, 금당, 생일 이동선별진료소 운영중▶주민들은 검사요망</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2021/10/26 09:51:23</t>
+          <t>2021/10/26 19:06:08</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19.(화), 10.21.(목)~10.24.(일) 환금휘트니스사우나(회원구 북성로 106,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[강북구청]10.19.(화) 19:00~21:10 보스당구클럽(오패산로130)방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2021/10/26 09:48:27</t>
+          <t>2021/10/26 19:04:20</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[창원시청] 10.20.(수) 19:00~19:30 팔룡동 대동마트(의창구 반계로 97) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[강북구청] 10.22.(금) 얼짱노래연습장(한천로 140길 35, 지층)방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021/10/26 09:22:52</t>
+          <t>2021/10/26 18:15:19</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[창원시청] 10.25. 확진자 6명 발생 ▲성산1,합포1,진해1,타지역1,격리중2 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[남양주시청]10.26.(화) 코로나19 확진자 35명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/taaa 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021/10/26 09:05:02</t>
+          <t>2021/10/26 18:00:02</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[김제시청] 10.26.(화) 9시기준 확진자 1명 발생(자가격리중 확진, 외국인)/동선없음/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다</t>
+          <t>[안성시청]10.26코로나19확진자11명(자가격리2확진자접촉3자발적검사4해외입국2)발생.역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2021/10/26 09:01:46</t>
+          <t>2021/10/26 17:47:56</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[영암군청] 10. 21.(목) 15:30~17:20 금정농협 경제사업부(금정면 용두로 24) 방문자는 선별진료소 검사바랍니다.(격리중 확진으로 역학조사 완료)</t>
+          <t>[충주시청] 10월 26일, 확진자 4명 발생(자가격리중 3, 감염경로 조사중 1) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2021/10/26 08:51:07</t>
+          <t>2021/10/26 17:29:09</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[영광군청] 10.25.(월) 22시기준 확진자1명(타지역 확진자 접촉)발생▲10.25.(월) 12시~13시 영광읍 양평해장국 방문자는 보건소에서 검사 바랍니다.</t>
+          <t>[고성군청]10.26.17시기준,확진자1명(고성117번,조사중)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2021/10/26 08:50:31</t>
+          <t>2021/10/26 17:01:15</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[전남도청] 10.25. 24시기준 확진 6명(여수1,나주1,장흥1,영암1,신안2) ▲방역취약시설 운영자 및 종사자는 10.31.까지 2주 1회 진단검사 받으세요</t>
+          <t>[광주시청] 10월 26일 17시 기준 확진자 21명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2021/10/26 08:46:39</t>
+          <t>2021/10/26 17:01:12</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[보성군]타지역 확진자 동선 관련, 10.20.(수) 16:20 회천→광주행 광우고속 버스를 이용하신 분은 보건소 선별진료소에서 검사바랍니다.(09~18시 운영)</t>
+          <t>[창원시청] 10.16(토)~10.20(수) 17:00~17:20 감계식당(북면 감계로156번길 6-8,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2021/10/26 08:45:13</t>
+          <t>2021/10/26 17:00:57</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[신안군청] 10.25. 24시 기준 확진자 2명(신안 57번~58번/자가격리 중 2) 발생 ▲의심 증상 시 즉시 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[창원시청] 10.16.(토)~10.20.(수) 12:00~12:30 윤현식당(북면 감계로188번길 21,방역완료)이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2021/10/26 08:08:23</t>
+          <t>2021/10/26 17:00:49</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[군산시청] ▲ 10/24(일) 10:00~12:20 월명24시사우나찜질방(현충로95(나운동)) 남탕 이용자는 보건소 선별검사(09시~18시)바랍니다.</t>
+          <t>[과천시청]10월26일 17시 기준 신규확진 2명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2021/10/26 08:03:33</t>
+          <t>2021/10/26 16:14:21</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[여수시청] 10.25.24:00 기준 총1명 발생(타지역 방문)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[당진시청]10/26(화)16시기준 확진자17명발생(격리중5,관내접촉3,타지역접촉1,조사중8).총1080명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2021/10/25 21:53:43</t>
+          <t>2021/10/26 16:10:22</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>강원도 태백시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[태백시청] 10월 25일(월) 21시기준 확진자 8명 발생(역학조사 중, 필요시 이동동선 태백시 홈페이지 공개), 유증상자는 보건소 선별검사 받으시기 바랍니다.</t>
+          <t>[사천시청]10.14(목)~10.24(일) 사천시 서부시장길 21, 2층(선원휴게실) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2021/10/25 18:53:55</t>
+          <t>2021/10/26 16:05:02</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[남양주시청]10.25.(월) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t8vj 증상의심시 코로나19 검사받으세요.</t>
+          <t>[진주시청] 26일 15시 기준 확진자 9명(관내 소재 회사 외국인 종사자 8명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2021/10/25 18:34:29</t>
+          <t>2021/10/26 16:03:46</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.24 코로나 확진자 4명(내국인2, 외국인2)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[안동시청]금일 16시기준 확진자1명 발생▲10.24(일)13:04~18:30 엔제리너스안동옥동점(광명로 175)방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2021/10/25 18:26:40</t>
+          <t>2021/10/26 15:57:55</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>전라남도 장흥군</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[장흥군청]10.25. 17시 기준 확진자 1명 발생(자가격리 중 확진) ▶이동동선 및 접촉자 없음 ▶유증상시 접종유무와 상관없이 즉시 선별진료소 검사바랍니다.</t>
+          <t>[광주광역시] 10.18(월) 10.20(수) 10.22(금) 07:30~09:00 서광사우나 여탕(서구 죽봉대로109, 4층, 광천동) 방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2021/10/25 18:00:49</t>
+          <t>2021/10/26 15:39:54</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>전라남도 장성군</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[안성시청]10.25. 코로나19확진자3명(자가격리1,확진자접촉1,자발적검사자1)발생.역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[장성군청] 10.26.(화) 확진자 1명 발생. 자가격리 중 확진으로 이동동선 없음. 외국인사업장 등 방역취약시설 운영자 및 종사자는 2주 1회 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2021/10/25 17:56:29</t>
+          <t>2021/10/26 14:26:48</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[논산시청] 10월25일 확진자 9명(내국인6,외국인3/관내6,타지역2,조사중1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받기 바랍니다.</t>
+          <t>[강진군청] 10월 23일 17:30 강진군 여성배드민턴 대회 후 회장 이취임식에 참석한 군민은 보건소 선별진료소에서 오후 5시까지 검사 받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2021/10/25 17:36:42</t>
+          <t>2021/10/26 14:22:31</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[의정부시]10.20.(수) 14시~16시 의정부백병원장례식장(신곡동) 2호실 방문자 중 유증상자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[음성군청]10월 26일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2021/10/25 17:14:05</t>
+          <t>2021/10/26 14:19:40</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>충청남도 청양군</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 25일, 확진자 3명 발생(선행 확진자의 접촉자1, 자가격리중1, 조사중1) ▲만남,모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[청양군청] 10월 26일 기준 확진자 1명 발생. 청양98번(자가격리중 확진, 이동동선 없음). ▲타지역 방문 자제, 유증상 시 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2021/10/25 17:03:57</t>
+          <t>2021/10/26 14:01:45</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 25일 17시 기준 확진자 16명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[사천시청]10.26.(화) 14시 기준 확진자 2명(확진자 접촉자1명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2021/10/25 17:00:23</t>
+          <t>2021/10/26 12:58:38</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[과천시청] 10월25일17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[사천시청]10.14.(목)~10.24(일) 08:00~12:00 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2021/10/25 17:00:02</t>
+          <t>2021/10/26 11:52:38</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[고성군청]10. 25. 16시기준, 확진자 1명(고성116번, 수도권 확진자 접촉, 타지역 거주)발생 ▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[칠곡군청] 10.22.(금)~10.25.(월) 산호장여관(왜관읍 중앙로5길 10, 왜관역 부근) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2021/10/25 16:13:42</t>
+          <t>2021/10/26 11:52:08</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[보성군]타지역 확진자 관내동선 관련, 10.19.(화) 17:00~19:45까지 보성읍 우리장례식장을 이용하신분은 보건소 선별진료소에서 지금 즉시 검사받으세요.</t>
+          <t>[칠곡군청] 10.12.(화)~10.24.(일) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2021/10/25 15:59:49</t>
+          <t>2021/10/26 11:23:52</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>서울특별시 용산구</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[용산구청] 10.8.(금)~10.14.(목) 한남동 소재 ‘Season9(엠타이인서울)’ 방문하신 분은 가까운 선별진료소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[안양시청]▲10.26.(화) 11:00기준 신규확진자 24명 url.kr/eybpvx ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2021/10/25 15:56:47</t>
+          <t>2021/10/26 11:11:36</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>경기도 고양시</t>
+          <t>경상북도 성주군</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[고양시청]10.18.(월)~20.(수) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[성주군] 10월23일(토) 13:50-14:20까지 박여사순대국밥(초전면 대장길 76) 방문자는 선별진료소에서 코로나19 PCR검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2021/10/25 15:41:41</t>
+          <t>2021/10/26 10:59:58</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.14(목)~10.23(토) 설화머리방(서구 죽봉대로 111번길 14, 광천동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자 5명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2021/10/25 15:32:37</t>
+          <t>2021/10/26 10:28:11</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[김제시청] 10.18(월)~10.22(금)12:00~13:00 김제시 용지면 소재한 그린반점(소독완료) 방문자는 가까운 선별진료소 방문 및 검사 바랍니다.</t>
+          <t>[청주시청]10월 25일 확진자 13명 발생(상당구3,서원구1,흥덕구3,청원구5,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2021/10/25 15:09:24</t>
+          <t>2021/10/26 10:18:06</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경상북도 성주군</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[진주시청] 25일 15시 기준 확진자 1명(무료선제검사) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[성주군청] 최근 타지역을 방문했거나 발열, 기침 등 코로나19 증상이 있을 경우 보건소 선별진료소를 방문하여 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2021/10/25 14:57:15</t>
+          <t>2021/10/26 10:13:53</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>경상남도 양산시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[양산시청]10.25.(월) 15시기준, 코로나19 확진자 6명발생(접촉자 1, 격리중 2, 격리면제 검사 3)▲코로나19 백신 당일접종 접종센터(9~15시)</t>
+          <t>[진천군청]▲10.25 코로나 확진자 11명(외국인11). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2021/10/25 14:31:31</t>
+          <t>2021/10/26 10:05:39</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[안산시청]10월25일14시기준 확진자 39명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/XeqOnC5</t>
+          <t>[완주군청] 10월 26일(화) 0시 기준 확진자 8명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2021/10/25 14:18:04</t>
+          <t>2021/10/26 10:00:58</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[화성시청] 10.18.(월) 18:00~19:00 둘리칼국수(화성시 남양읍 남양시장로61) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[강북구청]10.16.~22. 분홍미용실(강북구 도봉로97길 15), 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2021/10/25 14:04:46</t>
+          <t>2021/10/26 10:00:05</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[통영시청]10.14.(목) 통영출발(16:10)→고성·마산경유→부산사상터미널도착/현대고속(경남70아1030) 탑승자는 가까운 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[수원시청] 10월 26일 0시 기준, 수원 확진자 20명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/mwbj1</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2021/10/25 13:44:21</t>
+          <t>2021/10/26 09:57:38</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.25.(월) 11:00기준 신규확진자 15명 url.kr/v4srn9 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[창원시청] 10.21(목)~10.24(일) 05:00~12:00 진해스파랜드(진해구 진해대로 762,지하) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2021/10/25 11:47:38</t>
+          <t>2021/10/26 09:52:28</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[구미시청]외국인근로자 확진자 다수 발생. 외국인고용주께서는 근로자가 가까운 보건소에서 백신접종 및 진단검사를 할 수 있도록 관리에 철저를 기하여주시기 바랍니다.</t>
+          <t>[완도군청]확진자 2명 발생(신지면1, 보길면1) 자가격리 중 확진으로 이동동선 없음▶오전 금일, 보길, 금당, 생일 이동선별진료소 운영중▶주민들은 검사요망</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2021/10/25 11:19:05</t>
+          <t>2021/10/26 09:51:23</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[김제시청] 10.25.(월)11시기준 확진자 2명발생(확진자접촉2, 동선파악중)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[창원시청] 10.19.(화), 10.21.(목)~10.24.(일) 환금휘트니스사우나(회원구 북성로 106,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2021/10/25 11:09:57</t>
+          <t>2021/10/26 09:48:27</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[아산시청] 10월 24일 확진자 1명(해외 입국자1) / 새로운 일상을 위한 방역의 생활화! 모두 함께 만들어 갑시다. 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[창원시청] 10.20.(수) 19:00~19:30 팔룡동 대동마트(의창구 반계로 97) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2021/10/25 11:09:15</t>
+          <t>2021/10/26 09:22:52</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>전라북도 무주군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[무주군청] 10.25.(월)11시 기준 신규 확진자 1명 발생(무주 45번, 10.24.(일) 21시 확진)/감기몸살, 기침 등 이상증상시 진단 검사바랍니다.</t>
+          <t>[창원시청] 10.25. 확진자 6명 발생 ▲성산1,합포1,진해1,타지역1,격리중2 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2021/10/25 11:00:00</t>
+          <t>2021/10/26 09:05:02</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자 8명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[김제시청] 10.26.(화) 9시기준 확진자 1명 발생(자가격리중 확진, 외국인)/동선없음/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:49</t>
+          <t>2021/10/26 09:01:46</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 25일(월) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[영암군청] 10. 21.(목) 15:30~17:20 금정농협 경제사업부(금정면 용두로 24) 방문자는 선별진료소 검사바랍니다.(격리중 확진으로 역학조사 완료)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:39</t>
+          <t>2021/10/26 08:51:07</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[포항시청] 10.19(화)~10.22(금) 대구은행 상대동지점(대도동 640-7) 대출업무관련 방문자는 가까운 보건소에서 검사 바랍니다.</t>
+          <t>[영광군청] 10.25.(월) 22시기준 확진자1명(타지역 확진자 접촉)발생▲10.25.(월) 12시~13시 영광읍 양평해장국 방문자는 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:32</t>
+          <t>2021/10/26 08:50:31</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[금산군청] 10.25(월) 10시 기준 확진자 8명 발생(격리중 3, 신규5), 역학조사중, 감기몸살, 오한 등 증상시 선별진료소 방문 검사바랍니다.</t>
+          <t>[전남도청] 10.25. 24시기준 확진 6명(여수1,나주1,장흥1,영암1,신안2) ▲방역취약시설 운영자 및 종사자는 10.31.까지 2주 1회 진단검사 받으세요</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2021/10/25 10:00:53</t>
+          <t>2021/10/26 08:46:39</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 25일 0시 기준, 수원 확진자 16명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d1t0c</t>
+          <t>[보성군]타지역 확진자 동선 관련, 10.20.(수) 16:20 회천→광주행 광우고속 버스를 이용하신 분은 보건소 선별진료소에서 검사바랍니다.(09~18시 운영)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2021/10/25 09:30:14</t>
+          <t>2021/10/26 08:45:13</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다.▲24일 도내 확진자 42명 발생</t>
+          <t>[신안군청] 10.25. 24시 기준 확진자 2명(신안 57번~58번/자가격리 중 2) 발생 ▲의심 증상 시 즉시 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2021/10/25 09:17:02</t>
+          <t>2021/10/26 08:08:23</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>강원도 강릉시</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[강릉시청]어제(일) 4명 확진(친구간 밀접촉4)/10.20(수)~23(토) 기간중 카페썸(가톨릭관동대 내)을 방문하신 분은 오전중 보건소에서 반드시 검사바랍니다</t>
+          <t>[군산시청] ▲ 10/24(일) 10:00~12:20 월명24시사우나찜질방(현충로95(나운동)) 남탕 이용자는 보건소 선별검사(09시~18시)바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2021/10/25 09:14:30</t>
+          <t>2021/10/26 08:03:33</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[창원시청]10월21일(07:50~11:00), 22일(08:50~10:40) 진해스파랜드(진해대로 762,지하)이용자는 관할보건소에서 검사받으시기 바랍니다.</t>
+          <t>[여수시청] 10.25.24:00 기준 총1명 발생(타지역 방문)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2021/10/25 09:13:26</t>
+          <t>2021/10/25 21:53:43</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>강원도 태백시</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[창원시청]10월18일(09:20~11:20),19일(07:40~11:10),20일(07:50~10:50)진해스파랜드(진해대로 762)이용자관할보건소에서 검사요망</t>
+          <t>[태백시청] 10월 25일(월) 21시기준 확진자 8명 발생(역학조사 중, 필요시 이동동선 태백시 홈페이지 공개), 유증상자는 보건소 선별검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2021/10/25 09:01:13</t>
+          <t>2021/10/25 18:53:55</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 25일 00시 기준 확진자 9명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[남양주시청]10.25.(월) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t8vj 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2021/10/25 08:53:36</t>
+          <t>2021/10/25 18:34:29</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[전남도청] 10.24.24시기준 확진5명(구례1,장성1,완도1,신안1 /해외1(광양))※내국인3명,외국인2명(건설1,선원1) ▲의심증상 즉시 보건소 검사받으세요</t>
+          <t>[진천군청]▲10.24 코로나 확진자 4명(내국인2, 외국인2)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2021/10/25 08:45:15</t>
+          <t>2021/10/25 18:26:40</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>전라남도 장흥군</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[신안군청]10.24.24시 기준 확진자 1명(건설근로자 외국인 1명)발생 ▲외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
+          <t>[장흥군청]10.25. 17시 기준 확진자 1명 발생(자가격리 중 확진) ▶이동동선 및 접촉자 없음 ▶유증상시 접종유무와 상관없이 즉시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2021/10/25 08:25:06</t>
+          <t>2021/10/25 18:00:49</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>전라남도 광양시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[광양시청] 10. 24. 24시 기준 확진자 1명 발생(해외입국자 1) 가벼운 감기증상도 의료기관 방문 전 선별진료소 무료 검사 받으시기 바랍니다.</t>
+          <t>[안성시청]10.25. 코로나19확진자3명(자가격리1,확진자접촉1,자발적검사자1)발생.역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2021/10/25 08:07:08</t>
+          <t>2021/10/25 17:56:29</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.25(월) 08시 기준 확진자 1명발생(남원 170번)/역학조사 중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시검사 받으시기 바랍니다.</t>
+          <t>[논산시청] 10월25일 확진자 9명(내국인6,외국인3/관내6,타지역2,조사중1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2021/10/25 08:02:06</t>
+          <t>2021/10/25 17:36:42</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[울산광역시]임시선별검사소▲문수경기장(평일9~20시)▲종합운동장,동구국민체육센터,농소운동장,온양체육공원(평일9~17시)입니다.(점심시간 12시~13시 미운영)</t>
+          <t>[의정부시]10.20.(수) 14시~16시 의정부백병원장례식장(신곡동) 2호실 방문자 중 유증상자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2021/10/25 08:00:04</t>
+          <t>2021/10/25 17:14:05</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[제천시청]10.25(월) 08시 현재. 확진자 1명 발생(외국인). 감염경로 조사중. 추가사항은 모바일콜센터 등으로 안내드리겠습니다. 증상 발현시 검사 바랍니다</t>
+          <t>[충주시청] 10월 25일, 확진자 3명 발생(선행 확진자의 접촉자1, 자가격리중1, 조사중1) ▲만남,모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2021/10/24 20:42:25</t>
+          <t>2021/10/25 17:03:57</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>강원도 강릉시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[강릉시청]10.20(수)~10.23(토) 기간 중 카페썸(가톨릭관동대 내)을 방문하신 분들은 내일 오전중으로 보건소 선별검사소에서 반드시 검사 바랍니다.</t>
+          <t>[광주시청] 10월 25일 17시 기준 확진자 16명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2021/10/24 18:35:44</t>
+          <t>2021/10/25 17:00:23</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
+          <t>[과천시청] 10월25일17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2021/10/24 18:11:09</t>
+          <t>2021/10/25 17:00:02</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[홍성군청]10월24일(일) 18시 기준 확진자 4명(홍성290~293번) 발생. 확진자 접촉 2, 자가격리중 1, 자발적 검사 1. 정밀역학조사중</t>
+          <t>[고성군청]10. 25. 16시기준, 확진자 1명(고성116번, 수도권 확진자 접촉, 타지역 거주)발생 ▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2021/10/24 18:08:20</t>
+          <t>2021/10/25 16:13:42</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[안성시청]10.24.코로나확진자4명(자발적검사2, 확진자접촉2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[보성군]타지역 확진자 관내동선 관련, 10.19.(화) 17:00~19:45까지 보성읍 우리장례식장을 이용하신분은 보건소 선별진료소에서 지금 즉시 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2021/10/24 17:41:31</t>
+          <t>2021/10/25 15:59:49</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>서울특별시 용산구</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[남양주시청]10.24.(일) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t7m6 증상의심시 코로나19 검사받으세요.</t>
+          <t>[용산구청] 10.8.(금)~10.14.(목) 한남동 소재 ‘Season9(엠타이인서울)’ 방문하신 분은 가까운 선별진료소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2021/10/24 17:23:07</t>
+          <t>2021/10/25 15:56:47</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>전라남도 장성군</t>
+          <t>경기도 고양시</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[장성군청] 10. 24.(일) 확진자 1명(타지역 거주자) 발생. 관내 동선 및 접촉자 파악완료. 타지역 방문 및 접촉자는 증상이 없더라도 반드시 검사바랍니다.</t>
+          <t>[고양시청]10.18.(월)~20.(수) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2021/10/24 17:04:10</t>
+          <t>2021/10/25 15:41:41</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 24일 17시 기준 확진자 5명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요..</t>
+          <t>[광주광역시] 10.14(목)~10.23(토) 설화머리방(서구 죽봉대로 111번길 14, 광천동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2021/10/24 16:22:26</t>
+          <t>2021/10/25 15:32:37</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[당진시청]10/24(일)16시기준 확진자4명 발생(격리중2,조사중2).총1053명▲신규채용 등 진단검사 의무화행정명령(10/25~11/8) vo.la/68SFm</t>
+          <t>[김제시청] 10.18(월)~10.22(금)12:00~13:00 김제시 용지면 소재한 그린반점(소독완료) 방문자는 가까운 선별진료소 방문 및 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2021/10/24 16:07:36</t>
+          <t>2021/10/25 15:09:24</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[창원시청]10월19일여탕(13:50~18:40),남탕(17:00~18:40) 북면마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
+          <t>[진주시청] 25일 15시 기준 확진자 1명(무료선제검사) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2021/10/24 16:07:15</t>
+          <t>2021/10/25 14:57:15</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 양산시</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[창원시청]10월15일 여탕(17:40~19:20),남탕(17:40~19:12)북면 마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
+          <t>[양산시청]10.25.(월) 15시기준, 코로나19 확진자 6명발생(접촉자 1, 격리중 2, 격리면제 검사 3)▲코로나19 백신 당일접종 접종센터(9~15시)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2021/10/24 15:08:12</t>
+          <t>2021/10/25 14:31:31</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2611,1085 +2611,1085 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[안산시청]10월24일14시기준 확진자 61명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yU7Tmp1</t>
+          <t>[안산시청]10월25일14시기준 확진자 39명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/XeqOnC5</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2021/10/24 15:08:10</t>
+          <t>2021/10/25 14:18:04</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[진주시청] 24일 15시 기준 확진자 2명(타지역 확진자 접촉자 1명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[화성시청] 10.18.(월) 18:00~19:00 둘리칼국수(화성시 남양읍 남양시장로61) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2021/10/24 15:07:05</t>
+          <t>2021/10/25 14:04:46</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[부산시]10.15.(금)~10.23.(토) 뉴부산탕(금정구 서부로 2-1(서동)이용자는 선별검사소에서 코로나19검사 받으시기 바랍니다.</t>
+          <t>[통영시청]10.14.(목) 통영출발(16:10)→고성·마산경유→부산사상터미널도착/현대고속(경남70아1030) 탑승자는 가까운 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2021/10/24 15:02:31</t>
+          <t>2021/10/25 13:44:21</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 24일 15시 기준, 확진자 7명 발생(선행 확진자의 접촉자)▲만남,모임,행사 자제▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[안양시청]▲10.25.(월) 11:00기준 신규확진자 15명 url.kr/v4srn9 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2021/10/24 14:59:35</t>
+          <t>2021/10/25 11:47:38</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[대구광역시]단디아로마(달서구 달서대로95길 7,2층) 10/13~10/22 방문하신 분은 임시선별검사소 및 보건소(예약)에서 반드시 검사받으시기 바랍니다</t>
+          <t>[구미시청]외국인근로자 확진자 다수 발생. 외국인고용주께서는 근로자가 가까운 보건소에서 백신접종 및 진단검사를 할 수 있도록 관리에 철저를 기하여주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2021/10/24 14:52:33</t>
+          <t>2021/10/25 11:19:05</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.23. 코로나 확진자 3명(외국인3). ▲손씻기, 마스크착용 등 방역수칙 준수바랍니다. ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[김제시청] 10.25.(월)11시기준 확진자 2명발생(확진자접촉2, 동선파악중)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2021/10/24 14:21:57</t>
+          <t>2021/10/25 11:09:57</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>경상북도 안동시</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[안동시청]타지역확진자관련▲10/19(화) 09:50~10:20 콩심용상안동점(용상북1길6에이스아울렛E동1층)방문자는 선별진료소 방문하여 코로나19 검사바랍니다.</t>
+          <t>[아산시청] 10월 24일 확진자 1명(해외 입국자1) / 새로운 일상을 위한 방역의 생활화! 모두 함께 만들어 갑시다. 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2021/10/24 14:13:44</t>
+          <t>2021/10/25 11:09:15</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>전라북도 무주군</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[구례군청]10.24.(일) 확진자 1명 발생(타지역 확진자 접촉). 타지역 방문 및 타지인과의 만남을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[무주군청] 10.25.(월)11시 기준 신규 확진자 1명 발생(무주 45번, 10.24.(일) 21시 확진)/감기몸살, 기침 등 이상증상시 진단 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2021/10/24 14:02:29</t>
+          <t>2021/10/25 11:00:00</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[당진시청]②10/17(월),22(금),23(토)18:00~22:00뉴럭셔리질러존노래연습장(북문로 1길 35-10)방문자 시청 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자 8명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2021/10/24 13:58:51</t>
+          <t>2021/10/25 10:42:49</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[당진시청]①10.21(목) 17:55~18:30 CU편의점 당진원당점(수청동 983) 방문자는 15시30분까지 당진시청 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[완주군청] 10월 25일(월) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2021/10/24 13:52:25</t>
+          <t>2021/10/25 10:42:39</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[남양주시청]10.13.(수)~10.24.(일) 롯데택배물류센터(진접읍 양진로 962)근무자 및 방문자는 관할 선별진료소에서 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[포항시청] 10.19(화)~10.22(금) 대구은행 상대동지점(대도동 640-7) 대출업무관련 방문자는 가까운 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2021/10/24 13:19:52</t>
+          <t>2021/10/25 10:42:32</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[울산광역시]10.19(화)17:29~19:44▲착한갈비(중구 반구정12길 55,반구동,소독완료)방문자는 코로나 검사후 중구보건소(☎290-4300)연락바랍니다.</t>
+          <t>[금산군청] 10.25(월) 10시 기준 확진자 8명 발생(격리중 3, 신규5), 역학조사중, 감기몸살, 오한 등 증상시 선별진료소 방문 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2021/10/24 13:09:20</t>
+          <t>2021/10/25 10:00:53</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 24일 13시 기준 신규확진 2명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[수원시청] 10월 25일 0시 기준, 수원 확진자 16명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d1t0c</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2021/10/24 12:49:40</t>
+          <t>2021/10/25 09:30:14</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[화성시청] 10.18.(월)~10.21.(목) 대승철물(화성시 남양읍 남양성지로 233) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다.▲24일 도내 확진자 42명 발생</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2021/10/24 11:17:54</t>
+          <t>2021/10/25 09:17:02</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>강원도 강릉시</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.4.(월) ~ 10.22.(금) 만남카페(칠곡군 왜관읍 중앙로5길 5-1, 왜관역 부근) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[강릉시청]어제(일) 4명 확진(친구간 밀접촉4)/10.20(수)~23(토) 기간중 카페썸(가톨릭관동대 내)을 방문하신 분은 오전중 보건소에서 반드시 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2021/10/24 11:14:04</t>
+          <t>2021/10/25 09:14:30</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[금산군청] 10.24(일) 11시기준 확진자 6명(격리중 1, 신규 5) 발생, 역학조사 중 ▶ 감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다</t>
+          <t>[창원시청]10월21일(07:50~11:00), 22일(08:50~10:40) 진해스파랜드(진해대로 762,지하)이용자는 관할보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2021/10/24 11:11:44</t>
+          <t>2021/10/25 09:13:26</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.24.(일) 11:00기준 신규확진자 10명 url.kr/pctb72 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[창원시청]10월18일(09:20~11:20),19일(07:40~11:10),20일(07:50~10:50)진해스파랜드(진해대로 762)이용자관할보건소에서 검사요망</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2021/10/24 10:59:35</t>
+          <t>2021/10/25 09:01:13</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 24일(일) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[양주시청] 10월 25일 00시 기준 확진자 9명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2021/10/24 10:54:30</t>
+          <t>2021/10/25 08:53:36</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[고성군청]10.14(목)통영출발(16:00)→고성경유(16:38)→마산경유(17:35)→부산시외버스터미널도착(18:25)현대버스탑승자는 선별진료소에서검사바랍니다</t>
+          <t>[전남도청] 10.24.24시기준 확진5명(구례1,장성1,완도1,신안1 /해외1(광양))※내국인3명,외국인2명(건설1,선원1) ▲의심증상 즉시 보건소 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2021/10/24 10:33:54</t>
+          <t>2021/10/25 08:45:15</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[구미시청]10/16(토)~10/17(일) 이슬람교 구미성원 (구미중앙로31길 13, 원평동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[신안군청]10.24.24시 기준 확진자 1명(건설근로자 외국인 1명)발생 ▲외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2021/10/24 10:30:15</t>
+          <t>2021/10/25 08:25:06</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>전라남도 광양시</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[청주시청]10월 23일 확진자 17명 발생(상당구6,서원구2,흥덕구5,청원구4)▲홈페이지 참조▲이동·모임 자제▲수시 환기▲유증상 시 신속히 무료검사 바랍니다.</t>
+          <t>[광양시청] 10. 24. 24시 기준 확진자 1명 발생(해외입국자 1) 가벼운 감기증상도 의료기관 방문 전 선별진료소 무료 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2021/10/24 10:30:10</t>
+          <t>2021/10/25 08:07:08</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자17명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[남원시청]▲10.25(월) 08시 기준 확진자 1명발생(남원 170번)/역학조사 중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2021/10/24 10:20:53</t>
+          <t>2021/10/25 08:02:06</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[구미시청]10/7(목)~10/21(목) 드리사(delisha cafe)(1공단로 190 지하1층,공단동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[울산광역시]임시선별검사소▲문수경기장(평일9~20시)▲종합운동장,동구국민체육센터,농소운동장,온양체육공원(평일9~17시)입니다.(점심시간 12시~13시 미운영)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2021/10/24 10:16:16</t>
+          <t>2021/10/25 08:00:04</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>강원도 평창군</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[평창군청] 10.24일 평창군 확진자 1명(231번) 대화면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
+          <t>[제천시청]10.25(월) 08시 현재. 확진자 1명 발생(외국인). 감염경로 조사중. 추가사항은 모바일콜센터 등으로 안내드리겠습니다. 증상 발현시 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2021/10/24 10:10:06</t>
+          <t>2021/10/24 20:42:25</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>강원도 강릉시</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[완도군청]근해어선 선원 자가격리중 1명 확진(기존10, 추가1)▶입출항 연근해어선▶(행정명령)외국인 고용사업장 내·외국인 진담검사 하시기 바랍니다.</t>
+          <t>[강릉시청]10.20(수)~10.23(토) 기간 중 카페썸(가톨릭관동대 내)을 방문하신 분들은 내일 오전중으로 보건소 선별검사소에서 반드시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2021/10/24 10:00:16</t>
+          <t>2021/10/24 18:35:44</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 24일 0시 기준, 수원 확진자 48명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/p1eng</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2021/10/24 10:00:03</t>
+          <t>2021/10/24 18:11:09</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[전남도청]전일 9명 발생(√타지역접촉4√외국인근로자4√가족접촉1)▲학교기숙사 등 일상생활 복귀전▲외국인고용사업장 신규채용 근로자는 근로전 진단검사 꼭 받으세요.</t>
+          <t>[홍성군청]10월24일(일) 18시 기준 확진자 4명(홍성290~293번) 발생. 확진자 접촉 2, 자가격리중 1, 자발적 검사 1. 정밀역학조사중</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2021/10/24 09:50:27</t>
+          <t>2021/10/24 18:08:20</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>강원도 원주시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[원주시청] 10.15.또는10.20.'술파는노래방뿜빠이(장미공원길43-4,2층,단계동)' 이용자는 오늘 15시(12~13시 제외)까지 보건소 코로나 검사받으세요</t>
+          <t>[안성시청]10.24.코로나확진자4명(자발적검사2, 확진자접촉2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2021/10/24 09:46:55</t>
+          <t>2021/10/24 17:41:31</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[영암군청] 10. 23.(토) 12:40~14:00 '고향식육식당'(금정면 용두로 15) 방문자는 증상유무관계없이 즉시 선별진료소 검사바랍니다.</t>
+          <t>[남양주시청]10.24.(일) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t7m6 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2021/10/24 09:00:06</t>
+          <t>2021/10/24 17:23:07</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라남도 장성군</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 24일 00시기준 확진자 8명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[장성군청] 10. 24.(일) 확진자 1명(타지역 거주자) 발생. 관내 동선 및 접촉자 파악완료. 타지역 방문 및 접촉자는 증상이 없더라도 반드시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2021/10/24 08:56:28</t>
+          <t>2021/10/24 17:04:10</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[신안군청] 10.23. 24시 기준 확진자 3명(건설근로자 외국인 2명, 자가격리 중 1명) 발생 ▲ 외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
+          <t>[광주시청] 10월 24일 17시 기준 확진자 5명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요..</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2021/10/24 08:53:21</t>
+          <t>2021/10/24 16:22:26</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[전남도청]10.23. 24시기준 확진 9명(목포1, 곡성1, 영암3, 진도1, 신안3) ※내국인 5명, 외국인 4명(건설 4)▲의심증상시 무료 진단검사 받으세요</t>
+          <t>[당진시청]10/24(일)16시기준 확진자4명 발생(격리중2,조사중2).총1053명▲신규채용 등 진단검사 의무화행정명령(10/25~11/8) vo.la/68SFm</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2021/10/24 08:21:43</t>
+          <t>2021/10/24 16:07:36</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>[목포시청]10.23. 24시 기준 확진자 1명 (타지역방문접촉) 발생 ▲타지역 이동 자제하시고, 기침, 발열 등 의심 증상 있을 시 보건소 무료 검사받으세요.</t>
+          <t>[창원시청]10월19일여탕(13:50~18:40),남탕(17:00~18:40) 북면마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2021/10/23 18:01:25</t>
+          <t>2021/10/24 16:07:15</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[당진시청]신규채용 및 외국인근로자 등 코로나19진단검사 의무화됩니다.(10.25.~11.8.) 자세한 사항은 시홈페이지 공고 참고바랍니다. vo.la/68SFm</t>
+          <t>[창원시청]10월15일 여탕(17:40~19:20),남탕(17:40~19:12)북면 마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2021/10/23 18:00:23</t>
+          <t>2021/10/24 15:08:12</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[남양주시청]10.23.(토) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t799 증상의심시 코로나19 검사받으세요.</t>
+          <t>[안산시청]10월24일14시기준 확진자 61명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yU7Tmp1</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2021/10/23 18:00:09</t>
+          <t>2021/10/24 15:08:10</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[수원시청] 10.13.(수)~10.22.(금) 바이크마켓(팔달구 세지로 352, 1층) 방문자 중 유증상자는 가까운 보건소에서 코로나19 검사바랍니다.</t>
+          <t>[진주시청] 24일 15시 기준 확진자 2명(타지역 확진자 접촉자 1명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2021/10/23 17:14:08</t>
+          <t>2021/10/24 15:07:05</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 23일 확진자 10명 발생(타지역접촉4, 자가격리중3, 조사중3) ▲모임, 행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[부산시]10.15.(금)~10.23.(토) 뉴부산탕(금정구 서부로 2-1(서동)이용자는 선별검사소에서 코로나19검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2021/10/23 17:01:05</t>
+          <t>2021/10/24 15:02:31</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 23일 17시 기준 확진자 18명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[충주시청] 10월 24일 15시 기준, 확진자 7명 발생(선행 확진자의 접촉자)▲만남,모임,행사 자제▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2021/10/23 16:51:01</t>
+          <t>2021/10/24 14:59:35</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[진도군청]10.23(토)확진자 1명발생(진도56번)▲타지역거주 외국인근로자,접촉자 전원음성▲입출항 근해어업 선원,외국인고용사업장 내·외국인 2주1회 검사받으세요</t>
+          <t>[대구광역시]단디아로마(달서구 달서대로95길 7,2층) 10/13~10/22 방문하신 분은 임시선별검사소 및 보건소(예약)에서 반드시 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2021/10/23 16:34:08</t>
+          <t>2021/10/24 14:52:33</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[화성시청] 코로나19 선별진료소(검사소) 주말 및 공휴일 운영시간이 09시부터 13시로 조정됨을 알려드립니다.</t>
+          <t>[진천군청]▲10.23. 코로나 확진자 3명(외국인3). ▲손씻기, 마스크착용 등 방역수칙 준수바랍니다. ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2021/10/23 16:08:38</t>
+          <t>2021/10/24 14:21:57</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[당진시청]10/23(토) 16시기준 확진자17명(관내접촉2,타지역접촉2,격리중8,조사중5)발생.총1049명▲의심증상 시 외출·모임 자제 및 코로나검사 바랍니다.</t>
+          <t>[안동시청]타지역확진자관련▲10/19(화) 09:50~10:20 콩심용상안동점(용상북1길6에이스아울렛E동1층)방문자는 선별진료소 방문하여 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2021/10/23 15:31:34</t>
+          <t>2021/10/24 14:13:44</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[사천시청] 10.21.(목) 09:20~11:30 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[구례군청]10.24.(일) 확진자 1명 발생(타지역 확진자 접촉). 타지역 방문 및 타지인과의 만남을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2021/10/23 15:27:27</t>
+          <t>2021/10/24 14:02:29</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>전라남도 곡성군</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[곡성군청]금일 09시기준 확진자 1명 발생. 타지역 거주, 동선 및 접촉자 파악중, 타 지역방문 후 또는 유증상 시에 군 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[당진시청]②10/17(월),22(금),23(토)18:00~22:00뉴럭셔리질러존노래연습장(북문로 1길 35-10)방문자 시청 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2021/10/23 15:24:22</t>
+          <t>2021/10/24 13:58:51</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[음성군청]10월 23일 확진자 5명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[당진시청]①10.21(목) 17:55~18:30 CU편의점 당진원당점(수청동 983) 방문자는 15시30분까지 당진시청 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2021/10/23 14:37:19</t>
+          <t>2021/10/24 13:52:25</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>[안산시청]10월23일14시기준 확진자 77명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z9vSfk2</t>
+          <t>[남양주시청]10.13.(수)~10.24.(일) 롯데택배물류센터(진접읍 양진로 962)근무자 및 방문자는 관할 선별진료소에서 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2021/10/23 14:18:11</t>
+          <t>2021/10/24 13:19:52</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.23.(토) 13:30기준 신규확진자 33명 url.kr/qz7o2i ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[울산광역시]10.19(화)17:29~19:44▲착한갈비(중구 반구정12길 55,반구동,소독완료)방문자는 코로나 검사후 중구보건소(☎290-4300)연락바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2021/10/23 14:02:09</t>
+          <t>2021/10/24 13:09:20</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[사천시청] 10.23.(토) 14시 기준 확진자 3명(자가격리중 2명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[과천시청] 10월 24일 13시 기준 신규확진 2명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2021/10/23 14:00:25</t>
+          <t>2021/10/24 12:49:40</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>충청북도 괴산군</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[괴산군청] 10월 23일 확진자 1명(타지역 1명) 발생. 자세한 사항은 역학조사후 홈페이지 게시예정. 증상발현시 즉시 코로나19검사 받으시기 바랍니다.</t>
+          <t>[화성시청] 10.18.(월)~10.21.(목) 대승철물(화성시 남양읍 남양성지로 233) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2021/10/23 13:11:08</t>
+          <t>2021/10/24 11:17:54</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 23일 13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[칠곡군청] 10.4.(월) ~ 10.22.(금) 만남카페(칠곡군 왜관읍 중앙로5길 5-1, 왜관역 부근) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2021/10/23 12:47:56</t>
+          <t>2021/10/24 11:14:04</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[김제시청]10.23.(토) 11시 확진자 2명 발생(내국인1,외국인1)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[금산군청] 10.24(일) 11시기준 확진자 6명(격리중 1, 신규 5) 발생, 역학조사 중 ▶ 감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2021/10/23 12:32:22</t>
+          <t>2021/10/24 11:11:44</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.22 코로나 확진자 5명(내국인2, 외국인3)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[안양시청]▲10.24.(일) 11:00기준 신규확진자 10명 url.kr/pctb72 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2021/10/23 11:35:53</t>
+          <t>2021/10/24 10:59:35</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>[강화군청] 2021년 10월 16일(토) ~ 10월 22일(금)까지 강화읍 풍물시장 방문객은 가까운 선별 진료소에서 코로나 검사를 받으시길 바랍니다.</t>
+          <t>[완주군청] 10월 24일(일) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2021/10/23 11:08:06</t>
+          <t>2021/10/24 10:54:30</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 23일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[고성군청]10.14(목)통영출발(16:00)→고성경유(16:38)→마산경유(17:35)→부산시외버스터미널도착(18:25)현대버스탑승자는 선별진료소에서검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2021/10/23 11:00:04</t>
+          <t>2021/10/24 10:33:54</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인고용 100인미만 사업장 내·외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[구미시청]10/16(토)~10/17(일) 이슬람교 구미성원 (구미중앙로31길 13, 원평동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2021/10/23 10:49:46</t>
+          <t>2021/10/24 10:30:15</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>경기도 고양시</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[고양시청]10.17.(일) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[청주시청]10월 23일 확진자 17명 발생(상당구6,서원구2,흥덕구5,청원구4)▲홈페이지 참조▲이동·모임 자제▲수시 환기▲유증상 시 신속히 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2021/10/23 10:42:05</t>
+          <t>2021/10/24 10:30:10</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[강원도청] 10.22.(금) 코로나19 확진자 20명 (원주11, 춘천7, 속초1, 횡성1) ▶감기증상 시 즉시검사 실시 ▶개인 방역수칙 준수 철저 당부드림!</t>
+          <t>[용인시청]금일 0시기준 확진자17명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2021/10/23 10:37:32</t>
+          <t>2021/10/24 10:20:53</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>전라북도 부안군</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[부안군청]부안 128번 확진자 동선 관련 10.21(목) 17:15전주⇒부안 직행 시외버스 탑승자는 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[구미시청]10/7(목)~10/21(목) 드리사(delisha cafe)(1공단로 190 지하1층,공단동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2021/10/23 10:03:18</t>
+          <t>2021/10/24 10:16:16</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>강원도 평창군</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[전남도청](행정명령강화) 외국인고용사업장(건설,어업,식당 등) ▲신규취업 ▲근무지 변경시 근무전 진단검사 의무 ▲내외국인 2주1회 진단검사 받으시기 바랍니다.</t>
+          <t>[평창군청] 10.24일 평창군 확진자 1명(231번) 대화면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2021/10/23 10:01:48</t>
+          <t>2021/10/24 10:10:06</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 23일 0시 기준, 수원 확진자 29명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/2ej2k</t>
+          <t>[완도군청]근해어선 선원 자가격리중 1명 확진(기존10, 추가1)▶입출항 연근해어선▶(행정명령)외국인 고용사업장 내·외국인 진담검사 하시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2021/10/23 09:30:56</t>
+          <t>2021/10/24 10:00:16</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲22일 도내 확진자 47명 발생</t>
+          <t>[수원시청] 10월 24일 0시 기준, 수원 확진자 48명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/p1eng</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2021/10/23 09:19:58</t>
+          <t>2021/10/24 10:00:03</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 9명 [타시민2, 천안시민7] ▶ 기침, 발열 등 의심증상 발현 시 의료기관 방문 전 코로나19 검사 바랍니다.</t>
+          <t>[전남도청]전일 9명 발생(√타지역접촉4√외국인근로자4√가족접촉1)▲학교기숙사 등 일상생활 복귀전▲외국인고용사업장 신규채용 근로자는 근로전 진단검사 꼭 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2021/10/23 09:01:30</t>
+          <t>2021/10/24 09:50:27</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>강원도 원주시</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 23일 00시기준 확진자 7명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[원주시청] 10.15.또는10.20.'술파는노래방뿜빠이(장미공원길43-4,2층,단계동)' 이용자는 오늘 15시(12~13시 제외)까지 보건소 코로나 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2021/10/23 08:57:15</t>
+          <t>2021/10/24 09:46:55</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[전남도청] 10.22.24시기준 확진 5명(목포1,무안1,신안3) ※내국인2명,외국인3명(건설3)▲타지역 이동 자제하시고, 의심증상시 보건소 무료 검사받으세요.</t>
+          <t>[영암군청] 10. 23.(토) 12:40~14:00 '고향식육식당'(금정면 용두로 15) 방문자는 증상유무관계없이 즉시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2021/10/23 08:48:43</t>
+          <t>2021/10/24 09:00:06</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[남원시청]10.23(토) 08시 기준 확진자 1명 발생(남원 169번)/역학조사 중 가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[양주시청] 10월 24일 00시기준 확진자 8명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2021/10/23 08:32:15</t>
+          <t>2021/10/24 08:56:28</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3699,65 +3699,65 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[신안군청] 10.22. 24시 기준 확진자 3명(신안 50번~52번/공사현장 근무자 2명, 자가격리 1명) 발생▲인후통, 두통 등 의심 증상시 코로나19 검사</t>
+          <t>[신안군청] 10.23. 24시 기준 확진자 3명(건설근로자 외국인 2명, 자가격리 중 1명) 발생 ▲ 외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2021/10/23 08:30:55</t>
+          <t>2021/10/24 08:53:21</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>[목포시청] 10.22. 24시 기준 확진자 1명 (자가격리중 외국인1) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[전남도청]10.23. 24시기준 확진 9명(목포1, 곡성1, 영암3, 진도1, 신안3) ※내국인 5명, 외국인 4명(건설 4)▲의심증상시 무료 진단검사 받으세요</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2021/10/23 08:00:05</t>
+          <t>2021/10/24 08:21:43</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>[울산광역시]이번 주말(10.23~10.24) 임시선별검사소는 종합운동장, 문수경기장 2개소에서 09시~17시까지 운영합니다.(점심시간 12시~13시 미운영)</t>
+          <t>[목포시청]10.23. 24시 기준 확진자 1명 (타지역방문접촉) 발생 ▲타지역 이동 자제하시고, 기침, 발열 등 의심 증상 있을 시 보건소 무료 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2021/10/22 19:26:24</t>
+          <t>2021/10/23 18:01:25</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>경상남도 김해시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[김해시청] 10.16 15:51 하삼동커피외동점(내외중앙로27)에 방문하여 현금결제 후 매장에서 취식하신 회색외투에 단발머리 여성분은 코로나 검사하시기바랍니다</t>
+          <t>[당진시청]신규채용 및 외국인근로자 등 코로나19진단검사 의무화됩니다.(10.25.~11.8.) 자세한 사항은 시홈페이지 공고 참고바랍니다. vo.la/68SFm</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2021/10/22 18:06:14</t>
+          <t>2021/10/23 18:00:23</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3767,31 +3767,31 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[남양주시청]10.22.(금) 코로나19 확진자 30명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t6tl 증상의심시 코로나19검사 받으세요.</t>
+          <t>[남양주시청]10.23.(토) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t799 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2021/10/22 18:05:51</t>
+          <t>2021/10/23 18:00:09</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[무안군청]10.22(금)18시 기준 확진자 1명 발생(타지역 거주 공사현장 외국인근로자)▲외국인 고용사업장 종사자 2주1회 진단검사▲미등록 외국인 예방접종 가능</t>
+          <t>[수원시청] 10.13.(수)~10.22.(금) 바이크마켓(팔달구 세지로 352, 1층) 방문자 중 유증상자는 가까운 보건소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2021/10/22 17:55:08</t>
+          <t>2021/10/23 17:14:08</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3801,116 +3801,116 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 22일 확진자 8명 발생(자가격리중7, 조사중1) ▲만남, 모임, 각종행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[충주시청] 10월 23일 확진자 10명 발생(타지역접촉4, 자가격리중3, 조사중3) ▲모임, 행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2021/10/22 17:22:22</t>
+          <t>2021/10/23 17:01:05</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>서울특별시 구로구</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[구로구청]10.12(화)~10.17(일) 기간 내 구로동로25길 7, 지하1층 일번지노래연습장 방문자는 가까운 선별진료소에서 코로나 검사를 받아주시기 바랍니다.</t>
+          <t>[광주시청] 10월 23일 17시 기준 확진자 18명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2021/10/22 17:18:54</t>
+          <t>2021/10/23 16:51:01</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[창원시청] 10.17.(일) 07:50~09:03 창원북면황토방온천 여탕(의창구 북면 천주로1170번길 17-10) 이용자 관할보건소에서 예약 후 검사바랍니다.</t>
+          <t>[진도군청]10.23(토)확진자 1명발생(진도56번)▲타지역거주 외국인근로자,접촉자 전원음성▲입출항 근해어업 선원,외국인고용사업장 내·외국인 2주1회 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2021/10/22 17:07:22</t>
+          <t>2021/10/23 16:34:08</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[논산시청] 10월22일 확진자 2명(내국인2/관내1,타지역1) 발생 ▶타지역 이동·방문 후 가까운 선별진료소에서 PCR검사 당부드립니다.</t>
+          <t>[화성시청] 코로나19 선별진료소(검사소) 주말 및 공휴일 운영시간이 09시부터 13시로 조정됨을 알려드립니다.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2021/10/22 17:07:06</t>
+          <t>2021/10/23 16:08:38</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 22일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[당진시청]10/23(토) 16시기준 확진자17명(관내접촉2,타지역접촉2,격리중8,조사중5)발생.총1049명▲의심증상 시 외출·모임 자제 및 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2021/10/22 16:59:42</t>
+          <t>2021/10/23 15:31:34</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[과천시청] 10월22일17시 기준 신규확진 3명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[사천시청] 10.21.(목) 09:20~11:30 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2021/10/22 16:40:39</t>
+          <t>2021/10/23 15:27:27</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 곡성군</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[창원시청]▲10.18~10.19 13:00~13:40▲10.20 12:20~12:40 테크노밸리식당매점(의창구소계로12,복지동605)식사하신분 코로나검사바랍니다</t>
+          <t>[곡성군청]금일 09시기준 확진자 1명 발생. 타지역 거주, 동선 및 접촉자 파악중, 타 지역방문 후 또는 유증상 시에 군 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2021/10/22 15:27:14</t>
+          <t>2021/10/23 15:24:22</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3920,14 +3920,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>[음성군청]10월22일 확진자 23명(내국인2,외국인21)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[음성군청]10월 23일 확진자 5명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2021/10/22 15:21:32</t>
+          <t>2021/10/23 14:37:19</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3937,1680 +3937,1680 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>[안산시청]10월22일14시기준 확진자 45명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Zc7Ow36</t>
+          <t>[안산시청]10월23일14시기준 확진자 77명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z9vSfk2</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2021/10/22 15:15:28</t>
+          <t>2021/10/23 14:18:11</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.21 확진자 8명(내국인3,외국인5)▲10.22(16:00~20:00)덕산행정복지센터,이월행정복지센터 외국인 집중 코로나 PCR 전수검사 실시</t>
+          <t>[안양시청]▲10.23.(토) 13:30기준 신규확진자 33명 url.kr/qz7o2i ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2021/10/22 14:44:06</t>
+          <t>2021/10/23 14:02:09</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>[대구광역시]알힉마논공이슬람센터(논공읍 논공로 15길 20-6) 10/15 이후 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[사천시청] 10.23.(토) 14시 기준 확진자 3명(자가격리중 2명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2021/10/22 13:57:27</t>
+          <t>2021/10/23 14:00:25</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 괴산군</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[창원시청] 10.11(월)~10.21(목) 문영일이비인후과의원(의창구 팔용로 428,방역완료) 방문자는 반드시 코로나검사바랍니다(10.19이후 검사완료자 제외)</t>
+          <t>[괴산군청] 10월 23일 확진자 1명(타지역 1명) 발생. 자세한 사항은 역학조사후 홈페이지 게시예정. 증상발현시 즉시 코로나19검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2021/10/22 13:52:41</t>
+          <t>2021/10/23 13:11:08</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[금산군청]10월19일 송림백작소, 새마을저온창고 / 10월20일 현대백작소 / 10월21일 송림백작소에서 일하신 분들은 코로나19 검사를 받아주시기 바랍니다.</t>
+          <t>[과천시청] 10월 23일 13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2021/10/22 13:49:58</t>
+          <t>2021/10/23 12:47:56</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[무안군청]10.20.(수)11:47~12:00, 10.21.(목)12:07~12:18삼삼한식뷔페(현경면 성재길55)방문자는 선별진료소 검사바랍니다.▲방역소독완료</t>
+          <t>[김제시청]10.23.(토) 11시 확진자 2명 발생(내국인1,외국인1)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2021/10/22 11:31:26</t>
+          <t>2021/10/23 12:32:22</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>[전남도청] 외국인확진자 지속확산 ▲전일확진자 15명 중 외국인근로자 10명(√어업3√건설7)▲외국인고용사업장 신규취업 내·외국인 근무전 검사 의무적으로 받으세요</t>
+          <t>[진천군청]▲10.22 코로나 확진자 5명(내국인2, 외국인3)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2021/10/22 11:00:54</t>
+          <t>2021/10/23 11:35:53</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>[나주시청] 10.22. 09시기준. 확진자1명(격리 1)발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
+          <t>[강화군청] 2021년 10월 16일(토) ~ 10월 22일(금)까지 강화읍 풍물시장 방문객은 가까운 선별 진료소에서 코로나 검사를 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2021/10/22 10:59:58</t>
+          <t>2021/10/23 11:08:06</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자20명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[완주군청] 10월 23일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2021/10/22 10:55:31</t>
+          <t>2021/10/23 11:00:04</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[대구광역시]오렌지PC방(대명복개로138-2) 9/30,10/2~4,6,9,10,18 방문하신 분은 임시선별 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인고용 100인미만 사업장 내·외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2021/10/22 10:23:20</t>
+          <t>2021/10/23 10:49:46</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 고양시</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>[창원시청] 10.17(일) 창원북면황토방온천(북면 천주로1170번길 17-10) 아침7시 입장, 6천원 현금결제 여탕 이용자는 창원보건소에 연락 후 검사바랍니다</t>
+          <t>[고양시청]10.17.(일) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2021/10/22 10:05:40</t>
+          <t>2021/10/23 10:42:05</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 22일(금) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[강원도청] 10.22.(금) 코로나19 확진자 20명 (원주11, 춘천7, 속초1, 횡성1) ▶감기증상 시 즉시검사 실시 ▶개인 방역수칙 준수 철저 당부드림!</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2021/10/22 10:04:41</t>
+          <t>2021/10/23 10:37:32</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>전라북도 부안군</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>[전주시청]10.22(금) 현재기준 1명 발생(전일 2명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
+          <t>[부안군청]부안 128번 확진자 동선 관련 10.21(목) 17:15전주⇒부안 직행 시외버스 탑승자는 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2021/10/22 10:01:35</t>
+          <t>2021/10/23 10:03:18</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>[금산군청] 10.22(금) 10시 기준 확진자 2명(신규 2) 발생, 역학조사 중 ▶감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다.</t>
+          <t>[전남도청](행정명령강화) 외국인고용사업장(건설,어업,식당 등) ▲신규취업 ▲근무지 변경시 근무전 진단검사 의무 ▲내외국인 2주1회 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2021/10/22 10:00:55</t>
+          <t>2021/10/23 10:01:48</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>경상북도 영주시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>[영주시청] 10.8(금)~10.16(토) 풍기 로그인PC방 이용하신분은 코로나검사 받으시기 바랍니다. 선별진료소 운영(풍기읍사무소10-17시, 보건소18시까지)</t>
+          <t>[수원시청] 10월 23일 0시 기준, 수원 확진자 29명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/2ej2k</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2021/10/22 10:00:53</t>
+          <t>2021/10/23 09:30:56</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 22일 0시 기준, 수원 확진자 38명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/6soyk</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲22일 도내 확진자 47명 발생</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2021/10/22 09:07:08</t>
+          <t>2021/10/23 09:19:58</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 22일 00시기준 확진자 14명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[천안시청] 확진자 9명 [타시민2, 천안시민7] ▶ 기침, 발열 등 의심증상 발현 시 의료기관 방문 전 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2021/10/22 08:57:55</t>
+          <t>2021/10/23 09:01:30</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>[완도군청] 10.21.(목)18:00 기준 확진자 1명 발생(근해어선 외국인 선원)▲입·출항 연근해어선▲외국인 고용사업장 모두 선별진료소에서 코로나 검사요망.</t>
+          <t>[양주시청] 10월 23일 00시기준 확진자 7명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2021/10/22 08:31:41</t>
+          <t>2021/10/23 08:57:15</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>[목포시청]10.21. 24시 기준 확진자 1명 발생(타지역접촉외국인1) ▲집단감염 예방 위해 타지역 방문·접촉자 검사▲나와 내 가족을 위해 백신접종 참여바랍니다</t>
+          <t>[전남도청] 10.22.24시기준 확진 5명(목포1,무안1,신안3) ※내국인2명,외국인3명(건설3)▲타지역 이동 자제하시고, 의심증상시 보건소 무료 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2021/10/22 08:19:45</t>
+          <t>2021/10/23 08:48:43</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>전라남도 광양시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>[광양시청]21. 10. 21.(목) 24시 기준 확진자 2명 발생(격리중1, 타지역 확진자 접촉 1) 가벼운 감기증상도 즉시 보건소 선별진료소 무료 검사받으세요</t>
+          <t>[남원시청]10.23(토) 08시 기준 확진자 1명 발생(남원 169번)/역학조사 중 가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2021/10/22 08:15:40</t>
+          <t>2021/10/23 08:32:15</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>전라남도 순천시</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[순천시청] 10.21.(목) 24시 기준 확진자 1명 발생(타지역 거주자) √기침, 인후통 등 가벼운 감기 증상이라도 반드시 보건소에서 검사바랍니다.</t>
+          <t>[신안군청] 10.22. 24시 기준 확진자 3명(신안 50번~52번/공사현장 근무자 2명, 자가격리 1명) 발생▲인후통, 두통 등 의심 증상시 코로나19 검사</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2021/10/22 08:13:59</t>
+          <t>2021/10/23 08:30:55</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>[여수시청]10.21.24:00 기준 총1명 발생(자가격리 해제검사)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[목포시청] 10.22. 24시 기준 확진자 1명 (자가격리중 외국인1) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2021/10/22 08:10:02</t>
+          <t>2021/10/23 08:00:05</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>[영암군청] 롯데슈퍼 영암삼호점(삼호읍 대불주거로 55-1)을 10. 21.(목) 11:35~12:00에 방문하신 분은 가까운 선변진료소에서 검사받으시기 바랍니다</t>
+          <t>[울산광역시]이번 주말(10.23~10.24) 임시선별검사소는 종합운동장, 문수경기장 2개소에서 09시~17시까지 운영합니다.(점심시간 12시~13시 미운영)</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2021/10/22 08:09:40</t>
+          <t>2021/10/22 19:26:24</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 김해시</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[창원시청] ▲만남의광장 임시선별검사소 오늘(10.22.)부터 미운영 ▲보건소, 마산역, 창원종합버스터미널 검사소 정상운영</t>
+          <t>[김해시청] 10.16 15:51 하삼동커피외동점(내외중앙로27)에 방문하여 현금결제 후 매장에서 취식하신 회색외투에 단발머리 여성분은 코로나 검사하시기바랍니다</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2021/10/22 08:08:11</t>
+          <t>2021/10/22 18:06:14</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/22(금) 08시 기준 전일 3명 확진자발생(656~658) ▲격리중2,조사중1 ▲발열,기침 등 의심증상 발현 시 검사 받으시기 바랍니다.</t>
+          <t>[남양주시청]10.22.(금) 코로나19 확진자 30명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t6tl 증상의심시 코로나19검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2021/10/22 08:00:19</t>
+          <t>2021/10/22 18:05:51</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>[신안군청] 10.21. 24시 기준 확진자 5명(신안 45번~49번/공사현장 근로 외국인 5명) 발생 ▲미등록 외국인 여권으로 예방접종 예약가능▲유증상시 검사</t>
+          <t>[무안군청]10.22(금)18시 기준 확진자 1명 발생(타지역 거주 공사현장 외국인근로자)▲외국인 고용사업장 종사자 2주1회 진단검사▲미등록 외국인 예방접종 가능</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2021/10/21 19:02:39</t>
+          <t>2021/10/22 17:55:08</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>[중대본] 10.11~10.20 서울 관악구 신림로67길5 3층 '휴테라피' 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.(☎120,1339)</t>
+          <t>[충주시청] 10월 22일 확진자 8명 발생(자가격리중7, 조사중1) ▲만남, 모임, 각종행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2021/10/21 18:11:33</t>
+          <t>2021/10/22 17:22:22</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>서울특별시 구로구</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>[남양주시청]10.21.(목) 코로나19 확진자 39명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t5nh 증상의심시 코로나19검사 받으세요.</t>
+          <t>[구로구청]10.12(화)~10.17(일) 기간 내 구로동로25길 7, 지하1층 일번지노래연습장 방문자는 가까운 선별진료소에서 코로나 검사를 받아주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2021/10/21 18:00:04</t>
+          <t>2021/10/22 17:18:54</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>[안성시청]10.21. 코로나19 확진자 4명(확진자접촉3, 자발적검사1) 발생역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[창원시청] 10.17.(일) 07:50~09:03 창원북면황토방온천 여탕(의창구 북면 천주로1170번길 17-10) 이용자 관할보건소에서 예약 후 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2021/10/21 17:41:51</t>
+          <t>2021/10/22 17:07:22</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 21일 17시 기준 확진자 8명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[논산시청] 10월22일 확진자 2명(내국인2/관내1,타지역1) 발생 ▶타지역 이동·방문 후 가까운 선별진료소에서 PCR검사 당부드립니다.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2021/10/21 17:41:08</t>
+          <t>2021/10/22 17:07:06</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>[강북구청]10.18.(월), 20.(수) 세종기원(도봉로67길40) 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
+          <t>[광주시청] 10월 22일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2021/10/21 17:22:52</t>
+          <t>2021/10/22 16:59:42</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[남양주시청]10.14.(목)~10.17.(일) 쓰리팝PC카페(평내로29번길 49, 2층, 평내동) 방문자는 가까운 거주지 보건소에서 코로나19검사를 받으세요.</t>
+          <t>[과천시청] 10월22일17시 기준 신규확진 3명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2021/10/21 17:20:39</t>
+          <t>2021/10/22 16:40:39</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 21일 확진자 7명 발생(자가격리중) ▲만남,모임,각종행사 자제 ▲거리두기 준수▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[창원시청]▲10.18~10.19 13:00~13:40▲10.20 12:20~12:40 테크노밸리식당매점(의창구소계로12,복지동605)식사하신분 코로나검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2021/10/21 16:41:57</t>
+          <t>2021/10/22 15:27:14</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[창원시청] 10.11.(월)~10.21.(목) 문영일이비인후과의원(의창구 팔용로 428 드림피아, 방역완료) 방문자는 반드시 코로나검사를 받으시기 바랍니다.</t>
+          <t>[음성군청]10월22일 확진자 23명(내국인2,외국인21)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2021/10/21 16:31:47</t>
+          <t>2021/10/22 15:21:32</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[완도군청] 완도읍 이동검사소 운영 안내▶10월 22일(금) 10:00~12:00 1부두 요트계류장▶모든 선박 선원과 외국인 근로자는 반드시 코로나 검사 요망.</t>
+          <t>[안산시청]10월22일14시기준 확진자 45명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Zc7Ow36</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2021/10/21 15:44:40</t>
+          <t>2021/10/22 15:15:28</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[대구광역시] 10월 중 평리광명네거리에서 농촌인력 중개차량 탑승하여 대구·경북지역 밭일 다녀오신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으십시오.</t>
+          <t>[진천군청]▲10.21 확진자 8명(내국인3,외국인5)▲10.22(16:00~20:00)덕산행정복지센터,이월행정복지센터 외국인 집중 코로나 PCR 전수검사 실시</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2021/10/21 15:26:35</t>
+          <t>2021/10/22 14:44:06</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>[남원시청]타지역 확진자 관련 10.14.(목) 12:02~24, 10.15.(금) 12:45~13:08 남문정식(남문로 464-14) 방문자는 검사 받으세요.</t>
+          <t>[대구광역시]알힉마논공이슬람센터(논공읍 논공로 15길 20-6) 10/15 이후 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2021/10/21 15:15:25</t>
+          <t>2021/10/22 13:57:27</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.17(일) 위더스웨딩홀(서구 죽봉대로 153, 광천동) 3층 펠리체홀 14:30분 예식 관련하여 방문하신 분은 거주지 보건소에서 검사 바랍니다</t>
+          <t>[창원시청] 10.11(월)~10.21(목) 문영일이비인후과의원(의창구 팔용로 428,방역완료) 방문자는 반드시 코로나검사바랍니다(10.19이후 검사완료자 제외)</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2021/10/21 15:00:22</t>
+          <t>2021/10/22 13:52:41</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>[음성군청]10월 21일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[금산군청]10월19일 송림백작소, 새마을저온창고 / 10월20일 현대백작소 / 10월21일 송림백작소에서 일하신 분들은 코로나19 검사를 받아주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2021/10/21 14:31:26</t>
+          <t>2021/10/22 13:49:58</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>[안산시청]10월21일14시기준 확진자 43명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222543777600</t>
+          <t>[무안군청]10.20.(수)11:47~12:00, 10.21.(목)12:07~12:18삼삼한식뷔페(현경면 성재길55)방문자는 선별진료소 검사바랍니다.▲방역소독완료</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2021/10/21 14:08:23</t>
+          <t>2021/10/22 11:31:26</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[나주시청] 10. 21. 9시기준 확진자 4명(격리 4) 발생. 외국인 백신접종 시급. 여권 지참 후 보건소 방문 접수. 코로나 증상 발현 시 검사 필수.</t>
+          <t>[전남도청] 외국인확진자 지속확산 ▲전일확진자 15명 중 외국인근로자 10명(√어업3√건설7)▲외국인고용사업장 신규취업 내·외국인 근무전 검사 의무적으로 받으세요</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2021/10/21 13:44:03</t>
+          <t>2021/10/22 11:00:54</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>[진천군청]▲10. 21.(목) 16:00~20:00 덕산읍행정복지센터, 이월면행정복지센터 외국인 집중 코로나 PCR 전수검사 실시</t>
+          <t>[나주시청] 10.22. 09시기준. 확진자1명(격리 1)발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2021/10/21 13:06:19</t>
+          <t>2021/10/22 10:59:58</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>[무안군청] 10.14.(목) 10:10~11:00 무안전통시장(무안읍 승달로 11)방문자는 인근 보건소 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자20명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2021/10/21 12:47:26</t>
+          <t>2021/10/22 10:55:31</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.16(토) 18시~22시 상무어시장(음식점, 서구 시청로60번길 20, 치평동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[대구광역시]오렌지PC방(대명복개로138-2) 9/30,10/2~4,6,9,10,18 방문하신 분은 임시선별 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2021/10/21 11:58:13</t>
+          <t>2021/10/22 10:23:20</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>경상남도 하동군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>[하동군청]10.14(목), 12:30하동출발-12:40전도경유-13:40진주도착 5769 버스탑승자 중 전도~진주구간 탑승하신분은 코로나검사 받으시기 바랍니다.</t>
+          <t>[창원시청] 10.17(일) 창원북면황토방온천(북면 천주로1170번길 17-10) 아침7시 입장, 6천원 현금결제 여탕 이용자는 창원보건소에 연락 후 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2021/10/21 11:42:40</t>
+          <t>2021/10/22 10:05:40</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>[남원시청]타지역 확진자 관련/14.(목)12:02~12:24, 15.(금)12:45~13:08 남문정식(남원시 남문로 464-14) 방문자는 검사받기 바랍니다.</t>
+          <t>[완주군청] 10월 22일(금) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2021/10/21 11:21:11</t>
+          <t>2021/10/22 10:04:41</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.20 코로나 확진자 7명(내국인2, 외국인5). ▲10.21(16:00~20:00) 이월보건지소, 덕산보건지소에서 코로나 검사실시.</t>
+          <t>[전주시청]10.22(금) 현재기준 1명 발생(전일 2명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2021/10/21 11:15:45</t>
+          <t>2021/10/22 10:01:35</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.21.(목) 11:00기준 신규확진자 15명 url.kr/b9twdn ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[금산군청] 10.22(금) 10시 기준 확진자 2명(신규 2) 발생, 역학조사 중 ▶감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2021/10/21 11:00:05</t>
+          <t>2021/10/22 10:00:55</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상북도 영주시</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[영주시청] 10.8(금)~10.16(토) 풍기 로그인PC방 이용하신분은 코로나검사 받으시기 바랍니다. 선별진료소 운영(풍기읍사무소10-17시, 보건소18시까지)</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2021/10/21 10:32:10</t>
+          <t>2021/10/22 10:00:53</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>[청주시청]10월 20일 확진자 27명 발생(상당구3,서원구9,흥덕구8,청원구6,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
+          <t>[수원시청] 10월 22일 0시 기준, 수원 확진자 38명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/6soyk</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2021/10/21 10:31:48</t>
+          <t>2021/10/22 09:07:08</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>[강원도청] 10.20.(수) 도내 코로나19 확진 31명(원주16 춘천10 속초2 횡성2 영월1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부!!</t>
+          <t>[양주시청] 10월 22일 00시기준 확진자 14명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2021/10/21 10:14:05</t>
+          <t>2021/10/22 08:57:55</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 21일(목) 0시 기준 확진자 2명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[완도군청] 10.21.(목)18:00 기준 확진자 1명 발생(근해어선 외국인 선원)▲입·출항 연근해어선▲외국인 고용사업장 모두 선별진료소에서 코로나 검사요망.</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2021/10/21 10:08:20</t>
+          <t>2021/10/22 08:31:41</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[금산군청] 10.21(목) 10시 기준 확진자 1명(신규 1) 발생, 역학조사 중 ▶감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다.</t>
+          <t>[목포시청]10.21. 24시 기준 확진자 1명 발생(타지역접촉외국인1) ▲집단감염 예방 위해 타지역 방문·접촉자 검사▲나와 내 가족을 위해 백신접종 참여바랍니다</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2021/10/21 10:06:26</t>
+          <t>2021/10/22 08:19:45</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라남도 광양시</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[완도군청]외국인근로자 감염확산▶완도읍 외국인근로자 사업주께서는 이번주 모든 근로자가 진단검사할 수 있도록 협조 당부 드림▶다음주 전체 읍·면 외국인전수조사 예정</t>
+          <t>[광양시청]21. 10. 21.(목) 24시 기준 확진자 2명 발생(격리중1, 타지역 확진자 접촉 1) 가벼운 감기증상도 즉시 보건소 선별진료소 무료 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2021/10/21 10:02:04</t>
+          <t>2021/10/22 08:15:40</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.17(일) 광장시장(음식점, 북구 안산로 40, 오치동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[순천시청] 10.21.(목) 24시 기준 확진자 1명 발생(타지역 거주자) √기침, 인후통 등 가벼운 감기 증상이라도 반드시 보건소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2021/10/21 10:00:44</t>
+          <t>2021/10/22 08:13:59</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>[전주시청]10.21(목) 현재기준 2명 발생(전일 1명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
+          <t>[여수시청]10.21.24:00 기준 총1명 발생(자가격리 해제검사)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2021/10/21 10:00:31</t>
+          <t>2021/10/22 08:10:02</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 21일 0시 기준, 수원 확진자 21명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/9ns0h</t>
+          <t>[영암군청] 롯데슈퍼 영암삼호점(삼호읍 대불주거로 55-1)을 10. 21.(목) 11:35~12:00에 방문하신 분은 가까운 선변진료소에서 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2021/10/21 09:55:11</t>
+          <t>2021/10/22 08:09:40</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>[완도군청]외국인확진자 동선▶10/16(토)완도읍 베트남쌀국수15:30~18:40, PHUONG가라오케(워커힐모텔 지하)19:00~22:00동시간대 방문자검사요망</t>
+          <t>[창원시청] ▲만남의광장 임시선별검사소 오늘(10.22.)부터 미운영 ▲보건소, 마산역, 창원종합버스터미널 검사소 정상운영</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2021/10/21 09:51:58</t>
+          <t>2021/10/22 08:08:11</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>경상남도 창녕군</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>[창녕군청]10.21(목) 확진자2명 발생(창녕342~343/타지역접촉2)▷개인간 모임 자제▷방역수칙 준수 ▷유증상시 코로나검사 받으시기 바랍니다.</t>
+          <t>[군산시청] ▲10/22(금) 08시 기준 전일 3명 확진자발생(656~658) ▲격리중2,조사중1 ▲발열,기침 등 의심증상 발현 시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2021/10/21 09:33:48</t>
+          <t>2021/10/22 08:00:19</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>인천광역시 남동구</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>[남동구청] 10/14, 10/16~18 간석2동 리얼pc카페(간석동194-3) 방문자는 증상유무 관계없이 거주지 보건소에서 코로나19 검사 바랍니다.</t>
+          <t>[신안군청] 10.21. 24시 기준 확진자 5명(신안 45번~49번/공사현장 근로 외국인 5명) 발생 ▲미등록 외국인 여권으로 예방접종 예약가능▲유증상시 검사</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2021/10/21 09:08:12</t>
+          <t>2021/10/21 19:02:39</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 12명 [타시민5, 천안시민7] ▶ 가벼운 감기증상이 있을 시 백신접종 여부 관계없이 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[중대본] 10.11~10.20 서울 관악구 신림로67길5 3층 '휴테라피' 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2021/10/21 09:02:41</t>
+          <t>2021/10/21 18:11:33</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 21일 00시기준 확진자 16명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[남양주시청]10.21.(목) 코로나19 확진자 39명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t5nh 증상의심시 코로나19검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2021/10/21 08:50:46</t>
+          <t>2021/10/21 18:00:04</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 보성군,전라남도 순천시,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>[전남도청] 10.20. 24시기준 확진 12명(여수1,나주4,구례2,화순1,무안2,완도1,신안1)▲확진자가 많은 타지역 방문·접촉 자제, 증상의심시 검사받으세요</t>
+          <t>[안성시청]10.21. 코로나19 확진자 4명(확진자접촉3, 자발적검사1) 발생역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2021/10/21 08:26:51</t>
+          <t>2021/10/21 17:41:51</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>[무안군청] 10.21.(목) 8시 기준 확진자 2명 발생(타지역 확진자 접촉) ▲ 타지역 방문·접촉 시 증상 없어도 반드시 보건소 선별진료소에서 검사바랍니다.</t>
+          <t>[광주시청] 10월 21일 17시 기준 확진자 8명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2021/10/21 08:18:49</t>
+          <t>2021/10/21 17:41:08</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[여수시청]10.20.24:00 기준 총1명 발생(자가격리중)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[강북구청]10.18.(월), 20.(수) 세종기원(도봉로67길40) 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2021/10/21 08:06:39</t>
+          <t>2021/10/21 17:22:52</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/21(목) 08시 기준 전일5명 확진자 발생(651~655) ▲확진자접촉2,격리중2,조사중1 ▲의심증상 발현 시 코로나 검사받으시기 바랍니다.</t>
+          <t>[남양주시청]10.14.(목)~10.17.(일) 쓰리팝PC카페(평내로29번길 49, 2층, 평내동) 방문자는 가까운 거주지 보건소에서 코로나19검사를 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2021/10/20 21:06:38</t>
+          <t>2021/10/21 17:20:39</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>경상남도 의령군</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>[의령군청] 10. 18.(월) 21:00 마산에서 출발하는 의령도착 버스 탑승객은 코로나19 검사대상으로 의령군보건소(055-570-4900)로 연락 바랍니다.</t>
+          <t>[충주시청] 10월 21일 확진자 7명 발생(자가격리중) ▲만남,모임,각종행사 자제 ▲거리두기 준수▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2021/10/20 20:37:28</t>
+          <t>2021/10/21 16:41:57</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>[완도군청]10.20.(수) 20시 기준 완도읍 확진자 1명 발생(동선파악 및 역학조사 진행중)▶기침·인후통 등 의심증상 시 즉시 코로나 검사 받으세요.</t>
+          <t>[창원시청] 10.11.(월)~10.21.(목) 문영일이비인후과의원(의창구 팔용로 428 드림피아, 방역완료) 방문자는 반드시 코로나검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2021/10/20 20:10:31</t>
+          <t>2021/10/21 16:31:47</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>[구례군청]10.20(수)확진자 2명발생(격리자1, 격리자가족1), 격리자 접촉은 확진으로 이어집니다. 자가격리 철저 및 증상발생 시 선별진료소에서 검사바랍니다.</t>
+          <t>[완도군청] 완도읍 이동검사소 운영 안내▶10월 22일(금) 10:00~12:00 1부두 요트계류장▶모든 선박 선원과 외국인 근로자는 반드시 코로나 검사 요망.</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2021/10/20 18:28:41</t>
+          <t>2021/10/21 15:44:40</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>[부산시]10.11.(월)08:00~10.18.(월)17:40 퍼하우양음식점(서구 충무대로 217-1,충무동)방문한분 코로나19검사받으시기바랍니다.(소독완료)</t>
+          <t>[대구광역시] 10월 중 평리광명네거리에서 농촌인력 중개차량 탑승하여 대구·경북지역 밭일 다녀오신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으십시오.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2021/10/20 18:09:46</t>
+          <t>2021/10/21 15:26:35</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>[남양주시청]10.20.(수) 코로나19 확진자 27명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t4f5 증상의심시 코로나19검사 받으세요.</t>
+          <t>[남원시청]타지역 확진자 관련 10.14.(목) 12:02~24, 10.15.(금) 12:45~13:08 남문정식(남문로 464-14) 방문자는 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2021/10/20 18:01:18</t>
+          <t>2021/10/21 15:15:25</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[당진시청]10/20(수) 16시기준 확진자 9명 발생(관내접촉6,격리중2,조사중1). 총1006명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
+          <t>[광주광역시] 10.17(일) 위더스웨딩홀(서구 죽봉대로 153, 광천동) 3층 펠리체홀 14:30분 예식 관련하여 방문하신 분은 거주지 보건소에서 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2021/10/20 17:27:19</t>
+          <t>2021/10/21 15:00:22</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 20일 확진자 6명 발생(선행 확진자 접촉4, 타지역거주자1, 자가격리중1)▲만남,모임 자제▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[음성군청]10월 21일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2021/10/20 17:02:06</t>
+          <t>2021/10/21 14:31:26</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 20일 17시 기준 확진자 14명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[안산시청]10월21일14시기준 확진자 43명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222543777600</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2021/10/20 17:00:24</t>
+          <t>2021/10/21 14:08:23</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>[과천시청] 10월20일17시 기준 신규확진 6명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[나주시청] 10. 21. 9시기준 확진자 4명(격리 4) 발생. 외국인 백신접종 시급. 여권 지참 후 보건소 방문 접수. 코로나 증상 발현 시 검사 필수.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2021/10/20 17:00:12</t>
+          <t>2021/10/21 13:44:03</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>충청북도 영동군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>[영동군청] 10. 20.(수) 확진자 1명 발생. 자가격리 중 확진으로 이동 동선 없습니다. 타지역 방문 자제하시고, 유증상시 선별진료소에서 검사 바랍니다.</t>
+          <t>[진천군청]▲10. 21.(목) 16:00~20:00 덕산읍행정복지센터, 이월면행정복지센터 외국인 집중 코로나 PCR 전수검사 실시</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2021/10/20 16:53:59</t>
+          <t>2021/10/21 13:06:19</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>[완도군청]타지역 확진자 동선안내▶10/11(월) 완도읍 농협하나로마트 16:02~16:33 동시간대 방문자는 보건의료원에서 진단검사 하시기 바랍니다.</t>
+          <t>[무안군청] 10.14.(목) 10:10~11:00 무안전통시장(무안읍 승달로 11)방문자는 인근 보건소 선별진료소에서 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2021/10/20 15:21:16</t>
+          <t>2021/10/21 12:47:26</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>[당진시청]3일동안(10/18~)학교 관련 코로나19확진 34명발생 ▲증상 의심되면 선별진료소 검사하기 ▲학교·학원내 마스크착용 등 반드시 방역수칙 준수바랍니다</t>
+          <t>[광주광역시] 10.16(토) 18시~22시 상무어시장(음식점, 서구 시청로60번길 20, 치평동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2021/10/20 15:13:48</t>
+          <t>2021/10/21 11:58:13</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>경기도 양평군</t>
+          <t>경상남도 하동군</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>[양평군청] 10.15.(금)~10.19.(화) 대유밥상(강상면) 방문자는 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[하동군청]10.14(목), 12:30하동출발-12:40전도경유-13:40진주도착 5769 버스탑승자 중 전도~진주구간 탑승하신분은 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2021/10/20 15:01:43</t>
+          <t>2021/10/21 11:42:40</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>[전남도청](행정명령)▲입출항 연근해어선 진단검사(√입항당일 √출항 72시간전) ▲외국인고용(√건설√어업√기업√식당)사업장 내·외국인 2주 1회 진단검사받으세요.</t>
+          <t>[남원시청]타지역 확진자 관련/14.(목)12:02~12:24, 15.(금)12:45~13:08 남문정식(남원시 남문로 464-14) 방문자는 검사받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2021/10/20 14:33:03</t>
+          <t>2021/10/21 11:21:11</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>[안산시청]10월20일14시기준 확진자 41명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222542724043</t>
+          <t>[진천군청]▲10.20 코로나 확진자 7명(내국인2, 외국인5). ▲10.21(16:00~20:00) 이월보건지소, 덕산보건지소에서 코로나 검사실시.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2021/10/20 14:04:31</t>
+          <t>2021/10/21 11:15:45</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>[음성군청]10월20일 확진자15명(내국인2, 외국인13)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[안양시청]▲10.21.(목) 11:00기준 신규확진자 15명 url.kr/b9twdn ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2021/10/20 13:48:58</t>
+          <t>2021/10/21 11:00:05</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>[대구광역시] ITCHY(잇치)(남구 명덕로128, 지하1층) 10/15~19 방문하신 분은 임시선별 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2021/10/20 13:00:16</t>
+          <t>2021/10/21 10:32:10</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/15(금)~10/18(월) MJ포켓당구클럽(수송6길 3)이용자는(자가격리자, 19일 검사자 제외) 보건소 선별검사(09시~18시)바랍니다.</t>
+          <t>[청주시청]10월 20일 확진자 27명 발생(상당구3,서원구9,흥덕구8,청원구6,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2021/10/20 11:02:33</t>
+          <t>2021/10/21 10:31:48</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.19 코로나 확진자 2명(내국인1, 외국인1)▲발열,기침 등 증상발현시 주소지 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[강원도청] 10.20.(수) 도내 코로나19 확진 31명(원주16 춘천10 속초2 횡성2 영월1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부!!</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2021/10/20 11:01:29</t>
+          <t>2021/10/21 10:14:05</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>[전주시청]10.20(수) 현재기준 전일 4명 발생 / 의심증상시 선별진료소 즉시 검사 / 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
+          <t>[완주군청] 10월 21일(목) 0시 기준 확진자 2명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2021/10/20 10:59:57</t>
+          <t>2021/10/21 10:08:20</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자16명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[금산군청] 10.21(목) 10시 기준 확진자 1명(신규 1) 발생, 역학조사 중 ▶감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2021/10/20 10:35:24</t>
+          <t>2021/10/21 10:06:26</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 20일(수) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[완도군청]외국인근로자 감염확산▶완도읍 외국인근로자 사업주께서는 이번주 모든 근로자가 진단검사할 수 있도록 협조 당부 드림▶다음주 전체 읍·면 외국인전수조사 예정</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2021/10/20 10:28:35</t>
+          <t>2021/10/21 10:02:04</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>[청주시청]10월19일 확진자 34명 발생(상당구8,서원구8,흥덕구13,청원구4,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
+          <t>[광주광역시] 10.17(일) 광장시장(음식점, 북구 안산로 40, 오치동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2021/10/20 10:26:00</t>
+          <t>2021/10/21 10:00:44</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>[영암군청] 타지역 확진자 관련 10. 16.(토) 13:30~14:30 '커피향기'(영암읍 기찬랜드로 16) 방문자는 증상 관계없이 선별진료소에서 검사바랍니다.</t>
+          <t>[전주시청]10.21(목) 현재기준 2명 발생(전일 1명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2021/10/20 10:11:38</t>
+          <t>2021/10/21 10:00:31</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>[영암군청] 타지역 확진자 동선관련 10. 15.(금) 18:30~19:40 '독천낙지마당'(학산면 영산로 15) 방문자는 증상 관계없이 선별진료소 검사바랍니다.</t>
+          <t>[수원시청] 10월 21일 0시 기준, 수원 확진자 21명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/9ns0h</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2021/10/20 10:06:56</t>
+          <t>2021/10/21 09:55:11</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 20일 0시 기준, 수원 확진자 51명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d43dg</t>
+          <t>[완도군청]외국인확진자 동선▶10/16(토)완도읍 베트남쌀국수15:30~18:40, PHUONG가라오케(워커힐모텔 지하)19:00~22:00동시간대 방문자검사요망</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2021/10/20 09:56:16</t>
+          <t>2021/10/21 09:51:58</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>[구미시청]10/10(일)~10/14(목) 육회포차요(구미시 신비로 9-1, 신평동) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[창녕군청]10.21(목) 확진자2명 발생(창녕342~343/타지역접촉2)▷개인간 모임 자제▷방역수칙 준수 ▷유증상시 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2021/10/20 09:30:14</t>
+          <t>2021/10/21 09:33:48</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>인천광역시 남동구</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲19일 도내 확진자 69명 발생</t>
+          <t>[남동구청] 10/14, 10/16~18 간석2동 리얼pc카페(간석동194-3) 방문자는 증상유무 관계없이 거주지 보건소에서 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2021/10/20 09:29:36</t>
+          <t>2021/10/21 09:08:12</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>[창원시청] 10.18.(월) 12:00~12:30 배숙희할매죽집(마산합포구 합포로 25,방역완료)에서 식사하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[천안시청] 확진자 12명 [타시민5, 천안시민7] ▶ 가벼운 감기증상이 있을 시 백신접종 여부 관계없이 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2021/10/20 09:19:16</t>
+          <t>2021/10/21 09:02:41</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19. 확진자 14명 발생 ▲의창5,합포1,진해3,타지역1,격리중4 △선별검사소-창원만남의광장,마산역,창원종합버스터미널,3개보건소</t>
+          <t>[양주시청] 10월 21일 00시기준 확진자 16명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2021/10/20 09:11:22</t>
+          <t>2021/10/21 08:50:46</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 보성군,전라남도 순천시,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 20일 00시기준 확진자 31명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[전남도청] 10.20. 24시기준 확진 12명(여수1,나주4,구례2,화순1,무안2,완도1,신안1)▲확진자가 많은 타지역 방문·접촉 자제, 증상의심시 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2021/10/20 08:54:28</t>
+          <t>2021/10/21 08:26:51</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>[목포시청] 10.19. 24시 기준, 확진자 3명(자가격리중1,외국인1,타지역거주1)발생▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
+          <t>[무안군청] 10.21.(목) 8시 기준 확진자 2명 발생(타지역 확진자 접촉) ▲ 타지역 방문·접촉 시 증상 없어도 반드시 보건소 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2021/10/20 08:44:01</t>
+          <t>2021/10/21 08:18:49</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>[완도군청]근해어선 선원 격리중 추가확진 1명 발생 ▶가벼운 감기증상 있을시 백신접종 여부 상관없이 가까운 선별진료소에서 검사 하시기 바랍니다.</t>
+          <t>[여수시청]10.20.24:00 기준 총1명 발생(자가격리중)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2021/10/20 08:05:47</t>
+          <t>2021/10/21 08:06:39</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5620,1187 +5620,1187 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/20(수) 08시 기준 전일 2명 확진자 발생(649~650) ▲확진자접촉1,격리중1 ▲발열,기침 등 의심증상 발현 시 검사받으시기 바랍니다.</t>
+          <t>[군산시청] ▲10/21(목) 08시 기준 전일5명 확진자 발생(651~655) ▲확진자접촉2,격리중2,조사중1 ▲의심증상 발현 시 코로나 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2021/10/19 20:42:15</t>
+          <t>2021/10/20 21:06:38</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>경상남도 김해시</t>
+          <t>경상남도 의령군</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>[김해시청] 10.13 09:00~18:00 10.15~17 09:00~18:00 역전PC게임랜드(가락로 7번길 4)에 방문하신 분은 코로나 검사하시기바랍니다.</t>
+          <t>[의령군청] 10. 18.(월) 21:00 마산에서 출발하는 의령도착 버스 탑승객은 코로나19 검사대상으로 의령군보건소(055-570-4900)로 연락 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2021/10/19 20:12:14</t>
+          <t>2021/10/20 20:37:28</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>경상남도 김해시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>[김해시청] 10.11(월) 밀양돼지국밥(인제로 91)에 09:19 입장하여 식사 후 09:53에 결제하고 퇴장하신 남녀 일행 두 분은 코로나 검사하시기바랍니다</t>
+          <t>[완도군청]10.20.(수) 20시 기준 완도읍 확진자 1명 발생(동선파악 및 역학조사 진행중)▶기침·인후통 등 의심증상 시 즉시 코로나 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2021/10/19 18:37:46</t>
+          <t>2021/10/20 20:10:31</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>[홍성군청]10월19일(화) 18시 기준 확진자 9명(홍성266~274번) 발생. 확진자 접촉 7명, 자발적 검사 2명. 정밀역학조사중</t>
+          <t>[구례군청]10.20(수)확진자 2명발생(격리자1, 격리자가족1), 격리자 접촉은 확진으로 이어집니다. 자가격리 철저 및 증상발생 시 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2021/10/19 18:23:03</t>
+          <t>2021/10/20 18:28:41</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>[당진시청]③10월16일 9시~11시, 17일 9시~12시 송악스포츠문화센터(송악읍 틀모시로830)수영장 이용자는 당진시청 선별진료소 방문 후 코로나검사바랍니다.</t>
+          <t>[부산시]10.11.(월)08:00~10.18.(월)17:40 퍼하우양음식점(서구 충무대로 217-1,충무동)방문한분 코로나19검사받으시기바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2021/10/19 18:22:35</t>
+          <t>2021/10/20 18:09:46</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>[당진시청]②10월16일 10:30~11:30 뚝심식당(당진시 무수동2길 25-34) 방문자는 당진시청 선별진료소 방문 후 검사바랍니다.</t>
+          <t>[남양주시청]10.20.(수) 코로나19 확진자 27명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t4f5 증상의심시 코로나19검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2021/10/19 18:13:19</t>
+          <t>2021/10/20 18:01:18</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>[남양주시청]10.19.(화) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t32l 증상의심시 코로나19검사 받으세요.</t>
+          <t>[당진시청]10/20(수) 16시기준 확진자 9명 발생(관내접촉6,격리중2,조사중1). 총1006명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2021/10/19 18:08:48</t>
+          <t>2021/10/20 17:27:19</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>경기도 성남시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>[성남시청] 10.15.(금)~10.18.(월) 분당구 체리빌사우나 (구미동 187-1)에 방문한 분은 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[충주시청] 10월 20일 확진자 6명 발생(선행 확진자 접촉4, 타지역거주자1, 자가격리중1)▲만남,모임 자제▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2021/10/19 18:00:00</t>
+          <t>2021/10/20 17:02:06</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>[안성시청]10.19. 코로나19 확진자7명(동반입소4,자가격리1,자발적검사2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[광주시청] 10월 20일 17시 기준 확진자 14명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2021/10/19 17:57:47</t>
+          <t>2021/10/20 17:00:24</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>[무안군청] 10.19.(화) 18시 기준 확진자 1명발생(타지역 거주, 관내 동선 및 역학조사완료) ▲발열·기침 등 의심증상 발현 시 선별진료소 검사 바랍니다.</t>
+          <t>[과천시청] 10월20일17시 기준 신규확진 6명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2021/10/19 17:26:28</t>
+          <t>2021/10/20 17:00:12</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>충청북도 영동군</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>[화성시청] 10.14.(목)~10.18.(월) 남양농협 본점(남양읍 남양성지로 107) 방문자 중 유증상자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[영동군청] 10. 20.(수) 확진자 1명 발생. 자가격리 중 확진으로 이동 동선 없습니다. 타지역 방문 자제하시고, 유증상시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2021/10/19 17:24:09</t>
+          <t>2021/10/20 16:53:59</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>[충주시청] 10월19일 확진자19명 발생[확진자 접촉(선행15,타지역1),타지역거주2,자가격리1]▲만남,모임 자제▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[완도군청]타지역 확진자 동선안내▶10/11(월) 완도읍 농협하나로마트 16:02~16:33 동시간대 방문자는 보건의료원에서 진단검사 하시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2021/10/19 17:01:34</t>
+          <t>2021/10/20 15:21:16</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 19일 17시 기준 확진자 22명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[당진시청]3일동안(10/18~)학교 관련 코로나19확진 34명발생 ▲증상 의심되면 선별진료소 검사하기 ▲학교·학원내 마스크착용 등 반드시 방역수칙 준수바랍니다</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2021/10/19 17:01:08</t>
+          <t>2021/10/20 15:13:48</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경기도 양평군</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 19일 17시 기준 신규확진 5명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[양평군청] 10.15.(금)~10.19.(화) 대유밥상(강상면) 방문자는 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2021/10/19 16:54:46</t>
+          <t>2021/10/20 15:01:43</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>[구례군청]10.19.(화) 1명 발생(격리중). 접촉자 및 이동동선 없음. 자가격리 철저히 준수 바라며, 코로나 증상 발현시 선별진료소에서 검사하시기 바랍니다.</t>
+          <t>[전남도청](행정명령)▲입출항 연근해어선 진단검사(√입항당일 √출항 72시간전) ▲외국인고용(√건설√어업√기업√식당)사업장 내·외국인 2주 1회 진단검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2021/10/19 16:44:14</t>
+          <t>2021/10/20 14:33:03</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>[당진시청]10/19(화) 16시기준 확진자 14명 발생(관내접촉6,타지역접촉3,조사중4,격리중1). 총997명 ▲유증상 검사 시 가족동반검사 권고 드립니다.</t>
+          <t>[안산시청]10월20일14시기준 확진자 41명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222542724043</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2021/10/19 16:40:23</t>
+          <t>2021/10/20 14:04:31</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>[울산광역시]10.15. 05:00~12:00▲동심초라이브(간판-soi울산, 남구 왕생로46번길6,2층,유흥주점,소독완료)방문자는 남구보건소에서 코로나검사바랍니다</t>
+          <t>[음성군청]10월20일 확진자15명(내국인2, 외국인13)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2021/10/19 16:22:18</t>
+          <t>2021/10/20 13:48:58</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>제주특별자치도 전체</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>[제주도]제주시 일도1동소재 프랜즈 단란주점(10.12~10.16 18시~22시)방문자는 보건소상담 및 검사당부 covid19.jeju.go.kr/info.jsp</t>
+          <t>[대구광역시] ITCHY(잇치)(남구 명덕로128, 지하1층) 10/15~19 방문하신 분은 임시선별 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2021/10/19 16:20:28</t>
+          <t>2021/10/20 13:00:16</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>경상북도 예천군</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>[예천군청] 10. 19.(화) 16시 기준 코로나19 확진자 2명 발생 / ▶타지역 방문자 및 검사 희망자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[군산시청] ▲10/15(금)~10/18(월) MJ포켓당구클럽(수송6길 3)이용자는(자가격리자, 19일 검사자 제외) 보건소 선별검사(09시~18시)바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2021/10/19 15:54:00</t>
+          <t>2021/10/20 11:02:33</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>[고성군청]대가돌솥밥(대가면 소재, 방역완료)10.18.(월)12:26~13:04 방문자는 거주지 가까운 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[진천군청]▲10.19 코로나 확진자 2명(내국인1, 외국인1)▲발열,기침 등 증상발현시 주소지 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2021/10/19 15:32:24</t>
+          <t>2021/10/20 11:01:29</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>[진주시청] 19일 15시 기준 확진자 2명(자가격리중 1명, 무료선제검사 1명) 발생. ▲진주시행복지원금(진주시민 1인당 10만원) 사용기한 10월 31일까지</t>
+          <t>[전주시청]10.20(수) 현재기준 전일 4명 발생 / 의심증상시 선별진료소 즉시 검사 / 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2021/10/19 15:11:59</t>
+          <t>2021/10/20 10:59:57</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.11(월)~10.17(일) 광주60자1379 택시(소나타, 흰색)에 탑승하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
+          <t>[용인시청]금일 0시기준 확진자16명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2021/10/19 15:01:08</t>
+          <t>2021/10/20 10:35:24</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>충청북도 증평군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>[증평군청] 10월 19일 14시 기준 확진자 1명 발생(선제검사). 타지역 방문자제 및 방역수칙을 준수하여 주시고, 자세한 사항은 홈페이지를 참조바랍니다.</t>
+          <t>[완주군청] 10월 20일(수) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2021/10/19 14:32:43</t>
+          <t>2021/10/20 10:28:35</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>[안산시청]10월19일14시기준 확진자 40명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222541645043</t>
+          <t>[청주시청]10월19일 확진자 34명 발생(상당구8,서원구8,흥덕구13,청원구4,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2021/10/19 14:14:55</t>
+          <t>2021/10/20 10:26:00</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.19 코로나 확진자 3명(내국인2,외국인1)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 주소지관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[영암군청] 타지역 확진자 관련 10. 16.(토) 13:30~14:30 '커피향기'(영암읍 기찬랜드로 16) 방문자는 증상 관계없이 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2021/10/19 14:10:51</t>
+          <t>2021/10/20 10:11:38</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>[대구광역시] 시드니(유흥주점)(달서구 상화북로 191, 지하1층) 10/12~15 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
+          <t>[영암군청] 타지역 확진자 동선관련 10. 15.(금) 18:30~19:40 '독천낙지마당'(학산면 영산로 15) 방문자는 증상 관계없이 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2021/10/19 14:04:55</t>
+          <t>2021/10/20 10:06:56</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>[음성군청] 10월19일 확진자 9명(외국인)발생▲동선, 접촉자 조사 중▲타지역 방문,모임,지인초정 자제▲유증상 시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[수원시청] 10월 20일 0시 기준, 수원 확진자 51명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d43dg</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2021/10/19 14:00:51</t>
+          <t>2021/10/20 09:56:16</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>[사천시청]10.19.(화) 14시 기준 확진자 2명(자가격리중 1명, 조사중 1명) 발생 ▲의심증상 시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[구미시청]10/10(일)~10/14(목) 육회포차요(구미시 신비로 9-1, 신평동) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2021/10/19 13:19:38</t>
+          <t>2021/10/20 09:30:14</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>충청북도 단양군</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>[단양군청] 10.10.(일) ~ 10.18.(월) '카페 인 단양'(별곡리) 이용자는 선별진료소에서 검사(운영시간 09:00~15:00) 받으시기 바랍니다.</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲19일 도내 확진자 69명 발생</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2021/10/19 11:42:52</t>
+          <t>2021/10/20 09:29:36</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>경상북도 영주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>[영주시청]10.19(화)확진자51명 발생▲풍기·봉현 소재 초·중·고·대학교 학생 및 동거가족께서는 선별검사 바랍니다.▲풍기읍사무소(17:00까지) 임시선별진료소</t>
+          <t>[창원시청] 10.18.(월) 12:00~12:30 배숙희할매죽집(마산합포구 합포로 25,방역완료)에서 식사하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2021/10/19 11:12:28</t>
+          <t>2021/10/20 09:19:16</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>경상남도 거창군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>[거창군청]10/15(금) ①09:10출발(거창→대구서부) ②10:24출발(거창→대구서부) 버스탑승자는 보건소 선별진료소에서 검사바랍니다. 055-940-8335</t>
+          <t>[창원시청] 10.19. 확진자 14명 발생 ▲의창5,합포1,진해3,타지역1,격리중4 △선별검사소-창원만남의광장,마산역,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2021/10/19 10:59:58</t>
+          <t>2021/10/20 09:11:22</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자30명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[양주시청] 10월 20일 00시기준 확진자 31명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2021/10/19 10:29:24</t>
+          <t>2021/10/20 08:54:28</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>[청주시청]10월18일 확진자 14명 발생(상당구3,서원구4,흥덕구1,청원구5,타지역1)▲홈페이지 참조▲이동·모임 자제▲수시환기▲유증상 시 무료검사 바랍니다.</t>
+          <t>[목포시청] 10.19. 24시 기준, 확진자 3명(자가격리중1,외국인1,타지역거주1)발생▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2021/10/19 10:12:04</t>
+          <t>2021/10/20 08:44:01</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.13(수)~10.18(월) 광주60자2576 택시(K5, 진회색)에 탑승하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
+          <t>[완도군청]근해어선 선원 격리중 추가확진 1명 발생 ▶가벼운 감기증상 있을시 백신접종 여부 상관없이 가까운 선별진료소에서 검사 하시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2021/10/19 10:10:35</t>
+          <t>2021/10/20 08:05:47</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>[광주광역시]10.15(금)18시~20시 수유리우동집 지식산업센터점(북구 첨단과기로208번길 43-10, 오룡동)에 방문하신 분은 거주지 보건소에서 검사 바랍니다</t>
+          <t>[군산시청] ▲10/20(수) 08시 기준 전일 2명 확진자 발생(649~650) ▲확진자접촉1,격리중1 ▲발열,기침 등 의심증상 발현 시 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2021/10/19 10:01:41</t>
+          <t>2021/10/19 20:42:15</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경상남도 김해시</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>[전주시청]10.19(화) 현재기준 2명 발생(전일 5명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
+          <t>[김해시청] 10.13 09:00~18:00 10.15~17 09:00~18:00 역전PC게임랜드(가락로 7번길 4)에 방문하신 분은 코로나 검사하시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2021/10/19 10:00:11</t>
+          <t>2021/10/19 20:12:14</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경상남도 김해시</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 19일 0시 기준, 수원 확진자 34명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사 바랍니다. me2.kr/wjxrc</t>
+          <t>[김해시청] 10.11(월) 밀양돼지국밥(인제로 91)에 09:19 입장하여 식사 후 09:53에 결제하고 퇴장하신 남녀 일행 두 분은 코로나 검사하시기바랍니다</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2021/10/19 09:52:43</t>
+          <t>2021/10/19 18:37:46</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 19일(화) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[홍성군청]10월19일(화) 18시 기준 확진자 9명(홍성266~274번) 발생. 확진자 접촉 7명, 자발적 검사 2명. 정밀역학조사중</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2021/10/19 09:17:41</t>
+          <t>2021/10/19 18:23:03</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>[창원시청] 10.18. 확진자 5명 발생 ▲의창1,성산1,회원1,진해1,타지역1 △선별검사소-창원만남의광장,마산역,창원종합버스터미널,3개보건소</t>
+          <t>[당진시청]③10월16일 9시~11시, 17일 9시~12시 송악스포츠문화센터(송악읍 틀모시로830)수영장 이용자는 당진시청 선별진료소 방문 후 코로나검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2021/10/19 09:05:40</t>
+          <t>2021/10/19 18:22:35</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 19일 00시기준 확진자 1명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[당진시청]②10월16일 10:30~11:30 뚝심식당(당진시 무수동2길 25-34) 방문자는 당진시청 선별진료소 방문 후 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2021/10/19 08:32:05</t>
+          <t>2021/10/19 18:13:19</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>[남원시청] ▲10.19.(화) 전일 확진자 1명 발생(남원168번)/자가격리 중 확진▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사받으시기 바랍니다.</t>
+          <t>[남양주시청]10.19.(화) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t32l 증상의심시 코로나19검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2021/10/19 08:10:10</t>
+          <t>2021/10/19 18:08:48</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경기도 성남시</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>[목포시청] 10.18(월) 24시기준, 확진자 2명(외국인 자가격리중2)발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[성남시청] 10.15.(금)~10.18.(월) 분당구 체리빌사우나 (구미동 187-1)에 방문한 분은 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2021/10/19 08:03:14</t>
+          <t>2021/10/19 18:00:00</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/19(화) 08시 기준 전일 6명 확진자발생(643~648) ▲확진자접촉4,격리중2 ▲발열,기침 등 의심증상 발현 시 검사받으시기 바랍니다.</t>
+          <t>[안성시청]10.19. 코로나19 확진자7명(동반입소4,자가격리1,자발적검사2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2021/10/18 20:36:51</t>
+          <t>2021/10/19 17:57:47</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>[부산시]10.11.(월) 해운온천(해운대구 달맞이길 8(중동))에서 11:40∼13:30에 남탕 이용하신 분은 인근 보건소에 방문하여 검사바랍니다.</t>
+          <t>[무안군청] 10.19.(화) 18시 기준 확진자 1명발생(타지역 거주, 관내 동선 및 역학조사완료) ▲발열·기침 등 의심증상 발현 시 선별진료소 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2021/10/18 18:32:57</t>
+          <t>2021/10/19 17:26:28</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
+          <t>[화성시청] 10.14.(목)~10.18.(월) 남양농협 본점(남양읍 남양성지로 107) 방문자 중 유증상자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2021/10/18 18:05:12</t>
+          <t>2021/10/19 17:24:09</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>전라남도 해남군</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>[해남군청] 확진자 2명 발생 ▶ 확진자 접촉으로 수동감시(예방접종 완료) 중 확진 ▶ 백신접종완료자라도 가벼운 감기 증상있을시 진단검사 바랍니다</t>
+          <t>[충주시청] 10월19일 확진자19명 발생[확진자 접촉(선행15,타지역1),타지역거주2,자가격리1]▲만남,모임 자제▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2021/10/18 18:00:11</t>
+          <t>2021/10/19 17:01:34</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>[무안군청]10.18(월)18시 기준 확진자 1명 발생(감염경로 조사중)▲기침·인후통 등 의심증상 시 즉시 코로나 검사받기▲타지역방문 자제▲생활 속 방역수칙 준수</t>
+          <t>[광주시청] 10월 19일 17시 기준 확진자 22명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2021/10/18 17:33:35</t>
+          <t>2021/10/19 17:01:08</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>[충주시청] 10월18일 확진자 17명 발생[확진자 접촉(선행14,타지역1),자가격리중1,조사중1]▲만남,모임 자제▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[과천시청] 10월 19일 17시 기준 신규확진 5명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2021/10/18 17:28:47</t>
+          <t>2021/10/19 16:54:46</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 18일 17시 기준 확진자 15명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[구례군청]10.19.(화) 1명 발생(격리중). 접촉자 및 이동동선 없음. 자가격리 철저히 준수 바라며, 코로나 증상 발현시 선별진료소에서 검사하시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2021/10/18 17:24:10</t>
+          <t>2021/10/19 16:44:14</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>[남양주시청]10.18.(월) 코로나19 확진자 15명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t1vb 증상의심시 코로나19검사 받으세요.</t>
+          <t>[당진시청]10/19(화) 16시기준 확진자 14명 발생(관내접촉6,타지역접촉3,조사중4,격리중1). 총997명 ▲유증상 검사 시 가족동반검사 권고 드립니다.</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2021/10/18 17:19:35</t>
+          <t>2021/10/19 16:40:23</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>전라남도 장흥군</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>[장흥군청] 자가격리 중 확진자 1명 발생 ▶이동동선 및 접촉자 없음 ▶타지역 방문 및 외지인 접촉 자제 ▶유증상시 접종유무와 상관없이 선별진료소 검사바랍니다.</t>
+          <t>[울산광역시]10.15. 05:00~12:00▲동심초라이브(간판-soi울산, 남구 왕생로46번길6,2층,유흥주점,소독완료)방문자는 남구보건소에서 코로나검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2021/10/18 17:00:02</t>
+          <t>2021/10/19 16:22:18</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>제주특별자치도 전체</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>[중대본] 10.3~10.17 서울 종로구 종로 266 동대문종합시장 종사자 및 방문자는 보건소에서 코로나19 검사를 받으시기 바랍니다(☎120,1339)</t>
+          <t>[제주도]제주시 일도1동소재 프랜즈 단란주점(10.12~10.16 18시~22시)방문자는 보건소상담 및 검사당부 covid19.jeju.go.kr/info.jsp</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2021/10/18 16:59:25</t>
+          <t>2021/10/19 16:20:28</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경상북도 예천군</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>[과천시청]10월18일 17시 기준 신규확진 3명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
+          <t>[예천군청] 10. 19.(화) 16시 기준 코로나19 확진자 2명 발생 / ▶타지역 방문자 및 검사 희망자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2021/10/18 16:27:06</t>
+          <t>2021/10/19 15:54:00</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>[음성군청]10월18일 확진자 3명(내국인1,외국인2)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[고성군청]대가돌솥밥(대가면 소재, 방역완료)10.18.(월)12:26~13:04 방문자는 거주지 가까운 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2021/10/18 16:10:47</t>
+          <t>2021/10/19 15:32:24</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>전라남도 함평군</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>[함평군청] 확진자 관련 10.12.(화) 12:30~13:30 함평읍 만복식당 방문자는 보건소나 황소주차장에서 코로나 검사 받으시기 바랍니다.(시설 소독완료)</t>
+          <t>[진주시청] 19일 15시 기준 확진자 2명(자가격리중 1명, 무료선제검사 1명) 발생. ▲진주시행복지원금(진주시민 1인당 10만원) 사용기한 10월 31일까지</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2021/10/18 16:10:30</t>
+          <t>2021/10/19 15:11:59</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>[당진시청]10/18(월) 16시기준 확진자19명(관내접촉15,타지역접촉1,조사중3)발생.총983명 ▲의심증상 시 검사 후 등교, 하교 후 즉시 귀가 요청드립니다</t>
+          <t>[광주광역시] 10.11(월)~10.17(일) 광주60자1379 택시(소나타, 흰색)에 탑승하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2021/10/18 15:40:30</t>
+          <t>2021/10/19 15:01:08</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>충청북도 증평군</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>[완도군청]근해어선 외국인선원 확진자 8명 발생▶현재 해상에서 복귀 중▶타지역 근로자 채용시 업무 시작 전 반드시 코로나19 검사▶외국인 2주 1회 진단검사 요망</t>
+          <t>[증평군청] 10월 19일 14시 기준 확진자 1명 발생(선제검사). 타지역 방문자제 및 방역수칙을 준수하여 주시고, 자세한 사항은 홈페이지를 참조바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2021/10/18 15:36:02</t>
+          <t>2021/10/19 14:32:43</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>경상북도 영주시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>[영주시청]임시선별진료소 검사대상 알림 ▶기간:10.18.(월)~10.19.(화),10시~17시 ▶장소:풍기읍사무소 ▶대상:확진자의 밀접접촉자, 유증상자 등</t>
+          <t>[안산시청]10월19일14시기준 확진자 40명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222541645043</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2021/10/18 15:21:13</t>
+          <t>2021/10/19 14:14:55</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>경기도 성남시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>[성남시청] 10.9(토)~10.16(토) 일광자원(수진동 35) 방문자는 가까운 선별진료소에서 코로나 진단검사를 받으시기 바랍니다.</t>
+          <t>[진천군청]▲10.19 코로나 확진자 3명(내국인2,외국인1)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 주소지관할 보건소에서 코로나 무료검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2021/10/18 15:14:57</t>
+          <t>2021/10/19 14:10:51</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>서울특별시 동작구</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>[동작구청] 10.11(월)~10.16(토) 대우부동산(동작대로29길110(202호),사당2동)에 방문하신분은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
+          <t>[대구광역시] 시드니(유흥주점)(달서구 상화북로 191, 지하1층) 10/12~15 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2021/10/18 15:02:05</t>
+          <t>2021/10/19 14:04:55</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>[의정부시] 10.15.(금) 요기분식(장곡로322번길20) 방문자 중 유증상자는 선별진료소에서 코로나19검사를 받으시기 바랍니다.☎031-870-6011~4</t>
+          <t>[음성군청] 10월19일 확진자 9명(외국인)발생▲동선, 접촉자 조사 중▲타지역 방문,모임,지인초정 자제▲유증상 시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2021/10/18 15:00:58</t>
+          <t>2021/10/19 14:00:51</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>전라남도 담양군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>[담양군청]10월13일 8시10분 강남고속버스터미널 출발→11:40 담양버스터미널 도착 버스 탑승자는 관할보건소에서 검사받기 바랍니다.</t>
+          <t>[사천시청]10.19.(화) 14시 기준 확진자 2명(자가격리중 1명, 조사중 1명) 발생 ▲의심증상 시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2021/10/18 14:31:57</t>
+          <t>2021/10/19 13:19:38</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청북도 단양군</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>[안산시청]10월18일14시기준 확진자 31명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222540357214</t>
+          <t>[단양군청] 10.10.(일) ~ 10.18.(월) '카페 인 단양'(별곡리) 이용자는 선별진료소에서 검사(운영시간 09:00~15:00) 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2021/10/18 14:00:06</t>
+          <t>2021/10/19 11:42:52</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상북도 영주시</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>[사천시청] 10.18.(월) 14시 기준 확진자 1명(자가격리중 1명)▲관내 동선 없음▲의심증상시 진단검사, 백신접종 참여합시다.</t>
+          <t>[영주시청]10.19(화)확진자51명 발생▲풍기·봉현 소재 초·중·고·대학교 학생 및 동거가족께서는 선별검사 바랍니다.▲풍기읍사무소(17:00까지) 임시선별진료소</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2021/10/18 11:54:38</t>
+          <t>2021/10/19 11:12:28</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경상남도 거창군</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.18 10시 기준 코로나 확진자 9명 발생▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 주소지 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[거창군청]10/15(금) ①09:10출발(거창→대구서부) ②10:24출발(거창→대구서부) 버스탑승자는 보건소 선별진료소에서 검사바랍니다. 055-940-8335</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2021/10/18 11:29:44</t>
+          <t>2021/10/19 10:59:58</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>전라북도 정읍시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>[정읍시청] 10.12(화)~10.17(일) 09:00~21:00, 정골산닭(상동,소독완료) 방문자는 보건소 선별진료소에서 검사바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자30명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2021/10/18 11:15:33</t>
+          <t>2021/10/19 10:29:24</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>[대구광역시] NU(앤유)PC방 삼덕점(중구 공평로 31, 2층) 10/9~17 방문하신 분은 임시선별검사소 및 보건소(예약)에서 반드시 검사 받으시기 바랍니다.</t>
+          <t>[청주시청]10월18일 확진자 14명 발생(상당구3,서원구4,흥덕구1,청원구5,타지역1)▲홈페이지 참조▲이동·모임 자제▲수시환기▲유증상 시 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2021/10/18 11:00:01</t>
+          <t>2021/10/19 10:12:04</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자22명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[광주광역시] 10.13(수)~10.18(월) 광주60자2576 택시(K5, 진회색)에 탑승하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2021/10/18 10:26:36</t>
+          <t>2021/10/19 10:10:35</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>[청주시청]10월17일 확진자 13명 발생(상당구2,서원구3,흥덕구3,청원구3,타지역2)▲홈페이지 참조▲이동·모임 최대한 자제▲유증상시 신속히 무료검사 바랍니다.</t>
+          <t>[광주광역시]10.15(금)18시~20시 수유리우동집 지식산업센터점(북구 첨단과기로208번길 43-10, 오룡동)에 방문하신 분은 거주지 보건소에서 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2021/10/18 10:08:48</t>
+          <t>2021/10/19 10:01:41</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>[강원도청] 10.17.(일) 도내 코로나19 확진 8명(춘천3,강릉1,속초1,삼척1,철원1,고성1)▶감기증상 시 즉시검사 실시▶개인 방역수칙 준수 철저 당부드림</t>
+          <t>[전주시청]10.19(화) 현재기준 2명 발생(전일 5명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2021/10/18 10:00:28</t>
+          <t>2021/10/19 10:00:11</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6810,82 +6810,82 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 18일 0시 기준, 수원 확진자 35명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/eq6po</t>
+          <t>[수원시청] 10월 19일 0시 기준, 수원 확진자 34명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사 바랍니다. me2.kr/wjxrc</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2021/10/18 09:59:53</t>
+          <t>2021/10/19 09:52:43</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>[세종시청]10.18. 0시 기준 전일 2명 발생(누적1,333명)/거리두기 3단계 2주연장(10.18~31)▲수시 환기, 마스크 착용▲유증상시 신속검사</t>
+          <t>[완주군청] 10월 19일(화) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2021/10/18 09:30:50</t>
+          <t>2021/10/19 09:17:41</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲17일 도내 확진자 29명 발생</t>
+          <t>[창원시청] 10.18. 확진자 5명 발생 ▲의창1,성산1,회원1,진해1,타지역1 △선별검사소-창원만남의광장,마산역,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2021/10/18 09:22:08</t>
+          <t>2021/10/19 09:05:40</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>[창원시청] 10.17. 확진자 6명 발생 ▲성산1,회원1,타지역3,격리중1 △선별검사소-창원만남의광장,마산역,창원종합버스터미널,3개보건소</t>
+          <t>[양주시청] 10월 19일 00시기준 확진자 1명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2021/10/18 09:03:01</t>
+          <t>2021/10/19 08:32:05</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 18일 00시기준 확진자 1명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[남원시청] ▲10.19.(화) 전일 확진자 1명 발생(남원168번)/자가격리 중 확진▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2021/10/18 08:53:46</t>
+          <t>2021/10/19 08:10:10</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6895,483 +6895,415 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>[목포시청]10. 17(일) 24시 기준, 확진자 3명(유증상자2, 격리중1) 발생 ▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
+          <t>[목포시청] 10.18(월) 24시기준, 확진자 2명(외국인 자가격리중2)발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2021/10/18 08:30:01</t>
+          <t>2021/10/19 08:03:14</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>충청북도 영동군</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>[영동군청] 10. 18.(월) 확진자 4명 발생. 이동 동선 및 접촉자 파악 중 입니다. 타 지역 방문 자제 및 유증상 시 선별진료소에서 검사바랍니다.</t>
+          <t>[군산시청] ▲10/19(화) 08시 기준 전일 6명 확진자발생(643~648) ▲확진자접촉4,격리중2 ▲발열,기침 등 의심증상 발현 시 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2021/10/18 08:11:35</t>
+          <t>2021/10/18 20:36:51</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>[여수시청]10.17.24:00기준 총2명 발생(확진자접촉)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[부산시]10.11.(월) 해운온천(해운대구 달맞이길 8(중동))에서 11:40∼13:30에 남탕 이용하신 분은 인근 보건소에 방문하여 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2021/10/18 08:03:34</t>
+          <t>2021/10/18 18:32:57</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/18(월) 08시기준 전일 10명 확진자발생(633~642) ▲확진자접촉 9, 격리 중 1 ▲의심 증상 발현 시 코로나 검사 받으시기 바랍니다</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2021/10/18 08:00:18</t>
+          <t>2021/10/18 18:05:12</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>전라남도 해남군</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>[제천시청]10.18(월) 8시 현재. 확진자 1명 발생(성남시 확진자 접촉자). 함께 검사한 가족은 음성. 가족외 접촉자 없음. 큰 일교차에 건강 관리바랍니다.</t>
+          <t>[해남군청] 확진자 2명 발생 ▶ 확진자 접촉으로 수동감시(예방접종 완료) 중 확진 ▶ 백신접종완료자라도 가벼운 감기 증상있을시 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2021/10/17 18:52:32</t>
+          <t>2021/10/18 18:00:11</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
+          <t>[무안군청]10.18(월)18시 기준 확진자 1명 발생(감염경로 조사중)▲기침·인후통 등 의심증상 시 즉시 코로나 검사받기▲타지역방문 자제▲생활 속 방역수칙 준수</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2021/10/17 18:18:10</t>
+          <t>2021/10/18 17:33:35</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>[홍성군청]10월 17일(일) 18시 기준 확진자 1명(홍성260번)발생. 증상발현 후 자발적 검사 결과 확진. 접촉자 파악, 역학조사 및 방역소독 완료.</t>
+          <t>[충주시청] 10월18일 확진자 17명 발생[확진자 접촉(선행14,타지역1),자가격리중1,조사중1]▲만남,모임 자제▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2021/10/17 17:49:19</t>
+          <t>2021/10/18 17:28:47</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>[무안군청] 10.17.(일) 확진자 2명 발생(확진자 접촉)▲만남·모임·타지역 방문 자제▲의심증상 시 반드시 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[광주시청] 10월 18일 17시 기준 확진자 15명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2021/10/17 17:03:49</t>
+          <t>2021/10/18 17:24:10</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>전라남도 장흥군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>[장흥군청] 자가격리 중 확진자 1명 발생 ▶이동동선 및 접촉자 없음 ▶타지역 방문 및 외지인 접촉 자제 ▶유증상시 접종유무와 상관없이 선별진료소 검사바랍니다.</t>
+          <t>[남양주시청]10.18.(월) 코로나19 확진자 15명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t1vb 증상의심시 코로나19검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2021/10/17 17:03:32</t>
+          <t>2021/10/18 17:19:35</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 장흥군</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 17일 17시 기준 확진자 9명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[장흥군청] 자가격리 중 확진자 1명 발생 ▶이동동선 및 접촉자 없음 ▶타지역 방문 및 외지인 접촉 자제 ▶유증상시 접종유무와 상관없이 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2021/10/17 16:51:07</t>
+          <t>2021/10/18 17:00:02</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>[충주시청]10월17일 확진자 3명 발생(타지역 거주자1, 감염경로 조사중2) ▲만남, 모임, 타지역 방문 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[중대본] 10.3~10.17 서울 종로구 종로 266 동대문종합시장 종사자 및 방문자는 보건소에서 코로나19 검사를 받으시기 바랍니다(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2021/10/17 16:47:33</t>
+          <t>2021/10/18 16:59:25</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>전라남도 함평군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>[함평군청] 10.17.(일) 확진자 1명 발생(격리중) ▲타지역 방문 접촉자제 ▲의심증상시 즉시 검사받으세요.</t>
+          <t>[과천시청]10월18일 17시 기준 신규확진 3명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2021/10/17 16:36:02</t>
+          <t>2021/10/18 16:27:06</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>전라북도 전체</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>[전북도청] 2-2. ▶사적모임 예방접종완료자 포함 최대 10명까지 가능(미접종자 4명까지) ▶기본 방역수칙 철저 준수 및 증상있으면 검사를 받으시기 바랍니다.</t>
+          <t>[음성군청]10월18일 확진자 3명(내국인1,외국인2)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2021/10/17 16:13:27</t>
+          <t>2021/10/18 16:10:47</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>[영광군청] 타지역 확진자 관련, 10.13.(수) 13:30~15:40 영광읍 전치과 방문자는 보건소에서 진단검사 바랍니다.▲이동·접촉 자제▲실내외 마스크 착용</t>
+          <t>[함평군청] 확진자 관련 10.12.(화) 12:30~13:30 함평읍 만복식당 방문자는 보건소나 황소주차장에서 코로나 검사 받으시기 바랍니다.(시설 소독완료)</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2021/10/17 16:09:26</t>
+          <t>2021/10/18 16:10:30</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>[화성시청] 10.8.(금)~10.12.(화) 송산 아울렛마트(화성시 송산면 사강로 162) 방문자 중 유증상자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[당진시청]10/18(월) 16시기준 확진자19명(관내접촉15,타지역접촉1,조사중3)발생.총983명 ▲의심증상 시 검사 후 등교, 하교 후 즉시 귀가 요청드립니다</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2021/10/17 15:43:27</t>
+          <t>2021/10/18 15:40:30</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>강원도 정선군</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>[정선군청]▲10.12~15일 천포리에서 함백초등학교(08:25~08:35) 시내버스 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[완도군청]근해어선 외국인선원 확진자 8명 발생▶현재 해상에서 복귀 중▶타지역 근로자 채용시 업무 시작 전 반드시 코로나19 검사▶외국인 2주 1회 진단검사 요망</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2021/10/17 15:05:05</t>
+          <t>2021/10/18 15:36:02</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>강원도 정선군</t>
+          <t>경상북도 영주시</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>[정선군청]▲10월 12일, 14일 예미역에서 제천역(07:54~08:46), 제천역에서 신동역(15:16~16:08)무궁화호 열차 이용자는 선별진료소 검사요망.</t>
+          <t>[영주시청]임시선별진료소 검사대상 알림 ▶기간:10.18.(월)~10.19.(화),10시~17시 ▶장소:풍기읍사무소 ▶대상:확진자의 밀접접촉자, 유증상자 등</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2021/10/17 14:34:02</t>
+          <t>2021/10/18 15:21:13</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경기도 성남시</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>[안산시청]10월17일 14시기준 확진자 52명발생▲의심증상 발현시 인근보건소에서 검사바랍니다 blog.naver.com/cityansan/222539523629</t>
+          <t>[성남시청] 10.9(토)~10.16(토) 일광자원(수진동 35) 방문자는 가까운 선별진료소에서 코로나 진단검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2021/10/17 14:15:17</t>
+          <t>2021/10/18 15:14:57</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>서울특별시 동작구</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>[음성군청]10월17일 확진자 1명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[동작구청] 10.11(월)~10.16(토) 대우부동산(동작대로29길110(202호),사당2동)에 방문하신분은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2021/10/17 13:40:36</t>
+          <t>2021/10/18 15:02:05</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>[과천시청]10월17일 13시 기준 신규확진 12명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
+          <t>[의정부시] 10.15.(금) 요기분식(장곡로322번길20) 방문자 중 유증상자는 선별진료소에서 코로나19검사를 받으시기 바랍니다.☎031-870-6011~4</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2021/10/17 12:24:58</t>
+          <t>2021/10/18 15:00:58</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>전라남도 담양군</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>[대구광역시]레스카페 연(서구 서대구로 289)10월 중 방문하신 분은 두류·국채보상공원·대구스타디움 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[담양군청]10월13일 8시10분 강남고속버스터미널 출발→11:40 담양버스터미널 도착 버스 탑승자는 관할보건소에서 검사받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2021/10/17 12:08:22</t>
+          <t>2021/10/18 14:31:57</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/14(목)17:00~19:00 ▲10/15(금)12:00~21:00 킹코인노래방(수송북로 22) 방문자 보건소선별검사(09~18시)바랍니다.</t>
+          <t>[안산시청]10월18일14시기준 확진자 31명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222540357214</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2021/10/17 12:00:42</t>
+          <t>2021/10/18 14:00:06</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/9(토)18:00~20:00 ▲10/12(화)16:00~20:00 킹코인노래방(동수송안길 31) 방문자 보건소 선별검사(09~18시)바랍니다.</t>
+          <t>[사천시청] 10.18.(월) 14시 기준 확진자 1명(자가격리중 1명)▲관내 동선 없음▲의심증상시 진단검사, 백신접종 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2021/10/17 11:58:19</t>
+          <t>2021/10/18 11:54:38</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>[김제시청]10.17.(일) 11시 확진자 2명 발생(확진자 접촉1,유증상1)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[진천군청]▲10.18 10시 기준 코로나 확진자 9명 발생▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 주소지 관할 보건소에서 코로나 무료검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2021/10/17 11:44:38</t>
+          <t>2021/10/18 11:29:44</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.17.(일) 11:00기준 신규확진자 15명 url.kr/t893xo ▲발열,권태감,기침,호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>2021/10/17 11:08:17</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>충청북도 진천군</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>[진천군청] 10.17. 10시기준 코로나 확진자 6명 발생 ▲손씻기, 마스크착용 등 방역수칙 준수 ▲증상발현시 주소지 관할 보건소에서 코로나 무료검사 바랍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>2021/10/17 10:45:29</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>부산광역시 전체</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>[부산시]10.13.(수)~10.16.(토) 태종대온천찜질방(영도구 태종로 808) 남탕 내 이발소 이용자는 인근보건소에서 검사 받으시길 바랍니다.(소독완료)</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>2021/10/17 10:38:41</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>전라북도 완주군</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>[완주군청] 10월 17일(일) 0시 기준 확진자 2명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>2021/10/17 10:31:10</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>경기도 용인시</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>[용인시청]금일 0시기준 확진자30명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[정읍시청] 10.12(화)~10.17(일) 09:00~21:00, 정골산닭(상동,소독완료) 방문자는 보건소 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>

--- a/covid_19_all/JenanMessage.xlsx
+++ b/covid_19_all/JenanMessage.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C406"/>
+  <dimension ref="A1:C422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -425,449 +425,449 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021/10/28 10:59:57</t>
+          <t>2021/10/30 14:58:20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[용인시청]10월28일 0시기준 확진자 26명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[금산군청]10.23(토)20:40-22:00, 10.24(일)16:00-19:00, 10.26(화)16:00-18:00 텐코인 노래연습장 방문한 분 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021/10/28 10:59:56</t>
+          <t>2021/10/30 14:56:08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[보은군청] 221(13:25백록동방향),721(15:35석화방향),940(17:20신함방향),431(19:00천남방향)이용자는 코로나 검사받으시기 바랍니다.</t>
+          <t>[남양주시청]10.22.(금)~10.29.(금) 외가집밥상 기사식당(남양주시 화도읍 북한강로 1412) 방문자는 가까운 보건소에서 코로나19 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021/10/28 10:44:26</t>
+          <t>2021/10/30 14:30:55</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 28일(목) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[안산시청]10월30일 14시기준 확진자 48명 발생 ▲발열,기침,호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/ynRGLX</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021/10/28 10:42:34</t>
+          <t>2021/10/30 14:13:26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>전라북도 순창군</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[순창군청]서울 확진자 이동경로 안내 ▶10.23(토) 09:30 서울강남센트럴시티→ 12:50 순창터미널 도착▶고속버스 이용객은 가까운 선별진료소 검사 바랍니다</t>
+          <t>[음성군청] 10.30.확진자 4명(내국1, 외국3)발생▲동선 및 접촉자 조사중▲타지역방문,모임,지인초청 자제▲유증상시 주민들께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021/10/28 10:23:12</t>
+          <t>2021/10/30 14:00:13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[강원도청] 10.27.(수) 도내 코로나19 확진 22명(원주13 춘천2 태백2 강릉1 홍천1 철원1 양구1 인제1)▶접촉의심 및 감기증상시 즉시검사 당부 드림</t>
+          <t>[사천시청]10.30.(토) 14시 기준 확진자 3명(조사 중 2명, 타지역거주자 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021/10/28 10:00:33</t>
+          <t>2021/10/30 13:40:18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>서울특별시 서초구</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 28일 0시 기준, 수원 확진자 60명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/xvl74</t>
+          <t>[서초구청]10.19(화)~10.29(금) 경부선 터미널 3층 꽃자재(신반포로194 3층) 방문자는 선별진료소에서 코로나19 검사바랍니다. seocho.go.kr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021/10/28 09:58:53</t>
+          <t>2021/10/30 13:35:13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[영광군청] 확진자 동선 관련 ▲10.24.(일), 10.26.(화) 영광성당 방문자는 보건소에서 진단검사 받으시기 바랍니다.▲마스크착용, 타지역 방문·접촉 자제</t>
+          <t>[대구광역시]아크(동구 반야월북로 158, 2층) 10/20~23 방문하신 분은 두류·국채보상공원·대구스타디움 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021/10/28 09:47:56</t>
+          <t>2021/10/30 13:00:11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.27 코로나 확진자 3명(내국인2, 외국인1). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[과천시청] 10월30일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021/10/28 09:42:42</t>
+          <t>2021/10/30 12:51:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>인천광역시 부평구</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[보은군청]10.28.(목) 확진자 8명 발생▲10. 23.(토)~10.24.(일) 시내버스(충북74자1014) 이용자는 보건소에서 코로나 검사 받으시기 바랍니다</t>
+          <t>[부평구청] 10/25(월) 텐코인노래방 (부평구 충선로203번길 12 뉴존프라자 3층, 삼산2동) 방문자는 가까운 선별검사소에서 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021/10/28 09:36:34</t>
+          <t>2021/10/30 12:44:22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[창원시청] 10.27. 확진자 22명 발생 ▲합포10,회원5,진해1,타지역1,격리중5 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[고흥군청] 10.30(토) 확진자 13명 발생 역학조사 중 외출 및 지인 모임 자제 외국인 및 고용사업주는 보건소 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021/10/28 09:33:21</t>
+          <t>2021/10/30 12:29:48</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[영광군청] 10.28.(목) 9시 기준, 확진자 1명(영광46번)발생▲10.24.(일)~10.27.(수)대동공업영광대리점 방문자는 보건소에서 진단검사 바랍니다.</t>
+          <t>[강진군청] 강진 19번 확진자 발생(서울 거주자 29일 강진 방문) 동선 파악 등 역학조사 중. 타지역 방문 자제 및 의심증상 시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021/10/28 09:19:19</t>
+          <t>2021/10/30 12:16:26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>강원도 원주시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[원주시청] 10.16.~10.24.'힐링타임아로마테라피(여대생마사지)[북원로2251, 단계동]' 이용자는 오늘 15시까지 보건소에서 코로나 검사 받으세요.</t>
+          <t>[보성군]10.29.(금) 확진자 2명 발생(타지역 확진자 접촉)▲주말외출·모임자제▲백신접종을 완료했더라도 마스크착용, 유증상시 검사등 방역수칙을 잘 지켜주세요!</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021/10/28 09:05:45</t>
+          <t>2021/10/30 12:00:04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 28일 00시 기준 확진자 11명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[전남도청] 전국 √요양시설√병원√학교 등에서 집단발생▲고위험시설(요양시설,병원) 방문 및 면회자제▲핼러윈데이,축제,행사,모임 자제 및 유증상시 검사 꼭 받으세요</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021/10/28 08:31:40</t>
+          <t>2021/10/30 11:50:10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.28(목)08시 기준 확진자 30명 발생(남원 172~201번)/감염경로조사중 ▲ 유증상시 접종유무와 상관없이 즉시 선별진료소에서 검사바랍니다.</t>
+          <t>[부여군청] 10월30일 11시 기준 확진자 6명 발생 【부여425~430/자가격리 학생4, 수동감시2】 감기증상 시 코로나 검사 후 진료를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021/10/28 08:30:09</t>
+          <t>2021/10/30 11:25:35</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[목포시청]10.27. 24시 기준 확진자 1명(자가격리중 외국인) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[칠곡군청] 10.30.0시 기준 확진자 12명 중 외국인9명. 파키스탄 확진자 다수 발생. 사업장, 농장 등 소속외국인은 코로나 검사를 꼭 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021/10/28 08:28:21</t>
+          <t>2021/10/30 11:25:16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[여수시청]10.27.24:00 기준 총1명 발생(타지역거주자)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[칠곡군청] 10.20(수)~10.27(수) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 증상유무 상관없이 선별진료소에서 필히 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021/10/27 21:09:37</t>
+          <t>2021/10/30 11:01:48</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[보성군] 10.27.(수) 확진자 3명 추가 발생(가족,지인모임/역학조사중) ▲외출 및 지인모임 자제, 마스크 상시 착용, 의심증상시 보건소에서 검사 받으세요.</t>
+          <t>[용인시청]10월30일 0시 기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021/10/27 18:36:13</t>
+          <t>2021/10/30 10:51:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[홍성군청]10월27일(수) 18시 기준 확진자 5명(홍성301~305번) 발생.자가격리 1명, 병원격리 3명, 자발적검사 1명. 역학조사 및 방역조치 완료</t>
+          <t>[완주군청] 10월 30일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021/10/27 18:35:33</t>
+          <t>2021/10/30 10:45:20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
+          <t>[군산시청] ▲10/22(금)~10/28(목) 싱글앤싱글(동수송2길 19) 방문자는 보건소 선별검사(09시~18시) 바랍니다. ▲10/29(금) 검사자 제외</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021/10/27 18:25:04</t>
+          <t>2021/10/30 10:26:09</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[남양주시청]10.27.(수) 코로나19 확진자 26명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tbit 증상의심시 코로나19 검사받으세요.</t>
+          <t>[강원도청] 10.29.(금) 도내 코로나19 확진 25명(원주13,삼척5,홍천3,춘천1,강릉1,태백1,평창1) ▶접촉의심 및 감기증상 시 즉시검사 당부 드림</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021/10/27 18:03:16</t>
+          <t>2021/10/30 10:17:18</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 27일 확진자 7명 발생(선행 확진자 접촉1, 자가격리중4, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[수원시청] 10월 30일 0시 기준, 수원 확진자 61명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/5z8t3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021/10/27 17:47:38</t>
+          <t>2021/10/30 10:08:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>강원도 삼척시</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[통영시청] 10.26.(화) 10:40~17:55 통영전문장례식장(정량동) 3층 특실을 방문하신분은 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[삼척시청]10.27~28 중앙시장길 68-4 지하1층 ‘봉자클럽’이용자는 보건소 선별진료소에서 금일 15시까지 코로나 검사를 받으시기 바랍니다☎570-4649</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021/10/27 17:44:59</t>
+          <t>2021/10/30 10:06:13</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[구례군청]10.27.(수) 확진자 1명 발생(구례35번 가족), 접촉자 및 이동동선 없습니다. 타지역 방문을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[전주시청]10.30(토) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021/10/27 17:32:06</t>
+          <t>2021/10/30 09:37:38</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 27일 17시 기준 확진자 28명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[의정부시청]10.23.(토), 10.25.(월) 정다운한식뷔페(산곡동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021/10/27 17:04:55</t>
+          <t>2021/10/30 09:31:29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 27일 17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲29일 도내 확진자 46명 발생</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021/10/27 16:52:03</t>
+          <t>2021/10/30 09:30:28</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>충청남도 서천군</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[강북구청] 10.24.~27. 로얄PC방(도봉로 313, 지하1층) 방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
+          <t>[서천군청] 10.30.(토) 09:00기준 신규확진자 1명 발생(타 지역 거주자 방문 검사) ▲ 우리군 이동동선 및 접촉자 없습니다.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021/10/27 16:32:30</t>
+          <t>2021/10/30 09:26:33</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -877,2292 +877,2292 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[창원시청] 10.21.(목)~10.23.(토), 10.25.(월) 대림식당(마산합포구 북성로 100, 상남동) 방문자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[창원시청]10.29.확진자139명 발생 ▲의창1,성산2,합포5,회원5,진해4,타지역1,격리중3,병원관련118 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021/10/27 15:43:47</t>
+          <t>2021/10/30 09:11:04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[부산시]10.23.(토) 13:30~15:30에 대원목욕탕(부산진구 황령대로18번길 43(범천동))여탕 이용자는 코로나19검사 받으시기 바랍니다.(소독완료)</t>
+          <t>[광주광역시] 10.21(목)~10.29(금) 가톨릭 광주사회복지회 안셀모의 집(외국인 노동자 쉼터, 동구 동계천로 129-1, 동명동) 방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021/10/27 15:37:00</t>
+          <t>2021/10/30 09:07:39</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[화성시청] 10.22.(금) 킹노래방(화성시 봉담읍 와우안길 43) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[목포시청]10.29(금) 24시 기준, 확진자 1명(유증상자1) 발생 ▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021/10/27 15:36:38</t>
+          <t>2021/10/30 08:58:51</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[화성시청] 10.23.(토) 블루노래연습장(화성시 봉담읍 와우리 45-5 지하1층) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[남원시청] 타지역 확진자 동선 관련 ▲ 10.22.(금)12:30~13:30, 남원이조갈비(남원시 향단로 18) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021/10/27 15:36:10</t>
+          <t>2021/10/30 08:57:17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>충청남도 서천군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[서천군청] 10.24.~26. 기간 중 서면 홍원항어촌계 수산물판매장 내 한문이네를 방문한 분들은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
+          <t>[남원시청]▲10.30.(토) 전일확진자 5명 발생(남원 204~208번)/기확진자 접촉3, 자가격리중2▲타지역 방문자제 및 유증상시 즉시 검사 받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021/10/27 15:24:25</t>
+          <t>2021/10/30 08:50:56</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[김천시청]10월27일 15시기준 관내 초·중학교 관련 22명 발생(신규15, 자가격리중7)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
+          <t>[양주시청] 10월 30일 00시기준 확진자 21명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021/10/27 15:10:02</t>
+          <t>2021/10/30 08:49:41</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[고성군청]10.24.(일)14:00~15:42병산수산고성왕새우(삼산면소재, 방역완료) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[무안군청] 10.30.(토) 08시30분기준 확진자 1명발생(타지역접촉) ▲발열·기침 등 의심증상 발현 시 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021/10/27 15:02:56</t>
+          <t>2021/10/30 08:43:38</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[보은군청]10. 23.(토) ~ 10. 26.(화) 보은개인택시(35아 5061 /소나타/은색)를 이용하신분은 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[진도군청]10.29(금) 24시 기준, 확진 2명(역학조사중)▲초, 중학생 지속발생▲아프면 검사받고 집에서 쉬기√주말 모임·행사, 핼러윈데이 파티 자제바랍니다</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:56</t>
+          <t>2021/10/29 20:01:43</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경상북도 청도군</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[고성군청]10. 27.15시기준,확진자1명(고성118번, 관내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[청도군청]청도원탕(청도군 화양읍 남성현로 504) 10/25.(08:00~11:00)방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:14</t>
+          <t>2021/10/29 18:31:37</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>경기도 부천시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[부천시청] 10.19(화) 18시~22시 중동포차(조마루로291번길 46) 방문자는 증상유무에 관계없이 선별진료소에서 코로나19검사를 받으시기 바랍니다.</t>
+          <t>[홍성군청]10월29일(금) 18시 기준 확진자 1명(홍성307번) 발생. 증상발현으로 검사결과 확진. 역학조사 및 방역소독 완료</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:14</t>
+          <t>2021/10/29 18:21:44</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[보은군청]10.19.(화)~10.22.(금)/10.25.(월)~10.26.(화)11:45~12:30즐거운집(보은읍 삼산리)이용자는 코로나 검사 받으시기 바랍니다</t>
+          <t>[남양주시청]10.29.(금) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/te0g 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021/10/27 14:57:46</t>
+          <t>2021/10/29 18:12:54</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[김제시청] 10.27.(수) 14시기준 확진자 1명 발생(확진자 접촉1, 동선파악중)/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
+          <t>[함평군청] 확진자 관련 10.23.(토) 13:10~13:50 함평읍 대흥식당 방문자는 보건소 또는 황소주차장에서 코로나 검사 받으시기 바랍니다.(시설소독완료)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021/10/27 14:47:14</t>
+          <t>2021/10/29 18:01:40</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[울산광역시] 10.23.(토)18:10~21:10 ▲동강병원 장례식장 6호실(중구 태화로 240, 태화동, 소독완료) 방문자는 코로나19 검사 받으시기 바랍니다</t>
+          <t>[논산시청] 10월29일 확진자 3명(내국인3/관내1,타지역1,조사중1) 발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021/10/27 14:31:59</t>
+          <t>2021/10/29 18:00:31</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19(화), 10.21(목)~10.24(일) 환금휘트니스사우나(마산회원구 북성로 106, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[안성시청]10.29.코로나19 확진자4명(자가격리2,동반입소자1,자발적검사1)발생.역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021/10/27 14:00:07</t>
+          <t>2021/10/29 17:51:18</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[사천시청] 10.27.(수) 14시 기준 확진자 5명(확진자 접촉자4명, 해외입국자1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[진도군청]확진자 동선▲진도한국병원 10.27(수)08:37~09:20▲진도읍 샹떼피시방 10.27(수)16시~18시▲방문자는 보건소 선별진료소에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021/10/27 13:40:54</t>
+          <t>2021/10/29 17:25:19</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[완도군청]외국인 확진자 자가격리중 1명 발생▶오늘 선별이동검사소 안내▶10/27(수)13:30~15:00 소안창조문화센터▶15:00~17:00 청산복지회관 2층</t>
+          <t>[광주시청] 10월 29일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021/10/27 11:02:53</t>
+          <t>2021/10/29 17:02:01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[완도군청] 확진자동선▶10/22(금)보길보옥리→청별→노화이포 보길여객농어촌버스 첫차(08:00)▶노화 농협하나로마트09:00~09:10 동시간대 이용자 검사요망</t>
+          <t>[과천시청] 10월 29일 17시 기준 신규확진 4명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021/10/27 11:00:04</t>
+          <t>2021/10/29 17:00:12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[용인시청]10월27일 0시기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[중대본] 10.17~10.27 서울 중구 명동7길 18-1 '예지식당' 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021/10/27 10:39:48</t>
+          <t>2021/10/29 16:30:18</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>경상남도 거제시</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[부여군청]10월27일 10시 기준 확진자 18명 발생【부여387~404,학생등13,외국인5】 감기증상 시 보건소에서 코로나 검사(특히 학생) 받으시기 바랍니다.</t>
+          <t>[거제시청] 코로나19 확진자 총22명 발생(확진자접촉 1, 타지역확진자접촉 21)/ 기침, 발열 등 유증상시 즉시 가까운 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021/10/27 10:37:52</t>
+          <t>2021/10/29 16:24:25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[강원도청] 10.26.(화) 도내 코로나19 확진 19명(원주6 태백5 춘천4 홍천3 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부 드림!!</t>
+          <t>[중대본]10.13~10.26 경기 남양주시 진접읍 양진로962 2층 '롯데택배 서울북부지점' 근무자는 보건소에서 코로나검사를 받으시기바랍니다(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021/10/27 10:33:16</t>
+          <t>2021/10/29 15:47:33</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[아산시청] 10월26일 확진자 10명(가족7, 지인1, 조사중 2) /단계적 일상 회복 전환을 위해 방역수칙을 준수해 주시고, 코로나 의심시 검사 받으세요.</t>
+          <t>[포항시청]10.28 305번버스 상대지구대정류장15:47→남구보건소정류장15:55 남구보건소정류장16:09→남부시장정류장16:23 탑승객은 보건소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021/10/27 10:26:25</t>
+          <t>2021/10/29 15:34:52</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경상남도 거창군</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[전주시청]10.27(수) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[거창군청]타지역 확진자 동선 관련 10. 20.(수) 17:00 거창출발→서울남부도착 버스탑승자께서는 보건소 선별진료소에서 검사바랍니다. 055-940-8335</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021/10/27 10:08:04</t>
+          <t>2021/10/29 15:02:50</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 27일(수) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[음성군청]10월 29일 확진자 5명(내국인3,외국인2)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021/10/27 10:00:53</t>
+          <t>2021/10/29 14:43:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 27일 0시 기준, 수원 확진자 58명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/ghswi</t>
+          <t>[안산시청]10월29일 14시기준 확진자 74명 발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z3DGp</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021/10/27 09:54:39</t>
+          <t>2021/10/29 14:30:52</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>경상북도 경산시</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[김천시청]코로나19이동선별검사소 운영안내▲장소:녹색미래과학관(율곡동)▲27일:13:00~16:00, 28일-29일:10:00~16:00▲의심증상시 검사바랍니다.</t>
+          <t>[경산시][일자수정] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/26 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021/10/27 09:53:25</t>
+          <t>2021/10/29 14:19:20</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 27.(수) 확진자 4명 발생 ▲ 10. 18.(월) 이후 복신경외과 내원자 및 유증상자는 인근 보건소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[창원시청]22(금)08:40~15:36/25(월)08:40~11:27 정태기내과(의창구동읍로9,방역완료)방문자는 선별진료소에서 검사바랍니다(28일이후검사자제외)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021/10/27 09:46:27</t>
+          <t>2021/10/29 14:01:55</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>경상남도 함양군</t>
+          <t>충청남도 청양군</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[함양군청] 10. 18.(월) 14시 함양 출발 → 16시 부산(사상) 도착 시외버스 탑승객은 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[청양군청] 10월 29일 기준 확진자 1명 발생. 청양99번(타지역 확진자 접촉, 접촉자 파악 완료 검사 중) ▲ 유증상 시 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021/10/27 09:31:50</t>
+          <t>2021/10/29 13:59:12</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[창원시청] 10.18(월)~23(토) 온정백반(대산면 주남로503번길 8, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.(10.24 이후 검사자 제외)</t>
+          <t>[진도군청]확진자 동선 안내▲진도읍 샹떼 피시방 10.28(목) 16:00~18:00 방문자는 보건소 선별진료소에서 검사바랍니다▲주말 행사·모임 자제 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:51</t>
+          <t>2021/10/29 13:55:20</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.17(일)~10.25(월) JL연기학원 1층~4층(동구 구성로 167, 충장로5가)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
+          <t>[포항시청] 10.25(월) 12:00 ~ 10.28(목) 06:00 궁타이마사지(상도동 615-3번지) 해당기간 방문자는 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:51</t>
+          <t>2021/10/29 13:44:25</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[창원시청] 10.26. 확진자 20명 발생 ▲의창4,합포6,회원4,진해2,타지역1,격리중3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[광주광역시] 10.21(목)~10.24(일) GNS 강남스타일(태국음식점, 서구 상무시민로 130, 7층, 치평동) 방문자는 거주지 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:30</t>
+          <t>2021/10/29 11:09:29</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[완도군청]확진자동선▶10/21(목) 12:10해남출발→13:00완도도착▶13:20완도터미널→화흥포셔틀버스▶13:50화흥포→노화동천 여객선실 이용자 코로나검사요망</t>
+          <t>[나주시청] 10. 29. 09시 기준. 확진자 1명 발생. 동선·접촉자 파악완료. 외국인 접종시급. 코로나19 증상(기침·발열 등) 발현시 지체없이 검사 요망.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:26</t>
+          <t>2021/10/29 11:05:17</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲26일 도내 확진자 29명 발생</t>
+          <t>[강화군청]10월25일(월)과 10월27일(수) 강화인삼센터 방문자께서는 가까운 선별진료소에서 코로나19 진단 검사 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2021/10/27 09:11:43</t>
+          <t>2021/10/29 11:03:01</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>경상북도 경산시</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[포항시청]10.23 302번버스 영일고등학교정류장15:41→죽도시장정류장16:07 죽도시장정류장16:33→영일고등학교정류장17:01 탑승객은 보건소 검사바랍니다</t>
+          <t>[경산시] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/22 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021/10/27 09:09:58</t>
+          <t>2021/10/29 11:00:08</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 27일 00시 기준 확진자 4명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[용인시청]10월29일 0시기준 확진자 25명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021/10/27 09:05:04</t>
+          <t>2021/10/29 11:00:03</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 17명 [타시민1, 천안시민16] ▶ 초·중·고교생 확진자 증가 ▶ 증상발현 시 병원 방문 전 검사 및 백신접종에 참여 바랍니다.</t>
+          <t>[전주시청]10.29(금) 현재기준 2명 발생(전일 21명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2021/10/27 08:27:36</t>
+          <t>2021/10/29 10:46:34</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.27(수) 금일 확진자 1명 발생(남원 171번)/감염경로 조사중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[부여군청] 10월29일 10시 기준 확진자 3명 발생 【부여422~424/학생】 감기증상시(콧물, 목아픔, 두통 등) 코로나 검사 후 진료 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021/10/27 08:00:07</t>
+          <t>2021/10/29 10:40:01</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[제천시청]10.27(수) 8시 현재. 확진자 2명 발생(타 지역 확진자 접촉 1, 격리중 1). 지역내 특이동선 없음. 증상발현시 선별진료소에서 검사 바랍니다.</t>
+          <t>[강화군청]10월 25일(월), 10월 27일(수) 강화인삼센터(강화읍 알미골) 방문자는 가까운 선별진료소에서 코로나19 진단검사 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2021/10/26 21:01:59</t>
+          <t>2021/10/29 10:37:39</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[보은군청]10.26.(화) 확진자 3명 발생, 10.18.(월)~10.26.(화) 복신경외과의원(보은읍) 방문자는 인근보건소에서 코로나검사를 받으시기 바랍니다.</t>
+          <t>[포항시청] 10.22(금)~10.25(월) ZENITH 제니스 라이브(상도동 601-1) 방문자는 가까운 보건소에 방문하여 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2021/10/26 20:24:18</t>
+          <t>2021/10/29 10:29:50</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>강원도 평창군</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
+          <t>[평창군청] 10.29일 평창군 확진자 1명(232번) 봉평면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2021/10/26 19:06:08</t>
+          <t>2021/10/29 10:06:43</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[강북구청]10.19.(화) 19:00~21:10 보스당구클럽(오패산로130)방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
+          <t>[부여군청]코로나19 군민행동요령 최근 학교,기업체 내 코로나 집단발생에 따른 지역확산은 없는 것으로 판단,감기증상시 코로나 검사후 진료받으시고 방역수칙 준수바람</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2021/10/26 19:04:20</t>
+          <t>2021/10/29 10:05:48</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[강북구청] 10.22.(금) 얼짱노래연습장(한천로 140길 35, 지층)방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
+          <t>[통영시청] 10.24(일) 11:00~13:30 안황스포츠센터(광도면 안정로 830) 목욕탕(여탕) 이용하신 분은 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021/10/26 18:15:19</t>
+          <t>2021/10/29 10:01:24</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[남양주시청]10.26.(화) 코로나19 확진자 35명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/taaa 증상의심시 코로나19 검사받으세요.</t>
+          <t>[수원시청] 10월 29일 0시 기준, 수원 확진자 50명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/fwi9s</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021/10/26 18:00:02</t>
+          <t>2021/10/29 09:56:45</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[안성시청]10.26코로나19확진자11명(자가격리2확진자접촉3자발적검사4해외입국2)발생.역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[보은군청] 10. 29.(금) 확진자 5명 발생 ▲ 10.19.(화)~10.27.(수) 극동슈퍼 이용자는 인근 보건소에서 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2021/10/26 17:47:56</t>
+          <t>2021/10/29 09:51:20</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 26일, 확진자 4명 발생(자가격리중 3, 감염경로 조사중 1) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[창원시청] 10.28. 확진자 18명 발생 ▲의창3,성산1,합포6,회원5,타지역3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2021/10/26 17:29:09</t>
+          <t>2021/10/29 09:15:46</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[고성군청]10.26.17시기준,확진자1명(고성117번,조사중)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[진도군청]10.29(금) 08시기준 2명 추가확진(초,중학생)▲선별이동검사소 안내√진도서초교 09:30~11:00√진도중학교 09:30~14:00까지 운영합니다</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2021/10/26 17:01:15</t>
+          <t>2021/10/29 09:02:40</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 26일 17시 기준 확진자 21명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[고흥군청] 10.29(금) 확진자 1명 발생, 역학조사 중. 외출 및 지인모임을 자제하고, 마스크 상시 착용바라며, 의심증상시 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2021/10/26 17:01:12</t>
+          <t>2021/10/29 09:02:19</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[창원시청] 10.16(토)~10.20(수) 17:00~17:20 감계식당(북면 감계로156번길 6-8,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[양주시청] 10월 29일 00시 기준 확진자 12명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2021/10/26 17:00:57</t>
+          <t>2021/10/29 08:56:55</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[창원시청] 10.16.(토)~10.20.(수) 12:00~12:30 윤현식당(북면 감계로188번길 21,방역완료)이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[남원시청] 관내 확진자 동선 관련▲10.24.(일) 09:00~18:00 행남자기(남원시 남문로 397) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2021/10/26 17:00:49</t>
+          <t>2021/10/29 08:56:40</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[과천시청]10월26일 17시 기준 신규확진 2명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
+          <t>[남원시청]▲10.29(금 08시기준 전일확진자 2명발생(남원 202~203번)/기확진자 접촉 ▲가을철 여행등 타지역방문 후 유증상시 즉시 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2021/10/26 16:14:21</t>
+          <t>2021/10/29 08:55:32</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 무안군,전라남도 보성군,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[당진시청]10/26(화)16시기준 확진자17명발생(격리중5,관내접촉3,타지역접촉1,조사중8).총1080명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
+          <t>[전남도청] 10.28. 24시기준 확진 13명(목포4,순천2,나주1,화순1,강진1,영광2,진도1/해외1(구례))▲증상 의심되면 외출 자제하고 검사 먼저 받으세요</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2021/10/26 16:10:22</t>
+          <t>2021/10/29 08:33:23</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[사천시청]10.14(목)~10.24(일) 사천시 서부시장길 21, 2층(선원휴게실) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[화순군청] 10.28. 24시 기준 확진자 1명 발생(화순128번). 동선 소독 완료하고 접촉자 조사중입니다. ▶접종완료자도 의심증상 있으면 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2021/10/26 16:05:02</t>
+          <t>2021/10/28 19:48:50</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[진주시청] 26일 15시 기준 확진자 9명(관내 소재 회사 외국인 종사자 8명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[영광군청]10.28.(목) 18:00시 확진자 1명(영광 47번)추가발생.영광46번 가족으로 역학조사중. 접종 완료자도 의심 즉시 보건소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2021/10/26 16:03:46</t>
+          <t>2021/10/28 19:25:43</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>경상북도 안동시</t>
+          <t>전라북도 고창군</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[안동시청]금일 16시기준 확진자1명 발생▲10.24(일)13:04~18:30 엔제리너스안동옥동점(광명로 175)방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
+          <t>[고창군청] 10.28.(목) 19:00 기준 ▶관내 확진자(고창 63번) 발생 ▶코로나19 의심 증상 시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2021/10/26 15:57:55</t>
+          <t>2021/10/28 19:23:48</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.18(월) 10.20(수) 10.22(금) 07:30~09:00 서광사우나 여탕(서구 죽봉대로109, 4층, 광천동) 방문자는 검사 바랍니다</t>
+          <t>[보은군청] 10. 25.(월) ~ 10. 27.(수) 택시(충북35아 5064) 이용자는 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2021/10/26 15:39:54</t>
+          <t>2021/10/28 19:00:34</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>전라남도 장성군</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[장성군청] 10.26.(화) 확진자 1명 발생. 자가격리 중 확진으로 이동동선 없음. 외국인사업장 등 방역취약시설 운영자 및 종사자는 2주 1회 검사 바랍니다.</t>
+          <t>[홍성군청]10월28일(목) 19시 기준 확진자 1명(홍성306번) 발생. 자가격리중 검사 결과 확진으로 접촉자 및 동선 없음</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2021/10/26 14:26:48</t>
+          <t>2021/10/28 18:34:01</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[강진군청] 10월 23일 17:30 강진군 여성배드민턴 대회 후 회장 이취임식에 참석한 군민은 보건소 선별진료소에서 오후 5시까지 검사 받기 바랍니다.</t>
+          <t>[광주시청] 10월 28일 17시 기준 확진자 40명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2021/10/26 14:22:31</t>
+          <t>2021/10/28 18:18:32</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[음성군청]10월 26일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[진도군청]안내드린 57번확진자 동선관련▲진도읍 락스(Rock’s) PC방 방문자께서는√보건소 선별진료소를 오늘밤 9시(21시)까지 연장운영하니 방문검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2021/10/26 14:19:40</t>
+          <t>2021/10/28 18:15:20</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>충청남도 청양군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[청양군청] 10월 26일 기준 확진자 1명 발생. 청양98번(자가격리중 확진, 이동동선 없음). ▲타지역 방문 자제, 유증상 시 코로나19 검사 바랍니다.</t>
+          <t>[남양주시청]10.28.(목) 코로나19 확진자 24명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tct8 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2021/10/26 14:01:45</t>
+          <t>2021/10/28 18:02:57</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>서울특별시 중구</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[사천시청]10.26.(화) 14시 기준 확진자 2명(확진자 접촉자1명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[중구청] 10.14.~10.24. 중구 소재 중림식당(손기정로 1길 48) 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2021/10/26 12:58:38</t>
+          <t>2021/10/28 18:00:52</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[사천시청]10.14.(목)~10.24(일) 08:00~12:00 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[논산시청] 10월28일 확진자 5명(내국인5/관내4,훈련소1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2021/10/26 11:52:38</t>
+          <t>2021/10/28 18:00:01</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.22.(금)~10.25.(월) 산호장여관(왜관읍 중앙로5길 10, 왜관역 부근) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[안성시청]10.28. 코로나19확진자3명(자발적검사1확진자접촉1동반입소자1)발생. 역학조사,방역조치 완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2021/10/26 11:52:08</t>
+          <t>2021/10/28 17:39:10</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.12.(화)~10.24.(일) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[진도군청]확진자 동선 추가▲진도읍 락피시방 √10.23(토) 16:10~21:05 √10.25(월) 17:30~10.26(화) 00:15▲방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2021/10/26 11:23:52</t>
+          <t>2021/10/28 17:32:19</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.26.(화) 11:00기준 신규확진자 24명 url.kr/eybpvx ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[진도군청]진도57번 확진자 발생(외국인근로자)▲진도읍 락피시방 √10.20(수)19:24~22:46 √10.22(금) 17:40~21:45▲방문자는 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2021/10/26 11:11:36</t>
+          <t>2021/10/28 17:21:55</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>경상북도 성주군</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[성주군] 10월23일(토) 13:50-14:20까지 박여사순대국밥(초전면 대장길 76) 방문자는 선별진료소에서 코로나19 PCR검사를 받으시기 바랍니다.</t>
+          <t>[충주시청] 10월 28일 확진자 4명 발생(자가격리중2, 조사중2)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2021/10/26 10:59:58</t>
+          <t>2021/10/28 17:13:14</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자 5명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[창원시청] 10.23(토) 22:10~23:58 슬레이크(성산구 마디미로43번길 10)이용자는 관할 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2021/10/26 10:28:11</t>
+          <t>2021/10/28 16:47:30</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[청주시청]10월 25일 확진자 13명 발생(상당구3,서원구1,흥덕구3,청원구5,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
+          <t>[강진군청] 강진 18번 확진자 발생(서울 방문하여 가족 확진자 접촉) 접촉자 및 동선 없음. 타지역 방문 및 의심증상 시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2021/10/26 10:18:06</t>
+          <t>2021/10/28 16:28:17</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>경상북도 성주군</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[성주군청] 최근 타지역을 방문했거나 발열, 기침 등 코로나19 증상이 있을 경우 보건소 선별진료소를 방문하여 검사를 받으시기 바랍니다.</t>
+          <t>[구미시청]10/15(금)~10/24(일) 금오산교회 신유기도원(형곡동로 3) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2021/10/26 10:13:53</t>
+          <t>2021/10/28 15:46:27</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.25 코로나 확진자 11명(외국인11). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[의정부시청] 10.23.(토)~10.27.(수) 행복한영광교회(의정부동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2021/10/26 10:05:39</t>
+          <t>2021/10/28 15:31:39</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 26일(화) 0시 기준 확진자 8명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[정읍시청] 10.25(월) 11:45~12:00, 항상아름다운자리 음식점 (신태인, 소독완료/ 전주확진자 방문) 방문자는 보건소 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2021/10/26 10:00:58</t>
+          <t>2021/10/28 15:28:28</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[강북구청]10.16.~22. 분홍미용실(강북구 도봉로97길 15), 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다. ☎901-7704</t>
+          <t>[의정부시] 10/23(토)~10/24(일) 신곡동 서해아파트 103동 놀이터 방문자는 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2021/10/26 10:00:05</t>
+          <t>2021/10/28 15:00:34</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 26일 0시 기준, 수원 확진자 20명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/mwbj1</t>
+          <t>[고성군청]10. 28.15시기준,확진자1명(고성119번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2021/10/26 09:57:38</t>
+          <t>2021/10/28 14:51:40</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[창원시청] 10.21(목)~10.24(일) 05:00~12:00 진해스파랜드(진해구 진해대로 762,지하) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[부산시]10.23.(토) 10:07~11:25 동신탕 여탕(부산광역시 동구 홍곡남로6, 수정동)이용자는 코로나19 검사 받으시기 바랍니다. (소독완료)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2021/10/26 09:52:28</t>
+          <t>2021/10/28 14:27:38</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[완도군청]확진자 2명 발생(신지면1, 보길면1) 자가격리 중 확진으로 이동동선 없음▶오전 금일, 보길, 금당, 생일 이동선별진료소 운영중▶주민들은 검사요망</t>
+          <t>[영광군청] 관내 확진자 동선 관련▲10.26.(화)19:10~20:10 영광성당 미사 참석자는 보건소에서 진단검사 바랍니다.▲접종자 포함 실내외에서 마스크 착용</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2021/10/26 09:51:23</t>
+          <t>2021/10/28 14:25:30</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19.(화), 10.21.(목)~10.24.(일) 환금휘트니스사우나(회원구 북성로 106,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[김천시청]10월28일 14시기준 13명 발생(신규2, 자가격리중11)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2021/10/26 09:48:27</t>
+          <t>2021/10/28 13:51:17</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[창원시청] 10.20.(수) 19:00~19:30 팔룡동 대동마트(의창구 반계로 97) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[부여군청]10월28일 13시 기준 확진자17명 발생【부여405~421업체근로자14(외국인10,내국인4),학생3】 감기증상 시 코로나 검사(특히 학생) 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2021/10/26 09:22:52</t>
+          <t>2021/10/28 13:32:14</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[창원시청] 10.25. 확진자 6명 발생 ▲성산1,합포1,진해1,타지역1,격리중2 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[보성군]보성40번 동선관련, 10.24.(일)~10.26.(화) 06:00~07:00 보성매일시장 내 보리밥집을 이용하신분은 지금 즉시 보건소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2021/10/26 09:05:02</t>
+          <t>2021/10/28 13:26:55</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[김제시청] 10.26.(화) 9시기준 확진자 1명 발생(자가격리중 확진, 외국인)/동선없음/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다</t>
+          <t>[순천시청] 10.24.(일)~10.27.(수) 07:00~10:00 천담수사우나(신월큰길 39) 여탕 이용자는 금일 중 보건소 선별진료소에서 검사하시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2021/10/26 09:01:46</t>
+          <t>2021/10/28 13:25:56</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[영암군청] 10. 21.(목) 15:30~17:20 금정농협 경제사업부(금정면 용두로 24) 방문자는 선별진료소 검사바랍니다.(격리중 확진으로 역학조사 완료)</t>
+          <t>[화순군청] 10.23.(토) 13:40~14:25 옛날두부(화순읍 시장길 33)에서 23,000원 현금결제 하신 분은 거주지 보건소에서 코로나 진단검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2021/10/26 08:51:07</t>
+          <t>2021/10/28 12:58:41</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[영광군청] 10.25.(월) 22시기준 확진자1명(타지역 확진자 접촉)발생▲10.25.(월) 12시~13시 영광읍 양평해장국 방문자는 보건소에서 검사 바랍니다.</t>
+          <t>[전주시청]10.28(목) 현재기준 7명 발생(전일 2명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2021/10/26 08:50:31</t>
+          <t>2021/10/28 11:18:46</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[전남도청] 10.25. 24시기준 확진 6명(여수1,나주1,장흥1,영암1,신안2) ▲방역취약시설 운영자 및 종사자는 10.31.까지 2주 1회 진단검사 받으세요</t>
+          <t>[안양시청]▲10.28.(목) 11:00기준 신규확진자 29명 url.kr/iexuqk ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2021/10/26 08:46:39</t>
+          <t>2021/10/28 11:10:03</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[보성군]타지역 확진자 동선 관련, 10.20.(수) 16:20 회천→광주행 광우고속 버스를 이용하신 분은 보건소 선별진료소에서 검사바랍니다.(09~18시 운영)</t>
+          <t>[나주시청] 10.28. 09시기준. 확진자2명 발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2021/10/26 08:45:13</t>
+          <t>2021/10/28 11:08:31</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>전라북도 임실군</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[신안군청] 10.25. 24시 기준 확진자 2명(신안 57번~58번/자가격리 중 2) 발생 ▲의심 증상 시 즉시 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[임실군청]서울 확진자 동선 관련/10.23(토) 09:30 서울강남터미널 출발→순창터미널 이동중 강진터미널에서 하차하신분은 선별진료소에서 검사 받으시길 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2021/10/26 08:08:23</t>
+          <t>2021/10/28 10:59:57</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[군산시청] ▲ 10/24(일) 10:00~12:20 월명24시사우나찜질방(현충로95(나운동)) 남탕 이용자는 보건소 선별검사(09시~18시)바랍니다.</t>
+          <t>[용인시청]10월28일 0시기준 확진자 26명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2021/10/26 08:03:33</t>
+          <t>2021/10/28 10:59:56</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[여수시청] 10.25.24:00 기준 총1명 발생(타지역 방문)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[보은군청] 221(13:25백록동방향),721(15:35석화방향),940(17:20신함방향),431(19:00천남방향)이용자는 코로나 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2021/10/25 21:53:43</t>
+          <t>2021/10/28 10:44:26</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>강원도 태백시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[태백시청] 10월 25일(월) 21시기준 확진자 8명 발생(역학조사 중, 필요시 이동동선 태백시 홈페이지 공개), 유증상자는 보건소 선별검사 받으시기 바랍니다.</t>
+          <t>[완주군청] 10월 28일(목) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2021/10/25 18:53:55</t>
+          <t>2021/10/28 10:42:34</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라북도 순창군</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[남양주시청]10.25.(월) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t8vj 증상의심시 코로나19 검사받으세요.</t>
+          <t>[순창군청]서울 확진자 이동경로 안내 ▶10.23(토) 09:30 서울강남센트럴시티→ 12:50 순창터미널 도착▶고속버스 이용객은 가까운 선별진료소 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2021/10/25 18:34:29</t>
+          <t>2021/10/28 10:23:12</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.24 코로나 확진자 4명(내국인2, 외국인2)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[강원도청] 10.27.(수) 도내 코로나19 확진 22명(원주13 춘천2 태백2 강릉1 홍천1 철원1 양구1 인제1)▶접촉의심 및 감기증상시 즉시검사 당부 드림</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2021/10/25 18:26:40</t>
+          <t>2021/10/28 10:00:33</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>전라남도 장흥군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[장흥군청]10.25. 17시 기준 확진자 1명 발생(자가격리 중 확진) ▶이동동선 및 접촉자 없음 ▶유증상시 접종유무와 상관없이 즉시 선별진료소 검사바랍니다.</t>
+          <t>[수원시청] 10월 28일 0시 기준, 수원 확진자 60명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/xvl74</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2021/10/25 18:00:49</t>
+          <t>2021/10/28 09:58:53</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[안성시청]10.25. 코로나19확진자3명(자가격리1,확진자접촉1,자발적검사자1)발생.역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[영광군청] 확진자 동선 관련 ▲10.24.(일), 10.26.(화) 영광성당 방문자는 보건소에서 진단검사 받으시기 바랍니다.▲마스크착용, 타지역 방문·접촉 자제</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2021/10/25 17:56:29</t>
+          <t>2021/10/28 09:47:56</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[논산시청] 10월25일 확진자 9명(내국인6,외국인3/관내6,타지역2,조사중1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받기 바랍니다.</t>
+          <t>[진천군청]▲10.27 코로나 확진자 3명(내국인2, 외국인1). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2021/10/25 17:36:42</t>
+          <t>2021/10/28 09:42:42</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[의정부시]10.20.(수) 14시~16시 의정부백병원장례식장(신곡동) 2호실 방문자 중 유증상자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[보은군청]10.28.(목) 확진자 8명 발생▲10. 23.(토)~10.24.(일) 시내버스(충북74자1014) 이용자는 보건소에서 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2021/10/25 17:14:05</t>
+          <t>2021/10/28 09:36:34</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 25일, 확진자 3명 발생(선행 확진자의 접촉자1, 자가격리중1, 조사중1) ▲만남,모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[창원시청] 10.27. 확진자 22명 발생 ▲합포10,회원5,진해1,타지역1,격리중5 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2021/10/25 17:03:57</t>
+          <t>2021/10/28 09:33:21</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 25일 17시 기준 확진자 16명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[영광군청] 10.28.(목) 9시 기준, 확진자 1명(영광46번)발생▲10.24.(일)~10.27.(수)대동공업영광대리점 방문자는 보건소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2021/10/25 17:00:23</t>
+          <t>2021/10/28 09:19:19</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>강원도 원주시</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[과천시청] 10월25일17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[원주시청] 10.16.~10.24.'힐링타임아로마테라피(여대생마사지)[북원로2251, 단계동]' 이용자는 오늘 15시까지 보건소에서 코로나 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2021/10/25 17:00:02</t>
+          <t>2021/10/28 09:05:45</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[고성군청]10. 25. 16시기준, 확진자 1명(고성116번, 수도권 확진자 접촉, 타지역 거주)발생 ▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[양주시청] 10월 28일 00시 기준 확진자 11명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2021/10/25 16:13:42</t>
+          <t>2021/10/28 08:31:40</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[보성군]타지역 확진자 관내동선 관련, 10.19.(화) 17:00~19:45까지 보성읍 우리장례식장을 이용하신분은 보건소 선별진료소에서 지금 즉시 검사받으세요.</t>
+          <t>[남원시청]▲10.28(목)08시 기준 확진자 30명 발생(남원 172~201번)/감염경로조사중 ▲ 유증상시 접종유무와 상관없이 즉시 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2021/10/25 15:59:49</t>
+          <t>2021/10/28 08:30:09</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>서울특별시 용산구</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[용산구청] 10.8.(금)~10.14.(목) 한남동 소재 ‘Season9(엠타이인서울)’ 방문하신 분은 가까운 선별진료소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[목포시청]10.27. 24시 기준 확진자 1명(자가격리중 외국인) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2021/10/25 15:56:47</t>
+          <t>2021/10/28 08:28:21</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>경기도 고양시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[고양시청]10.18.(월)~20.(수) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[여수시청]10.27.24:00 기준 총1명 발생(타지역거주자)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2021/10/25 15:41:41</t>
+          <t>2021/10/27 21:09:37</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.14(목)~10.23(토) 설화머리방(서구 죽봉대로 111번길 14, 광천동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[보성군] 10.27.(수) 확진자 3명 추가 발생(가족,지인모임/역학조사중) ▲외출 및 지인모임 자제, 마스크 상시 착용, 의심증상시 보건소에서 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2021/10/25 15:32:37</t>
+          <t>2021/10/27 18:36:13</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[김제시청] 10.18(월)~10.22(금)12:00~13:00 김제시 용지면 소재한 그린반점(소독완료) 방문자는 가까운 선별진료소 방문 및 검사 바랍니다.</t>
+          <t>[홍성군청]10월27일(수) 18시 기준 확진자 5명(홍성301~305번) 발생.자가격리 1명, 병원격리 3명, 자발적검사 1명. 역학조사 및 방역조치 완료</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2021/10/25 15:09:24</t>
+          <t>2021/10/27 18:35:33</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[진주시청] 25일 15시 기준 확진자 1명(무료선제검사) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2021/10/25 14:57:15</t>
+          <t>2021/10/27 18:25:04</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>경상남도 양산시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[양산시청]10.25.(월) 15시기준, 코로나19 확진자 6명발생(접촉자 1, 격리중 2, 격리면제 검사 3)▲코로나19 백신 당일접종 접종센터(9~15시)</t>
+          <t>[남양주시청]10.27.(수) 코로나19 확진자 26명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tbit 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2021/10/25 14:31:31</t>
+          <t>2021/10/27 18:03:16</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[안산시청]10월25일14시기준 확진자 39명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/XeqOnC5</t>
+          <t>[충주시청] 10월 27일 확진자 7명 발생(선행 확진자 접촉1, 자가격리중4, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2021/10/25 14:18:04</t>
+          <t>2021/10/27 17:47:38</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[화성시청] 10.18.(월) 18:00~19:00 둘리칼국수(화성시 남양읍 남양시장로61) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[통영시청] 10.26.(화) 10:40~17:55 통영전문장례식장(정량동) 3층 특실을 방문하신분은 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2021/10/25 14:04:46</t>
+          <t>2021/10/27 17:44:59</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[통영시청]10.14.(목) 통영출발(16:10)→고성·마산경유→부산사상터미널도착/현대고속(경남70아1030) 탑승자는 가까운 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[구례군청]10.27.(수) 확진자 1명 발생(구례35번 가족), 접촉자 및 이동동선 없습니다. 타지역 방문을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2021/10/25 13:44:21</t>
+          <t>2021/10/27 17:32:06</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.25.(월) 11:00기준 신규확진자 15명 url.kr/v4srn9 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[광주시청] 10월 27일 17시 기준 확진자 28명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2021/10/25 11:47:38</t>
+          <t>2021/10/27 17:04:55</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[구미시청]외국인근로자 확진자 다수 발생. 외국인고용주께서는 근로자가 가까운 보건소에서 백신접종 및 진단검사를 할 수 있도록 관리에 철저를 기하여주시기 바랍니다.</t>
+          <t>[과천시청] 10월 27일 17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2021/10/25 11:19:05</t>
+          <t>2021/10/27 16:52:03</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[김제시청] 10.25.(월)11시기준 확진자 2명발생(확진자접촉2, 동선파악중)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[강북구청] 10.24.~27. 로얄PC방(도봉로 313, 지하1층) 방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2021/10/25 11:09:57</t>
+          <t>2021/10/27 16:32:30</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[아산시청] 10월 24일 확진자 1명(해외 입국자1) / 새로운 일상을 위한 방역의 생활화! 모두 함께 만들어 갑시다. 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[창원시청] 10.21.(목)~10.23.(토), 10.25.(월) 대림식당(마산합포구 북성로 100, 상남동) 방문자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2021/10/25 11:09:15</t>
+          <t>2021/10/27 15:43:47</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>전라북도 무주군</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[무주군청] 10.25.(월)11시 기준 신규 확진자 1명 발생(무주 45번, 10.24.(일) 21시 확진)/감기몸살, 기침 등 이상증상시 진단 검사바랍니다.</t>
+          <t>[부산시]10.23.(토) 13:30~15:30에 대원목욕탕(부산진구 황령대로18번길 43(범천동))여탕 이용자는 코로나19검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2021/10/25 11:00:00</t>
+          <t>2021/10/27 15:37:00</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자 8명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[화성시청] 10.22.(금) 킹노래방(화성시 봉담읍 와우안길 43) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:49</t>
+          <t>2021/10/27 15:36:38</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 25일(월) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[화성시청] 10.23.(토) 블루노래연습장(화성시 봉담읍 와우리 45-5 지하1층) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:39</t>
+          <t>2021/10/27 15:36:10</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>충청남도 서천군</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[포항시청] 10.19(화)~10.22(금) 대구은행 상대동지점(대도동 640-7) 대출업무관련 방문자는 가까운 보건소에서 검사 바랍니다.</t>
+          <t>[서천군청] 10.24.~26. 기간 중 서면 홍원항어촌계 수산물판매장 내 한문이네를 방문한 분들은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:32</t>
+          <t>2021/10/27 15:24:25</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[금산군청] 10.25(월) 10시 기준 확진자 8명 발생(격리중 3, 신규5), 역학조사중, 감기몸살, 오한 등 증상시 선별진료소 방문 검사바랍니다.</t>
+          <t>[김천시청]10월27일 15시기준 관내 초·중학교 관련 22명 발생(신규15, 자가격리중7)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2021/10/25 10:00:53</t>
+          <t>2021/10/27 15:10:02</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 25일 0시 기준, 수원 확진자 16명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d1t0c</t>
+          <t>[고성군청]10.24.(일)14:00~15:42병산수산고성왕새우(삼산면소재, 방역완료) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2021/10/25 09:30:14</t>
+          <t>2021/10/27 15:02:56</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다.▲24일 도내 확진자 42명 발생</t>
+          <t>[보은군청]10. 23.(토) ~ 10. 26.(화) 보은개인택시(35아 5061 /소나타/은색)를 이용하신분은 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2021/10/25 09:17:02</t>
+          <t>2021/10/27 14:59:56</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>강원도 강릉시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[강릉시청]어제(일) 4명 확진(친구간 밀접촉4)/10.20(수)~23(토) 기간중 카페썸(가톨릭관동대 내)을 방문하신 분은 오전중 보건소에서 반드시 검사바랍니다</t>
+          <t>[고성군청]10. 27.15시기준,확진자1명(고성118번, 관내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2021/10/25 09:14:30</t>
+          <t>2021/10/27 14:59:14</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 부천시</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[창원시청]10월21일(07:50~11:00), 22일(08:50~10:40) 진해스파랜드(진해대로 762,지하)이용자는 관할보건소에서 검사받으시기 바랍니다.</t>
+          <t>[부천시청] 10.19(화) 18시~22시 중동포차(조마루로291번길 46) 방문자는 증상유무에 관계없이 선별진료소에서 코로나19검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2021/10/25 09:13:26</t>
+          <t>2021/10/27 14:59:14</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[창원시청]10월18일(09:20~11:20),19일(07:40~11:10),20일(07:50~10:50)진해스파랜드(진해대로 762)이용자관할보건소에서 검사요망</t>
+          <t>[보은군청]10.19.(화)~10.22.(금)/10.25.(월)~10.26.(화)11:45~12:30즐거운집(보은읍 삼산리)이용자는 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2021/10/25 09:01:13</t>
+          <t>2021/10/27 14:57:46</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 25일 00시 기준 확진자 9명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[김제시청] 10.27.(수) 14시기준 확진자 1명 발생(확진자 접촉1, 동선파악중)/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2021/10/25 08:53:36</t>
+          <t>2021/10/27 14:47:14</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[전남도청] 10.24.24시기준 확진5명(구례1,장성1,완도1,신안1 /해외1(광양))※내국인3명,외국인2명(건설1,선원1) ▲의심증상 즉시 보건소 검사받으세요</t>
+          <t>[울산광역시] 10.23.(토)18:10~21:10 ▲동강병원 장례식장 6호실(중구 태화로 240, 태화동, 소독완료) 방문자는 코로나19 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2021/10/25 08:45:15</t>
+          <t>2021/10/27 14:31:59</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[신안군청]10.24.24시 기준 확진자 1명(건설근로자 외국인 1명)발생 ▲외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
+          <t>[창원시청] 10.19(화), 10.21(목)~10.24(일) 환금휘트니스사우나(마산회원구 북성로 106, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2021/10/25 08:25:06</t>
+          <t>2021/10/27 14:00:07</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>전라남도 광양시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[광양시청] 10. 24. 24시 기준 확진자 1명 발생(해외입국자 1) 가벼운 감기증상도 의료기관 방문 전 선별진료소 무료 검사 받으시기 바랍니다.</t>
+          <t>[사천시청] 10.27.(수) 14시 기준 확진자 5명(확진자 접촉자4명, 해외입국자1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2021/10/25 08:07:08</t>
+          <t>2021/10/27 13:40:54</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.25(월) 08시 기준 확진자 1명발생(남원 170번)/역학조사 중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시검사 받으시기 바랍니다.</t>
+          <t>[완도군청]외국인 확진자 자가격리중 1명 발생▶오늘 선별이동검사소 안내▶10/27(수)13:30~15:00 소안창조문화센터▶15:00~17:00 청산복지회관 2층</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2021/10/25 08:02:06</t>
+          <t>2021/10/27 11:02:53</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[울산광역시]임시선별검사소▲문수경기장(평일9~20시)▲종합운동장,동구국민체육센터,농소운동장,온양체육공원(평일9~17시)입니다.(점심시간 12시~13시 미운영)</t>
+          <t>[완도군청] 확진자동선▶10/22(금)보길보옥리→청별→노화이포 보길여객농어촌버스 첫차(08:00)▶노화 농협하나로마트09:00~09:10 동시간대 이용자 검사요망</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2021/10/25 08:00:04</t>
+          <t>2021/10/27 11:00:04</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[제천시청]10.25(월) 08시 현재. 확진자 1명 발생(외국인). 감염경로 조사중. 추가사항은 모바일콜센터 등으로 안내드리겠습니다. 증상 발현시 검사 바랍니다</t>
+          <t>[용인시청]10월27일 0시기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2021/10/24 20:42:25</t>
+          <t>2021/10/27 10:39:48</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>강원도 강릉시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[강릉시청]10.20(수)~10.23(토) 기간 중 카페썸(가톨릭관동대 내)을 방문하신 분들은 내일 오전중으로 보건소 선별검사소에서 반드시 검사 바랍니다.</t>
+          <t>[부여군청]10월27일 10시 기준 확진자 18명 발생【부여387~404,학생등13,외국인5】 감기증상 시 보건소에서 코로나 검사(특히 학생) 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2021/10/24 18:35:44</t>
+          <t>2021/10/27 10:37:52</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
+          <t>[강원도청] 10.26.(화) 도내 코로나19 확진 19명(원주6 태백5 춘천4 홍천3 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부 드림!!</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2021/10/24 18:11:09</t>
+          <t>2021/10/27 10:33:16</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[홍성군청]10월24일(일) 18시 기준 확진자 4명(홍성290~293번) 발생. 확진자 접촉 2, 자가격리중 1, 자발적 검사 1. 정밀역학조사중</t>
+          <t>[아산시청] 10월26일 확진자 10명(가족7, 지인1, 조사중 2) /단계적 일상 회복 전환을 위해 방역수칙을 준수해 주시고, 코로나 의심시 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2021/10/24 18:08:20</t>
+          <t>2021/10/27 10:26:25</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[안성시청]10.24.코로나확진자4명(자발적검사2, 확진자접촉2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[전주시청]10.27(수) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2021/10/24 17:41:31</t>
+          <t>2021/10/27 10:08:04</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[남양주시청]10.24.(일) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t7m6 증상의심시 코로나19 검사받으세요.</t>
+          <t>[완주군청] 10월 27일(수) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2021/10/24 17:23:07</t>
+          <t>2021/10/27 10:00:53</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>전라남도 장성군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[장성군청] 10. 24.(일) 확진자 1명(타지역 거주자) 발생. 관내 동선 및 접촉자 파악완료. 타지역 방문 및 접촉자는 증상이 없더라도 반드시 검사바랍니다.</t>
+          <t>[수원시청] 10월 27일 0시 기준, 수원 확진자 58명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/ghswi</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2021/10/24 17:04:10</t>
+          <t>2021/10/27 09:54:39</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 24일 17시 기준 확진자 5명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요..</t>
+          <t>[김천시청]코로나19이동선별검사소 운영안내▲장소:녹색미래과학관(율곡동)▲27일:13:00~16:00, 28일-29일:10:00~16:00▲의심증상시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2021/10/24 16:22:26</t>
+          <t>2021/10/27 09:53:25</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[당진시청]10/24(일)16시기준 확진자4명 발생(격리중2,조사중2).총1053명▲신규채용 등 진단검사 의무화행정명령(10/25~11/8) vo.la/68SFm</t>
+          <t>[보은군청] 10. 27.(수) 확진자 4명 발생 ▲ 10. 18.(월) 이후 복신경외과 내원자 및 유증상자는 인근 보건소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2021/10/24 16:07:36</t>
+          <t>2021/10/27 09:46:27</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 함양군</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>[창원시청]10월19일여탕(13:50~18:40),남탕(17:00~18:40) 북면마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
+          <t>[함양군청] 10. 18.(월) 14시 함양 출발 → 16시 부산(사상) 도착 시외버스 탑승객은 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2021/10/24 16:07:15</t>
+          <t>2021/10/27 09:31:50</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3172,4138 +3172,4410 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[창원시청]10월15일 여탕(17:40~19:20),남탕(17:40~19:12)북면 마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
+          <t>[창원시청] 10.18(월)~23(토) 온정백반(대산면 주남로503번길 8, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.(10.24 이후 검사자 제외)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2021/10/24 15:08:12</t>
+          <t>2021/10/27 09:30:51</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[안산시청]10월24일14시기준 확진자 61명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yU7Tmp1</t>
+          <t>[광주광역시] 10.17(일)~10.25(월) JL연기학원 1층~4층(동구 구성로 167, 충장로5가)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2021/10/24 15:08:10</t>
+          <t>2021/10/27 09:30:51</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[진주시청] 24일 15시 기준 확진자 2명(타지역 확진자 접촉자 1명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[창원시청] 10.26. 확진자 20명 발생 ▲의창4,합포6,회원4,진해2,타지역1,격리중3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2021/10/24 15:07:05</t>
+          <t>2021/10/27 09:30:30</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[부산시]10.15.(금)~10.23.(토) 뉴부산탕(금정구 서부로 2-1(서동)이용자는 선별검사소에서 코로나19검사 받으시기 바랍니다.</t>
+          <t>[완도군청]확진자동선▶10/21(목) 12:10해남출발→13:00완도도착▶13:20완도터미널→화흥포셔틀버스▶13:50화흥포→노화동천 여객선실 이용자 코로나검사요망</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2021/10/24 15:02:31</t>
+          <t>2021/10/27 09:30:26</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 24일 15시 기준, 확진자 7명 발생(선행 확진자의 접촉자)▲만남,모임,행사 자제▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲26일 도내 확진자 29명 발생</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2021/10/24 14:59:35</t>
+          <t>2021/10/27 09:11:43</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[대구광역시]단디아로마(달서구 달서대로95길 7,2층) 10/13~10/22 방문하신 분은 임시선별검사소 및 보건소(예약)에서 반드시 검사받으시기 바랍니다</t>
+          <t>[포항시청]10.23 302번버스 영일고등학교정류장15:41→죽도시장정류장16:07 죽도시장정류장16:33→영일고등학교정류장17:01 탑승객은 보건소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2021/10/24 14:52:33</t>
+          <t>2021/10/27 09:09:58</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.23. 코로나 확진자 3명(외국인3). ▲손씻기, 마스크착용 등 방역수칙 준수바랍니다. ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[양주시청] 10월 27일 00시 기준 확진자 4명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2021/10/24 14:21:57</t>
+          <t>2021/10/27 09:05:04</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>경상북도 안동시</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[안동시청]타지역확진자관련▲10/19(화) 09:50~10:20 콩심용상안동점(용상북1길6에이스아울렛E동1층)방문자는 선별진료소 방문하여 코로나19 검사바랍니다.</t>
+          <t>[천안시청] 확진자 17명 [타시민1, 천안시민16] ▶ 초·중·고교생 확진자 증가 ▶ 증상발현 시 병원 방문 전 검사 및 백신접종에 참여 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2021/10/24 14:13:44</t>
+          <t>2021/10/27 08:27:36</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[구례군청]10.24.(일) 확진자 1명 발생(타지역 확진자 접촉). 타지역 방문 및 타지인과의 만남을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[남원시청]▲10.27(수) 금일 확진자 1명 발생(남원 171번)/감염경로 조사중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2021/10/24 14:02:29</t>
+          <t>2021/10/27 08:00:07</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[당진시청]②10/17(월),22(금),23(토)18:00~22:00뉴럭셔리질러존노래연습장(북문로 1길 35-10)방문자 시청 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[제천시청]10.27(수) 8시 현재. 확진자 2명 발생(타 지역 확진자 접촉 1, 격리중 1). 지역내 특이동선 없음. 증상발현시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2021/10/24 13:58:51</t>
+          <t>2021/10/26 21:01:59</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[당진시청]①10.21(목) 17:55~18:30 CU편의점 당진원당점(수청동 983) 방문자는 15시30분까지 당진시청 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[보은군청]10.26.(화) 확진자 3명 발생, 10.18.(월)~10.26.(화) 복신경외과의원(보은읍) 방문자는 인근보건소에서 코로나검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2021/10/24 13:52:25</t>
+          <t>2021/10/26 20:24:18</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>[남양주시청]10.13.(수)~10.24.(일) 롯데택배물류센터(진접읍 양진로 962)근무자 및 방문자는 관할 선별진료소에서 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2021/10/24 13:19:52</t>
+          <t>2021/10/26 19:06:08</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[울산광역시]10.19(화)17:29~19:44▲착한갈비(중구 반구정12길 55,반구동,소독완료)방문자는 코로나 검사후 중구보건소(☎290-4300)연락바랍니다.</t>
+          <t>[강북구청]10.19.(화) 19:00~21:10 보스당구클럽(오패산로130)방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2021/10/24 13:09:20</t>
+          <t>2021/10/26 19:04:20</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 24일 13시 기준 신규확진 2명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[강북구청] 10.22.(금) 얼짱노래연습장(한천로 140길 35, 지층)방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2021/10/24 12:49:40</t>
+          <t>2021/10/26 18:15:19</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[화성시청] 10.18.(월)~10.21.(목) 대승철물(화성시 남양읍 남양성지로 233) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[남양주시청]10.26.(화) 코로나19 확진자 35명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/taaa 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2021/10/24 11:17:54</t>
+          <t>2021/10/26 18:00:02</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.4.(월) ~ 10.22.(금) 만남카페(칠곡군 왜관읍 중앙로5길 5-1, 왜관역 부근) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[안성시청]10.26코로나19확진자11명(자가격리2확진자접촉3자발적검사4해외입국2)발생.역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2021/10/24 11:14:04</t>
+          <t>2021/10/26 17:47:56</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[금산군청] 10.24(일) 11시기준 확진자 6명(격리중 1, 신규 5) 발생, 역학조사 중 ▶ 감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다</t>
+          <t>[충주시청] 10월 26일, 확진자 4명 발생(자가격리중 3, 감염경로 조사중 1) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2021/10/24 11:11:44</t>
+          <t>2021/10/26 17:29:09</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.24.(일) 11:00기준 신규확진자 10명 url.kr/pctb72 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[고성군청]10.26.17시기준,확진자1명(고성117번,조사중)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2021/10/24 10:59:35</t>
+          <t>2021/10/26 17:01:15</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 24일(일) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[광주시청] 10월 26일 17시 기준 확진자 21명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2021/10/24 10:54:30</t>
+          <t>2021/10/26 17:01:12</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[고성군청]10.14(목)통영출발(16:00)→고성경유(16:38)→마산경유(17:35)→부산시외버스터미널도착(18:25)현대버스탑승자는 선별진료소에서검사바랍니다</t>
+          <t>[창원시청] 10.16(토)~10.20(수) 17:00~17:20 감계식당(북면 감계로156번길 6-8,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2021/10/24 10:33:54</t>
+          <t>2021/10/26 17:00:57</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[구미시청]10/16(토)~10/17(일) 이슬람교 구미성원 (구미중앙로31길 13, 원평동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[창원시청] 10.16.(토)~10.20.(수) 12:00~12:30 윤현식당(북면 감계로188번길 21,방역완료)이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2021/10/24 10:30:15</t>
+          <t>2021/10/26 17:00:49</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[청주시청]10월 23일 확진자 17명 발생(상당구6,서원구2,흥덕구5,청원구4)▲홈페이지 참조▲이동·모임 자제▲수시 환기▲유증상 시 신속히 무료검사 바랍니다.</t>
+          <t>[과천시청]10월26일 17시 기준 신규확진 2명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2021/10/24 10:30:10</t>
+          <t>2021/10/26 16:14:21</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자17명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[당진시청]10/26(화)16시기준 확진자17명발생(격리중5,관내접촉3,타지역접촉1,조사중8).총1080명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2021/10/24 10:20:53</t>
+          <t>2021/10/26 16:10:22</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[구미시청]10/7(목)~10/21(목) 드리사(delisha cafe)(1공단로 190 지하1층,공단동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[사천시청]10.14(목)~10.24(일) 사천시 서부시장길 21, 2층(선원휴게실) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2021/10/24 10:16:16</t>
+          <t>2021/10/26 16:05:02</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>강원도 평창군</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[평창군청] 10.24일 평창군 확진자 1명(231번) 대화면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
+          <t>[진주시청] 26일 15시 기준 확진자 9명(관내 소재 회사 외국인 종사자 8명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2021/10/24 10:10:06</t>
+          <t>2021/10/26 16:03:46</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[완도군청]근해어선 선원 자가격리중 1명 확진(기존10, 추가1)▶입출항 연근해어선▶(행정명령)외국인 고용사업장 내·외국인 진담검사 하시기 바랍니다.</t>
+          <t>[안동시청]금일 16시기준 확진자1명 발생▲10.24(일)13:04~18:30 엔제리너스안동옥동점(광명로 175)방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2021/10/24 10:00:16</t>
+          <t>2021/10/26 15:57:55</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 24일 0시 기준, 수원 확진자 48명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/p1eng</t>
+          <t>[광주광역시] 10.18(월) 10.20(수) 10.22(금) 07:30~09:00 서광사우나 여탕(서구 죽봉대로109, 4층, 광천동) 방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2021/10/24 10:00:03</t>
+          <t>2021/10/26 15:39:54</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>전라남도 장성군</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[전남도청]전일 9명 발생(√타지역접촉4√외국인근로자4√가족접촉1)▲학교기숙사 등 일상생활 복귀전▲외국인고용사업장 신규채용 근로자는 근로전 진단검사 꼭 받으세요.</t>
+          <t>[장성군청] 10.26.(화) 확진자 1명 발생. 자가격리 중 확진으로 이동동선 없음. 외국인사업장 등 방역취약시설 운영자 및 종사자는 2주 1회 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2021/10/24 09:50:27</t>
+          <t>2021/10/26 14:26:48</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>강원도 원주시</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[원주시청] 10.15.또는10.20.'술파는노래방뿜빠이(장미공원길43-4,2층,단계동)' 이용자는 오늘 15시(12~13시 제외)까지 보건소 코로나 검사받으세요</t>
+          <t>[강진군청] 10월 23일 17:30 강진군 여성배드민턴 대회 후 회장 이취임식에 참석한 군민은 보건소 선별진료소에서 오후 5시까지 검사 받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2021/10/24 09:46:55</t>
+          <t>2021/10/26 14:22:31</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[영암군청] 10. 23.(토) 12:40~14:00 '고향식육식당'(금정면 용두로 15) 방문자는 증상유무관계없이 즉시 선별진료소 검사바랍니다.</t>
+          <t>[음성군청]10월 26일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2021/10/24 09:00:06</t>
+          <t>2021/10/26 14:19:40</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>충청남도 청양군</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 24일 00시기준 확진자 8명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[청양군청] 10월 26일 기준 확진자 1명 발생. 청양98번(자가격리중 확진, 이동동선 없음). ▲타지역 방문 자제, 유증상 시 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2021/10/24 08:56:28</t>
+          <t>2021/10/26 14:01:45</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[신안군청] 10.23. 24시 기준 확진자 3명(건설근로자 외국인 2명, 자가격리 중 1명) 발생 ▲ 외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
+          <t>[사천시청]10.26.(화) 14시 기준 확진자 2명(확진자 접촉자1명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2021/10/24 08:53:21</t>
+          <t>2021/10/26 12:58:38</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>[전남도청]10.23. 24시기준 확진 9명(목포1, 곡성1, 영암3, 진도1, 신안3) ※내국인 5명, 외국인 4명(건설 4)▲의심증상시 무료 진단검사 받으세요</t>
+          <t>[사천시청]10.14.(목)~10.24(일) 08:00~12:00 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2021/10/24 08:21:43</t>
+          <t>2021/10/26 11:52:38</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>[목포시청]10.23. 24시 기준 확진자 1명 (타지역방문접촉) 발생 ▲타지역 이동 자제하시고, 기침, 발열 등 의심 증상 있을 시 보건소 무료 검사받으세요.</t>
+          <t>[칠곡군청] 10.22.(금)~10.25.(월) 산호장여관(왜관읍 중앙로5길 10, 왜관역 부근) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2021/10/23 18:01:25</t>
+          <t>2021/10/26 11:52:08</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[당진시청]신규채용 및 외국인근로자 등 코로나19진단검사 의무화됩니다.(10.25.~11.8.) 자세한 사항은 시홈페이지 공고 참고바랍니다. vo.la/68SFm</t>
+          <t>[칠곡군청] 10.12.(화)~10.24.(일) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2021/10/23 18:00:23</t>
+          <t>2021/10/26 11:23:52</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[남양주시청]10.23.(토) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t799 증상의심시 코로나19 검사받으세요.</t>
+          <t>[안양시청]▲10.26.(화) 11:00기준 신규확진자 24명 url.kr/eybpvx ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2021/10/23 18:00:09</t>
+          <t>2021/10/26 11:11:36</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경상북도 성주군</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[수원시청] 10.13.(수)~10.22.(금) 바이크마켓(팔달구 세지로 352, 1층) 방문자 중 유증상자는 가까운 보건소에서 코로나19 검사바랍니다.</t>
+          <t>[성주군] 10월23일(토) 13:50-14:20까지 박여사순대국밥(초전면 대장길 76) 방문자는 선별진료소에서 코로나19 PCR검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2021/10/23 17:14:08</t>
+          <t>2021/10/26 10:59:58</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 23일 확진자 10명 발생(타지역접촉4, 자가격리중3, 조사중3) ▲모임, 행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자 5명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2021/10/23 17:01:05</t>
+          <t>2021/10/26 10:28:11</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 23일 17시 기준 확진자 18명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[청주시청]10월 25일 확진자 13명 발생(상당구3,서원구1,흥덕구3,청원구5,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2021/10/23 16:51:01</t>
+          <t>2021/10/26 10:18:06</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경상북도 성주군</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[진도군청]10.23(토)확진자 1명발생(진도56번)▲타지역거주 외국인근로자,접촉자 전원음성▲입출항 근해어업 선원,외국인고용사업장 내·외국인 2주1회 검사받으세요</t>
+          <t>[성주군청] 최근 타지역을 방문했거나 발열, 기침 등 코로나19 증상이 있을 경우 보건소 선별진료소를 방문하여 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2021/10/23 16:34:08</t>
+          <t>2021/10/26 10:13:53</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[화성시청] 코로나19 선별진료소(검사소) 주말 및 공휴일 운영시간이 09시부터 13시로 조정됨을 알려드립니다.</t>
+          <t>[진천군청]▲10.25 코로나 확진자 11명(외국인11). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2021/10/23 16:08:38</t>
+          <t>2021/10/26 10:05:39</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[당진시청]10/23(토) 16시기준 확진자17명(관내접촉2,타지역접촉2,격리중8,조사중5)발생.총1049명▲의심증상 시 외출·모임 자제 및 코로나검사 바랍니다.</t>
+          <t>[완주군청] 10월 26일(화) 0시 기준 확진자 8명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2021/10/23 15:31:34</t>
+          <t>2021/10/26 10:00:58</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[사천시청] 10.21.(목) 09:20~11:30 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[강북구청]10.16.~22. 분홍미용실(강북구 도봉로97길 15), 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2021/10/23 15:27:27</t>
+          <t>2021/10/26 10:00:05</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>전라남도 곡성군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[곡성군청]금일 09시기준 확진자 1명 발생. 타지역 거주, 동선 및 접촉자 파악중, 타 지역방문 후 또는 유증상 시에 군 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[수원시청] 10월 26일 0시 기준, 수원 확진자 20명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/mwbj1</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2021/10/23 15:24:22</t>
+          <t>2021/10/26 09:57:38</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>[음성군청]10월 23일 확진자 5명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[창원시청] 10.21(목)~10.24(일) 05:00~12:00 진해스파랜드(진해구 진해대로 762,지하) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2021/10/23 14:37:19</t>
+          <t>2021/10/26 09:52:28</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>[안산시청]10월23일14시기준 확진자 77명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z9vSfk2</t>
+          <t>[완도군청]확진자 2명 발생(신지면1, 보길면1) 자가격리 중 확진으로 이동동선 없음▶오전 금일, 보길, 금당, 생일 이동선별진료소 운영중▶주민들은 검사요망</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2021/10/23 14:18:11</t>
+          <t>2021/10/26 09:51:23</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.23.(토) 13:30기준 신규확진자 33명 url.kr/qz7o2i ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[창원시청] 10.19.(화), 10.21.(목)~10.24.(일) 환금휘트니스사우나(회원구 북성로 106,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2021/10/23 14:02:09</t>
+          <t>2021/10/26 09:48:27</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>[사천시청] 10.23.(토) 14시 기준 확진자 3명(자가격리중 2명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[창원시청] 10.20.(수) 19:00~19:30 팔룡동 대동마트(의창구 반계로 97) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2021/10/23 14:00:25</t>
+          <t>2021/10/26 09:22:52</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>충청북도 괴산군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[괴산군청] 10월 23일 확진자 1명(타지역 1명) 발생. 자세한 사항은 역학조사후 홈페이지 게시예정. 증상발현시 즉시 코로나19검사 받으시기 바랍니다.</t>
+          <t>[창원시청] 10.25. 확진자 6명 발생 ▲성산1,합포1,진해1,타지역1,격리중2 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2021/10/23 13:11:08</t>
+          <t>2021/10/26 09:05:02</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 23일 13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[김제시청] 10.26.(화) 9시기준 확진자 1명 발생(자가격리중 확진, 외국인)/동선없음/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2021/10/23 12:47:56</t>
+          <t>2021/10/26 09:01:46</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[김제시청]10.23.(토) 11시 확진자 2명 발생(내국인1,외국인1)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[영암군청] 10. 21.(목) 15:30~17:20 금정농협 경제사업부(금정면 용두로 24) 방문자는 선별진료소 검사바랍니다.(격리중 확진으로 역학조사 완료)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2021/10/23 12:32:22</t>
+          <t>2021/10/26 08:51:07</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.22 코로나 확진자 5명(내국인2, 외국인3)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[영광군청] 10.25.(월) 22시기준 확진자1명(타지역 확진자 접촉)발생▲10.25.(월) 12시~13시 영광읍 양평해장국 방문자는 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2021/10/23 11:35:53</t>
+          <t>2021/10/26 08:50:31</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>[강화군청] 2021년 10월 16일(토) ~ 10월 22일(금)까지 강화읍 풍물시장 방문객은 가까운 선별 진료소에서 코로나 검사를 받으시길 바랍니다.</t>
+          <t>[전남도청] 10.25. 24시기준 확진 6명(여수1,나주1,장흥1,영암1,신안2) ▲방역취약시설 운영자 및 종사자는 10.31.까지 2주 1회 진단검사 받으세요</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2021/10/23 11:08:06</t>
+          <t>2021/10/26 08:46:39</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 23일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[보성군]타지역 확진자 동선 관련, 10.20.(수) 16:20 회천→광주행 광우고속 버스를 이용하신 분은 보건소 선별진료소에서 검사바랍니다.(09~18시 운영)</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2021/10/23 11:00:04</t>
+          <t>2021/10/26 08:45:13</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인고용 100인미만 사업장 내·외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[신안군청] 10.25. 24시 기준 확진자 2명(신안 57번~58번/자가격리 중 2) 발생 ▲의심 증상 시 즉시 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2021/10/23 10:49:46</t>
+          <t>2021/10/26 08:08:23</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>경기도 고양시</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>[고양시청]10.17.(일) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[군산시청] ▲ 10/24(일) 10:00~12:20 월명24시사우나찜질방(현충로95(나운동)) 남탕 이용자는 보건소 선별검사(09시~18시)바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2021/10/23 10:42:05</t>
+          <t>2021/10/26 08:03:33</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[강원도청] 10.22.(금) 코로나19 확진자 20명 (원주11, 춘천7, 속초1, 횡성1) ▶감기증상 시 즉시검사 실시 ▶개인 방역수칙 준수 철저 당부드림!</t>
+          <t>[여수시청] 10.25.24:00 기준 총1명 발생(타지역 방문)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2021/10/23 10:37:32</t>
+          <t>2021/10/25 21:53:43</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>전라북도 부안군</t>
+          <t>강원도 태백시</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>[부안군청]부안 128번 확진자 동선 관련 10.21(목) 17:15전주⇒부안 직행 시외버스 탑승자는 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[태백시청] 10월 25일(월) 21시기준 확진자 8명 발생(역학조사 중, 필요시 이동동선 태백시 홈페이지 공개), 유증상자는 보건소 선별검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2021/10/23 10:03:18</t>
+          <t>2021/10/25 18:53:55</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>[전남도청](행정명령강화) 외국인고용사업장(건설,어업,식당 등) ▲신규취업 ▲근무지 변경시 근무전 진단검사 의무 ▲내외국인 2주1회 진단검사 받으시기 바랍니다.</t>
+          <t>[남양주시청]10.25.(월) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t8vj 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2021/10/23 10:01:48</t>
+          <t>2021/10/25 18:34:29</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 23일 0시 기준, 수원 확진자 29명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/2ej2k</t>
+          <t>[진천군청]▲10.24 코로나 확진자 4명(내국인2, 외국인2)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2021/10/23 09:30:56</t>
+          <t>2021/10/25 18:26:40</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>전라남도 장흥군</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲22일 도내 확진자 47명 발생</t>
+          <t>[장흥군청]10.25. 17시 기준 확진자 1명 발생(자가격리 중 확진) ▶이동동선 및 접촉자 없음 ▶유증상시 접종유무와 상관없이 즉시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2021/10/23 09:19:58</t>
+          <t>2021/10/25 18:00:49</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 9명 [타시민2, 천안시민7] ▶ 기침, 발열 등 의심증상 발현 시 의료기관 방문 전 코로나19 검사 바랍니다.</t>
+          <t>[안성시청]10.25. 코로나19확진자3명(자가격리1,확진자접촉1,자발적검사자1)발생.역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2021/10/23 09:01:30</t>
+          <t>2021/10/25 17:56:29</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 23일 00시기준 확진자 7명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[논산시청] 10월25일 확진자 9명(내국인6,외국인3/관내6,타지역2,조사중1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2021/10/23 08:57:15</t>
+          <t>2021/10/25 17:36:42</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>[전남도청] 10.22.24시기준 확진 5명(목포1,무안1,신안3) ※내국인2명,외국인3명(건설3)▲타지역 이동 자제하시고, 의심증상시 보건소 무료 검사받으세요.</t>
+          <t>[의정부시]10.20.(수) 14시~16시 의정부백병원장례식장(신곡동) 2호실 방문자 중 유증상자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2021/10/23 08:48:43</t>
+          <t>2021/10/25 17:14:05</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>[남원시청]10.23(토) 08시 기준 확진자 1명 발생(남원 169번)/역학조사 중 가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[충주시청] 10월 25일, 확진자 3명 발생(선행 확진자의 접촉자1, 자가격리중1, 조사중1) ▲만남,모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2021/10/23 08:32:15</t>
+          <t>2021/10/25 17:03:57</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[신안군청] 10.22. 24시 기준 확진자 3명(신안 50번~52번/공사현장 근무자 2명, 자가격리 1명) 발생▲인후통, 두통 등 의심 증상시 코로나19 검사</t>
+          <t>[광주시청] 10월 25일 17시 기준 확진자 16명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2021/10/23 08:30:55</t>
+          <t>2021/10/25 17:00:23</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>[목포시청] 10.22. 24시 기준 확진자 1명 (자가격리중 외국인1) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[과천시청] 10월25일17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2021/10/23 08:00:05</t>
+          <t>2021/10/25 17:00:02</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>[울산광역시]이번 주말(10.23~10.24) 임시선별검사소는 종합운동장, 문수경기장 2개소에서 09시~17시까지 운영합니다.(점심시간 12시~13시 미운영)</t>
+          <t>[고성군청]10. 25. 16시기준, 확진자 1명(고성116번, 수도권 확진자 접촉, 타지역 거주)발생 ▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2021/10/22 19:26:24</t>
+          <t>2021/10/25 16:13:42</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>경상남도 김해시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[김해시청] 10.16 15:51 하삼동커피외동점(내외중앙로27)에 방문하여 현금결제 후 매장에서 취식하신 회색외투에 단발머리 여성분은 코로나 검사하시기바랍니다</t>
+          <t>[보성군]타지역 확진자 관내동선 관련, 10.19.(화) 17:00~19:45까지 보성읍 우리장례식장을 이용하신분은 보건소 선별진료소에서 지금 즉시 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2021/10/22 18:06:14</t>
+          <t>2021/10/25 15:59:49</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>서울특별시 용산구</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>[남양주시청]10.22.(금) 코로나19 확진자 30명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t6tl 증상의심시 코로나19검사 받으세요.</t>
+          <t>[용산구청] 10.8.(금)~10.14.(목) 한남동 소재 ‘Season9(엠타이인서울)’ 방문하신 분은 가까운 선별진료소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2021/10/22 18:05:51</t>
+          <t>2021/10/25 15:56:47</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경기도 고양시</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>[무안군청]10.22(금)18시 기준 확진자 1명 발생(타지역 거주 공사현장 외국인근로자)▲외국인 고용사업장 종사자 2주1회 진단검사▲미등록 외국인 예방접종 가능</t>
+          <t>[고양시청]10.18.(월)~20.(수) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2021/10/22 17:55:08</t>
+          <t>2021/10/25 15:41:41</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 22일 확진자 8명 발생(자가격리중7, 조사중1) ▲만남, 모임, 각종행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[광주광역시] 10.14(목)~10.23(토) 설화머리방(서구 죽봉대로 111번길 14, 광천동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2021/10/22 17:22:22</t>
+          <t>2021/10/25 15:32:37</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>서울특별시 구로구</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>[구로구청]10.12(화)~10.17(일) 기간 내 구로동로25길 7, 지하1층 일번지노래연습장 방문자는 가까운 선별진료소에서 코로나 검사를 받아주시기 바랍니다.</t>
+          <t>[김제시청] 10.18(월)~10.22(금)12:00~13:00 김제시 용지면 소재한 그린반점(소독완료) 방문자는 가까운 선별진료소 방문 및 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2021/10/22 17:18:54</t>
+          <t>2021/10/25 15:09:24</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>[창원시청] 10.17.(일) 07:50~09:03 창원북면황토방온천 여탕(의창구 북면 천주로1170번길 17-10) 이용자 관할보건소에서 예약 후 검사바랍니다.</t>
+          <t>[진주시청] 25일 15시 기준 확진자 1명(무료선제검사) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2021/10/22 17:07:22</t>
+          <t>2021/10/25 14:57:15</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>경상남도 양산시</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>[논산시청] 10월22일 확진자 2명(내국인2/관내1,타지역1) 발생 ▶타지역 이동·방문 후 가까운 선별진료소에서 PCR검사 당부드립니다.</t>
+          <t>[양산시청]10.25.(월) 15시기준, 코로나19 확진자 6명발생(접촉자 1, 격리중 2, 격리면제 검사 3)▲코로나19 백신 당일접종 접종센터(9~15시)</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2021/10/22 17:07:06</t>
+          <t>2021/10/25 14:31:31</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 22일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[안산시청]10월25일14시기준 확진자 39명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/XeqOnC5</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2021/10/22 16:59:42</t>
+          <t>2021/10/25 14:18:04</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[과천시청] 10월22일17시 기준 신규확진 3명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[화성시청] 10.18.(월) 18:00~19:00 둘리칼국수(화성시 남양읍 남양시장로61) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2021/10/22 16:40:39</t>
+          <t>2021/10/25 14:04:46</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[창원시청]▲10.18~10.19 13:00~13:40▲10.20 12:20~12:40 테크노밸리식당매점(의창구소계로12,복지동605)식사하신분 코로나검사바랍니다</t>
+          <t>[통영시청]10.14.(목) 통영출발(16:10)→고성·마산경유→부산사상터미널도착/현대고속(경남70아1030) 탑승자는 가까운 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2021/10/22 15:27:14</t>
+          <t>2021/10/25 13:44:21</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[음성군청]10월22일 확진자 23명(내국인2,외국인21)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[안양시청]▲10.25.(월) 11:00기준 신규확진자 15명 url.kr/v4srn9 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2021/10/22 15:21:32</t>
+          <t>2021/10/25 11:47:38</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[안산시청]10월22일14시기준 확진자 45명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Zc7Ow36</t>
+          <t>[구미시청]외국인근로자 확진자 다수 발생. 외국인고용주께서는 근로자가 가까운 보건소에서 백신접종 및 진단검사를 할 수 있도록 관리에 철저를 기하여주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2021/10/22 15:15:28</t>
+          <t>2021/10/25 11:19:05</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.21 확진자 8명(내국인3,외국인5)▲10.22(16:00~20:00)덕산행정복지센터,이월행정복지센터 외국인 집중 코로나 PCR 전수검사 실시</t>
+          <t>[김제시청] 10.25.(월)11시기준 확진자 2명발생(확진자접촉2, 동선파악중)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2021/10/22 14:44:06</t>
+          <t>2021/10/25 11:09:57</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>[대구광역시]알힉마논공이슬람센터(논공읍 논공로 15길 20-6) 10/15 이후 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[아산시청] 10월 24일 확진자 1명(해외 입국자1) / 새로운 일상을 위한 방역의 생활화! 모두 함께 만들어 갑시다. 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2021/10/22 13:57:27</t>
+          <t>2021/10/25 11:09:15</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라북도 무주군</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>[창원시청] 10.11(월)~10.21(목) 문영일이비인후과의원(의창구 팔용로 428,방역완료) 방문자는 반드시 코로나검사바랍니다(10.19이후 검사완료자 제외)</t>
+          <t>[무주군청] 10.25.(월)11시 기준 신규 확진자 1명 발생(무주 45번, 10.24.(일) 21시 확진)/감기몸살, 기침 등 이상증상시 진단 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2021/10/22 13:52:41</t>
+          <t>2021/10/25 11:00:00</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>[금산군청]10월19일 송림백작소, 새마을저온창고 / 10월20일 현대백작소 / 10월21일 송림백작소에서 일하신 분들은 코로나19 검사를 받아주시기 바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자 8명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2021/10/22 13:49:58</t>
+          <t>2021/10/25 10:42:49</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>[무안군청]10.20.(수)11:47~12:00, 10.21.(목)12:07~12:18삼삼한식뷔페(현경면 성재길55)방문자는 선별진료소 검사바랍니다.▲방역소독완료</t>
+          <t>[완주군청] 10월 25일(월) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2021/10/22 11:31:26</t>
+          <t>2021/10/25 10:42:39</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[전남도청] 외국인확진자 지속확산 ▲전일확진자 15명 중 외국인근로자 10명(√어업3√건설7)▲외국인고용사업장 신규취업 내·외국인 근무전 검사 의무적으로 받으세요</t>
+          <t>[포항시청] 10.19(화)~10.22(금) 대구은행 상대동지점(대도동 640-7) 대출업무관련 방문자는 가까운 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2021/10/22 11:00:54</t>
+          <t>2021/10/25 10:42:32</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>[나주시청] 10.22. 09시기준. 확진자1명(격리 1)발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
+          <t>[금산군청] 10.25(월) 10시 기준 확진자 8명 발생(격리중 3, 신규5), 역학조사중, 감기몸살, 오한 등 증상시 선별진료소 방문 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2021/10/22 10:59:58</t>
+          <t>2021/10/25 10:00:53</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자20명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[수원시청] 10월 25일 0시 기준, 수원 확진자 16명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d1t0c</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2021/10/22 10:55:31</t>
+          <t>2021/10/25 09:30:14</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>[대구광역시]오렌지PC방(대명복개로138-2) 9/30,10/2~4,6,9,10,18 방문하신 분은 임시선별 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다.▲24일 도내 확진자 42명 발생</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2021/10/22 10:23:20</t>
+          <t>2021/10/25 09:17:02</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>강원도 강릉시</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>[창원시청] 10.17(일) 창원북면황토방온천(북면 천주로1170번길 17-10) 아침7시 입장, 6천원 현금결제 여탕 이용자는 창원보건소에 연락 후 검사바랍니다</t>
+          <t>[강릉시청]어제(일) 4명 확진(친구간 밀접촉4)/10.20(수)~23(토) 기간중 카페썸(가톨릭관동대 내)을 방문하신 분은 오전중 보건소에서 반드시 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2021/10/22 10:05:40</t>
+          <t>2021/10/25 09:14:30</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 22일(금) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[창원시청]10월21일(07:50~11:00), 22일(08:50~10:40) 진해스파랜드(진해대로 762,지하)이용자는 관할보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2021/10/22 10:04:41</t>
+          <t>2021/10/25 09:13:26</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[전주시청]10.22(금) 현재기준 1명 발생(전일 2명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
+          <t>[창원시청]10월18일(09:20~11:20),19일(07:40~11:10),20일(07:50~10:50)진해스파랜드(진해대로 762)이용자관할보건소에서 검사요망</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2021/10/22 10:01:35</t>
+          <t>2021/10/25 09:01:13</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>[금산군청] 10.22(금) 10시 기준 확진자 2명(신규 2) 발생, 역학조사 중 ▶감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다.</t>
+          <t>[양주시청] 10월 25일 00시 기준 확진자 9명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2021/10/22 10:00:55</t>
+          <t>2021/10/25 08:53:36</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>경상북도 영주시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>[영주시청] 10.8(금)~10.16(토) 풍기 로그인PC방 이용하신분은 코로나검사 받으시기 바랍니다. 선별진료소 운영(풍기읍사무소10-17시, 보건소18시까지)</t>
+          <t>[전남도청] 10.24.24시기준 확진5명(구례1,장성1,완도1,신안1 /해외1(광양))※내국인3명,외국인2명(건설1,선원1) ▲의심증상 즉시 보건소 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2021/10/22 10:00:53</t>
+          <t>2021/10/25 08:45:15</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 22일 0시 기준, 수원 확진자 38명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/6soyk</t>
+          <t>[신안군청]10.24.24시 기준 확진자 1명(건설근로자 외국인 1명)발생 ▲외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2021/10/22 09:07:08</t>
+          <t>2021/10/25 08:25:06</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라남도 광양시</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 22일 00시기준 확진자 14명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[광양시청] 10. 24. 24시 기준 확진자 1명 발생(해외입국자 1) 가벼운 감기증상도 의료기관 방문 전 선별진료소 무료 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2021/10/22 08:57:55</t>
+          <t>2021/10/25 08:07:08</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>[완도군청] 10.21.(목)18:00 기준 확진자 1명 발생(근해어선 외국인 선원)▲입·출항 연근해어선▲외국인 고용사업장 모두 선별진료소에서 코로나 검사요망.</t>
+          <t>[남원시청]▲10.25(월) 08시 기준 확진자 1명발생(남원 170번)/역학조사 중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2021/10/22 08:31:41</t>
+          <t>2021/10/25 08:02:06</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[목포시청]10.21. 24시 기준 확진자 1명 발생(타지역접촉외국인1) ▲집단감염 예방 위해 타지역 방문·접촉자 검사▲나와 내 가족을 위해 백신접종 참여바랍니다</t>
+          <t>[울산광역시]임시선별검사소▲문수경기장(평일9~20시)▲종합운동장,동구국민체육센터,농소운동장,온양체육공원(평일9~17시)입니다.(점심시간 12시~13시 미운영)</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2021/10/22 08:19:45</t>
+          <t>2021/10/25 08:00:04</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>전라남도 광양시</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[광양시청]21. 10. 21.(목) 24시 기준 확진자 2명 발생(격리중1, 타지역 확진자 접촉 1) 가벼운 감기증상도 즉시 보건소 선별진료소 무료 검사받으세요</t>
+          <t>[제천시청]10.25(월) 08시 현재. 확진자 1명 발생(외국인). 감염경로 조사중. 추가사항은 모바일콜센터 등으로 안내드리겠습니다. 증상 발현시 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2021/10/22 08:15:40</t>
+          <t>2021/10/24 20:42:25</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>전라남도 순천시</t>
+          <t>강원도 강릉시</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>[순천시청] 10.21.(목) 24시 기준 확진자 1명 발생(타지역 거주자) √기침, 인후통 등 가벼운 감기 증상이라도 반드시 보건소에서 검사바랍니다.</t>
+          <t>[강릉시청]10.20(수)~10.23(토) 기간 중 카페썸(가톨릭관동대 내)을 방문하신 분들은 내일 오전중으로 보건소 선별검사소에서 반드시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2021/10/22 08:13:59</t>
+          <t>2021/10/24 18:35:44</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>[여수시청]10.21.24:00 기준 총1명 발생(자가격리 해제검사)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2021/10/22 08:10:02</t>
+          <t>2021/10/24 18:11:09</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[영암군청] 롯데슈퍼 영암삼호점(삼호읍 대불주거로 55-1)을 10. 21.(목) 11:35~12:00에 방문하신 분은 가까운 선변진료소에서 검사받으시기 바랍니다</t>
+          <t>[홍성군청]10월24일(일) 18시 기준 확진자 4명(홍성290~293번) 발생. 확진자 접촉 2, 자가격리중 1, 자발적 검사 1. 정밀역학조사중</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2021/10/22 08:09:40</t>
+          <t>2021/10/24 18:08:20</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>[창원시청] ▲만남의광장 임시선별검사소 오늘(10.22.)부터 미운영 ▲보건소, 마산역, 창원종합버스터미널 검사소 정상운영</t>
+          <t>[안성시청]10.24.코로나확진자4명(자발적검사2, 확진자접촉2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2021/10/22 08:08:11</t>
+          <t>2021/10/24 17:41:31</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/22(금) 08시 기준 전일 3명 확진자발생(656~658) ▲격리중2,조사중1 ▲발열,기침 등 의심증상 발현 시 검사 받으시기 바랍니다.</t>
+          <t>[남양주시청]10.24.(일) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t7m6 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2021/10/22 08:00:19</t>
+          <t>2021/10/24 17:23:07</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>전라남도 장성군</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>[신안군청] 10.21. 24시 기준 확진자 5명(신안 45번~49번/공사현장 근로 외국인 5명) 발생 ▲미등록 외국인 여권으로 예방접종 예약가능▲유증상시 검사</t>
+          <t>[장성군청] 10. 24.(일) 확진자 1명(타지역 거주자) 발생. 관내 동선 및 접촉자 파악완료. 타지역 방문 및 접촉자는 증상이 없더라도 반드시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2021/10/21 19:02:39</t>
+          <t>2021/10/24 17:04:10</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>[중대본] 10.11~10.20 서울 관악구 신림로67길5 3층 '휴테라피' 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.(☎120,1339)</t>
+          <t>[광주시청] 10월 24일 17시 기준 확진자 5명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요..</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2021/10/21 18:11:33</t>
+          <t>2021/10/24 16:22:26</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>[남양주시청]10.21.(목) 코로나19 확진자 39명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t5nh 증상의심시 코로나19검사 받으세요.</t>
+          <t>[당진시청]10/24(일)16시기준 확진자4명 발생(격리중2,조사중2).총1053명▲신규채용 등 진단검사 의무화행정명령(10/25~11/8) vo.la/68SFm</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2021/10/21 18:00:04</t>
+          <t>2021/10/24 16:07:36</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>[안성시청]10.21. 코로나19 확진자 4명(확진자접촉3, 자발적검사1) 발생역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[창원시청]10월19일여탕(13:50~18:40),남탕(17:00~18:40) 북면마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2021/10/21 17:41:51</t>
+          <t>2021/10/24 16:07:15</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 21일 17시 기준 확진자 8명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[창원시청]10월15일 여탕(17:40~19:20),남탕(17:40~19:12)북면 마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2021/10/21 17:41:08</t>
+          <t>2021/10/24 15:08:12</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[강북구청]10.18.(월), 20.(수) 세종기원(도봉로67길40) 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
+          <t>[안산시청]10월24일14시기준 확진자 61명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yU7Tmp1</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2021/10/21 17:22:52</t>
+          <t>2021/10/24 15:08:10</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>[남양주시청]10.14.(목)~10.17.(일) 쓰리팝PC카페(평내로29번길 49, 2층, 평내동) 방문자는 가까운 거주지 보건소에서 코로나19검사를 받으세요.</t>
+          <t>[진주시청] 24일 15시 기준 확진자 2명(타지역 확진자 접촉자 1명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2021/10/21 17:20:39</t>
+          <t>2021/10/24 15:07:05</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 21일 확진자 7명 발생(자가격리중) ▲만남,모임,각종행사 자제 ▲거리두기 준수▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[부산시]10.15.(금)~10.23.(토) 뉴부산탕(금정구 서부로 2-1(서동)이용자는 선별검사소에서 코로나19검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2021/10/21 16:41:57</t>
+          <t>2021/10/24 15:02:31</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>[창원시청] 10.11.(월)~10.21.(목) 문영일이비인후과의원(의창구 팔용로 428 드림피아, 방역완료) 방문자는 반드시 코로나검사를 받으시기 바랍니다.</t>
+          <t>[충주시청] 10월 24일 15시 기준, 확진자 7명 발생(선행 확진자의 접촉자)▲만남,모임,행사 자제▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2021/10/21 16:31:47</t>
+          <t>2021/10/24 14:59:35</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>[완도군청] 완도읍 이동검사소 운영 안내▶10월 22일(금) 10:00~12:00 1부두 요트계류장▶모든 선박 선원과 외국인 근로자는 반드시 코로나 검사 요망.</t>
+          <t>[대구광역시]단디아로마(달서구 달서대로95길 7,2층) 10/13~10/22 방문하신 분은 임시선별검사소 및 보건소(예약)에서 반드시 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2021/10/21 15:44:40</t>
+          <t>2021/10/24 14:52:33</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>[대구광역시] 10월 중 평리광명네거리에서 농촌인력 중개차량 탑승하여 대구·경북지역 밭일 다녀오신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으십시오.</t>
+          <t>[진천군청]▲10.23. 코로나 확진자 3명(외국인3). ▲손씻기, 마스크착용 등 방역수칙 준수바랍니다. ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2021/10/21 15:26:35</t>
+          <t>2021/10/24 14:21:57</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>[남원시청]타지역 확진자 관련 10.14.(목) 12:02~24, 10.15.(금) 12:45~13:08 남문정식(남문로 464-14) 방문자는 검사 받으세요.</t>
+          <t>[안동시청]타지역확진자관련▲10/19(화) 09:50~10:20 콩심용상안동점(용상북1길6에이스아울렛E동1층)방문자는 선별진료소 방문하여 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2021/10/21 15:15:25</t>
+          <t>2021/10/24 14:13:44</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.17(일) 위더스웨딩홀(서구 죽봉대로 153, 광천동) 3층 펠리체홀 14:30분 예식 관련하여 방문하신 분은 거주지 보건소에서 검사 바랍니다</t>
+          <t>[구례군청]10.24.(일) 확진자 1명 발생(타지역 확진자 접촉). 타지역 방문 및 타지인과의 만남을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2021/10/21 15:00:22</t>
+          <t>2021/10/24 14:02:29</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[음성군청]10월 21일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[당진시청]②10/17(월),22(금),23(토)18:00~22:00뉴럭셔리질러존노래연습장(북문로 1길 35-10)방문자 시청 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2021/10/21 14:31:26</t>
+          <t>2021/10/24 13:58:51</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[안산시청]10월21일14시기준 확진자 43명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222543777600</t>
+          <t>[당진시청]①10.21(목) 17:55~18:30 CU편의점 당진원당점(수청동 983) 방문자는 15시30분까지 당진시청 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2021/10/21 14:08:23</t>
+          <t>2021/10/24 13:52:25</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>[나주시청] 10. 21. 9시기준 확진자 4명(격리 4) 발생. 외국인 백신접종 시급. 여권 지참 후 보건소 방문 접수. 코로나 증상 발현 시 검사 필수.</t>
+          <t>[남양주시청]10.13.(수)~10.24.(일) 롯데택배물류센터(진접읍 양진로 962)근무자 및 방문자는 관할 선별진료소에서 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2021/10/21 13:44:03</t>
+          <t>2021/10/24 13:19:52</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>[진천군청]▲10. 21.(목) 16:00~20:00 덕산읍행정복지센터, 이월면행정복지센터 외국인 집중 코로나 PCR 전수검사 실시</t>
+          <t>[울산광역시]10.19(화)17:29~19:44▲착한갈비(중구 반구정12길 55,반구동,소독완료)방문자는 코로나 검사후 중구보건소(☎290-4300)연락바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2021/10/21 13:06:19</t>
+          <t>2021/10/24 13:09:20</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>[무안군청] 10.14.(목) 10:10~11:00 무안전통시장(무안읍 승달로 11)방문자는 인근 보건소 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[과천시청] 10월 24일 13시 기준 신규확진 2명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2021/10/21 12:47:26</t>
+          <t>2021/10/24 12:49:40</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.16(토) 18시~22시 상무어시장(음식점, 서구 시청로60번길 20, 치평동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[화성시청] 10.18.(월)~10.21.(목) 대승철물(화성시 남양읍 남양성지로 233) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2021/10/21 11:58:13</t>
+          <t>2021/10/24 11:17:54</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>경상남도 하동군</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>[하동군청]10.14(목), 12:30하동출발-12:40전도경유-13:40진주도착 5769 버스탑승자 중 전도~진주구간 탑승하신분은 코로나검사 받으시기 바랍니다.</t>
+          <t>[칠곡군청] 10.4.(월) ~ 10.22.(금) 만남카페(칠곡군 왜관읍 중앙로5길 5-1, 왜관역 부근) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2021/10/21 11:42:40</t>
+          <t>2021/10/24 11:14:04</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>[남원시청]타지역 확진자 관련/14.(목)12:02~12:24, 15.(금)12:45~13:08 남문정식(남원시 남문로 464-14) 방문자는 검사받기 바랍니다.</t>
+          <t>[금산군청] 10.24(일) 11시기준 확진자 6명(격리중 1, 신규 5) 발생, 역학조사 중 ▶ 감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2021/10/21 11:21:11</t>
+          <t>2021/10/24 11:11:44</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.20 코로나 확진자 7명(내국인2, 외국인5). ▲10.21(16:00~20:00) 이월보건지소, 덕산보건지소에서 코로나 검사실시.</t>
+          <t>[안양시청]▲10.24.(일) 11:00기준 신규확진자 10명 url.kr/pctb72 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2021/10/21 11:15:45</t>
+          <t>2021/10/24 10:59:35</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.21.(목) 11:00기준 신규확진자 15명 url.kr/b9twdn ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[완주군청] 10월 24일(일) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2021/10/21 11:00:05</t>
+          <t>2021/10/24 10:54:30</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[고성군청]10.14(목)통영출발(16:00)→고성경유(16:38)→마산경유(17:35)→부산시외버스터미널도착(18:25)현대버스탑승자는 선별진료소에서검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2021/10/21 10:32:10</t>
+          <t>2021/10/24 10:33:54</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>[청주시청]10월 20일 확진자 27명 발생(상당구3,서원구9,흥덕구8,청원구6,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
+          <t>[구미시청]10/16(토)~10/17(일) 이슬람교 구미성원 (구미중앙로31길 13, 원평동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2021/10/21 10:31:48</t>
+          <t>2021/10/24 10:30:15</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>[강원도청] 10.20.(수) 도내 코로나19 확진 31명(원주16 춘천10 속초2 횡성2 영월1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부!!</t>
+          <t>[청주시청]10월 23일 확진자 17명 발생(상당구6,서원구2,흥덕구5,청원구4)▲홈페이지 참조▲이동·모임 자제▲수시 환기▲유증상 시 신속히 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2021/10/21 10:14:05</t>
+          <t>2021/10/24 10:30:10</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 21일(목) 0시 기준 확진자 2명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[용인시청]금일 0시기준 확진자17명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2021/10/21 10:08:20</t>
+          <t>2021/10/24 10:20:53</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>[금산군청] 10.21(목) 10시 기준 확진자 1명(신규 1) 발생, 역학조사 중 ▶감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다.</t>
+          <t>[구미시청]10/7(목)~10/21(목) 드리사(delisha cafe)(1공단로 190 지하1층,공단동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2021/10/21 10:06:26</t>
+          <t>2021/10/24 10:16:16</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>강원도 평창군</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>[완도군청]외국인근로자 감염확산▶완도읍 외국인근로자 사업주께서는 이번주 모든 근로자가 진단검사할 수 있도록 협조 당부 드림▶다음주 전체 읍·면 외국인전수조사 예정</t>
+          <t>[평창군청] 10.24일 평창군 확진자 1명(231번) 대화면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2021/10/21 10:02:04</t>
+          <t>2021/10/24 10:10:06</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.17(일) 광장시장(음식점, 북구 안산로 40, 오치동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[완도군청]근해어선 선원 자가격리중 1명 확진(기존10, 추가1)▶입출항 연근해어선▶(행정명령)외국인 고용사업장 내·외국인 진담검사 하시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2021/10/21 10:00:44</t>
+          <t>2021/10/24 10:00:16</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>[전주시청]10.21(목) 현재기준 2명 발생(전일 1명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
+          <t>[수원시청] 10월 24일 0시 기준, 수원 확진자 48명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/p1eng</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2021/10/21 10:00:31</t>
+          <t>2021/10/24 10:00:03</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 21일 0시 기준, 수원 확진자 21명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/9ns0h</t>
+          <t>[전남도청]전일 9명 발생(√타지역접촉4√외국인근로자4√가족접촉1)▲학교기숙사 등 일상생활 복귀전▲외국인고용사업장 신규채용 근로자는 근로전 진단검사 꼭 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2021/10/21 09:55:11</t>
+          <t>2021/10/24 09:50:27</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>강원도 원주시</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>[완도군청]외국인확진자 동선▶10/16(토)완도읍 베트남쌀국수15:30~18:40, PHUONG가라오케(워커힐모텔 지하)19:00~22:00동시간대 방문자검사요망</t>
+          <t>[원주시청] 10.15.또는10.20.'술파는노래방뿜빠이(장미공원길43-4,2층,단계동)' 이용자는 오늘 15시(12~13시 제외)까지 보건소 코로나 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2021/10/21 09:51:58</t>
+          <t>2021/10/24 09:46:55</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>경상남도 창녕군</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>[창녕군청]10.21(목) 확진자2명 발생(창녕342~343/타지역접촉2)▷개인간 모임 자제▷방역수칙 준수 ▷유증상시 코로나검사 받으시기 바랍니다.</t>
+          <t>[영암군청] 10. 23.(토) 12:40~14:00 '고향식육식당'(금정면 용두로 15) 방문자는 증상유무관계없이 즉시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2021/10/21 09:33:48</t>
+          <t>2021/10/24 09:00:06</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>인천광역시 남동구</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>[남동구청] 10/14, 10/16~18 간석2동 리얼pc카페(간석동194-3) 방문자는 증상유무 관계없이 거주지 보건소에서 코로나19 검사 바랍니다.</t>
+          <t>[양주시청] 10월 24일 00시기준 확진자 8명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2021/10/21 09:08:12</t>
+          <t>2021/10/24 08:56:28</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 12명 [타시민5, 천안시민7] ▶ 가벼운 감기증상이 있을 시 백신접종 여부 관계없이 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[신안군청] 10.23. 24시 기준 확진자 3명(건설근로자 외국인 2명, 자가격리 중 1명) 발생 ▲ 외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2021/10/21 09:02:41</t>
+          <t>2021/10/24 08:53:21</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 21일 00시기준 확진자 16명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[전남도청]10.23. 24시기준 확진 9명(목포1, 곡성1, 영암3, 진도1, 신안3) ※내국인 5명, 외국인 4명(건설 4)▲의심증상시 무료 진단검사 받으세요</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2021/10/21 08:50:46</t>
+          <t>2021/10/24 08:21:43</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 보성군,전라남도 순천시,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>[전남도청] 10.20. 24시기준 확진 12명(여수1,나주4,구례2,화순1,무안2,완도1,신안1)▲확진자가 많은 타지역 방문·접촉 자제, 증상의심시 검사받으세요</t>
+          <t>[목포시청]10.23. 24시 기준 확진자 1명 (타지역방문접촉) 발생 ▲타지역 이동 자제하시고, 기침, 발열 등 의심 증상 있을 시 보건소 무료 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2021/10/21 08:26:51</t>
+          <t>2021/10/23 18:01:25</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>[무안군청] 10.21.(목) 8시 기준 확진자 2명 발생(타지역 확진자 접촉) ▲ 타지역 방문·접촉 시 증상 없어도 반드시 보건소 선별진료소에서 검사바랍니다.</t>
+          <t>[당진시청]신규채용 및 외국인근로자 등 코로나19진단검사 의무화됩니다.(10.25.~11.8.) 자세한 사항은 시홈페이지 공고 참고바랍니다. vo.la/68SFm</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2021/10/21 08:18:49</t>
+          <t>2021/10/23 18:00:23</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>[여수시청]10.20.24:00 기준 총1명 발생(자가격리중)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[남양주시청]10.23.(토) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t799 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2021/10/21 08:06:39</t>
+          <t>2021/10/23 18:00:09</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/21(목) 08시 기준 전일5명 확진자 발생(651~655) ▲확진자접촉2,격리중2,조사중1 ▲의심증상 발현 시 코로나 검사받으시기 바랍니다.</t>
+          <t>[수원시청] 10.13.(수)~10.22.(금) 바이크마켓(팔달구 세지로 352, 1층) 방문자 중 유증상자는 가까운 보건소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2021/10/20 21:06:38</t>
+          <t>2021/10/23 17:14:08</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>경상남도 의령군</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>[의령군청] 10. 18.(월) 21:00 마산에서 출발하는 의령도착 버스 탑승객은 코로나19 검사대상으로 의령군보건소(055-570-4900)로 연락 바랍니다.</t>
+          <t>[충주시청] 10월 23일 확진자 10명 발생(타지역접촉4, 자가격리중3, 조사중3) ▲모임, 행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2021/10/20 20:37:28</t>
+          <t>2021/10/23 17:01:05</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>[완도군청]10.20.(수) 20시 기준 완도읍 확진자 1명 발생(동선파악 및 역학조사 진행중)▶기침·인후통 등 의심증상 시 즉시 코로나 검사 받으세요.</t>
+          <t>[광주시청] 10월 23일 17시 기준 확진자 18명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2021/10/20 20:10:31</t>
+          <t>2021/10/23 16:51:01</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>[구례군청]10.20(수)확진자 2명발생(격리자1, 격리자가족1), 격리자 접촉은 확진으로 이어집니다. 자가격리 철저 및 증상발생 시 선별진료소에서 검사바랍니다.</t>
+          <t>[진도군청]10.23(토)확진자 1명발생(진도56번)▲타지역거주 외국인근로자,접촉자 전원음성▲입출항 근해어업 선원,외국인고용사업장 내·외국인 2주1회 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2021/10/20 18:28:41</t>
+          <t>2021/10/23 16:34:08</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>[부산시]10.11.(월)08:00~10.18.(월)17:40 퍼하우양음식점(서구 충무대로 217-1,충무동)방문한분 코로나19검사받으시기바랍니다.(소독완료)</t>
+          <t>[화성시청] 코로나19 선별진료소(검사소) 주말 및 공휴일 운영시간이 09시부터 13시로 조정됨을 알려드립니다.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2021/10/20 18:09:46</t>
+          <t>2021/10/23 16:08:38</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>[남양주시청]10.20.(수) 코로나19 확진자 27명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t4f5 증상의심시 코로나19검사 받으세요.</t>
+          <t>[당진시청]10/23(토) 16시기준 확진자17명(관내접촉2,타지역접촉2,격리중8,조사중5)발생.총1049명▲의심증상 시 외출·모임 자제 및 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2021/10/20 18:01:18</t>
+          <t>2021/10/23 15:31:34</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>[당진시청]10/20(수) 16시기준 확진자 9명 발생(관내접촉6,격리중2,조사중1). 총1006명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
+          <t>[사천시청] 10.21.(목) 09:20~11:30 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2021/10/20 17:27:19</t>
+          <t>2021/10/23 15:27:27</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>전라남도 곡성군</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 20일 확진자 6명 발생(선행 확진자 접촉4, 타지역거주자1, 자가격리중1)▲만남,모임 자제▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[곡성군청]금일 09시기준 확진자 1명 발생. 타지역 거주, 동선 및 접촉자 파악중, 타 지역방문 후 또는 유증상 시에 군 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2021/10/20 17:02:06</t>
+          <t>2021/10/23 15:24:22</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 20일 17시 기준 확진자 14명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[음성군청]10월 23일 확진자 5명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2021/10/20 17:00:24</t>
+          <t>2021/10/23 14:37:19</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>[과천시청] 10월20일17시 기준 신규확진 6명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[안산시청]10월23일14시기준 확진자 77명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z9vSfk2</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2021/10/20 17:00:12</t>
+          <t>2021/10/23 14:18:11</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>충청북도 영동군</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>[영동군청] 10. 20.(수) 확진자 1명 발생. 자가격리 중 확진으로 이동 동선 없습니다. 타지역 방문 자제하시고, 유증상시 선별진료소에서 검사 바랍니다.</t>
+          <t>[안양시청]▲10.23.(토) 13:30기준 신규확진자 33명 url.kr/qz7o2i ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2021/10/20 16:53:59</t>
+          <t>2021/10/23 14:02:09</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>[완도군청]타지역 확진자 동선안내▶10/11(월) 완도읍 농협하나로마트 16:02~16:33 동시간대 방문자는 보건의료원에서 진단검사 하시기 바랍니다.</t>
+          <t>[사천시청] 10.23.(토) 14시 기준 확진자 3명(자가격리중 2명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2021/10/20 15:21:16</t>
+          <t>2021/10/23 14:00:25</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청북도 괴산군</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>[당진시청]3일동안(10/18~)학교 관련 코로나19확진 34명발생 ▲증상 의심되면 선별진료소 검사하기 ▲학교·학원내 마스크착용 등 반드시 방역수칙 준수바랍니다</t>
+          <t>[괴산군청] 10월 23일 확진자 1명(타지역 1명) 발생. 자세한 사항은 역학조사후 홈페이지 게시예정. 증상발현시 즉시 코로나19검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2021/10/20 15:13:48</t>
+          <t>2021/10/23 13:11:08</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>경기도 양평군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>[양평군청] 10.15.(금)~10.19.(화) 대유밥상(강상면) 방문자는 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[과천시청] 10월 23일 13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2021/10/20 15:01:43</t>
+          <t>2021/10/23 12:47:56</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>[전남도청](행정명령)▲입출항 연근해어선 진단검사(√입항당일 √출항 72시간전) ▲외국인고용(√건설√어업√기업√식당)사업장 내·외국인 2주 1회 진단검사받으세요.</t>
+          <t>[김제시청]10.23.(토) 11시 확진자 2명 발생(내국인1,외국인1)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2021/10/20 14:33:03</t>
+          <t>2021/10/23 12:32:22</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>[안산시청]10월20일14시기준 확진자 41명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222542724043</t>
+          <t>[진천군청]▲10.22 코로나 확진자 5명(내국인2, 외국인3)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2021/10/20 14:04:31</t>
+          <t>2021/10/23 11:35:53</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>[음성군청]10월20일 확진자15명(내국인2, 외국인13)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[강화군청] 2021년 10월 16일(토) ~ 10월 22일(금)까지 강화읍 풍물시장 방문객은 가까운 선별 진료소에서 코로나 검사를 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2021/10/20 13:48:58</t>
+          <t>2021/10/23 11:08:06</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>[대구광역시] ITCHY(잇치)(남구 명덕로128, 지하1층) 10/15~19 방문하신 분은 임시선별 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[완주군청] 10월 23일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2021/10/20 13:00:16</t>
+          <t>2021/10/23 11:00:04</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/15(금)~10/18(월) MJ포켓당구클럽(수송6길 3)이용자는(자가격리자, 19일 검사자 제외) 보건소 선별검사(09시~18시)바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인고용 100인미만 사업장 내·외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2021/10/20 11:02:33</t>
+          <t>2021/10/23 10:49:46</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 고양시</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.19 코로나 확진자 2명(내국인1, 외국인1)▲발열,기침 등 증상발현시 주소지 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[고양시청]10.17.(일) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2021/10/20 11:01:29</t>
+          <t>2021/10/23 10:42:05</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>[전주시청]10.20(수) 현재기준 전일 4명 발생 / 의심증상시 선별진료소 즉시 검사 / 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
+          <t>[강원도청] 10.22.(금) 코로나19 확진자 20명 (원주11, 춘천7, 속초1, 횡성1) ▶감기증상 시 즉시검사 실시 ▶개인 방역수칙 준수 철저 당부드림!</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2021/10/20 10:59:57</t>
+          <t>2021/10/23 10:37:32</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라북도 부안군</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자16명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[부안군청]부안 128번 확진자 동선 관련 10.21(목) 17:15전주⇒부안 직행 시외버스 탑승자는 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2021/10/20 10:35:24</t>
+          <t>2021/10/23 10:03:18</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 20일(수) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[전남도청](행정명령강화) 외국인고용사업장(건설,어업,식당 등) ▲신규취업 ▲근무지 변경시 근무전 진단검사 의무 ▲내외국인 2주1회 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2021/10/20 10:28:35</t>
+          <t>2021/10/23 10:01:48</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>[청주시청]10월19일 확진자 34명 발생(상당구8,서원구8,흥덕구13,청원구4,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
+          <t>[수원시청] 10월 23일 0시 기준, 수원 확진자 29명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/2ej2k</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2021/10/20 10:26:00</t>
+          <t>2021/10/23 09:30:56</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>[영암군청] 타지역 확진자 관련 10. 16.(토) 13:30~14:30 '커피향기'(영암읍 기찬랜드로 16) 방문자는 증상 관계없이 선별진료소에서 검사바랍니다.</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲22일 도내 확진자 47명 발생</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2021/10/20 10:11:38</t>
+          <t>2021/10/23 09:19:58</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>[영암군청] 타지역 확진자 동선관련 10. 15.(금) 18:30~19:40 '독천낙지마당'(학산면 영산로 15) 방문자는 증상 관계없이 선별진료소 검사바랍니다.</t>
+          <t>[천안시청] 확진자 9명 [타시민2, 천안시민7] ▶ 기침, 발열 등 의심증상 발현 시 의료기관 방문 전 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2021/10/20 10:06:56</t>
+          <t>2021/10/23 09:01:30</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 20일 0시 기준, 수원 확진자 51명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d43dg</t>
+          <t>[양주시청] 10월 23일 00시기준 확진자 7명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2021/10/20 09:56:16</t>
+          <t>2021/10/23 08:57:15</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>[구미시청]10/10(일)~10/14(목) 육회포차요(구미시 신비로 9-1, 신평동) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[전남도청] 10.22.24시기준 확진 5명(목포1,무안1,신안3) ※내국인2명,외국인3명(건설3)▲타지역 이동 자제하시고, 의심증상시 보건소 무료 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2021/10/20 09:30:14</t>
+          <t>2021/10/23 08:48:43</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲19일 도내 확진자 69명 발생</t>
+          <t>[남원시청]10.23(토) 08시 기준 확진자 1명 발생(남원 169번)/역학조사 중 가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2021/10/20 09:29:36</t>
+          <t>2021/10/23 08:32:15</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>[창원시청] 10.18.(월) 12:00~12:30 배숙희할매죽집(마산합포구 합포로 25,방역완료)에서 식사하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[신안군청] 10.22. 24시 기준 확진자 3명(신안 50번~52번/공사현장 근무자 2명, 자가격리 1명) 발생▲인후통, 두통 등 의심 증상시 코로나19 검사</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2021/10/20 09:19:16</t>
+          <t>2021/10/23 08:30:55</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19. 확진자 14명 발생 ▲의창5,합포1,진해3,타지역1,격리중4 △선별검사소-창원만남의광장,마산역,창원종합버스터미널,3개보건소</t>
+          <t>[목포시청] 10.22. 24시 기준 확진자 1명 (자가격리중 외국인1) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2021/10/20 09:11:22</t>
+          <t>2021/10/23 08:00:05</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 20일 00시기준 확진자 31명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[울산광역시]이번 주말(10.23~10.24) 임시선별검사소는 종합운동장, 문수경기장 2개소에서 09시~17시까지 운영합니다.(점심시간 12시~13시 미운영)</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2021/10/20 08:54:28</t>
+          <t>2021/10/22 19:26:24</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경상남도 김해시</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>[목포시청] 10.19. 24시 기준, 확진자 3명(자가격리중1,외국인1,타지역거주1)발생▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
+          <t>[김해시청] 10.16 15:51 하삼동커피외동점(내외중앙로27)에 방문하여 현금결제 후 매장에서 취식하신 회색외투에 단발머리 여성분은 코로나 검사하시기바랍니다</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2021/10/20 08:44:01</t>
+          <t>2021/10/22 18:06:14</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>[완도군청]근해어선 선원 격리중 추가확진 1명 발생 ▶가벼운 감기증상 있을시 백신접종 여부 상관없이 가까운 선별진료소에서 검사 하시기 바랍니다.</t>
+          <t>[남양주시청]10.22.(금) 코로나19 확진자 30명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t6tl 증상의심시 코로나19검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2021/10/20 08:05:47</t>
+          <t>2021/10/22 18:05:51</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/20(수) 08시 기준 전일 2명 확진자 발생(649~650) ▲확진자접촉1,격리중1 ▲발열,기침 등 의심증상 발현 시 검사받으시기 바랍니다.</t>
+          <t>[무안군청]10.22(금)18시 기준 확진자 1명 발생(타지역 거주 공사현장 외국인근로자)▲외국인 고용사업장 종사자 2주1회 진단검사▲미등록 외국인 예방접종 가능</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2021/10/19 20:42:15</t>
+          <t>2021/10/22 17:55:08</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>경상남도 김해시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>[김해시청] 10.13 09:00~18:00 10.15~17 09:00~18:00 역전PC게임랜드(가락로 7번길 4)에 방문하신 분은 코로나 검사하시기바랍니다.</t>
+          <t>[충주시청] 10월 22일 확진자 8명 발생(자가격리중7, 조사중1) ▲만남, 모임, 각종행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2021/10/19 20:12:14</t>
+          <t>2021/10/22 17:22:22</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>경상남도 김해시</t>
+          <t>서울특별시 구로구</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>[김해시청] 10.11(월) 밀양돼지국밥(인제로 91)에 09:19 입장하여 식사 후 09:53에 결제하고 퇴장하신 남녀 일행 두 분은 코로나 검사하시기바랍니다</t>
+          <t>[구로구청]10.12(화)~10.17(일) 기간 내 구로동로25길 7, 지하1층 일번지노래연습장 방문자는 가까운 선별진료소에서 코로나 검사를 받아주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2021/10/19 18:37:46</t>
+          <t>2021/10/22 17:18:54</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>[홍성군청]10월19일(화) 18시 기준 확진자 9명(홍성266~274번) 발생. 확진자 접촉 7명, 자발적 검사 2명. 정밀역학조사중</t>
+          <t>[창원시청] 10.17.(일) 07:50~09:03 창원북면황토방온천 여탕(의창구 북면 천주로1170번길 17-10) 이용자 관할보건소에서 예약 후 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2021/10/19 18:23:03</t>
+          <t>2021/10/22 17:07:22</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>[당진시청]③10월16일 9시~11시, 17일 9시~12시 송악스포츠문화센터(송악읍 틀모시로830)수영장 이용자는 당진시청 선별진료소 방문 후 코로나검사바랍니다.</t>
+          <t>[논산시청] 10월22일 확진자 2명(내국인2/관내1,타지역1) 발생 ▶타지역 이동·방문 후 가까운 선별진료소에서 PCR검사 당부드립니다.</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2021/10/19 18:22:35</t>
+          <t>2021/10/22 17:07:06</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>[당진시청]②10월16일 10:30~11:30 뚝심식당(당진시 무수동2길 25-34) 방문자는 당진시청 선별진료소 방문 후 검사바랍니다.</t>
+          <t>[광주시청] 10월 22일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2021/10/19 18:13:19</t>
+          <t>2021/10/22 16:59:42</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>[남양주시청]10.19.(화) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t32l 증상의심시 코로나19검사 받으세요.</t>
+          <t>[과천시청] 10월22일17시 기준 신규확진 3명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2021/10/19 18:08:48</t>
+          <t>2021/10/22 16:40:39</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>경기도 성남시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>[성남시청] 10.15.(금)~10.18.(월) 분당구 체리빌사우나 (구미동 187-1)에 방문한 분은 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[창원시청]▲10.18~10.19 13:00~13:40▲10.20 12:20~12:40 테크노밸리식당매점(의창구소계로12,복지동605)식사하신분 코로나검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2021/10/19 18:00:00</t>
+          <t>2021/10/22 15:27:14</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>[안성시청]10.19. 코로나19 확진자7명(동반입소4,자가격리1,자발적검사2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[음성군청]10월22일 확진자 23명(내국인2,외국인21)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2021/10/19 17:57:47</t>
+          <t>2021/10/22 15:21:32</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>[무안군청] 10.19.(화) 18시 기준 확진자 1명발생(타지역 거주, 관내 동선 및 역학조사완료) ▲발열·기침 등 의심증상 발현 시 선별진료소 검사 바랍니다.</t>
+          <t>[안산시청]10월22일14시기준 확진자 45명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Zc7Ow36</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2021/10/19 17:26:28</t>
+          <t>2021/10/22 15:15:28</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>[화성시청] 10.14.(목)~10.18.(월) 남양농협 본점(남양읍 남양성지로 107) 방문자 중 유증상자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[진천군청]▲10.21 확진자 8명(내국인3,외국인5)▲10.22(16:00~20:00)덕산행정복지센터,이월행정복지센터 외국인 집중 코로나 PCR 전수검사 실시</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2021/10/19 17:24:09</t>
+          <t>2021/10/22 14:44:06</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>[충주시청] 10월19일 확진자19명 발생[확진자 접촉(선행15,타지역1),타지역거주2,자가격리1]▲만남,모임 자제▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[대구광역시]알힉마논공이슬람센터(논공읍 논공로 15길 20-6) 10/15 이후 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2021/10/19 17:01:34</t>
+          <t>2021/10/22 13:57:27</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 19일 17시 기준 확진자 22명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[창원시청] 10.11(월)~10.21(목) 문영일이비인후과의원(의창구 팔용로 428,방역완료) 방문자는 반드시 코로나검사바랍니다(10.19이후 검사완료자 제외)</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2021/10/19 17:01:08</t>
+          <t>2021/10/22 13:52:41</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 19일 17시 기준 신규확진 5명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[금산군청]10월19일 송림백작소, 새마을저온창고 / 10월20일 현대백작소 / 10월21일 송림백작소에서 일하신 분들은 코로나19 검사를 받아주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2021/10/19 16:54:46</t>
+          <t>2021/10/22 13:49:58</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>[구례군청]10.19.(화) 1명 발생(격리중). 접촉자 및 이동동선 없음. 자가격리 철저히 준수 바라며, 코로나 증상 발현시 선별진료소에서 검사하시기 바랍니다.</t>
+          <t>[무안군청]10.20.(수)11:47~12:00, 10.21.(목)12:07~12:18삼삼한식뷔페(현경면 성재길55)방문자는 선별진료소 검사바랍니다.▲방역소독완료</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2021/10/19 16:44:14</t>
+          <t>2021/10/22 11:31:26</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>[당진시청]10/19(화) 16시기준 확진자 14명 발생(관내접촉6,타지역접촉3,조사중4,격리중1). 총997명 ▲유증상 검사 시 가족동반검사 권고 드립니다.</t>
+          <t>[전남도청] 외국인확진자 지속확산 ▲전일확진자 15명 중 외국인근로자 10명(√어업3√건설7)▲외국인고용사업장 신규취업 내·외국인 근무전 검사 의무적으로 받으세요</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2021/10/19 16:40:23</t>
+          <t>2021/10/22 11:00:54</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>[울산광역시]10.15. 05:00~12:00▲동심초라이브(간판-soi울산, 남구 왕생로46번길6,2층,유흥주점,소독완료)방문자는 남구보건소에서 코로나검사바랍니다</t>
+          <t>[나주시청] 10.22. 09시기준. 확진자1명(격리 1)발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2021/10/19 16:22:18</t>
+          <t>2021/10/22 10:59:58</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>제주특별자치도 전체</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>[제주도]제주시 일도1동소재 프랜즈 단란주점(10.12~10.16 18시~22시)방문자는 보건소상담 및 검사당부 covid19.jeju.go.kr/info.jsp</t>
+          <t>[용인시청]금일 0시기준 확진자20명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2021/10/19 16:20:28</t>
+          <t>2021/10/22 10:55:31</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>경상북도 예천군</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>[예천군청] 10. 19.(화) 16시 기준 코로나19 확진자 2명 발생 / ▶타지역 방문자 및 검사 희망자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[대구광역시]오렌지PC방(대명복개로138-2) 9/30,10/2~4,6,9,10,18 방문하신 분은 임시선별 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2021/10/19 15:54:00</t>
+          <t>2021/10/22 10:23:20</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>[고성군청]대가돌솥밥(대가면 소재, 방역완료)10.18.(월)12:26~13:04 방문자는 거주지 가까운 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[창원시청] 10.17(일) 창원북면황토방온천(북면 천주로1170번길 17-10) 아침7시 입장, 6천원 현금결제 여탕 이용자는 창원보건소에 연락 후 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2021/10/19 15:32:24</t>
+          <t>2021/10/22 10:05:40</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>[진주시청] 19일 15시 기준 확진자 2명(자가격리중 1명, 무료선제검사 1명) 발생. ▲진주시행복지원금(진주시민 1인당 10만원) 사용기한 10월 31일까지</t>
+          <t>[완주군청] 10월 22일(금) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2021/10/19 15:11:59</t>
+          <t>2021/10/22 10:04:41</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.11(월)~10.17(일) 광주60자1379 택시(소나타, 흰색)에 탑승하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
+          <t>[전주시청]10.22(금) 현재기준 1명 발생(전일 2명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2021/10/19 15:01:08</t>
+          <t>2021/10/22 10:01:35</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>충청북도 증평군</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>[증평군청] 10월 19일 14시 기준 확진자 1명 발생(선제검사). 타지역 방문자제 및 방역수칙을 준수하여 주시고, 자세한 사항은 홈페이지를 참조바랍니다.</t>
+          <t>[금산군청] 10.22(금) 10시 기준 확진자 2명(신규 2) 발생, 역학조사 중 ▶감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2021/10/19 14:32:43</t>
+          <t>2021/10/22 10:00:55</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경상북도 영주시</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>[안산시청]10월19일14시기준 확진자 40명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222541645043</t>
+          <t>[영주시청] 10.8(금)~10.16(토) 풍기 로그인PC방 이용하신분은 코로나검사 받으시기 바랍니다. 선별진료소 운영(풍기읍사무소10-17시, 보건소18시까지)</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2021/10/19 14:14:55</t>
+          <t>2021/10/22 10:00:53</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.19 코로나 확진자 3명(내국인2,외국인1)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 주소지관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[수원시청] 10월 22일 0시 기준, 수원 확진자 38명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/6soyk</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2021/10/19 14:10:51</t>
+          <t>2021/10/22 09:07:08</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>[대구광역시] 시드니(유흥주점)(달서구 상화북로 191, 지하1층) 10/12~15 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
+          <t>[양주시청] 10월 22일 00시기준 확진자 14명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2021/10/19 14:04:55</t>
+          <t>2021/10/22 08:57:55</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>[음성군청] 10월19일 확진자 9명(외국인)발생▲동선, 접촉자 조사 중▲타지역 방문,모임,지인초정 자제▲유증상 시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[완도군청] 10.21.(목)18:00 기준 확진자 1명 발생(근해어선 외국인 선원)▲입·출항 연근해어선▲외국인 고용사업장 모두 선별진료소에서 코로나 검사요망.</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2021/10/19 14:00:51</t>
+          <t>2021/10/22 08:31:41</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>[사천시청]10.19.(화) 14시 기준 확진자 2명(자가격리중 1명, 조사중 1명) 발생 ▲의심증상 시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[목포시청]10.21. 24시 기준 확진자 1명 발생(타지역접촉외국인1) ▲집단감염 예방 위해 타지역 방문·접촉자 검사▲나와 내 가족을 위해 백신접종 참여바랍니다</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2021/10/19 13:19:38</t>
+          <t>2021/10/22 08:19:45</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>충청북도 단양군</t>
+          <t>전라남도 광양시</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>[단양군청] 10.10.(일) ~ 10.18.(월) '카페 인 단양'(별곡리) 이용자는 선별진료소에서 검사(운영시간 09:00~15:00) 받으시기 바랍니다.</t>
+          <t>[광양시청]21. 10. 21.(목) 24시 기준 확진자 2명 발생(격리중1, 타지역 확진자 접촉 1) 가벼운 감기증상도 즉시 보건소 선별진료소 무료 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2021/10/19 11:42:52</t>
+          <t>2021/10/22 08:15:40</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>경상북도 영주시</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>[영주시청]10.19(화)확진자51명 발생▲풍기·봉현 소재 초·중·고·대학교 학생 및 동거가족께서는 선별검사 바랍니다.▲풍기읍사무소(17:00까지) 임시선별진료소</t>
+          <t>[순천시청] 10.21.(목) 24시 기준 확진자 1명 발생(타지역 거주자) √기침, 인후통 등 가벼운 감기 증상이라도 반드시 보건소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2021/10/19 11:12:28</t>
+          <t>2021/10/22 08:13:59</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>경상남도 거창군</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>[거창군청]10/15(금) ①09:10출발(거창→대구서부) ②10:24출발(거창→대구서부) 버스탑승자는 보건소 선별진료소에서 검사바랍니다. 055-940-8335</t>
+          <t>[여수시청]10.21.24:00 기준 총1명 발생(자가격리 해제검사)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2021/10/19 10:59:58</t>
+          <t>2021/10/22 08:10:02</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자30명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[영암군청] 롯데슈퍼 영암삼호점(삼호읍 대불주거로 55-1)을 10. 21.(목) 11:35~12:00에 방문하신 분은 가까운 선변진료소에서 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2021/10/19 10:29:24</t>
+          <t>2021/10/22 08:09:40</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>[청주시청]10월18일 확진자 14명 발생(상당구3,서원구4,흥덕구1,청원구5,타지역1)▲홈페이지 참조▲이동·모임 자제▲수시환기▲유증상 시 무료검사 바랍니다.</t>
+          <t>[창원시청] ▲만남의광장 임시선별검사소 오늘(10.22.)부터 미운영 ▲보건소, 마산역, 창원종합버스터미널 검사소 정상운영</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2021/10/19 10:12:04</t>
+          <t>2021/10/22 08:08:11</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.13(수)~10.18(월) 광주60자2576 택시(K5, 진회색)에 탑승하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
+          <t>[군산시청] ▲10/22(금) 08시 기준 전일 3명 확진자발생(656~658) ▲격리중2,조사중1 ▲발열,기침 등 의심증상 발현 시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2021/10/19 10:10:35</t>
+          <t>2021/10/22 08:00:19</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>[광주광역시]10.15(금)18시~20시 수유리우동집 지식산업센터점(북구 첨단과기로208번길 43-10, 오룡동)에 방문하신 분은 거주지 보건소에서 검사 바랍니다</t>
+          <t>[신안군청] 10.21. 24시 기준 확진자 5명(신안 45번~49번/공사현장 근로 외국인 5명) 발생 ▲미등록 외국인 여권으로 예방접종 예약가능▲유증상시 검사</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2021/10/19 10:01:41</t>
+          <t>2021/10/21 19:02:39</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>[전주시청]10.19(화) 현재기준 2명 발생(전일 5명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
+          <t>[중대본] 10.11~10.20 서울 관악구 신림로67길5 3층 '휴테라피' 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2021/10/19 10:00:11</t>
+          <t>2021/10/21 18:11:33</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 19일 0시 기준, 수원 확진자 34명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사 바랍니다. me2.kr/wjxrc</t>
+          <t>[남양주시청]10.21.(목) 코로나19 확진자 39명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t5nh 증상의심시 코로나19검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2021/10/19 09:52:43</t>
+          <t>2021/10/21 18:00:04</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 19일(화) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[안성시청]10.21. 코로나19 확진자 4명(확진자접촉3, 자발적검사1) 발생역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2021/10/19 09:17:41</t>
+          <t>2021/10/21 17:41:51</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>[창원시청] 10.18. 확진자 5명 발생 ▲의창1,성산1,회원1,진해1,타지역1 △선별검사소-창원만남의광장,마산역,창원종합버스터미널,3개보건소</t>
+          <t>[광주시청] 10월 21일 17시 기준 확진자 8명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2021/10/19 09:05:40</t>
+          <t>2021/10/21 17:41:08</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 19일 00시기준 확진자 1명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[강북구청]10.18.(월), 20.(수) 세종기원(도봉로67길40) 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2021/10/19 08:32:05</t>
+          <t>2021/10/21 17:22:52</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>[남원시청] ▲10.19.(화) 전일 확진자 1명 발생(남원168번)/자가격리 중 확진▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사받으시기 바랍니다.</t>
+          <t>[남양주시청]10.14.(목)~10.17.(일) 쓰리팝PC카페(평내로29번길 49, 2층, 평내동) 방문자는 가까운 거주지 보건소에서 코로나19검사를 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2021/10/19 08:10:10</t>
+          <t>2021/10/21 17:20:39</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>[목포시청] 10.18(월) 24시기준, 확진자 2명(외국인 자가격리중2)발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[충주시청] 10월 21일 확진자 7명 발생(자가격리중) ▲만남,모임,각종행사 자제 ▲거리두기 준수▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2021/10/19 08:03:14</t>
+          <t>2021/10/21 16:41:57</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/19(화) 08시 기준 전일 6명 확진자발생(643~648) ▲확진자접촉4,격리중2 ▲발열,기침 등 의심증상 발현 시 검사받으시기 바랍니다.</t>
+          <t>[창원시청] 10.11.(월)~10.21.(목) 문영일이비인후과의원(의창구 팔용로 428 드림피아, 방역완료) 방문자는 반드시 코로나검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2021/10/18 20:36:51</t>
+          <t>2021/10/21 16:31:47</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>[부산시]10.11.(월) 해운온천(해운대구 달맞이길 8(중동))에서 11:40∼13:30에 남탕 이용하신 분은 인근 보건소에 방문하여 검사바랍니다.</t>
+          <t>[완도군청] 완도읍 이동검사소 운영 안내▶10월 22일(금) 10:00~12:00 1부두 요트계류장▶모든 선박 선원과 외국인 근로자는 반드시 코로나 검사 요망.</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2021/10/18 18:32:57</t>
+          <t>2021/10/21 15:44:40</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
+          <t>[대구광역시] 10월 중 평리광명네거리에서 농촌인력 중개차량 탑승하여 대구·경북지역 밭일 다녀오신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으십시오.</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2021/10/18 18:05:12</t>
+          <t>2021/10/21 15:26:35</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>전라남도 해남군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>[해남군청] 확진자 2명 발생 ▶ 확진자 접촉으로 수동감시(예방접종 완료) 중 확진 ▶ 백신접종완료자라도 가벼운 감기 증상있을시 진단검사 바랍니다</t>
+          <t>[남원시청]타지역 확진자 관련 10.14.(목) 12:02~24, 10.15.(금) 12:45~13:08 남문정식(남문로 464-14) 방문자는 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2021/10/18 18:00:11</t>
+          <t>2021/10/21 15:15:25</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>[무안군청]10.18(월)18시 기준 확진자 1명 발생(감염경로 조사중)▲기침·인후통 등 의심증상 시 즉시 코로나 검사받기▲타지역방문 자제▲생활 속 방역수칙 준수</t>
+          <t>[광주광역시] 10.17(일) 위더스웨딩홀(서구 죽봉대로 153, 광천동) 3층 펠리체홀 14:30분 예식 관련하여 방문하신 분은 거주지 보건소에서 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2021/10/18 17:33:35</t>
+          <t>2021/10/21 15:00:22</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>[충주시청] 10월18일 확진자 17명 발생[확진자 접촉(선행14,타지역1),자가격리중1,조사중1]▲만남,모임 자제▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[음성군청]10월 21일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2021/10/18 17:28:47</t>
+          <t>2021/10/21 14:31:26</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 18일 17시 기준 확진자 15명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[안산시청]10월21일14시기준 확진자 43명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222543777600</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2021/10/18 17:24:10</t>
+          <t>2021/10/21 14:08:23</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>[남양주시청]10.18.(월) 코로나19 확진자 15명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t1vb 증상의심시 코로나19검사 받으세요.</t>
+          <t>[나주시청] 10. 21. 9시기준 확진자 4명(격리 4) 발생. 외국인 백신접종 시급. 여권 지참 후 보건소 방문 접수. 코로나 증상 발현 시 검사 필수.</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2021/10/18 17:19:35</t>
+          <t>2021/10/21 13:44:03</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>전라남도 장흥군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>[장흥군청] 자가격리 중 확진자 1명 발생 ▶이동동선 및 접촉자 없음 ▶타지역 방문 및 외지인 접촉 자제 ▶유증상시 접종유무와 상관없이 선별진료소 검사바랍니다.</t>
+          <t>[진천군청]▲10. 21.(목) 16:00~20:00 덕산읍행정복지센터, 이월면행정복지센터 외국인 집중 코로나 PCR 전수검사 실시</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2021/10/18 17:00:02</t>
+          <t>2021/10/21 13:06:19</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>[중대본] 10.3~10.17 서울 종로구 종로 266 동대문종합시장 종사자 및 방문자는 보건소에서 코로나19 검사를 받으시기 바랍니다(☎120,1339)</t>
+          <t>[무안군청] 10.14.(목) 10:10~11:00 무안전통시장(무안읍 승달로 11)방문자는 인근 보건소 선별진료소에서 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2021/10/18 16:59:25</t>
+          <t>2021/10/21 12:47:26</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>[과천시청]10월18일 17시 기준 신규확진 3명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
+          <t>[광주광역시] 10.16(토) 18시~22시 상무어시장(음식점, 서구 시청로60번길 20, 치평동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2021/10/18 16:27:06</t>
+          <t>2021/10/21 11:58:13</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경상남도 하동군</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>[음성군청]10월18일 확진자 3명(내국인1,외국인2)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[하동군청]10.14(목), 12:30하동출발-12:40전도경유-13:40진주도착 5769 버스탑승자 중 전도~진주구간 탑승하신분은 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2021/10/18 16:10:47</t>
+          <t>2021/10/21 11:42:40</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>전라남도 함평군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>[함평군청] 확진자 관련 10.12.(화) 12:30~13:30 함평읍 만복식당 방문자는 보건소나 황소주차장에서 코로나 검사 받으시기 바랍니다.(시설 소독완료)</t>
+          <t>[남원시청]타지역 확진자 관련/14.(목)12:02~12:24, 15.(금)12:45~13:08 남문정식(남원시 남문로 464-14) 방문자는 검사받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2021/10/18 16:10:30</t>
+          <t>2021/10/21 11:21:11</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>[당진시청]10/18(월) 16시기준 확진자19명(관내접촉15,타지역접촉1,조사중3)발생.총983명 ▲의심증상 시 검사 후 등교, 하교 후 즉시 귀가 요청드립니다</t>
+          <t>[진천군청]▲10.20 코로나 확진자 7명(내국인2, 외국인5). ▲10.21(16:00~20:00) 이월보건지소, 덕산보건지소에서 코로나 검사실시.</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2021/10/18 15:40:30</t>
+          <t>2021/10/21 11:15:45</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>[완도군청]근해어선 외국인선원 확진자 8명 발생▶현재 해상에서 복귀 중▶타지역 근로자 채용시 업무 시작 전 반드시 코로나19 검사▶외국인 2주 1회 진단검사 요망</t>
+          <t>[안양시청]▲10.21.(목) 11:00기준 신규확진자 15명 url.kr/b9twdn ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2021/10/18 15:36:02</t>
+          <t>2021/10/21 11:00:05</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>경상북도 영주시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>[영주시청]임시선별진료소 검사대상 알림 ▶기간:10.18.(월)~10.19.(화),10시~17시 ▶장소:풍기읍사무소 ▶대상:확진자의 밀접접촉자, 유증상자 등</t>
+          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2021/10/18 15:21:13</t>
+          <t>2021/10/21 10:32:10</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>경기도 성남시</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>[성남시청] 10.9(토)~10.16(토) 일광자원(수진동 35) 방문자는 가까운 선별진료소에서 코로나 진단검사를 받으시기 바랍니다.</t>
+          <t>[청주시청]10월 20일 확진자 27명 발생(상당구3,서원구9,흥덕구8,청원구6,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2021/10/18 15:14:57</t>
+          <t>2021/10/21 10:31:48</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>서울특별시 동작구</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>[동작구청] 10.11(월)~10.16(토) 대우부동산(동작대로29길110(202호),사당2동)에 방문하신분은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
+          <t>[강원도청] 10.20.(수) 도내 코로나19 확진 31명(원주16 춘천10 속초2 횡성2 영월1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부!!</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2021/10/18 15:02:05</t>
+          <t>2021/10/21 10:14:05</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>[의정부시] 10.15.(금) 요기분식(장곡로322번길20) 방문자 중 유증상자는 선별진료소에서 코로나19검사를 받으시기 바랍니다.☎031-870-6011~4</t>
+          <t>[완주군청] 10월 21일(목) 0시 기준 확진자 2명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2021/10/18 15:00:58</t>
+          <t>2021/10/21 10:08:20</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>전라남도 담양군</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>[담양군청]10월13일 8시10분 강남고속버스터미널 출발→11:40 담양버스터미널 도착 버스 탑승자는 관할보건소에서 검사받기 바랍니다.</t>
+          <t>[금산군청] 10.21(목) 10시 기준 확진자 1명(신규 1) 발생, 역학조사 중 ▶감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2021/10/18 14:31:57</t>
+          <t>2021/10/21 10:06:26</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>[안산시청]10월18일14시기준 확진자 31명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222540357214</t>
+          <t>[완도군청]외국인근로자 감염확산▶완도읍 외국인근로자 사업주께서는 이번주 모든 근로자가 진단검사할 수 있도록 협조 당부 드림▶다음주 전체 읍·면 외국인전수조사 예정</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2021/10/18 14:00:06</t>
+          <t>2021/10/21 10:02:04</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>[사천시청] 10.18.(월) 14시 기준 확진자 1명(자가격리중 1명)▲관내 동선 없음▲의심증상시 진단검사, 백신접종 참여합시다.</t>
+          <t>[광주광역시] 10.17(일) 광장시장(음식점, 북구 안산로 40, 오치동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2021/10/18 11:54:38</t>
+          <t>2021/10/21 10:00:44</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.18 10시 기준 코로나 확진자 9명 발생▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 주소지 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[전주시청]10.21(목) 현재기준 2명 발생(전일 1명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2021/10/18 11:29:44</t>
+          <t>2021/10/21 10:00:31</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>전라북도 정읍시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>[정읍시청] 10.12(화)~10.17(일) 09:00~21:00, 정골산닭(상동,소독완료) 방문자는 보건소 선별진료소에서 검사바랍니다.</t>
+          <t>[수원시청] 10월 21일 0시 기준, 수원 확진자 21명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/9ns0h</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2021/10/21 09:55:11</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>전라남도 완도군</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>[완도군청]외국인확진자 동선▶10/16(토)완도읍 베트남쌀국수15:30~18:40, PHUONG가라오케(워커힐모텔 지하)19:00~22:00동시간대 방문자검사요망</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2021/10/21 09:51:58</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>경상남도 창녕군</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>[창녕군청]10.21(목) 확진자2명 발생(창녕342~343/타지역접촉2)▷개인간 모임 자제▷방역수칙 준수 ▷유증상시 코로나검사 받으시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2021/10/21 09:33:48</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>인천광역시 남동구</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>[남동구청] 10/14, 10/16~18 간석2동 리얼pc카페(간석동194-3) 방문자는 증상유무 관계없이 거주지 보건소에서 코로나19 검사 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2021/10/21 09:08:12</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>충청남도 천안시</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>[천안시청] 확진자 12명 [타시민5, 천안시민7] ▶ 가벼운 감기증상이 있을 시 백신접종 여부 관계없이 선별진료소에서 검사 받으시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2021/10/21 09:02:41</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>경기도 양주시</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>[양주시청] 10월 21일 00시기준 확진자 16명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2021/10/21 08:50:46</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 보성군,전라남도 순천시,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>[전남도청] 10.20. 24시기준 확진 12명(여수1,나주4,구례2,화순1,무안2,완도1,신안1)▲확진자가 많은 타지역 방문·접촉 자제, 증상의심시 검사받으세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2021/10/21 08:26:51</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>전라남도 무안군</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>[무안군청] 10.21.(목) 8시 기준 확진자 2명 발생(타지역 확진자 접촉) ▲ 타지역 방문·접촉 시 증상 없어도 반드시 보건소 선별진료소에서 검사바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2021/10/21 08:18:49</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>전라남도 여수시</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>[여수시청]10.20.24:00 기준 총1명 발생(자가격리중)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2021/10/21 08:06:39</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>전라북도 군산시</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>[군산시청] ▲10/21(목) 08시 기준 전일5명 확진자 발생(651~655) ▲확진자접촉2,격리중2,조사중1 ▲의심증상 발현 시 코로나 검사받으시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2021/10/20 21:06:38</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>경상남도 의령군</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>[의령군청] 10. 18.(월) 21:00 마산에서 출발하는 의령도착 버스 탑승객은 코로나19 검사대상으로 의령군보건소(055-570-4900)로 연락 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2021/10/20 20:37:28</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>전라남도 완도군</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>[완도군청]10.20.(수) 20시 기준 완도읍 확진자 1명 발생(동선파악 및 역학조사 진행중)▶기침·인후통 등 의심증상 시 즉시 코로나 검사 받으세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2021/10/20 20:10:31</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>전라남도 구례군</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>[구례군청]10.20(수)확진자 2명발생(격리자1, 격리자가족1), 격리자 접촉은 확진으로 이어집니다. 자가격리 철저 및 증상발생 시 선별진료소에서 검사바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2021/10/20 18:28:41</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>부산광역시 전체</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>[부산시]10.11.(월)08:00~10.18.(월)17:40 퍼하우양음식점(서구 충무대로 217-1,충무동)방문한분 코로나19검사받으시기바랍니다.(소독완료)</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2021/10/20 18:09:46</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>경기도 남양주시</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>[남양주시청]10.20.(수) 코로나19 확진자 27명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t4f5 증상의심시 코로나19검사 받으세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2021/10/20 18:01:18</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>충청남도 당진시</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>[당진시청]10/20(수) 16시기준 확진자 9명 발생(관내접촉6,격리중2,조사중1). 총1006명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2021/10/20 17:27:19</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>충청북도 충주시</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>[충주시청] 10월 20일 확진자 6명 발생(선행 확진자 접촉4, 타지역거주자1, 자가격리중1)▲만남,모임 자제▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>

--- a/covid_19_all/JenanMessage.xlsx
+++ b/covid_19_all/JenanMessage.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C422"/>
+  <dimension ref="A1:C423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -425,75 +425,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021/10/30 14:58:20</t>
+          <t>2021/10/31 19:07:25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[금산군청]10.23(토)20:40-22:00, 10.24(일)16:00-19:00, 10.26(화)16:00-18:00 텐코인 노래연습장 방문한 분 검사바랍니다</t>
+          <t>[홍성군청]10월31일(일) 19시 기준 확진자 6명(홍성311~316번)발생. 자가격리중 2명, 자발적검사 2명, 타지역거주자 2명. 역학조사 및 방역소독 완료</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021/10/30 14:56:08</t>
+          <t>2021/10/31 18:40:04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>서울특별시 전체</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[남양주시청]10.22.(금)~10.29.(금) 외가집밥상 기사식당(남양주시 화도읍 북한강로 1412) 방문자는 가까운 보건소에서 코로나19 검사 받으세요.</t>
+          <t>[서울시청] 10.19(화)~28(목) 중랑구 소재 상봉아트홀 댄스학원(망우로 328) 방문자는 가까운 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎120</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021/10/30 14:30:55</t>
+          <t>2021/10/31 18:27:51</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[안산시청]10월30일 14시기준 확진자 48명 발생 ▲발열,기침,호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/ynRGLX</t>
+          <t>[남양주시청]10.31.(일) 코로나19 확진자 33명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tevx 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021/10/30 14:13:26</t>
+          <t>2021/10/31 18:01:11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[음성군청] 10.30.확진자 4명(내국1, 외국3)발생▲동선 및 접촉자 조사중▲타지역방문,모임,지인초청 자제▲유증상시 주민들께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[안성시청]10.31.코로나19 확진자9명(자발적검사7,확진자접촉1,자가격리1)발생. 역학조사,방역조치 완료anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021/10/30 14:00:13</t>
+          <t>2021/10/31 17:11:04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -503,575 +503,575 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[사천시청]10.30.(토) 14시 기준 확진자 3명(조사 중 2명, 타지역거주자 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[사천시청]10.26.(화)~10.29.(금)09:00~15:00잠언의료기기(선구동 소재)방문자는 18:30까지 삼천포보건센터임시선별진료소에서검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021/10/30 13:40:18</t>
+          <t>2021/10/31 17:07:06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>서울특별시 서초구</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[서초구청]10.19(화)~10.29(금) 경부선 터미널 3층 꽃자재(신반포로194 3층) 방문자는 선별진료소에서 코로나19 검사바랍니다. seocho.go.kr</t>
+          <t>[충주시청] 10월 31일 확진자 5명 발생(선행확진자의 접촉자)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021/10/30 13:35:13</t>
+          <t>2021/10/31 17:03:05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[대구광역시]아크(동구 반야월북로 158, 2층) 10/20~23 방문하신 분은 두류·국채보상공원·대구스타디움 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[광주시청] 10월 31일 17시 기준 확진자 12명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021/10/30 13:00:11</t>
+          <t>2021/10/31 16:51:53</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[과천시청] 10월30일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[사천시청]10.26.(화)~10.29.(금) 09:00~15:00 잠언의료기기(선구동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021/10/30 12:51:45</t>
+          <t>2021/10/31 15:53:33</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>인천광역시 부평구</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[부평구청] 10/25(월) 텐코인노래방 (부평구 충선로203번길 12 뉴존프라자 3층, 삼산2동) 방문자는 가까운 선별검사소에서 코로나검사 바랍니다.</t>
+          <t>[포항시청] 10.24(일) 17:00~21:00 무카타부페-타이마트(상도동 629-3) 이용자는 보건소에서 검사바랍니다. ※검사시 KF94 마스크 착용바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021/10/30 12:44:22</t>
+          <t>2021/10/31 15:29:15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[고흥군청] 10.30(토) 확진자 13명 발생 역학조사 중 외출 및 지인 모임 자제 외국인 및 고용사업주는 보건소 검사받으시기 바랍니다.</t>
+          <t>[남양주시청]10.22(금)~10.27(수) 참소망교회(오남읍 진건오남로 896번길 24) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021/10/30 12:29:48</t>
+          <t>2021/10/31 15:14:18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>경상남도 거제시</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[강진군청] 강진 19번 확진자 발생(서울 거주자 29일 강진 방문) 동선 파악 등 역학조사 중. 타지역 방문 자제 및 의심증상 시 검사바랍니다.</t>
+          <t>[거제시청] 코로나19확진자 총 5명 발생(확진자접촉3, 감염경로 조사중2)/ 기침, 발열 등 유증상시 즉시 선별진료소에서 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021/10/30 12:16:26</t>
+          <t>2021/10/31 15:13:24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[보성군]10.29.(금) 확진자 2명 발생(타지역 확진자 접촉)▲주말외출·모임자제▲백신접종을 완료했더라도 마스크착용, 유증상시 검사등 방역수칙을 잘 지켜주세요!</t>
+          <t>[포항시청] 10.30(토) 11:30~13:20 포항역 3층 푸드코트(흥해읍 이인리 137-1) 이용자는 보건소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021/10/30 12:00:04</t>
+          <t>2021/10/31 15:07:25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[전남도청] 전국 √요양시설√병원√학교 등에서 집단발생▲고위험시설(요양시설,병원) 방문 및 면회자제▲핼러윈데이,축제,행사,모임 자제 및 유증상시 검사 꼭 받으세요</t>
+          <t>[창녕군청]10.29(금) 08:35 창녕→남지→부산(사상), 16:00 부산(사상)→남지→창녕→대구 시외버스(우등) 이용자는 가까운 선별진료소에 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021/10/30 11:50:10</t>
+          <t>2021/10/31 14:40:04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>서울특별시 전체</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[부여군청] 10월30일 11시 기준 확진자 6명 발생 【부여425~430/자가격리 학생4, 수동감시2】 감기증상 시 코로나 검사 후 진료를 받으시기 바랍니다.</t>
+          <t>[서울시청] 10.19(화)~29(금) 서초구 소재 경부선 터미널 3층 꽃자재 상가(신반포로194 3층) 방문자는 코로나19 검사 받으시기 바랍니다. ☎120</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021/10/30 11:25:35</t>
+          <t>2021/10/31 14:34:19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.30.0시 기준 확진자 12명 중 외국인9명. 파키스탄 확진자 다수 발생. 사업장, 농장 등 소속외국인은 코로나 검사를 꼭 받으시기 바랍니다.</t>
+          <t>[안산시청]10월31일14시기준 확진자 26명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yFEyhJ</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021/10/30 11:25:16</t>
+          <t>2021/10/31 14:09:22</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.20(수)~10.27(수) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 증상유무 상관없이 선별진료소에서 필히 검사 받으시기 바랍니다.</t>
+          <t>[완주군청] 10월 31일(일) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021/10/30 11:01:48</t>
+          <t>2021/10/31 13:33:12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>충청북도 옥천군</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[용인시청]10월30일 0시 기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[옥천군청] 10.28.(목) 18:30~21:00 맛있는 오칠구포차(옥천읍)이용자는 관할보건소에서 코로나검사 요망. 선별진료소 공휴일 운영 09:00~16:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021/10/30 10:51:00</t>
+          <t>2021/10/31 13:25:09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 30일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[사천시청] 10.24(일)~10.29(금) 장수복집(동서금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021/10/30 10:45:20</t>
+          <t>2021/10/31 13:00:44</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/22(금)~10/28(목) 싱글앤싱글(동수송2길 19) 방문자는 보건소 선별검사(09시~18시) 바랍니다. ▲10/29(금) 검사자 제외</t>
+          <t>[과천시청] 10월31일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021/10/30 10:26:09</t>
+          <t>2021/10/31 11:53:23</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[강원도청] 10.29.(금) 도내 코로나19 확진 25명(원주13,삼척5,홍천3,춘천1,강릉1,태백1,평창1) ▶접촉의심 및 감기증상 시 즉시검사 당부 드림</t>
+          <t>[사천시청] 10.27(수)08:00 삼천포시외버스터미널-&gt;부산서부시외버스터미널 시외버스 탑승자께서는 보건소 선별진료소에서 검사바랍니다.(055-831-3636)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021/10/30 10:17:18</t>
+          <t>2021/10/31 11:32:25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 30일 0시 기준, 수원 확진자 61명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/5z8t3</t>
+          <t>[창녕군청]10.31(일) 확진자2명 발생(창녕347~348/타지역접촉2)▷단계적 일상회복을 위한 방역수칙 준수▷마스크착용▷유증상시 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021/10/30 10:08:30</t>
+          <t>2021/10/31 11:20:37</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>강원도 삼척시</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[삼척시청]10.27~28 중앙시장길 68-4 지하1층 ‘봉자클럽’이용자는 보건소 선별진료소에서 금일 15시까지 코로나 검사를 받으시기 바랍니다☎570-4649</t>
+          <t>[안양시청]▲10.31.(일) 11:00기준 신규확진자 62명 url.kr/odmvxu ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021/10/30 10:06:13</t>
+          <t>2021/10/31 11:05:22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[전주시청]10.30(토) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[부여군청] 10월31일 11시기준 확진자7명 발생【부여431~437자가격리 및 수동감시(접종완료)중 발생으로 지역전파 없음】감기증상시 코로나 검사 후 진료 바람</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021/10/30 09:37:38</t>
+          <t>2021/10/31 11:02:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>경상북도 전체</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[의정부시청]10.23.(토), 10.25.(월) 정다운한식뷔페(산곡동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[경상북도청] 10/22~10/25 제니스라이브(ZENITH)(포항시 남구 상도동 601-1)에 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021/10/30 09:31:29</t>
+          <t>2021/10/31 10:53:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲29일 도내 확진자 46명 발생</t>
+          <t>[정읍시청]10.27(수)11:15~20:10,10.28(목)~10.29(금)9:30~20:30아양촌해물칼국수(시기동,소독완료)방문자는 선별진료소에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021/10/30 09:30:28</t>
+          <t>2021/10/31 10:39:15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>충청남도 서천군</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[서천군청] 10.30.(토) 09:00기준 신규확진자 1명 발생(타 지역 거주자 방문 검사) ▲ 우리군 이동동선 및 접촉자 없습니다.</t>
+          <t>[아산시청]10월 30일 확진자 13명(지인 7, 가족 5, 조사중 1) / 타지역 방문, 모임 자제 및 증상 발현 시 즉시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021/10/30 09:26:33</t>
+          <t>2021/10/31 10:36:24</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[창원시청]10.29.확진자139명 발생 ▲의창1,성산2,합포5,회원5,진해4,타지역1,격리중3,병원관련118 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[전주시청]10.31(일) 현재기준 6명 발생(전일 1명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021/10/30 09:11:04</t>
+          <t>2021/10/31 10:35:45</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.21(목)~10.29(금) 가톨릭 광주사회복지회 안셀모의 집(외국인 노동자 쉼터, 동구 동계천로 129-1, 동명동) 방문자는 검사 바랍니다</t>
+          <t>[진천군청]▲10.30 코로나 확진자 6명(내국인2, 외국인4)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021/10/30 09:07:39</t>
+          <t>2021/10/31 10:33:14</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[목포시청]10.29(금) 24시 기준, 확진자 1명(유증상자1) 발생 ▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
+          <t>[강원도청] 10.30.(토) 도내 코로나19 확진 23명(원주11 홍천5 춘천2 태백2 횡성2 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021/10/30 08:58:51</t>
+          <t>2021/10/31 10:30:27</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[남원시청] 타지역 확진자 동선 관련 ▲ 10.22.(금)12:30~13:30, 남원이조갈비(남원시 향단로 18) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
+          <t>[용인시청]10월31일 0시 기준 확진자 28명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021/10/30 08:57:17</t>
+          <t>2021/10/31 10:25:15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.30.(토) 전일확진자 5명 발생(남원 204~208번)/기확진자 접촉3, 자가격리중2▲타지역 방문자제 및 유증상시 즉시 검사 받으시기바랍니다.</t>
+          <t>[창원시청] 마산역 임시선별검사소 운영종료알림(11.1부터) ▲3개 보건소(09:00~18:00), 창원종합버스터미널(11:00~20:00) 정상운영</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021/10/30 08:50:56</t>
+          <t>2021/10/31 10:06:03</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 30일 00시기준 확진자 21명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[광주광역시] 10.27.(수) ~ 10.30.(토) 앗싸로또판매점(남구 백운로 15-1, 백운동)을 방문하신 분은 거주지 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021/10/30 08:49:41</t>
+          <t>2021/10/31 10:01:22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>충청북도 영동군</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[무안군청] 10.30.(토) 08시30분기준 확진자 1명발생(타지역접촉) ▲발열·기침 등 의심증상 발현 시 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[영동군청] 10. 31.(일) 기준 확진자 1명 발생. 이동 동선 및 접촉자 파악 중입니다. 타 지역 방문 자제 및 증상 발현 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021/10/30 08:43:38</t>
+          <t>2021/10/31 10:00:50</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[진도군청]10.29(금) 24시 기준, 확진 2명(역학조사중)▲초, 중학생 지속발생▲아프면 검사받고 집에서 쉬기√주말 모임·행사, 핼러윈데이 파티 자제바랍니다</t>
+          <t>[수원시청] 10월 31일 0시 기준, 수원 확진자 52명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사 바랍니다. me2.kr/ffgzf</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021/10/29 20:01:43</t>
+          <t>2021/10/31 09:54:29</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>경상북도 청도군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[청도군청]청도원탕(청도군 화양읍 남성현로 504) 10/25.(08:00~11:00)방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
+          <t>[보은군청]10. 31.(일) 확진자 1명 발생 ▲ 10.20.(수) ~ 10.26.(화) 복신경외과의원 방문자는 즉시 보건소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021/10/29 18:31:37</t>
+          <t>2021/10/31 09:53:21</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>경상북도 문경시</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[홍성군청]10월29일(금) 18시 기준 확진자 1명(홍성307번) 발생. 증상발현으로 검사결과 확진. 역학조사 및 방역소독 완료</t>
+          <t>[문경시청] 10.24.(일) ~10.27.(수) 네네치킨(문경시 점촌로8)을 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021/10/29 18:21:44</t>
+          <t>2021/10/31 09:42:30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[남양주시청]10.29.(금) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/te0g 증상의심시 코로나19 검사받으세요.</t>
+          <t>[창원시청] 10.30. 확진자 48명 발생 ▲의창3,성산1,회원2,진해1,병원관련41 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021/10/29 18:12:54</t>
+          <t>2021/10/31 09:40:17</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>전라남도 함평군</t>
+          <t>전라남도 곡성군</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[함평군청] 확진자 관련 10.23.(토) 13:10~13:50 함평읍 대흥식당 방문자는 보건소 또는 황소주차장에서 코로나 검사 받으시기 바랍니다.(시설소독완료)</t>
+          <t>[곡성군청]10.31(일) 09시 기준 확진자 1명 발생(조사중). 유증상자 및 타지역 방문자는 증상 관계없이 선별진료소에서 검사바랍니다.(09:00~17:00)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021/10/29 18:01:40</t>
+          <t>2021/10/31 09:38:05</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1081,2836 +1081,2836 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[논산시청] 10월29일 확진자 3명(내국인3/관내1,타지역1,조사중1) 발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
+          <t>[논산시청] 10월21일~29일 취암동 1056-14, 서원빌 401호에서 마사지를 받으신 분은 코로나 검사 받으시고 논산시보건소로 연락(746-6672)바랍니다</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021/10/29 18:00:31</t>
+          <t>2021/10/31 09:34:05</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[안성시청]10.29.코로나19 확진자4명(자가격리2,동반입소자1,자발적검사1)발생.역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[천안시청] 확진자 7명[타시민2, 천안시민5] ▶ 환절기 감기증상 발현 시 코로나 의심하고 의료기관 방문 전 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021/10/29 17:51:18</t>
+          <t>2021/10/31 09:09:11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[진도군청]확진자 동선▲진도한국병원 10.27(수)08:37~09:20▲진도읍 샹떼피시방 10.27(수)16시~18시▲방문자는 보건소 선별진료소에서 검사바랍니다</t>
+          <t>[고흥군청]10.30(토) 24시기준 추가 확진자 8 발생 역학조사중,선별검사소운영 금산면금일체육관 09:00~17:00 운영,증상유뮤 관계없이 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021/10/29 17:25:19</t>
+          <t>2021/10/31 09:06:43</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 29일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[전남도청] 10.30.24시 기준 확진자 30명(목포5,여수1,고흥21,강진1,영암1,무안1) ▲주말 행사·모임 자제 ▲증상 의심 즉시 보건소 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021/10/29 17:02:01</t>
+          <t>2021/10/31 09:02:09</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 29일 17시 기준 신규확진 4명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[남원시청] ▲ 10.31(일) 08시 기준 확진자 9명 발생(남원 209~217번)/기확진자 접촉2, 자가격리중7 ▲ 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021/10/29 17:00:12</t>
+          <t>2021/10/31 09:01:27</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[중대본] 10.17~10.27 서울 중구 명동7길 18-1 '예지식당' 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다(☎120,1339)</t>
+          <t>[양주시청] 10월 31일 00시기준 확진자 24명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021/10/29 16:30:18</t>
+          <t>2021/10/31 08:29:19</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>경상남도 거제시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[거제시청] 코로나19 확진자 총22명 발생(확진자접촉 1, 타지역확진자접촉 21)/ 기침, 발열 등 유증상시 즉시 가까운 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[목포시청]10.30.24시기준 확진자5명(자가격리중외국인2,가족접촉2,타지역접촉1) ▲발열,기침등 유증상발현으로 의료기관 방문시 사전 진단검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021/10/29 16:24:25</t>
+          <t>2021/10/31 08:18:39</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[중대본]10.13~10.26 경기 남양주시 진접읍 양진로962 2층 '롯데택배 서울북부지점' 근무자는 보건소에서 코로나검사를 받으시기바랍니다(☎120,1339)</t>
+          <t>[여수시청] 10.30.24:00 기준 총1명 발생(자가격리중)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021/10/29 15:47:33</t>
+          <t>2021/10/30 20:02:29</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[포항시청]10.28 305번버스 상대지구대정류장15:47→남구보건소정류장15:55 남구보건소정류장16:09→남부시장정류장16:23 탑승객은 보건소 검사바랍니다</t>
+          <t>[정읍시청1]10.30(토) 20시기준 정읍173번 확진자 발생 / 카카오톡채널 참고 / 유증상시 보건소에서 검사바랍니다. pf.kakao.com/_axcMvK</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021/10/29 15:34:52</t>
+          <t>2021/10/30 19:16:05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>경상남도 거창군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[거창군청]타지역 확진자 동선 관련 10. 20.(수) 17:00 거창출발→서울남부도착 버스탑승자께서는 보건소 선별진료소에서 검사바랍니다. 055-940-8335</t>
+          <t>[남양주시청]10.30.(토) 코로나19 확진자 37명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tehh 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021/10/29 15:02:50</t>
+          <t>2021/10/30 18:27:55</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[음성군청]10월 29일 확진자 5명(내국인3,외국인2)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[논산시청] 10월30일 확진자 3명(내국인1,외국인2/타지역2,조사중1)발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021/10/29 14:43:00</t>
+          <t>2021/10/30 18:01:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[안산시청]10월29일 14시기준 확진자 74명 발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z3DGp</t>
+          <t>[광주시청] 10월 30일 17시 기준 확진자 24명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021/10/29 14:30:52</t>
+          <t>2021/10/30 17:27:10</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>경상북도 경산시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[경산시][일자수정] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/26 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
+          <t>[창원시청] 10.27.(수) 09:50~11:40 경창탕 남탕(성산구 상남로 67) 이용자 관할 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021/10/29 14:19:20</t>
+          <t>2021/10/30 17:13:37</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[창원시청]22(금)08:40~15:36/25(월)08:40~11:27 정태기내과(의창구동읍로9,방역완료)방문자는 선별진료소에서 검사바랍니다(28일이후검사자제외)</t>
+          <t>[충주시청] 10월 30일 확진자 7명 발생(선행 확진자 접촉2, 자가격리중3, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021/10/29 14:01:55</t>
+          <t>2021/10/30 17:03:49</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>충청남도 청양군</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[청양군청] 10월 29일 기준 확진자 1명 발생. 청양99번(타지역 확진자 접촉, 접촉자 파악 완료 검사 중) ▲ 유증상 시 코로나19 검사 바랍니다.</t>
+          <t>[화순군청]10/25(월)12시경 금강민물식당(화순읍 칠충로145)에서 화순사랑상품권 3만원 결제하신 분은 거주지 보건소에서 코로나진단검사를 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021/10/29 13:59:12</t>
+          <t>2021/10/30 17:00:55</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[진도군청]확진자 동선 안내▲진도읍 샹떼 피시방 10.28(목) 16:00~18:00 방문자는 보건소 선별진료소에서 검사바랍니다▲주말 행사·모임 자제 바랍니다</t>
+          <t>[무안군청] 10.30.(토) 17시기준 확진자 1명발생(외국인,격리중확진)▲외국인 고용사업장 종사자 2주1회 검사▲미등록 외국인 여권 없이 예방접종 가능</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021/10/29 13:55:20</t>
+          <t>2021/10/30 15:44:31</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[포항시청] 10.25(월) 12:00 ~ 10.28(목) 06:00 궁타이마사지(상도동 615-3번지) 해당기간 방문자는 보건소 검사바랍니다.</t>
+          <t>[진천군청]10.29 코로나 확진자5명(내국인3,외국인2)발생.▲손씻기,마스크착용 등 방역수칙 준수바랍니다.▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021/10/29 13:44:25</t>
+          <t>2021/10/30 15:17:04</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>인천광역시 미추홀구</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.21(목)~10.24(일) GNS 강남스타일(태국음식점, 서구 상무시민로 130, 7층, 치평동) 방문자는 거주지 보건소에서 검사 바랍니다.</t>
+          <t>[미추홀구청]10/17(일),20(수),24(일),27(수) 주안할렐루야교회(미추홀구 구월로17) 방문자는 31(일) 오전중 거주지보건소에서 코로나19 검사바람</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021/10/29 11:09:29</t>
+          <t>2021/10/30 15:12:55</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[나주시청] 10. 29. 09시 기준. 확진자 1명 발생. 동선·접촉자 파악완료. 외국인 접종시급. 코로나19 증상(기침·발열 등) 발현시 지체없이 검사 요망.</t>
+          <t>[창원시청]▲10.27(수)9:40~12:00 ▲10.29(금)9:50~11:00 소죽도찜질방 남탕(진해구 천자로 165,방역완료) 방문자 선별진료소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021/10/29 11:05:17</t>
+          <t>2021/10/30 15:08:48</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[강화군청]10월25일(월)과 10월27일(수) 강화인삼센터 방문자께서는 가까운 선별진료소에서 코로나19 진단 검사 받으시길 바랍니다.</t>
+          <t>[진주시청] 30일 15시 기준 확진자 2명(타지역 확진자의 접촉자 1명, 시민무료 선제검사 1명)발생. 상세 현황은 시 누리집 참조바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2021/10/29 11:03:01</t>
+          <t>2021/10/30 14:58:20</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>경상북도 경산시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[경산시] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/22 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
+          <t>[금산군청]10.23(토)20:40-22:00, 10.24(일)16:00-19:00, 10.26(화)16:00-18:00 텐코인 노래연습장 방문한 분 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021/10/29 11:00:08</t>
+          <t>2021/10/30 14:56:08</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[용인시청]10월29일 0시기준 확진자 25명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[남양주시청]10.22.(금)~10.29.(금) 외가집밥상 기사식당(남양주시 화도읍 북한강로 1412) 방문자는 가까운 보건소에서 코로나19 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021/10/29 11:00:03</t>
+          <t>2021/10/30 14:30:55</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[전주시청]10.29(금) 현재기준 2명 발생(전일 21명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[안산시청]10월30일 14시기준 확진자 48명 발생 ▲발열,기침,호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/ynRGLX</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2021/10/29 10:46:34</t>
+          <t>2021/10/30 14:13:26</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[부여군청] 10월29일 10시 기준 확진자 3명 발생 【부여422~424/학생】 감기증상시(콧물, 목아픔, 두통 등) 코로나 검사 후 진료 받으시기 바랍니다.</t>
+          <t>[음성군청] 10.30.확진자 4명(내국1, 외국3)발생▲동선 및 접촉자 조사중▲타지역방문,모임,지인초청 자제▲유증상시 주민들께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021/10/29 10:40:01</t>
+          <t>2021/10/30 14:00:13</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[강화군청]10월 25일(월), 10월 27일(수) 강화인삼센터(강화읍 알미골) 방문자는 가까운 선별진료소에서 코로나19 진단검사 받으시길 바랍니다.</t>
+          <t>[사천시청]10.30.(토) 14시 기준 확진자 3명(조사 중 2명, 타지역거주자 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2021/10/29 10:37:39</t>
+          <t>2021/10/30 13:40:18</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>서울특별시 서초구</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[포항시청] 10.22(금)~10.25(월) ZENITH 제니스 라이브(상도동 601-1) 방문자는 가까운 보건소에 방문하여 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[서초구청]10.19(화)~10.29(금) 경부선 터미널 3층 꽃자재(신반포로194 3층) 방문자는 선별진료소에서 코로나19 검사바랍니다. seocho.go.kr</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2021/10/29 10:29:50</t>
+          <t>2021/10/30 13:35:13</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>강원도 평창군</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[평창군청] 10.29일 평창군 확진자 1명(232번) 봉평면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
+          <t>[대구광역시]아크(동구 반야월북로 158, 2층) 10/20~23 방문하신 분은 두류·국채보상공원·대구스타디움 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2021/10/29 10:06:43</t>
+          <t>2021/10/30 13:00:11</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[부여군청]코로나19 군민행동요령 최근 학교,기업체 내 코로나 집단발생에 따른 지역확산은 없는 것으로 판단,감기증상시 코로나 검사후 진료받으시고 방역수칙 준수바람</t>
+          <t>[과천시청] 10월30일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2021/10/29 10:05:48</t>
+          <t>2021/10/30 12:51:45</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>인천광역시 부평구</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[통영시청] 10.24(일) 11:00~13:30 안황스포츠센터(광도면 안정로 830) 목욕탕(여탕) 이용하신 분은 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[부평구청] 10/25(월) 텐코인노래방 (부평구 충선로203번길 12 뉴존프라자 3층, 삼산2동) 방문자는 가까운 선별검사소에서 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021/10/29 10:01:24</t>
+          <t>2021/10/30 12:44:22</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 29일 0시 기준, 수원 확진자 50명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/fwi9s</t>
+          <t>[고흥군청] 10.30(토) 확진자 13명 발생 역학조사 중 외출 및 지인 모임 자제 외국인 및 고용사업주는 보건소 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021/10/29 09:56:45</t>
+          <t>2021/10/30 12:29:48</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 29.(금) 확진자 5명 발생 ▲ 10.19.(화)~10.27.(수) 극동슈퍼 이용자는 인근 보건소에서 코로나검사 받으시기 바랍니다.</t>
+          <t>[강진군청] 강진 19번 확진자 발생(서울 거주자 29일 강진 방문) 동선 파악 등 역학조사 중. 타지역 방문 자제 및 의심증상 시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2021/10/29 09:51:20</t>
+          <t>2021/10/30 12:16:26</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[창원시청] 10.28. 확진자 18명 발생 ▲의창3,성산1,합포6,회원5,타지역3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[보성군]10.29.(금) 확진자 2명 발생(타지역 확진자 접촉)▲주말외출·모임자제▲백신접종을 완료했더라도 마스크착용, 유증상시 검사등 방역수칙을 잘 지켜주세요!</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2021/10/29 09:15:46</t>
+          <t>2021/10/30 12:00:04</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[진도군청]10.29(금) 08시기준 2명 추가확진(초,중학생)▲선별이동검사소 안내√진도서초교 09:30~11:00√진도중학교 09:30~14:00까지 운영합니다</t>
+          <t>[전남도청] 전국 √요양시설√병원√학교 등에서 집단발생▲고위험시설(요양시설,병원) 방문 및 면회자제▲핼러윈데이,축제,행사,모임 자제 및 유증상시 검사 꼭 받으세요</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2021/10/29 09:02:40</t>
+          <t>2021/10/30 11:50:10</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[고흥군청] 10.29(금) 확진자 1명 발생, 역학조사 중. 외출 및 지인모임을 자제하고, 마스크 상시 착용바라며, 의심증상시 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[부여군청] 10월30일 11시 기준 확진자 6명 발생 【부여425~430/자가격리 학생4, 수동감시2】 감기증상 시 코로나 검사 후 진료를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2021/10/29 09:02:19</t>
+          <t>2021/10/30 11:25:35</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 29일 00시 기준 확진자 12명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[칠곡군청] 10.30.0시 기준 확진자 12명 중 외국인9명. 파키스탄 확진자 다수 발생. 사업장, 농장 등 소속외국인은 코로나 검사를 꼭 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2021/10/29 08:56:55</t>
+          <t>2021/10/30 11:25:16</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[남원시청] 관내 확진자 동선 관련▲10.24.(일) 09:00~18:00 행남자기(남원시 남문로 397) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
+          <t>[칠곡군청] 10.20(수)~10.27(수) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 증상유무 상관없이 선별진료소에서 필히 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2021/10/29 08:56:40</t>
+          <t>2021/10/30 11:01:48</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.29(금 08시기준 전일확진자 2명발생(남원 202~203번)/기확진자 접촉 ▲가을철 여행등 타지역방문 후 유증상시 즉시 검사받으시기 바랍니다.</t>
+          <t>[용인시청]10월30일 0시 기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2021/10/29 08:55:32</t>
+          <t>2021/10/30 10:51:00</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 무안군,전라남도 보성군,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[전남도청] 10.28. 24시기준 확진 13명(목포4,순천2,나주1,화순1,강진1,영광2,진도1/해외1(구례))▲증상 의심되면 외출 자제하고 검사 먼저 받으세요</t>
+          <t>[완주군청] 10월 30일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2021/10/29 08:33:23</t>
+          <t>2021/10/30 10:45:20</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>전라남도 화순군</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[화순군청] 10.28. 24시 기준 확진자 1명 발생(화순128번). 동선 소독 완료하고 접촉자 조사중입니다. ▶접종완료자도 의심증상 있으면 즉시 검사바랍니다.</t>
+          <t>[군산시청] ▲10/22(금)~10/28(목) 싱글앤싱글(동수송2길 19) 방문자는 보건소 선별검사(09시~18시) 바랍니다. ▲10/29(금) 검사자 제외</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2021/10/28 19:48:50</t>
+          <t>2021/10/30 10:26:09</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[영광군청]10.28.(목) 18:00시 확진자 1명(영광 47번)추가발생.영광46번 가족으로 역학조사중. 접종 완료자도 의심 즉시 보건소에서 진단검사 바랍니다.</t>
+          <t>[강원도청] 10.29.(금) 도내 코로나19 확진 25명(원주13,삼척5,홍천3,춘천1,강릉1,태백1,평창1) ▶접촉의심 및 감기증상 시 즉시검사 당부 드림</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2021/10/28 19:25:43</t>
+          <t>2021/10/30 10:17:18</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>전라북도 고창군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[고창군청] 10.28.(목) 19:00 기준 ▶관내 확진자(고창 63번) 발생 ▶코로나19 의심 증상 시 검사 바랍니다.</t>
+          <t>[수원시청] 10월 30일 0시 기준, 수원 확진자 61명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/5z8t3</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2021/10/28 19:23:48</t>
+          <t>2021/10/30 10:08:30</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>강원도 삼척시</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 25.(월) ~ 10. 27.(수) 택시(충북35아 5064) 이용자는 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[삼척시청]10.27~28 중앙시장길 68-4 지하1층 ‘봉자클럽’이용자는 보건소 선별진료소에서 금일 15시까지 코로나 검사를 받으시기 바랍니다☎570-4649</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2021/10/28 19:00:34</t>
+          <t>2021/10/30 10:06:13</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[홍성군청]10월28일(목) 19시 기준 확진자 1명(홍성306번) 발생. 자가격리중 검사 결과 확진으로 접촉자 및 동선 없음</t>
+          <t>[전주시청]10.30(토) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2021/10/28 18:34:01</t>
+          <t>2021/10/30 09:37:38</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 28일 17시 기준 확진자 40명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[의정부시청]10.23.(토), 10.25.(월) 정다운한식뷔페(산곡동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2021/10/28 18:18:32</t>
+          <t>2021/10/30 09:31:29</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[진도군청]안내드린 57번확진자 동선관련▲진도읍 락스(Rock’s) PC방 방문자께서는√보건소 선별진료소를 오늘밤 9시(21시)까지 연장운영하니 방문검사 바랍니다</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲29일 도내 확진자 46명 발생</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2021/10/28 18:15:20</t>
+          <t>2021/10/30 09:30:28</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청남도 서천군</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[남양주시청]10.28.(목) 코로나19 확진자 24명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tct8 증상의심시 코로나19 검사받으세요.</t>
+          <t>[서천군청] 10.30.(토) 09:00기준 신규확진자 1명 발생(타 지역 거주자 방문 검사) ▲ 우리군 이동동선 및 접촉자 없습니다.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2021/10/28 18:02:57</t>
+          <t>2021/10/30 09:26:33</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>서울특별시 중구</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[중구청] 10.14.~10.24. 중구 소재 중림식당(손기정로 1길 48) 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[창원시청]10.29.확진자139명 발생 ▲의창1,성산2,합포5,회원5,진해4,타지역1,격리중3,병원관련118 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2021/10/28 18:00:52</t>
+          <t>2021/10/30 09:11:04</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[논산시청] 10월28일 확진자 5명(내국인5/관내4,훈련소1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
+          <t>[광주광역시] 10.21(목)~10.29(금) 가톨릭 광주사회복지회 안셀모의 집(외국인 노동자 쉼터, 동구 동계천로 129-1, 동명동) 방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2021/10/28 18:00:01</t>
+          <t>2021/10/30 09:07:39</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[안성시청]10.28. 코로나19확진자3명(자발적검사1확진자접촉1동반입소자1)발생. 역학조사,방역조치 완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[목포시청]10.29(금) 24시 기준, 확진자 1명(유증상자1) 발생 ▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2021/10/28 17:39:10</t>
+          <t>2021/10/30 08:58:51</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[진도군청]확진자 동선 추가▲진도읍 락피시방 √10.23(토) 16:10~21:05 √10.25(월) 17:30~10.26(화) 00:15▲방문자는 검사 바랍니다</t>
+          <t>[남원시청] 타지역 확진자 동선 관련 ▲ 10.22.(금)12:30~13:30, 남원이조갈비(남원시 향단로 18) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2021/10/28 17:32:19</t>
+          <t>2021/10/30 08:57:17</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[진도군청]진도57번 확진자 발생(외국인근로자)▲진도읍 락피시방 √10.20(수)19:24~22:46 √10.22(금) 17:40~21:45▲방문자는 검사바랍니다</t>
+          <t>[남원시청]▲10.30.(토) 전일확진자 5명 발생(남원 204~208번)/기확진자 접촉3, 자가격리중2▲타지역 방문자제 및 유증상시 즉시 검사 받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2021/10/28 17:21:55</t>
+          <t>2021/10/30 08:50:56</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 28일 확진자 4명 발생(자가격리중2, 조사중2)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[양주시청] 10월 30일 00시기준 확진자 21명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2021/10/28 17:13:14</t>
+          <t>2021/10/30 08:49:41</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[창원시청] 10.23(토) 22:10~23:58 슬레이크(성산구 마디미로43번길 10)이용자는 관할 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[무안군청] 10.30.(토) 08시30분기준 확진자 1명발생(타지역접촉) ▲발열·기침 등 의심증상 발현 시 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2021/10/28 16:47:30</t>
+          <t>2021/10/30 08:43:38</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[강진군청] 강진 18번 확진자 발생(서울 방문하여 가족 확진자 접촉) 접촉자 및 동선 없음. 타지역 방문 및 의심증상 시 선별진료소 검사바랍니다.</t>
+          <t>[진도군청]10.29(금) 24시 기준, 확진 2명(역학조사중)▲초, 중학생 지속발생▲아프면 검사받고 집에서 쉬기√주말 모임·행사, 핼러윈데이 파티 자제바랍니다</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2021/10/28 16:28:17</t>
+          <t>2021/10/29 20:01:43</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경상북도 청도군</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[구미시청]10/15(금)~10/24(일) 금오산교회 신유기도원(형곡동로 3) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[청도군청]청도원탕(청도군 화양읍 남성현로 504) 10/25.(08:00~11:00)방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2021/10/28 15:46:27</t>
+          <t>2021/10/29 18:31:37</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[의정부시청] 10.23.(토)~10.27.(수) 행복한영광교회(의정부동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[홍성군청]10월29일(금) 18시 기준 확진자 1명(홍성307번) 발생. 증상발현으로 검사결과 확진. 역학조사 및 방역소독 완료</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2021/10/28 15:31:39</t>
+          <t>2021/10/29 18:21:44</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>전라북도 정읍시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[정읍시청] 10.25(월) 11:45~12:00, 항상아름다운자리 음식점 (신태인, 소독완료/ 전주확진자 방문) 방문자는 보건소 선별진료소에서 검사바랍니다.</t>
+          <t>[남양주시청]10.29.(금) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/te0g 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2021/10/28 15:28:28</t>
+          <t>2021/10/29 18:12:54</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[의정부시] 10/23(토)~10/24(일) 신곡동 서해아파트 103동 놀이터 방문자는 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[함평군청] 확진자 관련 10.23.(토) 13:10~13:50 함평읍 대흥식당 방문자는 보건소 또는 황소주차장에서 코로나 검사 받으시기 바랍니다.(시설소독완료)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2021/10/28 15:00:34</t>
+          <t>2021/10/29 18:01:40</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[고성군청]10. 28.15시기준,확진자1명(고성119번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[논산시청] 10월29일 확진자 3명(내국인3/관내1,타지역1,조사중1) 발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2021/10/28 14:51:40</t>
+          <t>2021/10/29 18:00:31</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[부산시]10.23.(토) 10:07~11:25 동신탕 여탕(부산광역시 동구 홍곡남로6, 수정동)이용자는 코로나19 검사 받으시기 바랍니다. (소독완료)</t>
+          <t>[안성시청]10.29.코로나19 확진자4명(자가격리2,동반입소자1,자발적검사1)발생.역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2021/10/28 14:27:38</t>
+          <t>2021/10/29 17:51:18</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[영광군청] 관내 확진자 동선 관련▲10.26.(화)19:10~20:10 영광성당 미사 참석자는 보건소에서 진단검사 바랍니다.▲접종자 포함 실내외에서 마스크 착용</t>
+          <t>[진도군청]확진자 동선▲진도한국병원 10.27(수)08:37~09:20▲진도읍 샹떼피시방 10.27(수)16시~18시▲방문자는 보건소 선별진료소에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2021/10/28 14:25:30</t>
+          <t>2021/10/29 17:25:19</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[김천시청]10월28일 14시기준 13명 발생(신규2, 자가격리중11)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
+          <t>[광주시청] 10월 29일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2021/10/28 13:51:17</t>
+          <t>2021/10/29 17:02:01</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[부여군청]10월28일 13시 기준 확진자17명 발생【부여405~421업체근로자14(외국인10,내국인4),학생3】 감기증상 시 코로나 검사(특히 학생) 바랍니다</t>
+          <t>[과천시청] 10월 29일 17시 기준 신규확진 4명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2021/10/28 13:32:14</t>
+          <t>2021/10/29 17:00:12</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[보성군]보성40번 동선관련, 10.24.(일)~10.26.(화) 06:00~07:00 보성매일시장 내 보리밥집을 이용하신분은 지금 즉시 보건소에서 검사바랍니다.</t>
+          <t>[중대본] 10.17~10.27 서울 중구 명동7길 18-1 '예지식당' 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2021/10/28 13:26:55</t>
+          <t>2021/10/29 16:30:18</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>전라남도 순천시</t>
+          <t>경상남도 거제시</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[순천시청] 10.24.(일)~10.27.(수) 07:00~10:00 천담수사우나(신월큰길 39) 여탕 이용자는 금일 중 보건소 선별진료소에서 검사하시기 바랍니다</t>
+          <t>[거제시청] 코로나19 확진자 총22명 발생(확진자접촉 1, 타지역확진자접촉 21)/ 기침, 발열 등 유증상시 즉시 가까운 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2021/10/28 13:25:56</t>
+          <t>2021/10/29 16:24:25</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>전라남도 화순군</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[화순군청] 10.23.(토) 13:40~14:25 옛날두부(화순읍 시장길 33)에서 23,000원 현금결제 하신 분은 거주지 보건소에서 코로나 진단검사바랍니다.</t>
+          <t>[중대본]10.13~10.26 경기 남양주시 진접읍 양진로962 2층 '롯데택배 서울북부지점' 근무자는 보건소에서 코로나검사를 받으시기바랍니다(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2021/10/28 12:58:41</t>
+          <t>2021/10/29 15:47:33</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[전주시청]10.28(목) 현재기준 7명 발생(전일 2명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[포항시청]10.28 305번버스 상대지구대정류장15:47→남구보건소정류장15:55 남구보건소정류장16:09→남부시장정류장16:23 탑승객은 보건소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2021/10/28 11:18:46</t>
+          <t>2021/10/29 15:34:52</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상남도 거창군</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.28.(목) 11:00기준 신규확진자 29명 url.kr/iexuqk ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[거창군청]타지역 확진자 동선 관련 10. 20.(수) 17:00 거창출발→서울남부도착 버스탑승자께서는 보건소 선별진료소에서 검사바랍니다. 055-940-8335</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2021/10/28 11:10:03</t>
+          <t>2021/10/29 15:02:50</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[나주시청] 10.28. 09시기준. 확진자2명 발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
+          <t>[음성군청]10월 29일 확진자 5명(내국인3,외국인2)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2021/10/28 11:08:31</t>
+          <t>2021/10/29 14:43:00</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>전라북도 임실군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[임실군청]서울 확진자 동선 관련/10.23(토) 09:30 서울강남터미널 출발→순창터미널 이동중 강진터미널에서 하차하신분은 선별진료소에서 검사 받으시길 바랍니다</t>
+          <t>[안산시청]10월29일 14시기준 확진자 74명 발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z3DGp</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2021/10/28 10:59:57</t>
+          <t>2021/10/29 14:30:52</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상북도 경산시</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[용인시청]10월28일 0시기준 확진자 26명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[경산시][일자수정] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/26 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2021/10/28 10:59:56</t>
+          <t>2021/10/29 14:19:20</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[보은군청] 221(13:25백록동방향),721(15:35석화방향),940(17:20신함방향),431(19:00천남방향)이용자는 코로나 검사받으시기 바랍니다.</t>
+          <t>[창원시청]22(금)08:40~15:36/25(월)08:40~11:27 정태기내과(의창구동읍로9,방역완료)방문자는 선별진료소에서 검사바랍니다(28일이후검사자제외)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2021/10/28 10:44:26</t>
+          <t>2021/10/29 14:01:55</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>충청남도 청양군</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 28일(목) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[청양군청] 10월 29일 기준 확진자 1명 발생. 청양99번(타지역 확진자 접촉, 접촉자 파악 완료 검사 중) ▲ 유증상 시 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2021/10/28 10:42:34</t>
+          <t>2021/10/29 13:59:12</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>전라북도 순창군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[순창군청]서울 확진자 이동경로 안내 ▶10.23(토) 09:30 서울강남센트럴시티→ 12:50 순창터미널 도착▶고속버스 이용객은 가까운 선별진료소 검사 바랍니다</t>
+          <t>[진도군청]확진자 동선 안내▲진도읍 샹떼 피시방 10.28(목) 16:00~18:00 방문자는 보건소 선별진료소에서 검사바랍니다▲주말 행사·모임 자제 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2021/10/28 10:23:12</t>
+          <t>2021/10/29 13:55:20</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[강원도청] 10.27.(수) 도내 코로나19 확진 22명(원주13 춘천2 태백2 강릉1 홍천1 철원1 양구1 인제1)▶접촉의심 및 감기증상시 즉시검사 당부 드림</t>
+          <t>[포항시청] 10.25(월) 12:00 ~ 10.28(목) 06:00 궁타이마사지(상도동 615-3번지) 해당기간 방문자는 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2021/10/28 10:00:33</t>
+          <t>2021/10/29 13:44:25</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 28일 0시 기준, 수원 확진자 60명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/xvl74</t>
+          <t>[광주광역시] 10.21(목)~10.24(일) GNS 강남스타일(태국음식점, 서구 상무시민로 130, 7층, 치평동) 방문자는 거주지 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2021/10/28 09:58:53</t>
+          <t>2021/10/29 11:09:29</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[영광군청] 확진자 동선 관련 ▲10.24.(일), 10.26.(화) 영광성당 방문자는 보건소에서 진단검사 받으시기 바랍니다.▲마스크착용, 타지역 방문·접촉 자제</t>
+          <t>[나주시청] 10. 29. 09시 기준. 확진자 1명 발생. 동선·접촉자 파악완료. 외국인 접종시급. 코로나19 증상(기침·발열 등) 발현시 지체없이 검사 요망.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2021/10/28 09:47:56</t>
+          <t>2021/10/29 11:05:17</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.27 코로나 확진자 3명(내국인2, 외국인1). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[강화군청]10월25일(월)과 10월27일(수) 강화인삼센터 방문자께서는 가까운 선별진료소에서 코로나19 진단 검사 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2021/10/28 09:42:42</t>
+          <t>2021/10/29 11:03:01</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경상북도 경산시</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[보은군청]10.28.(목) 확진자 8명 발생▲10. 23.(토)~10.24.(일) 시내버스(충북74자1014) 이용자는 보건소에서 코로나 검사 받으시기 바랍니다</t>
+          <t>[경산시] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/22 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2021/10/28 09:36:34</t>
+          <t>2021/10/29 11:00:08</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[창원시청] 10.27. 확진자 22명 발생 ▲합포10,회원5,진해1,타지역1,격리중5 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[용인시청]10월29일 0시기준 확진자 25명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2021/10/28 09:33:21</t>
+          <t>2021/10/29 11:00:03</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[영광군청] 10.28.(목) 9시 기준, 확진자 1명(영광46번)발생▲10.24.(일)~10.27.(수)대동공업영광대리점 방문자는 보건소에서 진단검사 바랍니다.</t>
+          <t>[전주시청]10.29(금) 현재기준 2명 발생(전일 21명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2021/10/28 09:19:19</t>
+          <t>2021/10/29 10:46:34</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>강원도 원주시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[원주시청] 10.16.~10.24.'힐링타임아로마테라피(여대생마사지)[북원로2251, 단계동]' 이용자는 오늘 15시까지 보건소에서 코로나 검사 받으세요.</t>
+          <t>[부여군청] 10월29일 10시 기준 확진자 3명 발생 【부여422~424/학생】 감기증상시(콧물, 목아픔, 두통 등) 코로나 검사 후 진료 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2021/10/28 09:05:45</t>
+          <t>2021/10/29 10:40:01</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 28일 00시 기준 확진자 11명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[강화군청]10월 25일(월), 10월 27일(수) 강화인삼센터(강화읍 알미골) 방문자는 가까운 선별진료소에서 코로나19 진단검사 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2021/10/28 08:31:40</t>
+          <t>2021/10/29 10:37:39</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.28(목)08시 기준 확진자 30명 발생(남원 172~201번)/감염경로조사중 ▲ 유증상시 접종유무와 상관없이 즉시 선별진료소에서 검사바랍니다.</t>
+          <t>[포항시청] 10.22(금)~10.25(월) ZENITH 제니스 라이브(상도동 601-1) 방문자는 가까운 보건소에 방문하여 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2021/10/28 08:30:09</t>
+          <t>2021/10/29 10:29:50</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>강원도 평창군</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[목포시청]10.27. 24시 기준 확진자 1명(자가격리중 외국인) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[평창군청] 10.29일 평창군 확진자 1명(232번) 봉평면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2021/10/28 08:28:21</t>
+          <t>2021/10/29 10:06:43</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[여수시청]10.27.24:00 기준 총1명 발생(타지역거주자)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[부여군청]코로나19 군민행동요령 최근 학교,기업체 내 코로나 집단발생에 따른 지역확산은 없는 것으로 판단,감기증상시 코로나 검사후 진료받으시고 방역수칙 준수바람</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2021/10/27 21:09:37</t>
+          <t>2021/10/29 10:05:48</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[보성군] 10.27.(수) 확진자 3명 추가 발생(가족,지인모임/역학조사중) ▲외출 및 지인모임 자제, 마스크 상시 착용, 의심증상시 보건소에서 검사 받으세요.</t>
+          <t>[통영시청] 10.24(일) 11:00~13:30 안황스포츠센터(광도면 안정로 830) 목욕탕(여탕) 이용하신 분은 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2021/10/27 18:36:13</t>
+          <t>2021/10/29 10:01:24</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[홍성군청]10월27일(수) 18시 기준 확진자 5명(홍성301~305번) 발생.자가격리 1명, 병원격리 3명, 자발적검사 1명. 역학조사 및 방역조치 완료</t>
+          <t>[수원시청] 10월 29일 0시 기준, 수원 확진자 50명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/fwi9s</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2021/10/27 18:35:33</t>
+          <t>2021/10/29 09:56:45</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
+          <t>[보은군청] 10. 29.(금) 확진자 5명 발생 ▲ 10.19.(화)~10.27.(수) 극동슈퍼 이용자는 인근 보건소에서 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2021/10/27 18:25:04</t>
+          <t>2021/10/29 09:51:20</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[남양주시청]10.27.(수) 코로나19 확진자 26명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tbit 증상의심시 코로나19 검사받으세요.</t>
+          <t>[창원시청] 10.28. 확진자 18명 발생 ▲의창3,성산1,합포6,회원5,타지역3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2021/10/27 18:03:16</t>
+          <t>2021/10/29 09:15:46</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 27일 확진자 7명 발생(선행 확진자 접촉1, 자가격리중4, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[진도군청]10.29(금) 08시기준 2명 추가확진(초,중학생)▲선별이동검사소 안내√진도서초교 09:30~11:00√진도중학교 09:30~14:00까지 운영합니다</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2021/10/27 17:47:38</t>
+          <t>2021/10/29 09:02:40</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[통영시청] 10.26.(화) 10:40~17:55 통영전문장례식장(정량동) 3층 특실을 방문하신분은 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[고흥군청] 10.29(금) 확진자 1명 발생, 역학조사 중. 외출 및 지인모임을 자제하고, 마스크 상시 착용바라며, 의심증상시 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2021/10/27 17:44:59</t>
+          <t>2021/10/29 09:02:19</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[구례군청]10.27.(수) 확진자 1명 발생(구례35번 가족), 접촉자 및 이동동선 없습니다. 타지역 방문을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[양주시청] 10월 29일 00시 기준 확진자 12명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2021/10/27 17:32:06</t>
+          <t>2021/10/29 08:56:55</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 27일 17시 기준 확진자 28명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[남원시청] 관내 확진자 동선 관련▲10.24.(일) 09:00~18:00 행남자기(남원시 남문로 397) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2021/10/27 17:04:55</t>
+          <t>2021/10/29 08:56:40</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 27일 17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[남원시청]▲10.29(금 08시기준 전일확진자 2명발생(남원 202~203번)/기확진자 접촉 ▲가을철 여행등 타지역방문 후 유증상시 즉시 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2021/10/27 16:52:03</t>
+          <t>2021/10/29 08:55:32</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 무안군,전라남도 보성군,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[강북구청] 10.24.~27. 로얄PC방(도봉로 313, 지하1층) 방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
+          <t>[전남도청] 10.28. 24시기준 확진 13명(목포4,순천2,나주1,화순1,강진1,영광2,진도1/해외1(구례))▲증상 의심되면 외출 자제하고 검사 먼저 받으세요</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2021/10/27 16:32:30</t>
+          <t>2021/10/29 08:33:23</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[창원시청] 10.21.(목)~10.23.(토), 10.25.(월) 대림식당(마산합포구 북성로 100, 상남동) 방문자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[화순군청] 10.28. 24시 기준 확진자 1명 발생(화순128번). 동선 소독 완료하고 접촉자 조사중입니다. ▶접종완료자도 의심증상 있으면 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2021/10/27 15:43:47</t>
+          <t>2021/10/28 19:48:50</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[부산시]10.23.(토) 13:30~15:30에 대원목욕탕(부산진구 황령대로18번길 43(범천동))여탕 이용자는 코로나19검사 받으시기 바랍니다.(소독완료)</t>
+          <t>[영광군청]10.28.(목) 18:00시 확진자 1명(영광 47번)추가발생.영광46번 가족으로 역학조사중. 접종 완료자도 의심 즉시 보건소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2021/10/27 15:37:00</t>
+          <t>2021/10/28 19:25:43</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>전라북도 고창군</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[화성시청] 10.22.(금) 킹노래방(화성시 봉담읍 와우안길 43) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[고창군청] 10.28.(목) 19:00 기준 ▶관내 확진자(고창 63번) 발생 ▶코로나19 의심 증상 시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2021/10/27 15:36:38</t>
+          <t>2021/10/28 19:23:48</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[화성시청] 10.23.(토) 블루노래연습장(화성시 봉담읍 와우리 45-5 지하1층) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[보은군청] 10. 25.(월) ~ 10. 27.(수) 택시(충북35아 5064) 이용자는 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2021/10/27 15:36:10</t>
+          <t>2021/10/28 19:00:34</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>충청남도 서천군</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[서천군청] 10.24.~26. 기간 중 서면 홍원항어촌계 수산물판매장 내 한문이네를 방문한 분들은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
+          <t>[홍성군청]10월28일(목) 19시 기준 확진자 1명(홍성306번) 발생. 자가격리중 검사 결과 확진으로 접촉자 및 동선 없음</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2021/10/27 15:24:25</t>
+          <t>2021/10/28 18:34:01</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[김천시청]10월27일 15시기준 관내 초·중학교 관련 22명 발생(신규15, 자가격리중7)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
+          <t>[광주시청] 10월 28일 17시 기준 확진자 40명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2021/10/27 15:10:02</t>
+          <t>2021/10/28 18:18:32</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[고성군청]10.24.(일)14:00~15:42병산수산고성왕새우(삼산면소재, 방역완료) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[진도군청]안내드린 57번확진자 동선관련▲진도읍 락스(Rock’s) PC방 방문자께서는√보건소 선별진료소를 오늘밤 9시(21시)까지 연장운영하니 방문검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2021/10/27 15:02:56</t>
+          <t>2021/10/28 18:15:20</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[보은군청]10. 23.(토) ~ 10. 26.(화) 보은개인택시(35아 5061 /소나타/은색)를 이용하신분은 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[남양주시청]10.28.(목) 코로나19 확진자 24명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tct8 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:56</t>
+          <t>2021/10/28 18:02:57</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>서울특별시 중구</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[고성군청]10. 27.15시기준,확진자1명(고성118번, 관내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[중구청] 10.14.~10.24. 중구 소재 중림식당(손기정로 1길 48) 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:14</t>
+          <t>2021/10/28 18:00:52</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>경기도 부천시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[부천시청] 10.19(화) 18시~22시 중동포차(조마루로291번길 46) 방문자는 증상유무에 관계없이 선별진료소에서 코로나19검사를 받으시기 바랍니다.</t>
+          <t>[논산시청] 10월28일 확진자 5명(내국인5/관내4,훈련소1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:14</t>
+          <t>2021/10/28 18:00:01</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[보은군청]10.19.(화)~10.22.(금)/10.25.(월)~10.26.(화)11:45~12:30즐거운집(보은읍 삼산리)이용자는 코로나 검사 받으시기 바랍니다</t>
+          <t>[안성시청]10.28. 코로나19확진자3명(자발적검사1확진자접촉1동반입소자1)발생. 역학조사,방역조치 완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2021/10/27 14:57:46</t>
+          <t>2021/10/28 17:39:10</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[김제시청] 10.27.(수) 14시기준 확진자 1명 발생(확진자 접촉1, 동선파악중)/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
+          <t>[진도군청]확진자 동선 추가▲진도읍 락피시방 √10.23(토) 16:10~21:05 √10.25(월) 17:30~10.26(화) 00:15▲방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2021/10/27 14:47:14</t>
+          <t>2021/10/28 17:32:19</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[울산광역시] 10.23.(토)18:10~21:10 ▲동강병원 장례식장 6호실(중구 태화로 240, 태화동, 소독완료) 방문자는 코로나19 검사 받으시기 바랍니다</t>
+          <t>[진도군청]진도57번 확진자 발생(외국인근로자)▲진도읍 락피시방 √10.20(수)19:24~22:46 √10.22(금) 17:40~21:45▲방문자는 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2021/10/27 14:31:59</t>
+          <t>2021/10/28 17:21:55</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19(화), 10.21(목)~10.24(일) 환금휘트니스사우나(마산회원구 북성로 106, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[충주시청] 10월 28일 확진자 4명 발생(자가격리중2, 조사중2)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2021/10/27 14:00:07</t>
+          <t>2021/10/28 17:13:14</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[사천시청] 10.27.(수) 14시 기준 확진자 5명(확진자 접촉자4명, 해외입국자1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[창원시청] 10.23(토) 22:10~23:58 슬레이크(성산구 마디미로43번길 10)이용자는 관할 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2021/10/27 13:40:54</t>
+          <t>2021/10/28 16:47:30</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[완도군청]외국인 확진자 자가격리중 1명 발생▶오늘 선별이동검사소 안내▶10/27(수)13:30~15:00 소안창조문화센터▶15:00~17:00 청산복지회관 2층</t>
+          <t>[강진군청] 강진 18번 확진자 발생(서울 방문하여 가족 확진자 접촉) 접촉자 및 동선 없음. 타지역 방문 및 의심증상 시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2021/10/27 11:02:53</t>
+          <t>2021/10/28 16:28:17</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[완도군청] 확진자동선▶10/22(금)보길보옥리→청별→노화이포 보길여객농어촌버스 첫차(08:00)▶노화 농협하나로마트09:00~09:10 동시간대 이용자 검사요망</t>
+          <t>[구미시청]10/15(금)~10/24(일) 금오산교회 신유기도원(형곡동로 3) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2021/10/27 11:00:04</t>
+          <t>2021/10/28 15:46:27</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[용인시청]10월27일 0시기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[의정부시청] 10.23.(토)~10.27.(수) 행복한영광교회(의정부동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2021/10/27 10:39:48</t>
+          <t>2021/10/28 15:31:39</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[부여군청]10월27일 10시 기준 확진자 18명 발생【부여387~404,학생등13,외국인5】 감기증상 시 보건소에서 코로나 검사(특히 학생) 받으시기 바랍니다.</t>
+          <t>[정읍시청] 10.25(월) 11:45~12:00, 항상아름다운자리 음식점 (신태인, 소독완료/ 전주확진자 방문) 방문자는 보건소 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2021/10/27 10:37:52</t>
+          <t>2021/10/28 15:28:28</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[강원도청] 10.26.(화) 도내 코로나19 확진 19명(원주6 태백5 춘천4 홍천3 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부 드림!!</t>
+          <t>[의정부시] 10/23(토)~10/24(일) 신곡동 서해아파트 103동 놀이터 방문자는 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2021/10/27 10:33:16</t>
+          <t>2021/10/28 15:00:34</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[아산시청] 10월26일 확진자 10명(가족7, 지인1, 조사중 2) /단계적 일상 회복 전환을 위해 방역수칙을 준수해 주시고, 코로나 의심시 검사 받으세요.</t>
+          <t>[고성군청]10. 28.15시기준,확진자1명(고성119번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2021/10/27 10:26:25</t>
+          <t>2021/10/28 14:51:40</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[전주시청]10.27(수) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[부산시]10.23.(토) 10:07~11:25 동신탕 여탕(부산광역시 동구 홍곡남로6, 수정동)이용자는 코로나19 검사 받으시기 바랍니다. (소독완료)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2021/10/27 10:08:04</t>
+          <t>2021/10/28 14:27:38</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 27일(수) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[영광군청] 관내 확진자 동선 관련▲10.26.(화)19:10~20:10 영광성당 미사 참석자는 보건소에서 진단검사 바랍니다.▲접종자 포함 실내외에서 마스크 착용</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2021/10/27 10:00:53</t>
+          <t>2021/10/28 14:25:30</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 27일 0시 기준, 수원 확진자 58명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/ghswi</t>
+          <t>[김천시청]10월28일 14시기준 13명 발생(신규2, 자가격리중11)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2021/10/27 09:54:39</t>
+          <t>2021/10/28 13:51:17</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[김천시청]코로나19이동선별검사소 운영안내▲장소:녹색미래과학관(율곡동)▲27일:13:00~16:00, 28일-29일:10:00~16:00▲의심증상시 검사바랍니다.</t>
+          <t>[부여군청]10월28일 13시 기준 확진자17명 발생【부여405~421업체근로자14(외국인10,내국인4),학생3】 감기증상 시 코로나 검사(특히 학생) 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2021/10/27 09:53:25</t>
+          <t>2021/10/28 13:32:14</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 27.(수) 확진자 4명 발생 ▲ 10. 18.(월) 이후 복신경외과 내원자 및 유증상자는 인근 보건소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[보성군]보성40번 동선관련, 10.24.(일)~10.26.(화) 06:00~07:00 보성매일시장 내 보리밥집을 이용하신분은 지금 즉시 보건소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2021/10/27 09:46:27</t>
+          <t>2021/10/28 13:26:55</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>경상남도 함양군</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>[함양군청] 10. 18.(월) 14시 함양 출발 → 16시 부산(사상) 도착 시외버스 탑승객은 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[순천시청] 10.24.(일)~10.27.(수) 07:00~10:00 천담수사우나(신월큰길 39) 여탕 이용자는 금일 중 보건소 선별진료소에서 검사하시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2021/10/27 09:31:50</t>
+          <t>2021/10/28 13:25:56</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[창원시청] 10.18(월)~23(토) 온정백반(대산면 주남로503번길 8, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.(10.24 이후 검사자 제외)</t>
+          <t>[화순군청] 10.23.(토) 13:40~14:25 옛날두부(화순읍 시장길 33)에서 23,000원 현금결제 하신 분은 거주지 보건소에서 코로나 진단검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:51</t>
+          <t>2021/10/28 12:58:41</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.17(일)~10.25(월) JL연기학원 1층~4층(동구 구성로 167, 충장로5가)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
+          <t>[전주시청]10.28(목) 현재기준 7명 발생(전일 2명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:51</t>
+          <t>2021/10/28 11:18:46</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[창원시청] 10.26. 확진자 20명 발생 ▲의창4,합포6,회원4,진해2,타지역1,격리중3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[안양시청]▲10.28.(목) 11:00기준 신규확진자 29명 url.kr/iexuqk ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:30</t>
+          <t>2021/10/28 11:10:03</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[완도군청]확진자동선▶10/21(목) 12:10해남출발→13:00완도도착▶13:20완도터미널→화흥포셔틀버스▶13:50화흥포→노화동천 여객선실 이용자 코로나검사요망</t>
+          <t>[나주시청] 10.28. 09시기준. 확진자2명 발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:26</t>
+          <t>2021/10/28 11:08:31</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>전라북도 임실군</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲26일 도내 확진자 29명 발생</t>
+          <t>[임실군청]서울 확진자 동선 관련/10.23(토) 09:30 서울강남터미널 출발→순창터미널 이동중 강진터미널에서 하차하신분은 선별진료소에서 검사 받으시길 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2021/10/27 09:11:43</t>
+          <t>2021/10/28 10:59:57</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[포항시청]10.23 302번버스 영일고등학교정류장15:41→죽도시장정류장16:07 죽도시장정류장16:33→영일고등학교정류장17:01 탑승객은 보건소 검사바랍니다</t>
+          <t>[용인시청]10월28일 0시기준 확진자 26명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2021/10/27 09:09:58</t>
+          <t>2021/10/28 10:59:56</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 27일 00시 기준 확진자 4명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[보은군청] 221(13:25백록동방향),721(15:35석화방향),940(17:20신함방향),431(19:00천남방향)이용자는 코로나 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2021/10/27 09:05:04</t>
+          <t>2021/10/28 10:44:26</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 17명 [타시민1, 천안시민16] ▶ 초·중·고교생 확진자 증가 ▶ 증상발현 시 병원 방문 전 검사 및 백신접종에 참여 바랍니다.</t>
+          <t>[완주군청] 10월 28일(목) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2021/10/27 08:27:36</t>
+          <t>2021/10/28 10:42:34</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라북도 순창군</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.27(수) 금일 확진자 1명 발생(남원 171번)/감염경로 조사중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[순창군청]서울 확진자 이동경로 안내 ▶10.23(토) 09:30 서울강남센트럴시티→ 12:50 순창터미널 도착▶고속버스 이용객은 가까운 선별진료소 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2021/10/27 08:00:07</t>
+          <t>2021/10/28 10:23:12</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[제천시청]10.27(수) 8시 현재. 확진자 2명 발생(타 지역 확진자 접촉 1, 격리중 1). 지역내 특이동선 없음. 증상발현시 선별진료소에서 검사 바랍니다.</t>
+          <t>[강원도청] 10.27.(수) 도내 코로나19 확진 22명(원주13 춘천2 태백2 강릉1 홍천1 철원1 양구1 인제1)▶접촉의심 및 감기증상시 즉시검사 당부 드림</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2021/10/26 21:01:59</t>
+          <t>2021/10/28 10:00:33</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[보은군청]10.26.(화) 확진자 3명 발생, 10.18.(월)~10.26.(화) 복신경외과의원(보은읍) 방문자는 인근보건소에서 코로나검사를 받으시기 바랍니다.</t>
+          <t>[수원시청] 10월 28일 0시 기준, 수원 확진자 60명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/xvl74</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2021/10/26 20:24:18</t>
+          <t>2021/10/28 09:58:53</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
+          <t>[영광군청] 확진자 동선 관련 ▲10.24.(일), 10.26.(화) 영광성당 방문자는 보건소에서 진단검사 받으시기 바랍니다.▲마스크착용, 타지역 방문·접촉 자제</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2021/10/26 19:06:08</t>
+          <t>2021/10/28 09:47:56</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[강북구청]10.19.(화) 19:00~21:10 보스당구클럽(오패산로130)방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
+          <t>[진천군청]▲10.27 코로나 확진자 3명(내국인2, 외국인1). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2021/10/26 19:04:20</t>
+          <t>2021/10/28 09:42:42</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[강북구청] 10.22.(금) 얼짱노래연습장(한천로 140길 35, 지층)방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
+          <t>[보은군청]10.28.(목) 확진자 8명 발생▲10. 23.(토)~10.24.(일) 시내버스(충북74자1014) 이용자는 보건소에서 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2021/10/26 18:15:19</t>
+          <t>2021/10/28 09:36:34</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[남양주시청]10.26.(화) 코로나19 확진자 35명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/taaa 증상의심시 코로나19 검사받으세요.</t>
+          <t>[창원시청] 10.27. 확진자 22명 발생 ▲합포10,회원5,진해1,타지역1,격리중5 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2021/10/26 18:00:02</t>
+          <t>2021/10/28 09:33:21</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>[안성시청]10.26코로나19확진자11명(자가격리2확진자접촉3자발적검사4해외입국2)발생.역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[영광군청] 10.28.(목) 9시 기준, 확진자 1명(영광46번)발생▲10.24.(일)~10.27.(수)대동공업영광대리점 방문자는 보건소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2021/10/26 17:47:56</t>
+          <t>2021/10/28 09:19:19</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>강원도 원주시</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 26일, 확진자 4명 발생(자가격리중 3, 감염경로 조사중 1) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[원주시청] 10.16.~10.24.'힐링타임아로마테라피(여대생마사지)[북원로2251, 단계동]' 이용자는 오늘 15시까지 보건소에서 코로나 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2021/10/26 17:29:09</t>
+          <t>2021/10/28 09:05:45</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>[고성군청]10.26.17시기준,확진자1명(고성117번,조사중)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[양주시청] 10월 28일 00시 기준 확진자 11명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2021/10/26 17:01:15</t>
+          <t>2021/10/28 08:31:40</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 26일 17시 기준 확진자 21명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[남원시청]▲10.28(목)08시 기준 확진자 30명 발생(남원 172~201번)/감염경로조사중 ▲ 유증상시 접종유무와 상관없이 즉시 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2021/10/26 17:01:12</t>
+          <t>2021/10/28 08:30:09</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[창원시청] 10.16(토)~10.20(수) 17:00~17:20 감계식당(북면 감계로156번길 6-8,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[목포시청]10.27. 24시 기준 확진자 1명(자가격리중 외국인) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2021/10/26 17:00:57</t>
+          <t>2021/10/28 08:28:21</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[창원시청] 10.16.(토)~10.20.(수) 12:00~12:30 윤현식당(북면 감계로188번길 21,방역완료)이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[여수시청]10.27.24:00 기준 총1명 발생(타지역거주자)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2021/10/26 17:00:49</t>
+          <t>2021/10/27 21:09:37</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[과천시청]10월26일 17시 기준 신규확진 2명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
+          <t>[보성군] 10.27.(수) 확진자 3명 추가 발생(가족,지인모임/역학조사중) ▲외출 및 지인모임 자제, 마스크 상시 착용, 의심증상시 보건소에서 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2021/10/26 16:14:21</t>
+          <t>2021/10/27 18:36:13</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[당진시청]10/26(화)16시기준 확진자17명발생(격리중5,관내접촉3,타지역접촉1,조사중8).총1080명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
+          <t>[홍성군청]10월27일(수) 18시 기준 확진자 5명(홍성301~305번) 발생.자가격리 1명, 병원격리 3명, 자발적검사 1명. 역학조사 및 방역조치 완료</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2021/10/26 16:10:22</t>
+          <t>2021/10/27 18:35:33</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[사천시청]10.14(목)~10.24(일) 사천시 서부시장길 21, 2층(선원휴게실) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2021/10/26 16:05:02</t>
+          <t>2021/10/27 18:25:04</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[진주시청] 26일 15시 기준 확진자 9명(관내 소재 회사 외국인 종사자 8명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[남양주시청]10.27.(수) 코로나19 확진자 26명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tbit 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2021/10/26 16:03:46</t>
+          <t>2021/10/27 18:03:16</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>경상북도 안동시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[안동시청]금일 16시기준 확진자1명 발생▲10.24(일)13:04~18:30 엔제리너스안동옥동점(광명로 175)방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
+          <t>[충주시청] 10월 27일 확진자 7명 발생(선행 확진자 접촉1, 자가격리중4, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2021/10/26 15:57:55</t>
+          <t>2021/10/27 17:47:38</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.18(월) 10.20(수) 10.22(금) 07:30~09:00 서광사우나 여탕(서구 죽봉대로109, 4층, 광천동) 방문자는 검사 바랍니다</t>
+          <t>[통영시청] 10.26.(화) 10:40~17:55 통영전문장례식장(정량동) 3층 특실을 방문하신분은 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2021/10/26 15:39:54</t>
+          <t>2021/10/27 17:44:59</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>전라남도 장성군</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[장성군청] 10.26.(화) 확진자 1명 발생. 자가격리 중 확진으로 이동동선 없음. 외국인사업장 등 방역취약시설 운영자 및 종사자는 2주 1회 검사 바랍니다.</t>
+          <t>[구례군청]10.27.(수) 확진자 1명 발생(구례35번 가족), 접촉자 및 이동동선 없습니다. 타지역 방문을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2021/10/26 14:26:48</t>
+          <t>2021/10/27 17:32:06</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[강진군청] 10월 23일 17:30 강진군 여성배드민턴 대회 후 회장 이취임식에 참석한 군민은 보건소 선별진료소에서 오후 5시까지 검사 받기 바랍니다.</t>
+          <t>[광주시청] 10월 27일 17시 기준 확진자 28명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2021/10/26 14:22:31</t>
+          <t>2021/10/27 17:04:55</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[음성군청]10월 26일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[과천시청] 10월 27일 17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2021/10/26 14:19:40</t>
+          <t>2021/10/27 16:52:03</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>충청남도 청양군</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[청양군청] 10월 26일 기준 확진자 1명 발생. 청양98번(자가격리중 확진, 이동동선 없음). ▲타지역 방문 자제, 유증상 시 코로나19 검사 바랍니다.</t>
+          <t>[강북구청] 10.24.~27. 로얄PC방(도봉로 313, 지하1층) 방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2021/10/26 14:01:45</t>
+          <t>2021/10/27 16:32:30</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[사천시청]10.26.(화) 14시 기준 확진자 2명(확진자 접촉자1명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[창원시청] 10.21.(목)~10.23.(토), 10.25.(월) 대림식당(마산합포구 북성로 100, 상남동) 방문자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2021/10/26 12:58:38</t>
+          <t>2021/10/27 15:43:47</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>[사천시청]10.14.(목)~10.24(일) 08:00~12:00 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[부산시]10.23.(토) 13:30~15:30에 대원목욕탕(부산진구 황령대로18번길 43(범천동))여탕 이용자는 코로나19검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2021/10/26 11:52:38</t>
+          <t>2021/10/27 15:37:00</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.22.(금)~10.25.(월) 산호장여관(왜관읍 중앙로5길 10, 왜관역 부근) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[화성시청] 10.22.(금) 킹노래방(화성시 봉담읍 와우안길 43) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2021/10/26 11:52:08</t>
+          <t>2021/10/27 15:36:38</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.12.(화)~10.24.(일) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[화성시청] 10.23.(토) 블루노래연습장(화성시 봉담읍 와우리 45-5 지하1층) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2021/10/26 11:23:52</t>
+          <t>2021/10/27 15:36:10</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>충청남도 서천군</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.26.(화) 11:00기준 신규확진자 24명 url.kr/eybpvx ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[서천군청] 10.24.~26. 기간 중 서면 홍원항어촌계 수산물판매장 내 한문이네를 방문한 분들은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2021/10/26 11:11:36</t>
+          <t>2021/10/27 15:24:25</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>경상북도 성주군</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[성주군] 10월23일(토) 13:50-14:20까지 박여사순대국밥(초전면 대장길 76) 방문자는 선별진료소에서 코로나19 PCR검사를 받으시기 바랍니다.</t>
+          <t>[김천시청]10월27일 15시기준 관내 초·중학교 관련 22명 발생(신규15, 자가격리중7)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2021/10/26 10:59:58</t>
+          <t>2021/10/27 15:10:02</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자 5명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[고성군청]10.24.(일)14:00~15:42병산수산고성왕새우(삼산면소재, 방역완료) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2021/10/26 10:28:11</t>
+          <t>2021/10/27 15:02:56</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[청주시청]10월 25일 확진자 13명 발생(상당구3,서원구1,흥덕구3,청원구5,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
+          <t>[보은군청]10. 23.(토) ~ 10. 26.(화) 보은개인택시(35아 5061 /소나타/은색)를 이용하신분은 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2021/10/26 10:18:06</t>
+          <t>2021/10/27 14:59:56</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>경상북도 성주군</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[성주군청] 최근 타지역을 방문했거나 발열, 기침 등 코로나19 증상이 있을 경우 보건소 선별진료소를 방문하여 검사를 받으시기 바랍니다.</t>
+          <t>[고성군청]10. 27.15시기준,확진자1명(고성118번, 관내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2021/10/26 10:13:53</t>
+          <t>2021/10/27 14:59:14</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 부천시</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.25 코로나 확진자 11명(외국인11). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[부천시청] 10.19(화) 18시~22시 중동포차(조마루로291번길 46) 방문자는 증상유무에 관계없이 선별진료소에서 코로나19검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2021/10/26 10:05:39</t>
+          <t>2021/10/27 14:59:14</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 26일(화) 0시 기준 확진자 8명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[보은군청]10.19.(화)~10.22.(금)/10.25.(월)~10.26.(화)11:45~12:30즐거운집(보은읍 삼산리)이용자는 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2021/10/26 10:00:58</t>
+          <t>2021/10/27 14:57:46</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[강북구청]10.16.~22. 분홍미용실(강북구 도봉로97길 15), 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다. ☎901-7704</t>
+          <t>[김제시청] 10.27.(수) 14시기준 확진자 1명 발생(확진자 접촉1, 동선파악중)/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2021/10/26 10:00:05</t>
+          <t>2021/10/27 14:47:14</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 26일 0시 기준, 수원 확진자 20명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/mwbj1</t>
+          <t>[울산광역시] 10.23.(토)18:10~21:10 ▲동강병원 장례식장 6호실(중구 태화로 240, 태화동, 소독완료) 방문자는 코로나19 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2021/10/26 09:57:38</t>
+          <t>2021/10/27 14:31:59</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3920,2258 +3920,2258 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>[창원시청] 10.21(목)~10.24(일) 05:00~12:00 진해스파랜드(진해구 진해대로 762,지하) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[창원시청] 10.19(화), 10.21(목)~10.24(일) 환금휘트니스사우나(마산회원구 북성로 106, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2021/10/26 09:52:28</t>
+          <t>2021/10/27 14:00:07</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>[완도군청]확진자 2명 발생(신지면1, 보길면1) 자가격리 중 확진으로 이동동선 없음▶오전 금일, 보길, 금당, 생일 이동선별진료소 운영중▶주민들은 검사요망</t>
+          <t>[사천시청] 10.27.(수) 14시 기준 확진자 5명(확진자 접촉자4명, 해외입국자1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2021/10/26 09:51:23</t>
+          <t>2021/10/27 13:40:54</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19.(화), 10.21.(목)~10.24.(일) 환금휘트니스사우나(회원구 북성로 106,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[완도군청]외국인 확진자 자가격리중 1명 발생▶오늘 선별이동검사소 안내▶10/27(수)13:30~15:00 소안창조문화센터▶15:00~17:00 청산복지회관 2층</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2021/10/26 09:48:27</t>
+          <t>2021/10/27 11:02:53</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>[창원시청] 10.20.(수) 19:00~19:30 팔룡동 대동마트(의창구 반계로 97) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[완도군청] 확진자동선▶10/22(금)보길보옥리→청별→노화이포 보길여객농어촌버스 첫차(08:00)▶노화 농협하나로마트09:00~09:10 동시간대 이용자 검사요망</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2021/10/26 09:22:52</t>
+          <t>2021/10/27 11:00:04</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[창원시청] 10.25. 확진자 6명 발생 ▲성산1,합포1,진해1,타지역1,격리중2 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[용인시청]10월27일 0시기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2021/10/26 09:05:02</t>
+          <t>2021/10/27 10:39:48</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[김제시청] 10.26.(화) 9시기준 확진자 1명 발생(자가격리중 확진, 외국인)/동선없음/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다</t>
+          <t>[부여군청]10월27일 10시 기준 확진자 18명 발생【부여387~404,학생등13,외국인5】 감기증상 시 보건소에서 코로나 검사(특히 학생) 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2021/10/26 09:01:46</t>
+          <t>2021/10/27 10:37:52</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[영암군청] 10. 21.(목) 15:30~17:20 금정농협 경제사업부(금정면 용두로 24) 방문자는 선별진료소 검사바랍니다.(격리중 확진으로 역학조사 완료)</t>
+          <t>[강원도청] 10.26.(화) 도내 코로나19 확진 19명(원주6 태백5 춘천4 홍천3 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부 드림!!</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2021/10/26 08:51:07</t>
+          <t>2021/10/27 10:33:16</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>[영광군청] 10.25.(월) 22시기준 확진자1명(타지역 확진자 접촉)발생▲10.25.(월) 12시~13시 영광읍 양평해장국 방문자는 보건소에서 검사 바랍니다.</t>
+          <t>[아산시청] 10월26일 확진자 10명(가족7, 지인1, 조사중 2) /단계적 일상 회복 전환을 위해 방역수칙을 준수해 주시고, 코로나 의심시 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2021/10/26 08:50:31</t>
+          <t>2021/10/27 10:26:25</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>[전남도청] 10.25. 24시기준 확진 6명(여수1,나주1,장흥1,영암1,신안2) ▲방역취약시설 운영자 및 종사자는 10.31.까지 2주 1회 진단검사 받으세요</t>
+          <t>[전주시청]10.27(수) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2021/10/26 08:46:39</t>
+          <t>2021/10/27 10:08:04</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[보성군]타지역 확진자 동선 관련, 10.20.(수) 16:20 회천→광주행 광우고속 버스를 이용하신 분은 보건소 선별진료소에서 검사바랍니다.(09~18시 운영)</t>
+          <t>[완주군청] 10월 27일(수) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2021/10/26 08:45:13</t>
+          <t>2021/10/27 10:00:53</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[신안군청] 10.25. 24시 기준 확진자 2명(신안 57번~58번/자가격리 중 2) 발생 ▲의심 증상 시 즉시 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[수원시청] 10월 27일 0시 기준, 수원 확진자 58명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/ghswi</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2021/10/26 08:08:23</t>
+          <t>2021/10/27 09:54:39</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>[군산시청] ▲ 10/24(일) 10:00~12:20 월명24시사우나찜질방(현충로95(나운동)) 남탕 이용자는 보건소 선별검사(09시~18시)바랍니다.</t>
+          <t>[김천시청]코로나19이동선별검사소 운영안내▲장소:녹색미래과학관(율곡동)▲27일:13:00~16:00, 28일-29일:10:00~16:00▲의심증상시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2021/10/26 08:03:33</t>
+          <t>2021/10/27 09:53:25</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[여수시청] 10.25.24:00 기준 총1명 발생(타지역 방문)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[보은군청] 10. 27.(수) 확진자 4명 발생 ▲ 10. 18.(월) 이후 복신경외과 내원자 및 유증상자는 인근 보건소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2021/10/25 21:53:43</t>
+          <t>2021/10/27 09:46:27</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>강원도 태백시</t>
+          <t>경상남도 함양군</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>[태백시청] 10월 25일(월) 21시기준 확진자 8명 발생(역학조사 중, 필요시 이동동선 태백시 홈페이지 공개), 유증상자는 보건소 선별검사 받으시기 바랍니다.</t>
+          <t>[함양군청] 10. 18.(월) 14시 함양 출발 → 16시 부산(사상) 도착 시외버스 탑승객은 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2021/10/25 18:53:55</t>
+          <t>2021/10/27 09:31:50</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>[남양주시청]10.25.(월) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t8vj 증상의심시 코로나19 검사받으세요.</t>
+          <t>[창원시청] 10.18(월)~23(토) 온정백반(대산면 주남로503번길 8, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.(10.24 이후 검사자 제외)</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2021/10/25 18:34:29</t>
+          <t>2021/10/27 09:30:51</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.24 코로나 확진자 4명(내국인2, 외국인2)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[광주광역시] 10.17(일)~10.25(월) JL연기학원 1층~4층(동구 구성로 167, 충장로5가)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2021/10/25 18:26:40</t>
+          <t>2021/10/27 09:30:51</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>전라남도 장흥군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[장흥군청]10.25. 17시 기준 확진자 1명 발생(자가격리 중 확진) ▶이동동선 및 접촉자 없음 ▶유증상시 접종유무와 상관없이 즉시 선별진료소 검사바랍니다.</t>
+          <t>[창원시청] 10.26. 확진자 20명 발생 ▲의창4,합포6,회원4,진해2,타지역1,격리중3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2021/10/25 18:00:49</t>
+          <t>2021/10/27 09:30:30</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[안성시청]10.25. 코로나19확진자3명(자가격리1,확진자접촉1,자발적검사자1)발생.역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[완도군청]확진자동선▶10/21(목) 12:10해남출발→13:00완도도착▶13:20완도터미널→화흥포셔틀버스▶13:50화흥포→노화동천 여객선실 이용자 코로나검사요망</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2021/10/25 17:56:29</t>
+          <t>2021/10/27 09:30:26</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>[논산시청] 10월25일 확진자 9명(내국인6,외국인3/관내6,타지역2,조사중1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받기 바랍니다.</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲26일 도내 확진자 29명 발생</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2021/10/25 17:36:42</t>
+          <t>2021/10/27 09:11:43</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>[의정부시]10.20.(수) 14시~16시 의정부백병원장례식장(신곡동) 2호실 방문자 중 유증상자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[포항시청]10.23 302번버스 영일고등학교정류장15:41→죽도시장정류장16:07 죽도시장정류장16:33→영일고등학교정류장17:01 탑승객은 보건소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2021/10/25 17:14:05</t>
+          <t>2021/10/27 09:09:58</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 25일, 확진자 3명 발생(선행 확진자의 접촉자1, 자가격리중1, 조사중1) ▲만남,모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[양주시청] 10월 27일 00시 기준 확진자 4명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2021/10/25 17:03:57</t>
+          <t>2021/10/27 09:05:04</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 25일 17시 기준 확진자 16명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[천안시청] 확진자 17명 [타시민1, 천안시민16] ▶ 초·중·고교생 확진자 증가 ▶ 증상발현 시 병원 방문 전 검사 및 백신접종에 참여 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2021/10/25 17:00:23</t>
+          <t>2021/10/27 08:27:36</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>[과천시청] 10월25일17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[남원시청]▲10.27(수) 금일 확진자 1명 발생(남원 171번)/감염경로 조사중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2021/10/25 17:00:02</t>
+          <t>2021/10/27 08:00:07</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>[고성군청]10. 25. 16시기준, 확진자 1명(고성116번, 수도권 확진자 접촉, 타지역 거주)발생 ▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[제천시청]10.27(수) 8시 현재. 확진자 2명 발생(타 지역 확진자 접촉 1, 격리중 1). 지역내 특이동선 없음. 증상발현시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2021/10/25 16:13:42</t>
+          <t>2021/10/26 21:01:59</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[보성군]타지역 확진자 관내동선 관련, 10.19.(화) 17:00~19:45까지 보성읍 우리장례식장을 이용하신분은 보건소 선별진료소에서 지금 즉시 검사받으세요.</t>
+          <t>[보은군청]10.26.(화) 확진자 3명 발생, 10.18.(월)~10.26.(화) 복신경외과의원(보은읍) 방문자는 인근보건소에서 코로나검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2021/10/25 15:59:49</t>
+          <t>2021/10/26 20:24:18</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>서울특별시 용산구</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>[용산구청] 10.8.(금)~10.14.(목) 한남동 소재 ‘Season9(엠타이인서울)’ 방문하신 분은 가까운 선별진료소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2021/10/25 15:56:47</t>
+          <t>2021/10/26 19:06:08</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>경기도 고양시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>[고양시청]10.18.(월)~20.(수) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[강북구청]10.19.(화) 19:00~21:10 보스당구클럽(오패산로130)방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2021/10/25 15:41:41</t>
+          <t>2021/10/26 19:04:20</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.14(목)~10.23(토) 설화머리방(서구 죽봉대로 111번길 14, 광천동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[강북구청] 10.22.(금) 얼짱노래연습장(한천로 140길 35, 지층)방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2021/10/25 15:32:37</t>
+          <t>2021/10/26 18:15:19</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>[김제시청] 10.18(월)~10.22(금)12:00~13:00 김제시 용지면 소재한 그린반점(소독완료) 방문자는 가까운 선별진료소 방문 및 검사 바랍니다.</t>
+          <t>[남양주시청]10.26.(화) 코로나19 확진자 35명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/taaa 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2021/10/25 15:09:24</t>
+          <t>2021/10/26 18:00:02</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>[진주시청] 25일 15시 기준 확진자 1명(무료선제검사) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[안성시청]10.26코로나19확진자11명(자가격리2확진자접촉3자발적검사4해외입국2)발생.역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2021/10/25 14:57:15</t>
+          <t>2021/10/26 17:47:56</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>경상남도 양산시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>[양산시청]10.25.(월) 15시기준, 코로나19 확진자 6명발생(접촉자 1, 격리중 2, 격리면제 검사 3)▲코로나19 백신 당일접종 접종센터(9~15시)</t>
+          <t>[충주시청] 10월 26일, 확진자 4명 발생(자가격리중 3, 감염경로 조사중 1) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2021/10/25 14:31:31</t>
+          <t>2021/10/26 17:29:09</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>[안산시청]10월25일14시기준 확진자 39명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/XeqOnC5</t>
+          <t>[고성군청]10.26.17시기준,확진자1명(고성117번,조사중)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2021/10/25 14:18:04</t>
+          <t>2021/10/26 17:01:15</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[화성시청] 10.18.(월) 18:00~19:00 둘리칼국수(화성시 남양읍 남양시장로61) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[광주시청] 10월 26일 17시 기준 확진자 21명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2021/10/25 14:04:46</t>
+          <t>2021/10/26 17:01:12</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[통영시청]10.14.(목) 통영출발(16:10)→고성·마산경유→부산사상터미널도착/현대고속(경남70아1030) 탑승자는 가까운 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[창원시청] 10.16(토)~10.20(수) 17:00~17:20 감계식당(북면 감계로156번길 6-8,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2021/10/25 13:44:21</t>
+          <t>2021/10/26 17:00:57</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.25.(월) 11:00기준 신규확진자 15명 url.kr/v4srn9 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[창원시청] 10.16.(토)~10.20.(수) 12:00~12:30 윤현식당(북면 감계로188번길 21,방역완료)이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2021/10/25 11:47:38</t>
+          <t>2021/10/26 17:00:49</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[구미시청]외국인근로자 확진자 다수 발생. 외국인고용주께서는 근로자가 가까운 보건소에서 백신접종 및 진단검사를 할 수 있도록 관리에 철저를 기하여주시기 바랍니다.</t>
+          <t>[과천시청]10월26일 17시 기준 신규확진 2명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2021/10/25 11:19:05</t>
+          <t>2021/10/26 16:14:21</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[김제시청] 10.25.(월)11시기준 확진자 2명발생(확진자접촉2, 동선파악중)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[당진시청]10/26(화)16시기준 확진자17명발생(격리중5,관내접촉3,타지역접촉1,조사중8).총1080명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2021/10/25 11:09:57</t>
+          <t>2021/10/26 16:10:22</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>[아산시청] 10월 24일 확진자 1명(해외 입국자1) / 새로운 일상을 위한 방역의 생활화! 모두 함께 만들어 갑시다. 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[사천시청]10.14(목)~10.24(일) 사천시 서부시장길 21, 2층(선원휴게실) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2021/10/25 11:09:15</t>
+          <t>2021/10/26 16:05:02</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>전라북도 무주군</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>[무주군청] 10.25.(월)11시 기준 신규 확진자 1명 발생(무주 45번, 10.24.(일) 21시 확진)/감기몸살, 기침 등 이상증상시 진단 검사바랍니다.</t>
+          <t>[진주시청] 26일 15시 기준 확진자 9명(관내 소재 회사 외국인 종사자 8명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2021/10/25 11:00:00</t>
+          <t>2021/10/26 16:03:46</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자 8명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[안동시청]금일 16시기준 확진자1명 발생▲10.24(일)13:04~18:30 엔제리너스안동옥동점(광명로 175)방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:49</t>
+          <t>2021/10/26 15:57:55</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 25일(월) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[광주광역시] 10.18(월) 10.20(수) 10.22(금) 07:30~09:00 서광사우나 여탕(서구 죽봉대로109, 4층, 광천동) 방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:39</t>
+          <t>2021/10/26 15:39:54</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>전라남도 장성군</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[포항시청] 10.19(화)~10.22(금) 대구은행 상대동지점(대도동 640-7) 대출업무관련 방문자는 가까운 보건소에서 검사 바랍니다.</t>
+          <t>[장성군청] 10.26.(화) 확진자 1명 발생. 자가격리 중 확진으로 이동동선 없음. 외국인사업장 등 방역취약시설 운영자 및 종사자는 2주 1회 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:32</t>
+          <t>2021/10/26 14:26:48</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>[금산군청] 10.25(월) 10시 기준 확진자 8명 발생(격리중 3, 신규5), 역학조사중, 감기몸살, 오한 등 증상시 선별진료소 방문 검사바랍니다.</t>
+          <t>[강진군청] 10월 23일 17:30 강진군 여성배드민턴 대회 후 회장 이취임식에 참석한 군민은 보건소 선별진료소에서 오후 5시까지 검사 받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2021/10/25 10:00:53</t>
+          <t>2021/10/26 14:22:31</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 25일 0시 기준, 수원 확진자 16명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d1t0c</t>
+          <t>[음성군청]10월 26일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2021/10/25 09:30:14</t>
+          <t>2021/10/26 14:19:40</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>충청남도 청양군</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다.▲24일 도내 확진자 42명 발생</t>
+          <t>[청양군청] 10월 26일 기준 확진자 1명 발생. 청양98번(자가격리중 확진, 이동동선 없음). ▲타지역 방문 자제, 유증상 시 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2021/10/25 09:17:02</t>
+          <t>2021/10/26 14:01:45</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>강원도 강릉시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>[강릉시청]어제(일) 4명 확진(친구간 밀접촉4)/10.20(수)~23(토) 기간중 카페썸(가톨릭관동대 내)을 방문하신 분은 오전중 보건소에서 반드시 검사바랍니다</t>
+          <t>[사천시청]10.26.(화) 14시 기준 확진자 2명(확진자 접촉자1명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2021/10/25 09:14:30</t>
+          <t>2021/10/26 12:58:38</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>[창원시청]10월21일(07:50~11:00), 22일(08:50~10:40) 진해스파랜드(진해대로 762,지하)이용자는 관할보건소에서 검사받으시기 바랍니다.</t>
+          <t>[사천시청]10.14.(목)~10.24(일) 08:00~12:00 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2021/10/25 09:13:26</t>
+          <t>2021/10/26 11:52:38</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[창원시청]10월18일(09:20~11:20),19일(07:40~11:10),20일(07:50~10:50)진해스파랜드(진해대로 762)이용자관할보건소에서 검사요망</t>
+          <t>[칠곡군청] 10.22.(금)~10.25.(월) 산호장여관(왜관읍 중앙로5길 10, 왜관역 부근) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2021/10/25 09:01:13</t>
+          <t>2021/10/26 11:52:08</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 25일 00시 기준 확진자 9명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[칠곡군청] 10.12.(화)~10.24.(일) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2021/10/25 08:53:36</t>
+          <t>2021/10/26 11:23:52</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>[전남도청] 10.24.24시기준 확진5명(구례1,장성1,완도1,신안1 /해외1(광양))※내국인3명,외국인2명(건설1,선원1) ▲의심증상 즉시 보건소 검사받으세요</t>
+          <t>[안양시청]▲10.26.(화) 11:00기준 신규확진자 24명 url.kr/eybpvx ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2021/10/25 08:45:15</t>
+          <t>2021/10/26 11:11:36</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>경상북도 성주군</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>[신안군청]10.24.24시 기준 확진자 1명(건설근로자 외국인 1명)발생 ▲외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
+          <t>[성주군] 10월23일(토) 13:50-14:20까지 박여사순대국밥(초전면 대장길 76) 방문자는 선별진료소에서 코로나19 PCR검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2021/10/25 08:25:06</t>
+          <t>2021/10/26 10:59:58</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>전라남도 광양시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>[광양시청] 10. 24. 24시 기준 확진자 1명 발생(해외입국자 1) 가벼운 감기증상도 의료기관 방문 전 선별진료소 무료 검사 받으시기 바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자 5명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2021/10/25 08:07:08</t>
+          <t>2021/10/26 10:28:11</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.25(월) 08시 기준 확진자 1명발생(남원 170번)/역학조사 중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시검사 받으시기 바랍니다.</t>
+          <t>[청주시청]10월 25일 확진자 13명 발생(상당구3,서원구1,흥덕구3,청원구5,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2021/10/25 08:02:06</t>
+          <t>2021/10/26 10:18:06</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>경상북도 성주군</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[울산광역시]임시선별검사소▲문수경기장(평일9~20시)▲종합운동장,동구국민체육센터,농소운동장,온양체육공원(평일9~17시)입니다.(점심시간 12시~13시 미운영)</t>
+          <t>[성주군청] 최근 타지역을 방문했거나 발열, 기침 등 코로나19 증상이 있을 경우 보건소 선별진료소를 방문하여 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2021/10/25 08:00:04</t>
+          <t>2021/10/26 10:13:53</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[제천시청]10.25(월) 08시 현재. 확진자 1명 발생(외국인). 감염경로 조사중. 추가사항은 모바일콜센터 등으로 안내드리겠습니다. 증상 발현시 검사 바랍니다</t>
+          <t>[진천군청]▲10.25 코로나 확진자 11명(외국인11). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2021/10/24 20:42:25</t>
+          <t>2021/10/26 10:05:39</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>강원도 강릉시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>[강릉시청]10.20(수)~10.23(토) 기간 중 카페썸(가톨릭관동대 내)을 방문하신 분들은 내일 오전중으로 보건소 선별검사소에서 반드시 검사 바랍니다.</t>
+          <t>[완주군청] 10월 26일(화) 0시 기준 확진자 8명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2021/10/24 18:35:44</t>
+          <t>2021/10/26 10:00:58</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
+          <t>[강북구청]10.16.~22. 분홍미용실(강북구 도봉로97길 15), 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2021/10/24 18:11:09</t>
+          <t>2021/10/26 10:00:05</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[홍성군청]10월24일(일) 18시 기준 확진자 4명(홍성290~293번) 발생. 확진자 접촉 2, 자가격리중 1, 자발적 검사 1. 정밀역학조사중</t>
+          <t>[수원시청] 10월 26일 0시 기준, 수원 확진자 20명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/mwbj1</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2021/10/24 18:08:20</t>
+          <t>2021/10/26 09:57:38</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>[안성시청]10.24.코로나확진자4명(자발적검사2, 확진자접촉2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[창원시청] 10.21(목)~10.24(일) 05:00~12:00 진해스파랜드(진해구 진해대로 762,지하) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2021/10/24 17:41:31</t>
+          <t>2021/10/26 09:52:28</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>[남양주시청]10.24.(일) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t7m6 증상의심시 코로나19 검사받으세요.</t>
+          <t>[완도군청]확진자 2명 발생(신지면1, 보길면1) 자가격리 중 확진으로 이동동선 없음▶오전 금일, 보길, 금당, 생일 이동선별진료소 운영중▶주민들은 검사요망</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2021/10/24 17:23:07</t>
+          <t>2021/10/26 09:51:23</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>전라남도 장성군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>[장성군청] 10. 24.(일) 확진자 1명(타지역 거주자) 발생. 관내 동선 및 접촉자 파악완료. 타지역 방문 및 접촉자는 증상이 없더라도 반드시 검사바랍니다.</t>
+          <t>[창원시청] 10.19.(화), 10.21.(목)~10.24.(일) 환금휘트니스사우나(회원구 북성로 106,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2021/10/24 17:04:10</t>
+          <t>2021/10/26 09:48:27</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 24일 17시 기준 확진자 5명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요..</t>
+          <t>[창원시청] 10.20.(수) 19:00~19:30 팔룡동 대동마트(의창구 반계로 97) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2021/10/24 16:22:26</t>
+          <t>2021/10/26 09:22:52</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>[당진시청]10/24(일)16시기준 확진자4명 발생(격리중2,조사중2).총1053명▲신규채용 등 진단검사 의무화행정명령(10/25~11/8) vo.la/68SFm</t>
+          <t>[창원시청] 10.25. 확진자 6명 발생 ▲성산1,합포1,진해1,타지역1,격리중2 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2021/10/24 16:07:36</t>
+          <t>2021/10/26 09:05:02</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>[창원시청]10월19일여탕(13:50~18:40),남탕(17:00~18:40) 북면마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
+          <t>[김제시청] 10.26.(화) 9시기준 확진자 1명 발생(자가격리중 확진, 외국인)/동선없음/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2021/10/24 16:07:15</t>
+          <t>2021/10/26 09:01:46</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>[창원시청]10월15일 여탕(17:40~19:20),남탕(17:40~19:12)북면 마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
+          <t>[영암군청] 10. 21.(목) 15:30~17:20 금정농협 경제사업부(금정면 용두로 24) 방문자는 선별진료소 검사바랍니다.(격리중 확진으로 역학조사 완료)</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2021/10/24 15:08:12</t>
+          <t>2021/10/26 08:51:07</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[안산시청]10월24일14시기준 확진자 61명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yU7Tmp1</t>
+          <t>[영광군청] 10.25.(월) 22시기준 확진자1명(타지역 확진자 접촉)발생▲10.25.(월) 12시~13시 영광읍 양평해장국 방문자는 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2021/10/24 15:08:10</t>
+          <t>2021/10/26 08:50:31</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>[진주시청] 24일 15시 기준 확진자 2명(타지역 확진자 접촉자 1명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[전남도청] 10.25. 24시기준 확진 6명(여수1,나주1,장흥1,영암1,신안2) ▲방역취약시설 운영자 및 종사자는 10.31.까지 2주 1회 진단검사 받으세요</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2021/10/24 15:07:05</t>
+          <t>2021/10/26 08:46:39</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>[부산시]10.15.(금)~10.23.(토) 뉴부산탕(금정구 서부로 2-1(서동)이용자는 선별검사소에서 코로나19검사 받으시기 바랍니다.</t>
+          <t>[보성군]타지역 확진자 동선 관련, 10.20.(수) 16:20 회천→광주행 광우고속 버스를 이용하신 분은 보건소 선별진료소에서 검사바랍니다.(09~18시 운영)</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2021/10/24 15:02:31</t>
+          <t>2021/10/26 08:45:13</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 24일 15시 기준, 확진자 7명 발생(선행 확진자의 접촉자)▲만남,모임,행사 자제▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[신안군청] 10.25. 24시 기준 확진자 2명(신안 57번~58번/자가격리 중 2) 발생 ▲의심 증상 시 즉시 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2021/10/24 14:59:35</t>
+          <t>2021/10/26 08:08:23</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>[대구광역시]단디아로마(달서구 달서대로95길 7,2층) 10/13~10/22 방문하신 분은 임시선별검사소 및 보건소(예약)에서 반드시 검사받으시기 바랍니다</t>
+          <t>[군산시청] ▲ 10/24(일) 10:00~12:20 월명24시사우나찜질방(현충로95(나운동)) 남탕 이용자는 보건소 선별검사(09시~18시)바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2021/10/24 14:52:33</t>
+          <t>2021/10/26 08:03:33</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.23. 코로나 확진자 3명(외국인3). ▲손씻기, 마스크착용 등 방역수칙 준수바랍니다. ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[여수시청] 10.25.24:00 기준 총1명 발생(타지역 방문)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2021/10/24 14:21:57</t>
+          <t>2021/10/25 21:53:43</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>경상북도 안동시</t>
+          <t>강원도 태백시</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>[안동시청]타지역확진자관련▲10/19(화) 09:50~10:20 콩심용상안동점(용상북1길6에이스아울렛E동1층)방문자는 선별진료소 방문하여 코로나19 검사바랍니다.</t>
+          <t>[태백시청] 10월 25일(월) 21시기준 확진자 8명 발생(역학조사 중, 필요시 이동동선 태백시 홈페이지 공개), 유증상자는 보건소 선별검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2021/10/24 14:13:44</t>
+          <t>2021/10/25 18:53:55</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[구례군청]10.24.(일) 확진자 1명 발생(타지역 확진자 접촉). 타지역 방문 및 타지인과의 만남을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[남양주시청]10.25.(월) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t8vj 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2021/10/24 14:02:29</t>
+          <t>2021/10/25 18:34:29</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[당진시청]②10/17(월),22(금),23(토)18:00~22:00뉴럭셔리질러존노래연습장(북문로 1길 35-10)방문자 시청 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[진천군청]▲10.24 코로나 확진자 4명(내국인2, 외국인2)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2021/10/24 13:58:51</t>
+          <t>2021/10/25 18:26:40</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>전라남도 장흥군</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[당진시청]①10.21(목) 17:55~18:30 CU편의점 당진원당점(수청동 983) 방문자는 15시30분까지 당진시청 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[장흥군청]10.25. 17시 기준 확진자 1명 발생(자가격리 중 확진) ▶이동동선 및 접촉자 없음 ▶유증상시 접종유무와 상관없이 즉시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2021/10/24 13:52:25</t>
+          <t>2021/10/25 18:00:49</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>[남양주시청]10.13.(수)~10.24.(일) 롯데택배물류센터(진접읍 양진로 962)근무자 및 방문자는 관할 선별진료소에서 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[안성시청]10.25. 코로나19확진자3명(자가격리1,확진자접촉1,자발적검사자1)발생.역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2021/10/24 13:19:52</t>
+          <t>2021/10/25 17:56:29</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>[울산광역시]10.19(화)17:29~19:44▲착한갈비(중구 반구정12길 55,반구동,소독완료)방문자는 코로나 검사후 중구보건소(☎290-4300)연락바랍니다.</t>
+          <t>[논산시청] 10월25일 확진자 9명(내국인6,외국인3/관내6,타지역2,조사중1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2021/10/24 13:09:20</t>
+          <t>2021/10/25 17:36:42</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 24일 13시 기준 신규확진 2명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[의정부시]10.20.(수) 14시~16시 의정부백병원장례식장(신곡동) 2호실 방문자 중 유증상자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2021/10/24 12:49:40</t>
+          <t>2021/10/25 17:14:05</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>[화성시청] 10.18.(월)~10.21.(목) 대승철물(화성시 남양읍 남양성지로 233) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[충주시청] 10월 25일, 확진자 3명 발생(선행 확진자의 접촉자1, 자가격리중1, 조사중1) ▲만남,모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2021/10/24 11:17:54</t>
+          <t>2021/10/25 17:03:57</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.4.(월) ~ 10.22.(금) 만남카페(칠곡군 왜관읍 중앙로5길 5-1, 왜관역 부근) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[광주시청] 10월 25일 17시 기준 확진자 16명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2021/10/24 11:14:04</t>
+          <t>2021/10/25 17:00:23</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>[금산군청] 10.24(일) 11시기준 확진자 6명(격리중 1, 신규 5) 발생, 역학조사 중 ▶ 감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다</t>
+          <t>[과천시청] 10월25일17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2021/10/24 11:11:44</t>
+          <t>2021/10/25 17:00:02</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.24.(일) 11:00기준 신규확진자 10명 url.kr/pctb72 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[고성군청]10. 25. 16시기준, 확진자 1명(고성116번, 수도권 확진자 접촉, 타지역 거주)발생 ▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2021/10/24 10:59:35</t>
+          <t>2021/10/25 16:13:42</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 24일(일) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[보성군]타지역 확진자 관내동선 관련, 10.19.(화) 17:00~19:45까지 보성읍 우리장례식장을 이용하신분은 보건소 선별진료소에서 지금 즉시 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2021/10/24 10:54:30</t>
+          <t>2021/10/25 15:59:49</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>서울특별시 용산구</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>[고성군청]10.14(목)통영출발(16:00)→고성경유(16:38)→마산경유(17:35)→부산시외버스터미널도착(18:25)현대버스탑승자는 선별진료소에서검사바랍니다</t>
+          <t>[용산구청] 10.8.(금)~10.14.(목) 한남동 소재 ‘Season9(엠타이인서울)’ 방문하신 분은 가까운 선별진료소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2021/10/24 10:33:54</t>
+          <t>2021/10/25 15:56:47</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경기도 고양시</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>[구미시청]10/16(토)~10/17(일) 이슬람교 구미성원 (구미중앙로31길 13, 원평동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[고양시청]10.18.(월)~20.(수) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2021/10/24 10:30:15</t>
+          <t>2021/10/25 15:41:41</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>[청주시청]10월 23일 확진자 17명 발생(상당구6,서원구2,흥덕구5,청원구4)▲홈페이지 참조▲이동·모임 자제▲수시 환기▲유증상 시 신속히 무료검사 바랍니다.</t>
+          <t>[광주광역시] 10.14(목)~10.23(토) 설화머리방(서구 죽봉대로 111번길 14, 광천동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2021/10/24 10:30:10</t>
+          <t>2021/10/25 15:32:37</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자17명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[김제시청] 10.18(월)~10.22(금)12:00~13:00 김제시 용지면 소재한 그린반점(소독완료) 방문자는 가까운 선별진료소 방문 및 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2021/10/24 10:20:53</t>
+          <t>2021/10/25 15:09:24</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>[구미시청]10/7(목)~10/21(목) 드리사(delisha cafe)(1공단로 190 지하1층,공단동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[진주시청] 25일 15시 기준 확진자 1명(무료선제검사) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2021/10/24 10:16:16</t>
+          <t>2021/10/25 14:57:15</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>강원도 평창군</t>
+          <t>경상남도 양산시</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>[평창군청] 10.24일 평창군 확진자 1명(231번) 대화면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
+          <t>[양산시청]10.25.(월) 15시기준, 코로나19 확진자 6명발생(접촉자 1, 격리중 2, 격리면제 검사 3)▲코로나19 백신 당일접종 접종센터(9~15시)</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2021/10/24 10:10:06</t>
+          <t>2021/10/25 14:31:31</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>[완도군청]근해어선 선원 자가격리중 1명 확진(기존10, 추가1)▶입출항 연근해어선▶(행정명령)외국인 고용사업장 내·외국인 진담검사 하시기 바랍니다.</t>
+          <t>[안산시청]10월25일14시기준 확진자 39명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/XeqOnC5</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2021/10/24 10:00:16</t>
+          <t>2021/10/25 14:18:04</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 24일 0시 기준, 수원 확진자 48명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/p1eng</t>
+          <t>[화성시청] 10.18.(월) 18:00~19:00 둘리칼국수(화성시 남양읍 남양시장로61) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2021/10/24 10:00:03</t>
+          <t>2021/10/25 14:04:46</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>[전남도청]전일 9명 발생(√타지역접촉4√외국인근로자4√가족접촉1)▲학교기숙사 등 일상생활 복귀전▲외국인고용사업장 신규채용 근로자는 근로전 진단검사 꼭 받으세요.</t>
+          <t>[통영시청]10.14.(목) 통영출발(16:10)→고성·마산경유→부산사상터미널도착/현대고속(경남70아1030) 탑승자는 가까운 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2021/10/24 09:50:27</t>
+          <t>2021/10/25 13:44:21</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>강원도 원주시</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>[원주시청] 10.15.또는10.20.'술파는노래방뿜빠이(장미공원길43-4,2층,단계동)' 이용자는 오늘 15시(12~13시 제외)까지 보건소 코로나 검사받으세요</t>
+          <t>[안양시청]▲10.25.(월) 11:00기준 신규확진자 15명 url.kr/v4srn9 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2021/10/24 09:46:55</t>
+          <t>2021/10/25 11:47:38</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>[영암군청] 10. 23.(토) 12:40~14:00 '고향식육식당'(금정면 용두로 15) 방문자는 증상유무관계없이 즉시 선별진료소 검사바랍니다.</t>
+          <t>[구미시청]외국인근로자 확진자 다수 발생. 외국인고용주께서는 근로자가 가까운 보건소에서 백신접종 및 진단검사를 할 수 있도록 관리에 철저를 기하여주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2021/10/24 09:00:06</t>
+          <t>2021/10/25 11:19:05</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 24일 00시기준 확진자 8명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[김제시청] 10.25.(월)11시기준 확진자 2명발생(확진자접촉2, 동선파악중)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2021/10/24 08:56:28</t>
+          <t>2021/10/25 11:09:57</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>[신안군청] 10.23. 24시 기준 확진자 3명(건설근로자 외국인 2명, 자가격리 중 1명) 발생 ▲ 외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
+          <t>[아산시청] 10월 24일 확진자 1명(해외 입국자1) / 새로운 일상을 위한 방역의 생활화! 모두 함께 만들어 갑시다. 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2021/10/24 08:53:21</t>
+          <t>2021/10/25 11:09:15</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>전라북도 무주군</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>[전남도청]10.23. 24시기준 확진 9명(목포1, 곡성1, 영암3, 진도1, 신안3) ※내국인 5명, 외국인 4명(건설 4)▲의심증상시 무료 진단검사 받으세요</t>
+          <t>[무주군청] 10.25.(월)11시 기준 신규 확진자 1명 발생(무주 45번, 10.24.(일) 21시 확진)/감기몸살, 기침 등 이상증상시 진단 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2021/10/24 08:21:43</t>
+          <t>2021/10/25 11:00:00</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>[목포시청]10.23. 24시 기준 확진자 1명 (타지역방문접촉) 발생 ▲타지역 이동 자제하시고, 기침, 발열 등 의심 증상 있을 시 보건소 무료 검사받으세요.</t>
+          <t>[용인시청]금일 0시기준 확진자 8명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2021/10/23 18:01:25</t>
+          <t>2021/10/25 10:42:49</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>[당진시청]신규채용 및 외국인근로자 등 코로나19진단검사 의무화됩니다.(10.25.~11.8.) 자세한 사항은 시홈페이지 공고 참고바랍니다. vo.la/68SFm</t>
+          <t>[완주군청] 10월 25일(월) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2021/10/23 18:00:23</t>
+          <t>2021/10/25 10:42:39</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>[남양주시청]10.23.(토) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t799 증상의심시 코로나19 검사받으세요.</t>
+          <t>[포항시청] 10.19(화)~10.22(금) 대구은행 상대동지점(대도동 640-7) 대출업무관련 방문자는 가까운 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2021/10/23 18:00:09</t>
+          <t>2021/10/25 10:42:32</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>[수원시청] 10.13.(수)~10.22.(금) 바이크마켓(팔달구 세지로 352, 1층) 방문자 중 유증상자는 가까운 보건소에서 코로나19 검사바랍니다.</t>
+          <t>[금산군청] 10.25(월) 10시 기준 확진자 8명 발생(격리중 3, 신규5), 역학조사중, 감기몸살, 오한 등 증상시 선별진료소 방문 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2021/10/23 17:14:08</t>
+          <t>2021/10/25 10:00:53</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 23일 확진자 10명 발생(타지역접촉4, 자가격리중3, 조사중3) ▲모임, 행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[수원시청] 10월 25일 0시 기준, 수원 확진자 16명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d1t0c</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2021/10/23 17:01:05</t>
+          <t>2021/10/25 09:30:14</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 23일 17시 기준 확진자 18명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다.▲24일 도내 확진자 42명 발생</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2021/10/23 16:51:01</t>
+          <t>2021/10/25 09:17:02</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>강원도 강릉시</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>[진도군청]10.23(토)확진자 1명발생(진도56번)▲타지역거주 외국인근로자,접촉자 전원음성▲입출항 근해어업 선원,외국인고용사업장 내·외국인 2주1회 검사받으세요</t>
+          <t>[강릉시청]어제(일) 4명 확진(친구간 밀접촉4)/10.20(수)~23(토) 기간중 카페썸(가톨릭관동대 내)을 방문하신 분은 오전중 보건소에서 반드시 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2021/10/23 16:34:08</t>
+          <t>2021/10/25 09:14:30</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>[화성시청] 코로나19 선별진료소(검사소) 주말 및 공휴일 운영시간이 09시부터 13시로 조정됨을 알려드립니다.</t>
+          <t>[창원시청]10월21일(07:50~11:00), 22일(08:50~10:40) 진해스파랜드(진해대로 762,지하)이용자는 관할보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2021/10/23 16:08:38</t>
+          <t>2021/10/25 09:13:26</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>[당진시청]10/23(토) 16시기준 확진자17명(관내접촉2,타지역접촉2,격리중8,조사중5)발생.총1049명▲의심증상 시 외출·모임 자제 및 코로나검사 바랍니다.</t>
+          <t>[창원시청]10월18일(09:20~11:20),19일(07:40~11:10),20일(07:50~10:50)진해스파랜드(진해대로 762)이용자관할보건소에서 검사요망</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2021/10/23 15:31:34</t>
+          <t>2021/10/25 09:01:13</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>[사천시청] 10.21.(목) 09:20~11:30 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[양주시청] 10월 25일 00시 기준 확진자 9명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2021/10/23 15:27:27</t>
+          <t>2021/10/25 08:53:36</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>전라남도 곡성군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>[곡성군청]금일 09시기준 확진자 1명 발생. 타지역 거주, 동선 및 접촉자 파악중, 타 지역방문 후 또는 유증상 시에 군 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[전남도청] 10.24.24시기준 확진5명(구례1,장성1,완도1,신안1 /해외1(광양))※내국인3명,외국인2명(건설1,선원1) ▲의심증상 즉시 보건소 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2021/10/23 15:24:22</t>
+          <t>2021/10/25 08:45:15</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>[음성군청]10월 23일 확진자 5명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[신안군청]10.24.24시 기준 확진자 1명(건설근로자 외국인 1명)발생 ▲외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2021/10/23 14:37:19</t>
+          <t>2021/10/25 08:25:06</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>전라남도 광양시</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>[안산시청]10월23일14시기준 확진자 77명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z9vSfk2</t>
+          <t>[광양시청] 10. 24. 24시 기준 확진자 1명 발생(해외입국자 1) 가벼운 감기증상도 의료기관 방문 전 선별진료소 무료 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2021/10/23 14:18:11</t>
+          <t>2021/10/25 08:07:08</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.23.(토) 13:30기준 신규확진자 33명 url.kr/qz7o2i ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[남원시청]▲10.25(월) 08시 기준 확진자 1명발생(남원 170번)/역학조사 중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2021/10/23 14:02:09</t>
+          <t>2021/10/25 08:02:06</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>[사천시청] 10.23.(토) 14시 기준 확진자 3명(자가격리중 2명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[울산광역시]임시선별검사소▲문수경기장(평일9~20시)▲종합운동장,동구국민체육센터,농소운동장,온양체육공원(평일9~17시)입니다.(점심시간 12시~13시 미운영)</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2021/10/23 14:00:25</t>
+          <t>2021/10/25 08:00:04</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>충청북도 괴산군</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>[괴산군청] 10월 23일 확진자 1명(타지역 1명) 발생. 자세한 사항은 역학조사후 홈페이지 게시예정. 증상발현시 즉시 코로나19검사 받으시기 바랍니다.</t>
+          <t>[제천시청]10.25(월) 08시 현재. 확진자 1명 발생(외국인). 감염경로 조사중. 추가사항은 모바일콜센터 등으로 안내드리겠습니다. 증상 발현시 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2021/10/23 13:11:08</t>
+          <t>2021/10/24 20:42:25</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>강원도 강릉시</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 23일 13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[강릉시청]10.20(수)~10.23(토) 기간 중 카페썸(가톨릭관동대 내)을 방문하신 분들은 내일 오전중으로 보건소 선별검사소에서 반드시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2021/10/23 12:47:56</t>
+          <t>2021/10/24 18:35:44</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>[김제시청]10.23.(토) 11시 확진자 2명 발생(내국인1,외국인1)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2021/10/23 12:32:22</t>
+          <t>2021/10/24 18:11:09</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.22 코로나 확진자 5명(내국인2, 외국인3)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[홍성군청]10월24일(일) 18시 기준 확진자 4명(홍성290~293번) 발생. 확진자 접촉 2, 자가격리중 1, 자발적 검사 1. 정밀역학조사중</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2021/10/23 11:35:53</t>
+          <t>2021/10/24 18:08:20</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>[강화군청] 2021년 10월 16일(토) ~ 10월 22일(금)까지 강화읍 풍물시장 방문객은 가까운 선별 진료소에서 코로나 검사를 받으시길 바랍니다.</t>
+          <t>[안성시청]10.24.코로나확진자4명(자발적검사2, 확진자접촉2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2021/10/23 11:08:06</t>
+          <t>2021/10/24 17:41:31</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 23일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[남양주시청]10.24.(일) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t7m6 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2021/10/23 11:00:04</t>
+          <t>2021/10/24 17:23:07</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 장성군</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인고용 100인미만 사업장 내·외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[장성군청] 10. 24.(일) 확진자 1명(타지역 거주자) 발생. 관내 동선 및 접촉자 파악완료. 타지역 방문 및 접촉자는 증상이 없더라도 반드시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2021/10/23 10:49:46</t>
+          <t>2021/10/24 17:04:10</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>경기도 고양시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>[고양시청]10.17.(일) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[광주시청] 10월 24일 17시 기준 확진자 5명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요..</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2021/10/23 10:42:05</t>
+          <t>2021/10/24 16:22:26</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>[강원도청] 10.22.(금) 코로나19 확진자 20명 (원주11, 춘천7, 속초1, 횡성1) ▶감기증상 시 즉시검사 실시 ▶개인 방역수칙 준수 철저 당부드림!</t>
+          <t>[당진시청]10/24(일)16시기준 확진자4명 발생(격리중2,조사중2).총1053명▲신규채용 등 진단검사 의무화행정명령(10/25~11/8) vo.la/68SFm</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2021/10/23 10:37:32</t>
+          <t>2021/10/24 16:07:36</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>전라북도 부안군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>[부안군청]부안 128번 확진자 동선 관련 10.21(목) 17:15전주⇒부안 직행 시외버스 탑승자는 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[창원시청]10월19일여탕(13:50~18:40),남탕(17:00~18:40) 북면마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2021/10/23 10:03:18</t>
+          <t>2021/10/24 16:07:15</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>[전남도청](행정명령강화) 외국인고용사업장(건설,어업,식당 등) ▲신규취업 ▲근무지 변경시 근무전 진단검사 의무 ▲내외국인 2주1회 진단검사 받으시기 바랍니다.</t>
+          <t>[창원시청]10월15일 여탕(17:40~19:20),남탕(17:40~19:12)북면 마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2021/10/23 10:01:48</t>
+          <t>2021/10/24 15:08:12</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 23일 0시 기준, 수원 확진자 29명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/2ej2k</t>
+          <t>[안산시청]10월24일14시기준 확진자 61명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yU7Tmp1</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2021/10/23 09:30:56</t>
+          <t>2021/10/24 15:08:10</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲22일 도내 확진자 47명 발생</t>
+          <t>[진주시청] 24일 15시 기준 확진자 2명(타지역 확진자 접촉자 1명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2021/10/23 09:19:58</t>
+          <t>2021/10/24 15:07:05</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 9명 [타시민2, 천안시민7] ▶ 기침, 발열 등 의심증상 발현 시 의료기관 방문 전 코로나19 검사 바랍니다.</t>
+          <t>[부산시]10.15.(금)~10.23.(토) 뉴부산탕(금정구 서부로 2-1(서동)이용자는 선별검사소에서 코로나19검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2021/10/23 09:01:30</t>
+          <t>2021/10/24 15:02:31</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 23일 00시기준 확진자 7명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[충주시청] 10월 24일 15시 기준, 확진자 7명 발생(선행 확진자의 접촉자)▲만남,모임,행사 자제▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2021/10/23 08:57:15</t>
+          <t>2021/10/24 14:59:35</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>[전남도청] 10.22.24시기준 확진 5명(목포1,무안1,신안3) ※내국인2명,외국인3명(건설3)▲타지역 이동 자제하시고, 의심증상시 보건소 무료 검사받으세요.</t>
+          <t>[대구광역시]단디아로마(달서구 달서대로95길 7,2층) 10/13~10/22 방문하신 분은 임시선별검사소 및 보건소(예약)에서 반드시 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2021/10/23 08:48:43</t>
+          <t>2021/10/24 14:52:33</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>[남원시청]10.23(토) 08시 기준 확진자 1명 발생(남원 169번)/역학조사 중 가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[진천군청]▲10.23. 코로나 확진자 3명(외국인3). ▲손씻기, 마스크착용 등 방역수칙 준수바랍니다. ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2021/10/23 08:32:15</t>
+          <t>2021/10/24 14:21:57</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>[신안군청] 10.22. 24시 기준 확진자 3명(신안 50번~52번/공사현장 근무자 2명, 자가격리 1명) 발생▲인후통, 두통 등 의심 증상시 코로나19 검사</t>
+          <t>[안동시청]타지역확진자관련▲10/19(화) 09:50~10:20 콩심용상안동점(용상북1길6에이스아울렛E동1층)방문자는 선별진료소 방문하여 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2021/10/23 08:30:55</t>
+          <t>2021/10/24 14:13:44</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>[목포시청] 10.22. 24시 기준 확진자 1명 (자가격리중 외국인1) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[구례군청]10.24.(일) 확진자 1명 발생(타지역 확진자 접촉). 타지역 방문 및 타지인과의 만남을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2021/10/23 08:00:05</t>
+          <t>2021/10/24 14:02:29</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>[울산광역시]이번 주말(10.23~10.24) 임시선별검사소는 종합운동장, 문수경기장 2개소에서 09시~17시까지 운영합니다.(점심시간 12시~13시 미운영)</t>
+          <t>[당진시청]②10/17(월),22(금),23(토)18:00~22:00뉴럭셔리질러존노래연습장(북문로 1길 35-10)방문자 시청 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2021/10/22 19:26:24</t>
+          <t>2021/10/24 13:58:51</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>경상남도 김해시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>[김해시청] 10.16 15:51 하삼동커피외동점(내외중앙로27)에 방문하여 현금결제 후 매장에서 취식하신 회색외투에 단발머리 여성분은 코로나 검사하시기바랍니다</t>
+          <t>[당진시청]①10.21(목) 17:55~18:30 CU편의점 당진원당점(수청동 983) 방문자는 15시30분까지 당진시청 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2021/10/22 18:06:14</t>
+          <t>2021/10/24 13:52:25</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -6181,269 +6181,269 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>[남양주시청]10.22.(금) 코로나19 확진자 30명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t6tl 증상의심시 코로나19검사 받으세요.</t>
+          <t>[남양주시청]10.13.(수)~10.24.(일) 롯데택배물류센터(진접읍 양진로 962)근무자 및 방문자는 관할 선별진료소에서 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2021/10/22 18:05:51</t>
+          <t>2021/10/24 13:19:52</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>[무안군청]10.22(금)18시 기준 확진자 1명 발생(타지역 거주 공사현장 외국인근로자)▲외국인 고용사업장 종사자 2주1회 진단검사▲미등록 외국인 예방접종 가능</t>
+          <t>[울산광역시]10.19(화)17:29~19:44▲착한갈비(중구 반구정12길 55,반구동,소독완료)방문자는 코로나 검사후 중구보건소(☎290-4300)연락바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2021/10/22 17:55:08</t>
+          <t>2021/10/24 13:09:20</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 22일 확진자 8명 발생(자가격리중7, 조사중1) ▲만남, 모임, 각종행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[과천시청] 10월 24일 13시 기준 신규확진 2명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2021/10/22 17:22:22</t>
+          <t>2021/10/24 12:49:40</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>서울특별시 구로구</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>[구로구청]10.12(화)~10.17(일) 기간 내 구로동로25길 7, 지하1층 일번지노래연습장 방문자는 가까운 선별진료소에서 코로나 검사를 받아주시기 바랍니다.</t>
+          <t>[화성시청] 10.18.(월)~10.21.(목) 대승철물(화성시 남양읍 남양성지로 233) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2021/10/22 17:18:54</t>
+          <t>2021/10/24 11:17:54</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>[창원시청] 10.17.(일) 07:50~09:03 창원북면황토방온천 여탕(의창구 북면 천주로1170번길 17-10) 이용자 관할보건소에서 예약 후 검사바랍니다.</t>
+          <t>[칠곡군청] 10.4.(월) ~ 10.22.(금) 만남카페(칠곡군 왜관읍 중앙로5길 5-1, 왜관역 부근) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2021/10/22 17:07:22</t>
+          <t>2021/10/24 11:14:04</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>[논산시청] 10월22일 확진자 2명(내국인2/관내1,타지역1) 발생 ▶타지역 이동·방문 후 가까운 선별진료소에서 PCR검사 당부드립니다.</t>
+          <t>[금산군청] 10.24(일) 11시기준 확진자 6명(격리중 1, 신규 5) 발생, 역학조사 중 ▶ 감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2021/10/22 17:07:06</t>
+          <t>2021/10/24 11:11:44</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 22일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[안양시청]▲10.24.(일) 11:00기준 신규확진자 10명 url.kr/pctb72 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2021/10/22 16:59:42</t>
+          <t>2021/10/24 10:59:35</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>[과천시청] 10월22일17시 기준 신규확진 3명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[완주군청] 10월 24일(일) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2021/10/22 16:40:39</t>
+          <t>2021/10/24 10:54:30</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>[창원시청]▲10.18~10.19 13:00~13:40▲10.20 12:20~12:40 테크노밸리식당매점(의창구소계로12,복지동605)식사하신분 코로나검사바랍니다</t>
+          <t>[고성군청]10.14(목)통영출발(16:00)→고성경유(16:38)→마산경유(17:35)→부산시외버스터미널도착(18:25)현대버스탑승자는 선별진료소에서검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2021/10/22 15:27:14</t>
+          <t>2021/10/24 10:33:54</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>[음성군청]10월22일 확진자 23명(내국인2,외국인21)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[구미시청]10/16(토)~10/17(일) 이슬람교 구미성원 (구미중앙로31길 13, 원평동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2021/10/22 15:21:32</t>
+          <t>2021/10/24 10:30:15</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>[안산시청]10월22일14시기준 확진자 45명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Zc7Ow36</t>
+          <t>[청주시청]10월 23일 확진자 17명 발생(상당구6,서원구2,흥덕구5,청원구4)▲홈페이지 참조▲이동·모임 자제▲수시 환기▲유증상 시 신속히 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2021/10/22 15:15:28</t>
+          <t>2021/10/24 10:30:10</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.21 확진자 8명(내국인3,외국인5)▲10.22(16:00~20:00)덕산행정복지센터,이월행정복지센터 외국인 집중 코로나 PCR 전수검사 실시</t>
+          <t>[용인시청]금일 0시기준 확진자17명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2021/10/22 14:44:06</t>
+          <t>2021/10/24 10:20:53</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>[대구광역시]알힉마논공이슬람센터(논공읍 논공로 15길 20-6) 10/15 이후 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[구미시청]10/7(목)~10/21(목) 드리사(delisha cafe)(1공단로 190 지하1층,공단동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2021/10/22 13:57:27</t>
+          <t>2021/10/24 10:16:16</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>강원도 평창군</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>[창원시청] 10.11(월)~10.21(목) 문영일이비인후과의원(의창구 팔용로 428,방역완료) 방문자는 반드시 코로나검사바랍니다(10.19이후 검사완료자 제외)</t>
+          <t>[평창군청] 10.24일 평창군 확진자 1명(231번) 대화면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2021/10/22 13:52:41</t>
+          <t>2021/10/24 10:10:06</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>[금산군청]10월19일 송림백작소, 새마을저온창고 / 10월20일 현대백작소 / 10월21일 송림백작소에서 일하신 분들은 코로나19 검사를 받아주시기 바랍니다.</t>
+          <t>[완도군청]근해어선 선원 자가격리중 1명 확진(기존10, 추가1)▶입출항 연근해어선▶(행정명령)외국인 고용사업장 내·외국인 진담검사 하시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2021/10/22 13:49:58</t>
+          <t>2021/10/24 10:00:16</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>[무안군청]10.20.(수)11:47~12:00, 10.21.(목)12:07~12:18삼삼한식뷔페(현경면 성재길55)방문자는 선별진료소 검사바랍니다.▲방역소독완료</t>
+          <t>[수원시청] 10월 24일 0시 기준, 수원 확진자 48명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/p1eng</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2021/10/22 11:31:26</t>
+          <t>2021/10/24 10:00:03</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -6453,150 +6453,150 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>[전남도청] 외국인확진자 지속확산 ▲전일확진자 15명 중 외국인근로자 10명(√어업3√건설7)▲외국인고용사업장 신규취업 내·외국인 근무전 검사 의무적으로 받으세요</t>
+          <t>[전남도청]전일 9명 발생(√타지역접촉4√외국인근로자4√가족접촉1)▲학교기숙사 등 일상생활 복귀전▲외국인고용사업장 신규채용 근로자는 근로전 진단검사 꼭 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2021/10/22 11:00:54</t>
+          <t>2021/10/24 09:50:27</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>강원도 원주시</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>[나주시청] 10.22. 09시기준. 확진자1명(격리 1)발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
+          <t>[원주시청] 10.15.또는10.20.'술파는노래방뿜빠이(장미공원길43-4,2층,단계동)' 이용자는 오늘 15시(12~13시 제외)까지 보건소 코로나 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2021/10/22 10:59:58</t>
+          <t>2021/10/24 09:46:55</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자20명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[영암군청] 10. 23.(토) 12:40~14:00 '고향식육식당'(금정면 용두로 15) 방문자는 증상유무관계없이 즉시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2021/10/22 10:55:31</t>
+          <t>2021/10/24 09:00:06</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>[대구광역시]오렌지PC방(대명복개로138-2) 9/30,10/2~4,6,9,10,18 방문하신 분은 임시선별 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[양주시청] 10월 24일 00시기준 확진자 8명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2021/10/22 10:23:20</t>
+          <t>2021/10/24 08:56:28</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>[창원시청] 10.17(일) 창원북면황토방온천(북면 천주로1170번길 17-10) 아침7시 입장, 6천원 현금결제 여탕 이용자는 창원보건소에 연락 후 검사바랍니다</t>
+          <t>[신안군청] 10.23. 24시 기준 확진자 3명(건설근로자 외국인 2명, 자가격리 중 1명) 발생 ▲ 외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2021/10/22 10:05:40</t>
+          <t>2021/10/24 08:53:21</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 22일(금) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[전남도청]10.23. 24시기준 확진 9명(목포1, 곡성1, 영암3, 진도1, 신안3) ※내국인 5명, 외국인 4명(건설 4)▲의심증상시 무료 진단검사 받으세요</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2021/10/22 10:04:41</t>
+          <t>2021/10/24 08:21:43</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>[전주시청]10.22(금) 현재기준 1명 발생(전일 2명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
+          <t>[목포시청]10.23. 24시 기준 확진자 1명 (타지역방문접촉) 발생 ▲타지역 이동 자제하시고, 기침, 발열 등 의심 증상 있을 시 보건소 무료 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2021/10/22 10:01:35</t>
+          <t>2021/10/23 18:01:25</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>[금산군청] 10.22(금) 10시 기준 확진자 2명(신규 2) 발생, 역학조사 중 ▶감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다.</t>
+          <t>[당진시청]신규채용 및 외국인근로자 등 코로나19진단검사 의무화됩니다.(10.25.~11.8.) 자세한 사항은 시홈페이지 공고 참고바랍니다. vo.la/68SFm</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2021/10/22 10:00:55</t>
+          <t>2021/10/23 18:00:23</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>경상북도 영주시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>[영주시청] 10.8(금)~10.16(토) 풍기 로그인PC방 이용하신분은 코로나검사 받으시기 바랍니다. 선별진료소 운영(풍기읍사무소10-17시, 보건소18시까지)</t>
+          <t>[남양주시청]10.23.(토) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t799 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2021/10/22 10:00:53</t>
+          <t>2021/10/23 18:00:09</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -6606,813 +6606,813 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 22일 0시 기준, 수원 확진자 38명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/6soyk</t>
+          <t>[수원시청] 10.13.(수)~10.22.(금) 바이크마켓(팔달구 세지로 352, 1층) 방문자 중 유증상자는 가까운 보건소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2021/10/22 09:07:08</t>
+          <t>2021/10/23 17:14:08</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 22일 00시기준 확진자 14명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[충주시청] 10월 23일 확진자 10명 발생(타지역접촉4, 자가격리중3, 조사중3) ▲모임, 행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2021/10/22 08:57:55</t>
+          <t>2021/10/23 17:01:05</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>[완도군청] 10.21.(목)18:00 기준 확진자 1명 발생(근해어선 외국인 선원)▲입·출항 연근해어선▲외국인 고용사업장 모두 선별진료소에서 코로나 검사요망.</t>
+          <t>[광주시청] 10월 23일 17시 기준 확진자 18명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2021/10/22 08:31:41</t>
+          <t>2021/10/23 16:51:01</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>[목포시청]10.21. 24시 기준 확진자 1명 발생(타지역접촉외국인1) ▲집단감염 예방 위해 타지역 방문·접촉자 검사▲나와 내 가족을 위해 백신접종 참여바랍니다</t>
+          <t>[진도군청]10.23(토)확진자 1명발생(진도56번)▲타지역거주 외국인근로자,접촉자 전원음성▲입출항 근해어업 선원,외국인고용사업장 내·외국인 2주1회 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2021/10/22 08:19:45</t>
+          <t>2021/10/23 16:34:08</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>전라남도 광양시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>[광양시청]21. 10. 21.(목) 24시 기준 확진자 2명 발생(격리중1, 타지역 확진자 접촉 1) 가벼운 감기증상도 즉시 보건소 선별진료소 무료 검사받으세요</t>
+          <t>[화성시청] 코로나19 선별진료소(검사소) 주말 및 공휴일 운영시간이 09시부터 13시로 조정됨을 알려드립니다.</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2021/10/22 08:15:40</t>
+          <t>2021/10/23 16:08:38</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>전라남도 순천시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>[순천시청] 10.21.(목) 24시 기준 확진자 1명 발생(타지역 거주자) √기침, 인후통 등 가벼운 감기 증상이라도 반드시 보건소에서 검사바랍니다.</t>
+          <t>[당진시청]10/23(토) 16시기준 확진자17명(관내접촉2,타지역접촉2,격리중8,조사중5)발생.총1049명▲의심증상 시 외출·모임 자제 및 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2021/10/22 08:13:59</t>
+          <t>2021/10/23 15:31:34</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>[여수시청]10.21.24:00 기준 총1명 발생(자가격리 해제검사)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[사천시청] 10.21.(목) 09:20~11:30 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2021/10/22 08:10:02</t>
+          <t>2021/10/23 15:27:27</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>전라남도 곡성군</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>[영암군청] 롯데슈퍼 영암삼호점(삼호읍 대불주거로 55-1)을 10. 21.(목) 11:35~12:00에 방문하신 분은 가까운 선변진료소에서 검사받으시기 바랍니다</t>
+          <t>[곡성군청]금일 09시기준 확진자 1명 발생. 타지역 거주, 동선 및 접촉자 파악중, 타 지역방문 후 또는 유증상 시에 군 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2021/10/22 08:09:40</t>
+          <t>2021/10/23 15:24:22</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>[창원시청] ▲만남의광장 임시선별검사소 오늘(10.22.)부터 미운영 ▲보건소, 마산역, 창원종합버스터미널 검사소 정상운영</t>
+          <t>[음성군청]10월 23일 확진자 5명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2021/10/22 08:08:11</t>
+          <t>2021/10/23 14:37:19</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/22(금) 08시 기준 전일 3명 확진자발생(656~658) ▲격리중2,조사중1 ▲발열,기침 등 의심증상 발현 시 검사 받으시기 바랍니다.</t>
+          <t>[안산시청]10월23일14시기준 확진자 77명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z9vSfk2</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2021/10/22 08:00:19</t>
+          <t>2021/10/23 14:18:11</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>[신안군청] 10.21. 24시 기준 확진자 5명(신안 45번~49번/공사현장 근로 외국인 5명) 발생 ▲미등록 외국인 여권으로 예방접종 예약가능▲유증상시 검사</t>
+          <t>[안양시청]▲10.23.(토) 13:30기준 신규확진자 33명 url.kr/qz7o2i ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2021/10/21 19:02:39</t>
+          <t>2021/10/23 14:02:09</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>[중대본] 10.11~10.20 서울 관악구 신림로67길5 3층 '휴테라피' 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.(☎120,1339)</t>
+          <t>[사천시청] 10.23.(토) 14시 기준 확진자 3명(자가격리중 2명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2021/10/21 18:11:33</t>
+          <t>2021/10/23 14:00:25</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청북도 괴산군</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>[남양주시청]10.21.(목) 코로나19 확진자 39명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t5nh 증상의심시 코로나19검사 받으세요.</t>
+          <t>[괴산군청] 10월 23일 확진자 1명(타지역 1명) 발생. 자세한 사항은 역학조사후 홈페이지 게시예정. 증상발현시 즉시 코로나19검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2021/10/21 18:00:04</t>
+          <t>2021/10/23 13:11:08</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>[안성시청]10.21. 코로나19 확진자 4명(확진자접촉3, 자발적검사1) 발생역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[과천시청] 10월 23일 13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2021/10/21 17:41:51</t>
+          <t>2021/10/23 12:47:56</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 21일 17시 기준 확진자 8명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[김제시청]10.23.(토) 11시 확진자 2명 발생(내국인1,외국인1)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2021/10/21 17:41:08</t>
+          <t>2021/10/23 12:32:22</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>[강북구청]10.18.(월), 20.(수) 세종기원(도봉로67길40) 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
+          <t>[진천군청]▲10.22 코로나 확진자 5명(내국인2, 외국인3)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2021/10/21 17:22:52</t>
+          <t>2021/10/23 11:35:53</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>[남양주시청]10.14.(목)~10.17.(일) 쓰리팝PC카페(평내로29번길 49, 2층, 평내동) 방문자는 가까운 거주지 보건소에서 코로나19검사를 받으세요.</t>
+          <t>[강화군청] 2021년 10월 16일(토) ~ 10월 22일(금)까지 강화읍 풍물시장 방문객은 가까운 선별 진료소에서 코로나 검사를 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2021/10/21 17:20:39</t>
+          <t>2021/10/23 11:08:06</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 21일 확진자 7명 발생(자가격리중) ▲만남,모임,각종행사 자제 ▲거리두기 준수▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[완주군청] 10월 23일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2021/10/21 16:41:57</t>
+          <t>2021/10/23 11:00:04</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>[창원시청] 10.11.(월)~10.21.(목) 문영일이비인후과의원(의창구 팔용로 428 드림피아, 방역완료) 방문자는 반드시 코로나검사를 받으시기 바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인고용 100인미만 사업장 내·외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2021/10/21 16:31:47</t>
+          <t>2021/10/23 10:49:46</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 고양시</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>[완도군청] 완도읍 이동검사소 운영 안내▶10월 22일(금) 10:00~12:00 1부두 요트계류장▶모든 선박 선원과 외국인 근로자는 반드시 코로나 검사 요망.</t>
+          <t>[고양시청]10.17.(일) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2021/10/21 15:44:40</t>
+          <t>2021/10/23 10:42:05</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>[대구광역시] 10월 중 평리광명네거리에서 농촌인력 중개차량 탑승하여 대구·경북지역 밭일 다녀오신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으십시오.</t>
+          <t>[강원도청] 10.22.(금) 코로나19 확진자 20명 (원주11, 춘천7, 속초1, 횡성1) ▶감기증상 시 즉시검사 실시 ▶개인 방역수칙 준수 철저 당부드림!</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2021/10/21 15:26:35</t>
+          <t>2021/10/23 10:37:32</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라북도 부안군</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>[남원시청]타지역 확진자 관련 10.14.(목) 12:02~24, 10.15.(금) 12:45~13:08 남문정식(남문로 464-14) 방문자는 검사 받으세요.</t>
+          <t>[부안군청]부안 128번 확진자 동선 관련 10.21(목) 17:15전주⇒부안 직행 시외버스 탑승자는 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2021/10/21 15:15:25</t>
+          <t>2021/10/23 10:03:18</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.17(일) 위더스웨딩홀(서구 죽봉대로 153, 광천동) 3층 펠리체홀 14:30분 예식 관련하여 방문하신 분은 거주지 보건소에서 검사 바랍니다</t>
+          <t>[전남도청](행정명령강화) 외국인고용사업장(건설,어업,식당 등) ▲신규취업 ▲근무지 변경시 근무전 진단검사 의무 ▲내외국인 2주1회 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2021/10/21 15:00:22</t>
+          <t>2021/10/23 10:01:48</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>[음성군청]10월 21일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[수원시청] 10월 23일 0시 기준, 수원 확진자 29명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/2ej2k</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2021/10/21 14:31:26</t>
+          <t>2021/10/23 09:30:56</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>[안산시청]10월21일14시기준 확진자 43명발생▲의심증상 발현시 인근 보건소에서 검사바랍니다 blog.naver.com/cityansan/222543777600</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲22일 도내 확진자 47명 발생</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2021/10/21 14:08:23</t>
+          <t>2021/10/23 09:19:58</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>[나주시청] 10. 21. 9시기준 확진자 4명(격리 4) 발생. 외국인 백신접종 시급. 여권 지참 후 보건소 방문 접수. 코로나 증상 발현 시 검사 필수.</t>
+          <t>[천안시청] 확진자 9명 [타시민2, 천안시민7] ▶ 기침, 발열 등 의심증상 발현 시 의료기관 방문 전 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2021/10/21 13:44:03</t>
+          <t>2021/10/23 09:01:30</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>[진천군청]▲10. 21.(목) 16:00~20:00 덕산읍행정복지센터, 이월면행정복지센터 외국인 집중 코로나 PCR 전수검사 실시</t>
+          <t>[양주시청] 10월 23일 00시기준 확진자 7명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2021/10/21 13:06:19</t>
+          <t>2021/10/23 08:57:15</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>[무안군청] 10.14.(목) 10:10~11:00 무안전통시장(무안읍 승달로 11)방문자는 인근 보건소 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[전남도청] 10.22.24시기준 확진 5명(목포1,무안1,신안3) ※내국인2명,외국인3명(건설3)▲타지역 이동 자제하시고, 의심증상시 보건소 무료 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2021/10/21 12:47:26</t>
+          <t>2021/10/23 08:48:43</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.16(토) 18시~22시 상무어시장(음식점, 서구 시청로60번길 20, 치평동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[남원시청]10.23(토) 08시 기준 확진자 1명 발생(남원 169번)/역학조사 중 가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2021/10/21 11:58:13</t>
+          <t>2021/10/23 08:32:15</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>경상남도 하동군</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>[하동군청]10.14(목), 12:30하동출발-12:40전도경유-13:40진주도착 5769 버스탑승자 중 전도~진주구간 탑승하신분은 코로나검사 받으시기 바랍니다.</t>
+          <t>[신안군청] 10.22. 24시 기준 확진자 3명(신안 50번~52번/공사현장 근무자 2명, 자가격리 1명) 발생▲인후통, 두통 등 의심 증상시 코로나19 검사</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2021/10/21 11:42:40</t>
+          <t>2021/10/23 08:30:55</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>[남원시청]타지역 확진자 관련/14.(목)12:02~12:24, 15.(금)12:45~13:08 남문정식(남원시 남문로 464-14) 방문자는 검사받기 바랍니다.</t>
+          <t>[목포시청] 10.22. 24시 기준 확진자 1명 (자가격리중 외국인1) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2021/10/21 11:21:11</t>
+          <t>2021/10/23 08:00:05</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.20 코로나 확진자 7명(내국인2, 외국인5). ▲10.21(16:00~20:00) 이월보건지소, 덕산보건지소에서 코로나 검사실시.</t>
+          <t>[울산광역시]이번 주말(10.23~10.24) 임시선별검사소는 종합운동장, 문수경기장 2개소에서 09시~17시까지 운영합니다.(점심시간 12시~13시 미운영)</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2021/10/21 11:15:45</t>
+          <t>2021/10/22 19:26:24</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상남도 김해시</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.21.(목) 11:00기준 신규확진자 15명 url.kr/b9twdn ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[김해시청] 10.16 15:51 하삼동커피외동점(내외중앙로27)에 방문하여 현금결제 후 매장에서 취식하신 회색외투에 단발머리 여성분은 코로나 검사하시기바랍니다</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2021/10/21 11:00:05</t>
+          <t>2021/10/22 18:06:14</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[남양주시청]10.22.(금) 코로나19 확진자 30명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t6tl 증상의심시 코로나19검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2021/10/21 10:32:10</t>
+          <t>2021/10/22 18:05:51</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>[청주시청]10월 20일 확진자 27명 발생(상당구3,서원구9,흥덕구8,청원구6,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
+          <t>[무안군청]10.22(금)18시 기준 확진자 1명 발생(타지역 거주 공사현장 외국인근로자)▲외국인 고용사업장 종사자 2주1회 진단검사▲미등록 외국인 예방접종 가능</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2021/10/21 10:31:48</t>
+          <t>2021/10/22 17:55:08</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>[강원도청] 10.20.(수) 도내 코로나19 확진 31명(원주16 춘천10 속초2 횡성2 영월1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부!!</t>
+          <t>[충주시청] 10월 22일 확진자 8명 발생(자가격리중7, 조사중1) ▲만남, 모임, 각종행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2021/10/21 10:14:05</t>
+          <t>2021/10/22 17:22:22</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>서울특별시 구로구</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 21일(목) 0시 기준 확진자 2명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[구로구청]10.12(화)~10.17(일) 기간 내 구로동로25길 7, 지하1층 일번지노래연습장 방문자는 가까운 선별진료소에서 코로나 검사를 받아주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2021/10/21 10:08:20</t>
+          <t>2021/10/22 17:18:54</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>[금산군청] 10.21(목) 10시 기준 확진자 1명(신규 1) 발생, 역학조사 중 ▶감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다.</t>
+          <t>[창원시청] 10.17.(일) 07:50~09:03 창원북면황토방온천 여탕(의창구 북면 천주로1170번길 17-10) 이용자 관할보건소에서 예약 후 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2021/10/21 10:06:26</t>
+          <t>2021/10/22 17:07:22</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>[완도군청]외국인근로자 감염확산▶완도읍 외국인근로자 사업주께서는 이번주 모든 근로자가 진단검사할 수 있도록 협조 당부 드림▶다음주 전체 읍·면 외국인전수조사 예정</t>
+          <t>[논산시청] 10월22일 확진자 2명(내국인2/관내1,타지역1) 발생 ▶타지역 이동·방문 후 가까운 선별진료소에서 PCR검사 당부드립니다.</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2021/10/21 10:02:04</t>
+          <t>2021/10/22 17:07:06</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.17(일) 광장시장(음식점, 북구 안산로 40, 오치동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[광주시청] 10월 22일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2021/10/21 10:00:44</t>
+          <t>2021/10/22 16:59:42</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>[전주시청]10.21(목) 현재기준 2명 발생(전일 1명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
+          <t>[과천시청] 10월22일17시 기준 신규확진 3명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2021/10/21 10:00:31</t>
+          <t>2021/10/22 16:40:39</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 21일 0시 기준, 수원 확진자 21명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/9ns0h</t>
+          <t>[창원시청]▲10.18~10.19 13:00~13:40▲10.20 12:20~12:40 테크노밸리식당매점(의창구소계로12,복지동605)식사하신분 코로나검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2021/10/21 09:55:11</t>
+          <t>2021/10/22 15:27:14</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>[완도군청]외국인확진자 동선▶10/16(토)완도읍 베트남쌀국수15:30~18:40, PHUONG가라오케(워커힐모텔 지하)19:00~22:00동시간대 방문자검사요망</t>
+          <t>[음성군청]10월22일 확진자 23명(내국인2,외국인21)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2021/10/21 09:51:58</t>
+          <t>2021/10/22 15:21:32</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>경상남도 창녕군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>[창녕군청]10.21(목) 확진자2명 발생(창녕342~343/타지역접촉2)▷개인간 모임 자제▷방역수칙 준수 ▷유증상시 코로나검사 받으시기 바랍니다.</t>
+          <t>[안산시청]10월22일14시기준 확진자 45명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Zc7Ow36</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2021/10/21 09:33:48</t>
+          <t>2021/10/22 15:15:28</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>인천광역시 남동구</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>[남동구청] 10/14, 10/16~18 간석2동 리얼pc카페(간석동194-3) 방문자는 증상유무 관계없이 거주지 보건소에서 코로나19 검사 바랍니다.</t>
+          <t>[진천군청]▲10.21 확진자 8명(내국인3,외국인5)▲10.22(16:00~20:00)덕산행정복지센터,이월행정복지센터 외국인 집중 코로나 PCR 전수검사 실시</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2021/10/21 09:08:12</t>
+          <t>2021/10/22 14:44:06</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 12명 [타시민5, 천안시민7] ▶ 가벼운 감기증상이 있을 시 백신접종 여부 관계없이 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[대구광역시]알힉마논공이슬람센터(논공읍 논공로 15길 20-6) 10/15 이후 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2021/10/21 09:02:41</t>
+          <t>2021/10/22 13:57:27</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 21일 00시기준 확진자 16명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[창원시청] 10.11(월)~10.21(목) 문영일이비인후과의원(의창구 팔용로 428,방역완료) 방문자는 반드시 코로나검사바랍니다(10.19이후 검사완료자 제외)</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2021/10/21 08:50:46</t>
+          <t>2021/10/22 13:52:41</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 보성군,전라남도 순천시,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>[전남도청] 10.20. 24시기준 확진 12명(여수1,나주4,구례2,화순1,무안2,완도1,신안1)▲확진자가 많은 타지역 방문·접촉 자제, 증상의심시 검사받으세요</t>
+          <t>[금산군청]10월19일 송림백작소, 새마을저온창고 / 10월20일 현대백작소 / 10월21일 송림백작소에서 일하신 분들은 코로나19 검사를 받아주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2021/10/21 08:26:51</t>
+          <t>2021/10/22 13:49:58</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -7422,160 +7422,177 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>[무안군청] 10.21.(목) 8시 기준 확진자 2명 발생(타지역 확진자 접촉) ▲ 타지역 방문·접촉 시 증상 없어도 반드시 보건소 선별진료소에서 검사바랍니다.</t>
+          <t>[무안군청]10.20.(수)11:47~12:00, 10.21.(목)12:07~12:18삼삼한식뷔페(현경면 성재길55)방문자는 선별진료소 검사바랍니다.▲방역소독완료</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2021/10/21 08:18:49</t>
+          <t>2021/10/22 11:31:26</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>[여수시청]10.20.24:00 기준 총1명 발생(자가격리중)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[전남도청] 외국인확진자 지속확산 ▲전일확진자 15명 중 외국인근로자 10명(√어업3√건설7)▲외국인고용사업장 신규취업 내·외국인 근무전 검사 의무적으로 받으세요</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2021/10/21 08:06:39</t>
+          <t>2021/10/22 11:00:54</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/21(목) 08시 기준 전일5명 확진자 발생(651~655) ▲확진자접촉2,격리중2,조사중1 ▲의심증상 발현 시 코로나 검사받으시기 바랍니다.</t>
+          <t>[나주시청] 10.22. 09시기준. 확진자1명(격리 1)발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2021/10/20 21:06:38</t>
+          <t>2021/10/22 10:59:58</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>경상남도 의령군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>[의령군청] 10. 18.(월) 21:00 마산에서 출발하는 의령도착 버스 탑승객은 코로나19 검사대상으로 의령군보건소(055-570-4900)로 연락 바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자20명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2021/10/20 20:37:28</t>
+          <t>2021/10/22 10:55:31</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>[완도군청]10.20.(수) 20시 기준 완도읍 확진자 1명 발생(동선파악 및 역학조사 진행중)▶기침·인후통 등 의심증상 시 즉시 코로나 검사 받으세요.</t>
+          <t>[대구광역시]오렌지PC방(대명복개로138-2) 9/30,10/2~4,6,9,10,18 방문하신 분은 임시선별 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2021/10/20 20:10:31</t>
+          <t>2021/10/22 10:23:20</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>[구례군청]10.20(수)확진자 2명발생(격리자1, 격리자가족1), 격리자 접촉은 확진으로 이어집니다. 자가격리 철저 및 증상발생 시 선별진료소에서 검사바랍니다.</t>
+          <t>[창원시청] 10.17(일) 창원북면황토방온천(북면 천주로1170번길 17-10) 아침7시 입장, 6천원 현금결제 여탕 이용자는 창원보건소에 연락 후 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2021/10/20 18:28:41</t>
+          <t>2021/10/22 10:05:40</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>[부산시]10.11.(월)08:00~10.18.(월)17:40 퍼하우양음식점(서구 충무대로 217-1,충무동)방문한분 코로나19검사받으시기바랍니다.(소독완료)</t>
+          <t>[완주군청] 10월 22일(금) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2021/10/20 18:09:46</t>
+          <t>2021/10/22 10:04:41</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>[남양주시청]10.20.(수) 코로나19 확진자 27명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t4f5 증상의심시 코로나19검사 받으세요.</t>
+          <t>[전주시청]10.22(금) 현재기준 1명 발생(전일 2명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2021/10/20 18:01:18</t>
+          <t>2021/10/22 10:01:35</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>[당진시청]10/20(수) 16시기준 확진자 9명 발생(관내접촉6,격리중2,조사중1). 총1006명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
+          <t>[금산군청] 10.22(금) 10시 기준 확진자 2명(신규 2) 발생, 역학조사 중 ▶감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2021/10/20 17:27:19</t>
+          <t>2021/10/22 10:00:55</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경상북도 영주시</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 20일 확진자 6명 발생(선행 확진자 접촉4, 타지역거주자1, 자가격리중1)▲만남,모임 자제▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[영주시청] 10.8(금)~10.16(토) 풍기 로그인PC방 이용하신분은 코로나검사 받으시기 바랍니다. 선별진료소 운영(풍기읍사무소10-17시, 보건소18시까지)</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2021/10/22 10:00:53</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>경기도 수원시</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>[수원시청] 10월 22일 0시 기준, 수원 확진자 38명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/6soyk</t>
         </is>
       </c>
     </row>

--- a/covid_19_all/JenanMessage.xlsx
+++ b/covid_19_all/JenanMessage.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C423"/>
+  <dimension ref="A1:C432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -425,500 +425,500 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021/10/31 19:07:25</t>
+          <t>2021/11/01 18:39:36</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[홍성군청]10월31일(일) 19시 기준 확진자 6명(홍성311~316번)발생. 자가격리중 2명, 자발적검사 2명, 타지역거주자 2명. 역학조사 및 방역소독 완료</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람 ▲50세 이상 백신 추가접종 실시 ☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021/10/31 18:40:04</t>
+          <t>2021/11/01 18:00:09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>서울특별시 전체</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[서울시청] 10.19(화)~28(목) 중랑구 소재 상봉아트홀 댄스학원(망우로 328) 방문자는 가까운 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎120</t>
+          <t>[수원시청]10.23.(토)~10.30.(토) 영성복장(팔달구 팔달문로4번길 19)방문자 중 유증상자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021/10/31 18:27:51</t>
+          <t>2021/11/01 17:47:03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[남양주시청]10.31.(일) 코로나19 확진자 33명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tevx 증상의심시 코로나19 검사받으세요.</t>
+          <t>[광주시청] 11월 1일 17시 기준 확진자 11명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021/10/31 18:01:11</t>
+          <t>2021/11/01 17:31:20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[안성시청]10.31.코로나19 확진자9명(자발적검사7,확진자접촉1,자가격리1)발생. 역학조사,방역조치 완료anseong.go.kr/corona_index.jsp</t>
+          <t>[충주시청] 11월 1일 확진자 4명 발생(선행 확진자 접촉1, 자가격리중2, 조사중1) ▲핼러윈 기간 각종 모임 참여자는 보건소 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021/10/31 17:11:04</t>
+          <t>2021/11/01 17:26:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[사천시청]10.26.(화)~10.29.(금)09:00~15:00잠언의료기기(선구동 소재)방문자는 18:30까지 삼천포보건센터임시선별진료소에서검사받으시기바랍니다.</t>
+          <t>[고성군청]11. 1.17시기준,확진자1명(고성120번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021/10/31 17:07:06</t>
+          <t>2021/11/01 17:00:50</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 31일 확진자 5명 발생(선행확진자의 접촉자)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[과천시청] 11월1일 17시 기준 신규확진 3명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021/10/31 17:03:05</t>
+          <t>2021/11/01 15:29:02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 31일 17시 기준 확진자 12명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[구례군청]타지역 확진자 관련 10.25(월) 10:55~11:08/10.28(목) 13:00~13:06 와이식자재마트 방문자는 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021/10/31 16:51:53</t>
+          <t>2021/11/01 15:27:52</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[사천시청]10.26.(화)~10.29.(금) 09:00~15:00 잠언의료기기(선구동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[완도군청]노화읍 확진자 2명 발생▶10/26~10/31 관외출타 후 31일부터 격리중으로 우리군 접촉주민 없음▶관외출타, 타지인 접촉주민은 코로나 검사요망</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021/10/31 15:53:33</t>
+          <t>2021/11/01 15:17:52</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[포항시청] 10.24(일) 17:00~21:00 무카타부페-타이마트(상도동 629-3) 이용자는 보건소에서 검사바랍니다. ※검사시 KF94 마스크 착용바랍니다.</t>
+          <t>[당진시청]10/28(목)~10/30(토) 상쾌한이비인후과의원(당진중앙3로 75)방문자는 당진시청 선별진료소에서 코로나검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021/10/31 15:29:15</t>
+          <t>2021/11/01 15:16:10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[남양주시청]10.22(금)~10.27(수) 참소망교회(오남읍 진건오남로 896번길 24) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[진주시청] 1일 15시 기준 확진자 3명(타지역확진자 가족 1명, 무료선제검사 2명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021/10/31 15:14:18</t>
+          <t>2021/11/01 15:13:13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>경상남도 거제시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[거제시청] 코로나19확진자 총 5명 발생(확진자접촉3, 감염경로 조사중2)/ 기침, 발열 등 유증상시 즉시 선별진료소에서 코로나검사 바랍니다.</t>
+          <t>[부산시]10.28(목)16:13~16:54/10.29(금)8:34~9:33 발리아쿠아랜드(동구 중앙대로195번길24(초량동)방문자 보건소검사바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021/10/31 15:13:24</t>
+          <t>2021/11/01 15:08:05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[포항시청] 10.30(토) 11:30~13:20 포항역 3층 푸드코트(흥해읍 이인리 137-1) 이용자는 보건소에서 검사바랍니다.</t>
+          <t>[음성군청]11월 1일 확진자 7명(내국인2,외국인5)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021/10/31 15:07:25</t>
+          <t>2021/11/01 14:46:39</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>경상남도 창녕군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[창녕군청]10.29(금) 08:35 창녕→남지→부산(사상), 16:00 부산(사상)→남지→창녕→대구 시외버스(우등) 이용자는 가까운 선별진료소에 검사바랍니다.</t>
+          <t>[안산시청]11월1일14시기준 확진자 38명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/xJu1H3C</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021/10/31 14:40:04</t>
+          <t>2021/11/01 14:30:08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>서울특별시 전체</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[서울시청] 10.19(화)~29(금) 서초구 소재 경부선 터미널 3층 꽃자재 상가(신반포로194 3층) 방문자는 코로나19 검사 받으시기 바랍니다. ☎120</t>
+          <t>[울산광역시] 10.24~10.31▲뉴옥천사우나(간판명-뉴옥천탕사우나헬스, 남구 화합로125번길 16, 삼산동, 소독완료) 남탕이용객은 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021/10/31 14:34:19</t>
+          <t>2021/11/01 14:18:44</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경상북도 영덕군</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[안산시청]10월31일14시기준 확진자 26명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yFEyhJ</t>
+          <t>[영덕군청] 10.30(토) 영덕→포항 무궁화호(10:20~10:54), 포항→영덕 무궁화호(13:22~13:56) 탑승객은 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021/10/31 14:09:22</t>
+          <t>2021/11/01 14:01:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 31일(일) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[사천시청] 11.1.(월) 14시 기준 확진자 9명(수도권관련1, 접촉자7, 타지역거주1) 발생 ▲의심증상시 즉시 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021/10/31 13:33:12</t>
+          <t>2021/11/01 14:00:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>충청북도 옥천군</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[옥천군청] 10.28.(목) 18:30~21:00 맛있는 오칠구포차(옥천읍)이용자는 관할보건소에서 코로나검사 요망. 선별진료소 공휴일 운영 09:00~16:00</t>
+          <t>[구미시청] 10/27(수)~10/30(토) 충칭훠궈마라탕(상사서로4길 21, 상모동) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021/10/31 13:25:09</t>
+          <t>2021/11/01 13:57:25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[사천시청] 10.24(일)~10.29(금) 장수복집(동서금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[강진군청]강진 19번 서울 거주 확진자 동선관련 19명 전원 음성▶상시 마스크착용,주기적 환기,적극적인 진단검사▶12~15세 및 60세 이상 추가접종 사전예약</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021/10/31 13:00:44</t>
+          <t>2021/11/01 13:24:14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[과천시청] 10월31일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[고흥군청] ② 고흥여객을 이용하신분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021/10/31 11:53:23</t>
+          <t>2021/11/01 13:22:28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[사천시청] 10.27(수)08:00 삼천포시외버스터미널-&gt;부산서부시외버스터미널 시외버스 탑승자께서는 보건소 선별진료소에서 검사바랍니다.(055-831-3636)</t>
+          <t>[고흥군청] 확진자 동선 관련 10.31(일)14:00(녹동터미널→풍양(죽시)고흥여객을 이용하신 분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021/10/31 11:32:25</t>
+          <t>2021/11/01 13:21:48</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>경상남도 창녕군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[창녕군청]10.31(일) 확진자2명 발생(창녕347~348/타지역접촉2)▷단계적 일상회복을 위한 방역수칙 준수▷마스크착용▷유증상시 코로나검사 받으시기 바랍니다.</t>
+          <t>[고흥군청] ② 10.30일(10:20~11:40) 도양읍 즐거운 내과 방문객은 녹동전통시장 특별무대 선별검사소에서 14시~17시까지 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021/10/31 11:20:37</t>
+          <t>2021/11/01 13:21:22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.31.(일) 11:00기준 신규확진자 62명 url.kr/odmvxu ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[창녕군청]11.1(월) 확진자1명 발생(창녕349/관내접촉1)▷단계적 일상회복을 위한백신접종 적극동참▷개인방역수칙 준수▷유증상시 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021/10/31 11:05:22</t>
+          <t>2021/11/01 11:31:03</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[부여군청] 10월31일 11시기준 확진자7명 발생【부여431~437자가격리 및 수동감시(접종완료)중 발생으로 지역전파 없음】감기증상시 코로나 검사 후 진료 바람</t>
+          <t>[고흥군청] ②10.29일 17:10(오천→녹동시장 입구)을 이용하신 분은 금일중 보건소 또는 금산 김일체육관에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021/10/31 11:02:34</t>
+          <t>2021/11/01 11:30:17</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>경상북도 전체</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[경상북도청] 10/22~10/25 제니스라이브(ZENITH)(포항시 남구 상도동 601-1)에 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[진천군청]▲10.31 코로나 확진자 3명(내국인1, 외국인2)▲실내외 마스크착용, 주기적 실내 환기, 증상발현시 즉시 진단검사받기 실천바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021/10/31 10:53:30</t>
+          <t>2021/11/01 11:25:33</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>전라북도 정읍시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[정읍시청]10.27(수)11:15~20:10,10.28(목)~10.29(금)9:30~20:30아양촌해물칼국수(시기동,소독완료)방문자는 선별진료소에서 검사바랍니다</t>
+          <t>[사천시청] 10.24.(일)~10.31.(일) 제일동물병원(동금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021/10/31 10:39:15</t>
+          <t>2021/11/01 11:11:09</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[아산시청]10월 30일 확진자 13명(지인 7, 가족 5, 조사중 1) / 타지역 방문, 모임 자제 및 증상 발현 시 즉시 선별진료소에서 검사 바랍니다.</t>
+          <t>[고흥군청] 확진자 동선 관련 10/27(수) 08:00~11:00 도양읍 우주사우나(구 봉암목욕탕) 여탕 이용객은 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021/10/31 10:36:24</t>
+          <t>2021/11/01 11:08:11</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[전주시청]10.31(일) 현재기준 6명 발생(전일 1명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[김제시청] 11.1.(월) 11시기준 확진자 1명 발생(자가격리중, 동선없음)/유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021/10/31 10:35:45</t>
+          <t>2021/11/01 11:04:46</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.30 코로나 확진자 6명(내국인2, 외국인4)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[부여군청] 11월1일 11시기준 확진자3명 발생【부여438~440자가격리 및 수동감시(접종완료)중 발생으로 지역전파 없음】 감기증상시 코로나 검사 후 진료 바람</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021/10/31 10:33:14</t>
+          <t>2021/11/01 10:59:51</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[강원도청] 10.30.(토) 도내 코로나19 확진 23명(원주11 홍천5 춘천2 태백2 횡성2 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부</t>
+          <t>[용인시청]11월1일 0시 기준 확진자 23명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021/10/31 10:30:27</t>
+          <t>2021/11/01 10:53:58</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -928,184 +928,184 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[용인시청]10월31일 0시 기준 확진자 28명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[용인시청] 10월 25일(월)~29일(금) 기흥구 신갈동 소재 용인운전면허 기능시험응시자(방문자)는 유증상시 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021/10/31 10:25:15</t>
+          <t>2021/11/01 10:18:47</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[창원시청] 마산역 임시선별검사소 운영종료알림(11.1부터) ▲3개 보건소(09:00~18:00), 창원종합버스터미널(11:00~20:00) 정상운영</t>
+          <t>[사천시청] 10.30(토)~10.31(일) 장수복집(동서금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021/10/31 10:06:03</t>
+          <t>2021/11/01 10:15:57</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.27.(수) ~ 10.30.(토) 앗싸로또판매점(남구 백운로 15-1, 백운동)을 방문하신 분은 거주지 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[완주군청] 11월 1일(월) 0시 기준 확진자 2명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고 / 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021/10/31 10:01:22</t>
+          <t>2021/11/01 10:09:58</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>충청북도 영동군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[영동군청] 10. 31.(일) 기준 확진자 1명 발생. 이동 동선 및 접촉자 파악 중입니다. 타 지역 방문 자제 및 증상 발현 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[사천시청]10.26(화)~10.29(금) 잠언의료기기(선구동 소재)방문자는 삼천포보건센터 임시선별진료소에서 검사 바랍니다. ▲모임자제, 진단검사에 동참바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021/10/31 10:00:50</t>
+          <t>2021/11/01 10:08:36</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 31일 0시 기준, 수원 확진자 52명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사 바랍니다. me2.kr/ffgzf</t>
+          <t>[전주시청]11.1(월) 현재기준 전일 8명 발생 / (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021/10/31 09:54:29</t>
+          <t>2021/11/01 10:00:45</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[보은군청]10. 31.(일) 확진자 1명 발생 ▲ 10.20.(수) ~ 10.26.(화) 복신경외과의원 방문자는 즉시 보건소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[수원시청] 11월 1일 0시 기준, 수원 확진자 44명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/crhgw</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021/10/31 09:53:21</t>
+          <t>2021/11/01 09:48:31</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>경상북도 문경시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[문경시청] 10.24.(일) ~10.27.(수) 네네치킨(문경시 점촌로8)을 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[창원시청] 10.31. 확진자 9명 발생 ▲의창2,성산1,회원1,진해2,병원관련3 △선별검사소-창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021/10/31 09:42:30</t>
+          <t>2021/11/01 09:13:44</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[창원시청] 10.30. 확진자 48명 발생 ▲의창3,성산1,회원2,진해1,병원관련41 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[금산군청] 10.23(토) / 10.24(일) / 10.26(화) / 텐코인 노래연습장 방문한 분은 코로나 19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021/10/31 09:40:17</t>
+          <t>2021/11/01 09:10:42</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>전라남도 곡성군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[곡성군청]10.31(일) 09시 기준 확진자 1명 발생(조사중). 유증상자 및 타지역 방문자는 증상 관계없이 선별진료소에서 검사바랍니다.(09:00~17:00)</t>
+          <t>[사천시청] 11. 1.(월) 삼천포보건센터 임시선별진료소 금일17:00까지 운영 ▲의심 증상시 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021/10/31 09:38:05</t>
+          <t>2021/11/01 09:06:07</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[논산시청] 10월21일~29일 취암동 1056-14, 서원빌 401호에서 마사지를 받으신 분은 코로나 검사 받으시고 논산시보건소로 연락(746-6672)바랍니다</t>
+          <t>[양주시청] 11월 01일 00시 기준 확진자 7명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021/10/31 09:34:05</t>
+          <t>2021/11/01 08:56:37</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 7명[타시민2, 천안시민5] ▶ 환절기 감기증상 발현 시 코로나 의심하고 의료기관 방문 전 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[고흥군청] 10.31(일) 24시기준 확진자 13명 발생 역학조사 중 증상 의심 되면 외출자제하시고 즉시 보건소 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021/10/31 09:09:11</t>
+          <t>2021/11/01 08:45:24</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1115,116 +1115,116 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[고흥군청]10.30(토) 24시기준 추가 확진자 8 발생 역학조사중,선별검사소운영 금산면금일체육관 09:00~17:00 운영,증상유뮤 관계없이 검사 바랍니다.</t>
+          <t>[고흥군청]11.1(월)10시 또는 14시부터 금산전체마을에서 코로나 검사를 실시합니다. 주민들께서는 마을회관에서 꼭 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021/10/31 09:06:43</t>
+          <t>2021/11/01 08:19:27</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[전남도청] 10.30.24시 기준 확진자 30명(목포5,여수1,고흥21,강진1,영암1,무안1) ▲주말 행사·모임 자제 ▲증상 의심 즉시 보건소 검사 바랍니다.</t>
+          <t>[고흥군청]확진자 동선 관련 10/26,28,29 9시부터 12시사이 대흥여객(오천→녹동,녹동→오천)을 이용하신 분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021/10/31 09:02:09</t>
+          <t>2021/11/01 08:15:12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[남원시청] ▲ 10.31(일) 08시 기준 확진자 9명 발생(남원 209~217번)/기확진자 접촉2, 자가격리중7 ▲ 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[목포시청]10.31.24시기준 확진자 2명발생(확진자접촉 2) ▲11/1부터 사적모임 12인까지 가능 ▲발열, 인후통 등 의심증상 발현 시 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021/10/31 09:01:27</t>
+          <t>2021/11/01 08:12:59</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 31일 00시기준 확진자 24명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[순천시청] 10.31. 24시기준 확진자 1명발생(해외입국) √단계적 일상회복을위한 ① 실내외 마스크착용 ② 주기적 환기 ③ 적극적 진단검사 실천 부탁드립니다</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021/10/31 08:29:19</t>
+          <t>2021/11/01 08:12:17</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[목포시청]10.30.24시기준 확진자5명(자가격리중외국인2,가족접촉2,타지역접촉1) ▲발열,기침등 유증상발현으로 의료기관 방문시 사전 진단검사 받으시기 바랍니다</t>
+          <t>[여수시청]10.31.24:00 기준 총1명 발생(타지역 방문 확진자 접촉)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021/10/31 08:18:39</t>
+          <t>2021/10/31 19:07:25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[여수시청] 10.30.24:00 기준 총1명 발생(자가격리중)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[홍성군청]10월31일(일) 19시 기준 확진자 6명(홍성311~316번)발생. 자가격리중 2명, 자발적검사 2명, 타지역거주자 2명. 역학조사 및 방역소독 완료</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021/10/30 20:02:29</t>
+          <t>2021/10/31 18:40:04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>전라북도 정읍시</t>
+          <t>서울특별시 전체</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[정읍시청1]10.30(토) 20시기준 정읍173번 확진자 발생 / 카카오톡채널 참고 / 유증상시 보건소에서 검사바랍니다. pf.kakao.com/_axcMvK</t>
+          <t>[서울시청] 10.19(화)~28(목) 중랑구 소재 상봉아트홀 댄스학원(망우로 328) 방문자는 가까운 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎120</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021/10/30 19:16:05</t>
+          <t>2021/10/31 18:27:51</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1234,252 +1234,252 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[남양주시청]10.30.(토) 코로나19 확진자 37명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tehh 증상의심시 코로나19 검사받으세요.</t>
+          <t>[남양주시청]10.31.(일) 코로나19 확진자 33명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tevx 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021/10/30 18:27:55</t>
+          <t>2021/10/31 18:01:11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[논산시청] 10월30일 확진자 3명(내국인1,외국인2/타지역2,조사중1)발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
+          <t>[안성시청]10.31.코로나19 확진자9명(자발적검사7,확진자접촉1,자가격리1)발생. 역학조사,방역조치 완료anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021/10/30 18:01:00</t>
+          <t>2021/10/31 17:11:04</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 30일 17시 기준 확진자 24명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[사천시청]10.26.(화)~10.29.(금)09:00~15:00잠언의료기기(선구동 소재)방문자는 18:30까지 삼천포보건센터임시선별진료소에서검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021/10/30 17:27:10</t>
+          <t>2021/10/31 17:07:06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[창원시청] 10.27.(수) 09:50~11:40 경창탕 남탕(성산구 상남로 67) 이용자 관할 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[충주시청] 10월 31일 확진자 5명 발생(선행확진자의 접촉자)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021/10/30 17:13:37</t>
+          <t>2021/10/31 17:03:05</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 30일 확진자 7명 발생(선행 확진자 접촉2, 자가격리중3, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[광주시청] 10월 31일 17시 기준 확진자 12명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021/10/30 17:03:49</t>
+          <t>2021/10/31 16:51:53</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>전라남도 화순군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[화순군청]10/25(월)12시경 금강민물식당(화순읍 칠충로145)에서 화순사랑상품권 3만원 결제하신 분은 거주지 보건소에서 코로나진단검사를 받으시기 바랍니다</t>
+          <t>[사천시청]10.26.(화)~10.29.(금) 09:00~15:00 잠언의료기기(선구동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021/10/30 17:00:55</t>
+          <t>2021/10/31 15:53:33</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[무안군청] 10.30.(토) 17시기준 확진자 1명발생(외국인,격리중확진)▲외국인 고용사업장 종사자 2주1회 검사▲미등록 외국인 여권 없이 예방접종 가능</t>
+          <t>[포항시청] 10.24(일) 17:00~21:00 무카타부페-타이마트(상도동 629-3) 이용자는 보건소에서 검사바랍니다. ※검사시 KF94 마스크 착용바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021/10/30 15:44:31</t>
+          <t>2021/10/31 15:29:15</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[진천군청]10.29 코로나 확진자5명(내국인3,외국인2)발생.▲손씻기,마스크착용 등 방역수칙 준수바랍니다.▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[남양주시청]10.22(금)~10.27(수) 참소망교회(오남읍 진건오남로 896번길 24) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021/10/30 15:17:04</t>
+          <t>2021/10/31 15:14:18</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>인천광역시 미추홀구</t>
+          <t>경상남도 거제시</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[미추홀구청]10/17(일),20(수),24(일),27(수) 주안할렐루야교회(미추홀구 구월로17) 방문자는 31(일) 오전중 거주지보건소에서 코로나19 검사바람</t>
+          <t>[거제시청] 코로나19확진자 총 5명 발생(확진자접촉3, 감염경로 조사중2)/ 기침, 발열 등 유증상시 즉시 선별진료소에서 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021/10/30 15:12:55</t>
+          <t>2021/10/31 15:13:24</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[창원시청]▲10.27(수)9:40~12:00 ▲10.29(금)9:50~11:00 소죽도찜질방 남탕(진해구 천자로 165,방역완료) 방문자 선별진료소 검사바랍니다</t>
+          <t>[포항시청] 10.30(토) 11:30~13:20 포항역 3층 푸드코트(흥해읍 이인리 137-1) 이용자는 보건소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021/10/30 15:08:48</t>
+          <t>2021/10/31 15:07:25</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[진주시청] 30일 15시 기준 확진자 2명(타지역 확진자의 접촉자 1명, 시민무료 선제검사 1명)발생. 상세 현황은 시 누리집 참조바랍니다.</t>
+          <t>[창녕군청]10.29(금) 08:35 창녕→남지→부산(사상), 16:00 부산(사상)→남지→창녕→대구 시외버스(우등) 이용자는 가까운 선별진료소에 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2021/10/30 14:58:20</t>
+          <t>2021/10/31 14:40:04</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>서울특별시 전체</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[금산군청]10.23(토)20:40-22:00, 10.24(일)16:00-19:00, 10.26(화)16:00-18:00 텐코인 노래연습장 방문한 분 검사바랍니다</t>
+          <t>[서울시청] 10.19(화)~29(금) 서초구 소재 경부선 터미널 3층 꽃자재 상가(신반포로194 3층) 방문자는 코로나19 검사 받으시기 바랍니다. ☎120</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021/10/30 14:56:08</t>
+          <t>2021/10/31 14:34:19</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[남양주시청]10.22.(금)~10.29.(금) 외가집밥상 기사식당(남양주시 화도읍 북한강로 1412) 방문자는 가까운 보건소에서 코로나19 검사 받으세요.</t>
+          <t>[안산시청]10월31일14시기준 확진자 26명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yFEyhJ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021/10/30 14:30:55</t>
+          <t>2021/10/31 14:09:22</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[안산시청]10월30일 14시기준 확진자 48명 발생 ▲발열,기침,호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/ynRGLX</t>
+          <t>[완주군청] 10월 31일(일) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2021/10/30 14:13:26</t>
+          <t>2021/10/31 13:33:12</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>충청북도 옥천군</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[음성군청] 10.30.확진자 4명(내국1, 외국3)발생▲동선 및 접촉자 조사중▲타지역방문,모임,지인초청 자제▲유증상시 주민들께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[옥천군청] 10.28.(목) 18:30~21:00 맛있는 오칠구포차(옥천읍)이용자는 관할보건소에서 코로나검사 요망. 선별진료소 공휴일 운영 09:00~16:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021/10/30 14:00:13</t>
+          <t>2021/10/31 13:25:09</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1489,201 +1489,201 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[사천시청]10.30.(토) 14시 기준 확진자 3명(조사 중 2명, 타지역거주자 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[사천시청] 10.24(일)~10.29(금) 장수복집(동서금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2021/10/30 13:40:18</t>
+          <t>2021/10/31 13:00:44</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>서울특별시 서초구</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[서초구청]10.19(화)~10.29(금) 경부선 터미널 3층 꽃자재(신반포로194 3층) 방문자는 선별진료소에서 코로나19 검사바랍니다. seocho.go.kr</t>
+          <t>[과천시청] 10월31일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2021/10/30 13:35:13</t>
+          <t>2021/10/31 11:53:23</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[대구광역시]아크(동구 반야월북로 158, 2층) 10/20~23 방문하신 분은 두류·국채보상공원·대구스타디움 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[사천시청] 10.27(수)08:00 삼천포시외버스터미널-&gt;부산서부시외버스터미널 시외버스 탑승자께서는 보건소 선별진료소에서 검사바랍니다.(055-831-3636)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2021/10/30 13:00:11</t>
+          <t>2021/10/31 11:32:25</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[과천시청] 10월30일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[창녕군청]10.31(일) 확진자2명 발생(창녕347~348/타지역접촉2)▷단계적 일상회복을 위한 방역수칙 준수▷마스크착용▷유증상시 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2021/10/30 12:51:45</t>
+          <t>2021/10/31 11:20:37</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>인천광역시 부평구</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[부평구청] 10/25(월) 텐코인노래방 (부평구 충선로203번길 12 뉴존프라자 3층, 삼산2동) 방문자는 가까운 선별검사소에서 코로나검사 바랍니다.</t>
+          <t>[안양시청]▲10.31.(일) 11:00기준 신규확진자 62명 url.kr/odmvxu ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021/10/30 12:44:22</t>
+          <t>2021/10/31 11:05:22</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[고흥군청] 10.30(토) 확진자 13명 발생 역학조사 중 외출 및 지인 모임 자제 외국인 및 고용사업주는 보건소 검사받으시기 바랍니다.</t>
+          <t>[부여군청] 10월31일 11시기준 확진자7명 발생【부여431~437자가격리 및 수동감시(접종완료)중 발생으로 지역전파 없음】감기증상시 코로나 검사 후 진료 바람</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021/10/30 12:29:48</t>
+          <t>2021/10/31 11:02:34</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>경상북도 전체</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[강진군청] 강진 19번 확진자 발생(서울 거주자 29일 강진 방문) 동선 파악 등 역학조사 중. 타지역 방문 자제 및 의심증상 시 검사바랍니다.</t>
+          <t>[경상북도청] 10/22~10/25 제니스라이브(ZENITH)(포항시 남구 상도동 601-1)에 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2021/10/30 12:16:26</t>
+          <t>2021/10/31 10:53:30</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[보성군]10.29.(금) 확진자 2명 발생(타지역 확진자 접촉)▲주말외출·모임자제▲백신접종을 완료했더라도 마스크착용, 유증상시 검사등 방역수칙을 잘 지켜주세요!</t>
+          <t>[정읍시청]10.27(수)11:15~20:10,10.28(목)~10.29(금)9:30~20:30아양촌해물칼국수(시기동,소독완료)방문자는 선별진료소에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2021/10/30 12:00:04</t>
+          <t>2021/10/31 10:39:15</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[전남도청] 전국 √요양시설√병원√학교 등에서 집단발생▲고위험시설(요양시설,병원) 방문 및 면회자제▲핼러윈데이,축제,행사,모임 자제 및 유증상시 검사 꼭 받으세요</t>
+          <t>[아산시청]10월 30일 확진자 13명(지인 7, 가족 5, 조사중 1) / 타지역 방문, 모임 자제 및 증상 발현 시 즉시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2021/10/30 11:50:10</t>
+          <t>2021/10/31 10:36:24</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[부여군청] 10월30일 11시 기준 확진자 6명 발생 【부여425~430/자가격리 학생4, 수동감시2】 감기증상 시 코로나 검사 후 진료를 받으시기 바랍니다.</t>
+          <t>[전주시청]10.31(일) 현재기준 6명 발생(전일 1명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2021/10/30 11:25:35</t>
+          <t>2021/10/31 10:35:45</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.30.0시 기준 확진자 12명 중 외국인9명. 파키스탄 확진자 다수 발생. 사업장, 농장 등 소속외국인은 코로나 검사를 꼭 받으시기 바랍니다.</t>
+          <t>[진천군청]▲10.30 코로나 확진자 6명(내국인2, 외국인4)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2021/10/30 11:25:16</t>
+          <t>2021/10/31 10:33:14</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.20(수)~10.27(수) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 증상유무 상관없이 선별진료소에서 필히 검사 받으시기 바랍니다.</t>
+          <t>[강원도청] 10.30.(토) 도내 코로나19 확진 23명(원주11 홍천5 춘천2 태백2 횡성2 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2021/10/30 11:01:48</t>
+          <t>2021/10/31 10:30:27</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1693,65 +1693,65 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[용인시청]10월30일 0시 기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[용인시청]10월31일 0시 기준 확진자 28명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2021/10/30 10:51:00</t>
+          <t>2021/10/31 10:25:15</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 30일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[창원시청] 마산역 임시선별검사소 운영종료알림(11.1부터) ▲3개 보건소(09:00~18:00), 창원종합버스터미널(11:00~20:00) 정상운영</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2021/10/30 10:45:20</t>
+          <t>2021/10/31 10:06:03</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/22(금)~10/28(목) 싱글앤싱글(동수송2길 19) 방문자는 보건소 선별검사(09시~18시) 바랍니다. ▲10/29(금) 검사자 제외</t>
+          <t>[광주광역시] 10.27.(수) ~ 10.30.(토) 앗싸로또판매점(남구 백운로 15-1, 백운동)을 방문하신 분은 거주지 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2021/10/30 10:26:09</t>
+          <t>2021/10/31 10:01:22</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>충청북도 영동군</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[강원도청] 10.29.(금) 도내 코로나19 확진 25명(원주13,삼척5,홍천3,춘천1,강릉1,태백1,평창1) ▶접촉의심 및 감기증상 시 즉시검사 당부 드림</t>
+          <t>[영동군청] 10. 31.(일) 기준 확진자 1명 발생. 이동 동선 및 접촉자 파악 중입니다. 타 지역 방문 자제 및 증상 발현 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2021/10/30 10:17:18</t>
+          <t>2021/10/31 10:00:50</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1761,150 +1761,150 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 30일 0시 기준, 수원 확진자 61명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/5z8t3</t>
+          <t>[수원시청] 10월 31일 0시 기준, 수원 확진자 52명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사 바랍니다. me2.kr/ffgzf</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2021/10/30 10:08:30</t>
+          <t>2021/10/31 09:54:29</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>강원도 삼척시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[삼척시청]10.27~28 중앙시장길 68-4 지하1층 ‘봉자클럽’이용자는 보건소 선별진료소에서 금일 15시까지 코로나 검사를 받으시기 바랍니다☎570-4649</t>
+          <t>[보은군청]10. 31.(일) 확진자 1명 발생 ▲ 10.20.(수) ~ 10.26.(화) 복신경외과의원 방문자는 즉시 보건소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2021/10/30 10:06:13</t>
+          <t>2021/10/31 09:53:21</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경상북도 문경시</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[전주시청]10.30(토) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[문경시청] 10.24.(일) ~10.27.(수) 네네치킨(문경시 점촌로8)을 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2021/10/30 09:37:38</t>
+          <t>2021/10/31 09:42:30</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[의정부시청]10.23.(토), 10.25.(월) 정다운한식뷔페(산곡동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[창원시청] 10.30. 확진자 48명 발생 ▲의창3,성산1,회원2,진해1,병원관련41 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2021/10/30 09:31:29</t>
+          <t>2021/10/31 09:40:17</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>전라남도 곡성군</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲29일 도내 확진자 46명 발생</t>
+          <t>[곡성군청]10.31(일) 09시 기준 확진자 1명 발생(조사중). 유증상자 및 타지역 방문자는 증상 관계없이 선별진료소에서 검사바랍니다.(09:00~17:00)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2021/10/30 09:30:28</t>
+          <t>2021/10/31 09:38:05</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>충청남도 서천군</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[서천군청] 10.30.(토) 09:00기준 신규확진자 1명 발생(타 지역 거주자 방문 검사) ▲ 우리군 이동동선 및 접촉자 없습니다.</t>
+          <t>[논산시청] 10월21일~29일 취암동 1056-14, 서원빌 401호에서 마사지를 받으신 분은 코로나 검사 받으시고 논산시보건소로 연락(746-6672)바랍니다</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2021/10/30 09:26:33</t>
+          <t>2021/10/31 09:34:05</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[창원시청]10.29.확진자139명 발생 ▲의창1,성산2,합포5,회원5,진해4,타지역1,격리중3,병원관련118 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[천안시청] 확진자 7명[타시민2, 천안시민5] ▶ 환절기 감기증상 발현 시 코로나 의심하고 의료기관 방문 전 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2021/10/30 09:11:04</t>
+          <t>2021/10/31 09:09:11</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.21(목)~10.29(금) 가톨릭 광주사회복지회 안셀모의 집(외국인 노동자 쉼터, 동구 동계천로 129-1, 동명동) 방문자는 검사 바랍니다</t>
+          <t>[고흥군청]10.30(토) 24시기준 추가 확진자 8 발생 역학조사중,선별검사소운영 금산면금일체육관 09:00~17:00 운영,증상유뮤 관계없이 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2021/10/30 09:07:39</t>
+          <t>2021/10/31 09:06:43</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[목포시청]10.29(금) 24시 기준, 확진자 1명(유증상자1) 발생 ▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
+          <t>[전남도청] 10.30.24시 기준 확진자 30명(목포5,여수1,고흥21,강진1,영암1,무안1) ▲주말 행사·모임 자제 ▲증상 의심 즉시 보건소 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2021/10/30 08:58:51</t>
+          <t>2021/10/31 09:02:09</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1914,320 +1914,320 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[남원시청] 타지역 확진자 동선 관련 ▲ 10.22.(금)12:30~13:30, 남원이조갈비(남원시 향단로 18) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
+          <t>[남원시청] ▲ 10.31(일) 08시 기준 확진자 9명 발생(남원 209~217번)/기확진자 접촉2, 자가격리중7 ▲ 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2021/10/30 08:57:17</t>
+          <t>2021/10/31 09:01:27</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.30.(토) 전일확진자 5명 발생(남원 204~208번)/기확진자 접촉3, 자가격리중2▲타지역 방문자제 및 유증상시 즉시 검사 받으시기바랍니다.</t>
+          <t>[양주시청] 10월 31일 00시기준 확진자 24명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2021/10/30 08:50:56</t>
+          <t>2021/10/31 08:29:19</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 30일 00시기준 확진자 21명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[목포시청]10.30.24시기준 확진자5명(자가격리중외국인2,가족접촉2,타지역접촉1) ▲발열,기침등 유증상발현으로 의료기관 방문시 사전 진단검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2021/10/30 08:49:41</t>
+          <t>2021/10/31 08:18:39</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[무안군청] 10.30.(토) 08시30분기준 확진자 1명발생(타지역접촉) ▲발열·기침 등 의심증상 발현 시 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[여수시청] 10.30.24:00 기준 총1명 발생(자가격리중)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2021/10/30 08:43:38</t>
+          <t>2021/10/30 20:02:29</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[진도군청]10.29(금) 24시 기준, 확진 2명(역학조사중)▲초, 중학생 지속발생▲아프면 검사받고 집에서 쉬기√주말 모임·행사, 핼러윈데이 파티 자제바랍니다</t>
+          <t>[정읍시청1]10.30(토) 20시기준 정읍173번 확진자 발생 / 카카오톡채널 참고 / 유증상시 보건소에서 검사바랍니다. pf.kakao.com/_axcMvK</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2021/10/29 20:01:43</t>
+          <t>2021/10/30 19:16:05</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>경상북도 청도군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[청도군청]청도원탕(청도군 화양읍 남성현로 504) 10/25.(08:00~11:00)방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
+          <t>[남양주시청]10.30.(토) 코로나19 확진자 37명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tehh 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2021/10/29 18:31:37</t>
+          <t>2021/10/30 18:27:55</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[홍성군청]10월29일(금) 18시 기준 확진자 1명(홍성307번) 발생. 증상발현으로 검사결과 확진. 역학조사 및 방역소독 완료</t>
+          <t>[논산시청] 10월30일 확진자 3명(내국인1,외국인2/타지역2,조사중1)발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2021/10/29 18:21:44</t>
+          <t>2021/10/30 18:01:00</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[남양주시청]10.29.(금) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/te0g 증상의심시 코로나19 검사받으세요.</t>
+          <t>[광주시청] 10월 30일 17시 기준 확진자 24명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2021/10/29 18:12:54</t>
+          <t>2021/10/30 17:27:10</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>전라남도 함평군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[함평군청] 확진자 관련 10.23.(토) 13:10~13:50 함평읍 대흥식당 방문자는 보건소 또는 황소주차장에서 코로나 검사 받으시기 바랍니다.(시설소독완료)</t>
+          <t>[창원시청] 10.27.(수) 09:50~11:40 경창탕 남탕(성산구 상남로 67) 이용자 관할 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2021/10/29 18:01:40</t>
+          <t>2021/10/30 17:13:37</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[논산시청] 10월29일 확진자 3명(내국인3/관내1,타지역1,조사중1) 발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
+          <t>[충주시청] 10월 30일 확진자 7명 발생(선행 확진자 접촉2, 자가격리중3, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2021/10/29 18:00:31</t>
+          <t>2021/10/30 17:03:49</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[안성시청]10.29.코로나19 확진자4명(자가격리2,동반입소자1,자발적검사1)발생.역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[화순군청]10/25(월)12시경 금강민물식당(화순읍 칠충로145)에서 화순사랑상품권 3만원 결제하신 분은 거주지 보건소에서 코로나진단검사를 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2021/10/29 17:51:18</t>
+          <t>2021/10/30 17:00:55</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[진도군청]확진자 동선▲진도한국병원 10.27(수)08:37~09:20▲진도읍 샹떼피시방 10.27(수)16시~18시▲방문자는 보건소 선별진료소에서 검사바랍니다</t>
+          <t>[무안군청] 10.30.(토) 17시기준 확진자 1명발생(외국인,격리중확진)▲외국인 고용사업장 종사자 2주1회 검사▲미등록 외국인 여권 없이 예방접종 가능</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2021/10/29 17:25:19</t>
+          <t>2021/10/30 15:44:31</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 29일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[진천군청]10.29 코로나 확진자5명(내국인3,외국인2)발생.▲손씻기,마스크착용 등 방역수칙 준수바랍니다.▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2021/10/29 17:02:01</t>
+          <t>2021/10/30 15:17:04</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>인천광역시 미추홀구</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 29일 17시 기준 신규확진 4명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[미추홀구청]10/17(일),20(수),24(일),27(수) 주안할렐루야교회(미추홀구 구월로17) 방문자는 31(일) 오전중 거주지보건소에서 코로나19 검사바람</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2021/10/29 17:00:12</t>
+          <t>2021/10/30 15:12:55</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[중대본] 10.17~10.27 서울 중구 명동7길 18-1 '예지식당' 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다(☎120,1339)</t>
+          <t>[창원시청]▲10.27(수)9:40~12:00 ▲10.29(금)9:50~11:00 소죽도찜질방 남탕(진해구 천자로 165,방역완료) 방문자 선별진료소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2021/10/29 16:30:18</t>
+          <t>2021/10/30 15:08:48</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>경상남도 거제시</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[거제시청] 코로나19 확진자 총22명 발생(확진자접촉 1, 타지역확진자접촉 21)/ 기침, 발열 등 유증상시 즉시 가까운 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[진주시청] 30일 15시 기준 확진자 2명(타지역 확진자의 접촉자 1명, 시민무료 선제검사 1명)발생. 상세 현황은 시 누리집 참조바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2021/10/29 16:24:25</t>
+          <t>2021/10/30 14:58:20</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[중대본]10.13~10.26 경기 남양주시 진접읍 양진로962 2층 '롯데택배 서울북부지점' 근무자는 보건소에서 코로나검사를 받으시기바랍니다(☎120,1339)</t>
+          <t>[금산군청]10.23(토)20:40-22:00, 10.24(일)16:00-19:00, 10.26(화)16:00-18:00 텐코인 노래연습장 방문한 분 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2021/10/29 15:47:33</t>
+          <t>2021/10/30 14:56:08</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[포항시청]10.28 305번버스 상대지구대정류장15:47→남구보건소정류장15:55 남구보건소정류장16:09→남부시장정류장16:23 탑승객은 보건소 검사바랍니다</t>
+          <t>[남양주시청]10.22.(금)~10.29.(금) 외가집밥상 기사식당(남양주시 화도읍 북한강로 1412) 방문자는 가까운 보건소에서 코로나19 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2021/10/29 15:34:52</t>
+          <t>2021/10/30 14:30:55</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>경상남도 거창군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[거창군청]타지역 확진자 동선 관련 10. 20.(수) 17:00 거창출발→서울남부도착 버스탑승자께서는 보건소 선별진료소에서 검사바랍니다. 055-940-8335</t>
+          <t>[안산시청]10월30일 14시기준 확진자 48명 발생 ▲발열,기침,호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/ynRGLX</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2021/10/29 15:02:50</t>
+          <t>2021/10/30 14:13:26</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2237,439 +2237,439 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[음성군청]10월 29일 확진자 5명(내국인3,외국인2)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[음성군청] 10.30.확진자 4명(내국1, 외국3)발생▲동선 및 접촉자 조사중▲타지역방문,모임,지인초청 자제▲유증상시 주민들께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2021/10/29 14:43:00</t>
+          <t>2021/10/30 14:00:13</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[안산시청]10월29일 14시기준 확진자 74명 발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z3DGp</t>
+          <t>[사천시청]10.30.(토) 14시 기준 확진자 3명(조사 중 2명, 타지역거주자 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2021/10/29 14:30:52</t>
+          <t>2021/10/30 13:40:18</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>경상북도 경산시</t>
+          <t>서울특별시 서초구</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[경산시][일자수정] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/26 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
+          <t>[서초구청]10.19(화)~10.29(금) 경부선 터미널 3층 꽃자재(신반포로194 3층) 방문자는 선별진료소에서 코로나19 검사바랍니다. seocho.go.kr</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2021/10/29 14:19:20</t>
+          <t>2021/10/30 13:35:13</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[창원시청]22(금)08:40~15:36/25(월)08:40~11:27 정태기내과(의창구동읍로9,방역완료)방문자는 선별진료소에서 검사바랍니다(28일이후검사자제외)</t>
+          <t>[대구광역시]아크(동구 반야월북로 158, 2층) 10/20~23 방문하신 분은 두류·국채보상공원·대구스타디움 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2021/10/29 14:01:55</t>
+          <t>2021/10/30 13:00:11</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>충청남도 청양군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[청양군청] 10월 29일 기준 확진자 1명 발생. 청양99번(타지역 확진자 접촉, 접촉자 파악 완료 검사 중) ▲ 유증상 시 코로나19 검사 바랍니다.</t>
+          <t>[과천시청] 10월30일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2021/10/29 13:59:12</t>
+          <t>2021/10/30 12:51:45</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>인천광역시 부평구</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[진도군청]확진자 동선 안내▲진도읍 샹떼 피시방 10.28(목) 16:00~18:00 방문자는 보건소 선별진료소에서 검사바랍니다▲주말 행사·모임 자제 바랍니다</t>
+          <t>[부평구청] 10/25(월) 텐코인노래방 (부평구 충선로203번길 12 뉴존프라자 3층, 삼산2동) 방문자는 가까운 선별검사소에서 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2021/10/29 13:55:20</t>
+          <t>2021/10/30 12:44:22</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[포항시청] 10.25(월) 12:00 ~ 10.28(목) 06:00 궁타이마사지(상도동 615-3번지) 해당기간 방문자는 보건소 검사바랍니다.</t>
+          <t>[고흥군청] 10.30(토) 확진자 13명 발생 역학조사 중 외출 및 지인 모임 자제 외국인 및 고용사업주는 보건소 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2021/10/29 13:44:25</t>
+          <t>2021/10/30 12:29:48</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.21(목)~10.24(일) GNS 강남스타일(태국음식점, 서구 상무시민로 130, 7층, 치평동) 방문자는 거주지 보건소에서 검사 바랍니다.</t>
+          <t>[강진군청] 강진 19번 확진자 발생(서울 거주자 29일 강진 방문) 동선 파악 등 역학조사 중. 타지역 방문 자제 및 의심증상 시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2021/10/29 11:09:29</t>
+          <t>2021/10/30 12:16:26</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[나주시청] 10. 29. 09시 기준. 확진자 1명 발생. 동선·접촉자 파악완료. 외국인 접종시급. 코로나19 증상(기침·발열 등) 발현시 지체없이 검사 요망.</t>
+          <t>[보성군]10.29.(금) 확진자 2명 발생(타지역 확진자 접촉)▲주말외출·모임자제▲백신접종을 완료했더라도 마스크착용, 유증상시 검사등 방역수칙을 잘 지켜주세요!</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2021/10/29 11:05:17</t>
+          <t>2021/10/30 12:00:04</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[강화군청]10월25일(월)과 10월27일(수) 강화인삼센터 방문자께서는 가까운 선별진료소에서 코로나19 진단 검사 받으시길 바랍니다.</t>
+          <t>[전남도청] 전국 √요양시설√병원√학교 등에서 집단발생▲고위험시설(요양시설,병원) 방문 및 면회자제▲핼러윈데이,축제,행사,모임 자제 및 유증상시 검사 꼭 받으세요</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2021/10/29 11:03:01</t>
+          <t>2021/10/30 11:50:10</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>경상북도 경산시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[경산시] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/22 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
+          <t>[부여군청] 10월30일 11시 기준 확진자 6명 발생 【부여425~430/자가격리 학생4, 수동감시2】 감기증상 시 코로나 검사 후 진료를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2021/10/29 11:00:08</t>
+          <t>2021/10/30 11:25:35</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[용인시청]10월29일 0시기준 확진자 25명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[칠곡군청] 10.30.0시 기준 확진자 12명 중 외국인9명. 파키스탄 확진자 다수 발생. 사업장, 농장 등 소속외국인은 코로나 검사를 꼭 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2021/10/29 11:00:03</t>
+          <t>2021/10/30 11:25:16</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[전주시청]10.29(금) 현재기준 2명 발생(전일 21명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[칠곡군청] 10.20(수)~10.27(수) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 증상유무 상관없이 선별진료소에서 필히 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2021/10/29 10:46:34</t>
+          <t>2021/10/30 11:01:48</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[부여군청] 10월29일 10시 기준 확진자 3명 발생 【부여422~424/학생】 감기증상시(콧물, 목아픔, 두통 등) 코로나 검사 후 진료 받으시기 바랍니다.</t>
+          <t>[용인시청]10월30일 0시 기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2021/10/29 10:40:01</t>
+          <t>2021/10/30 10:51:00</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[강화군청]10월 25일(월), 10월 27일(수) 강화인삼센터(강화읍 알미골) 방문자는 가까운 선별진료소에서 코로나19 진단검사 받으시길 바랍니다.</t>
+          <t>[완주군청] 10월 30일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2021/10/29 10:37:39</t>
+          <t>2021/10/30 10:45:20</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[포항시청] 10.22(금)~10.25(월) ZENITH 제니스 라이브(상도동 601-1) 방문자는 가까운 보건소에 방문하여 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[군산시청] ▲10/22(금)~10/28(목) 싱글앤싱글(동수송2길 19) 방문자는 보건소 선별검사(09시~18시) 바랍니다. ▲10/29(금) 검사자 제외</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2021/10/29 10:29:50</t>
+          <t>2021/10/30 10:26:09</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>강원도 평창군</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[평창군청] 10.29일 평창군 확진자 1명(232번) 봉평면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
+          <t>[강원도청] 10.29.(금) 도내 코로나19 확진 25명(원주13,삼척5,홍천3,춘천1,강릉1,태백1,평창1) ▶접촉의심 및 감기증상 시 즉시검사 당부 드림</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2021/10/29 10:06:43</t>
+          <t>2021/10/30 10:17:18</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[부여군청]코로나19 군민행동요령 최근 학교,기업체 내 코로나 집단발생에 따른 지역확산은 없는 것으로 판단,감기증상시 코로나 검사후 진료받으시고 방역수칙 준수바람</t>
+          <t>[수원시청] 10월 30일 0시 기준, 수원 확진자 61명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/5z8t3</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2021/10/29 10:05:48</t>
+          <t>2021/10/30 10:08:30</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>강원도 삼척시</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[통영시청] 10.24(일) 11:00~13:30 안황스포츠센터(광도면 안정로 830) 목욕탕(여탕) 이용하신 분은 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[삼척시청]10.27~28 중앙시장길 68-4 지하1층 ‘봉자클럽’이용자는 보건소 선별진료소에서 금일 15시까지 코로나 검사를 받으시기 바랍니다☎570-4649</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2021/10/29 10:01:24</t>
+          <t>2021/10/30 10:06:13</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 29일 0시 기준, 수원 확진자 50명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/fwi9s</t>
+          <t>[전주시청]10.30(토) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2021/10/29 09:56:45</t>
+          <t>2021/10/30 09:37:38</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 29.(금) 확진자 5명 발생 ▲ 10.19.(화)~10.27.(수) 극동슈퍼 이용자는 인근 보건소에서 코로나검사 받으시기 바랍니다.</t>
+          <t>[의정부시청]10.23.(토), 10.25.(월) 정다운한식뷔페(산곡동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2021/10/29 09:51:20</t>
+          <t>2021/10/30 09:31:29</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[창원시청] 10.28. 확진자 18명 발생 ▲의창3,성산1,합포6,회원5,타지역3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲29일 도내 확진자 46명 발생</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2021/10/29 09:15:46</t>
+          <t>2021/10/30 09:30:28</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>충청남도 서천군</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[진도군청]10.29(금) 08시기준 2명 추가확진(초,중학생)▲선별이동검사소 안내√진도서초교 09:30~11:00√진도중학교 09:30~14:00까지 운영합니다</t>
+          <t>[서천군청] 10.30.(토) 09:00기준 신규확진자 1명 발생(타 지역 거주자 방문 검사) ▲ 우리군 이동동선 및 접촉자 없습니다.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2021/10/29 09:02:40</t>
+          <t>2021/10/30 09:26:33</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[고흥군청] 10.29(금) 확진자 1명 발생, 역학조사 중. 외출 및 지인모임을 자제하고, 마스크 상시 착용바라며, 의심증상시 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[창원시청]10.29.확진자139명 발생 ▲의창1,성산2,합포5,회원5,진해4,타지역1,격리중3,병원관련118 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2021/10/29 09:02:19</t>
+          <t>2021/10/30 09:11:04</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 29일 00시 기준 확진자 12명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[광주광역시] 10.21(목)~10.29(금) 가톨릭 광주사회복지회 안셀모의 집(외국인 노동자 쉼터, 동구 동계천로 129-1, 동명동) 방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2021/10/29 08:56:55</t>
+          <t>2021/10/30 09:07:39</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[남원시청] 관내 확진자 동선 관련▲10.24.(일) 09:00~18:00 행남자기(남원시 남문로 397) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
+          <t>[목포시청]10.29(금) 24시 기준, 확진자 1명(유증상자1) 발생 ▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2021/10/29 08:56:40</t>
+          <t>2021/10/30 08:58:51</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2679,99 +2679,99 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.29(금 08시기준 전일확진자 2명발생(남원 202~203번)/기확진자 접촉 ▲가을철 여행등 타지역방문 후 유증상시 즉시 검사받으시기 바랍니다.</t>
+          <t>[남원시청] 타지역 확진자 동선 관련 ▲ 10.22.(금)12:30~13:30, 남원이조갈비(남원시 향단로 18) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2021/10/29 08:55:32</t>
+          <t>2021/10/30 08:57:17</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 무안군,전라남도 보성군,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[전남도청] 10.28. 24시기준 확진 13명(목포4,순천2,나주1,화순1,강진1,영광2,진도1/해외1(구례))▲증상 의심되면 외출 자제하고 검사 먼저 받으세요</t>
+          <t>[남원시청]▲10.30.(토) 전일확진자 5명 발생(남원 204~208번)/기확진자 접촉3, 자가격리중2▲타지역 방문자제 및 유증상시 즉시 검사 받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2021/10/29 08:33:23</t>
+          <t>2021/10/30 08:50:56</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>전라남도 화순군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[화순군청] 10.28. 24시 기준 확진자 1명 발생(화순128번). 동선 소독 완료하고 접촉자 조사중입니다. ▶접종완료자도 의심증상 있으면 즉시 검사바랍니다.</t>
+          <t>[양주시청] 10월 30일 00시기준 확진자 21명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2021/10/28 19:48:50</t>
+          <t>2021/10/30 08:49:41</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[영광군청]10.28.(목) 18:00시 확진자 1명(영광 47번)추가발생.영광46번 가족으로 역학조사중. 접종 완료자도 의심 즉시 보건소에서 진단검사 바랍니다.</t>
+          <t>[무안군청] 10.30.(토) 08시30분기준 확진자 1명발생(타지역접촉) ▲발열·기침 등 의심증상 발현 시 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2021/10/28 19:25:43</t>
+          <t>2021/10/30 08:43:38</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>전라북도 고창군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[고창군청] 10.28.(목) 19:00 기준 ▶관내 확진자(고창 63번) 발생 ▶코로나19 의심 증상 시 검사 바랍니다.</t>
+          <t>[진도군청]10.29(금) 24시 기준, 확진 2명(역학조사중)▲초, 중학생 지속발생▲아프면 검사받고 집에서 쉬기√주말 모임·행사, 핼러윈데이 파티 자제바랍니다</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2021/10/28 19:23:48</t>
+          <t>2021/10/29 20:01:43</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경상북도 청도군</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 25.(월) ~ 10. 27.(수) 택시(충북35아 5064) 이용자는 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[청도군청]청도원탕(청도군 화양읍 남성현로 504) 10/25.(08:00~11:00)방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2021/10/28 19:00:34</t>
+          <t>2021/10/29 18:31:37</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2781,762 +2781,762 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[홍성군청]10월28일(목) 19시 기준 확진자 1명(홍성306번) 발생. 자가격리중 검사 결과 확진으로 접촉자 및 동선 없음</t>
+          <t>[홍성군청]10월29일(금) 18시 기준 확진자 1명(홍성307번) 발생. 증상발현으로 검사결과 확진. 역학조사 및 방역소독 완료</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2021/10/28 18:34:01</t>
+          <t>2021/10/29 18:21:44</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 28일 17시 기준 확진자 40명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[남양주시청]10.29.(금) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/te0g 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2021/10/28 18:18:32</t>
+          <t>2021/10/29 18:12:54</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[진도군청]안내드린 57번확진자 동선관련▲진도읍 락스(Rock’s) PC방 방문자께서는√보건소 선별진료소를 오늘밤 9시(21시)까지 연장운영하니 방문검사 바랍니다</t>
+          <t>[함평군청] 확진자 관련 10.23.(토) 13:10~13:50 함평읍 대흥식당 방문자는 보건소 또는 황소주차장에서 코로나 검사 받으시기 바랍니다.(시설소독완료)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2021/10/28 18:15:20</t>
+          <t>2021/10/29 18:01:40</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[남양주시청]10.28.(목) 코로나19 확진자 24명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tct8 증상의심시 코로나19 검사받으세요.</t>
+          <t>[논산시청] 10월29일 확진자 3명(내국인3/관내1,타지역1,조사중1) 발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2021/10/28 18:02:57</t>
+          <t>2021/10/29 18:00:31</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>서울특별시 중구</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[중구청] 10.14.~10.24. 중구 소재 중림식당(손기정로 1길 48) 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[안성시청]10.29.코로나19 확진자4명(자가격리2,동반입소자1,자발적검사1)발생.역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2021/10/28 18:00:52</t>
+          <t>2021/10/29 17:51:18</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[논산시청] 10월28일 확진자 5명(내국인5/관내4,훈련소1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
+          <t>[진도군청]확진자 동선▲진도한국병원 10.27(수)08:37~09:20▲진도읍 샹떼피시방 10.27(수)16시~18시▲방문자는 보건소 선별진료소에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2021/10/28 18:00:01</t>
+          <t>2021/10/29 17:25:19</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[안성시청]10.28. 코로나19확진자3명(자발적검사1확진자접촉1동반입소자1)발생. 역학조사,방역조치 완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[광주시청] 10월 29일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2021/10/28 17:39:10</t>
+          <t>2021/10/29 17:02:01</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[진도군청]확진자 동선 추가▲진도읍 락피시방 √10.23(토) 16:10~21:05 √10.25(월) 17:30~10.26(화) 00:15▲방문자는 검사 바랍니다</t>
+          <t>[과천시청] 10월 29일 17시 기준 신규확진 4명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2021/10/28 17:32:19</t>
+          <t>2021/10/29 17:00:12</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[진도군청]진도57번 확진자 발생(외국인근로자)▲진도읍 락피시방 √10.20(수)19:24~22:46 √10.22(금) 17:40~21:45▲방문자는 검사바랍니다</t>
+          <t>[중대본] 10.17~10.27 서울 중구 명동7길 18-1 '예지식당' 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2021/10/28 17:21:55</t>
+          <t>2021/10/29 16:30:18</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경상남도 거제시</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 28일 확진자 4명 발생(자가격리중2, 조사중2)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[거제시청] 코로나19 확진자 총22명 발생(확진자접촉 1, 타지역확진자접촉 21)/ 기침, 발열 등 유증상시 즉시 가까운 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2021/10/28 17:13:14</t>
+          <t>2021/10/29 16:24:25</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[창원시청] 10.23(토) 22:10~23:58 슬레이크(성산구 마디미로43번길 10)이용자는 관할 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[중대본]10.13~10.26 경기 남양주시 진접읍 양진로962 2층 '롯데택배 서울북부지점' 근무자는 보건소에서 코로나검사를 받으시기바랍니다(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2021/10/28 16:47:30</t>
+          <t>2021/10/29 15:47:33</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[강진군청] 강진 18번 확진자 발생(서울 방문하여 가족 확진자 접촉) 접촉자 및 동선 없음. 타지역 방문 및 의심증상 시 선별진료소 검사바랍니다.</t>
+          <t>[포항시청]10.28 305번버스 상대지구대정류장15:47→남구보건소정류장15:55 남구보건소정류장16:09→남부시장정류장16:23 탑승객은 보건소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2021/10/28 16:28:17</t>
+          <t>2021/10/29 15:34:52</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경상남도 거창군</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[구미시청]10/15(금)~10/24(일) 금오산교회 신유기도원(형곡동로 3) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[거창군청]타지역 확진자 동선 관련 10. 20.(수) 17:00 거창출발→서울남부도착 버스탑승자께서는 보건소 선별진료소에서 검사바랍니다. 055-940-8335</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2021/10/28 15:46:27</t>
+          <t>2021/10/29 15:02:50</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[의정부시청] 10.23.(토)~10.27.(수) 행복한영광교회(의정부동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[음성군청]10월 29일 확진자 5명(내국인3,외국인2)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2021/10/28 15:31:39</t>
+          <t>2021/10/29 14:43:00</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>전라북도 정읍시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[정읍시청] 10.25(월) 11:45~12:00, 항상아름다운자리 음식점 (신태인, 소독완료/ 전주확진자 방문) 방문자는 보건소 선별진료소에서 검사바랍니다.</t>
+          <t>[안산시청]10월29일 14시기준 확진자 74명 발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z3DGp</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2021/10/28 15:28:28</t>
+          <t>2021/10/29 14:30:52</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>경상북도 경산시</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[의정부시] 10/23(토)~10/24(일) 신곡동 서해아파트 103동 놀이터 방문자는 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[경산시][일자수정] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/26 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2021/10/28 15:00:34</t>
+          <t>2021/10/29 14:19:20</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[고성군청]10. 28.15시기준,확진자1명(고성119번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[창원시청]22(금)08:40~15:36/25(월)08:40~11:27 정태기내과(의창구동읍로9,방역완료)방문자는 선별진료소에서 검사바랍니다(28일이후검사자제외)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2021/10/28 14:51:40</t>
+          <t>2021/10/29 14:01:55</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>충청남도 청양군</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[부산시]10.23.(토) 10:07~11:25 동신탕 여탕(부산광역시 동구 홍곡남로6, 수정동)이용자는 코로나19 검사 받으시기 바랍니다. (소독완료)</t>
+          <t>[청양군청] 10월 29일 기준 확진자 1명 발생. 청양99번(타지역 확진자 접촉, 접촉자 파악 완료 검사 중) ▲ 유증상 시 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2021/10/28 14:27:38</t>
+          <t>2021/10/29 13:59:12</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[영광군청] 관내 확진자 동선 관련▲10.26.(화)19:10~20:10 영광성당 미사 참석자는 보건소에서 진단검사 바랍니다.▲접종자 포함 실내외에서 마스크 착용</t>
+          <t>[진도군청]확진자 동선 안내▲진도읍 샹떼 피시방 10.28(목) 16:00~18:00 방문자는 보건소 선별진료소에서 검사바랍니다▲주말 행사·모임 자제 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2021/10/28 14:25:30</t>
+          <t>2021/10/29 13:55:20</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[김천시청]10월28일 14시기준 13명 발생(신규2, 자가격리중11)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
+          <t>[포항시청] 10.25(월) 12:00 ~ 10.28(목) 06:00 궁타이마사지(상도동 615-3번지) 해당기간 방문자는 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2021/10/28 13:51:17</t>
+          <t>2021/10/29 13:44:25</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[부여군청]10월28일 13시 기준 확진자17명 발생【부여405~421업체근로자14(외국인10,내국인4),학생3】 감기증상 시 코로나 검사(특히 학생) 바랍니다</t>
+          <t>[광주광역시] 10.21(목)~10.24(일) GNS 강남스타일(태국음식점, 서구 상무시민로 130, 7층, 치평동) 방문자는 거주지 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2021/10/28 13:32:14</t>
+          <t>2021/10/29 11:09:29</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[보성군]보성40번 동선관련, 10.24.(일)~10.26.(화) 06:00~07:00 보성매일시장 내 보리밥집을 이용하신분은 지금 즉시 보건소에서 검사바랍니다.</t>
+          <t>[나주시청] 10. 29. 09시 기준. 확진자 1명 발생. 동선·접촉자 파악완료. 외국인 접종시급. 코로나19 증상(기침·발열 등) 발현시 지체없이 검사 요망.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2021/10/28 13:26:55</t>
+          <t>2021/10/29 11:05:17</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>전라남도 순천시</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>[순천시청] 10.24.(일)~10.27.(수) 07:00~10:00 천담수사우나(신월큰길 39) 여탕 이용자는 금일 중 보건소 선별진료소에서 검사하시기 바랍니다</t>
+          <t>[강화군청]10월25일(월)과 10월27일(수) 강화인삼센터 방문자께서는 가까운 선별진료소에서 코로나19 진단 검사 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2021/10/28 13:25:56</t>
+          <t>2021/10/29 11:03:01</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>전라남도 화순군</t>
+          <t>경상북도 경산시</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[화순군청] 10.23.(토) 13:40~14:25 옛날두부(화순읍 시장길 33)에서 23,000원 현금결제 하신 분은 거주지 보건소에서 코로나 진단검사바랍니다.</t>
+          <t>[경산시] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/22 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2021/10/28 12:58:41</t>
+          <t>2021/10/29 11:00:08</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[전주시청]10.28(목) 현재기준 7명 발생(전일 2명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[용인시청]10월29일 0시기준 확진자 25명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2021/10/28 11:18:46</t>
+          <t>2021/10/29 11:00:03</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.28.(목) 11:00기준 신규확진자 29명 url.kr/iexuqk ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[전주시청]10.29(금) 현재기준 2명 발생(전일 21명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2021/10/28 11:10:03</t>
+          <t>2021/10/29 10:46:34</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[나주시청] 10.28. 09시기준. 확진자2명 발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
+          <t>[부여군청] 10월29일 10시 기준 확진자 3명 발생 【부여422~424/학생】 감기증상시(콧물, 목아픔, 두통 등) 코로나 검사 후 진료 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2021/10/28 11:08:31</t>
+          <t>2021/10/29 10:40:01</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>전라북도 임실군</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[임실군청]서울 확진자 동선 관련/10.23(토) 09:30 서울강남터미널 출발→순창터미널 이동중 강진터미널에서 하차하신분은 선별진료소에서 검사 받으시길 바랍니다</t>
+          <t>[강화군청]10월 25일(월), 10월 27일(수) 강화인삼센터(강화읍 알미골) 방문자는 가까운 선별진료소에서 코로나19 진단검사 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2021/10/28 10:59:57</t>
+          <t>2021/10/29 10:37:39</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[용인시청]10월28일 0시기준 확진자 26명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[포항시청] 10.22(금)~10.25(월) ZENITH 제니스 라이브(상도동 601-1) 방문자는 가까운 보건소에 방문하여 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2021/10/28 10:59:56</t>
+          <t>2021/10/29 10:29:50</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>강원도 평창군</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[보은군청] 221(13:25백록동방향),721(15:35석화방향),940(17:20신함방향),431(19:00천남방향)이용자는 코로나 검사받으시기 바랍니다.</t>
+          <t>[평창군청] 10.29일 평창군 확진자 1명(232번) 봉평면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2021/10/28 10:44:26</t>
+          <t>2021/10/29 10:06:43</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 28일(목) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[부여군청]코로나19 군민행동요령 최근 학교,기업체 내 코로나 집단발생에 따른 지역확산은 없는 것으로 판단,감기증상시 코로나 검사후 진료받으시고 방역수칙 준수바람</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2021/10/28 10:42:34</t>
+          <t>2021/10/29 10:05:48</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>전라북도 순창군</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[순창군청]서울 확진자 이동경로 안내 ▶10.23(토) 09:30 서울강남센트럴시티→ 12:50 순창터미널 도착▶고속버스 이용객은 가까운 선별진료소 검사 바랍니다</t>
+          <t>[통영시청] 10.24(일) 11:00~13:30 안황스포츠센터(광도면 안정로 830) 목욕탕(여탕) 이용하신 분은 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2021/10/28 10:23:12</t>
+          <t>2021/10/29 10:01:24</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[강원도청] 10.27.(수) 도내 코로나19 확진 22명(원주13 춘천2 태백2 강릉1 홍천1 철원1 양구1 인제1)▶접촉의심 및 감기증상시 즉시검사 당부 드림</t>
+          <t>[수원시청] 10월 29일 0시 기준, 수원 확진자 50명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/fwi9s</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2021/10/28 10:00:33</t>
+          <t>2021/10/29 09:56:45</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 28일 0시 기준, 수원 확진자 60명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/xvl74</t>
+          <t>[보은군청] 10. 29.(금) 확진자 5명 발생 ▲ 10.19.(화)~10.27.(수) 극동슈퍼 이용자는 인근 보건소에서 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2021/10/28 09:58:53</t>
+          <t>2021/10/29 09:51:20</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>[영광군청] 확진자 동선 관련 ▲10.24.(일), 10.26.(화) 영광성당 방문자는 보건소에서 진단검사 받으시기 바랍니다.▲마스크착용, 타지역 방문·접촉 자제</t>
+          <t>[창원시청] 10.28. 확진자 18명 발생 ▲의창3,성산1,합포6,회원5,타지역3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2021/10/28 09:47:56</t>
+          <t>2021/10/29 09:15:46</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.27 코로나 확진자 3명(내국인2, 외국인1). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[진도군청]10.29(금) 08시기준 2명 추가확진(초,중학생)▲선별이동검사소 안내√진도서초교 09:30~11:00√진도중학교 09:30~14:00까지 운영합니다</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2021/10/28 09:42:42</t>
+          <t>2021/10/29 09:02:40</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[보은군청]10.28.(목) 확진자 8명 발생▲10. 23.(토)~10.24.(일) 시내버스(충북74자1014) 이용자는 보건소에서 코로나 검사 받으시기 바랍니다</t>
+          <t>[고흥군청] 10.29(금) 확진자 1명 발생, 역학조사 중. 외출 및 지인모임을 자제하고, 마스크 상시 착용바라며, 의심증상시 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2021/10/28 09:36:34</t>
+          <t>2021/10/29 09:02:19</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[창원시청] 10.27. 확진자 22명 발생 ▲합포10,회원5,진해1,타지역1,격리중5 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[양주시청] 10월 29일 00시 기준 확진자 12명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2021/10/28 09:33:21</t>
+          <t>2021/10/29 08:56:55</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>[영광군청] 10.28.(목) 9시 기준, 확진자 1명(영광46번)발생▲10.24.(일)~10.27.(수)대동공업영광대리점 방문자는 보건소에서 진단검사 바랍니다.</t>
+          <t>[남원시청] 관내 확진자 동선 관련▲10.24.(일) 09:00~18:00 행남자기(남원시 남문로 397) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2021/10/28 09:19:19</t>
+          <t>2021/10/29 08:56:40</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>강원도 원주시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[원주시청] 10.16.~10.24.'힐링타임아로마테라피(여대생마사지)[북원로2251, 단계동]' 이용자는 오늘 15시까지 보건소에서 코로나 검사 받으세요.</t>
+          <t>[남원시청]▲10.29(금 08시기준 전일확진자 2명발생(남원 202~203번)/기확진자 접촉 ▲가을철 여행등 타지역방문 후 유증상시 즉시 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2021/10/28 09:05:45</t>
+          <t>2021/10/29 08:55:32</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 무안군,전라남도 보성군,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 28일 00시 기준 확진자 11명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[전남도청] 10.28. 24시기준 확진 13명(목포4,순천2,나주1,화순1,강진1,영광2,진도1/해외1(구례))▲증상 의심되면 외출 자제하고 검사 먼저 받으세요</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2021/10/28 08:31:40</t>
+          <t>2021/10/29 08:33:23</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.28(목)08시 기준 확진자 30명 발생(남원 172~201번)/감염경로조사중 ▲ 유증상시 접종유무와 상관없이 즉시 선별진료소에서 검사바랍니다.</t>
+          <t>[화순군청] 10.28. 24시 기준 확진자 1명 발생(화순128번). 동선 소독 완료하고 접촉자 조사중입니다. ▶접종완료자도 의심증상 있으면 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2021/10/28 08:30:09</t>
+          <t>2021/10/28 19:48:50</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[목포시청]10.27. 24시 기준 확진자 1명(자가격리중 외국인) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[영광군청]10.28.(목) 18:00시 확진자 1명(영광 47번)추가발생.영광46번 가족으로 역학조사중. 접종 완료자도 의심 즉시 보건소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2021/10/28 08:28:21</t>
+          <t>2021/10/28 19:25:43</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>전라북도 고창군</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[여수시청]10.27.24:00 기준 총1명 발생(타지역거주자)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[고창군청] 10.28.(목) 19:00 기준 ▶관내 확진자(고창 63번) 발생 ▶코로나19 의심 증상 시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2021/10/27 21:09:37</t>
+          <t>2021/10/28 19:23:48</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[보성군] 10.27.(수) 확진자 3명 추가 발생(가족,지인모임/역학조사중) ▲외출 및 지인모임 자제, 마스크 상시 착용, 의심증상시 보건소에서 검사 받으세요.</t>
+          <t>[보은군청] 10. 25.(월) ~ 10. 27.(수) 택시(충북35아 5064) 이용자는 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2021/10/27 18:36:13</t>
+          <t>2021/10/28 19:00:34</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3546,1153 +3546,1153 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[홍성군청]10월27일(수) 18시 기준 확진자 5명(홍성301~305번) 발생.자가격리 1명, 병원격리 3명, 자발적검사 1명. 역학조사 및 방역조치 완료</t>
+          <t>[홍성군청]10월28일(목) 19시 기준 확진자 1명(홍성306번) 발생. 자가격리중 검사 결과 확진으로 접촉자 및 동선 없음</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2021/10/27 18:35:33</t>
+          <t>2021/10/28 18:34:01</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
+          <t>[광주시청] 10월 28일 17시 기준 확진자 40명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2021/10/27 18:25:04</t>
+          <t>2021/10/28 18:18:32</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[남양주시청]10.27.(수) 코로나19 확진자 26명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tbit 증상의심시 코로나19 검사받으세요.</t>
+          <t>[진도군청]안내드린 57번확진자 동선관련▲진도읍 락스(Rock’s) PC방 방문자께서는√보건소 선별진료소를 오늘밤 9시(21시)까지 연장운영하니 방문검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2021/10/27 18:03:16</t>
+          <t>2021/10/28 18:15:20</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 27일 확진자 7명 발생(선행 확진자 접촉1, 자가격리중4, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[남양주시청]10.28.(목) 코로나19 확진자 24명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tct8 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2021/10/27 17:47:38</t>
+          <t>2021/10/28 18:02:57</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>서울특별시 중구</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[통영시청] 10.26.(화) 10:40~17:55 통영전문장례식장(정량동) 3층 특실을 방문하신분은 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[중구청] 10.14.~10.24. 중구 소재 중림식당(손기정로 1길 48) 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2021/10/27 17:44:59</t>
+          <t>2021/10/28 18:00:52</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[구례군청]10.27.(수) 확진자 1명 발생(구례35번 가족), 접촉자 및 이동동선 없습니다. 타지역 방문을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[논산시청] 10월28일 확진자 5명(내국인5/관내4,훈련소1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2021/10/27 17:32:06</t>
+          <t>2021/10/28 18:00:01</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 27일 17시 기준 확진자 28명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[안성시청]10.28. 코로나19확진자3명(자발적검사1확진자접촉1동반입소자1)발생. 역학조사,방역조치 완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2021/10/27 17:04:55</t>
+          <t>2021/10/28 17:39:10</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 27일 17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[진도군청]확진자 동선 추가▲진도읍 락피시방 √10.23(토) 16:10~21:05 √10.25(월) 17:30~10.26(화) 00:15▲방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2021/10/27 16:52:03</t>
+          <t>2021/10/28 17:32:19</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[강북구청] 10.24.~27. 로얄PC방(도봉로 313, 지하1층) 방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
+          <t>[진도군청]진도57번 확진자 발생(외국인근로자)▲진도읍 락피시방 √10.20(수)19:24~22:46 √10.22(금) 17:40~21:45▲방문자는 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2021/10/27 16:32:30</t>
+          <t>2021/10/28 17:21:55</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[창원시청] 10.21.(목)~10.23.(토), 10.25.(월) 대림식당(마산합포구 북성로 100, 상남동) 방문자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[충주시청] 10월 28일 확진자 4명 발생(자가격리중2, 조사중2)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2021/10/27 15:43:47</t>
+          <t>2021/10/28 17:13:14</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>[부산시]10.23.(토) 13:30~15:30에 대원목욕탕(부산진구 황령대로18번길 43(범천동))여탕 이용자는 코로나19검사 받으시기 바랍니다.(소독완료)</t>
+          <t>[창원시청] 10.23(토) 22:10~23:58 슬레이크(성산구 마디미로43번길 10)이용자는 관할 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2021/10/27 15:37:00</t>
+          <t>2021/10/28 16:47:30</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>[화성시청] 10.22.(금) 킹노래방(화성시 봉담읍 와우안길 43) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[강진군청] 강진 18번 확진자 발생(서울 방문하여 가족 확진자 접촉) 접촉자 및 동선 없음. 타지역 방문 및 의심증상 시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2021/10/27 15:36:38</t>
+          <t>2021/10/28 16:28:17</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[화성시청] 10.23.(토) 블루노래연습장(화성시 봉담읍 와우리 45-5 지하1층) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[구미시청]10/15(금)~10/24(일) 금오산교회 신유기도원(형곡동로 3) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2021/10/27 15:36:10</t>
+          <t>2021/10/28 15:46:27</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>충청남도 서천군</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[서천군청] 10.24.~26. 기간 중 서면 홍원항어촌계 수산물판매장 내 한문이네를 방문한 분들은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
+          <t>[의정부시청] 10.23.(토)~10.27.(수) 행복한영광교회(의정부동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2021/10/27 15:24:25</t>
+          <t>2021/10/28 15:31:39</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[김천시청]10월27일 15시기준 관내 초·중학교 관련 22명 발생(신규15, 자가격리중7)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
+          <t>[정읍시청] 10.25(월) 11:45~12:00, 항상아름다운자리 음식점 (신태인, 소독완료/ 전주확진자 방문) 방문자는 보건소 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2021/10/27 15:10:02</t>
+          <t>2021/10/28 15:28:28</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[고성군청]10.24.(일)14:00~15:42병산수산고성왕새우(삼산면소재, 방역완료) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[의정부시] 10/23(토)~10/24(일) 신곡동 서해아파트 103동 놀이터 방문자는 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2021/10/27 15:02:56</t>
+          <t>2021/10/28 15:00:34</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[보은군청]10. 23.(토) ~ 10. 26.(화) 보은개인택시(35아 5061 /소나타/은색)를 이용하신분은 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[고성군청]10. 28.15시기준,확진자1명(고성119번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:56</t>
+          <t>2021/10/28 14:51:40</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[고성군청]10. 27.15시기준,확진자1명(고성118번, 관내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[부산시]10.23.(토) 10:07~11:25 동신탕 여탕(부산광역시 동구 홍곡남로6, 수정동)이용자는 코로나19 검사 받으시기 바랍니다. (소독완료)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:14</t>
+          <t>2021/10/28 14:27:38</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>경기도 부천시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[부천시청] 10.19(화) 18시~22시 중동포차(조마루로291번길 46) 방문자는 증상유무에 관계없이 선별진료소에서 코로나19검사를 받으시기 바랍니다.</t>
+          <t>[영광군청] 관내 확진자 동선 관련▲10.26.(화)19:10~20:10 영광성당 미사 참석자는 보건소에서 진단검사 바랍니다.▲접종자 포함 실내외에서 마스크 착용</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:14</t>
+          <t>2021/10/28 14:25:30</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[보은군청]10.19.(화)~10.22.(금)/10.25.(월)~10.26.(화)11:45~12:30즐거운집(보은읍 삼산리)이용자는 코로나 검사 받으시기 바랍니다</t>
+          <t>[김천시청]10월28일 14시기준 13명 발생(신규2, 자가격리중11)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2021/10/27 14:57:46</t>
+          <t>2021/10/28 13:51:17</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[김제시청] 10.27.(수) 14시기준 확진자 1명 발생(확진자 접촉1, 동선파악중)/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
+          <t>[부여군청]10월28일 13시 기준 확진자17명 발생【부여405~421업체근로자14(외국인10,내국인4),학생3】 감기증상 시 코로나 검사(특히 학생) 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2021/10/27 14:47:14</t>
+          <t>2021/10/28 13:32:14</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[울산광역시] 10.23.(토)18:10~21:10 ▲동강병원 장례식장 6호실(중구 태화로 240, 태화동, 소독완료) 방문자는 코로나19 검사 받으시기 바랍니다</t>
+          <t>[보성군]보성40번 동선관련, 10.24.(일)~10.26.(화) 06:00~07:00 보성매일시장 내 보리밥집을 이용하신분은 지금 즉시 보건소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2021/10/27 14:31:59</t>
+          <t>2021/10/28 13:26:55</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19(화), 10.21(목)~10.24(일) 환금휘트니스사우나(마산회원구 북성로 106, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[순천시청] 10.24.(일)~10.27.(수) 07:00~10:00 천담수사우나(신월큰길 39) 여탕 이용자는 금일 중 보건소 선별진료소에서 검사하시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2021/10/27 14:00:07</t>
+          <t>2021/10/28 13:25:56</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>[사천시청] 10.27.(수) 14시 기준 확진자 5명(확진자 접촉자4명, 해외입국자1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[화순군청] 10.23.(토) 13:40~14:25 옛날두부(화순읍 시장길 33)에서 23,000원 현금결제 하신 분은 거주지 보건소에서 코로나 진단검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2021/10/27 13:40:54</t>
+          <t>2021/10/28 12:58:41</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[완도군청]외국인 확진자 자가격리중 1명 발생▶오늘 선별이동검사소 안내▶10/27(수)13:30~15:00 소안창조문화센터▶15:00~17:00 청산복지회관 2층</t>
+          <t>[전주시청]10.28(목) 현재기준 7명 발생(전일 2명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2021/10/27 11:02:53</t>
+          <t>2021/10/28 11:18:46</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>[완도군청] 확진자동선▶10/22(금)보길보옥리→청별→노화이포 보길여객농어촌버스 첫차(08:00)▶노화 농협하나로마트09:00~09:10 동시간대 이용자 검사요망</t>
+          <t>[안양시청]▲10.28.(목) 11:00기준 신규확진자 29명 url.kr/iexuqk ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2021/10/27 11:00:04</t>
+          <t>2021/10/28 11:10:03</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[용인시청]10월27일 0시기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[나주시청] 10.28. 09시기준. 확진자2명 발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2021/10/27 10:39:48</t>
+          <t>2021/10/28 11:08:31</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>전라북도 임실군</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[부여군청]10월27일 10시 기준 확진자 18명 발생【부여387~404,학생등13,외국인5】 감기증상 시 보건소에서 코로나 검사(특히 학생) 받으시기 바랍니다.</t>
+          <t>[임실군청]서울 확진자 동선 관련/10.23(토) 09:30 서울강남터미널 출발→순창터미널 이동중 강진터미널에서 하차하신분은 선별진료소에서 검사 받으시길 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2021/10/27 10:37:52</t>
+          <t>2021/10/28 10:59:57</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[강원도청] 10.26.(화) 도내 코로나19 확진 19명(원주6 태백5 춘천4 홍천3 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부 드림!!</t>
+          <t>[용인시청]10월28일 0시기준 확진자 26명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2021/10/27 10:33:16</t>
+          <t>2021/10/28 10:59:56</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>[아산시청] 10월26일 확진자 10명(가족7, 지인1, 조사중 2) /단계적 일상 회복 전환을 위해 방역수칙을 준수해 주시고, 코로나 의심시 검사 받으세요.</t>
+          <t>[보은군청] 221(13:25백록동방향),721(15:35석화방향),940(17:20신함방향),431(19:00천남방향)이용자는 코로나 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2021/10/27 10:26:25</t>
+          <t>2021/10/28 10:44:26</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>[전주시청]10.27(수) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[완주군청] 10월 28일(목) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2021/10/27 10:08:04</t>
+          <t>2021/10/28 10:42:34</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라북도 순창군</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 27일(수) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[순창군청]서울 확진자 이동경로 안내 ▶10.23(토) 09:30 서울강남센트럴시티→ 12:50 순창터미널 도착▶고속버스 이용객은 가까운 선별진료소 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2021/10/27 10:00:53</t>
+          <t>2021/10/28 10:23:12</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 27일 0시 기준, 수원 확진자 58명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/ghswi</t>
+          <t>[강원도청] 10.27.(수) 도내 코로나19 확진 22명(원주13 춘천2 태백2 강릉1 홍천1 철원1 양구1 인제1)▶접촉의심 및 감기증상시 즉시검사 당부 드림</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2021/10/27 09:54:39</t>
+          <t>2021/10/28 10:00:33</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>[김천시청]코로나19이동선별검사소 운영안내▲장소:녹색미래과학관(율곡동)▲27일:13:00~16:00, 28일-29일:10:00~16:00▲의심증상시 검사바랍니다.</t>
+          <t>[수원시청] 10월 28일 0시 기준, 수원 확진자 60명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/xvl74</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2021/10/27 09:53:25</t>
+          <t>2021/10/28 09:58:53</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 27.(수) 확진자 4명 발생 ▲ 10. 18.(월) 이후 복신경외과 내원자 및 유증상자는 인근 보건소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[영광군청] 확진자 동선 관련 ▲10.24.(일), 10.26.(화) 영광성당 방문자는 보건소에서 진단검사 받으시기 바랍니다.▲마스크착용, 타지역 방문·접촉 자제</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2021/10/27 09:46:27</t>
+          <t>2021/10/28 09:47:56</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>경상남도 함양군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>[함양군청] 10. 18.(월) 14시 함양 출발 → 16시 부산(사상) 도착 시외버스 탑승객은 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[진천군청]▲10.27 코로나 확진자 3명(내국인2, 외국인1). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2021/10/27 09:31:50</t>
+          <t>2021/10/28 09:42:42</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>[창원시청] 10.18(월)~23(토) 온정백반(대산면 주남로503번길 8, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.(10.24 이후 검사자 제외)</t>
+          <t>[보은군청]10.28.(목) 확진자 8명 발생▲10. 23.(토)~10.24.(일) 시내버스(충북74자1014) 이용자는 보건소에서 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:51</t>
+          <t>2021/10/28 09:36:34</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.17(일)~10.25(월) JL연기학원 1층~4층(동구 구성로 167, 충장로5가)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
+          <t>[창원시청] 10.27. 확진자 22명 발생 ▲합포10,회원5,진해1,타지역1,격리중5 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:51</t>
+          <t>2021/10/28 09:33:21</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[창원시청] 10.26. 확진자 20명 발생 ▲의창4,합포6,회원4,진해2,타지역1,격리중3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[영광군청] 10.28.(목) 9시 기준, 확진자 1명(영광46번)발생▲10.24.(일)~10.27.(수)대동공업영광대리점 방문자는 보건소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:30</t>
+          <t>2021/10/28 09:19:19</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>강원도 원주시</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[완도군청]확진자동선▶10/21(목) 12:10해남출발→13:00완도도착▶13:20완도터미널→화흥포셔틀버스▶13:50화흥포→노화동천 여객선실 이용자 코로나검사요망</t>
+          <t>[원주시청] 10.16.~10.24.'힐링타임아로마테라피(여대생마사지)[북원로2251, 단계동]' 이용자는 오늘 15시까지 보건소에서 코로나 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:26</t>
+          <t>2021/10/28 09:05:45</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲26일 도내 확진자 29명 발생</t>
+          <t>[양주시청] 10월 28일 00시 기준 확진자 11명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2021/10/27 09:11:43</t>
+          <t>2021/10/28 08:31:40</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>[포항시청]10.23 302번버스 영일고등학교정류장15:41→죽도시장정류장16:07 죽도시장정류장16:33→영일고등학교정류장17:01 탑승객은 보건소 검사바랍니다</t>
+          <t>[남원시청]▲10.28(목)08시 기준 확진자 30명 발생(남원 172~201번)/감염경로조사중 ▲ 유증상시 접종유무와 상관없이 즉시 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2021/10/27 09:09:58</t>
+          <t>2021/10/28 08:30:09</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 27일 00시 기준 확진자 4명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[목포시청]10.27. 24시 기준 확진자 1명(자가격리중 외국인) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2021/10/27 09:05:04</t>
+          <t>2021/10/28 08:28:21</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 17명 [타시민1, 천안시민16] ▶ 초·중·고교생 확진자 증가 ▶ 증상발현 시 병원 방문 전 검사 및 백신접종에 참여 바랍니다.</t>
+          <t>[여수시청]10.27.24:00 기준 총1명 발생(타지역거주자)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2021/10/27 08:27:36</t>
+          <t>2021/10/27 21:09:37</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.27(수) 금일 확진자 1명 발생(남원 171번)/감염경로 조사중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[보성군] 10.27.(수) 확진자 3명 추가 발생(가족,지인모임/역학조사중) ▲외출 및 지인모임 자제, 마스크 상시 착용, 의심증상시 보건소에서 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2021/10/27 08:00:07</t>
+          <t>2021/10/27 18:36:13</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>[제천시청]10.27(수) 8시 현재. 확진자 2명 발생(타 지역 확진자 접촉 1, 격리중 1). 지역내 특이동선 없음. 증상발현시 선별진료소에서 검사 바랍니다.</t>
+          <t>[홍성군청]10월27일(수) 18시 기준 확진자 5명(홍성301~305번) 발생.자가격리 1명, 병원격리 3명, 자발적검사 1명. 역학조사 및 방역조치 완료</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2021/10/26 21:01:59</t>
+          <t>2021/10/27 18:35:33</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[보은군청]10.26.(화) 확진자 3명 발생, 10.18.(월)~10.26.(화) 복신경외과의원(보은읍) 방문자는 인근보건소에서 코로나검사를 받으시기 바랍니다.</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2021/10/26 20:24:18</t>
+          <t>2021/10/27 18:25:04</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
+          <t>[남양주시청]10.27.(수) 코로나19 확진자 26명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tbit 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2021/10/26 19:06:08</t>
+          <t>2021/10/27 18:03:16</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>[강북구청]10.19.(화) 19:00~21:10 보스당구클럽(오패산로130)방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
+          <t>[충주시청] 10월 27일 확진자 7명 발생(선행 확진자 접촉1, 자가격리중4, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2021/10/26 19:04:20</t>
+          <t>2021/10/27 17:47:38</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>[강북구청] 10.22.(금) 얼짱노래연습장(한천로 140길 35, 지층)방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
+          <t>[통영시청] 10.26.(화) 10:40~17:55 통영전문장례식장(정량동) 3층 특실을 방문하신분은 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2021/10/26 18:15:19</t>
+          <t>2021/10/27 17:44:59</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>[남양주시청]10.26.(화) 코로나19 확진자 35명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/taaa 증상의심시 코로나19 검사받으세요.</t>
+          <t>[구례군청]10.27.(수) 확진자 1명 발생(구례35번 가족), 접촉자 및 이동동선 없습니다. 타지역 방문을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2021/10/26 18:00:02</t>
+          <t>2021/10/27 17:32:06</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>[안성시청]10.26코로나19확진자11명(자가격리2확진자접촉3자발적검사4해외입국2)발생.역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[광주시청] 10월 27일 17시 기준 확진자 28명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2021/10/26 17:47:56</t>
+          <t>2021/10/27 17:04:55</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 26일, 확진자 4명 발생(자가격리중 3, 감염경로 조사중 1) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[과천시청] 10월 27일 17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2021/10/26 17:29:09</t>
+          <t>2021/10/27 16:52:03</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>[고성군청]10.26.17시기준,확진자1명(고성117번,조사중)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[강북구청] 10.24.~27. 로얄PC방(도봉로 313, 지하1층) 방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2021/10/26 17:01:15</t>
+          <t>2021/10/27 16:32:30</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 26일 17시 기준 확진자 21명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[창원시청] 10.21.(목)~10.23.(토), 10.25.(월) 대림식당(마산합포구 북성로 100, 상남동) 방문자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2021/10/26 17:01:12</t>
+          <t>2021/10/27 15:43:47</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[창원시청] 10.16(토)~10.20(수) 17:00~17:20 감계식당(북면 감계로156번길 6-8,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[부산시]10.23.(토) 13:30~15:30에 대원목욕탕(부산진구 황령대로18번길 43(범천동))여탕 이용자는 코로나19검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2021/10/26 17:00:57</t>
+          <t>2021/10/27 15:37:00</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[창원시청] 10.16.(토)~10.20.(수) 12:00~12:30 윤현식당(북면 감계로188번길 21,방역완료)이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[화성시청] 10.22.(금) 킹노래방(화성시 봉담읍 와우안길 43) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2021/10/26 17:00:49</t>
+          <t>2021/10/27 15:36:38</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[과천시청]10월26일 17시 기준 신규확진 2명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
+          <t>[화성시청] 10.23.(토) 블루노래연습장(화성시 봉담읍 와우리 45-5 지하1층) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2021/10/26 16:14:21</t>
+          <t>2021/10/27 15:36:10</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청남도 서천군</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[당진시청]10/26(화)16시기준 확진자17명발생(격리중5,관내접촉3,타지역접촉1,조사중8).총1080명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
+          <t>[서천군청] 10.24.~26. 기간 중 서면 홍원항어촌계 수산물판매장 내 한문이네를 방문한 분들은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2021/10/26 16:10:22</t>
+          <t>2021/10/27 15:24:25</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>[사천시청]10.14(목)~10.24(일) 사천시 서부시장길 21, 2층(선원휴게실) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[김천시청]10월27일 15시기준 관내 초·중학교 관련 22명 발생(신규15, 자가격리중7)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2021/10/26 16:05:02</t>
+          <t>2021/10/27 15:10:02</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>[진주시청] 26일 15시 기준 확진자 9명(관내 소재 회사 외국인 종사자 8명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[고성군청]10.24.(일)14:00~15:42병산수산고성왕새우(삼산면소재, 방역완료) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2021/10/26 16:03:46</t>
+          <t>2021/10/27 15:02:56</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>경상북도 안동시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>[안동시청]금일 16시기준 확진자1명 발생▲10.24(일)13:04~18:30 엔제리너스안동옥동점(광명로 175)방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
+          <t>[보은군청]10. 23.(토) ~ 10. 26.(화) 보은개인택시(35아 5061 /소나타/은색)를 이용하신분은 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2021/10/26 15:57:55</t>
+          <t>2021/10/27 14:59:56</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.18(월) 10.20(수) 10.22(금) 07:30~09:00 서광사우나 여탕(서구 죽봉대로109, 4층, 광천동) 방문자는 검사 바랍니다</t>
+          <t>[고성군청]10. 27.15시기준,확진자1명(고성118번, 관내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2021/10/26 15:39:54</t>
+          <t>2021/10/27 14:59:14</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>전라남도 장성군</t>
+          <t>경기도 부천시</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[장성군청] 10.26.(화) 확진자 1명 발생. 자가격리 중 확진으로 이동동선 없음. 외국인사업장 등 방역취약시설 운영자 및 종사자는 2주 1회 검사 바랍니다.</t>
+          <t>[부천시청] 10.19(화) 18시~22시 중동포차(조마루로291번길 46) 방문자는 증상유무에 관계없이 선별진료소에서 코로나19검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2021/10/26 14:26:48</t>
+          <t>2021/10/27 14:59:14</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>[강진군청] 10월 23일 17:30 강진군 여성배드민턴 대회 후 회장 이취임식에 참석한 군민은 보건소 선별진료소에서 오후 5시까지 검사 받기 바랍니다.</t>
+          <t>[보은군청]10.19.(화)~10.22.(금)/10.25.(월)~10.26.(화)11:45~12:30즐거운집(보은읍 삼산리)이용자는 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2021/10/26 14:22:31</t>
+          <t>2021/10/27 14:57:46</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>[음성군청]10월 26일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[김제시청] 10.27.(수) 14시기준 확진자 1명 발생(확진자 접촉1, 동선파악중)/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2021/10/26 14:19:40</t>
+          <t>2021/10/27 14:47:14</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>충청남도 청양군</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>[청양군청] 10월 26일 기준 확진자 1명 발생. 청양98번(자가격리중 확진, 이동동선 없음). ▲타지역 방문 자제, 유증상 시 코로나19 검사 바랍니다.</t>
+          <t>[울산광역시] 10.23.(토)18:10~21:10 ▲동강병원 장례식장 6호실(중구 태화로 240, 태화동, 소독완료) 방문자는 코로나19 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2021/10/26 14:01:45</t>
+          <t>2021/10/27 14:31:59</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>[사천시청]10.26.(화) 14시 기준 확진자 2명(확진자 접촉자1명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[창원시청] 10.19(화), 10.21(목)~10.24(일) 환금휘트니스사우나(마산회원구 북성로 106, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2021/10/26 12:58:38</t>
+          <t>2021/10/27 14:00:07</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4702,252 +4702,252 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>[사천시청]10.14.(목)~10.24(일) 08:00~12:00 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[사천시청] 10.27.(수) 14시 기준 확진자 5명(확진자 접촉자4명, 해외입국자1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2021/10/26 11:52:38</t>
+          <t>2021/10/27 13:40:54</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.22.(금)~10.25.(월) 산호장여관(왜관읍 중앙로5길 10, 왜관역 부근) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[완도군청]외국인 확진자 자가격리중 1명 발생▶오늘 선별이동검사소 안내▶10/27(수)13:30~15:00 소안창조문화센터▶15:00~17:00 청산복지회관 2층</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2021/10/26 11:52:08</t>
+          <t>2021/10/27 11:02:53</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.12.(화)~10.24.(일) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[완도군청] 확진자동선▶10/22(금)보길보옥리→청별→노화이포 보길여객농어촌버스 첫차(08:00)▶노화 농협하나로마트09:00~09:10 동시간대 이용자 검사요망</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2021/10/26 11:23:52</t>
+          <t>2021/10/27 11:00:04</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.26.(화) 11:00기준 신규확진자 24명 url.kr/eybpvx ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[용인시청]10월27일 0시기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2021/10/26 11:11:36</t>
+          <t>2021/10/27 10:39:48</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>경상북도 성주군</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>[성주군] 10월23일(토) 13:50-14:20까지 박여사순대국밥(초전면 대장길 76) 방문자는 선별진료소에서 코로나19 PCR검사를 받으시기 바랍니다.</t>
+          <t>[부여군청]10월27일 10시 기준 확진자 18명 발생【부여387~404,학생등13,외국인5】 감기증상 시 보건소에서 코로나 검사(특히 학생) 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2021/10/26 10:59:58</t>
+          <t>2021/10/27 10:37:52</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자 5명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[강원도청] 10.26.(화) 도내 코로나19 확진 19명(원주6 태백5 춘천4 홍천3 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부 드림!!</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2021/10/26 10:28:11</t>
+          <t>2021/10/27 10:33:16</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>[청주시청]10월 25일 확진자 13명 발생(상당구3,서원구1,흥덕구3,청원구5,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
+          <t>[아산시청] 10월26일 확진자 10명(가족7, 지인1, 조사중 2) /단계적 일상 회복 전환을 위해 방역수칙을 준수해 주시고, 코로나 의심시 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2021/10/26 10:18:06</t>
+          <t>2021/10/27 10:26:25</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>경상북도 성주군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[성주군청] 최근 타지역을 방문했거나 발열, 기침 등 코로나19 증상이 있을 경우 보건소 선별진료소를 방문하여 검사를 받으시기 바랍니다.</t>
+          <t>[전주시청]10.27(수) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2021/10/26 10:13:53</t>
+          <t>2021/10/27 10:08:04</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.25 코로나 확진자 11명(외국인11). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[완주군청] 10월 27일(수) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2021/10/26 10:05:39</t>
+          <t>2021/10/27 10:00:53</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 26일(화) 0시 기준 확진자 8명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[수원시청] 10월 27일 0시 기준, 수원 확진자 58명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/ghswi</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2021/10/26 10:00:58</t>
+          <t>2021/10/27 09:54:39</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>[강북구청]10.16.~22. 분홍미용실(강북구 도봉로97길 15), 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다. ☎901-7704</t>
+          <t>[김천시청]코로나19이동선별검사소 운영안내▲장소:녹색미래과학관(율곡동)▲27일:13:00~16:00, 28일-29일:10:00~16:00▲의심증상시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2021/10/26 10:00:05</t>
+          <t>2021/10/27 09:53:25</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 26일 0시 기준, 수원 확진자 20명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/mwbj1</t>
+          <t>[보은군청] 10. 27.(수) 확진자 4명 발생 ▲ 10. 18.(월) 이후 복신경외과 내원자 및 유증상자는 인근 보건소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2021/10/26 09:57:38</t>
+          <t>2021/10/27 09:46:27</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 함양군</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>[창원시청] 10.21(목)~10.24(일) 05:00~12:00 진해스파랜드(진해구 진해대로 762,지하) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[함양군청] 10. 18.(월) 14시 함양 출발 → 16시 부산(사상) 도착 시외버스 탑승객은 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2021/10/26 09:52:28</t>
+          <t>2021/10/27 09:31:50</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>[완도군청]확진자 2명 발생(신지면1, 보길면1) 자가격리 중 확진으로 이동동선 없음▶오전 금일, 보길, 금당, 생일 이동선별진료소 운영중▶주민들은 검사요망</t>
+          <t>[창원시청] 10.18(월)~23(토) 온정백반(대산면 주남로503번길 8, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.(10.24 이후 검사자 제외)</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2021/10/26 09:51:23</t>
+          <t>2021/10/27 09:30:51</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19.(화), 10.21.(목)~10.24.(일) 환금휘트니스사우나(회원구 북성로 106,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[광주광역시] 10.17(일)~10.25(월) JL연기학원 1층~4층(동구 구성로 167, 충장로5가)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2021/10/26 09:48:27</t>
+          <t>2021/10/27 09:30:51</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4957,320 +4957,320 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>[창원시청] 10.20.(수) 19:00~19:30 팔룡동 대동마트(의창구 반계로 97) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[창원시청] 10.26. 확진자 20명 발생 ▲의창4,합포6,회원4,진해2,타지역1,격리중3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2021/10/26 09:22:52</t>
+          <t>2021/10/27 09:30:30</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>[창원시청] 10.25. 확진자 6명 발생 ▲성산1,합포1,진해1,타지역1,격리중2 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[완도군청]확진자동선▶10/21(목) 12:10해남출발→13:00완도도착▶13:20완도터미널→화흥포셔틀버스▶13:50화흥포→노화동천 여객선실 이용자 코로나검사요망</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2021/10/26 09:05:02</t>
+          <t>2021/10/27 09:30:26</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>[김제시청] 10.26.(화) 9시기준 확진자 1명 발생(자가격리중 확진, 외국인)/동선없음/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲26일 도내 확진자 29명 발생</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2021/10/26 09:01:46</t>
+          <t>2021/10/27 09:11:43</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>[영암군청] 10. 21.(목) 15:30~17:20 금정농협 경제사업부(금정면 용두로 24) 방문자는 선별진료소 검사바랍니다.(격리중 확진으로 역학조사 완료)</t>
+          <t>[포항시청]10.23 302번버스 영일고등학교정류장15:41→죽도시장정류장16:07 죽도시장정류장16:33→영일고등학교정류장17:01 탑승객은 보건소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2021/10/26 08:51:07</t>
+          <t>2021/10/27 09:09:58</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[영광군청] 10.25.(월) 22시기준 확진자1명(타지역 확진자 접촉)발생▲10.25.(월) 12시~13시 영광읍 양평해장국 방문자는 보건소에서 검사 바랍니다.</t>
+          <t>[양주시청] 10월 27일 00시 기준 확진자 4명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2021/10/26 08:50:31</t>
+          <t>2021/10/27 09:05:04</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>[전남도청] 10.25. 24시기준 확진 6명(여수1,나주1,장흥1,영암1,신안2) ▲방역취약시설 운영자 및 종사자는 10.31.까지 2주 1회 진단검사 받으세요</t>
+          <t>[천안시청] 확진자 17명 [타시민1, 천안시민16] ▶ 초·중·고교생 확진자 증가 ▶ 증상발현 시 병원 방문 전 검사 및 백신접종에 참여 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2021/10/26 08:46:39</t>
+          <t>2021/10/27 08:27:36</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>[보성군]타지역 확진자 동선 관련, 10.20.(수) 16:20 회천→광주행 광우고속 버스를 이용하신 분은 보건소 선별진료소에서 검사바랍니다.(09~18시 운영)</t>
+          <t>[남원시청]▲10.27(수) 금일 확진자 1명 발생(남원 171번)/감염경로 조사중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2021/10/26 08:45:13</t>
+          <t>2021/10/27 08:00:07</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>[신안군청] 10.25. 24시 기준 확진자 2명(신안 57번~58번/자가격리 중 2) 발생 ▲의심 증상 시 즉시 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[제천시청]10.27(수) 8시 현재. 확진자 2명 발생(타 지역 확진자 접촉 1, 격리중 1). 지역내 특이동선 없음. 증상발현시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2021/10/26 08:08:23</t>
+          <t>2021/10/26 21:01:59</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>[군산시청] ▲ 10/24(일) 10:00~12:20 월명24시사우나찜질방(현충로95(나운동)) 남탕 이용자는 보건소 선별검사(09시~18시)바랍니다.</t>
+          <t>[보은군청]10.26.(화) 확진자 3명 발생, 10.18.(월)~10.26.(화) 복신경외과의원(보은읍) 방문자는 인근보건소에서 코로나검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2021/10/26 08:03:33</t>
+          <t>2021/10/26 20:24:18</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>[여수시청] 10.25.24:00 기준 총1명 발생(타지역 방문)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2021/10/25 21:53:43</t>
+          <t>2021/10/26 19:06:08</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>강원도 태백시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>[태백시청] 10월 25일(월) 21시기준 확진자 8명 발생(역학조사 중, 필요시 이동동선 태백시 홈페이지 공개), 유증상자는 보건소 선별검사 받으시기 바랍니다.</t>
+          <t>[강북구청]10.19.(화) 19:00~21:10 보스당구클럽(오패산로130)방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2021/10/25 18:53:55</t>
+          <t>2021/10/26 19:04:20</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[남양주시청]10.25.(월) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t8vj 증상의심시 코로나19 검사받으세요.</t>
+          <t>[강북구청] 10.22.(금) 얼짱노래연습장(한천로 140길 35, 지층)방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2021/10/25 18:34:29</t>
+          <t>2021/10/26 18:15:19</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.24 코로나 확진자 4명(내국인2, 외국인2)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[남양주시청]10.26.(화) 코로나19 확진자 35명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/taaa 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2021/10/25 18:26:40</t>
+          <t>2021/10/26 18:00:02</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>전라남도 장흥군</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[장흥군청]10.25. 17시 기준 확진자 1명 발생(자가격리 중 확진) ▶이동동선 및 접촉자 없음 ▶유증상시 접종유무와 상관없이 즉시 선별진료소 검사바랍니다.</t>
+          <t>[안성시청]10.26코로나19확진자11명(자가격리2확진자접촉3자발적검사4해외입국2)발생.역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2021/10/25 18:00:49</t>
+          <t>2021/10/26 17:47:56</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>[안성시청]10.25. 코로나19확진자3명(자가격리1,확진자접촉1,자발적검사자1)발생.역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[충주시청] 10월 26일, 확진자 4명 발생(자가격리중 3, 감염경로 조사중 1) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2021/10/25 17:56:29</t>
+          <t>2021/10/26 17:29:09</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>[논산시청] 10월25일 확진자 9명(내국인6,외국인3/관내6,타지역2,조사중1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받기 바랍니다.</t>
+          <t>[고성군청]10.26.17시기준,확진자1명(고성117번,조사중)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2021/10/25 17:36:42</t>
+          <t>2021/10/26 17:01:15</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>[의정부시]10.20.(수) 14시~16시 의정부백병원장례식장(신곡동) 2호실 방문자 중 유증상자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[광주시청] 10월 26일 17시 기준 확진자 21명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2021/10/25 17:14:05</t>
+          <t>2021/10/26 17:01:12</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 25일, 확진자 3명 발생(선행 확진자의 접촉자1, 자가격리중1, 조사중1) ▲만남,모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[창원시청] 10.16(토)~10.20(수) 17:00~17:20 감계식당(북면 감계로156번길 6-8,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2021/10/25 17:03:57</t>
+          <t>2021/10/26 17:00:57</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 25일 17시 기준 확진자 16명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[창원시청] 10.16.(토)~10.20.(수) 12:00~12:30 윤현식당(북면 감계로188번길 21,방역완료)이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2021/10/25 17:00:23</t>
+          <t>2021/10/26 17:00:49</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -5280,82 +5280,82 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>[과천시청] 10월25일17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[과천시청]10월26일 17시 기준 신규확진 2명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2021/10/25 17:00:02</t>
+          <t>2021/10/26 16:14:21</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>[고성군청]10. 25. 16시기준, 확진자 1명(고성116번, 수도권 확진자 접촉, 타지역 거주)발생 ▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[당진시청]10/26(화)16시기준 확진자17명발생(격리중5,관내접촉3,타지역접촉1,조사중8).총1080명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2021/10/25 16:13:42</t>
+          <t>2021/10/26 16:10:22</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>[보성군]타지역 확진자 관내동선 관련, 10.19.(화) 17:00~19:45까지 보성읍 우리장례식장을 이용하신분은 보건소 선별진료소에서 지금 즉시 검사받으세요.</t>
+          <t>[사천시청]10.14(목)~10.24(일) 사천시 서부시장길 21, 2층(선원휴게실) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2021/10/25 15:59:49</t>
+          <t>2021/10/26 16:05:02</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>서울특별시 용산구</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>[용산구청] 10.8.(금)~10.14.(목) 한남동 소재 ‘Season9(엠타이인서울)’ 방문하신 분은 가까운 선별진료소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[진주시청] 26일 15시 기준 확진자 9명(관내 소재 회사 외국인 종사자 8명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2021/10/25 15:56:47</t>
+          <t>2021/10/26 16:03:46</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>경기도 고양시</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>[고양시청]10.18.(월)~20.(수) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[안동시청]금일 16시기준 확진자1명 발생▲10.24(일)13:04~18:30 엔제리너스안동옥동점(광명로 175)방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2021/10/25 15:41:41</t>
+          <t>2021/10/26 15:57:55</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -5365,337 +5365,337 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.14(목)~10.23(토) 설화머리방(서구 죽봉대로 111번길 14, 광천동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[광주광역시] 10.18(월) 10.20(수) 10.22(금) 07:30~09:00 서광사우나 여탕(서구 죽봉대로109, 4층, 광천동) 방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2021/10/25 15:32:37</t>
+          <t>2021/10/26 15:39:54</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>전라남도 장성군</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>[김제시청] 10.18(월)~10.22(금)12:00~13:00 김제시 용지면 소재한 그린반점(소독완료) 방문자는 가까운 선별진료소 방문 및 검사 바랍니다.</t>
+          <t>[장성군청] 10.26.(화) 확진자 1명 발생. 자가격리 중 확진으로 이동동선 없음. 외국인사업장 등 방역취약시설 운영자 및 종사자는 2주 1회 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2021/10/25 15:09:24</t>
+          <t>2021/10/26 14:26:48</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>[진주시청] 25일 15시 기준 확진자 1명(무료선제검사) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[강진군청] 10월 23일 17:30 강진군 여성배드민턴 대회 후 회장 이취임식에 참석한 군민은 보건소 선별진료소에서 오후 5시까지 검사 받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2021/10/25 14:57:15</t>
+          <t>2021/10/26 14:22:31</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>경상남도 양산시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>[양산시청]10.25.(월) 15시기준, 코로나19 확진자 6명발생(접촉자 1, 격리중 2, 격리면제 검사 3)▲코로나19 백신 당일접종 접종센터(9~15시)</t>
+          <t>[음성군청]10월 26일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2021/10/25 14:31:31</t>
+          <t>2021/10/26 14:19:40</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청남도 청양군</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>[안산시청]10월25일14시기준 확진자 39명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/XeqOnC5</t>
+          <t>[청양군청] 10월 26일 기준 확진자 1명 발생. 청양98번(자가격리중 확진, 이동동선 없음). ▲타지역 방문 자제, 유증상 시 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2021/10/25 14:18:04</t>
+          <t>2021/10/26 14:01:45</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>[화성시청] 10.18.(월) 18:00~19:00 둘리칼국수(화성시 남양읍 남양시장로61) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[사천시청]10.26.(화) 14시 기준 확진자 2명(확진자 접촉자1명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2021/10/25 14:04:46</t>
+          <t>2021/10/26 12:58:38</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>[통영시청]10.14.(목) 통영출발(16:10)→고성·마산경유→부산사상터미널도착/현대고속(경남70아1030) 탑승자는 가까운 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[사천시청]10.14.(목)~10.24(일) 08:00~12:00 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2021/10/25 13:44:21</t>
+          <t>2021/10/26 11:52:38</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.25.(월) 11:00기준 신규확진자 15명 url.kr/v4srn9 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[칠곡군청] 10.22.(금)~10.25.(월) 산호장여관(왜관읍 중앙로5길 10, 왜관역 부근) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2021/10/25 11:47:38</t>
+          <t>2021/10/26 11:52:08</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>[구미시청]외국인근로자 확진자 다수 발생. 외국인고용주께서는 근로자가 가까운 보건소에서 백신접종 및 진단검사를 할 수 있도록 관리에 철저를 기하여주시기 바랍니다.</t>
+          <t>[칠곡군청] 10.12.(화)~10.24.(일) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2021/10/25 11:19:05</t>
+          <t>2021/10/26 11:23:52</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>[김제시청] 10.25.(월)11시기준 확진자 2명발생(확진자접촉2, 동선파악중)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[안양시청]▲10.26.(화) 11:00기준 신규확진자 24명 url.kr/eybpvx ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2021/10/25 11:09:57</t>
+          <t>2021/10/26 11:11:36</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>경상북도 성주군</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>[아산시청] 10월 24일 확진자 1명(해외 입국자1) / 새로운 일상을 위한 방역의 생활화! 모두 함께 만들어 갑시다. 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[성주군] 10월23일(토) 13:50-14:20까지 박여사순대국밥(초전면 대장길 76) 방문자는 선별진료소에서 코로나19 PCR검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2021/10/25 11:09:15</t>
+          <t>2021/10/26 10:59:58</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>전라북도 무주군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>[무주군청] 10.25.(월)11시 기준 신규 확진자 1명 발생(무주 45번, 10.24.(일) 21시 확진)/감기몸살, 기침 등 이상증상시 진단 검사바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자 5명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2021/10/25 11:00:00</t>
+          <t>2021/10/26 10:28:11</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자 8명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[청주시청]10월 25일 확진자 13명 발생(상당구3,서원구1,흥덕구3,청원구5,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:49</t>
+          <t>2021/10/26 10:18:06</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경상북도 성주군</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 25일(월) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[성주군청] 최근 타지역을 방문했거나 발열, 기침 등 코로나19 증상이 있을 경우 보건소 선별진료소를 방문하여 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:39</t>
+          <t>2021/10/26 10:13:53</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>[포항시청] 10.19(화)~10.22(금) 대구은행 상대동지점(대도동 640-7) 대출업무관련 방문자는 가까운 보건소에서 검사 바랍니다.</t>
+          <t>[진천군청]▲10.25 코로나 확진자 11명(외국인11). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:32</t>
+          <t>2021/10/26 10:05:39</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>[금산군청] 10.25(월) 10시 기준 확진자 8명 발생(격리중 3, 신규5), 역학조사중, 감기몸살, 오한 등 증상시 선별진료소 방문 검사바랍니다.</t>
+          <t>[완주군청] 10월 26일(화) 0시 기준 확진자 8명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2021/10/25 10:00:53</t>
+          <t>2021/10/26 10:00:58</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 25일 0시 기준, 수원 확진자 16명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d1t0c</t>
+          <t>[강북구청]10.16.~22. 분홍미용실(강북구 도봉로97길 15), 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2021/10/25 09:30:14</t>
+          <t>2021/10/26 10:00:05</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다.▲24일 도내 확진자 42명 발생</t>
+          <t>[수원시청] 10월 26일 0시 기준, 수원 확진자 20명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/mwbj1</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2021/10/25 09:17:02</t>
+          <t>2021/10/26 09:57:38</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>강원도 강릉시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>[강릉시청]어제(일) 4명 확진(친구간 밀접촉4)/10.20(수)~23(토) 기간중 카페썸(가톨릭관동대 내)을 방문하신 분은 오전중 보건소에서 반드시 검사바랍니다</t>
+          <t>[창원시청] 10.21(목)~10.24(일) 05:00~12:00 진해스파랜드(진해구 진해대로 762,지하) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2021/10/25 09:14:30</t>
+          <t>2021/10/26 09:52:28</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>[창원시청]10월21일(07:50~11:00), 22일(08:50~10:40) 진해스파랜드(진해대로 762,지하)이용자는 관할보건소에서 검사받으시기 바랍니다.</t>
+          <t>[완도군청]확진자 2명 발생(신지면1, 보길면1) 자가격리 중 확진으로 이동동선 없음▶오전 금일, 보길, 금당, 생일 이동선별진료소 운영중▶주민들은 검사요망</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2021/10/25 09:13:26</t>
+          <t>2021/10/26 09:51:23</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5705,201 +5705,201 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>[창원시청]10월18일(09:20~11:20),19일(07:40~11:10),20일(07:50~10:50)진해스파랜드(진해대로 762)이용자관할보건소에서 검사요망</t>
+          <t>[창원시청] 10.19.(화), 10.21.(목)~10.24.(일) 환금휘트니스사우나(회원구 북성로 106,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2021/10/25 09:01:13</t>
+          <t>2021/10/26 09:48:27</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 25일 00시 기준 확진자 9명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[창원시청] 10.20.(수) 19:00~19:30 팔룡동 대동마트(의창구 반계로 97) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2021/10/25 08:53:36</t>
+          <t>2021/10/26 09:22:52</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>[전남도청] 10.24.24시기준 확진5명(구례1,장성1,완도1,신안1 /해외1(광양))※내국인3명,외국인2명(건설1,선원1) ▲의심증상 즉시 보건소 검사받으세요</t>
+          <t>[창원시청] 10.25. 확진자 6명 발생 ▲성산1,합포1,진해1,타지역1,격리중2 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2021/10/25 08:45:15</t>
+          <t>2021/10/26 09:05:02</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>[신안군청]10.24.24시 기준 확진자 1명(건설근로자 외국인 1명)발생 ▲외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
+          <t>[김제시청] 10.26.(화) 9시기준 확진자 1명 발생(자가격리중 확진, 외국인)/동선없음/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2021/10/25 08:25:06</t>
+          <t>2021/10/26 09:01:46</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>전라남도 광양시</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>[광양시청] 10. 24. 24시 기준 확진자 1명 발생(해외입국자 1) 가벼운 감기증상도 의료기관 방문 전 선별진료소 무료 검사 받으시기 바랍니다.</t>
+          <t>[영암군청] 10. 21.(목) 15:30~17:20 금정농협 경제사업부(금정면 용두로 24) 방문자는 선별진료소 검사바랍니다.(격리중 확진으로 역학조사 완료)</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2021/10/25 08:07:08</t>
+          <t>2021/10/26 08:51:07</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.25(월) 08시 기준 확진자 1명발생(남원 170번)/역학조사 중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시검사 받으시기 바랍니다.</t>
+          <t>[영광군청] 10.25.(월) 22시기준 확진자1명(타지역 확진자 접촉)발생▲10.25.(월) 12시~13시 영광읍 양평해장국 방문자는 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2021/10/25 08:02:06</t>
+          <t>2021/10/26 08:50:31</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>[울산광역시]임시선별검사소▲문수경기장(평일9~20시)▲종합운동장,동구국민체육센터,농소운동장,온양체육공원(평일9~17시)입니다.(점심시간 12시~13시 미운영)</t>
+          <t>[전남도청] 10.25. 24시기준 확진 6명(여수1,나주1,장흥1,영암1,신안2) ▲방역취약시설 운영자 및 종사자는 10.31.까지 2주 1회 진단검사 받으세요</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2021/10/25 08:00:04</t>
+          <t>2021/10/26 08:46:39</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>[제천시청]10.25(월) 08시 현재. 확진자 1명 발생(외국인). 감염경로 조사중. 추가사항은 모바일콜센터 등으로 안내드리겠습니다. 증상 발현시 검사 바랍니다</t>
+          <t>[보성군]타지역 확진자 동선 관련, 10.20.(수) 16:20 회천→광주행 광우고속 버스를 이용하신 분은 보건소 선별진료소에서 검사바랍니다.(09~18시 운영)</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2021/10/24 20:42:25</t>
+          <t>2021/10/26 08:45:13</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>강원도 강릉시</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>[강릉시청]10.20(수)~10.23(토) 기간 중 카페썸(가톨릭관동대 내)을 방문하신 분들은 내일 오전중으로 보건소 선별검사소에서 반드시 검사 바랍니다.</t>
+          <t>[신안군청] 10.25. 24시 기준 확진자 2명(신안 57번~58번/자가격리 중 2) 발생 ▲의심 증상 시 즉시 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2021/10/24 18:35:44</t>
+          <t>2021/10/26 08:08:23</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
+          <t>[군산시청] ▲ 10/24(일) 10:00~12:20 월명24시사우나찜질방(현충로95(나운동)) 남탕 이용자는 보건소 선별검사(09시~18시)바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2021/10/24 18:11:09</t>
+          <t>2021/10/26 08:03:33</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>[홍성군청]10월24일(일) 18시 기준 확진자 4명(홍성290~293번) 발생. 확진자 접촉 2, 자가격리중 1, 자발적 검사 1. 정밀역학조사중</t>
+          <t>[여수시청] 10.25.24:00 기준 총1명 발생(타지역 방문)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2021/10/24 18:08:20</t>
+          <t>2021/10/25 21:53:43</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>강원도 태백시</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>[안성시청]10.24.코로나확진자4명(자발적검사2, 확진자접촉2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[태백시청] 10월 25일(월) 21시기준 확진자 8명 발생(역학조사 중, 필요시 이동동선 태백시 홈페이지 공개), 유증상자는 보건소 선별검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2021/10/24 17:41:31</t>
+          <t>2021/10/25 18:53:55</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5909,609 +5909,609 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>[남양주시청]10.24.(일) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t7m6 증상의심시 코로나19 검사받으세요.</t>
+          <t>[남양주시청]10.25.(월) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t8vj 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2021/10/24 17:23:07</t>
+          <t>2021/10/25 18:34:29</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>전라남도 장성군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>[장성군청] 10. 24.(일) 확진자 1명(타지역 거주자) 발생. 관내 동선 및 접촉자 파악완료. 타지역 방문 및 접촉자는 증상이 없더라도 반드시 검사바랍니다.</t>
+          <t>[진천군청]▲10.24 코로나 확진자 4명(내국인2, 외국인2)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2021/10/24 17:04:10</t>
+          <t>2021/10/25 18:26:40</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 장흥군</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 24일 17시 기준 확진자 5명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요..</t>
+          <t>[장흥군청]10.25. 17시 기준 확진자 1명 발생(자가격리 중 확진) ▶이동동선 및 접촉자 없음 ▶유증상시 접종유무와 상관없이 즉시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2021/10/24 16:22:26</t>
+          <t>2021/10/25 18:00:49</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>[당진시청]10/24(일)16시기준 확진자4명 발생(격리중2,조사중2).총1053명▲신규채용 등 진단검사 의무화행정명령(10/25~11/8) vo.la/68SFm</t>
+          <t>[안성시청]10.25. 코로나19확진자3명(자가격리1,확진자접촉1,자발적검사자1)발생.역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2021/10/24 16:07:36</t>
+          <t>2021/10/25 17:56:29</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>[창원시청]10월19일여탕(13:50~18:40),남탕(17:00~18:40) 북면마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
+          <t>[논산시청] 10월25일 확진자 9명(내국인6,외국인3/관내6,타지역2,조사중1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2021/10/24 16:07:15</t>
+          <t>2021/10/25 17:36:42</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>[창원시청]10월15일 여탕(17:40~19:20),남탕(17:40~19:12)북면 마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
+          <t>[의정부시]10.20.(수) 14시~16시 의정부백병원장례식장(신곡동) 2호실 방문자 중 유증상자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2021/10/24 15:08:12</t>
+          <t>2021/10/25 17:14:05</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>[안산시청]10월24일14시기준 확진자 61명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yU7Tmp1</t>
+          <t>[충주시청] 10월 25일, 확진자 3명 발생(선행 확진자의 접촉자1, 자가격리중1, 조사중1) ▲만남,모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2021/10/24 15:08:10</t>
+          <t>2021/10/25 17:03:57</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>[진주시청] 24일 15시 기준 확진자 2명(타지역 확진자 접촉자 1명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[광주시청] 10월 25일 17시 기준 확진자 16명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2021/10/24 15:07:05</t>
+          <t>2021/10/25 17:00:23</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>[부산시]10.15.(금)~10.23.(토) 뉴부산탕(금정구 서부로 2-1(서동)이용자는 선별검사소에서 코로나19검사 받으시기 바랍니다.</t>
+          <t>[과천시청] 10월25일17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2021/10/24 15:02:31</t>
+          <t>2021/10/25 17:00:02</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 24일 15시 기준, 확진자 7명 발생(선행 확진자의 접촉자)▲만남,모임,행사 자제▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[고성군청]10. 25. 16시기준, 확진자 1명(고성116번, 수도권 확진자 접촉, 타지역 거주)발생 ▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2021/10/24 14:59:35</t>
+          <t>2021/10/25 16:13:42</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>[대구광역시]단디아로마(달서구 달서대로95길 7,2층) 10/13~10/22 방문하신 분은 임시선별검사소 및 보건소(예약)에서 반드시 검사받으시기 바랍니다</t>
+          <t>[보성군]타지역 확진자 관내동선 관련, 10.19.(화) 17:00~19:45까지 보성읍 우리장례식장을 이용하신분은 보건소 선별진료소에서 지금 즉시 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2021/10/24 14:52:33</t>
+          <t>2021/10/25 15:59:49</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>서울특별시 용산구</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.23. 코로나 확진자 3명(외국인3). ▲손씻기, 마스크착용 등 방역수칙 준수바랍니다. ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[용산구청] 10.8.(금)~10.14.(목) 한남동 소재 ‘Season9(엠타이인서울)’ 방문하신 분은 가까운 선별진료소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2021/10/24 14:21:57</t>
+          <t>2021/10/25 15:56:47</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>경상북도 안동시</t>
+          <t>경기도 고양시</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>[안동시청]타지역확진자관련▲10/19(화) 09:50~10:20 콩심용상안동점(용상북1길6에이스아울렛E동1층)방문자는 선별진료소 방문하여 코로나19 검사바랍니다.</t>
+          <t>[고양시청]10.18.(월)~20.(수) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2021/10/24 14:13:44</t>
+          <t>2021/10/25 15:41:41</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>[구례군청]10.24.(일) 확진자 1명 발생(타지역 확진자 접촉). 타지역 방문 및 타지인과의 만남을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[광주광역시] 10.14(목)~10.23(토) 설화머리방(서구 죽봉대로 111번길 14, 광천동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2021/10/24 14:02:29</t>
+          <t>2021/10/25 15:32:37</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>[당진시청]②10/17(월),22(금),23(토)18:00~22:00뉴럭셔리질러존노래연습장(북문로 1길 35-10)방문자 시청 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[김제시청] 10.18(월)~10.22(금)12:00~13:00 김제시 용지면 소재한 그린반점(소독완료) 방문자는 가까운 선별진료소 방문 및 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2021/10/24 13:58:51</t>
+          <t>2021/10/25 15:09:24</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>[당진시청]①10.21(목) 17:55~18:30 CU편의점 당진원당점(수청동 983) 방문자는 15시30분까지 당진시청 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[진주시청] 25일 15시 기준 확진자 1명(무료선제검사) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2021/10/24 13:52:25</t>
+          <t>2021/10/25 14:57:15</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경상남도 양산시</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>[남양주시청]10.13.(수)~10.24.(일) 롯데택배물류센터(진접읍 양진로 962)근무자 및 방문자는 관할 선별진료소에서 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[양산시청]10.25.(월) 15시기준, 코로나19 확진자 6명발생(접촉자 1, 격리중 2, 격리면제 검사 3)▲코로나19 백신 당일접종 접종센터(9~15시)</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2021/10/24 13:19:52</t>
+          <t>2021/10/25 14:31:31</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>[울산광역시]10.19(화)17:29~19:44▲착한갈비(중구 반구정12길 55,반구동,소독완료)방문자는 코로나 검사후 중구보건소(☎290-4300)연락바랍니다.</t>
+          <t>[안산시청]10월25일14시기준 확진자 39명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/XeqOnC5</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2021/10/24 13:09:20</t>
+          <t>2021/10/25 14:18:04</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 24일 13시 기준 신규확진 2명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[화성시청] 10.18.(월) 18:00~19:00 둘리칼국수(화성시 남양읍 남양시장로61) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2021/10/24 12:49:40</t>
+          <t>2021/10/25 14:04:46</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>[화성시청] 10.18.(월)~10.21.(목) 대승철물(화성시 남양읍 남양성지로 233) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[통영시청]10.14.(목) 통영출발(16:10)→고성·마산경유→부산사상터미널도착/현대고속(경남70아1030) 탑승자는 가까운 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2021/10/24 11:17:54</t>
+          <t>2021/10/25 13:44:21</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.4.(월) ~ 10.22.(금) 만남카페(칠곡군 왜관읍 중앙로5길 5-1, 왜관역 부근) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[안양시청]▲10.25.(월) 11:00기준 신규확진자 15명 url.kr/v4srn9 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2021/10/24 11:14:04</t>
+          <t>2021/10/25 11:47:38</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>[금산군청] 10.24(일) 11시기준 확진자 6명(격리중 1, 신규 5) 발생, 역학조사 중 ▶ 감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다</t>
+          <t>[구미시청]외국인근로자 확진자 다수 발생. 외국인고용주께서는 근로자가 가까운 보건소에서 백신접종 및 진단검사를 할 수 있도록 관리에 철저를 기하여주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2021/10/24 11:11:44</t>
+          <t>2021/10/25 11:19:05</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.24.(일) 11:00기준 신규확진자 10명 url.kr/pctb72 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[김제시청] 10.25.(월)11시기준 확진자 2명발생(확진자접촉2, 동선파악중)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2021/10/24 10:59:35</t>
+          <t>2021/10/25 11:09:57</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 24일(일) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[아산시청] 10월 24일 확진자 1명(해외 입국자1) / 새로운 일상을 위한 방역의 생활화! 모두 함께 만들어 갑시다. 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2021/10/24 10:54:30</t>
+          <t>2021/10/25 11:09:15</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>전라북도 무주군</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>[고성군청]10.14(목)통영출발(16:00)→고성경유(16:38)→마산경유(17:35)→부산시외버스터미널도착(18:25)현대버스탑승자는 선별진료소에서검사바랍니다</t>
+          <t>[무주군청] 10.25.(월)11시 기준 신규 확진자 1명 발생(무주 45번, 10.24.(일) 21시 확진)/감기몸살, 기침 등 이상증상시 진단 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2021/10/24 10:33:54</t>
+          <t>2021/10/25 11:00:00</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>[구미시청]10/16(토)~10/17(일) 이슬람교 구미성원 (구미중앙로31길 13, 원평동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[용인시청]금일 0시기준 확진자 8명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2021/10/24 10:30:15</t>
+          <t>2021/10/25 10:42:49</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>[청주시청]10월 23일 확진자 17명 발생(상당구6,서원구2,흥덕구5,청원구4)▲홈페이지 참조▲이동·모임 자제▲수시 환기▲유증상 시 신속히 무료검사 바랍니다.</t>
+          <t>[완주군청] 10월 25일(월) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2021/10/24 10:30:10</t>
+          <t>2021/10/25 10:42:39</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자17명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[포항시청] 10.19(화)~10.22(금) 대구은행 상대동지점(대도동 640-7) 대출업무관련 방문자는 가까운 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2021/10/24 10:20:53</t>
+          <t>2021/10/25 10:42:32</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>[구미시청]10/7(목)~10/21(목) 드리사(delisha cafe)(1공단로 190 지하1층,공단동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[금산군청] 10.25(월) 10시 기준 확진자 8명 발생(격리중 3, 신규5), 역학조사중, 감기몸살, 오한 등 증상시 선별진료소 방문 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2021/10/24 10:16:16</t>
+          <t>2021/10/25 10:00:53</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>강원도 평창군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>[평창군청] 10.24일 평창군 확진자 1명(231번) 대화면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
+          <t>[수원시청] 10월 25일 0시 기준, 수원 확진자 16명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d1t0c</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2021/10/24 10:10:06</t>
+          <t>2021/10/25 09:30:14</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>[완도군청]근해어선 선원 자가격리중 1명 확진(기존10, 추가1)▶입출항 연근해어선▶(행정명령)외국인 고용사업장 내·외국인 진담검사 하시기 바랍니다.</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다.▲24일 도내 확진자 42명 발생</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2021/10/24 10:00:16</t>
+          <t>2021/10/25 09:17:02</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>강원도 강릉시</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 24일 0시 기준, 수원 확진자 48명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/p1eng</t>
+          <t>[강릉시청]어제(일) 4명 확진(친구간 밀접촉4)/10.20(수)~23(토) 기간중 카페썸(가톨릭관동대 내)을 방문하신 분은 오전중 보건소에서 반드시 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2021/10/24 10:00:03</t>
+          <t>2021/10/25 09:14:30</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>[전남도청]전일 9명 발생(√타지역접촉4√외국인근로자4√가족접촉1)▲학교기숙사 등 일상생활 복귀전▲외국인고용사업장 신규채용 근로자는 근로전 진단검사 꼭 받으세요.</t>
+          <t>[창원시청]10월21일(07:50~11:00), 22일(08:50~10:40) 진해스파랜드(진해대로 762,지하)이용자는 관할보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2021/10/24 09:50:27</t>
+          <t>2021/10/25 09:13:26</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>강원도 원주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>[원주시청] 10.15.또는10.20.'술파는노래방뿜빠이(장미공원길43-4,2층,단계동)' 이용자는 오늘 15시(12~13시 제외)까지 보건소 코로나 검사받으세요</t>
+          <t>[창원시청]10월18일(09:20~11:20),19일(07:40~11:10),20일(07:50~10:50)진해스파랜드(진해대로 762)이용자관할보건소에서 검사요망</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2021/10/24 09:46:55</t>
+          <t>2021/10/25 09:01:13</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>[영암군청] 10. 23.(토) 12:40~14:00 '고향식육식당'(금정면 용두로 15) 방문자는 증상유무관계없이 즉시 선별진료소 검사바랍니다.</t>
+          <t>[양주시청] 10월 25일 00시 기준 확진자 9명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2021/10/24 09:00:06</t>
+          <t>2021/10/25 08:53:36</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 24일 00시기준 확진자 8명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[전남도청] 10.24.24시기준 확진5명(구례1,장성1,완도1,신안1 /해외1(광양))※내국인3명,외국인2명(건설1,선원1) ▲의심증상 즉시 보건소 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2021/10/24 08:56:28</t>
+          <t>2021/10/25 08:45:15</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -6521,337 +6521,337 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>[신안군청] 10.23. 24시 기준 확진자 3명(건설근로자 외국인 2명, 자가격리 중 1명) 발생 ▲ 외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
+          <t>[신안군청]10.24.24시 기준 확진자 1명(건설근로자 외국인 1명)발생 ▲외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2021/10/24 08:53:21</t>
+          <t>2021/10/25 08:25:06</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>전라남도 광양시</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>[전남도청]10.23. 24시기준 확진 9명(목포1, 곡성1, 영암3, 진도1, 신안3) ※내국인 5명, 외국인 4명(건설 4)▲의심증상시 무료 진단검사 받으세요</t>
+          <t>[광양시청] 10. 24. 24시 기준 확진자 1명 발생(해외입국자 1) 가벼운 감기증상도 의료기관 방문 전 선별진료소 무료 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2021/10/24 08:21:43</t>
+          <t>2021/10/25 08:07:08</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>[목포시청]10.23. 24시 기준 확진자 1명 (타지역방문접촉) 발생 ▲타지역 이동 자제하시고, 기침, 발열 등 의심 증상 있을 시 보건소 무료 검사받으세요.</t>
+          <t>[남원시청]▲10.25(월) 08시 기준 확진자 1명발생(남원 170번)/역학조사 중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2021/10/23 18:01:25</t>
+          <t>2021/10/25 08:02:06</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>[당진시청]신규채용 및 외국인근로자 등 코로나19진단검사 의무화됩니다.(10.25.~11.8.) 자세한 사항은 시홈페이지 공고 참고바랍니다. vo.la/68SFm</t>
+          <t>[울산광역시]임시선별검사소▲문수경기장(평일9~20시)▲종합운동장,동구국민체육센터,농소운동장,온양체육공원(평일9~17시)입니다.(점심시간 12시~13시 미운영)</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2021/10/23 18:00:23</t>
+          <t>2021/10/25 08:00:04</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>[남양주시청]10.23.(토) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t799 증상의심시 코로나19 검사받으세요.</t>
+          <t>[제천시청]10.25(월) 08시 현재. 확진자 1명 발생(외국인). 감염경로 조사중. 추가사항은 모바일콜센터 등으로 안내드리겠습니다. 증상 발현시 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2021/10/23 18:00:09</t>
+          <t>2021/10/24 20:42:25</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>강원도 강릉시</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>[수원시청] 10.13.(수)~10.22.(금) 바이크마켓(팔달구 세지로 352, 1층) 방문자 중 유증상자는 가까운 보건소에서 코로나19 검사바랍니다.</t>
+          <t>[강릉시청]10.20(수)~10.23(토) 기간 중 카페썸(가톨릭관동대 내)을 방문하신 분들은 내일 오전중으로 보건소 선별검사소에서 반드시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2021/10/23 17:14:08</t>
+          <t>2021/10/24 18:35:44</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 23일 확진자 10명 발생(타지역접촉4, 자가격리중3, 조사중3) ▲모임, 행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2021/10/23 17:01:05</t>
+          <t>2021/10/24 18:11:09</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 23일 17시 기준 확진자 18명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[홍성군청]10월24일(일) 18시 기준 확진자 4명(홍성290~293번) 발생. 확진자 접촉 2, 자가격리중 1, 자발적 검사 1. 정밀역학조사중</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2021/10/23 16:51:01</t>
+          <t>2021/10/24 18:08:20</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>[진도군청]10.23(토)확진자 1명발생(진도56번)▲타지역거주 외국인근로자,접촉자 전원음성▲입출항 근해어업 선원,외국인고용사업장 내·외국인 2주1회 검사받으세요</t>
+          <t>[안성시청]10.24.코로나확진자4명(자발적검사2, 확진자접촉2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2021/10/23 16:34:08</t>
+          <t>2021/10/24 17:41:31</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>[화성시청] 코로나19 선별진료소(검사소) 주말 및 공휴일 운영시간이 09시부터 13시로 조정됨을 알려드립니다.</t>
+          <t>[남양주시청]10.24.(일) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t7m6 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2021/10/23 16:08:38</t>
+          <t>2021/10/24 17:23:07</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>전라남도 장성군</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>[당진시청]10/23(토) 16시기준 확진자17명(관내접촉2,타지역접촉2,격리중8,조사중5)발생.총1049명▲의심증상 시 외출·모임 자제 및 코로나검사 바랍니다.</t>
+          <t>[장성군청] 10. 24.(일) 확진자 1명(타지역 거주자) 발생. 관내 동선 및 접촉자 파악완료. 타지역 방문 및 접촉자는 증상이 없더라도 반드시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2021/10/23 15:31:34</t>
+          <t>2021/10/24 17:04:10</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>[사천시청] 10.21.(목) 09:20~11:30 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[광주시청] 10월 24일 17시 기준 확진자 5명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요..</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2021/10/23 15:27:27</t>
+          <t>2021/10/24 16:22:26</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>전라남도 곡성군</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>[곡성군청]금일 09시기준 확진자 1명 발생. 타지역 거주, 동선 및 접촉자 파악중, 타 지역방문 후 또는 유증상 시에 군 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[당진시청]10/24(일)16시기준 확진자4명 발생(격리중2,조사중2).총1053명▲신규채용 등 진단검사 의무화행정명령(10/25~11/8) vo.la/68SFm</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2021/10/23 15:24:22</t>
+          <t>2021/10/24 16:07:36</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>[음성군청]10월 23일 확진자 5명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[창원시청]10월19일여탕(13:50~18:40),남탕(17:00~18:40) 북면마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2021/10/23 14:37:19</t>
+          <t>2021/10/24 16:07:15</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>[안산시청]10월23일14시기준 확진자 77명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z9vSfk2</t>
+          <t>[창원시청]10월15일 여탕(17:40~19:20),남탕(17:40~19:12)북면 마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2021/10/23 14:18:11</t>
+          <t>2021/10/24 15:08:12</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.23.(토) 13:30기준 신규확진자 33명 url.kr/qz7o2i ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[안산시청]10월24일14시기준 확진자 61명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yU7Tmp1</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2021/10/23 14:02:09</t>
+          <t>2021/10/24 15:08:10</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>[사천시청] 10.23.(토) 14시 기준 확진자 3명(자가격리중 2명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[진주시청] 24일 15시 기준 확진자 2명(타지역 확진자 접촉자 1명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2021/10/23 14:00:25</t>
+          <t>2021/10/24 15:07:05</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>충청북도 괴산군</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>[괴산군청] 10월 23일 확진자 1명(타지역 1명) 발생. 자세한 사항은 역학조사후 홈페이지 게시예정. 증상발현시 즉시 코로나19검사 받으시기 바랍니다.</t>
+          <t>[부산시]10.15.(금)~10.23.(토) 뉴부산탕(금정구 서부로 2-1(서동)이용자는 선별검사소에서 코로나19검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2021/10/23 13:11:08</t>
+          <t>2021/10/24 15:02:31</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 23일 13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[충주시청] 10월 24일 15시 기준, 확진자 7명 발생(선행 확진자의 접촉자)▲만남,모임,행사 자제▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2021/10/23 12:47:56</t>
+          <t>2021/10/24 14:59:35</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>[김제시청]10.23.(토) 11시 확진자 2명 발생(내국인1,외국인1)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[대구광역시]단디아로마(달서구 달서대로95길 7,2층) 10/13~10/22 방문하신 분은 임시선별검사소 및 보건소(예약)에서 반드시 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2021/10/23 12:32:22</t>
+          <t>2021/10/24 14:52:33</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6861,738 +6861,891 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.22 코로나 확진자 5명(내국인2, 외국인3)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[진천군청]▲10.23. 코로나 확진자 3명(외국인3). ▲손씻기, 마스크착용 등 방역수칙 준수바랍니다. ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2021/10/23 11:35:53</t>
+          <t>2021/10/24 14:21:57</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>[강화군청] 2021년 10월 16일(토) ~ 10월 22일(금)까지 강화읍 풍물시장 방문객은 가까운 선별 진료소에서 코로나 검사를 받으시길 바랍니다.</t>
+          <t>[안동시청]타지역확진자관련▲10/19(화) 09:50~10:20 콩심용상안동점(용상북1길6에이스아울렛E동1층)방문자는 선별진료소 방문하여 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2021/10/23 11:08:06</t>
+          <t>2021/10/24 14:13:44</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 23일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[구례군청]10.24.(일) 확진자 1명 발생(타지역 확진자 접촉). 타지역 방문 및 타지인과의 만남을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2021/10/23 11:00:04</t>
+          <t>2021/10/24 14:02:29</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인고용 100인미만 사업장 내·외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[당진시청]②10/17(월),22(금),23(토)18:00~22:00뉴럭셔리질러존노래연습장(북문로 1길 35-10)방문자 시청 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2021/10/23 10:49:46</t>
+          <t>2021/10/24 13:58:51</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>경기도 고양시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>[고양시청]10.17.(일) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[당진시청]①10.21(목) 17:55~18:30 CU편의점 당진원당점(수청동 983) 방문자는 15시30분까지 당진시청 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2021/10/23 10:42:05</t>
+          <t>2021/10/24 13:52:25</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>[강원도청] 10.22.(금) 코로나19 확진자 20명 (원주11, 춘천7, 속초1, 횡성1) ▶감기증상 시 즉시검사 실시 ▶개인 방역수칙 준수 철저 당부드림!</t>
+          <t>[남양주시청]10.13.(수)~10.24.(일) 롯데택배물류센터(진접읍 양진로 962)근무자 및 방문자는 관할 선별진료소에서 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2021/10/23 10:37:32</t>
+          <t>2021/10/24 13:19:52</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>전라북도 부안군</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>[부안군청]부안 128번 확진자 동선 관련 10.21(목) 17:15전주⇒부안 직행 시외버스 탑승자는 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[울산광역시]10.19(화)17:29~19:44▲착한갈비(중구 반구정12길 55,반구동,소독완료)방문자는 코로나 검사후 중구보건소(☎290-4300)연락바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2021/10/23 10:03:18</t>
+          <t>2021/10/24 13:09:20</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>[전남도청](행정명령강화) 외국인고용사업장(건설,어업,식당 등) ▲신규취업 ▲근무지 변경시 근무전 진단검사 의무 ▲내외국인 2주1회 진단검사 받으시기 바랍니다.</t>
+          <t>[과천시청] 10월 24일 13시 기준 신규확진 2명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2021/10/23 10:01:48</t>
+          <t>2021/10/24 12:49:40</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 23일 0시 기준, 수원 확진자 29명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/2ej2k</t>
+          <t>[화성시청] 10.18.(월)~10.21.(목) 대승철물(화성시 남양읍 남양성지로 233) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2021/10/23 09:30:56</t>
+          <t>2021/10/24 11:17:54</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲22일 도내 확진자 47명 발생</t>
+          <t>[칠곡군청] 10.4.(월) ~ 10.22.(금) 만남카페(칠곡군 왜관읍 중앙로5길 5-1, 왜관역 부근) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2021/10/23 09:19:58</t>
+          <t>2021/10/24 11:14:04</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 9명 [타시민2, 천안시민7] ▶ 기침, 발열 등 의심증상 발현 시 의료기관 방문 전 코로나19 검사 바랍니다.</t>
+          <t>[금산군청] 10.24(일) 11시기준 확진자 6명(격리중 1, 신규 5) 발생, 역학조사 중 ▶ 감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2021/10/23 09:01:30</t>
+          <t>2021/10/24 11:11:44</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 23일 00시기준 확진자 7명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[안양시청]▲10.24.(일) 11:00기준 신규확진자 10명 url.kr/pctb72 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2021/10/23 08:57:15</t>
+          <t>2021/10/24 10:59:35</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>[전남도청] 10.22.24시기준 확진 5명(목포1,무안1,신안3) ※내국인2명,외국인3명(건설3)▲타지역 이동 자제하시고, 의심증상시 보건소 무료 검사받으세요.</t>
+          <t>[완주군청] 10월 24일(일) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2021/10/23 08:48:43</t>
+          <t>2021/10/24 10:54:30</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>[남원시청]10.23(토) 08시 기준 확진자 1명 발생(남원 169번)/역학조사 중 가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[고성군청]10.14(목)통영출발(16:00)→고성경유(16:38)→마산경유(17:35)→부산시외버스터미널도착(18:25)현대버스탑승자는 선별진료소에서검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2021/10/23 08:32:15</t>
+          <t>2021/10/24 10:33:54</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>[신안군청] 10.22. 24시 기준 확진자 3명(신안 50번~52번/공사현장 근무자 2명, 자가격리 1명) 발생▲인후통, 두통 등 의심 증상시 코로나19 검사</t>
+          <t>[구미시청]10/16(토)~10/17(일) 이슬람교 구미성원 (구미중앙로31길 13, 원평동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2021/10/23 08:30:55</t>
+          <t>2021/10/24 10:30:15</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>[목포시청] 10.22. 24시 기준 확진자 1명 (자가격리중 외국인1) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[청주시청]10월 23일 확진자 17명 발생(상당구6,서원구2,흥덕구5,청원구4)▲홈페이지 참조▲이동·모임 자제▲수시 환기▲유증상 시 신속히 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2021/10/23 08:00:05</t>
+          <t>2021/10/24 10:30:10</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>[울산광역시]이번 주말(10.23~10.24) 임시선별검사소는 종합운동장, 문수경기장 2개소에서 09시~17시까지 운영합니다.(점심시간 12시~13시 미운영)</t>
+          <t>[용인시청]금일 0시기준 확진자17명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2021/10/22 19:26:24</t>
+          <t>2021/10/24 10:20:53</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>경상남도 김해시</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>[김해시청] 10.16 15:51 하삼동커피외동점(내외중앙로27)에 방문하여 현금결제 후 매장에서 취식하신 회색외투에 단발머리 여성분은 코로나 검사하시기바랍니다</t>
+          <t>[구미시청]10/7(목)~10/21(목) 드리사(delisha cafe)(1공단로 190 지하1층,공단동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2021/10/22 18:06:14</t>
+          <t>2021/10/24 10:16:16</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>강원도 평창군</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>[남양주시청]10.22.(금) 코로나19 확진자 30명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t6tl 증상의심시 코로나19검사 받으세요.</t>
+          <t>[평창군청] 10.24일 평창군 확진자 1명(231번) 대화면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2021/10/22 18:05:51</t>
+          <t>2021/10/24 10:10:06</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>[무안군청]10.22(금)18시 기준 확진자 1명 발생(타지역 거주 공사현장 외국인근로자)▲외국인 고용사업장 종사자 2주1회 진단검사▲미등록 외국인 예방접종 가능</t>
+          <t>[완도군청]근해어선 선원 자가격리중 1명 확진(기존10, 추가1)▶입출항 연근해어선▶(행정명령)외국인 고용사업장 내·외국인 진담검사 하시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2021/10/22 17:55:08</t>
+          <t>2021/10/24 10:00:16</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 22일 확진자 8명 발생(자가격리중7, 조사중1) ▲만남, 모임, 각종행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[수원시청] 10월 24일 0시 기준, 수원 확진자 48명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/p1eng</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2021/10/22 17:22:22</t>
+          <t>2021/10/24 10:00:03</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>서울특별시 구로구</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>[구로구청]10.12(화)~10.17(일) 기간 내 구로동로25길 7, 지하1층 일번지노래연습장 방문자는 가까운 선별진료소에서 코로나 검사를 받아주시기 바랍니다.</t>
+          <t>[전남도청]전일 9명 발생(√타지역접촉4√외국인근로자4√가족접촉1)▲학교기숙사 등 일상생활 복귀전▲외국인고용사업장 신규채용 근로자는 근로전 진단검사 꼭 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2021/10/22 17:18:54</t>
+          <t>2021/10/24 09:50:27</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>강원도 원주시</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>[창원시청] 10.17.(일) 07:50~09:03 창원북면황토방온천 여탕(의창구 북면 천주로1170번길 17-10) 이용자 관할보건소에서 예약 후 검사바랍니다.</t>
+          <t>[원주시청] 10.15.또는10.20.'술파는노래방뿜빠이(장미공원길43-4,2층,단계동)' 이용자는 오늘 15시(12~13시 제외)까지 보건소 코로나 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2021/10/22 17:07:22</t>
+          <t>2021/10/24 09:46:55</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>[논산시청] 10월22일 확진자 2명(내국인2/관내1,타지역1) 발생 ▶타지역 이동·방문 후 가까운 선별진료소에서 PCR검사 당부드립니다.</t>
+          <t>[영암군청] 10. 23.(토) 12:40~14:00 '고향식육식당'(금정면 용두로 15) 방문자는 증상유무관계없이 즉시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2021/10/22 17:07:06</t>
+          <t>2021/10/24 09:00:06</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 22일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[양주시청] 10월 24일 00시기준 확진자 8명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2021/10/22 16:59:42</t>
+          <t>2021/10/24 08:56:28</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>[과천시청] 10월22일17시 기준 신규확진 3명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[신안군청] 10.23. 24시 기준 확진자 3명(건설근로자 외국인 2명, 자가격리 중 1명) 발생 ▲ 외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2021/10/22 16:40:39</t>
+          <t>2021/10/24 08:53:21</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>[창원시청]▲10.18~10.19 13:00~13:40▲10.20 12:20~12:40 테크노밸리식당매점(의창구소계로12,복지동605)식사하신분 코로나검사바랍니다</t>
+          <t>[전남도청]10.23. 24시기준 확진 9명(목포1, 곡성1, 영암3, 진도1, 신안3) ※내국인 5명, 외국인 4명(건설 4)▲의심증상시 무료 진단검사 받으세요</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2021/10/22 15:27:14</t>
+          <t>2021/10/24 08:21:43</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>[음성군청]10월22일 확진자 23명(내국인2,외국인21)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[목포시청]10.23. 24시 기준 확진자 1명 (타지역방문접촉) 발생 ▲타지역 이동 자제하시고, 기침, 발열 등 의심 증상 있을 시 보건소 무료 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2021/10/22 15:21:32</t>
+          <t>2021/10/23 18:01:25</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>[안산시청]10월22일14시기준 확진자 45명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Zc7Ow36</t>
+          <t>[당진시청]신규채용 및 외국인근로자 등 코로나19진단검사 의무화됩니다.(10.25.~11.8.) 자세한 사항은 시홈페이지 공고 참고바랍니다. vo.la/68SFm</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2021/10/22 15:15:28</t>
+          <t>2021/10/23 18:00:23</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.21 확진자 8명(내국인3,외국인5)▲10.22(16:00~20:00)덕산행정복지센터,이월행정복지센터 외국인 집중 코로나 PCR 전수검사 실시</t>
+          <t>[남양주시청]10.23.(토) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t799 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2021/10/22 14:44:06</t>
+          <t>2021/10/23 18:00:09</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>[대구광역시]알힉마논공이슬람센터(논공읍 논공로 15길 20-6) 10/15 이후 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[수원시청] 10.13.(수)~10.22.(금) 바이크마켓(팔달구 세지로 352, 1층) 방문자 중 유증상자는 가까운 보건소에서 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2021/10/22 13:57:27</t>
+          <t>2021/10/23 17:14:08</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>[창원시청] 10.11(월)~10.21(목) 문영일이비인후과의원(의창구 팔용로 428,방역완료) 방문자는 반드시 코로나검사바랍니다(10.19이후 검사완료자 제외)</t>
+          <t>[충주시청] 10월 23일 확진자 10명 발생(타지역접촉4, 자가격리중3, 조사중3) ▲모임, 행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2021/10/22 13:52:41</t>
+          <t>2021/10/23 17:01:05</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>[금산군청]10월19일 송림백작소, 새마을저온창고 / 10월20일 현대백작소 / 10월21일 송림백작소에서 일하신 분들은 코로나19 검사를 받아주시기 바랍니다.</t>
+          <t>[광주시청] 10월 23일 17시 기준 확진자 18명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2021/10/22 13:49:58</t>
+          <t>2021/10/23 16:51:01</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>[무안군청]10.20.(수)11:47~12:00, 10.21.(목)12:07~12:18삼삼한식뷔페(현경면 성재길55)방문자는 선별진료소 검사바랍니다.▲방역소독완료</t>
+          <t>[진도군청]10.23(토)확진자 1명발생(진도56번)▲타지역거주 외국인근로자,접촉자 전원음성▲입출항 근해어업 선원,외국인고용사업장 내·외국인 2주1회 검사받으세요</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2021/10/22 11:31:26</t>
+          <t>2021/10/23 16:34:08</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>[전남도청] 외국인확진자 지속확산 ▲전일확진자 15명 중 외국인근로자 10명(√어업3√건설7)▲외국인고용사업장 신규취업 내·외국인 근무전 검사 의무적으로 받으세요</t>
+          <t>[화성시청] 코로나19 선별진료소(검사소) 주말 및 공휴일 운영시간이 09시부터 13시로 조정됨을 알려드립니다.</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2021/10/22 11:00:54</t>
+          <t>2021/10/23 16:08:38</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>[나주시청] 10.22. 09시기준. 확진자1명(격리 1)발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
+          <t>[당진시청]10/23(토) 16시기준 확진자17명(관내접촉2,타지역접촉2,격리중8,조사중5)발생.총1049명▲의심증상 시 외출·모임 자제 및 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2021/10/22 10:59:58</t>
+          <t>2021/10/23 15:31:34</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자20명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[사천시청] 10.21.(목) 09:20~11:30 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2021/10/22 10:55:31</t>
+          <t>2021/10/23 15:27:27</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>전라남도 곡성군</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>[대구광역시]오렌지PC방(대명복개로138-2) 9/30,10/2~4,6,9,10,18 방문하신 분은 임시선별 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[곡성군청]금일 09시기준 확진자 1명 발생. 타지역 거주, 동선 및 접촉자 파악중, 타 지역방문 후 또는 유증상 시에 군 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2021/10/22 10:23:20</t>
+          <t>2021/10/23 15:24:22</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>[창원시청] 10.17(일) 창원북면황토방온천(북면 천주로1170번길 17-10) 아침7시 입장, 6천원 현금결제 여탕 이용자는 창원보건소에 연락 후 검사바랍니다</t>
+          <t>[음성군청]10월 23일 확진자 5명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2021/10/22 10:05:40</t>
+          <t>2021/10/23 14:37:19</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 22일(금) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[안산시청]10월23일14시기준 확진자 77명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z9vSfk2</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2021/10/22 10:04:41</t>
+          <t>2021/10/23 14:18:11</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>[전주시청]10.22(금) 현재기준 1명 발생(전일 2명)/ 의심증상시 선별진료소 즉시 검사/ 방역수칙 변경 (corona.jeonju.go.kr/cor.jpg)</t>
+          <t>[안양시청]▲10.23.(토) 13:30기준 신규확진자 33명 url.kr/qz7o2i ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2021/10/22 10:01:35</t>
+          <t>2021/10/23 14:02:09</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>[금산군청] 10.22(금) 10시 기준 확진자 2명(신규 2) 발생, 역학조사 중 ▶감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다.</t>
+          <t>[사천시청] 10.23.(토) 14시 기준 확진자 3명(자가격리중 2명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2021/10/22 10:00:55</t>
+          <t>2021/10/23 14:00:25</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>경상북도 영주시</t>
+          <t>충청북도 괴산군</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>[영주시청] 10.8(금)~10.16(토) 풍기 로그인PC방 이용하신분은 코로나검사 받으시기 바랍니다. 선별진료소 운영(풍기읍사무소10-17시, 보건소18시까지)</t>
+          <t>[괴산군청] 10월 23일 확진자 1명(타지역 1명) 발생. 자세한 사항은 역학조사후 홈페이지 게시예정. 증상발현시 즉시 코로나19검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2021/10/22 10:00:53</t>
+          <t>2021/10/23 13:11:08</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 22일 0시 기준, 수원 확진자 38명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/6soyk</t>
+          <t>[과천시청] 10월 23일 13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2021/10/23 12:47:56</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>전라북도 김제시</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>[김제시청]10.23.(토) 11시 확진자 2명 발생(내국인1,외국인1)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2021/10/23 12:32:22</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>충청북도 진천군</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>[진천군청]▲10.22 코로나 확진자 5명(내국인2, 외국인3)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2021/10/23 11:35:53</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>인천광역시 강화군</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>[강화군청] 2021년 10월 16일(토) ~ 10월 22일(금)까지 강화읍 풍물시장 방문객은 가까운 선별 진료소에서 코로나 검사를 받으시길 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2021/10/23 11:08:06</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>전라북도 완주군</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>[완주군청] 10월 23일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2021/10/23 11:00:04</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>경기도 용인시</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인고용 100인미만 사업장 내·외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2021/10/23 10:49:46</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>경기도 고양시</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>[고양시청]10.17.(일) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2021/10/23 10:42:05</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>강원도 전체</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>[강원도청] 10.22.(금) 코로나19 확진자 20명 (원주11, 춘천7, 속초1, 횡성1) ▶감기증상 시 즉시검사 실시 ▶개인 방역수칙 준수 철저 당부드림!</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2021/10/23 10:37:32</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>전라북도 부안군</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>[부안군청]부안 128번 확진자 동선 관련 10.21(목) 17:15전주⇒부안 직행 시외버스 탑승자는 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2021/10/23 10:03:18</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>전라남도 전체</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>[전남도청](행정명령강화) 외국인고용사업장(건설,어업,식당 등) ▲신규취업 ▲근무지 변경시 근무전 진단검사 의무 ▲내외국인 2주1회 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>

--- a/covid_19_all/JenanMessage.xlsx
+++ b/covid_19_all/JenanMessage.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C432"/>
+  <dimension ref="A1:C429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -425,262 +425,262 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021/11/01 18:39:36</t>
+          <t>2021/11/04 14:50:55</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람 ▲50세 이상 백신 추가접종 실시 ☎문의450-1000</t>
+          <t>[광주광역시] 11.2(화) 11시~13시 빛그린백반(광산구 빛동2로라길 9, 삼거동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021/11/01 18:00:09</t>
+          <t>2021/11/04 14:50:41</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[수원시청]10.23.(토)~10.30.(토) 영성복장(팔달구 팔달문로4번길 19)방문자 중 유증상자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[칠곡군청]11.4. 0시 확진자 10명발생 중 내국인8명(생명길교회 왜관읍 중앙로 10길16·학교관련),태국인2명,유증상시 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021/11/01 17:47:03</t>
+          <t>2021/11/04 14:31:03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[광주시청] 11월 1일 17시 기준 확진자 11명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[고성군청]11.4.14시기준,확진자4명(고성129~132번, 도내확진자접촉자3, 조사중1)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021/11/01 17:31:20</t>
+          <t>2021/11/04 14:15:44</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[충주시청] 11월 1일 확진자 4명 발생(선행 확진자 접촉1, 자가격리중2, 조사중1) ▲핼러윈 기간 각종 모임 참여자는 보건소 선별진료소에서 진단검사 바랍니다</t>
+          <t>[부산시]10.26(화).~11.3(수). 07:00~18:40 LG탕 남탕(연제구 토곡로 17, 1층(연산동)) 방문자 보건소에서 검사 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021/11/01 17:26:36</t>
+          <t>2021/11/04 14:08:51</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[고성군청]11. 1.17시기준,확진자1명(고성120번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[사천시청]11.4.(목) 14시 기준 확진자 2명(접촉자 1, 격리 중 1) 발생 ▲의심증상시 즉시 진단검사 ▲개인 방역수칙을 철저히 지켜주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021/11/01 17:00:50</t>
+          <t>2021/11/04 13:13:56</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[과천시청] 11월1일 17시 기준 신규확진 3명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
+          <t>[전남도청] 방역취약시설 전국적 집단발생▲방역취약시설(요양병원, 노인주야간보호시설 등) 종사자 및 이용자 진단검사 받기 √방문 전 검사 받기 √접촉 자제 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021/11/01 15:29:02</t>
+          <t>2021/11/04 13:10:20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[구례군청]타지역 확진자 관련 10.25(월) 10:55~11:08/10.28(목) 13:00~13:06 와이식자재마트 방문자는 선별진료소에서 검사 바랍니다.</t>
+          <t>[강원도청] 11.3.(수) 도내 코로나19 확진 39명(춘천16 고성11 원주4 속초3 홍천2 철원2 태백1)▶접촉의심 및 감기증상 시 즉시검사 당부 드림!!</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021/11/01 15:27:52</t>
+          <t>2021/11/04 13:04:17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 양평군</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[완도군청]노화읍 확진자 2명 발생▶10/26~10/31 관외출타 후 31일부터 격리중으로 우리군 접촉주민 없음▶관외출타, 타지인 접촉주민은 코로나 검사요망</t>
+          <t>[양평군청] 11.1.(월) 11:30~12:30 무너미참냉면(서종면) 방문자는 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021/11/01 15:17:52</t>
+          <t>2021/11/04 12:53:47</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[당진시청]10/28(목)~10/30(토) 상쾌한이비인후과의원(당진중앙3로 75)방문자는 당진시청 선별진료소에서 코로나검사바랍니다.</t>
+          <t>[안동시청]10.27(수)~11.3(수) 안동시농수산물도매시장 내 안동청과경매장(풍산읍, 유통단지길100) 방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021/11/01 15:16:10</t>
+          <t>2021/11/04 12:01:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>충청남도 공주시</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[진주시청] 1일 15시 기준 확진자 3명(타지역확진자 가족 1명, 무료선제검사 2명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[공주시청] 11월 4일 12시 기준. 확진자 1명 발생. 공주303번(20대,조사중). 발열, 기침 등 증상 시 접종여부 상관없이 즉시 선별진료소 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021/11/01 15:13:13</t>
+          <t>2021/11/04 11:19:13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[부산시]10.28(목)16:13~16:54/10.29(금)8:34~9:33 발리아쿠아랜드(동구 중앙대로195번길24(초량동)방문자 보건소검사바랍니다.(소독완료)</t>
+          <t>[대구광역시]복지(구. 인지)사우나(서구 팔달로32길 12) 10/24 이후 남탕 이용하신 분은 임시선별검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021/11/01 15:08:05</t>
+          <t>2021/11/04 11:11:22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>전라남도 담양군</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[음성군청]11월 1일 확진자 7명(내국인2,외국인5)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[담양군청]2021.10.30.(토)18:00~19:30 동산병원 장례식장(담양읍 소재) 1층을 방문하신분은 주소지 관할보건소에서 반드시 코로나검사 받기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021/11/01 14:46:39</t>
+          <t>2021/11/04 11:08:08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[안산시청]11월1일14시기준 확진자 38명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/xJu1H3C</t>
+          <t>[전주시청]11.4(목) 현재기준 2명 발생(전일 21명) / (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021/11/01 14:30:08</t>
+          <t>2021/11/04 11:04:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[울산광역시] 10.24~10.31▲뉴옥천사우나(간판명-뉴옥천탕사우나헬스, 남구 화합로125번길 16, 삼산동, 소독완료) 남탕이용객은 코로나19 검사 바랍니다.</t>
+          <t>[광주광역시] 10.30(토)~11.2(화) 17:30~21:00 국수나무 진월점(음식점, 남구 서문대로 700, 진월동) 방문자는 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021/11/01 14:18:44</t>
+          <t>2021/11/04 11:03:50</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>경상북도 영덕군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[영덕군청] 10.30(토) 영덕→포항 무궁화호(10:20~10:54), 포항→영덕 무궁화호(13:22~13:56) 탑승객은 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[사천시청]10.30.(토) 13:30~16:30 수림사우나(벌리동 소재) 남탕, 헬스장 방문자는 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021/11/01 14:01:00</t>
+          <t>2021/11/04 10:59:59</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -690,1493 +690,1493 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[사천시청] 11.1.(월) 14시 기준 확진자 9명(수도권관련1, 접촉자7, 타지역거주1) 발생 ▲의심증상시 즉시 진단검사 바랍니다.</t>
+          <t>[사천시청]10.29(금), 10.31(일), 11.2.(화) 18:30~22:00 수림사우나(벌리동 소재) 남탕, 헬스장 방문자는 선별진료소에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021/11/01 14:00:16</t>
+          <t>2021/11/04 10:59:55</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[구미시청] 10/27(수)~10/30(토) 충칭훠궈마라탕(상사서로4길 21, 상모동) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[용인시청]11월4일 0시 기준 확진자 38명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021/11/01 13:57:25</t>
+          <t>2021/11/04 10:59:26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[강진군청]강진 19번 서울 거주 확진자 동선관련 19명 전원 음성▶상시 마스크착용,주기적 환기,적극적인 진단검사▶12~15세 및 60세 이상 추가접종 사전예약</t>
+          <t>[완주군청] 11월 4일(목) 0시 기준 확진자 4명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고 / 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021/11/01 13:24:14</t>
+          <t>2021/11/04 10:58:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[고흥군청] ② 고흥여객을 이용하신분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[여수시청] 10.29.(금)16:40~17:35 잔치네 회양념(교동 수산시장 내)에서 회 드신 남성 두 분은 금일중 보건소 선별진료소에서 검사 후 연락바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021/11/01 13:22:28</t>
+          <t>2021/11/04 10:39:19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[고흥군청] 확진자 동선 관련 10.31(일)14:00(녹동터미널→풍양(죽시)고흥여객을 이용하신 분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[부여군청] 11월 4일 10시 기준 확진자 12명 발생 【부여450~461기업체8, 격리중3, 수도권방문1】 감기증상시 코로나 검사 후 진료 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021/11/01 13:21:48</t>
+          <t>2021/11/04 10:39:03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[고흥군청] ② 10.30일(10:20~11:40) 도양읍 즐거운 내과 방문객은 녹동전통시장 특별무대 선별검사소에서 14시~17시까지 검사받으시기 바랍니다.</t>
+          <t>[고성군청] 11.1.(월)~11.3.(수)부산의원(회화면 소재)방문자는 가까운 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021/11/01 13:21:22</t>
+          <t>2021/11/04 10:20:24</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>경상남도 창녕군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[창녕군청]11.1(월) 확진자1명 발생(창녕349/관내접촉1)▷단계적 일상회복을 위한백신접종 적극동참▷개인방역수칙 준수▷유증상시 코로나검사 받으시기 바랍니다.</t>
+          <t>[사천시청]10.29.(금) 09:00~13:00, 10.31(일)~11.01(화) 07:00~18:00 17바 1276(K7 검정) 택시 탑승자는 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021/11/01 11:31:03</t>
+          <t>2021/11/04 10:09:45</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[고흥군청] ②10.29일 17:10(오천→녹동시장 입구)을 이용하신 분은 금일중 보건소 또는 금산 김일체육관에서 검사 받으시기 바랍니다.</t>
+          <t>[보은군청] 11. 4.(목) 수동감시 중 확진자 1명 발생, 동선 없음 ▲ 유증상자 코로나 검사 요망 ▲ 코로나19 예방접종 미접종자는 조속히 접종바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021/11/01 11:30:17</t>
+          <t>2021/11/04 10:05:49</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.31 코로나 확진자 3명(내국인1, 외국인2)▲실내외 마스크착용, 주기적 실내 환기, 증상발현시 즉시 진단검사받기 실천바랍니다.</t>
+          <t>[아산시청] 11월3일 확진자3명(관외1, 조사중2) / 안전한 일상회복을 위해 마스크 착용 및 모임자제 등 자발적인 방역실천 바랍니다. 증상의심시 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021/11/01 11:25:33</t>
+          <t>2021/11/04 10:03:53</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[사천시청] 10.24.(일)~10.31.(일) 제일동물병원(동금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[수원시청] 11월 4일 0시 기준, 수원 확진자 41명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사 바랍니다. me2.kr/wh2x1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021/11/01 11:11:09</t>
+          <t>2021/11/04 09:42:41</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[고흥군청] 확진자 동선 관련 10/27(수) 08:00~11:00 도양읍 우주사우나(구 봉암목욕탕) 여탕 이용객은 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[창원시청] 11.3. 확진자 11명 발생 ▲의창2,합포1,회원3,타지역2,격리중3 △선별검사소-창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021/11/01 11:08:11</t>
+          <t>2021/11/04 09:35:42</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[김제시청] 11.1.(월) 11시기준 확진자 1명 발생(자가격리중, 동선없음)/유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
+          <t>[금산군청] 10월30일부터 저온창고, 인삼밭, 백작소 등에서 인삼관련 작업을 하신 분들은 가까운 보건소 선별진료소에서 PCR 검사를 받아주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021/11/01 11:04:46</t>
+          <t>2021/11/04 09:32:20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[부여군청] 11월1일 11시기준 확진자3명 발생【부여438~440자가격리 및 수동감시(접종완료)중 발생으로 지역전파 없음】 감기증상시 코로나 검사 후 진료 바람</t>
+          <t>[포항시청] 10.31(일) 14:30~15:20 짬홍(구룡포읍 구룡포리 947-11) 해당시간 방문객은 가까운 보건소에서 검사 바랍니다 .</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021/11/01 10:59:51</t>
+          <t>2021/11/04 09:29:45</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[용인시청]11월1일 0시 기준 확진자 23명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[여수시청] 10. 30.(토) 09:00 ~ 12:00 진남수영장(오림동 소재) 방문자는 금일중으로 보건소 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021/11/01 10:53:58</t>
+          <t>2021/11/04 09:04:49</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[용인시청] 10월 25일(월)~29일(금) 기흥구 신갈동 소재 용인운전면허 기능시험응시자(방문자)는 유증상시 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[양주시청] 11월 04일 00시 기준 확진자 16명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021/11/01 10:18:47</t>
+          <t>2021/11/04 09:01:15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[사천시청] 10.30(토)~10.31(일) 장수복집(동서금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[정읍시청]11.4.(목) 9시기준 정읍181번 확진자발생/정읍178~180번 확진자접촉/카카오톡채널 참고/유증상시 검사바람 pf.kakao.com/_axcMvK</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021/11/01 10:15:57</t>
+          <t>2021/11/04 08:42:30</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[완주군청] 11월 1일(월) 0시 기준 확진자 2명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고 / 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[무안군청] 11. 3.(수) 24시 기준 확진자 1명 발생(타지역 접촉) ▲타지역방문·접촉 시 증상 유무 관계없이 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021/11/01 10:09:58</t>
+          <t>2021/11/04 08:41:50</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[사천시청]10.26(화)~10.29(금) 잠언의료기기(선구동 소재)방문자는 삼천포보건센터 임시선별진료소에서 검사 바랍니다. ▲모임자제, 진단검사에 동참바랍니다.</t>
+          <t>[남원시청]11.4.(목) 전일 확진자 2명 발생(남원 218, 219번)/기확진자 접촉▲가을철 여행 등 타지역 방문 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021/11/01 10:08:36</t>
+          <t>2021/11/04 08:35:22</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[전주시청]11.1(월) 현재기준 전일 8명 발생 / (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[목포시청] 11.3. 24시기준 확진자1명(타지역거주자 1)▲코로나19 미접종자는 위탁의료기관에서 접종참여▲발열,인후통 등 의심증상 발현시 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021/11/01 10:00:45</t>
+          <t>2021/11/04 08:23:25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[수원시청] 11월 1일 0시 기준, 수원 확진자 44명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/crhgw</t>
+          <t>[고흥군청]11.3(수) 24시 기준 확진자 3명 발생(자가격리자 2) 기침, 인후통 등 가벼운 감기 증상이라도 반드시 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021/11/01 09:48:31</t>
+          <t>2021/11/04 08:22:56</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[창원시청] 10.31. 확진자 9명 발생 ▲의창2,성산1,회원1,진해2,병원관련3 △선별검사소-창원종합버스터미널,3개보건소</t>
+          <t>[화순군청] 11.3.(수) 24시 기준 코로나19 확진자 1명 발생(화순130번). 이동동선 소독완료 / 접촉자 조사중 ▶주기적 소독, 선제적 진단검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021/11/01 09:13:44</t>
+          <t>2021/11/04 08:22:22</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[금산군청] 10.23(토) / 10.24(일) / 10.26(화) / 텐코인 노래연습장 방문한 분은 코로나 19 검사바랍니다.</t>
+          <t>[고흥군청] 확진자 동선관련 10.24(일) 06:30~08:30 우주사우나 (구 봉암목욕탕) 이용하신분은 지금 즉시 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021/11/01 09:10:42</t>
+          <t>2021/11/04 08:00:06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[사천시청] 11. 1.(월) 삼천포보건센터 임시선별진료소 금일17:00까지 운영 ▲의심 증상시 검사받으시기 바랍니다.</t>
+          <t>[제천시청] 11. 4(목) 08시 현재. 확진자 3명 발생. 역학조사중. 추가사항은 제천시모바일콜센터 및 홈페이지 안내. 의심증상시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021/11/01 09:06:07</t>
+          <t>2021/11/03 19:25:54</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[양주시청] 11월 01일 00시 기준 확진자 7명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[논산시청] 11월3일 확진자 14명(내국인2,외국인12/관내13,훈련소1) ▶코로나 예방을 위해 관내 어린이집 원생 및 종사자는 PCR검사 받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021/11/01 08:56:37</t>
+          <t>2021/11/03 18:45:07</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[고흥군청] 10.31(일) 24시기준 확진자 13명 발생 역학조사 중 증상 의심 되면 외출자제하시고 즉시 보건소 검사 바랍니다.</t>
+          <t>[남양주시청] 11.3.(수) 코로나19 확진자 51명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tj0f 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021/11/01 08:45:24</t>
+          <t>2021/11/03 18:34:48</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[고흥군청]11.1(월)10시 또는 14시부터 금산전체마을에서 코로나 검사를 실시합니다. 주민들께서는 마을회관에서 꼭 검사를 받으시기 바랍니다.</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲50세이상 백신 추가접종 실시☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021/11/01 08:19:27</t>
+          <t>2021/11/03 18:34:11</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[고흥군청]확진자 동선 관련 10/26,28,29 9시부터 12시사이 대흥여객(오천→녹동,녹동→오천)을 이용하신 분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[홍성군청]11월3일(수) 18시 기준 확진자 3명(홍성320~322번) 발생. 자발적 검사 1명, 타지역 확진자 접촉 2명. 역학조사 및 방역소독 완료</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021/11/01 08:15:12</t>
+          <t>2021/11/03 18:20:56</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[목포시청]10.31.24시기준 확진자 2명발생(확진자접촉 2) ▲11/1부터 사적모임 12인까지 가능 ▲발열, 인후통 등 의심증상 발현 시 보건소 검사바랍니다.</t>
+          <t>[광주시청] 11월 3일 17시 기준 확진자 43명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021/11/01 08:12:59</t>
+          <t>2021/11/03 17:46:46</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>전라남도 순천시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[순천시청] 10.31. 24시기준 확진자 1명발생(해외입국) √단계적 일상회복을위한 ① 실내외 마스크착용 ② 주기적 환기 ③ 적극적 진단검사 실천 부탁드립니다</t>
+          <t>[충주시청] 11월 3일 확진자 8명 발생(선행 확진자 접촉2, 자가격리중6)▲핼러윈 각종 모임, 행사에 참여하신 분은 보건소 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021/11/01 08:12:17</t>
+          <t>2021/11/03 17:36:26</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>전라남도 장흥군</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[여수시청]10.31.24:00 기준 총1명 발생(타지역 방문 확진자 접촉)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[장흥군청] 11.3.(수) 코로나19 신규 확진자 1명 발생 ▶이동동선 및 접촉자 파악 완료 ▶유증상 시 접종유무와 상관없이 즉시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021/10/31 19:07:25</t>
+          <t>2021/11/03 17:04:21</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[홍성군청]10월31일(일) 19시 기준 확진자 6명(홍성311~316번)발생. 자가격리중 2명, 자발적검사 2명, 타지역거주자 2명. 역학조사 및 방역소독 완료</t>
+          <t>[과천시청] 11월 3일 17시 기준 신규확진 3명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021/10/31 18:40:04</t>
+          <t>2021/11/03 16:34:03</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>서울특별시 전체</t>
+          <t>경기도 평택시</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[서울시청] 10.19(화)~28(목) 중랑구 소재 상봉아트홀 댄스학원(망우로 328) 방문자는 가까운 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎120</t>
+          <t>[평택시]확진자28명(타시민3명,평택시민25명)발생/ 일상회복을 위한 4대 방역수칙을 지켜주세요! ▲예방접종완료▲마스크쓰기▲주기적 실내환기▲유증상시 진단검사받기</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021/10/31 18:27:51</t>
+          <t>2021/11/03 16:17:55</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[남양주시청]10.31.(일) 코로나19 확진자 33명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tevx 증상의심시 코로나19 검사받으세요.</t>
+          <t>[함평군청] 타지역 확진자 관련 10.29.(금) 10:50~11:30 월야면 다복식육식당 방문자는 엑스포공원 황소주차장에서 검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021/10/31 18:01:11</t>
+          <t>2021/11/03 16:13:38</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[안성시청]10.31.코로나19 확진자9명(자발적검사7,확진자접촉1,자가격리1)발생. 역학조사,방역조치 완료anseong.go.kr/corona_index.jsp</t>
+          <t>[함평군청]타지역 확진자 관련 10.30.(토), 11.1.(월) 12:40~13:20 함평읍 강변식당 방문자는 황소주차장에서 검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021/10/31 17:11:04</t>
+          <t>2021/11/03 16:09:11</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[사천시청]10.26.(화)~10.29.(금)09:00~15:00잠언의료기기(선구동 소재)방문자는 18:30까지 삼천포보건센터임시선별진료소에서검사받으시기바랍니다.</t>
+          <t>[함평군청] 타지역 확진자 관련 11.1.(월) 17:40~18:40 함평읍 맛고을식당 방문자는 엑스포공원 황소주차장에서 검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021/10/31 17:07:06</t>
+          <t>2021/11/03 16:06:31</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 31일 확진자 5명 발생(선행확진자의 접촉자)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[전남도청]10.21.~29.가톨릭광주사회복지회 안셀모의집(외국인노동자쉼터, 광주 동구 동계천로129-1,동명동)방문한 외국인을 고용한 사업주는 검사안내 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021/10/31 17:03:05</t>
+          <t>2021/11/03 16:03:18</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 김해시</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 31일 17시 기준 확진자 12명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[김해시청] 10.28~29, 11.1 / 12:00~12:30, 17:00~17:30 선아한식뷔페(서부로1638번길10-5)에 방문하신분은 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021/10/31 16:51:53</t>
+          <t>2021/11/03 15:34:23</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[사천시청]10.26.(화)~10.29.(금) 09:00~15:00 잠언의료기기(선구동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[대구광역시][주소정정재발송]이바돔(기도원)(수성구 달구벌대로 488길 22) 10/23 이후 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사받으십시오.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021/10/31 15:53:33</t>
+          <t>2021/11/03 15:32:05</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>전라남도 담양군</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[포항시청] 10.24(일) 17:00~21:00 무카타부페-타이마트(상도동 629-3) 이용자는 보건소에서 검사바랍니다. ※검사시 KF94 마스크 착용바랍니다.</t>
+          <t>[담양군청] 2021.10.28.(목)~10.30.(토) 백동리백번지(담양군 담양읍 미리산길2) 방문하신분은 주소지 관할 보건소에서 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021/10/31 15:29:15</t>
+          <t>2021/11/03 15:31:18</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[남양주시청]10.22(금)~10.27(수) 참소망교회(오남읍 진건오남로 896번길 24) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[부산시]10.26.(화) ~ 11.2.(화) 남항시장 반찬골목(영도구 영선동 2가 245) 방문자 보건소 검사바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021/10/31 15:14:18</t>
+          <t>2021/11/03 15:27:41</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>경상남도 거제시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[거제시청] 코로나19확진자 총 5명 발생(확진자접촉3, 감염경로 조사중2)/ 기침, 발열 등 유증상시 즉시 선별진료소에서 코로나검사 바랍니다.</t>
+          <t>[완도군청]외국인 확진자 1명 추가발생▶최근 신규 직원을 고용한 사업장의 근로자, 광주 안셀모의 집을 이용한 외국인 근로자는 코로나 검사하시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021/10/31 15:13:24</t>
+          <t>2021/11/03 15:16:45</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[포항시청] 10.30(토) 11:30~13:20 포항역 3층 푸드코트(흥해읍 이인리 137-1) 이용자는 보건소에서 검사바랍니다.</t>
+          <t>[진주시청] 03일 15시 기준 확진자 1명(시민무료 선제검사)발생. 상세 현황은 시 누리집 참조바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021/10/31 15:07:25</t>
+          <t>2021/11/03 15:03:24</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>경상남도 창녕군</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[창녕군청]10.29(금) 08:35 창녕→남지→부산(사상), 16:00 부산(사상)→남지→창녕→대구 시외버스(우등) 이용자는 가까운 선별진료소에 검사바랍니다.</t>
+          <t>[대구광역시]이바돔(기도원)(수성구 달구벌대로448길 22) 10/23일 이후 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2021/10/31 14:40:04</t>
+          <t>2021/11/03 14:14:55</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>서울특별시 전체</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[서울시청] 10.19(화)~29(금) 서초구 소재 경부선 터미널 3층 꽃자재 상가(신반포로194 3층) 방문자는 코로나19 검사 받으시기 바랍니다. ☎120</t>
+          <t>[사천시청]10.30.(토), 11.2.(화) 11:00~16:30 수림사우나(벌리동 소재) 여탕, 헬스장 방문자는 삼천포보건센터에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021/10/31 14:34:19</t>
+          <t>2021/11/03 14:14:30</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[안산시청]10월31일14시기준 확진자 26명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yFEyhJ</t>
+          <t>[사천시청]10.26(화)~10.29(금), 10.31(일) 18:00~22:00 수림사우나(벌리동 소재) 여탕, 헬스장 방문자는 삼천포보건센터에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021/10/31 14:09:22</t>
+          <t>2021/11/03 14:03:05</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 31일(일) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[사천시청]11.3.(수) 14시 기준 확진자 3명(접촉자 2, 조사중 1) 발생 ▲의심증상 시 즉시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2021/10/31 13:33:12</t>
+          <t>2021/11/03 14:00:41</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>충청북도 옥천군</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[옥천군청] 10.28.(목) 18:30~21:00 맛있는 오칠구포차(옥천읍)이용자는 관할보건소에서 코로나검사 요망. 선별진료소 공휴일 운영 09:00~16:00</t>
+          <t>[고성군청]11.3.14시기준,확진자7명(고성122~128번, 도내확진자접촉자6, 수도권 관련1)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021/10/31 13:25:09</t>
+          <t>2021/11/03 13:55:56</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[사천시청] 10.24(일)~10.29(금) 장수복집(동서금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[안동시청] 10/31(일)10:30~11:35 황소곳간(풍산읍, 풍산태사로1029) 방문자는 가까운 선별진료소에 방문하여 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2021/10/31 13:00:44</t>
+          <t>2021/11/03 13:18:20</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[과천시청] 10월31일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[완주군청] 11월 3일(수) 0시 기준 확진자 5명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고 / 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2021/10/31 11:53:23</t>
+          <t>2021/11/03 13:01:04</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[사천시청] 10.27(수)08:00 삼천포시외버스터미널-&gt;부산서부시외버스터미널 시외버스 탑승자께서는 보건소 선별진료소에서 검사바랍니다.(055-831-3636)</t>
+          <t>[고흥군청] 확진자 동선관련 10.22(금)~10.24(일) 금산면 거금 장례식장 제1분향소를 참석하신분은 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2021/10/31 11:32:25</t>
+          <t>2021/11/03 11:30:54</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>경상남도 창녕군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[창녕군청]10.31(일) 확진자2명 발생(창녕347~348/타지역접촉2)▷단계적 일상회복을 위한 방역수칙 준수▷마스크착용▷유증상시 코로나검사 받으시기 바랍니다.</t>
+          <t>[전주시청]11.3(수) 현재기준 10명 발생(전일 22명) / (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2021/10/31 11:20:37</t>
+          <t>2021/11/03 11:27:53</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.31.(일) 11:00기준 신규확진자 62명 url.kr/odmvxu ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[보성군] 타지역 확진자 동선 관련, 벌교읍 소재 학력 인정 홍지 중·고등학교 학생 분들은 가까운 선별진료소에서 즉시 검사바라며, 외출·모임 자제를 부탁드립니다.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021/10/31 11:05:22</t>
+          <t>2021/11/03 11:24:18</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[부여군청] 10월31일 11시기준 확진자7명 발생【부여431~437자가격리 및 수동감시(접종완료)중 발생으로 지역전파 없음】감기증상시 코로나 검사 후 진료 바람</t>
+          <t>[진천군청]▲11.2 코로나 확진자 3명(외국인3) ▲실내외 마스크착용, 주기적 실내 환기, 증상발현시 즉시 진단검사받기 실천바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021/10/31 11:02:34</t>
+          <t>2021/11/03 11:10:46</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>경상북도 전체</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[경상북도청] 10/22~10/25 제니스라이브(ZENITH)(포항시 남구 상도동 601-1)에 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[통영시청]10.30.(토)통영출발(15:30)→서울남부터미널도착, 시외버스(대한여객 경남70아5511)탑승자는 보건소(650-6060)에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2021/10/31 10:53:30</t>
+          <t>2021/11/03 10:59:55</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>전라북도 정읍시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[정읍시청]10.27(수)11:15~20:10,10.28(목)~10.29(금)9:30~20:30아양촌해물칼국수(시기동,소독완료)방문자는 선별진료소에서 검사바랍니다</t>
+          <t>[용인시청]11월3일 0시 기준 확진자 43명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2021/10/31 10:39:15</t>
+          <t>2021/11/03 10:32:38</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[아산시청]10월 30일 확진자 13명(지인 7, 가족 5, 조사중 1) / 타지역 방문, 모임 자제 및 증상 발현 시 즉시 선별진료소에서 검사 바랍니다.</t>
+          <t>[강화군청]2021.10.24.(일)~10.30.(토) 하늘중앙교회(강화읍 옥림리)를 방문하신 분은 가까운 선별진료소에서 코로나19검사를 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2021/10/31 10:36:24</t>
+          <t>2021/11/03 10:20:53</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[전주시청]10.31(일) 현재기준 6명 발생(전일 1명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[부여군청] 11월 3일 10시 기준 확진자 2명 발생 【부여448~449기확진 접촉】 감기증상시 코로나 검사 후 진료 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2021/10/31 10:35:45</t>
+          <t>2021/11/03 10:19:15</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.30 코로나 확진자 6명(내국인2, 외국인4)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[강원도청] 11.2.(화) 도내 코로나19 확진 29명(원주11 춘천7 속초6 강릉3 평창1 고성1)▶밀집장소 출입자제▶접촉의심 및 감기증상시 즉시 검사 당부!</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2021/10/31 10:33:14</t>
+          <t>2021/11/03 10:19:06</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[강원도청] 10.30.(토) 도내 코로나19 확진 23명(원주11 홍천5 춘천2 태백2 횡성2 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부</t>
+          <t>[통영시청] 11.1.(월)통영 출발(15:10)→인천 도착, 시외버스(진안고속 경북72아 1388) 탑승자는 보건소(650-6060)에서 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2021/10/31 10:30:27</t>
+          <t>2021/11/03 10:00:37</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[용인시청]10월31일 0시 기준 확진자 28명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[수원시청] 11월 3일 0시 기준, 수원 확진자 53명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/u4nd4</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2021/10/31 10:25:15</t>
+          <t>2021/11/03 09:01:40</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[창원시청] 마산역 임시선별검사소 운영종료알림(11.1부터) ▲3개 보건소(09:00~18:00), 창원종합버스터미널(11:00~20:00) 정상운영</t>
+          <t>[양주시청] 11월 03일 00시 기준 확진자 17명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2021/10/31 10:06:03</t>
+          <t>2021/11/03 08:50:10</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.27.(수) ~ 10.30.(토) 앗싸로또판매점(남구 백운로 15-1, 백운동)을 방문하신 분은 거주지 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[전남도청] 11.2.24시 기준 확진자 21명(목포1,순천1,광양1,담양3,고흥11,영암2,무안2) ▲타지역 방문·접촉 자제 ▲증상 의심시 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2021/10/31 10:01:22</t>
+          <t>2021/11/03 08:44:57</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>충청북도 영동군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[영동군청] 10. 31.(일) 기준 확진자 1명 발생. 이동 동선 및 접촉자 파악 중입니다. 타 지역 방문 자제 및 증상 발현 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[고흥군청] 11.2(화) 24시기준 확진자11명 발생( 자가격리자 9명) 하여 역학조사 중입니다. 의심증상이 있는 군민께서는 즉시 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2021/10/31 10:00:50</t>
+          <t>2021/11/03 08:36:48</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 31일 0시 기준, 수원 확진자 52명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사 바랍니다. me2.kr/ffgzf</t>
+          <t>[영암군청] 타지역 확진자 관련 10. 31.(일) 14:30~15:40 F1당구클럽(삼호읍 대불주거7로 7) 방문자는 증상 관계없이 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2021/10/31 09:54:29</t>
+          <t>2021/11/03 08:36:39</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[보은군청]10. 31.(일) 확진자 1명 발생 ▲ 10.20.(수) ~ 10.26.(화) 복신경외과의원 방문자는 즉시 보건소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[영암군청] 타지역 확진자 관련 10. 31.(일) 11:50~13:40 포미아구찜삼호점(삼호읍 대불주거로 183) 방문자는 증상관계없이 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2021/10/31 09:53:21</t>
+          <t>2021/11/03 08:29:27</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>경상북도 문경시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[문경시청] 10.24.(일) ~10.27.(수) 네네치킨(문경시 점촌로8)을 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[목포시청] 11.2. 24시기준 확진자 1명(자가격리중확진 1) ▲마스크 착용, 손씻기 등 방역수칙 준수▲발열, 인후통 등 의심증상 발현시 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2021/10/31 09:42:30</t>
+          <t>2021/11/03 08:27:33</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[창원시청] 10.30. 확진자 48명 발생 ▲의창3,성산1,회원2,진해1,병원관련41 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[무안군청]11.3.(수) 08시 기준 확진자 2명 발생(타지역접촉1,타지역거주1)▲타지역 방문·접촉 시 증상 없어도 반드시 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2021/10/31 09:40:17</t>
+          <t>2021/11/03 08:15:20</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>전라남도 곡성군</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[곡성군청]10.31(일) 09시 기준 확진자 1명 발생(조사중). 유증상자 및 타지역 방문자는 증상 관계없이 선별진료소에서 검사바랍니다.(09:00~17:00)</t>
+          <t>[순천시청] 11. 2.(화) 24시기준 확진자 1명 발생(타지역 접촉) √거리두기 개편으로 이동량이 증가하고 있으니 마스크 착용, 환기, 진단검사 실천바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2021/10/31 09:38:05</t>
+          <t>2021/11/03 08:09:42</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[논산시청] 10월21일~29일 취암동 1056-14, 서원빌 401호에서 마사지를 받으신 분은 코로나 검사 받으시고 논산시보건소로 연락(746-6672)바랍니다</t>
+          <t>[제천시청] 11. 3(수) 08시 현재. 확진자 4명 발생. 감염경로 조사중. 의심증상 발생시 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2021/10/31 09:34:05</t>
+          <t>2021/11/02 19:26:34</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 7명[타시민2, 천안시민5] ▶ 환절기 감기증상 발현 시 코로나 의심하고 의료기관 방문 전 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[남양주시청] 11.2.(화)코로나19 확진자 54명 발생. 방역사항은 홈페이지, 블로그 참고 바랍니다. c11.kr/thpx 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2021/10/31 09:09:11</t>
+          <t>2021/11/02 19:00:24</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[고흥군청]10.30(토) 24시기준 추가 확진자 8 발생 역학조사중,선별검사소운영 금산면금일체육관 09:00~17:00 운영,증상유뮤 관계없이 검사 바랍니다.</t>
+          <t>[광진구청](21.11.2)확진자발생 관내동선 알림.홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲50세이상 백신추가접종 실시☎450-1000</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2021/10/31 09:06:43</t>
+          <t>2021/11/02 18:40:51</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[전남도청] 10.30.24시 기준 확진자 30명(목포5,여수1,고흥21,강진1,영암1,무안1) ▲주말 행사·모임 자제 ▲증상 의심 즉시 보건소 검사 바랍니다.</t>
+          <t>[논산시청] 11월2일 확진자 15명(내국인5,외국인10/관내3,조사중12) ▶코로나 예방을 위해 관내 어린이집 원생 및 종사자는 PCR검사 당부</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2021/10/31 09:02:09</t>
+          <t>2021/11/02 18:13:56</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[남원시청] ▲ 10.31(일) 08시 기준 확진자 9명 발생(남원 209~217번)/기확진자 접촉2, 자가격리중7 ▲ 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[부산시]10.24.(일)~10.31.(일)온천포장센타(동래구 석사북로 109(온천동)) 방문하신 분들은 코로나 검사 후 동래구보건소 상담바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2021/10/31 09:01:27</t>
+          <t>2021/11/02 18:00:27</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 31일 00시기준 확진자 24명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[안성시청]11.02코로나확진자7명(해외입국2자발적검사2자가격리1타시거주1동반입소1)발생역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2021/10/31 08:29:19</t>
+          <t>2021/11/02 17:51:41</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>전라남도 담양군</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[목포시청]10.30.24시기준 확진자5명(자가격리중외국인2,가족접촉2,타지역접촉1) ▲발열,기침등 유증상발현으로 의료기관 방문시 사전 진단검사 받으시기 바랍니다</t>
+          <t>[담양군청] 2021.10.29.(금)~11.1.(월) 끌텅카페(담양군 월산면 담장로623) 방문하신분은 주소지 관할 보건소에서 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2021/10/31 08:18:39</t>
+          <t>2021/11/02 17:41:41</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[여수시청] 10.30.24:00 기준 총1명 발생(자가격리중)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[충주시청] 11월 2일 확진자 6명 발생(선행 확진자 접촉)▲핼러윈 기간 타지역을 방문하였거나 각종 모임에 참여하신 분은 보건소 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2021/10/30 20:02:29</t>
+          <t>2021/11/02 17:37:32</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>전라북도 정읍시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[정읍시청1]10.30(토) 20시기준 정읍173번 확진자 발생 / 카카오톡채널 참고 / 유증상시 보건소에서 검사바랍니다. pf.kakao.com/_axcMvK</t>
+          <t>[광주시청] 11월 2일 17시 기준 확진자 23명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2021/10/30 19:16:05</t>
+          <t>2021/11/02 17:31:56</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청북도 단양군</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[남양주시청]10.30.(토) 코로나19 확진자 37명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tehh 증상의심시 코로나19 검사받으세요.</t>
+          <t>[단양군청] 10.31.(일) 06:50분 구인사-&gt;동서울행(07:30분 시외버스터미널 경유) 버스를 타신분은 선별진료소에서 검사 받으시기 바랍니다.(18시까지)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2021/10/30 18:27:55</t>
+          <t>2021/11/02 17:26:33</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[논산시청] 10월30일 확진자 3명(내국인1,외국인2/타지역2,조사중1)발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
+          <t>[고성군청]11. 2.17시기준,확진자1명(고성121번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2021/10/30 18:01:00</t>
+          <t>2021/11/02 17:03:41</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 30일 17시 기준 확진자 24명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[사천시청] 10.25.(월) 12:00~13:00 제일냉면(벌리동 소재) 방문자는 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2021/10/30 17:27:10</t>
+          <t>2021/11/02 17:02:58</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[창원시청] 10.27.(수) 09:50~11:40 경창탕 남탕(성산구 상남로 67) 이용자 관할 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[과천시청] 11월 2일 17시 기준 신규확진 4명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2021/10/30 17:13:37</t>
+          <t>2021/11/02 16:49:35</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 30일 확진자 7명 발생(선행 확진자 접촉2, 자가격리중3, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[의정부시청] 10.23(토)~10.27(수) 영제한의원(의정부시 범골로 32) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎:031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2021/10/30 17:03:49</t>
+          <t>2021/11/02 16:01:05</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>전라남도 화순군</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[화순군청]10/25(월)12시경 금강민물식당(화순읍 칠충로145)에서 화순사랑상품권 3만원 결제하신 분은 거주지 보건소에서 코로나진단검사를 받으시기 바랍니다</t>
+          <t>[진주시청] 2일 15시 기준 확진자 4명(타지역 확진자 접촉자 1명, 무료선제검사 등 일가족 3명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2021/10/30 17:00:55</t>
+          <t>2021/11/02 15:40:57</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[무안군청] 10.30.(토) 17시기준 확진자 1명발생(외국인,격리중확진)▲외국인 고용사업장 종사자 2주1회 검사▲미등록 외국인 여권 없이 예방접종 가능</t>
+          <t>[사천시청]10.25.(월) 08:00~09:20, 11.1.(월) 08:00~09:50 도원탕(동금동 소재) 남탕 방문자는 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2021/10/30 15:44:31</t>
+          <t>2021/11/02 15:33:34</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[진천군청]10.29 코로나 확진자5명(내국인3,외국인2)발생.▲손씻기,마스크착용 등 방역수칙 준수바랍니다.▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[남양주시청] 10.28(목)~10.31(일) 24시장작불한증막사우나(진접읍 장현로 77) 남탕 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2021/10/30 15:17:04</t>
+          <t>2021/11/02 15:09:34</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>인천광역시 미추홀구</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[미추홀구청]10/17(일),20(수),24(일),27(수) 주안할렐루야교회(미추홀구 구월로17) 방문자는 31(일) 오전중 거주지보건소에서 코로나19 검사바람</t>
+          <t>[사천시청]10.29.(금) 06:30~19:20, 10.30.(토)~10.31.(일) 08:30~11:30 시원청(동금동 소재)여탕 방문자는 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2021/10/30 15:12:55</t>
+          <t>2021/11/02 14:45:42</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[창원시청]▲10.27(수)9:40~12:00 ▲10.29(금)9:50~11:00 소죽도찜질방 남탕(진해구 천자로 165,방역완료) 방문자 선별진료소 검사바랍니다</t>
+          <t>[진천군청]▲11.1 코로나 확진자 4명(내국인3, 외국인1) ▲손씻기, 마스크착용 등 방역수칙 준수바랍니다 ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2021/10/30 15:08:48</t>
+          <t>2021/11/02 14:00:15</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[진주시청] 30일 15시 기준 확진자 2명(타지역 확진자의 접촉자 1명, 시민무료 선제검사 1명)발생. 상세 현황은 시 누리집 참조바랍니다.</t>
+          <t>[사천시청] 11.2.(화) 14시 기준 확진자 11명(접촉자 6, 조사중 4, 타지역거주1) 발생 ▲의심증상시 즉시 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2021/10/30 14:58:20</t>
+          <t>2021/11/02 13:51:17</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2186,5267 +2186,5267 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[금산군청]10.23(토)20:40-22:00, 10.24(일)16:00-19:00, 10.26(화)16:00-18:00 텐코인 노래연습장 방문한 분 검사바랍니다</t>
+          <t>[금산군청]10.29(금) 금산출발-대전행 [14:30] / 10.29(금) 대전복합-금산행 [19:20] 시외버스를 타신 분은 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2021/10/30 14:56:08</t>
+          <t>2021/11/02 13:51:09</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[남양주시청]10.22.(금)~10.29.(금) 외가집밥상 기사식당(남양주시 화도읍 북한강로 1412) 방문자는 가까운 보건소에서 코로나19 검사 받으세요.</t>
+          <t>[금산군청] 10.27(수) 텐코인 노래연습장 방문 / 10.28(목) 대전복합-금산행 [20:50] 시외버스를 타신 분은 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2021/10/30 14:30:55</t>
+          <t>2021/11/02 13:09:57</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[안산시청]10월30일 14시기준 확진자 48명 발생 ▲발열,기침,호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/ynRGLX</t>
+          <t>[사천시청] 10.27.(수) 12:30~13:30 흥부추어탕(남양동 소재) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2021/10/30 14:13:26</t>
+          <t>2021/11/02 11:38:29</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[음성군청] 10.30.확진자 4명(내국1, 외국3)발생▲동선 및 접촉자 조사중▲타지역방문,모임,지인초청 자제▲유증상시 주민들께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[고흥군청] ② 대흥여객을 이용하신 분은 보건소 또는 도양읍민회관 이동 선별검사소에서 금일중 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2021/10/30 14:00:13</t>
+          <t>2021/11/02 11:34:51</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[사천시청]10.30.(토) 14시 기준 확진자 3명(조사 중 2명, 타지역거주자 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[포항시청] 10.29(금)~10.31(일) 잘란PC방(남구 오천읍 문덕리 231-8번지) 방문자는 가까운 보건소에 방문하여 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2021/10/30 13:40:18</t>
+          <t>2021/11/02 10:59:54</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>서울특별시 서초구</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[서초구청]10.19(화)~10.29(금) 경부선 터미널 3층 꽃자재(신반포로194 3층) 방문자는 선별진료소에서 코로나19 검사바랍니다. seocho.go.kr</t>
+          <t>[용인시청]11월2일 0시 기준 확진자 28명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2021/10/30 13:35:13</t>
+          <t>2021/11/02 10:48:14</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[대구광역시]아크(동구 반야월북로 158, 2층) 10/20~23 방문하신 분은 두류·국채보상공원·대구스타디움 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[부여군청] 11월 2일 10시 기준 확진자 7명 발생 【부여441~447자가격리 및 수동감시(접종완료)】 감기증상시 코로나 검사 후 진료 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2021/10/30 13:00:11</t>
+          <t>2021/11/02 10:29:23</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>강원도 속초시</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[과천시청] 10월30일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[속초시청]10.27(수) 오전 8:20~10:15 / 10.29(금) 오전 7:50~09:00 속초국민체육센터(조양로89) 여자샤워실 방문자는 코로나검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2021/10/30 12:51:45</t>
+          <t>2021/11/02 10:26:57</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>인천광역시 부평구</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[부평구청] 10/25(월) 텐코인노래방 (부평구 충선로203번길 12 뉴존프라자 3층, 삼산2동) 방문자는 가까운 선별검사소에서 코로나검사 바랍니다.</t>
+          <t>[청주시청]11월 1일 확진자 9명 발생(상당구2,서원구2,흥덕구2,청원구3)▲홈페이지 참조▲주기적 환기▲마스크 착용▲근육통 등 유증상 시 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2021/10/30 12:44:22</t>
+          <t>2021/11/02 10:17:24</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>전라남도 담양군</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[고흥군청] 10.30(토) 확진자 13명 발생 역학조사 중 외출 및 지인 모임 자제 외국인 및 고용사업주는 보건소 검사받으시기 바랍니다.</t>
+          <t>[담양군청] 11. 2. 10:00 기준 확진자 1명 발생(수도권 방문자 가족) / 코로나19 의심 증상 발현시 즉시 관할 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2021/10/30 12:29:48</t>
+          <t>2021/11/02 10:10:05</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[강진군청] 강진 19번 확진자 발생(서울 거주자 29일 강진 방문) 동선 파악 등 역학조사 중. 타지역 방문 자제 및 의심증상 시 검사바랍니다.</t>
+          <t>[전주시청]11.2(화) 현재기준 3명 발생(전일 1명) / (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2021/10/30 12:16:26</t>
+          <t>2021/11/02 10:08:11</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[보성군]10.29.(금) 확진자 2명 발생(타지역 확진자 접촉)▲주말외출·모임자제▲백신접종을 완료했더라도 마스크착용, 유증상시 검사등 방역수칙을 잘 지켜주세요!</t>
+          <t>[강원도청] 11.1.(월) 도내 코로나19 확진 29명(춘천13 원주9 횡성3 홍천2 동해1 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2021/10/30 12:00:04</t>
+          <t>2021/11/02 10:01:04</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[전남도청] 전국 √요양시설√병원√학교 등에서 집단발생▲고위험시설(요양시설,병원) 방문 및 면회자제▲핼러윈데이,축제,행사,모임 자제 및 유증상시 검사 꼭 받으세요</t>
+          <t>[수원시청] 11월 2일 0시 기준, 수원 확진자 48명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/5u0t5</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2021/10/30 11:50:10</t>
+          <t>2021/11/02 09:58:50</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>강원도 속초시</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[부여군청] 10월30일 11시 기준 확진자 6명 발생 【부여425~430/자가격리 학생4, 수동감시2】 감기증상 시 코로나 검사 후 진료를 받으시기 바랍니다.</t>
+          <t>[속초시청]10.27(수), 10.29(금) 속초국민체육센터 수영장(조양로 89) 이용객은 선별진료소에서 코로나검사 받으시기 바랍니다(속초시선별진료소 16시까지)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2021/10/30 11:25:35</t>
+          <t>2021/11/02 09:44:48</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.30.0시 기준 확진자 12명 중 외국인9명. 파키스탄 확진자 다수 발생. 사업장, 농장 등 소속외국인은 코로나 검사를 꼭 받으시기 바랍니다.</t>
+          <t>[고흥군청] ② 쌍충사앞 물양장: 11.2(화) 09:00~12:00까지 선별검사소를 운영하오니 군민들께서는 증상유무 상관없이 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2021/10/30 11:25:16</t>
+          <t>2021/11/02 09:44:04</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.20(수)~10.27(수) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 증상유무 상관없이 선별진료소에서 필히 검사 받으시기 바랍니다.</t>
+          <t>[고흥군청] ① 이동 선별검사소 운영 안내 도양읍민회관 : 11.2(화) 09:00~17:00, 녹동전통시장 특별무대 : 11. 2 (화) 09:00~1200</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2021/10/30 11:01:48</t>
+          <t>2021/11/02 09:10:27</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>충청남도 예산군</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[용인시청]10월30일 0시 기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[예산군청] 10/27(수)12:00~10/30(토) 신미애 헤어샾(예산읍 주교리 214-1) 방문자는 가까운 선별진료소 또는 보건소에서 코로나 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2021/10/30 10:51:00</t>
+          <t>2021/11/02 09:05:44</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 30일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[사천시청]10.29(금)~10.31(일) 05:00~06:00, 11.1(월)04:00~05:00 시원청(동금동 소재) 방문자는 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2021/10/30 10:45:20</t>
+          <t>2021/11/02 09:05:12</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/22(금)~10/28(목) 싱글앤싱글(동수송2길 19) 방문자는 보건소 선별검사(09시~18시) 바랍니다. ▲10/29(금) 검사자 제외</t>
+          <t>[양주시청] 11월 2일 00시기준 확진자 1명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2021/10/30 10:26:09</t>
+          <t>2021/11/02 08:51:10</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[강원도청] 10.29.(금) 도내 코로나19 확진 25명(원주13,삼척5,홍천3,춘천1,강릉1,태백1,평창1) ▶접촉의심 및 감기증상 시 즉시검사 당부 드림</t>
+          <t>[영암군청]11.1(월) 24시 기준 확진자 2명 발생(타지역접촉1,격리중1) ▲일상회복을 위해 ①실내외 마스크 착용②주기적 환기·소독③적극적인 진단검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2021/10/30 10:17:18</t>
+          <t>2021/11/02 08:34:17</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 30일 0시 기준, 수원 확진자 61명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/5z8t3</t>
+          <t>[진도군청]11.1(월) 24시기준, 확진1명(자가격리중) √학교전수검사 전원음성▲일상회복을 위해①실·내외 마스크착용②주기적 환기·소독③적극적인 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2021/10/30 10:08:30</t>
+          <t>2021/11/02 08:26:28</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>강원도 삼척시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[삼척시청]10.27~28 중앙시장길 68-4 지하1층 ‘봉자클럽’이용자는 보건소 선별진료소에서 금일 15시까지 코로나 검사를 받으시기 바랍니다☎570-4649</t>
+          <t>[고흥군청]11.1(월) 24시기준 확진자 27명 발생 역학조사 중, 기침 인후통 등 가벼운 감기 증상이라도 반드시 보건소 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2021/10/30 10:06:13</t>
+          <t>2021/11/02 08:00:01</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[전주시청]10.30(토) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[제천시청] 11. 2(화) 08시 현재. 확진자 1명 발생. 역학조사중. 위드코로나-일상회복 1단계에도 의심증상 발생시 즉시 검사받아 주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2021/10/30 09:37:38</t>
+          <t>2021/11/01 19:07:20</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[의정부시청]10.23.(토), 10.25.(월) 정다운한식뷔페(산곡동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[남양주시청]11.1.(월) 코로나19 확진자 18명 발생. 방역사항은 홈페이지, 블로그 참고 바랍니다. c11.kr/tgeb 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2021/10/30 09:31:29</t>
+          <t>2021/11/01 18:39:36</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲29일 도내 확진자 46명 발생</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람 ▲50세 이상 백신 추가접종 실시 ☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2021/10/30 09:30:28</t>
+          <t>2021/11/01 18:00:09</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>충청남도 서천군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[서천군청] 10.30.(토) 09:00기준 신규확진자 1명 발생(타 지역 거주자 방문 검사) ▲ 우리군 이동동선 및 접촉자 없습니다.</t>
+          <t>[수원시청]10.23.(토)~10.30.(토) 영성복장(팔달구 팔달문로4번길 19)방문자 중 유증상자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2021/10/30 09:26:33</t>
+          <t>2021/11/01 17:47:03</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[창원시청]10.29.확진자139명 발생 ▲의창1,성산2,합포5,회원5,진해4,타지역1,격리중3,병원관련118 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[광주시청] 11월 1일 17시 기준 확진자 11명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2021/10/30 09:11:04</t>
+          <t>2021/11/01 17:31:20</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.21(목)~10.29(금) 가톨릭 광주사회복지회 안셀모의 집(외국인 노동자 쉼터, 동구 동계천로 129-1, 동명동) 방문자는 검사 바랍니다</t>
+          <t>[충주시청] 11월 1일 확진자 4명 발생(선행 확진자 접촉1, 자가격리중2, 조사중1) ▲핼러윈 기간 각종 모임 참여자는 보건소 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2021/10/30 09:07:39</t>
+          <t>2021/11/01 17:26:36</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[목포시청]10.29(금) 24시 기준, 확진자 1명(유증상자1) 발생 ▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
+          <t>[고성군청]11. 1.17시기준,확진자1명(고성120번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2021/10/30 08:58:51</t>
+          <t>2021/11/01 17:00:50</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[남원시청] 타지역 확진자 동선 관련 ▲ 10.22.(금)12:30~13:30, 남원이조갈비(남원시 향단로 18) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
+          <t>[과천시청] 11월1일 17시 기준 신규확진 3명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2021/10/30 08:57:17</t>
+          <t>2021/11/01 15:29:02</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.30.(토) 전일확진자 5명 발생(남원 204~208번)/기확진자 접촉3, 자가격리중2▲타지역 방문자제 및 유증상시 즉시 검사 받으시기바랍니다.</t>
+          <t>[구례군청]타지역 확진자 관련 10.25(월) 10:55~11:08/10.28(목) 13:00~13:06 와이식자재마트 방문자는 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2021/10/30 08:50:56</t>
+          <t>2021/11/01 15:27:52</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 30일 00시기준 확진자 21명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[완도군청]노화읍 확진자 2명 발생▶10/26~10/31 관외출타 후 31일부터 격리중으로 우리군 접촉주민 없음▶관외출타, 타지인 접촉주민은 코로나 검사요망</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2021/10/30 08:49:41</t>
+          <t>2021/11/01 15:17:52</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[무안군청] 10.30.(토) 08시30분기준 확진자 1명발생(타지역접촉) ▲발열·기침 등 의심증상 발현 시 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[당진시청]10/28(목)~10/30(토) 상쾌한이비인후과의원(당진중앙3로 75)방문자는 당진시청 선별진료소에서 코로나검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2021/10/30 08:43:38</t>
+          <t>2021/11/01 15:16:10</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[진도군청]10.29(금) 24시 기준, 확진 2명(역학조사중)▲초, 중학생 지속발생▲아프면 검사받고 집에서 쉬기√주말 모임·행사, 핼러윈데이 파티 자제바랍니다</t>
+          <t>[진주시청] 1일 15시 기준 확진자 3명(타지역확진자 가족 1명, 무료선제검사 2명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2021/10/29 20:01:43</t>
+          <t>2021/11/01 15:13:13</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>경상북도 청도군</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[청도군청]청도원탕(청도군 화양읍 남성현로 504) 10/25.(08:00~11:00)방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
+          <t>[부산시]10.28(목)16:13~16:54/10.29(금)8:34~9:33 발리아쿠아랜드(동구 중앙대로195번길24(초량동)방문자 보건소검사바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2021/10/29 18:31:37</t>
+          <t>2021/11/01 15:08:05</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[홍성군청]10월29일(금) 18시 기준 확진자 1명(홍성307번) 발생. 증상발현으로 검사결과 확진. 역학조사 및 방역소독 완료</t>
+          <t>[음성군청]11월 1일 확진자 7명(내국인2,외국인5)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2021/10/29 18:21:44</t>
+          <t>2021/11/01 14:46:39</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[남양주시청]10.29.(금) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/te0g 증상의심시 코로나19 검사받으세요.</t>
+          <t>[안산시청]11월1일14시기준 확진자 38명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/xJu1H3C</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2021/10/29 18:12:54</t>
+          <t>2021/11/01 14:30:08</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>전라남도 함평군</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[함평군청] 확진자 관련 10.23.(토) 13:10~13:50 함평읍 대흥식당 방문자는 보건소 또는 황소주차장에서 코로나 검사 받으시기 바랍니다.(시설소독완료)</t>
+          <t>[울산광역시] 10.24~10.31▲뉴옥천사우나(간판명-뉴옥천탕사우나헬스, 남구 화합로125번길 16, 삼산동, 소독완료) 남탕이용객은 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2021/10/29 18:01:40</t>
+          <t>2021/11/01 14:18:44</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>경상북도 영덕군</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[논산시청] 10월29일 확진자 3명(내국인3/관내1,타지역1,조사중1) 발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
+          <t>[영덕군청] 10.30(토) 영덕→포항 무궁화호(10:20~10:54), 포항→영덕 무궁화호(13:22~13:56) 탑승객은 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2021/10/29 18:00:31</t>
+          <t>2021/11/01 14:01:00</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[안성시청]10.29.코로나19 확진자4명(자가격리2,동반입소자1,자발적검사1)발생.역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[사천시청] 11.1.(월) 14시 기준 확진자 9명(수도권관련1, 접촉자7, 타지역거주1) 발생 ▲의심증상시 즉시 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2021/10/29 17:51:18</t>
+          <t>2021/11/01 14:00:16</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[진도군청]확진자 동선▲진도한국병원 10.27(수)08:37~09:20▲진도읍 샹떼피시방 10.27(수)16시~18시▲방문자는 보건소 선별진료소에서 검사바랍니다</t>
+          <t>[구미시청] 10/27(수)~10/30(토) 충칭훠궈마라탕(상사서로4길 21, 상모동) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2021/10/29 17:25:19</t>
+          <t>2021/11/01 13:57:25</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 29일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[강진군청]강진 19번 서울 거주 확진자 동선관련 19명 전원 음성▶상시 마스크착용,주기적 환기,적극적인 진단검사▶12~15세 및 60세 이상 추가접종 사전예약</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2021/10/29 17:02:01</t>
+          <t>2021/11/01 13:24:14</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 29일 17시 기준 신규확진 4명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[고흥군청] ② 고흥여객을 이용하신분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2021/10/29 17:00:12</t>
+          <t>2021/11/01 13:22:28</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[중대본] 10.17~10.27 서울 중구 명동7길 18-1 '예지식당' 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다(☎120,1339)</t>
+          <t>[고흥군청] 확진자 동선 관련 10.31(일)14:00(녹동터미널→풍양(죽시)고흥여객을 이용하신 분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2021/10/29 16:30:18</t>
+          <t>2021/11/01 13:21:48</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>경상남도 거제시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[거제시청] 코로나19 확진자 총22명 발생(확진자접촉 1, 타지역확진자접촉 21)/ 기침, 발열 등 유증상시 즉시 가까운 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[고흥군청] ② 10.30일(10:20~11:40) 도양읍 즐거운 내과 방문객은 녹동전통시장 특별무대 선별검사소에서 14시~17시까지 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2021/10/29 16:24:25</t>
+          <t>2021/11/01 13:21:22</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[중대본]10.13~10.26 경기 남양주시 진접읍 양진로962 2층 '롯데택배 서울북부지점' 근무자는 보건소에서 코로나검사를 받으시기바랍니다(☎120,1339)</t>
+          <t>[창녕군청]11.1(월) 확진자1명 발생(창녕349/관내접촉1)▷단계적 일상회복을 위한백신접종 적극동참▷개인방역수칙 준수▷유증상시 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2021/10/29 15:47:33</t>
+          <t>2021/11/01 11:31:03</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[포항시청]10.28 305번버스 상대지구대정류장15:47→남구보건소정류장15:55 남구보건소정류장16:09→남부시장정류장16:23 탑승객은 보건소 검사바랍니다</t>
+          <t>[고흥군청] ②10.29일 17:10(오천→녹동시장 입구)을 이용하신 분은 금일중 보건소 또는 금산 김일체육관에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2021/10/29 15:34:52</t>
+          <t>2021/11/01 11:30:17</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>경상남도 거창군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[거창군청]타지역 확진자 동선 관련 10. 20.(수) 17:00 거창출발→서울남부도착 버스탑승자께서는 보건소 선별진료소에서 검사바랍니다. 055-940-8335</t>
+          <t>[진천군청]▲10.31 코로나 확진자 3명(내국인1, 외국인2)▲실내외 마스크착용, 주기적 실내 환기, 증상발현시 즉시 진단검사받기 실천바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2021/10/29 15:02:50</t>
+          <t>2021/11/01 11:25:33</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[음성군청]10월 29일 확진자 5명(내국인3,외국인2)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[사천시청] 10.24.(일)~10.31.(일) 제일동물병원(동금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2021/10/29 14:43:00</t>
+          <t>2021/11/01 11:11:09</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[안산시청]10월29일 14시기준 확진자 74명 발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z3DGp</t>
+          <t>[고흥군청] 확진자 동선 관련 10/27(수) 08:00~11:00 도양읍 우주사우나(구 봉암목욕탕) 여탕 이용객은 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2021/10/29 14:30:52</t>
+          <t>2021/11/01 11:08:11</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>경상북도 경산시</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[경산시][일자수정] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/26 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
+          <t>[김제시청] 11.1.(월) 11시기준 확진자 1명 발생(자가격리중, 동선없음)/유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2021/10/29 14:19:20</t>
+          <t>2021/11/01 11:04:46</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[창원시청]22(금)08:40~15:36/25(월)08:40~11:27 정태기내과(의창구동읍로9,방역완료)방문자는 선별진료소에서 검사바랍니다(28일이후검사자제외)</t>
+          <t>[부여군청] 11월1일 11시기준 확진자3명 발생【부여438~440자가격리 및 수동감시(접종완료)중 발생으로 지역전파 없음】 감기증상시 코로나 검사 후 진료 바람</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2021/10/29 14:01:55</t>
+          <t>2021/11/01 10:59:51</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>충청남도 청양군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[청양군청] 10월 29일 기준 확진자 1명 발생. 청양99번(타지역 확진자 접촉, 접촉자 파악 완료 검사 중) ▲ 유증상 시 코로나19 검사 바랍니다.</t>
+          <t>[용인시청]11월1일 0시 기준 확진자 23명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2021/10/29 13:59:12</t>
+          <t>2021/11/01 10:53:58</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[진도군청]확진자 동선 안내▲진도읍 샹떼 피시방 10.28(목) 16:00~18:00 방문자는 보건소 선별진료소에서 검사바랍니다▲주말 행사·모임 자제 바랍니다</t>
+          <t>[용인시청] 10월 25일(월)~29일(금) 기흥구 신갈동 소재 용인운전면허 기능시험응시자(방문자)는 유증상시 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2021/10/29 13:55:20</t>
+          <t>2021/11/01 10:18:47</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[포항시청] 10.25(월) 12:00 ~ 10.28(목) 06:00 궁타이마사지(상도동 615-3번지) 해당기간 방문자는 보건소 검사바랍니다.</t>
+          <t>[사천시청] 10.30(토)~10.31(일) 장수복집(동서금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2021/10/29 13:44:25</t>
+          <t>2021/11/01 10:15:57</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.21(목)~10.24(일) GNS 강남스타일(태국음식점, 서구 상무시민로 130, 7층, 치평동) 방문자는 거주지 보건소에서 검사 바랍니다.</t>
+          <t>[완주군청] 11월 1일(월) 0시 기준 확진자 2명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고 / 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2021/10/29 11:09:29</t>
+          <t>2021/11/01 10:09:58</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[나주시청] 10. 29. 09시 기준. 확진자 1명 발생. 동선·접촉자 파악완료. 외국인 접종시급. 코로나19 증상(기침·발열 등) 발현시 지체없이 검사 요망.</t>
+          <t>[사천시청]10.26(화)~10.29(금) 잠언의료기기(선구동 소재)방문자는 삼천포보건센터 임시선별진료소에서 검사 바랍니다. ▲모임자제, 진단검사에 동참바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2021/10/29 11:05:17</t>
+          <t>2021/11/01 10:08:36</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>[강화군청]10월25일(월)과 10월27일(수) 강화인삼센터 방문자께서는 가까운 선별진료소에서 코로나19 진단 검사 받으시길 바랍니다.</t>
+          <t>[전주시청]11.1(월) 현재기준 전일 8명 발생 / (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2021/10/29 11:03:01</t>
+          <t>2021/11/01 10:00:45</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>경상북도 경산시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[경산시] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/22 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
+          <t>[수원시청] 11월 1일 0시 기준, 수원 확진자 44명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/crhgw</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2021/10/29 11:00:08</t>
+          <t>2021/11/01 09:48:31</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[용인시청]10월29일 0시기준 확진자 25명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[창원시청] 10.31. 확진자 9명 발생 ▲의창2,성산1,회원1,진해2,병원관련3 △선별검사소-창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2021/10/29 11:00:03</t>
+          <t>2021/11/01 09:13:44</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[전주시청]10.29(금) 현재기준 2명 발생(전일 21명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[금산군청] 10.23(토) / 10.24(일) / 10.26(화) / 텐코인 노래연습장 방문한 분은 코로나 19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2021/10/29 10:46:34</t>
+          <t>2021/11/01 09:10:42</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[부여군청] 10월29일 10시 기준 확진자 3명 발생 【부여422~424/학생】 감기증상시(콧물, 목아픔, 두통 등) 코로나 검사 후 진료 받으시기 바랍니다.</t>
+          <t>[사천시청] 11. 1.(월) 삼천포보건센터 임시선별진료소 금일17:00까지 운영 ▲의심 증상시 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2021/10/29 10:40:01</t>
+          <t>2021/11/01 09:06:07</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[강화군청]10월 25일(월), 10월 27일(수) 강화인삼센터(강화읍 알미골) 방문자는 가까운 선별진료소에서 코로나19 진단검사 받으시길 바랍니다.</t>
+          <t>[양주시청] 11월 01일 00시 기준 확진자 7명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2021/10/29 10:37:39</t>
+          <t>2021/11/01 08:56:37</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[포항시청] 10.22(금)~10.25(월) ZENITH 제니스 라이브(상도동 601-1) 방문자는 가까운 보건소에 방문하여 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[고흥군청] 10.31(일) 24시기준 확진자 13명 발생 역학조사 중 증상 의심 되면 외출자제하시고 즉시 보건소 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2021/10/29 10:29:50</t>
+          <t>2021/11/01 08:45:24</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>강원도 평창군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[평창군청] 10.29일 평창군 확진자 1명(232번) 봉평면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
+          <t>[고흥군청]11.1(월)10시 또는 14시부터 금산전체마을에서 코로나 검사를 실시합니다. 주민들께서는 마을회관에서 꼭 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2021/10/29 10:06:43</t>
+          <t>2021/11/01 08:19:27</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[부여군청]코로나19 군민행동요령 최근 학교,기업체 내 코로나 집단발생에 따른 지역확산은 없는 것으로 판단,감기증상시 코로나 검사후 진료받으시고 방역수칙 준수바람</t>
+          <t>[고흥군청]확진자 동선 관련 10/26,28,29 9시부터 12시사이 대흥여객(오천→녹동,녹동→오천)을 이용하신 분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2021/10/29 10:05:48</t>
+          <t>2021/11/01 08:15:12</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[통영시청] 10.24(일) 11:00~13:30 안황스포츠센터(광도면 안정로 830) 목욕탕(여탕) 이용하신 분은 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[목포시청]10.31.24시기준 확진자 2명발생(확진자접촉 2) ▲11/1부터 사적모임 12인까지 가능 ▲발열, 인후통 등 의심증상 발현 시 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2021/10/29 10:01:24</t>
+          <t>2021/11/01 08:12:59</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 29일 0시 기준, 수원 확진자 50명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/fwi9s</t>
+          <t>[순천시청] 10.31. 24시기준 확진자 1명발생(해외입국) √단계적 일상회복을위한 ① 실내외 마스크착용 ② 주기적 환기 ③ 적극적 진단검사 실천 부탁드립니다</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2021/10/29 09:56:45</t>
+          <t>2021/11/01 08:12:17</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 29.(금) 확진자 5명 발생 ▲ 10.19.(화)~10.27.(수) 극동슈퍼 이용자는 인근 보건소에서 코로나검사 받으시기 바랍니다.</t>
+          <t>[여수시청]10.31.24:00 기준 총1명 발생(타지역 방문 확진자 접촉)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2021/10/29 09:51:20</t>
+          <t>2021/10/31 19:07:25</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>[창원시청] 10.28. 확진자 18명 발생 ▲의창3,성산1,합포6,회원5,타지역3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[홍성군청]10월31일(일) 19시 기준 확진자 6명(홍성311~316번)발생. 자가격리중 2명, 자발적검사 2명, 타지역거주자 2명. 역학조사 및 방역소독 완료</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2021/10/29 09:15:46</t>
+          <t>2021/10/31 18:40:04</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>서울특별시 전체</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[진도군청]10.29(금) 08시기준 2명 추가확진(초,중학생)▲선별이동검사소 안내√진도서초교 09:30~11:00√진도중학교 09:30~14:00까지 운영합니다</t>
+          <t>[서울시청] 10.19(화)~28(목) 중랑구 소재 상봉아트홀 댄스학원(망우로 328) 방문자는 가까운 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎120</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2021/10/29 09:02:40</t>
+          <t>2021/10/31 18:27:51</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[고흥군청] 10.29(금) 확진자 1명 발생, 역학조사 중. 외출 및 지인모임을 자제하고, 마스크 상시 착용바라며, 의심증상시 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[남양주시청]10.31.(일) 코로나19 확진자 33명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tevx 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2021/10/29 09:02:19</t>
+          <t>2021/10/31 18:01:11</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 29일 00시 기준 확진자 12명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[안성시청]10.31.코로나19 확진자9명(자발적검사7,확진자접촉1,자가격리1)발생. 역학조사,방역조치 완료anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2021/10/29 08:56:55</t>
+          <t>2021/10/31 17:11:04</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>[남원시청] 관내 확진자 동선 관련▲10.24.(일) 09:00~18:00 행남자기(남원시 남문로 397) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
+          <t>[사천시청]10.26.(화)~10.29.(금)09:00~15:00잠언의료기기(선구동 소재)방문자는 18:30까지 삼천포보건센터임시선별진료소에서검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2021/10/29 08:56:40</t>
+          <t>2021/10/31 17:07:06</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.29(금 08시기준 전일확진자 2명발생(남원 202~203번)/기확진자 접촉 ▲가을철 여행등 타지역방문 후 유증상시 즉시 검사받으시기 바랍니다.</t>
+          <t>[충주시청] 10월 31일 확진자 5명 발생(선행확진자의 접촉자)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2021/10/29 08:55:32</t>
+          <t>2021/10/31 17:03:05</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 무안군,전라남도 보성군,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>[전남도청] 10.28. 24시기준 확진 13명(목포4,순천2,나주1,화순1,강진1,영광2,진도1/해외1(구례))▲증상 의심되면 외출 자제하고 검사 먼저 받으세요</t>
+          <t>[광주시청] 10월 31일 17시 기준 확진자 12명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2021/10/29 08:33:23</t>
+          <t>2021/10/31 16:51:53</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>전라남도 화순군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>[화순군청] 10.28. 24시 기준 확진자 1명 발생(화순128번). 동선 소독 완료하고 접촉자 조사중입니다. ▶접종완료자도 의심증상 있으면 즉시 검사바랍니다.</t>
+          <t>[사천시청]10.26.(화)~10.29.(금) 09:00~15:00 잠언의료기기(선구동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2021/10/28 19:48:50</t>
+          <t>2021/10/31 15:53:33</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[영광군청]10.28.(목) 18:00시 확진자 1명(영광 47번)추가발생.영광46번 가족으로 역학조사중. 접종 완료자도 의심 즉시 보건소에서 진단검사 바랍니다.</t>
+          <t>[포항시청] 10.24(일) 17:00~21:00 무카타부페-타이마트(상도동 629-3) 이용자는 보건소에서 검사바랍니다. ※검사시 KF94 마스크 착용바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2021/10/28 19:25:43</t>
+          <t>2021/10/31 15:29:15</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>전라북도 고창군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[고창군청] 10.28.(목) 19:00 기준 ▶관내 확진자(고창 63번) 발생 ▶코로나19 의심 증상 시 검사 바랍니다.</t>
+          <t>[남양주시청]10.22(금)~10.27(수) 참소망교회(오남읍 진건오남로 896번길 24) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2021/10/28 19:23:48</t>
+          <t>2021/10/31 15:14:18</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경상남도 거제시</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 25.(월) ~ 10. 27.(수) 택시(충북35아 5064) 이용자는 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[거제시청] 코로나19확진자 총 5명 발생(확진자접촉3, 감염경로 조사중2)/ 기침, 발열 등 유증상시 즉시 선별진료소에서 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2021/10/28 19:00:34</t>
+          <t>2021/10/31 15:13:24</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[홍성군청]10월28일(목) 19시 기준 확진자 1명(홍성306번) 발생. 자가격리중 검사 결과 확진으로 접촉자 및 동선 없음</t>
+          <t>[포항시청] 10.30(토) 11:30~13:20 포항역 3층 푸드코트(흥해읍 이인리 137-1) 이용자는 보건소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2021/10/28 18:34:01</t>
+          <t>2021/10/31 15:07:25</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 28일 17시 기준 확진자 40명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[창녕군청]10.29(금) 08:35 창녕→남지→부산(사상), 16:00 부산(사상)→남지→창녕→대구 시외버스(우등) 이용자는 가까운 선별진료소에 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2021/10/28 18:18:32</t>
+          <t>2021/10/31 14:40:04</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>서울특별시 전체</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[진도군청]안내드린 57번확진자 동선관련▲진도읍 락스(Rock’s) PC방 방문자께서는√보건소 선별진료소를 오늘밤 9시(21시)까지 연장운영하니 방문검사 바랍니다</t>
+          <t>[서울시청] 10.19(화)~29(금) 서초구 소재 경부선 터미널 3층 꽃자재 상가(신반포로194 3층) 방문자는 코로나19 검사 받으시기 바랍니다. ☎120</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2021/10/28 18:15:20</t>
+          <t>2021/10/31 14:34:19</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[남양주시청]10.28.(목) 코로나19 확진자 24명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tct8 증상의심시 코로나19 검사받으세요.</t>
+          <t>[안산시청]10월31일14시기준 확진자 26명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yFEyhJ</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2021/10/28 18:02:57</t>
+          <t>2021/10/31 14:09:22</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>서울특별시 중구</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[중구청] 10.14.~10.24. 중구 소재 중림식당(손기정로 1길 48) 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[완주군청] 10월 31일(일) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2021/10/28 18:00:52</t>
+          <t>2021/10/31 13:33:12</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>충청북도 옥천군</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[논산시청] 10월28일 확진자 5명(내국인5/관내4,훈련소1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
+          <t>[옥천군청] 10.28.(목) 18:30~21:00 맛있는 오칠구포차(옥천읍)이용자는 관할보건소에서 코로나검사 요망. 선별진료소 공휴일 운영 09:00~16:00</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2021/10/28 18:00:01</t>
+          <t>2021/10/31 13:25:09</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[안성시청]10.28. 코로나19확진자3명(자발적검사1확진자접촉1동반입소자1)발생. 역학조사,방역조치 완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[사천시청] 10.24(일)~10.29(금) 장수복집(동서금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2021/10/28 17:39:10</t>
+          <t>2021/10/31 13:00:44</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[진도군청]확진자 동선 추가▲진도읍 락피시방 √10.23(토) 16:10~21:05 √10.25(월) 17:30~10.26(화) 00:15▲방문자는 검사 바랍니다</t>
+          <t>[과천시청] 10월31일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2021/10/28 17:32:19</t>
+          <t>2021/10/31 11:53:23</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[진도군청]진도57번 확진자 발생(외국인근로자)▲진도읍 락피시방 √10.20(수)19:24~22:46 √10.22(금) 17:40~21:45▲방문자는 검사바랍니다</t>
+          <t>[사천시청] 10.27(수)08:00 삼천포시외버스터미널-&gt;부산서부시외버스터미널 시외버스 탑승자께서는 보건소 선별진료소에서 검사바랍니다.(055-831-3636)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2021/10/28 17:21:55</t>
+          <t>2021/10/31 11:32:25</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 28일 확진자 4명 발생(자가격리중2, 조사중2)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[창녕군청]10.31(일) 확진자2명 발생(창녕347~348/타지역접촉2)▷단계적 일상회복을 위한 방역수칙 준수▷마스크착용▷유증상시 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2021/10/28 17:13:14</t>
+          <t>2021/10/31 11:20:37</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>[창원시청] 10.23(토) 22:10~23:58 슬레이크(성산구 마디미로43번길 10)이용자는 관할 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[안양시청]▲10.31.(일) 11:00기준 신규확진자 62명 url.kr/odmvxu ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2021/10/28 16:47:30</t>
+          <t>2021/10/31 11:05:22</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>[강진군청] 강진 18번 확진자 발생(서울 방문하여 가족 확진자 접촉) 접촉자 및 동선 없음. 타지역 방문 및 의심증상 시 선별진료소 검사바랍니다.</t>
+          <t>[부여군청] 10월31일 11시기준 확진자7명 발생【부여431~437자가격리 및 수동감시(접종완료)중 발생으로 지역전파 없음】감기증상시 코로나 검사 후 진료 바람</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2021/10/28 16:28:17</t>
+          <t>2021/10/31 11:02:34</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경상북도 전체</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[구미시청]10/15(금)~10/24(일) 금오산교회 신유기도원(형곡동로 3) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[경상북도청] 10/22~10/25 제니스라이브(ZENITH)(포항시 남구 상도동 601-1)에 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2021/10/28 15:46:27</t>
+          <t>2021/10/31 10:53:30</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[의정부시청] 10.23.(토)~10.27.(수) 행복한영광교회(의정부동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[정읍시청]10.27(수)11:15~20:10,10.28(목)~10.29(금)9:30~20:30아양촌해물칼국수(시기동,소독완료)방문자는 선별진료소에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2021/10/28 15:31:39</t>
+          <t>2021/10/31 10:39:15</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>전라북도 정읍시</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[정읍시청] 10.25(월) 11:45~12:00, 항상아름다운자리 음식점 (신태인, 소독완료/ 전주확진자 방문) 방문자는 보건소 선별진료소에서 검사바랍니다.</t>
+          <t>[아산시청]10월 30일 확진자 13명(지인 7, 가족 5, 조사중 1) / 타지역 방문, 모임 자제 및 증상 발현 시 즉시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2021/10/28 15:28:28</t>
+          <t>2021/10/31 10:36:24</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[의정부시] 10/23(토)~10/24(일) 신곡동 서해아파트 103동 놀이터 방문자는 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[전주시청]10.31(일) 현재기준 6명 발생(전일 1명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2021/10/28 15:00:34</t>
+          <t>2021/10/31 10:35:45</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[고성군청]10. 28.15시기준,확진자1명(고성119번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[진천군청]▲10.30 코로나 확진자 6명(내국인2, 외국인4)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2021/10/28 14:51:40</t>
+          <t>2021/10/31 10:33:14</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[부산시]10.23.(토) 10:07~11:25 동신탕 여탕(부산광역시 동구 홍곡남로6, 수정동)이용자는 코로나19 검사 받으시기 바랍니다. (소독완료)</t>
+          <t>[강원도청] 10.30.(토) 도내 코로나19 확진 23명(원주11 홍천5 춘천2 태백2 횡성2 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2021/10/28 14:27:38</t>
+          <t>2021/10/31 10:30:27</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[영광군청] 관내 확진자 동선 관련▲10.26.(화)19:10~20:10 영광성당 미사 참석자는 보건소에서 진단검사 바랍니다.▲접종자 포함 실내외에서 마스크 착용</t>
+          <t>[용인시청]10월31일 0시 기준 확진자 28명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2021/10/28 14:25:30</t>
+          <t>2021/10/31 10:25:15</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[김천시청]10월28일 14시기준 13명 발생(신규2, 자가격리중11)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
+          <t>[창원시청] 마산역 임시선별검사소 운영종료알림(11.1부터) ▲3개 보건소(09:00~18:00), 창원종합버스터미널(11:00~20:00) 정상운영</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2021/10/28 13:51:17</t>
+          <t>2021/10/31 10:06:03</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[부여군청]10월28일 13시 기준 확진자17명 발생【부여405~421업체근로자14(외국인10,내국인4),학생3】 감기증상 시 코로나 검사(특히 학생) 바랍니다</t>
+          <t>[광주광역시] 10.27.(수) ~ 10.30.(토) 앗싸로또판매점(남구 백운로 15-1, 백운동)을 방문하신 분은 거주지 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2021/10/28 13:32:14</t>
+          <t>2021/10/31 10:01:22</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>충청북도 영동군</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[보성군]보성40번 동선관련, 10.24.(일)~10.26.(화) 06:00~07:00 보성매일시장 내 보리밥집을 이용하신분은 지금 즉시 보건소에서 검사바랍니다.</t>
+          <t>[영동군청] 10. 31.(일) 기준 확진자 1명 발생. 이동 동선 및 접촉자 파악 중입니다. 타 지역 방문 자제 및 증상 발현 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2021/10/28 13:26:55</t>
+          <t>2021/10/31 10:00:50</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>전라남도 순천시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>[순천시청] 10.24.(일)~10.27.(수) 07:00~10:00 천담수사우나(신월큰길 39) 여탕 이용자는 금일 중 보건소 선별진료소에서 검사하시기 바랍니다</t>
+          <t>[수원시청] 10월 31일 0시 기준, 수원 확진자 52명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사 바랍니다. me2.kr/ffgzf</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2021/10/28 13:25:56</t>
+          <t>2021/10/31 09:54:29</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>전라남도 화순군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>[화순군청] 10.23.(토) 13:40~14:25 옛날두부(화순읍 시장길 33)에서 23,000원 현금결제 하신 분은 거주지 보건소에서 코로나 진단검사바랍니다.</t>
+          <t>[보은군청]10. 31.(일) 확진자 1명 발생 ▲ 10.20.(수) ~ 10.26.(화) 복신경외과의원 방문자는 즉시 보건소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2021/10/28 12:58:41</t>
+          <t>2021/10/31 09:53:21</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경상북도 문경시</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[전주시청]10.28(목) 현재기준 7명 발생(전일 2명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[문경시청] 10.24.(일) ~10.27.(수) 네네치킨(문경시 점촌로8)을 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2021/10/28 11:18:46</t>
+          <t>2021/10/31 09:42:30</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.28.(목) 11:00기준 신규확진자 29명 url.kr/iexuqk ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[창원시청] 10.30. 확진자 48명 발생 ▲의창3,성산1,회원2,진해1,병원관련41 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2021/10/28 11:10:03</t>
+          <t>2021/10/31 09:40:17</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>전라남도 곡성군</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[나주시청] 10.28. 09시기준. 확진자2명 발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
+          <t>[곡성군청]10.31(일) 09시 기준 확진자 1명 발생(조사중). 유증상자 및 타지역 방문자는 증상 관계없이 선별진료소에서 검사바랍니다.(09:00~17:00)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2021/10/28 11:08:31</t>
+          <t>2021/10/31 09:38:05</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>전라북도 임실군</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[임실군청]서울 확진자 동선 관련/10.23(토) 09:30 서울강남터미널 출발→순창터미널 이동중 강진터미널에서 하차하신분은 선별진료소에서 검사 받으시길 바랍니다</t>
+          <t>[논산시청] 10월21일~29일 취암동 1056-14, 서원빌 401호에서 마사지를 받으신 분은 코로나 검사 받으시고 논산시보건소로 연락(746-6672)바랍니다</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2021/10/28 10:59:57</t>
+          <t>2021/10/31 09:34:05</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[용인시청]10월28일 0시기준 확진자 26명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[천안시청] 확진자 7명[타시민2, 천안시민5] ▶ 환절기 감기증상 발현 시 코로나 의심하고 의료기관 방문 전 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2021/10/28 10:59:56</t>
+          <t>2021/10/31 09:09:11</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>[보은군청] 221(13:25백록동방향),721(15:35석화방향),940(17:20신함방향),431(19:00천남방향)이용자는 코로나 검사받으시기 바랍니다.</t>
+          <t>[고흥군청]10.30(토) 24시기준 추가 확진자 8 발생 역학조사중,선별검사소운영 금산면금일체육관 09:00~17:00 운영,증상유뮤 관계없이 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2021/10/28 10:44:26</t>
+          <t>2021/10/31 09:06:43</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 28일(목) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[전남도청] 10.30.24시 기준 확진자 30명(목포5,여수1,고흥21,강진1,영암1,무안1) ▲주말 행사·모임 자제 ▲증상 의심 즉시 보건소 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2021/10/28 10:42:34</t>
+          <t>2021/10/31 09:02:09</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>전라북도 순창군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[순창군청]서울 확진자 이동경로 안내 ▶10.23(토) 09:30 서울강남센트럴시티→ 12:50 순창터미널 도착▶고속버스 이용객은 가까운 선별진료소 검사 바랍니다</t>
+          <t>[남원시청] ▲ 10.31(일) 08시 기준 확진자 9명 발생(남원 209~217번)/기확진자 접촉2, 자가격리중7 ▲ 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2021/10/28 10:23:12</t>
+          <t>2021/10/31 09:01:27</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[강원도청] 10.27.(수) 도내 코로나19 확진 22명(원주13 춘천2 태백2 강릉1 홍천1 철원1 양구1 인제1)▶접촉의심 및 감기증상시 즉시검사 당부 드림</t>
+          <t>[양주시청] 10월 31일 00시기준 확진자 24명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2021/10/28 10:00:33</t>
+          <t>2021/10/31 08:29:19</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 28일 0시 기준, 수원 확진자 60명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/xvl74</t>
+          <t>[목포시청]10.30.24시기준 확진자5명(자가격리중외국인2,가족접촉2,타지역접촉1) ▲발열,기침등 유증상발현으로 의료기관 방문시 사전 진단검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2021/10/28 09:58:53</t>
+          <t>2021/10/31 08:18:39</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[영광군청] 확진자 동선 관련 ▲10.24.(일), 10.26.(화) 영광성당 방문자는 보건소에서 진단검사 받으시기 바랍니다.▲마스크착용, 타지역 방문·접촉 자제</t>
+          <t>[여수시청] 10.30.24:00 기준 총1명 발생(자가격리중)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2021/10/28 09:47:56</t>
+          <t>2021/10/30 20:02:29</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.27 코로나 확진자 3명(내국인2, 외국인1). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[정읍시청1]10.30(토) 20시기준 정읍173번 확진자 발생 / 카카오톡채널 참고 / 유증상시 보건소에서 검사바랍니다. pf.kakao.com/_axcMvK</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2021/10/28 09:42:42</t>
+          <t>2021/10/30 19:16:05</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>[보은군청]10.28.(목) 확진자 8명 발생▲10. 23.(토)~10.24.(일) 시내버스(충북74자1014) 이용자는 보건소에서 코로나 검사 받으시기 바랍니다</t>
+          <t>[남양주시청]10.30.(토) 코로나19 확진자 37명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tehh 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2021/10/28 09:36:34</t>
+          <t>2021/10/30 18:27:55</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>[창원시청] 10.27. 확진자 22명 발생 ▲합포10,회원5,진해1,타지역1,격리중5 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[논산시청] 10월30일 확진자 3명(내국인1,외국인2/타지역2,조사중1)발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2021/10/28 09:33:21</t>
+          <t>2021/10/30 18:01:00</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[영광군청] 10.28.(목) 9시 기준, 확진자 1명(영광46번)발생▲10.24.(일)~10.27.(수)대동공업영광대리점 방문자는 보건소에서 진단검사 바랍니다.</t>
+          <t>[광주시청] 10월 30일 17시 기준 확진자 24명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2021/10/28 09:19:19</t>
+          <t>2021/10/30 17:27:10</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>강원도 원주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[원주시청] 10.16.~10.24.'힐링타임아로마테라피(여대생마사지)[북원로2251, 단계동]' 이용자는 오늘 15시까지 보건소에서 코로나 검사 받으세요.</t>
+          <t>[창원시청] 10.27.(수) 09:50~11:40 경창탕 남탕(성산구 상남로 67) 이용자 관할 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2021/10/28 09:05:45</t>
+          <t>2021/10/30 17:13:37</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 28일 00시 기준 확진자 11명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[충주시청] 10월 30일 확진자 7명 발생(선행 확진자 접촉2, 자가격리중3, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2021/10/28 08:31:40</t>
+          <t>2021/10/30 17:03:49</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.28(목)08시 기준 확진자 30명 발생(남원 172~201번)/감염경로조사중 ▲ 유증상시 접종유무와 상관없이 즉시 선별진료소에서 검사바랍니다.</t>
+          <t>[화순군청]10/25(월)12시경 금강민물식당(화순읍 칠충로145)에서 화순사랑상품권 3만원 결제하신 분은 거주지 보건소에서 코로나진단검사를 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2021/10/28 08:30:09</t>
+          <t>2021/10/30 17:00:55</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>[목포시청]10.27. 24시 기준 확진자 1명(자가격리중 외국인) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[무안군청] 10.30.(토) 17시기준 확진자 1명발생(외국인,격리중확진)▲외국인 고용사업장 종사자 2주1회 검사▲미등록 외국인 여권 없이 예방접종 가능</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2021/10/28 08:28:21</t>
+          <t>2021/10/30 15:44:31</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[여수시청]10.27.24:00 기준 총1명 발생(타지역거주자)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[진천군청]10.29 코로나 확진자5명(내국인3,외국인2)발생.▲손씻기,마스크착용 등 방역수칙 준수바랍니다.▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2021/10/27 21:09:37</t>
+          <t>2021/10/30 15:17:04</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>인천광역시 미추홀구</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>[보성군] 10.27.(수) 확진자 3명 추가 발생(가족,지인모임/역학조사중) ▲외출 및 지인모임 자제, 마스크 상시 착용, 의심증상시 보건소에서 검사 받으세요.</t>
+          <t>[미추홀구청]10/17(일),20(수),24(일),27(수) 주안할렐루야교회(미추홀구 구월로17) 방문자는 31(일) 오전중 거주지보건소에서 코로나19 검사바람</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2021/10/27 18:36:13</t>
+          <t>2021/10/30 15:12:55</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>[홍성군청]10월27일(수) 18시 기준 확진자 5명(홍성301~305번) 발생.자가격리 1명, 병원격리 3명, 자발적검사 1명. 역학조사 및 방역조치 완료</t>
+          <t>[창원시청]▲10.27(수)9:40~12:00 ▲10.29(금)9:50~11:00 소죽도찜질방 남탕(진해구 천자로 165,방역완료) 방문자 선별진료소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2021/10/27 18:35:33</t>
+          <t>2021/10/30 15:08:48</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
+          <t>[진주시청] 30일 15시 기준 확진자 2명(타지역 확진자의 접촉자 1명, 시민무료 선제검사 1명)발생. 상세 현황은 시 누리집 참조바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2021/10/27 18:25:04</t>
+          <t>2021/10/30 14:58:20</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>[남양주시청]10.27.(수) 코로나19 확진자 26명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tbit 증상의심시 코로나19 검사받으세요.</t>
+          <t>[금산군청]10.23(토)20:40-22:00, 10.24(일)16:00-19:00, 10.26(화)16:00-18:00 텐코인 노래연습장 방문한 분 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2021/10/27 18:03:16</t>
+          <t>2021/10/30 14:56:08</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 27일 확진자 7명 발생(선행 확진자 접촉1, 자가격리중4, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[남양주시청]10.22.(금)~10.29.(금) 외가집밥상 기사식당(남양주시 화도읍 북한강로 1412) 방문자는 가까운 보건소에서 코로나19 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2021/10/27 17:47:38</t>
+          <t>2021/10/30 14:30:55</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>[통영시청] 10.26.(화) 10:40~17:55 통영전문장례식장(정량동) 3층 특실을 방문하신분은 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[안산시청]10월30일 14시기준 확진자 48명 발생 ▲발열,기침,호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/ynRGLX</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2021/10/27 17:44:59</t>
+          <t>2021/10/30 14:13:26</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>[구례군청]10.27.(수) 확진자 1명 발생(구례35번 가족), 접촉자 및 이동동선 없습니다. 타지역 방문을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[음성군청] 10.30.확진자 4명(내국1, 외국3)발생▲동선 및 접촉자 조사중▲타지역방문,모임,지인초청 자제▲유증상시 주민들께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2021/10/27 17:32:06</t>
+          <t>2021/10/30 14:00:13</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 27일 17시 기준 확진자 28명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[사천시청]10.30.(토) 14시 기준 확진자 3명(조사 중 2명, 타지역거주자 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2021/10/27 17:04:55</t>
+          <t>2021/10/30 13:40:18</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>서울특별시 서초구</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 27일 17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[서초구청]10.19(화)~10.29(금) 경부선 터미널 3층 꽃자재(신반포로194 3층) 방문자는 선별진료소에서 코로나19 검사바랍니다. seocho.go.kr</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2021/10/27 16:52:03</t>
+          <t>2021/10/30 13:35:13</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>[강북구청] 10.24.~27. 로얄PC방(도봉로 313, 지하1층) 방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
+          <t>[대구광역시]아크(동구 반야월북로 158, 2층) 10/20~23 방문하신 분은 두류·국채보상공원·대구스타디움 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2021/10/27 16:32:30</t>
+          <t>2021/10/30 13:00:11</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[창원시청] 10.21.(목)~10.23.(토), 10.25.(월) 대림식당(마산합포구 북성로 100, 상남동) 방문자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[과천시청] 10월30일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2021/10/27 15:43:47</t>
+          <t>2021/10/30 12:51:45</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>인천광역시 부평구</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[부산시]10.23.(토) 13:30~15:30에 대원목욕탕(부산진구 황령대로18번길 43(범천동))여탕 이용자는 코로나19검사 받으시기 바랍니다.(소독완료)</t>
+          <t>[부평구청] 10/25(월) 텐코인노래방 (부평구 충선로203번길 12 뉴존프라자 3층, 삼산2동) 방문자는 가까운 선별검사소에서 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2021/10/27 15:37:00</t>
+          <t>2021/10/30 12:44:22</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[화성시청] 10.22.(금) 킹노래방(화성시 봉담읍 와우안길 43) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[고흥군청] 10.30(토) 확진자 13명 발생 역학조사 중 외출 및 지인 모임 자제 외국인 및 고용사업주는 보건소 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2021/10/27 15:36:38</t>
+          <t>2021/10/30 12:29:48</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[화성시청] 10.23.(토) 블루노래연습장(화성시 봉담읍 와우리 45-5 지하1층) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[강진군청] 강진 19번 확진자 발생(서울 거주자 29일 강진 방문) 동선 파악 등 역학조사 중. 타지역 방문 자제 및 의심증상 시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2021/10/27 15:36:10</t>
+          <t>2021/10/30 12:16:26</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>충청남도 서천군</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[서천군청] 10.24.~26. 기간 중 서면 홍원항어촌계 수산물판매장 내 한문이네를 방문한 분들은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
+          <t>[보성군]10.29.(금) 확진자 2명 발생(타지역 확진자 접촉)▲주말외출·모임자제▲백신접종을 완료했더라도 마스크착용, 유증상시 검사등 방역수칙을 잘 지켜주세요!</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2021/10/27 15:24:25</t>
+          <t>2021/10/30 12:00:04</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>[김천시청]10월27일 15시기준 관내 초·중학교 관련 22명 발생(신규15, 자가격리중7)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
+          <t>[전남도청] 전국 √요양시설√병원√학교 등에서 집단발생▲고위험시설(요양시설,병원) 방문 및 면회자제▲핼러윈데이,축제,행사,모임 자제 및 유증상시 검사 꼭 받으세요</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2021/10/27 15:10:02</t>
+          <t>2021/10/30 11:50:10</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>[고성군청]10.24.(일)14:00~15:42병산수산고성왕새우(삼산면소재, 방역완료) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[부여군청] 10월30일 11시 기준 확진자 6명 발생 【부여425~430/자가격리 학생4, 수동감시2】 감기증상 시 코로나 검사 후 진료를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2021/10/27 15:02:56</t>
+          <t>2021/10/30 11:25:35</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>[보은군청]10. 23.(토) ~ 10. 26.(화) 보은개인택시(35아 5061 /소나타/은색)를 이용하신분은 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[칠곡군청] 10.30.0시 기준 확진자 12명 중 외국인9명. 파키스탄 확진자 다수 발생. 사업장, 농장 등 소속외국인은 코로나 검사를 꼭 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:56</t>
+          <t>2021/10/30 11:25:16</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>[고성군청]10. 27.15시기준,확진자1명(고성118번, 관내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[칠곡군청] 10.20(수)~10.27(수) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 증상유무 상관없이 선별진료소에서 필히 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:14</t>
+          <t>2021/10/30 11:01:48</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>경기도 부천시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[부천시청] 10.19(화) 18시~22시 중동포차(조마루로291번길 46) 방문자는 증상유무에 관계없이 선별진료소에서 코로나19검사를 받으시기 바랍니다.</t>
+          <t>[용인시청]10월30일 0시 기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:14</t>
+          <t>2021/10/30 10:51:00</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>[보은군청]10.19.(화)~10.22.(금)/10.25.(월)~10.26.(화)11:45~12:30즐거운집(보은읍 삼산리)이용자는 코로나 검사 받으시기 바랍니다</t>
+          <t>[완주군청] 10월 30일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2021/10/27 14:57:46</t>
+          <t>2021/10/30 10:45:20</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>[김제시청] 10.27.(수) 14시기준 확진자 1명 발생(확진자 접촉1, 동선파악중)/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
+          <t>[군산시청] ▲10/22(금)~10/28(목) 싱글앤싱글(동수송2길 19) 방문자는 보건소 선별검사(09시~18시) 바랍니다. ▲10/29(금) 검사자 제외</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2021/10/27 14:47:14</t>
+          <t>2021/10/30 10:26:09</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>[울산광역시] 10.23.(토)18:10~21:10 ▲동강병원 장례식장 6호실(중구 태화로 240, 태화동, 소독완료) 방문자는 코로나19 검사 받으시기 바랍니다</t>
+          <t>[강원도청] 10.29.(금) 도내 코로나19 확진 25명(원주13,삼척5,홍천3,춘천1,강릉1,태백1,평창1) ▶접촉의심 및 감기증상 시 즉시검사 당부 드림</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2021/10/27 14:31:59</t>
+          <t>2021/10/30 10:17:18</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19(화), 10.21(목)~10.24(일) 환금휘트니스사우나(마산회원구 북성로 106, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[수원시청] 10월 30일 0시 기준, 수원 확진자 61명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/5z8t3</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2021/10/27 14:00:07</t>
+          <t>2021/10/30 10:08:30</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>강원도 삼척시</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>[사천시청] 10.27.(수) 14시 기준 확진자 5명(확진자 접촉자4명, 해외입국자1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[삼척시청]10.27~28 중앙시장길 68-4 지하1층 ‘봉자클럽’이용자는 보건소 선별진료소에서 금일 15시까지 코로나 검사를 받으시기 바랍니다☎570-4649</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2021/10/27 13:40:54</t>
+          <t>2021/10/30 10:06:13</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[완도군청]외국인 확진자 자가격리중 1명 발생▶오늘 선별이동검사소 안내▶10/27(수)13:30~15:00 소안창조문화센터▶15:00~17:00 청산복지회관 2층</t>
+          <t>[전주시청]10.30(토) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2021/10/27 11:02:53</t>
+          <t>2021/10/30 09:37:38</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>[완도군청] 확진자동선▶10/22(금)보길보옥리→청별→노화이포 보길여객농어촌버스 첫차(08:00)▶노화 농협하나로마트09:00~09:10 동시간대 이용자 검사요망</t>
+          <t>[의정부시청]10.23.(토), 10.25.(월) 정다운한식뷔페(산곡동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2021/10/27 11:00:04</t>
+          <t>2021/10/30 09:31:29</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>[용인시청]10월27일 0시기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲29일 도내 확진자 46명 발생</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2021/10/27 10:39:48</t>
+          <t>2021/10/30 09:30:28</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>충청남도 서천군</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>[부여군청]10월27일 10시 기준 확진자 18명 발생【부여387~404,학생등13,외국인5】 감기증상 시 보건소에서 코로나 검사(특히 학생) 받으시기 바랍니다.</t>
+          <t>[서천군청] 10.30.(토) 09:00기준 신규확진자 1명 발생(타 지역 거주자 방문 검사) ▲ 우리군 이동동선 및 접촉자 없습니다.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2021/10/27 10:37:52</t>
+          <t>2021/10/30 09:26:33</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>[강원도청] 10.26.(화) 도내 코로나19 확진 19명(원주6 태백5 춘천4 홍천3 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부 드림!!</t>
+          <t>[창원시청]10.29.확진자139명 발생 ▲의창1,성산2,합포5,회원5,진해4,타지역1,격리중3,병원관련118 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2021/10/27 10:33:16</t>
+          <t>2021/10/30 09:11:04</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>[아산시청] 10월26일 확진자 10명(가족7, 지인1, 조사중 2) /단계적 일상 회복 전환을 위해 방역수칙을 준수해 주시고, 코로나 의심시 검사 받으세요.</t>
+          <t>[광주광역시] 10.21(목)~10.29(금) 가톨릭 광주사회복지회 안셀모의 집(외국인 노동자 쉼터, 동구 동계천로 129-1, 동명동) 방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2021/10/27 10:26:25</t>
+          <t>2021/10/30 09:07:39</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[전주시청]10.27(수) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[목포시청]10.29(금) 24시 기준, 확진자 1명(유증상자1) 발생 ▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2021/10/27 10:08:04</t>
+          <t>2021/10/30 08:58:51</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 27일(수) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[남원시청] 타지역 확진자 동선 관련 ▲ 10.22.(금)12:30~13:30, 남원이조갈비(남원시 향단로 18) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2021/10/27 10:00:53</t>
+          <t>2021/10/30 08:57:17</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 27일 0시 기준, 수원 확진자 58명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/ghswi</t>
+          <t>[남원시청]▲10.30.(토) 전일확진자 5명 발생(남원 204~208번)/기확진자 접촉3, 자가격리중2▲타지역 방문자제 및 유증상시 즉시 검사 받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2021/10/27 09:54:39</t>
+          <t>2021/10/30 08:50:56</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>[김천시청]코로나19이동선별검사소 운영안내▲장소:녹색미래과학관(율곡동)▲27일:13:00~16:00, 28일-29일:10:00~16:00▲의심증상시 검사바랍니다.</t>
+          <t>[양주시청] 10월 30일 00시기준 확진자 21명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2021/10/27 09:53:25</t>
+          <t>2021/10/30 08:49:41</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 27.(수) 확진자 4명 발생 ▲ 10. 18.(월) 이후 복신경외과 내원자 및 유증상자는 인근 보건소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[무안군청] 10.30.(토) 08시30분기준 확진자 1명발생(타지역접촉) ▲발열·기침 등 의심증상 발현 시 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2021/10/27 09:46:27</t>
+          <t>2021/10/30 08:43:38</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>경상남도 함양군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>[함양군청] 10. 18.(월) 14시 함양 출발 → 16시 부산(사상) 도착 시외버스 탑승객은 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[진도군청]10.29(금) 24시 기준, 확진 2명(역학조사중)▲초, 중학생 지속발생▲아프면 검사받고 집에서 쉬기√주말 모임·행사, 핼러윈데이 파티 자제바랍니다</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2021/10/27 09:31:50</t>
+          <t>2021/10/29 20:01:43</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상북도 청도군</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>[창원시청] 10.18(월)~23(토) 온정백반(대산면 주남로503번길 8, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.(10.24 이후 검사자 제외)</t>
+          <t>[청도군청]청도원탕(청도군 화양읍 남성현로 504) 10/25.(08:00~11:00)방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:51</t>
+          <t>2021/10/29 18:31:37</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.17(일)~10.25(월) JL연기학원 1층~4층(동구 구성로 167, 충장로5가)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
+          <t>[홍성군청]10월29일(금) 18시 기준 확진자 1명(홍성307번) 발생. 증상발현으로 검사결과 확진. 역학조사 및 방역소독 완료</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:51</t>
+          <t>2021/10/29 18:21:44</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>[창원시청] 10.26. 확진자 20명 발생 ▲의창4,합포6,회원4,진해2,타지역1,격리중3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[남양주시청]10.29.(금) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/te0g 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:30</t>
+          <t>2021/10/29 18:12:54</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>[완도군청]확진자동선▶10/21(목) 12:10해남출발→13:00완도도착▶13:20완도터미널→화흥포셔틀버스▶13:50화흥포→노화동천 여객선실 이용자 코로나검사요망</t>
+          <t>[함평군청] 확진자 관련 10.23.(토) 13:10~13:50 함평읍 대흥식당 방문자는 보건소 또는 황소주차장에서 코로나 검사 받으시기 바랍니다.(시설소독완료)</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:26</t>
+          <t>2021/10/29 18:01:40</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲26일 도내 확진자 29명 발생</t>
+          <t>[논산시청] 10월29일 확진자 3명(내국인3/관내1,타지역1,조사중1) 발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2021/10/27 09:11:43</t>
+          <t>2021/10/29 18:00:31</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>[포항시청]10.23 302번버스 영일고등학교정류장15:41→죽도시장정류장16:07 죽도시장정류장16:33→영일고등학교정류장17:01 탑승객은 보건소 검사바랍니다</t>
+          <t>[안성시청]10.29.코로나19 확진자4명(자가격리2,동반입소자1,자발적검사1)발생.역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2021/10/27 09:09:58</t>
+          <t>2021/10/29 17:51:18</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 27일 00시 기준 확진자 4명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[진도군청]확진자 동선▲진도한국병원 10.27(수)08:37~09:20▲진도읍 샹떼피시방 10.27(수)16시~18시▲방문자는 보건소 선별진료소에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2021/10/27 09:05:04</t>
+          <t>2021/10/29 17:25:19</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 17명 [타시민1, 천안시민16] ▶ 초·중·고교생 확진자 증가 ▶ 증상발현 시 병원 방문 전 검사 및 백신접종에 참여 바랍니다.</t>
+          <t>[광주시청] 10월 29일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2021/10/27 08:27:36</t>
+          <t>2021/10/29 17:02:01</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.27(수) 금일 확진자 1명 발생(남원 171번)/감염경로 조사중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[과천시청] 10월 29일 17시 기준 신규확진 4명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2021/10/27 08:00:07</t>
+          <t>2021/10/29 17:00:12</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>[제천시청]10.27(수) 8시 현재. 확진자 2명 발생(타 지역 확진자 접촉 1, 격리중 1). 지역내 특이동선 없음. 증상발현시 선별진료소에서 검사 바랍니다.</t>
+          <t>[중대본] 10.17~10.27 서울 중구 명동7길 18-1 '예지식당' 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2021/10/26 21:01:59</t>
+          <t>2021/10/29 16:30:18</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경상남도 거제시</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>[보은군청]10.26.(화) 확진자 3명 발생, 10.18.(월)~10.26.(화) 복신경외과의원(보은읍) 방문자는 인근보건소에서 코로나검사를 받으시기 바랍니다.</t>
+          <t>[거제시청] 코로나19 확진자 총22명 발생(확진자접촉 1, 타지역확진자접촉 21)/ 기침, 발열 등 유증상시 즉시 가까운 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2021/10/26 20:24:18</t>
+          <t>2021/10/29 16:24:25</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
+          <t>[중대본]10.13~10.26 경기 남양주시 진접읍 양진로962 2층 '롯데택배 서울북부지점' 근무자는 보건소에서 코로나검사를 받으시기바랍니다(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2021/10/26 19:06:08</t>
+          <t>2021/10/29 15:47:33</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>[강북구청]10.19.(화) 19:00~21:10 보스당구클럽(오패산로130)방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
+          <t>[포항시청]10.28 305번버스 상대지구대정류장15:47→남구보건소정류장15:55 남구보건소정류장16:09→남부시장정류장16:23 탑승객은 보건소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2021/10/26 19:04:20</t>
+          <t>2021/10/29 15:34:52</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>경상남도 거창군</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[강북구청] 10.22.(금) 얼짱노래연습장(한천로 140길 35, 지층)방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
+          <t>[거창군청]타지역 확진자 동선 관련 10. 20.(수) 17:00 거창출발→서울남부도착 버스탑승자께서는 보건소 선별진료소에서 검사바랍니다. 055-940-8335</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2021/10/26 18:15:19</t>
+          <t>2021/10/29 15:02:50</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[남양주시청]10.26.(화) 코로나19 확진자 35명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/taaa 증상의심시 코로나19 검사받으세요.</t>
+          <t>[음성군청]10월 29일 확진자 5명(내국인3,외국인2)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2021/10/26 18:00:02</t>
+          <t>2021/10/29 14:43:00</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[안성시청]10.26코로나19확진자11명(자가격리2확진자접촉3자발적검사4해외입국2)발생.역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[안산시청]10월29일 14시기준 확진자 74명 발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z3DGp</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2021/10/26 17:47:56</t>
+          <t>2021/10/29 14:30:52</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경상북도 경산시</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 26일, 확진자 4명 발생(자가격리중 3, 감염경로 조사중 1) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[경산시][일자수정] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/26 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2021/10/26 17:29:09</t>
+          <t>2021/10/29 14:19:20</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>[고성군청]10.26.17시기준,확진자1명(고성117번,조사중)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[창원시청]22(금)08:40~15:36/25(월)08:40~11:27 정태기내과(의창구동읍로9,방역완료)방문자는 선별진료소에서 검사바랍니다(28일이후검사자제외)</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2021/10/26 17:01:15</t>
+          <t>2021/10/29 14:01:55</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>충청남도 청양군</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 26일 17시 기준 확진자 21명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[청양군청] 10월 29일 기준 확진자 1명 발생. 청양99번(타지역 확진자 접촉, 접촉자 파악 완료 검사 중) ▲ 유증상 시 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2021/10/26 17:01:12</t>
+          <t>2021/10/29 13:59:12</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>[창원시청] 10.16(토)~10.20(수) 17:00~17:20 감계식당(북면 감계로156번길 6-8,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[진도군청]확진자 동선 안내▲진도읍 샹떼 피시방 10.28(목) 16:00~18:00 방문자는 보건소 선별진료소에서 검사바랍니다▲주말 행사·모임 자제 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2021/10/26 17:00:57</t>
+          <t>2021/10/29 13:55:20</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>[창원시청] 10.16.(토)~10.20.(수) 12:00~12:30 윤현식당(북면 감계로188번길 21,방역완료)이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[포항시청] 10.25(월) 12:00 ~ 10.28(목) 06:00 궁타이마사지(상도동 615-3번지) 해당기간 방문자는 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2021/10/26 17:00:49</t>
+          <t>2021/10/29 13:44:25</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>[과천시청]10월26일 17시 기준 신규확진 2명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
+          <t>[광주광역시] 10.21(목)~10.24(일) GNS 강남스타일(태국음식점, 서구 상무시민로 130, 7층, 치평동) 방문자는 거주지 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2021/10/26 16:14:21</t>
+          <t>2021/10/29 11:09:29</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>[당진시청]10/26(화)16시기준 확진자17명발생(격리중5,관내접촉3,타지역접촉1,조사중8).총1080명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
+          <t>[나주시청] 10. 29. 09시 기준. 확진자 1명 발생. 동선·접촉자 파악완료. 외국인 접종시급. 코로나19 증상(기침·발열 등) 발현시 지체없이 검사 요망.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2021/10/26 16:10:22</t>
+          <t>2021/10/29 11:05:17</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>[사천시청]10.14(목)~10.24(일) 사천시 서부시장길 21, 2층(선원휴게실) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[강화군청]10월25일(월)과 10월27일(수) 강화인삼센터 방문자께서는 가까운 선별진료소에서 코로나19 진단 검사 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2021/10/26 16:05:02</t>
+          <t>2021/10/29 11:03:01</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경상북도 경산시</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>[진주시청] 26일 15시 기준 확진자 9명(관내 소재 회사 외국인 종사자 8명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[경산시] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/22 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2021/10/26 16:03:46</t>
+          <t>2021/10/29 11:00:08</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>경상북도 안동시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>[안동시청]금일 16시기준 확진자1명 발생▲10.24(일)13:04~18:30 엔제리너스안동옥동점(광명로 175)방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
+          <t>[용인시청]10월29일 0시기준 확진자 25명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2021/10/26 15:57:55</t>
+          <t>2021/10/29 11:00:03</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.18(월) 10.20(수) 10.22(금) 07:30~09:00 서광사우나 여탕(서구 죽봉대로109, 4층, 광천동) 방문자는 검사 바랍니다</t>
+          <t>[전주시청]10.29(금) 현재기준 2명 발생(전일 21명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2021/10/26 15:39:54</t>
+          <t>2021/10/29 10:46:34</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>전라남도 장성군</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>[장성군청] 10.26.(화) 확진자 1명 발생. 자가격리 중 확진으로 이동동선 없음. 외국인사업장 등 방역취약시설 운영자 및 종사자는 2주 1회 검사 바랍니다.</t>
+          <t>[부여군청] 10월29일 10시 기준 확진자 3명 발생 【부여422~424/학생】 감기증상시(콧물, 목아픔, 두통 등) 코로나 검사 후 진료 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2021/10/26 14:26:48</t>
+          <t>2021/10/29 10:40:01</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>[강진군청] 10월 23일 17:30 강진군 여성배드민턴 대회 후 회장 이취임식에 참석한 군민은 보건소 선별진료소에서 오후 5시까지 검사 받기 바랍니다.</t>
+          <t>[강화군청]10월 25일(월), 10월 27일(수) 강화인삼센터(강화읍 알미골) 방문자는 가까운 선별진료소에서 코로나19 진단검사 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2021/10/26 14:22:31</t>
+          <t>2021/10/29 10:37:39</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>[음성군청]10월 26일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[포항시청] 10.22(금)~10.25(월) ZENITH 제니스 라이브(상도동 601-1) 방문자는 가까운 보건소에 방문하여 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2021/10/26 14:19:40</t>
+          <t>2021/10/29 10:29:50</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>충청남도 청양군</t>
+          <t>강원도 평창군</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>[청양군청] 10월 26일 기준 확진자 1명 발생. 청양98번(자가격리중 확진, 이동동선 없음). ▲타지역 방문 자제, 유증상 시 코로나19 검사 바랍니다.</t>
+          <t>[평창군청] 10.29일 평창군 확진자 1명(232번) 봉평면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2021/10/26 14:01:45</t>
+          <t>2021/10/29 10:06:43</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>[사천시청]10.26.(화) 14시 기준 확진자 2명(확진자 접촉자1명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[부여군청]코로나19 군민행동요령 최근 학교,기업체 내 코로나 집단발생에 따른 지역확산은 없는 것으로 판단,감기증상시 코로나 검사후 진료받으시고 방역수칙 준수바람</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2021/10/26 12:58:38</t>
+          <t>2021/10/29 10:05:48</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>[사천시청]10.14.(목)~10.24(일) 08:00~12:00 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[통영시청] 10.24(일) 11:00~13:30 안황스포츠센터(광도면 안정로 830) 목욕탕(여탕) 이용하신 분은 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2021/10/26 11:52:38</t>
+          <t>2021/10/29 10:01:24</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.22.(금)~10.25.(월) 산호장여관(왜관읍 중앙로5길 10, 왜관역 부근) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[수원시청] 10월 29일 0시 기준, 수원 확진자 50명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/fwi9s</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2021/10/26 11:52:08</t>
+          <t>2021/10/29 09:56:45</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.12.(화)~10.24.(일) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[보은군청] 10. 29.(금) 확진자 5명 발생 ▲ 10.19.(화)~10.27.(수) 극동슈퍼 이용자는 인근 보건소에서 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2021/10/26 11:23:52</t>
+          <t>2021/10/29 09:51:20</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.26.(화) 11:00기준 신규확진자 24명 url.kr/eybpvx ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[창원시청] 10.28. 확진자 18명 발생 ▲의창3,성산1,합포6,회원5,타지역3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2021/10/26 11:11:36</t>
+          <t>2021/10/29 09:15:46</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>경상북도 성주군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>[성주군] 10월23일(토) 13:50-14:20까지 박여사순대국밥(초전면 대장길 76) 방문자는 선별진료소에서 코로나19 PCR검사를 받으시기 바랍니다.</t>
+          <t>[진도군청]10.29(금) 08시기준 2명 추가확진(초,중학생)▲선별이동검사소 안내√진도서초교 09:30~11:00√진도중학교 09:30~14:00까지 운영합니다</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2021/10/26 10:59:58</t>
+          <t>2021/10/29 09:02:40</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자 5명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[고흥군청] 10.29(금) 확진자 1명 발생, 역학조사 중. 외출 및 지인모임을 자제하고, 마스크 상시 착용바라며, 의심증상시 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2021/10/26 10:28:11</t>
+          <t>2021/10/29 09:02:19</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>[청주시청]10월 25일 확진자 13명 발생(상당구3,서원구1,흥덕구3,청원구5,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
+          <t>[양주시청] 10월 29일 00시 기준 확진자 12명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2021/10/26 10:18:06</t>
+          <t>2021/10/29 08:56:55</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>경상북도 성주군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>[성주군청] 최근 타지역을 방문했거나 발열, 기침 등 코로나19 증상이 있을 경우 보건소 선별진료소를 방문하여 검사를 받으시기 바랍니다.</t>
+          <t>[남원시청] 관내 확진자 동선 관련▲10.24.(일) 09:00~18:00 행남자기(남원시 남문로 397) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2021/10/26 10:13:53</t>
+          <t>2021/10/29 08:56:40</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.25 코로나 확진자 11명(외국인11). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[남원시청]▲10.29(금 08시기준 전일확진자 2명발생(남원 202~203번)/기확진자 접촉 ▲가을철 여행등 타지역방문 후 유증상시 즉시 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2021/10/26 10:05:39</t>
+          <t>2021/10/29 08:55:32</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 무안군,전라남도 보성군,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 26일(화) 0시 기준 확진자 8명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[전남도청] 10.28. 24시기준 확진 13명(목포4,순천2,나주1,화순1,강진1,영광2,진도1/해외1(구례))▲증상 의심되면 외출 자제하고 검사 먼저 받으세요</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2021/10/26 10:00:58</t>
+          <t>2021/10/29 08:33:23</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>[강북구청]10.16.~22. 분홍미용실(강북구 도봉로97길 15), 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다. ☎901-7704</t>
+          <t>[화순군청] 10.28. 24시 기준 확진자 1명 발생(화순128번). 동선 소독 완료하고 접촉자 조사중입니다. ▶접종완료자도 의심증상 있으면 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2021/10/26 10:00:05</t>
+          <t>2021/10/28 19:48:50</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 26일 0시 기준, 수원 확진자 20명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/mwbj1</t>
+          <t>[영광군청]10.28.(목) 18:00시 확진자 1명(영광 47번)추가발생.영광46번 가족으로 역학조사중. 접종 완료자도 의심 즉시 보건소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2021/10/26 09:57:38</t>
+          <t>2021/10/28 19:25:43</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라북도 고창군</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>[창원시청] 10.21(목)~10.24(일) 05:00~12:00 진해스파랜드(진해구 진해대로 762,지하) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[고창군청] 10.28.(목) 19:00 기준 ▶관내 확진자(고창 63번) 발생 ▶코로나19 의심 증상 시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2021/10/26 09:52:28</t>
+          <t>2021/10/28 19:23:48</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>[완도군청]확진자 2명 발생(신지면1, 보길면1) 자가격리 중 확진으로 이동동선 없음▶오전 금일, 보길, 금당, 생일 이동선별진료소 운영중▶주민들은 검사요망</t>
+          <t>[보은군청] 10. 25.(월) ~ 10. 27.(수) 택시(충북35아 5064) 이용자는 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2021/10/26 09:51:23</t>
+          <t>2021/10/28 19:00:34</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19.(화), 10.21.(목)~10.24.(일) 환금휘트니스사우나(회원구 북성로 106,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[홍성군청]10월28일(목) 19시 기준 확진자 1명(홍성306번) 발생. 자가격리중 검사 결과 확진으로 접촉자 및 동선 없음</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2021/10/26 09:48:27</t>
+          <t>2021/10/28 18:34:01</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>[창원시청] 10.20.(수) 19:00~19:30 팔룡동 대동마트(의창구 반계로 97) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[광주시청] 10월 28일 17시 기준 확진자 40명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2021/10/26 09:22:52</t>
+          <t>2021/10/28 18:18:32</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>[창원시청] 10.25. 확진자 6명 발생 ▲성산1,합포1,진해1,타지역1,격리중2 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[진도군청]안내드린 57번확진자 동선관련▲진도읍 락스(Rock’s) PC방 방문자께서는√보건소 선별진료소를 오늘밤 9시(21시)까지 연장운영하니 방문검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2021/10/26 09:05:02</t>
+          <t>2021/10/28 18:15:20</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>[김제시청] 10.26.(화) 9시기준 확진자 1명 발생(자가격리중 확진, 외국인)/동선없음/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다</t>
+          <t>[남양주시청]10.28.(목) 코로나19 확진자 24명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tct8 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2021/10/26 09:01:46</t>
+          <t>2021/10/28 18:02:57</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>서울특별시 중구</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>[영암군청] 10. 21.(목) 15:30~17:20 금정농협 경제사업부(금정면 용두로 24) 방문자는 선별진료소 검사바랍니다.(격리중 확진으로 역학조사 완료)</t>
+          <t>[중구청] 10.14.~10.24. 중구 소재 중림식당(손기정로 1길 48) 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2021/10/26 08:51:07</t>
+          <t>2021/10/28 18:00:52</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>[영광군청] 10.25.(월) 22시기준 확진자1명(타지역 확진자 접촉)발생▲10.25.(월) 12시~13시 영광읍 양평해장국 방문자는 보건소에서 검사 바랍니다.</t>
+          <t>[논산시청] 10월28일 확진자 5명(내국인5/관내4,훈련소1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2021/10/26 08:50:31</t>
+          <t>2021/10/28 18:00:01</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>[전남도청] 10.25. 24시기준 확진 6명(여수1,나주1,장흥1,영암1,신안2) ▲방역취약시설 운영자 및 종사자는 10.31.까지 2주 1회 진단검사 받으세요</t>
+          <t>[안성시청]10.28. 코로나19확진자3명(자발적검사1확진자접촉1동반입소자1)발생. 역학조사,방역조치 완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2021/10/26 08:46:39</t>
+          <t>2021/10/28 17:39:10</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>[보성군]타지역 확진자 동선 관련, 10.20.(수) 16:20 회천→광주행 광우고속 버스를 이용하신 분은 보건소 선별진료소에서 검사바랍니다.(09~18시 운영)</t>
+          <t>[진도군청]확진자 동선 추가▲진도읍 락피시방 √10.23(토) 16:10~21:05 √10.25(월) 17:30~10.26(화) 00:15▲방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2021/10/26 08:45:13</t>
+          <t>2021/10/28 17:32:19</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>[신안군청] 10.25. 24시 기준 확진자 2명(신안 57번~58번/자가격리 중 2) 발생 ▲의심 증상 시 즉시 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[진도군청]진도57번 확진자 발생(외국인근로자)▲진도읍 락피시방 √10.20(수)19:24~22:46 √10.22(금) 17:40~21:45▲방문자는 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2021/10/26 08:08:23</t>
+          <t>2021/10/28 17:21:55</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>[군산시청] ▲ 10/24(일) 10:00~12:20 월명24시사우나찜질방(현충로95(나운동)) 남탕 이용자는 보건소 선별검사(09시~18시)바랍니다.</t>
+          <t>[충주시청] 10월 28일 확진자 4명 발생(자가격리중2, 조사중2)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2021/10/26 08:03:33</t>
+          <t>2021/10/28 17:13:14</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>[여수시청] 10.25.24:00 기준 총1명 발생(타지역 방문)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[창원시청] 10.23(토) 22:10~23:58 슬레이크(성산구 마디미로43번길 10)이용자는 관할 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2021/10/25 21:53:43</t>
+          <t>2021/10/28 16:47:30</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>강원도 태백시</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>[태백시청] 10월 25일(월) 21시기준 확진자 8명 발생(역학조사 중, 필요시 이동동선 태백시 홈페이지 공개), 유증상자는 보건소 선별검사 받으시기 바랍니다.</t>
+          <t>[강진군청] 강진 18번 확진자 발생(서울 방문하여 가족 확진자 접촉) 접촉자 및 동선 없음. 타지역 방문 및 의심증상 시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2021/10/25 18:53:55</t>
+          <t>2021/10/28 16:28:17</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>[남양주시청]10.25.(월) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t8vj 증상의심시 코로나19 검사받으세요.</t>
+          <t>[구미시청]10/15(금)~10/24(일) 금오산교회 신유기도원(형곡동로 3) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2021/10/25 18:34:29</t>
+          <t>2021/10/28 15:46:27</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.24 코로나 확진자 4명(내국인2, 외국인2)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[의정부시청] 10.23.(토)~10.27.(수) 행복한영광교회(의정부동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2021/10/25 18:26:40</t>
+          <t>2021/10/28 15:31:39</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>전라남도 장흥군</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>[장흥군청]10.25. 17시 기준 확진자 1명 발생(자가격리 중 확진) ▶이동동선 및 접촉자 없음 ▶유증상시 접종유무와 상관없이 즉시 선별진료소 검사바랍니다.</t>
+          <t>[정읍시청] 10.25(월) 11:45~12:00, 항상아름다운자리 음식점 (신태인, 소독완료/ 전주확진자 방문) 방문자는 보건소 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2021/10/25 18:00:49</t>
+          <t>2021/10/28 15:28:28</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>[안성시청]10.25. 코로나19확진자3명(자가격리1,확진자접촉1,자발적검사자1)발생.역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[의정부시] 10/23(토)~10/24(일) 신곡동 서해아파트 103동 놀이터 방문자는 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2021/10/25 17:56:29</t>
+          <t>2021/10/28 15:00:34</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>[논산시청] 10월25일 확진자 9명(내국인6,외국인3/관내6,타지역2,조사중1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받기 바랍니다.</t>
+          <t>[고성군청]10. 28.15시기준,확진자1명(고성119번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2021/10/25 17:36:42</t>
+          <t>2021/10/28 14:51:40</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>[의정부시]10.20.(수) 14시~16시 의정부백병원장례식장(신곡동) 2호실 방문자 중 유증상자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[부산시]10.23.(토) 10:07~11:25 동신탕 여탕(부산광역시 동구 홍곡남로6, 수정동)이용자는 코로나19 검사 받으시기 바랍니다. (소독완료)</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2021/10/25 17:14:05</t>
+          <t>2021/10/28 14:27:38</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 25일, 확진자 3명 발생(선행 확진자의 접촉자1, 자가격리중1, 조사중1) ▲만남,모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[영광군청] 관내 확진자 동선 관련▲10.26.(화)19:10~20:10 영광성당 미사 참석자는 보건소에서 진단검사 바랍니다.▲접종자 포함 실내외에서 마스크 착용</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2021/10/25 17:03:57</t>
+          <t>2021/10/28 14:25:30</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 25일 17시 기준 확진자 16명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[김천시청]10월28일 14시기준 13명 발생(신규2, 자가격리중11)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2021/10/25 17:00:23</t>
+          <t>2021/10/28 13:51:17</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>[과천시청] 10월25일17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[부여군청]10월28일 13시 기준 확진자17명 발생【부여405~421업체근로자14(외국인10,내국인4),학생3】 감기증상 시 코로나 검사(특히 학생) 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2021/10/25 17:00:02</t>
+          <t>2021/10/28 13:32:14</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>[고성군청]10. 25. 16시기준, 확진자 1명(고성116번, 수도권 확진자 접촉, 타지역 거주)발생 ▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[보성군]보성40번 동선관련, 10.24.(일)~10.26.(화) 06:00~07:00 보성매일시장 내 보리밥집을 이용하신분은 지금 즉시 보건소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2021/10/25 16:13:42</t>
+          <t>2021/10/28 13:26:55</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>[보성군]타지역 확진자 관내동선 관련, 10.19.(화) 17:00~19:45까지 보성읍 우리장례식장을 이용하신분은 보건소 선별진료소에서 지금 즉시 검사받으세요.</t>
+          <t>[순천시청] 10.24.(일)~10.27.(수) 07:00~10:00 천담수사우나(신월큰길 39) 여탕 이용자는 금일 중 보건소 선별진료소에서 검사하시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2021/10/25 15:59:49</t>
+          <t>2021/10/28 13:25:56</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>서울특별시 용산구</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>[용산구청] 10.8.(금)~10.14.(목) 한남동 소재 ‘Season9(엠타이인서울)’ 방문하신 분은 가까운 선별진료소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[화순군청] 10.23.(토) 13:40~14:25 옛날두부(화순읍 시장길 33)에서 23,000원 현금결제 하신 분은 거주지 보건소에서 코로나 진단검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2021/10/25 15:56:47</t>
+          <t>2021/10/28 12:58:41</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>경기도 고양시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>[고양시청]10.18.(월)~20.(수) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[전주시청]10.28(목) 현재기준 7명 발생(전일 2명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2021/10/25 15:41:41</t>
+          <t>2021/10/28 11:18:46</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.14(목)~10.23(토) 설화머리방(서구 죽봉대로 111번길 14, 광천동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[안양시청]▲10.28.(목) 11:00기준 신규확진자 29명 url.kr/iexuqk ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2021/10/25 15:32:37</t>
+          <t>2021/10/28 11:10:03</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>[김제시청] 10.18(월)~10.22(금)12:00~13:00 김제시 용지면 소재한 그린반점(소독완료) 방문자는 가까운 선별진료소 방문 및 검사 바랍니다.</t>
+          <t>[나주시청] 10.28. 09시기준. 확진자2명 발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2021/10/25 15:09:24</t>
+          <t>2021/10/28 11:08:31</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>전라북도 임실군</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>[진주시청] 25일 15시 기준 확진자 1명(무료선제검사) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[임실군청]서울 확진자 동선 관련/10.23(토) 09:30 서울강남터미널 출발→순창터미널 이동중 강진터미널에서 하차하신분은 선별진료소에서 검사 받으시길 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2021/10/25 14:57:15</t>
+          <t>2021/10/28 10:59:57</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>경상남도 양산시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>[양산시청]10.25.(월) 15시기준, 코로나19 확진자 6명발생(접촉자 1, 격리중 2, 격리면제 검사 3)▲코로나19 백신 당일접종 접종센터(9~15시)</t>
+          <t>[용인시청]10월28일 0시기준 확진자 26명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2021/10/25 14:31:31</t>
+          <t>2021/10/28 10:59:56</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>[안산시청]10월25일14시기준 확진자 39명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/XeqOnC5</t>
+          <t>[보은군청] 221(13:25백록동방향),721(15:35석화방향),940(17:20신함방향),431(19:00천남방향)이용자는 코로나 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2021/10/25 14:18:04</t>
+          <t>2021/10/28 10:44:26</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>[화성시청] 10.18.(월) 18:00~19:00 둘리칼국수(화성시 남양읍 남양시장로61) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[완주군청] 10월 28일(목) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2021/10/25 14:04:46</t>
+          <t>2021/10/28 10:42:34</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>전라북도 순창군</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>[통영시청]10.14.(목) 통영출발(16:10)→고성·마산경유→부산사상터미널도착/현대고속(경남70아1030) 탑승자는 가까운 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[순창군청]서울 확진자 이동경로 안내 ▶10.23(토) 09:30 서울강남센트럴시티→ 12:50 순창터미널 도착▶고속버스 이용객은 가까운 선별진료소 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2021/10/25 13:44:21</t>
+          <t>2021/10/28 10:23:12</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.25.(월) 11:00기준 신규확진자 15명 url.kr/v4srn9 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[강원도청] 10.27.(수) 도내 코로나19 확진 22명(원주13 춘천2 태백2 강릉1 홍천1 철원1 양구1 인제1)▶접촉의심 및 감기증상시 즉시검사 당부 드림</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2021/10/25 11:47:38</t>
+          <t>2021/10/28 10:00:33</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>[구미시청]외국인근로자 확진자 다수 발생. 외국인고용주께서는 근로자가 가까운 보건소에서 백신접종 및 진단검사를 할 수 있도록 관리에 철저를 기하여주시기 바랍니다.</t>
+          <t>[수원시청] 10월 28일 0시 기준, 수원 확진자 60명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/xvl74</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2021/10/25 11:19:05</t>
+          <t>2021/10/28 09:58:53</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>[김제시청] 10.25.(월)11시기준 확진자 2명발생(확진자접촉2, 동선파악중)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[영광군청] 확진자 동선 관련 ▲10.24.(일), 10.26.(화) 영광성당 방문자는 보건소에서 진단검사 받으시기 바랍니다.▲마스크착용, 타지역 방문·접촉 자제</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2021/10/25 11:09:57</t>
+          <t>2021/10/28 09:47:56</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>[아산시청] 10월 24일 확진자 1명(해외 입국자1) / 새로운 일상을 위한 방역의 생활화! 모두 함께 만들어 갑시다. 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[진천군청]▲10.27 코로나 확진자 3명(내국인2, 외국인1). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2021/10/25 11:09:15</t>
+          <t>2021/10/28 09:42:42</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>전라북도 무주군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>[무주군청] 10.25.(월)11시 기준 신규 확진자 1명 발생(무주 45번, 10.24.(일) 21시 확진)/감기몸살, 기침 등 이상증상시 진단 검사바랍니다.</t>
+          <t>[보은군청]10.28.(목) 확진자 8명 발생▲10. 23.(토)~10.24.(일) 시내버스(충북74자1014) 이용자는 보건소에서 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2021/10/25 11:00:00</t>
+          <t>2021/10/28 09:36:34</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자 8명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[창원시청] 10.27. 확진자 22명 발생 ▲합포10,회원5,진해1,타지역1,격리중5 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:49</t>
+          <t>2021/10/28 09:33:21</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 25일(월) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[영광군청] 10.28.(목) 9시 기준, 확진자 1명(영광46번)발생▲10.24.(일)~10.27.(수)대동공업영광대리점 방문자는 보건소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:39</t>
+          <t>2021/10/28 09:19:19</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>강원도 원주시</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>[포항시청] 10.19(화)~10.22(금) 대구은행 상대동지점(대도동 640-7) 대출업무관련 방문자는 가까운 보건소에서 검사 바랍니다.</t>
+          <t>[원주시청] 10.16.~10.24.'힐링타임아로마테라피(여대생마사지)[북원로2251, 단계동]' 이용자는 오늘 15시까지 보건소에서 코로나 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:32</t>
+          <t>2021/10/28 09:05:45</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>[금산군청] 10.25(월) 10시 기준 확진자 8명 발생(격리중 3, 신규5), 역학조사중, 감기몸살, 오한 등 증상시 선별진료소 방문 검사바랍니다.</t>
+          <t>[양주시청] 10월 28일 00시 기준 확진자 11명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2021/10/25 10:00:53</t>
+          <t>2021/10/28 08:31:40</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 25일 0시 기준, 수원 확진자 16명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d1t0c</t>
+          <t>[남원시청]▲10.28(목)08시 기준 확진자 30명 발생(남원 172~201번)/감염경로조사중 ▲ 유증상시 접종유무와 상관없이 즉시 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2021/10/25 09:30:14</t>
+          <t>2021/10/28 08:30:09</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다.▲24일 도내 확진자 42명 발생</t>
+          <t>[목포시청]10.27. 24시 기준 확진자 1명(자가격리중 외국인) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2021/10/25 09:17:02</t>
+          <t>2021/10/28 08:28:21</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>강원도 강릉시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>[강릉시청]어제(일) 4명 확진(친구간 밀접촉4)/10.20(수)~23(토) 기간중 카페썸(가톨릭관동대 내)을 방문하신 분은 오전중 보건소에서 반드시 검사바랍니다</t>
+          <t>[여수시청]10.27.24:00 기준 총1명 발생(타지역거주자)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2021/10/25 09:14:30</t>
+          <t>2021/10/27 21:09:37</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>[창원시청]10월21일(07:50~11:00), 22일(08:50~10:40) 진해스파랜드(진해대로 762,지하)이용자는 관할보건소에서 검사받으시기 바랍니다.</t>
+          <t>[보성군] 10.27.(수) 확진자 3명 추가 발생(가족,지인모임/역학조사중) ▲외출 및 지인모임 자제, 마스크 상시 착용, 의심증상시 보건소에서 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2021/10/25 09:13:26</t>
+          <t>2021/10/27 18:36:13</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>[창원시청]10월18일(09:20~11:20),19일(07:40~11:10),20일(07:50~10:50)진해스파랜드(진해대로 762)이용자관할보건소에서 검사요망</t>
+          <t>[홍성군청]10월27일(수) 18시 기준 확진자 5명(홍성301~305번) 발생.자가격리 1명, 병원격리 3명, 자발적검사 1명. 역학조사 및 방역조치 완료</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2021/10/25 09:01:13</t>
+          <t>2021/10/27 18:35:33</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 25일 00시 기준 확진자 9명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2021/10/25 08:53:36</t>
+          <t>2021/10/27 18:25:04</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>[전남도청] 10.24.24시기준 확진5명(구례1,장성1,완도1,신안1 /해외1(광양))※내국인3명,외국인2명(건설1,선원1) ▲의심증상 즉시 보건소 검사받으세요</t>
+          <t>[남양주시청]10.27.(수) 코로나19 확진자 26명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tbit 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2021/10/25 08:45:15</t>
+          <t>2021/10/27 18:03:16</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>[신안군청]10.24.24시 기준 확진자 1명(건설근로자 외국인 1명)발생 ▲외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
+          <t>[충주시청] 10월 27일 확진자 7명 발생(선행 확진자 접촉1, 자가격리중4, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2021/10/25 08:25:06</t>
+          <t>2021/10/27 17:47:38</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>전라남도 광양시</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>[광양시청] 10. 24. 24시 기준 확진자 1명 발생(해외입국자 1) 가벼운 감기증상도 의료기관 방문 전 선별진료소 무료 검사 받으시기 바랍니다.</t>
+          <t>[통영시청] 10.26.(화) 10:40~17:55 통영전문장례식장(정량동) 3층 특실을 방문하신분은 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2021/10/25 08:07:08</t>
+          <t>2021/10/27 17:44:59</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.25(월) 08시 기준 확진자 1명발생(남원 170번)/역학조사 중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시검사 받으시기 바랍니다.</t>
+          <t>[구례군청]10.27.(수) 확진자 1명 발생(구례35번 가족), 접촉자 및 이동동선 없습니다. 타지역 방문을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2021/10/25 08:02:06</t>
+          <t>2021/10/27 17:32:06</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>[울산광역시]임시선별검사소▲문수경기장(평일9~20시)▲종합운동장,동구국민체육센터,농소운동장,온양체육공원(평일9~17시)입니다.(점심시간 12시~13시 미운영)</t>
+          <t>[광주시청] 10월 27일 17시 기준 확진자 28명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2021/10/25 08:00:04</t>
+          <t>2021/10/27 17:04:55</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>[제천시청]10.25(월) 08시 현재. 확진자 1명 발생(외국인). 감염경로 조사중. 추가사항은 모바일콜센터 등으로 안내드리겠습니다. 증상 발현시 검사 바랍니다</t>
+          <t>[과천시청] 10월 27일 17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2021/10/24 20:42:25</t>
+          <t>2021/10/27 16:52:03</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>강원도 강릉시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>[강릉시청]10.20(수)~10.23(토) 기간 중 카페썸(가톨릭관동대 내)을 방문하신 분들은 내일 오전중으로 보건소 선별검사소에서 반드시 검사 바랍니다.</t>
+          <t>[강북구청] 10.24.~27. 로얄PC방(도봉로 313, 지하1층) 방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2021/10/24 18:35:44</t>
+          <t>2021/10/27 16:32:30</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
+          <t>[창원시청] 10.21.(목)~10.23.(토), 10.25.(월) 대림식당(마산합포구 북성로 100, 상남동) 방문자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2021/10/24 18:11:09</t>
+          <t>2021/10/27 15:43:47</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>[홍성군청]10월24일(일) 18시 기준 확진자 4명(홍성290~293번) 발생. 확진자 접촉 2, 자가격리중 1, 자발적 검사 1. 정밀역학조사중</t>
+          <t>[부산시]10.23.(토) 13:30~15:30에 대원목욕탕(부산진구 황령대로18번길 43(범천동))여탕 이용자는 코로나19검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2021/10/24 18:08:20</t>
+          <t>2021/10/27 15:37:00</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>[안성시청]10.24.코로나확진자4명(자발적검사2, 확진자접촉2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[화성시청] 10.22.(금) 킹노래방(화성시 봉담읍 와우안길 43) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2021/10/24 17:41:31</t>
+          <t>2021/10/27 15:36:38</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>[남양주시청]10.24.(일) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t7m6 증상의심시 코로나19 검사받으세요.</t>
+          <t>[화성시청] 10.23.(토) 블루노래연습장(화성시 봉담읍 와우리 45-5 지하1층) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2021/10/24 17:23:07</t>
+          <t>2021/10/27 15:36:10</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>전라남도 장성군</t>
+          <t>충청남도 서천군</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>[장성군청] 10. 24.(일) 확진자 1명(타지역 거주자) 발생. 관내 동선 및 접촉자 파악완료. 타지역 방문 및 접촉자는 증상이 없더라도 반드시 검사바랍니다.</t>
+          <t>[서천군청] 10.24.~26. 기간 중 서면 홍원항어촌계 수산물판매장 내 한문이네를 방문한 분들은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2021/10/24 17:04:10</t>
+          <t>2021/10/27 15:24:25</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 24일 17시 기준 확진자 5명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요..</t>
+          <t>[김천시청]10월27일 15시기준 관내 초·중학교 관련 22명 발생(신규15, 자가격리중7)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2021/10/24 16:22:26</t>
+          <t>2021/10/27 15:10:02</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>[당진시청]10/24(일)16시기준 확진자4명 발생(격리중2,조사중2).총1053명▲신규채용 등 진단검사 의무화행정명령(10/25~11/8) vo.la/68SFm</t>
+          <t>[고성군청]10.24.(일)14:00~15:42병산수산고성왕새우(삼산면소재, 방역완료) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2021/10/24 16:07:36</t>
+          <t>2021/10/27 15:02:56</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>[창원시청]10월19일여탕(13:50~18:40),남탕(17:00~18:40) 북면마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
+          <t>[보은군청]10. 23.(토) ~ 10. 26.(화) 보은개인택시(35아 5061 /소나타/은색)를 이용하신분은 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2021/10/24 16:07:15</t>
+          <t>2021/10/27 14:59:56</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>[창원시청]10월15일 여탕(17:40~19:20),남탕(17:40~19:12)북면 마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
+          <t>[고성군청]10. 27.15시기준,확진자1명(고성118번, 관내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2021/10/24 15:08:12</t>
+          <t>2021/10/27 14:59:14</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>경기도 부천시</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>[안산시청]10월24일14시기준 확진자 61명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yU7Tmp1</t>
+          <t>[부천시청] 10.19(화) 18시~22시 중동포차(조마루로291번길 46) 방문자는 증상유무에 관계없이 선별진료소에서 코로나19검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2021/10/24 15:08:10</t>
+          <t>2021/10/27 14:59:14</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>[진주시청] 24일 15시 기준 확진자 2명(타지역 확진자 접촉자 1명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[보은군청]10.19.(화)~10.22.(금)/10.25.(월)~10.26.(화)11:45~12:30즐거운집(보은읍 삼산리)이용자는 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2021/10/24 15:07:05</t>
+          <t>2021/10/27 14:57:46</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>[부산시]10.15.(금)~10.23.(토) 뉴부산탕(금정구 서부로 2-1(서동)이용자는 선별검사소에서 코로나19검사 받으시기 바랍니다.</t>
+          <t>[김제시청] 10.27.(수) 14시기준 확진자 1명 발생(확진자 접촉1, 동선파악중)/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2021/10/24 15:02:31</t>
+          <t>2021/10/27 14:47:14</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 24일 15시 기준, 확진자 7명 발생(선행 확진자의 접촉자)▲만남,모임,행사 자제▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[울산광역시] 10.23.(토)18:10~21:10 ▲동강병원 장례식장 6호실(중구 태화로 240, 태화동, 소독완료) 방문자는 코로나19 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2021/10/24 14:59:35</t>
+          <t>2021/10/27 14:31:59</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>[대구광역시]단디아로마(달서구 달서대로95길 7,2층) 10/13~10/22 방문하신 분은 임시선별검사소 및 보건소(예약)에서 반드시 검사받으시기 바랍니다</t>
+          <t>[창원시청] 10.19(화), 10.21(목)~10.24(일) 환금휘트니스사우나(마산회원구 북성로 106, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2021/10/24 14:52:33</t>
+          <t>2021/10/27 14:00:07</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.23. 코로나 확진자 3명(외국인3). ▲손씻기, 마스크착용 등 방역수칙 준수바랍니다. ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[사천시청] 10.27.(수) 14시 기준 확진자 5명(확진자 접촉자4명, 해외입국자1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2021/10/24 14:21:57</t>
+          <t>2021/10/27 13:40:54</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>경상북도 안동시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>[안동시청]타지역확진자관련▲10/19(화) 09:50~10:20 콩심용상안동점(용상북1길6에이스아울렛E동1층)방문자는 선별진료소 방문하여 코로나19 검사바랍니다.</t>
+          <t>[완도군청]외국인 확진자 자가격리중 1명 발생▶오늘 선별이동검사소 안내▶10/27(수)13:30~15:00 소안창조문화센터▶15:00~17:00 청산복지회관 2층</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2021/10/24 14:13:44</t>
+          <t>2021/10/27 11:02:53</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>[구례군청]10.24.(일) 확진자 1명 발생(타지역 확진자 접촉). 타지역 방문 및 타지인과의 만남을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[완도군청] 확진자동선▶10/22(금)보길보옥리→청별→노화이포 보길여객농어촌버스 첫차(08:00)▶노화 농협하나로마트09:00~09:10 동시간대 이용자 검사요망</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2021/10/24 14:02:29</t>
+          <t>2021/10/27 11:00:04</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>[당진시청]②10/17(월),22(금),23(토)18:00~22:00뉴럭셔리질러존노래연습장(북문로 1길 35-10)방문자 시청 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[용인시청]10월27일 0시기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2021/10/24 13:58:51</t>
+          <t>2021/10/27 10:39:48</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>[당진시청]①10.21(목) 17:55~18:30 CU편의점 당진원당점(수청동 983) 방문자는 15시30분까지 당진시청 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[부여군청]10월27일 10시 기준 확진자 18명 발생【부여387~404,학생등13,외국인5】 감기증상 시 보건소에서 코로나 검사(특히 학생) 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2021/10/24 13:52:25</t>
+          <t>2021/10/27 10:37:52</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>[남양주시청]10.13.(수)~10.24.(일) 롯데택배물류센터(진접읍 양진로 962)근무자 및 방문자는 관할 선별진료소에서 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[강원도청] 10.26.(화) 도내 코로나19 확진 19명(원주6 태백5 춘천4 홍천3 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부 드림!!</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2021/10/24 13:19:52</t>
+          <t>2021/10/27 10:33:16</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>[울산광역시]10.19(화)17:29~19:44▲착한갈비(중구 반구정12길 55,반구동,소독완료)방문자는 코로나 검사후 중구보건소(☎290-4300)연락바랍니다.</t>
+          <t>[아산시청] 10월26일 확진자 10명(가족7, 지인1, 조사중 2) /단계적 일상 회복 전환을 위해 방역수칙을 준수해 주시고, 코로나 의심시 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2021/10/24 13:09:20</t>
+          <t>2021/10/27 10:26:25</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 24일 13시 기준 신규확진 2명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[전주시청]10.27(수) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2021/10/24 12:49:40</t>
+          <t>2021/10/27 10:08:04</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>[화성시청] 10.18.(월)~10.21.(목) 대승철물(화성시 남양읍 남양성지로 233) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[완주군청] 10월 27일(수) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2021/10/24 11:17:54</t>
+          <t>2021/10/27 10:00:53</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.4.(월) ~ 10.22.(금) 만남카페(칠곡군 왜관읍 중앙로5길 5-1, 왜관역 부근) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[수원시청] 10월 27일 0시 기준, 수원 확진자 58명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/ghswi</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2021/10/24 11:14:04</t>
+          <t>2021/10/27 09:54:39</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>[금산군청] 10.24(일) 11시기준 확진자 6명(격리중 1, 신규 5) 발생, 역학조사 중 ▶ 감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다</t>
+          <t>[김천시청]코로나19이동선별검사소 운영안내▲장소:녹색미래과학관(율곡동)▲27일:13:00~16:00, 28일-29일:10:00~16:00▲의심증상시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2021/10/24 11:11:44</t>
+          <t>2021/10/27 09:53:25</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.24.(일) 11:00기준 신규확진자 10명 url.kr/pctb72 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[보은군청] 10. 27.(수) 확진자 4명 발생 ▲ 10. 18.(월) 이후 복신경외과 내원자 및 유증상자는 인근 보건소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2021/10/24 10:59:35</t>
+          <t>2021/10/27 09:46:27</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경상남도 함양군</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 24일(일) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[함양군청] 10. 18.(월) 14시 함양 출발 → 16시 부산(사상) 도착 시외버스 탑승객은 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2021/10/24 10:54:30</t>
+          <t>2021/10/27 09:31:50</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>[고성군청]10.14(목)통영출발(16:00)→고성경유(16:38)→마산경유(17:35)→부산시외버스터미널도착(18:25)현대버스탑승자는 선별진료소에서검사바랍니다</t>
+          <t>[창원시청] 10.18(월)~23(토) 온정백반(대산면 주남로503번길 8, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.(10.24 이후 검사자 제외)</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2021/10/24 10:33:54</t>
+          <t>2021/10/27 09:30:51</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>[구미시청]10/16(토)~10/17(일) 이슬람교 구미성원 (구미중앙로31길 13, 원평동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[광주광역시] 10.17(일)~10.25(월) JL연기학원 1층~4층(동구 구성로 167, 충장로5가)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2021/10/24 10:30:15</t>
+          <t>2021/10/27 09:30:51</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>[청주시청]10월 23일 확진자 17명 발생(상당구6,서원구2,흥덕구5,청원구4)▲홈페이지 참조▲이동·모임 자제▲수시 환기▲유증상 시 신속히 무료검사 바랍니다.</t>
+          <t>[창원시청] 10.26. 확진자 20명 발생 ▲의창4,합포6,회원4,진해2,타지역1,격리중3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2021/10/24 10:30:10</t>
+          <t>2021/10/27 09:30:30</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자17명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[완도군청]확진자동선▶10/21(목) 12:10해남출발→13:00완도도착▶13:20완도터미널→화흥포셔틀버스▶13:50화흥포→노화동천 여객선실 이용자 코로나검사요망</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2021/10/24 10:20:53</t>
+          <t>2021/10/27 09:30:26</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>[구미시청]10/7(목)~10/21(목) 드리사(delisha cafe)(1공단로 190 지하1층,공단동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲26일 도내 확진자 29명 발생</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2021/10/24 10:16:16</t>
+          <t>2021/10/27 09:11:43</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>강원도 평창군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>[평창군청] 10.24일 평창군 확진자 1명(231번) 대화면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
+          <t>[포항시청]10.23 302번버스 영일고등학교정류장15:41→죽도시장정류장16:07 죽도시장정류장16:33→영일고등학교정류장17:01 탑승객은 보건소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2021/10/24 10:10:06</t>
+          <t>2021/10/27 09:09:58</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>[완도군청]근해어선 선원 자가격리중 1명 확진(기존10, 추가1)▶입출항 연근해어선▶(행정명령)외국인 고용사업장 내·외국인 진담검사 하시기 바랍니다.</t>
+          <t>[양주시청] 10월 27일 00시 기준 확진자 4명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2021/10/24 10:00:16</t>
+          <t>2021/10/27 09:05:04</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 24일 0시 기준, 수원 확진자 48명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/p1eng</t>
+          <t>[천안시청] 확진자 17명 [타시민1, 천안시민16] ▶ 초·중·고교생 확진자 증가 ▶ 증상발현 시 병원 방문 전 검사 및 백신접종에 참여 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2021/10/24 10:00:03</t>
+          <t>2021/10/27 08:27:36</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>[전남도청]전일 9명 발생(√타지역접촉4√외국인근로자4√가족접촉1)▲학교기숙사 등 일상생활 복귀전▲외국인고용사업장 신규채용 근로자는 근로전 진단검사 꼭 받으세요.</t>
+          <t>[남원시청]▲10.27(수) 금일 확진자 1명 발생(남원 171번)/감염경로 조사중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2021/10/24 09:50:27</t>
+          <t>2021/10/27 08:00:07</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>강원도 원주시</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>[원주시청] 10.15.또는10.20.'술파는노래방뿜빠이(장미공원길43-4,2층,단계동)' 이용자는 오늘 15시(12~13시 제외)까지 보건소 코로나 검사받으세요</t>
+          <t>[제천시청]10.27(수) 8시 현재. 확진자 2명 발생(타 지역 확진자 접촉 1, 격리중 1). 지역내 특이동선 없음. 증상발현시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2021/10/24 09:46:55</t>
+          <t>2021/10/26 21:01:59</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>[영암군청] 10. 23.(토) 12:40~14:00 '고향식육식당'(금정면 용두로 15) 방문자는 증상유무관계없이 즉시 선별진료소 검사바랍니다.</t>
+          <t>[보은군청]10.26.(화) 확진자 3명 발생, 10.18.(월)~10.26.(화) 복신경외과의원(보은읍) 방문자는 인근보건소에서 코로나검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2021/10/24 09:00:06</t>
+          <t>2021/10/26 20:24:18</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 24일 00시기준 확진자 8명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2021/10/24 08:56:28</t>
+          <t>2021/10/26 19:06:08</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>[신안군청] 10.23. 24시 기준 확진자 3명(건설근로자 외국인 2명, 자가격리 중 1명) 발생 ▲ 외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
+          <t>[강북구청]10.19.(화) 19:00~21:10 보스당구클럽(오패산로130)방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2021/10/24 08:53:21</t>
+          <t>2021/10/26 19:04:20</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>[전남도청]10.23. 24시기준 확진 9명(목포1, 곡성1, 영암3, 진도1, 신안3) ※내국인 5명, 외국인 4명(건설 4)▲의심증상시 무료 진단검사 받으세요</t>
+          <t>[강북구청] 10.22.(금) 얼짱노래연습장(한천로 140길 35, 지층)방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2021/10/24 08:21:43</t>
+          <t>2021/10/26 18:15:19</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>[목포시청]10.23. 24시 기준 확진자 1명 (타지역방문접촉) 발생 ▲타지역 이동 자제하시고, 기침, 발열 등 의심 증상 있을 시 보건소 무료 검사받으세요.</t>
+          <t>[남양주시청]10.26.(화) 코로나19 확진자 35명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/taaa 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2021/10/23 18:01:25</t>
+          <t>2021/10/26 18:00:02</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>[당진시청]신규채용 및 외국인근로자 등 코로나19진단검사 의무화됩니다.(10.25.~11.8.) 자세한 사항은 시홈페이지 공고 참고바랍니다. vo.la/68SFm</t>
+          <t>[안성시청]10.26코로나19확진자11명(자가격리2확진자접촉3자발적검사4해외입국2)발생.역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2021/10/23 18:00:23</t>
+          <t>2021/10/26 17:47:56</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>[남양주시청]10.23.(토) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t799 증상의심시 코로나19 검사받으세요.</t>
+          <t>[충주시청] 10월 26일, 확진자 4명 발생(자가격리중 3, 감염경로 조사중 1) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2021/10/23 18:00:09</t>
+          <t>2021/10/26 17:29:09</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>[수원시청] 10.13.(수)~10.22.(금) 바이크마켓(팔달구 세지로 352, 1층) 방문자 중 유증상자는 가까운 보건소에서 코로나19 검사바랍니다.</t>
+          <t>[고성군청]10.26.17시기준,확진자1명(고성117번,조사중)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2021/10/23 17:14:08</t>
+          <t>2021/10/26 17:01:15</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 23일 확진자 10명 발생(타지역접촉4, 자가격리중3, 조사중3) ▲모임, 행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[광주시청] 10월 26일 17시 기준 확진자 21명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2021/10/23 17:01:05</t>
+          <t>2021/10/26 17:01:12</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 23일 17시 기준 확진자 18명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[창원시청] 10.16(토)~10.20(수) 17:00~17:20 감계식당(북면 감계로156번길 6-8,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2021/10/23 16:51:01</t>
+          <t>2021/10/26 17:00:57</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>[진도군청]10.23(토)확진자 1명발생(진도56번)▲타지역거주 외국인근로자,접촉자 전원음성▲입출항 근해어업 선원,외국인고용사업장 내·외국인 2주1회 검사받으세요</t>
+          <t>[창원시청] 10.16.(토)~10.20.(수) 12:00~12:30 윤현식당(북면 감계로188번길 21,방역완료)이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2021/10/23 16:34:08</t>
+          <t>2021/10/26 17:00:49</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>[화성시청] 코로나19 선별진료소(검사소) 주말 및 공휴일 운영시간이 09시부터 13시로 조정됨을 알려드립니다.</t>
+          <t>[과천시청]10월26일 17시 기준 신규확진 2명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2021/10/23 16:08:38</t>
+          <t>2021/10/26 16:14:21</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -7456,14 +7456,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>[당진시청]10/23(토) 16시기준 확진자17명(관내접촉2,타지역접촉2,격리중8,조사중5)발생.총1049명▲의심증상 시 외출·모임 자제 및 코로나검사 바랍니다.</t>
+          <t>[당진시청]10/26(화)16시기준 확진자17명발생(격리중5,관내접촉3,타지역접촉1,조사중8).총1080명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2021/10/23 15:31:34</t>
+          <t>2021/10/26 16:10:22</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -7473,279 +7473,228 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>[사천시청] 10.21.(목) 09:20~11:30 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[사천시청]10.14(목)~10.24(일) 사천시 서부시장길 21, 2층(선원휴게실) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2021/10/23 15:27:27</t>
+          <t>2021/10/26 16:05:02</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>전라남도 곡성군</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>[곡성군청]금일 09시기준 확진자 1명 발생. 타지역 거주, 동선 및 접촉자 파악중, 타 지역방문 후 또는 유증상 시에 군 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[진주시청] 26일 15시 기준 확진자 9명(관내 소재 회사 외국인 종사자 8명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2021/10/23 15:24:22</t>
+          <t>2021/10/26 16:03:46</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>[음성군청]10월 23일 확진자 5명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[안동시청]금일 16시기준 확진자1명 발생▲10.24(일)13:04~18:30 엔제리너스안동옥동점(광명로 175)방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2021/10/23 14:37:19</t>
+          <t>2021/10/26 15:57:55</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>[안산시청]10월23일14시기준 확진자 77명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z9vSfk2</t>
+          <t>[광주광역시] 10.18(월) 10.20(수) 10.22(금) 07:30~09:00 서광사우나 여탕(서구 죽봉대로109, 4층, 광천동) 방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2021/10/23 14:18:11</t>
+          <t>2021/10/26 15:39:54</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>전라남도 장성군</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.23.(토) 13:30기준 신규확진자 33명 url.kr/qz7o2i ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[장성군청] 10.26.(화) 확진자 1명 발생. 자가격리 중 확진으로 이동동선 없음. 외국인사업장 등 방역취약시설 운영자 및 종사자는 2주 1회 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2021/10/23 14:02:09</t>
+          <t>2021/10/26 14:26:48</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>[사천시청] 10.23.(토) 14시 기준 확진자 3명(자가격리중 2명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[강진군청] 10월 23일 17:30 강진군 여성배드민턴 대회 후 회장 이취임식에 참석한 군민은 보건소 선별진료소에서 오후 5시까지 검사 받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2021/10/23 14:00:25</t>
+          <t>2021/10/26 14:22:31</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>충청북도 괴산군</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>[괴산군청] 10월 23일 확진자 1명(타지역 1명) 발생. 자세한 사항은 역학조사후 홈페이지 게시예정. 증상발현시 즉시 코로나19검사 받으시기 바랍니다.</t>
+          <t>[음성군청]10월 26일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2021/10/23 13:11:08</t>
+          <t>2021/10/26 14:19:40</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>충청남도 청양군</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 23일 13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[청양군청] 10월 26일 기준 확진자 1명 발생. 청양98번(자가격리중 확진, 이동동선 없음). ▲타지역 방문 자제, 유증상 시 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2021/10/23 12:47:56</t>
+          <t>2021/10/26 14:01:45</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>[김제시청]10.23.(토) 11시 확진자 2명 발생(내국인1,외국인1)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[사천시청]10.26.(화) 14시 기준 확진자 2명(확진자 접촉자1명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2021/10/23 12:32:22</t>
+          <t>2021/10/26 12:58:38</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.22 코로나 확진자 5명(내국인2, 외국인3)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[사천시청]10.14.(목)~10.24(일) 08:00~12:00 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2021/10/23 11:35:53</t>
+          <t>2021/10/26 11:52:38</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>[강화군청] 2021년 10월 16일(토) ~ 10월 22일(금)까지 강화읍 풍물시장 방문객은 가까운 선별 진료소에서 코로나 검사를 받으시길 바랍니다.</t>
+          <t>[칠곡군청] 10.22.(금)~10.25.(월) 산호장여관(왜관읍 중앙로5길 10, 왜관역 부근) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2021/10/23 11:08:06</t>
+          <t>2021/10/26 11:52:08</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 23일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[칠곡군청] 10.12.(화)~10.24.(일) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2021/10/23 11:00:04</t>
+          <t>2021/10/26 11:23:52</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인고용 100인미만 사업장 내·외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[안양시청]▲10.26.(화) 11:00기준 신규확진자 24명 url.kr/eybpvx ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2021/10/23 10:49:46</t>
+          <t>2021/10/26 11:11:36</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>경기도 고양시</t>
+          <t>경상북도 성주군</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>[고양시청]10.17.(일) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>2021/10/23 10:42:05</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>강원도 전체</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>[강원도청] 10.22.(금) 코로나19 확진자 20명 (원주11, 춘천7, 속초1, 횡성1) ▶감기증상 시 즉시검사 실시 ▶개인 방역수칙 준수 철저 당부드림!</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>2021/10/23 10:37:32</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>전라북도 부안군</t>
-        </is>
-      </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>[부안군청]부안 128번 확진자 동선 관련 10.21(목) 17:15전주⇒부안 직행 시외버스 탑승자는 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>2021/10/23 10:03:18</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>전라남도 전체</t>
-        </is>
-      </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>[전남도청](행정명령강화) 외국인고용사업장(건설,어업,식당 등) ▲신규취업 ▲근무지 변경시 근무전 진단검사 의무 ▲내외국인 2주1회 진단검사 받으시기 바랍니다.</t>
+          <t>[성주군] 10월23일(토) 13:50-14:20까지 박여사순대국밥(초전면 대장길 76) 방문자는 선별진료소에서 코로나19 PCR검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>

--- a/covid_19_all/JenanMessage.xlsx
+++ b/covid_19_all/JenanMessage.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C432"/>
+  <dimension ref="A1:C425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -425,41 +425,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021/11/01 18:39:36</t>
+          <t>2021/11/04 18:35:10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람 ▲50세 이상 백신 추가접종 실시 ☎문의450-1000</t>
+          <t>[논산시청] 11월4일 확진자 6명(내국인1,외국인5/관내4,해외입국1,훈련소1) ▶코로나 의심증상 발현 시 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021/11/01 18:00:09</t>
+          <t>2021/11/04 18:33:06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[수원시청]10.23.(토)~10.30.(토) 영성복장(팔달구 팔달문로4번길 19)방문자 중 유증상자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[홍성군청]11월4일(목) 18시 기준 확진자 3명(홍성323~325번) 발생. 병원격리자 1명, 자발적검사 1명, 타지역접촉자 1명. 정밀역학조사중</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021/11/01 17:47:03</t>
+          <t>2021/11/04 18:01:46</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -469,473 +469,473 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[광주시청] 11월 1일 17시 기준 확진자 11명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[광주시청] 11월 4일 17시 기준 확진자 51명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021/11/01 17:31:20</t>
+          <t>2021/11/04 17:49:55</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[충주시청] 11월 1일 확진자 4명 발생(선행 확진자 접촉1, 자가격리중2, 조사중1) ▲핼러윈 기간 각종 모임 참여자는 보건소 선별진료소에서 진단검사 바랍니다</t>
+          <t>[남양주시청]11.4.(목) 코로나19 확진자 27명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tk78 증상의심시 코로나19 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021/11/01 17:26:36</t>
+          <t>2021/11/04 17:16:02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[고성군청]11. 1.17시기준,확진자1명(고성120번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[충주시청] 11월 4일 확진자 8명 발생(자가격리중 2, 감염경로 조사중 6) ▲핼러윈 각종 모임, 행사에 참여하신 분은 보건소 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021/11/01 17:00:50</t>
+          <t>2021/11/04 17:11:57</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경기도 군포시</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[과천시청] 11월1일 17시 기준 신규확진 3명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
+          <t>[군포시청] 11.1(월)~11.3(수) 군포우체국(군포시 산본로 328) 방문자는 유증상 시 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021/11/01 15:29:02</t>
+          <t>2021/11/04 17:09:53</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>전라남도 담양군</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[구례군청]타지역 확진자 관련 10.25(월) 10:55~11:08/10.28(목) 13:00~13:06 와이식자재마트 방문자는 선별진료소에서 검사 바랍니다.</t>
+          <t>[담양군청] 11. 4. 16:00기준 확진자 1명 발생(자가격리 중 확진) / 확진자가 많은 타지역 방문 자제, 증상의심시 코로나 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021/11/01 15:27:52</t>
+          <t>2021/11/04 17:00:13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[완도군청]노화읍 확진자 2명 발생▶10/26~10/31 관외출타 후 31일부터 격리중으로 우리군 접촉주민 없음▶관외출타, 타지인 접촉주민은 코로나 검사요망</t>
+          <t>[과천시청] 11월4일17시 기준 신규확진 4명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021/11/01 15:17:52</t>
+          <t>2021/11/04 16:48:27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[당진시청]10/28(목)~10/30(토) 상쾌한이비인후과의원(당진중앙3로 75)방문자는 당진시청 선별진료소에서 코로나검사바랍니다.</t>
+          <t>[완도군청]외국인확진자 동선▶10/29(금)15:50광주출발→완도읍도착버스▶11/2(화)12:00남창출발(군내동부버스)→완도읍버스터미널도착▶탑승자는 코로나검사요망</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021/11/01 15:16:10</t>
+          <t>2021/11/04 16:39:54</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[진주시청] 1일 15시 기준 확진자 3명(타지역확진자 가족 1명, 무료선제검사 2명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[함평군청] 11.1.(월) 11:30~12:10 월야농협한우마을 방문자는 엑스포공원 황소주차장에서 검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021/11/01 15:13:13</t>
+          <t>2021/11/04 16:39:08</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>서울특별시 도봉구</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[부산시]10.28(목)16:13~16:54/10.29(금)8:34~9:33 발리아쿠아랜드(동구 중앙대로195번길24(초량동)방문자 보건소검사바랍니다.(소독완료)</t>
+          <t>[도봉구청]코로나19 임시선별검사소 운영시간 안내▶도봉구민회관,도봉구청광장 평일9시~17시(방역12시~13시),주말·공휴일9시~13시. bit.ly/3k3NfEx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021/11/01 15:08:05</t>
+          <t>2021/11/04 16:26:37</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[음성군청]11월 1일 확진자 7명(내국인2,외국인5)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[진천군청]▲11.3 코로나 확진자 8명(내국인4, 외국인4) ▲증상발현시 주소지 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021/11/01 14:46:39</t>
+          <t>2021/11/04 15:33:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[안산시청]11월1일14시기준 확진자 38명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/xJu1H3C</t>
+          <t>[완도군청]외국인 확진자 2명 추가발생▶11/1(월) 완도읍 장보고마트 18:50~18:56 동시간대 이용자는 보건의료원에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021/11/01 14:30:08</t>
+          <t>2021/11/04 15:17:43</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>경기도 부천시</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[울산광역시] 10.24~10.31▲뉴옥천사우나(간판명-뉴옥천탕사우나헬스, 남구 화합로125번길 16, 삼산동, 소독완료) 남탕이용객은 코로나19 검사 바랍니다.</t>
+          <t>[부천시청] 10.31(일) 명성당구클럽(평천로738번길 5/삼정동) 방문자는 증상유무 관계없이 가까운 보건소 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021/11/01 14:18:44</t>
+          <t>2021/11/04 15:16:03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>경상북도 영덕군</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[영덕군청] 10.30(토) 영덕→포항 무궁화호(10:20~10:54), 포항→영덕 무궁화호(13:22~13:56) 탑승객은 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[홍성군청]10.31(일)~11.3(수) 갈산면 소재 솔다방 방문자는 가까운 보건소 또는 선별진료소 방문(9시~18시) 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021/11/01 14:01:00</t>
+          <t>2021/11/04 14:50:55</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[사천시청] 11.1.(월) 14시 기준 확진자 9명(수도권관련1, 접촉자7, 타지역거주1) 발생 ▲의심증상시 즉시 진단검사 바랍니다.</t>
+          <t>[광주광역시] 11.2(화) 11시~13시 빛그린백반(광산구 빛동2로라길 9, 삼거동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021/11/01 14:00:16</t>
+          <t>2021/11/04 14:50:41</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[구미시청] 10/27(수)~10/30(토) 충칭훠궈마라탕(상사서로4길 21, 상모동) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[칠곡군청]11.4. 0시 확진자 10명발생 중 내국인8명(생명길교회 왜관읍 중앙로 10길16·학교관련),태국인2명,유증상시 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021/11/01 13:57:25</t>
+          <t>2021/11/04 14:31:03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[강진군청]강진 19번 서울 거주 확진자 동선관련 19명 전원 음성▶상시 마스크착용,주기적 환기,적극적인 진단검사▶12~15세 및 60세 이상 추가접종 사전예약</t>
+          <t>[고성군청]11.4.14시기준,확진자4명(고성129~132번, 도내확진자접촉자3, 조사중1)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021/11/01 13:24:14</t>
+          <t>2021/11/04 14:15:44</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[고흥군청] ② 고흥여객을 이용하신분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[부산시]10.26(화).~11.3(수). 07:00~18:40 LG탕 남탕(연제구 토곡로 17, 1층(연산동)) 방문자 보건소에서 검사 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021/11/01 13:22:28</t>
+          <t>2021/11/04 14:08:51</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[고흥군청] 확진자 동선 관련 10.31(일)14:00(녹동터미널→풍양(죽시)고흥여객을 이용하신 분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[사천시청]11.4.(목) 14시 기준 확진자 2명(접촉자 1, 격리 중 1) 발생 ▲의심증상시 즉시 진단검사 ▲개인 방역수칙을 철저히 지켜주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021/11/01 13:21:48</t>
+          <t>2021/11/04 13:13:56</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[고흥군청] ② 10.30일(10:20~11:40) 도양읍 즐거운 내과 방문객은 녹동전통시장 특별무대 선별검사소에서 14시~17시까지 검사받으시기 바랍니다.</t>
+          <t>[전남도청] 방역취약시설 전국적 집단발생▲방역취약시설(요양병원, 노인주야간보호시설 등) 종사자 및 이용자 진단검사 받기 √방문 전 검사 받기 √접촉 자제 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021/11/01 13:21:22</t>
+          <t>2021/11/04 13:10:20</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>경상남도 창녕군</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[창녕군청]11.1(월) 확진자1명 발생(창녕349/관내접촉1)▷단계적 일상회복을 위한백신접종 적극동참▷개인방역수칙 준수▷유증상시 코로나검사 받으시기 바랍니다.</t>
+          <t>[강원도청] 11.3.(수) 도내 코로나19 확진 39명(춘천16 고성11 원주4 속초3 홍천2 철원2 태백1)▶접촉의심 및 감기증상 시 즉시검사 당부 드림!!</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021/11/01 11:31:03</t>
+          <t>2021/11/04 13:04:17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>경기도 양평군</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[고흥군청] ②10.29일 17:10(오천→녹동시장 입구)을 이용하신 분은 금일중 보건소 또는 금산 김일체육관에서 검사 받으시기 바랍니다.</t>
+          <t>[양평군청] 11.1.(월) 11:30~12:30 무너미참냉면(서종면) 방문자는 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021/11/01 11:30:17</t>
+          <t>2021/11/04 12:53:47</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.31 코로나 확진자 3명(내국인1, 외국인2)▲실내외 마스크착용, 주기적 실내 환기, 증상발현시 즉시 진단검사받기 실천바랍니다.</t>
+          <t>[안동시청]10.27(수)~11.3(수) 안동시농수산물도매시장 내 안동청과경매장(풍산읍, 유통단지길100) 방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021/11/01 11:25:33</t>
+          <t>2021/11/04 12:01:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>충청남도 공주시</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[사천시청] 10.24.(일)~10.31.(일) 제일동물병원(동금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[공주시청] 11월 4일 12시 기준. 확진자 1명 발생. 공주303번(20대,조사중). 발열, 기침 등 증상 시 접종여부 상관없이 즉시 선별진료소 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021/11/01 11:11:09</t>
+          <t>2021/11/04 11:19:13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[고흥군청] 확진자 동선 관련 10/27(수) 08:00~11:00 도양읍 우주사우나(구 봉암목욕탕) 여탕 이용객은 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[대구광역시]복지(구. 인지)사우나(서구 팔달로32길 12) 10/24 이후 남탕 이용하신 분은 임시선별검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021/11/01 11:08:11</t>
+          <t>2021/11/04 11:11:22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>전라남도 담양군</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[김제시청] 11.1.(월) 11시기준 확진자 1명 발생(자가격리중, 동선없음)/유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
+          <t>[담양군청]2021.10.30.(토)18:00~19:30 동산병원 장례식장(담양읍 소재) 1층을 방문하신분은 주소지 관할보건소에서 반드시 코로나검사 받기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021/11/01 11:04:46</t>
+          <t>2021/11/04 11:08:08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[부여군청] 11월1일 11시기준 확진자3명 발생【부여438~440자가격리 및 수동감시(접종완료)중 발생으로 지역전파 없음】 감기증상시 코로나 검사 후 진료 바람</t>
+          <t>[전주시청]11.4(목) 현재기준 2명 발생(전일 21명) / (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021/11/01 10:59:51</t>
+          <t>2021/11/04 11:04:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[용인시청]11월1일 0시 기준 확진자 23명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[광주광역시] 10.30(토)~11.2(화) 17:30~21:00 국수나무 진월점(음식점, 남구 서문대로 700, 진월동) 방문자는 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021/11/01 10:53:58</t>
+          <t>2021/11/04 11:03:50</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[용인시청] 10월 25일(월)~29일(금) 기흥구 신갈동 소재 용인운전면허 기능시험응시자(방문자)는 유증상시 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[사천시청]10.30.(토) 13:30~16:30 수림사우나(벌리동 소재) 남탕, 헬스장 방문자는 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021/11/01 10:18:47</t>
+          <t>2021/11/04 10:59:59</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -945,405 +945,405 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[사천시청] 10.30(토)~10.31(일) 장수복집(동서금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[사천시청]10.29(금), 10.31(일), 11.2.(화) 18:30~22:00 수림사우나(벌리동 소재) 남탕, 헬스장 방문자는 선별진료소에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021/11/01 10:15:57</t>
+          <t>2021/11/04 10:59:55</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[완주군청] 11월 1일(월) 0시 기준 확진자 2명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고 / 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[용인시청]11월4일 0시 기준 확진자 38명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021/11/01 10:09:58</t>
+          <t>2021/11/04 10:59:26</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[사천시청]10.26(화)~10.29(금) 잠언의료기기(선구동 소재)방문자는 삼천포보건센터 임시선별진료소에서 검사 바랍니다. ▲모임자제, 진단검사에 동참바랍니다.</t>
+          <t>[완주군청] 11월 4일(목) 0시 기준 확진자 4명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고 / 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021/11/01 10:08:36</t>
+          <t>2021/11/04 10:58:30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[전주시청]11.1(월) 현재기준 전일 8명 발생 / (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[여수시청] 10.29.(금)16:40~17:35 잔치네 회양념(교동 수산시장 내)에서 회 드신 남성 두 분은 금일중 보건소 선별진료소에서 검사 후 연락바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021/11/01 10:00:45</t>
+          <t>2021/11/04 10:39:19</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[수원시청] 11월 1일 0시 기준, 수원 확진자 44명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/crhgw</t>
+          <t>[부여군청] 11월 4일 10시 기준 확진자 12명 발생 【부여450~461기업체8, 격리중3, 수도권방문1】 감기증상시 코로나 검사 후 진료 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021/11/01 09:48:31</t>
+          <t>2021/11/04 10:39:03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[창원시청] 10.31. 확진자 9명 발생 ▲의창2,성산1,회원1,진해2,병원관련3 △선별검사소-창원종합버스터미널,3개보건소</t>
+          <t>[고성군청] 11.1.(월)~11.3.(수)부산의원(회화면 소재)방문자는 가까운 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021/11/01 09:13:44</t>
+          <t>2021/11/04 10:20:24</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[금산군청] 10.23(토) / 10.24(일) / 10.26(화) / 텐코인 노래연습장 방문한 분은 코로나 19 검사바랍니다.</t>
+          <t>[사천시청]10.29.(금) 09:00~13:00, 10.31(일)~11.01(화) 07:00~18:00 17바 1276(K7 검정) 택시 탑승자는 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021/11/01 09:10:42</t>
+          <t>2021/11/04 10:09:45</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[사천시청] 11. 1.(월) 삼천포보건센터 임시선별진료소 금일17:00까지 운영 ▲의심 증상시 검사받으시기 바랍니다.</t>
+          <t>[보은군청] 11. 4.(목) 수동감시 중 확진자 1명 발생, 동선 없음 ▲ 유증상자 코로나 검사 요망 ▲ 코로나19 예방접종 미접종자는 조속히 접종바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021/11/01 09:06:07</t>
+          <t>2021/11/04 10:05:49</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[양주시청] 11월 01일 00시 기준 확진자 7명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[아산시청] 11월3일 확진자3명(관외1, 조사중2) / 안전한 일상회복을 위해 마스크 착용 및 모임자제 등 자발적인 방역실천 바랍니다. 증상의심시 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021/11/01 08:56:37</t>
+          <t>2021/11/04 10:03:53</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[고흥군청] 10.31(일) 24시기준 확진자 13명 발생 역학조사 중 증상 의심 되면 외출자제하시고 즉시 보건소 검사 바랍니다.</t>
+          <t>[수원시청] 11월 4일 0시 기준, 수원 확진자 41명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사 바랍니다. me2.kr/wh2x1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021/11/01 08:45:24</t>
+          <t>2021/11/04 09:42:41</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[고흥군청]11.1(월)10시 또는 14시부터 금산전체마을에서 코로나 검사를 실시합니다. 주민들께서는 마을회관에서 꼭 검사를 받으시기 바랍니다.</t>
+          <t>[창원시청] 11.3. 확진자 11명 발생 ▲의창2,합포1,회원3,타지역2,격리중3 △선별검사소-창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021/11/01 08:19:27</t>
+          <t>2021/11/04 09:35:42</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[고흥군청]확진자 동선 관련 10/26,28,29 9시부터 12시사이 대흥여객(오천→녹동,녹동→오천)을 이용하신 분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[금산군청] 10월30일부터 저온창고, 인삼밭, 백작소 등에서 인삼관련 작업을 하신 분들은 가까운 보건소 선별진료소에서 PCR 검사를 받아주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021/11/01 08:15:12</t>
+          <t>2021/11/04 09:32:20</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[목포시청]10.31.24시기준 확진자 2명발생(확진자접촉 2) ▲11/1부터 사적모임 12인까지 가능 ▲발열, 인후통 등 의심증상 발현 시 보건소 검사바랍니다.</t>
+          <t>[포항시청] 10.31(일) 14:30~15:20 짬홍(구룡포읍 구룡포리 947-11) 해당시간 방문객은 가까운 보건소에서 검사 바랍니다 .</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021/11/01 08:12:59</t>
+          <t>2021/11/04 09:29:45</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>전라남도 순천시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[순천시청] 10.31. 24시기준 확진자 1명발생(해외입국) √단계적 일상회복을위한 ① 실내외 마스크착용 ② 주기적 환기 ③ 적극적 진단검사 실천 부탁드립니다</t>
+          <t>[여수시청] 10. 30.(토) 09:00 ~ 12:00 진남수영장(오림동 소재) 방문자는 금일중으로 보건소 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021/11/01 08:12:17</t>
+          <t>2021/11/04 09:04:49</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[여수시청]10.31.24:00 기준 총1명 발생(타지역 방문 확진자 접촉)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[양주시청] 11월 04일 00시 기준 확진자 16명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021/10/31 19:07:25</t>
+          <t>2021/11/04 09:01:15</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[홍성군청]10월31일(일) 19시 기준 확진자 6명(홍성311~316번)발생. 자가격리중 2명, 자발적검사 2명, 타지역거주자 2명. 역학조사 및 방역소독 완료</t>
+          <t>[정읍시청]11.4.(목) 9시기준 정읍181번 확진자발생/정읍178~180번 확진자접촉/카카오톡채널 참고/유증상시 검사바람 pf.kakao.com/_axcMvK</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021/10/31 18:40:04</t>
+          <t>2021/11/04 08:42:30</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>서울특별시 전체</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[서울시청] 10.19(화)~28(목) 중랑구 소재 상봉아트홀 댄스학원(망우로 328) 방문자는 가까운 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎120</t>
+          <t>[무안군청] 11. 3.(수) 24시 기준 확진자 1명 발생(타지역 접촉) ▲타지역방문·접촉 시 증상 유무 관계없이 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021/10/31 18:27:51</t>
+          <t>2021/11/04 08:41:50</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[남양주시청]10.31.(일) 코로나19 확진자 33명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tevx 증상의심시 코로나19 검사받으세요.</t>
+          <t>[남원시청]11.4.(목) 전일 확진자 2명 발생(남원 218, 219번)/기확진자 접촉▲가을철 여행 등 타지역 방문 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021/10/31 18:01:11</t>
+          <t>2021/11/04 08:35:22</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[안성시청]10.31.코로나19 확진자9명(자발적검사7,확진자접촉1,자가격리1)발생. 역학조사,방역조치 완료anseong.go.kr/corona_index.jsp</t>
+          <t>[목포시청] 11.3. 24시기준 확진자1명(타지역거주자 1)▲코로나19 미접종자는 위탁의료기관에서 접종참여▲발열,인후통 등 의심증상 발현시 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021/10/31 17:11:04</t>
+          <t>2021/11/04 08:23:25</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[사천시청]10.26.(화)~10.29.(금)09:00~15:00잠언의료기기(선구동 소재)방문자는 18:30까지 삼천포보건센터임시선별진료소에서검사받으시기바랍니다.</t>
+          <t>[고흥군청]11.3(수) 24시 기준 확진자 3명 발생(자가격리자 2) 기침, 인후통 등 가벼운 감기 증상이라도 반드시 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021/10/31 17:07:06</t>
+          <t>2021/11/04 08:22:56</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 31일 확진자 5명 발생(선행확진자의 접촉자)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[화순군청] 11.3.(수) 24시 기준 코로나19 확진자 1명 발생(화순130번). 이동동선 소독완료 / 접촉자 조사중 ▶주기적 소독, 선제적 진단검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021/10/31 17:03:05</t>
+          <t>2021/11/04 08:22:22</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 31일 17시 기준 확진자 12명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[고흥군청] 확진자 동선관련 10.24(일) 06:30~08:30 우주사우나 (구 봉암목욕탕) 이용하신분은 지금 즉시 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021/10/31 16:51:53</t>
+          <t>2021/11/04 08:00:06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[사천시청]10.26.(화)~10.29.(금) 09:00~15:00 잠언의료기기(선구동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[제천시청] 11. 4(목) 08시 현재. 확진자 3명 발생. 역학조사중. 추가사항은 제천시모바일콜센터 및 홈페이지 안내. 의심증상시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021/10/31 15:53:33</t>
+          <t>2021/11/03 19:25:54</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[포항시청] 10.24(일) 17:00~21:00 무카타부페-타이마트(상도동 629-3) 이용자는 보건소에서 검사바랍니다. ※검사시 KF94 마스크 착용바랍니다.</t>
+          <t>[논산시청] 11월3일 확진자 14명(내국인2,외국인12/관내13,훈련소1) ▶코로나 예방을 위해 관내 어린이집 원생 및 종사자는 PCR검사 받기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021/10/31 15:29:15</t>
+          <t>2021/11/03 18:45:07</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1353,949 +1353,949 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[남양주시청]10.22(금)~10.27(수) 참소망교회(오남읍 진건오남로 896번길 24) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[남양주시청] 11.3.(수) 코로나19 확진자 51명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tj0f 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021/10/31 15:14:18</t>
+          <t>2021/11/03 18:34:48</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>경상남도 거제시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[거제시청] 코로나19확진자 총 5명 발생(확진자접촉3, 감염경로 조사중2)/ 기침, 발열 등 유증상시 즉시 선별진료소에서 코로나검사 바랍니다.</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲50세이상 백신 추가접종 실시☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021/10/31 15:13:24</t>
+          <t>2021/11/03 18:34:11</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[포항시청] 10.30(토) 11:30~13:20 포항역 3층 푸드코트(흥해읍 이인리 137-1) 이용자는 보건소에서 검사바랍니다.</t>
+          <t>[홍성군청]11월3일(수) 18시 기준 확진자 3명(홍성320~322번) 발생. 자발적 검사 1명, 타지역 확진자 접촉 2명. 역학조사 및 방역소독 완료</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021/10/31 15:07:25</t>
+          <t>2021/11/03 18:20:56</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>경상남도 창녕군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[창녕군청]10.29(금) 08:35 창녕→남지→부산(사상), 16:00 부산(사상)→남지→창녕→대구 시외버스(우등) 이용자는 가까운 선별진료소에 검사바랍니다.</t>
+          <t>[광주시청] 11월 3일 17시 기준 확진자 43명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2021/10/31 14:40:04</t>
+          <t>2021/11/03 17:46:46</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>서울특별시 전체</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[서울시청] 10.19(화)~29(금) 서초구 소재 경부선 터미널 3층 꽃자재 상가(신반포로194 3층) 방문자는 코로나19 검사 받으시기 바랍니다. ☎120</t>
+          <t>[충주시청] 11월 3일 확진자 8명 발생(선행 확진자 접촉2, 자가격리중6)▲핼러윈 각종 모임, 행사에 참여하신 분은 보건소 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021/10/31 14:34:19</t>
+          <t>2021/11/03 17:36:26</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>전라남도 장흥군</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[안산시청]10월31일14시기준 확진자 26명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yFEyhJ</t>
+          <t>[장흥군청] 11.3.(수) 코로나19 신규 확진자 1명 발생 ▶이동동선 및 접촉자 파악 완료 ▶유증상 시 접종유무와 상관없이 즉시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021/10/31 14:09:22</t>
+          <t>2021/11/03 17:04:21</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 31일(일) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[과천시청] 11월 3일 17시 기준 신규확진 3명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2021/10/31 13:33:12</t>
+          <t>2021/11/03 16:34:03</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>충청북도 옥천군</t>
+          <t>경기도 평택시</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[옥천군청] 10.28.(목) 18:30~21:00 맛있는 오칠구포차(옥천읍)이용자는 관할보건소에서 코로나검사 요망. 선별진료소 공휴일 운영 09:00~16:00</t>
+          <t>[평택시]확진자28명(타시민3명,평택시민25명)발생/ 일상회복을 위한 4대 방역수칙을 지켜주세요! ▲예방접종완료▲마스크쓰기▲주기적 실내환기▲유증상시 진단검사받기</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021/10/31 13:25:09</t>
+          <t>2021/11/03 16:17:55</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[사천시청] 10.24(일)~10.29(금) 장수복집(동서금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[함평군청] 타지역 확진자 관련 10.29.(금) 10:50~11:30 월야면 다복식육식당 방문자는 엑스포공원 황소주차장에서 검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2021/10/31 13:00:44</t>
+          <t>2021/11/03 16:13:38</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[과천시청] 10월31일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[함평군청]타지역 확진자 관련 10.30.(토), 11.1.(월) 12:40~13:20 함평읍 강변식당 방문자는 황소주차장에서 검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2021/10/31 11:53:23</t>
+          <t>2021/11/03 16:09:11</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[사천시청] 10.27(수)08:00 삼천포시외버스터미널-&gt;부산서부시외버스터미널 시외버스 탑승자께서는 보건소 선별진료소에서 검사바랍니다.(055-831-3636)</t>
+          <t>[함평군청] 타지역 확진자 관련 11.1.(월) 17:40~18:40 함평읍 맛고을식당 방문자는 엑스포공원 황소주차장에서 검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2021/10/31 11:32:25</t>
+          <t>2021/11/03 16:06:31</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>경상남도 창녕군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[창녕군청]10.31(일) 확진자2명 발생(창녕347~348/타지역접촉2)▷단계적 일상회복을 위한 방역수칙 준수▷마스크착용▷유증상시 코로나검사 받으시기 바랍니다.</t>
+          <t>[전남도청]10.21.~29.가톨릭광주사회복지회 안셀모의집(외국인노동자쉼터, 광주 동구 동계천로129-1,동명동)방문한 외국인을 고용한 사업주는 검사안내 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2021/10/31 11:20:37</t>
+          <t>2021/11/03 16:03:18</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상남도 김해시</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.31.(일) 11:00기준 신규확진자 62명 url.kr/odmvxu ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[김해시청] 10.28~29, 11.1 / 12:00~12:30, 17:00~17:30 선아한식뷔페(서부로1638번길10-5)에 방문하신분은 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021/10/31 11:05:22</t>
+          <t>2021/11/03 15:34:23</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[부여군청] 10월31일 11시기준 확진자7명 발생【부여431~437자가격리 및 수동감시(접종완료)중 발생으로 지역전파 없음】감기증상시 코로나 검사 후 진료 바람</t>
+          <t>[대구광역시][주소정정재발송]이바돔(기도원)(수성구 달구벌대로 488길 22) 10/23 이후 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사받으십시오.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021/10/31 11:02:34</t>
+          <t>2021/11/03 15:32:05</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>경상북도 전체</t>
+          <t>전라남도 담양군</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[경상북도청] 10/22~10/25 제니스라이브(ZENITH)(포항시 남구 상도동 601-1)에 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[담양군청] 2021.10.28.(목)~10.30.(토) 백동리백번지(담양군 담양읍 미리산길2) 방문하신분은 주소지 관할 보건소에서 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2021/10/31 10:53:30</t>
+          <t>2021/11/03 15:31:18</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>전라북도 정읍시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[정읍시청]10.27(수)11:15~20:10,10.28(목)~10.29(금)9:30~20:30아양촌해물칼국수(시기동,소독완료)방문자는 선별진료소에서 검사바랍니다</t>
+          <t>[부산시]10.26.(화) ~ 11.2.(화) 남항시장 반찬골목(영도구 영선동 2가 245) 방문자 보건소 검사바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2021/10/31 10:39:15</t>
+          <t>2021/11/03 15:27:41</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[아산시청]10월 30일 확진자 13명(지인 7, 가족 5, 조사중 1) / 타지역 방문, 모임 자제 및 증상 발현 시 즉시 선별진료소에서 검사 바랍니다.</t>
+          <t>[완도군청]외국인 확진자 1명 추가발생▶최근 신규 직원을 고용한 사업장의 근로자, 광주 안셀모의 집을 이용한 외국인 근로자는 코로나 검사하시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2021/10/31 10:36:24</t>
+          <t>2021/11/03 15:16:45</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[전주시청]10.31(일) 현재기준 6명 발생(전일 1명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[진주시청] 03일 15시 기준 확진자 1명(시민무료 선제검사)발생. 상세 현황은 시 누리집 참조바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2021/10/31 10:35:45</t>
+          <t>2021/11/03 15:03:24</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.30 코로나 확진자 6명(내국인2, 외국인4)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[대구광역시]이바돔(기도원)(수성구 달구벌대로448길 22) 10/23일 이후 방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2021/10/31 10:33:14</t>
+          <t>2021/11/03 14:14:55</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[강원도청] 10.30.(토) 도내 코로나19 확진 23명(원주11 홍천5 춘천2 태백2 횡성2 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부</t>
+          <t>[사천시청]10.30.(토), 11.2.(화) 11:00~16:30 수림사우나(벌리동 소재) 여탕, 헬스장 방문자는 삼천포보건센터에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2021/10/31 10:30:27</t>
+          <t>2021/11/03 14:14:30</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[용인시청]10월31일 0시 기준 확진자 28명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[사천시청]10.26(화)~10.29(금), 10.31(일) 18:00~22:00 수림사우나(벌리동 소재) 여탕, 헬스장 방문자는 삼천포보건센터에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2021/10/31 10:25:15</t>
+          <t>2021/11/03 14:03:05</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[창원시청] 마산역 임시선별검사소 운영종료알림(11.1부터) ▲3개 보건소(09:00~18:00), 창원종합버스터미널(11:00~20:00) 정상운영</t>
+          <t>[사천시청]11.3.(수) 14시 기준 확진자 3명(접촉자 2, 조사중 1) 발생 ▲의심증상 시 즉시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2021/10/31 10:06:03</t>
+          <t>2021/11/03 14:00:41</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.27.(수) ~ 10.30.(토) 앗싸로또판매점(남구 백운로 15-1, 백운동)을 방문하신 분은 거주지 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[고성군청]11.3.14시기준,확진자7명(고성122~128번, 도내확진자접촉자6, 수도권 관련1)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2021/10/31 10:01:22</t>
+          <t>2021/11/03 13:55:56</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>충청북도 영동군</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[영동군청] 10. 31.(일) 기준 확진자 1명 발생. 이동 동선 및 접촉자 파악 중입니다. 타 지역 방문 자제 및 증상 발현 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[안동시청] 10/31(일)10:30~11:35 황소곳간(풍산읍, 풍산태사로1029) 방문자는 가까운 선별진료소에 방문하여 코로나19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2021/10/31 10:00:50</t>
+          <t>2021/11/03 13:18:20</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 31일 0시 기준, 수원 확진자 52명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사 바랍니다. me2.kr/ffgzf</t>
+          <t>[완주군청] 11월 3일(수) 0시 기준 확진자 5명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고 / 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2021/10/31 09:54:29</t>
+          <t>2021/11/03 13:01:04</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[보은군청]10. 31.(일) 확진자 1명 발생 ▲ 10.20.(수) ~ 10.26.(화) 복신경외과의원 방문자는 즉시 보건소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[고흥군청] 확진자 동선관련 10.22(금)~10.24(일) 금산면 거금 장례식장 제1분향소를 참석하신분은 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2021/10/31 09:53:21</t>
+          <t>2021/11/03 11:30:54</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>경상북도 문경시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[문경시청] 10.24.(일) ~10.27.(수) 네네치킨(문경시 점촌로8)을 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[전주시청]11.3(수) 현재기준 10명 발생(전일 22명) / (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2021/10/31 09:42:30</t>
+          <t>2021/11/03 11:27:53</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[창원시청] 10.30. 확진자 48명 발생 ▲의창3,성산1,회원2,진해1,병원관련41 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[보성군] 타지역 확진자 동선 관련, 벌교읍 소재 학력 인정 홍지 중·고등학교 학생 분들은 가까운 선별진료소에서 즉시 검사바라며, 외출·모임 자제를 부탁드립니다.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2021/10/31 09:40:17</t>
+          <t>2021/11/03 11:24:18</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>전라남도 곡성군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[곡성군청]10.31(일) 09시 기준 확진자 1명 발생(조사중). 유증상자 및 타지역 방문자는 증상 관계없이 선별진료소에서 검사바랍니다.(09:00~17:00)</t>
+          <t>[진천군청]▲11.2 코로나 확진자 3명(외국인3) ▲실내외 마스크착용, 주기적 실내 환기, 증상발현시 즉시 진단검사받기 실천바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2021/10/31 09:38:05</t>
+          <t>2021/11/03 11:10:46</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[논산시청] 10월21일~29일 취암동 1056-14, 서원빌 401호에서 마사지를 받으신 분은 코로나 검사 받으시고 논산시보건소로 연락(746-6672)바랍니다</t>
+          <t>[통영시청]10.30.(토)통영출발(15:30)→서울남부터미널도착, 시외버스(대한여객 경남70아5511)탑승자는 보건소(650-6060)에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2021/10/31 09:34:05</t>
+          <t>2021/11/03 10:59:55</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 7명[타시민2, 천안시민5] ▶ 환절기 감기증상 발현 시 코로나 의심하고 의료기관 방문 전 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[용인시청]11월3일 0시 기준 확진자 43명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2021/10/31 09:09:11</t>
+          <t>2021/11/03 10:32:38</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[고흥군청]10.30(토) 24시기준 추가 확진자 8 발생 역학조사중,선별검사소운영 금산면금일체육관 09:00~17:00 운영,증상유뮤 관계없이 검사 바랍니다.</t>
+          <t>[강화군청]2021.10.24.(일)~10.30.(토) 하늘중앙교회(강화읍 옥림리)를 방문하신 분은 가까운 선별진료소에서 코로나19검사를 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2021/10/31 09:06:43</t>
+          <t>2021/11/03 10:20:53</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[전남도청] 10.30.24시 기준 확진자 30명(목포5,여수1,고흥21,강진1,영암1,무안1) ▲주말 행사·모임 자제 ▲증상 의심 즉시 보건소 검사 바랍니다.</t>
+          <t>[부여군청] 11월 3일 10시 기준 확진자 2명 발생 【부여448~449기확진 접촉】 감기증상시 코로나 검사 후 진료 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2021/10/31 09:02:09</t>
+          <t>2021/11/03 10:19:15</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[남원시청] ▲ 10.31(일) 08시 기준 확진자 9명 발생(남원 209~217번)/기확진자 접촉2, 자가격리중7 ▲ 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[강원도청] 11.2.(화) 도내 코로나19 확진 29명(원주11 춘천7 속초6 강릉3 평창1 고성1)▶밀집장소 출입자제▶접촉의심 및 감기증상시 즉시 검사 당부!</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2021/10/31 09:01:27</t>
+          <t>2021/11/03 10:19:06</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 31일 00시기준 확진자 24명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[통영시청] 11.1.(월)통영 출발(15:10)→인천 도착, 시외버스(진안고속 경북72아 1388) 탑승자는 보건소(650-6060)에서 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2021/10/31 08:29:19</t>
+          <t>2021/11/03 10:00:37</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[목포시청]10.30.24시기준 확진자5명(자가격리중외국인2,가족접촉2,타지역접촉1) ▲발열,기침등 유증상발현으로 의료기관 방문시 사전 진단검사 받으시기 바랍니다</t>
+          <t>[수원시청] 11월 3일 0시 기준, 수원 확진자 53명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/u4nd4</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2021/10/31 08:18:39</t>
+          <t>2021/11/03 09:01:40</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[여수시청] 10.30.24:00 기준 총1명 발생(자가격리중)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[양주시청] 11월 03일 00시 기준 확진자 17명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2021/10/30 20:02:29</t>
+          <t>2021/11/03 08:50:10</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>전라북도 정읍시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[정읍시청1]10.30(토) 20시기준 정읍173번 확진자 발생 / 카카오톡채널 참고 / 유증상시 보건소에서 검사바랍니다. pf.kakao.com/_axcMvK</t>
+          <t>[전남도청] 11.2.24시 기준 확진자 21명(목포1,순천1,광양1,담양3,고흥11,영암2,무안2) ▲타지역 방문·접촉 자제 ▲증상 의심시 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2021/10/30 19:16:05</t>
+          <t>2021/11/03 08:44:57</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[남양주시청]10.30.(토) 코로나19 확진자 37명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tehh 증상의심시 코로나19 검사받으세요.</t>
+          <t>[고흥군청] 11.2(화) 24시기준 확진자11명 발생( 자가격리자 9명) 하여 역학조사 중입니다. 의심증상이 있는 군민께서는 즉시 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2021/10/30 18:27:55</t>
+          <t>2021/11/03 08:36:48</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[논산시청] 10월30일 확진자 3명(내국인1,외국인2/타지역2,조사중1)발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
+          <t>[영암군청] 타지역 확진자 관련 10. 31.(일) 14:30~15:40 F1당구클럽(삼호읍 대불주거7로 7) 방문자는 증상 관계없이 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2021/10/30 18:01:00</t>
+          <t>2021/11/03 08:36:39</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 30일 17시 기준 확진자 24명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[영암군청] 타지역 확진자 관련 10. 31.(일) 11:50~13:40 포미아구찜삼호점(삼호읍 대불주거로 183) 방문자는 증상관계없이 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2021/10/30 17:27:10</t>
+          <t>2021/11/03 08:29:27</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[창원시청] 10.27.(수) 09:50~11:40 경창탕 남탕(성산구 상남로 67) 이용자 관할 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[목포시청] 11.2. 24시기준 확진자 1명(자가격리중확진 1) ▲마스크 착용, 손씻기 등 방역수칙 준수▲발열, 인후통 등 의심증상 발현시 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2021/10/30 17:13:37</t>
+          <t>2021/11/03 08:27:33</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 30일 확진자 7명 발생(선행 확진자 접촉2, 자가격리중3, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[무안군청]11.3.(수) 08시 기준 확진자 2명 발생(타지역접촉1,타지역거주1)▲타지역 방문·접촉 시 증상 없어도 반드시 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2021/10/30 17:03:49</t>
+          <t>2021/11/03 08:15:20</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>전라남도 화순군</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[화순군청]10/25(월)12시경 금강민물식당(화순읍 칠충로145)에서 화순사랑상품권 3만원 결제하신 분은 거주지 보건소에서 코로나진단검사를 받으시기 바랍니다</t>
+          <t>[순천시청] 11. 2.(화) 24시기준 확진자 1명 발생(타지역 접촉) √거리두기 개편으로 이동량이 증가하고 있으니 마스크 착용, 환기, 진단검사 실천바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2021/10/30 17:00:55</t>
+          <t>2021/11/03 08:09:42</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[무안군청] 10.30.(토) 17시기준 확진자 1명발생(외국인,격리중확진)▲외국인 고용사업장 종사자 2주1회 검사▲미등록 외국인 여권 없이 예방접종 가능</t>
+          <t>[제천시청] 11. 3(수) 08시 현재. 확진자 4명 발생. 감염경로 조사중. 의심증상 발생시 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2021/10/30 15:44:31</t>
+          <t>2021/11/02 19:26:34</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[진천군청]10.29 코로나 확진자5명(내국인3,외국인2)발생.▲손씻기,마스크착용 등 방역수칙 준수바랍니다.▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[남양주시청] 11.2.(화)코로나19 확진자 54명 발생. 방역사항은 홈페이지, 블로그 참고 바랍니다. c11.kr/thpx 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2021/10/30 15:17:04</t>
+          <t>2021/11/02 19:00:24</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>인천광역시 미추홀구</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[미추홀구청]10/17(일),20(수),24(일),27(수) 주안할렐루야교회(미추홀구 구월로17) 방문자는 31(일) 오전중 거주지보건소에서 코로나19 검사바람</t>
+          <t>[광진구청](21.11.2)확진자발생 관내동선 알림.홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲50세이상 백신추가접종 실시☎450-1000</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2021/10/30 15:12:55</t>
+          <t>2021/11/02 18:40:51</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[창원시청]▲10.27(수)9:40~12:00 ▲10.29(금)9:50~11:00 소죽도찜질방 남탕(진해구 천자로 165,방역완료) 방문자 선별진료소 검사바랍니다</t>
+          <t>[논산시청] 11월2일 확진자 15명(내국인5,외국인10/관내3,조사중12) ▶코로나 예방을 위해 관내 어린이집 원생 및 종사자는 PCR검사 당부</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2021/10/30 15:08:48</t>
+          <t>2021/11/02 18:13:56</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[진주시청] 30일 15시 기준 확진자 2명(타지역 확진자의 접촉자 1명, 시민무료 선제검사 1명)발생. 상세 현황은 시 누리집 참조바랍니다.</t>
+          <t>[부산시]10.24.(일)~10.31.(일)온천포장센타(동래구 석사북로 109(온천동)) 방문하신 분들은 코로나 검사 후 동래구보건소 상담바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2021/10/30 14:58:20</t>
+          <t>2021/11/02 18:00:27</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[금산군청]10.23(토)20:40-22:00, 10.24(일)16:00-19:00, 10.26(화)16:00-18:00 텐코인 노래연습장 방문한 분 검사바랍니다</t>
+          <t>[안성시청]11.02코로나확진자7명(해외입국2자발적검사2자가격리1타시거주1동반입소1)발생역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2021/10/30 14:56:08</t>
+          <t>2021/11/02 17:51:41</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라남도 담양군</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[남양주시청]10.22.(금)~10.29.(금) 외가집밥상 기사식당(남양주시 화도읍 북한강로 1412) 방문자는 가까운 보건소에서 코로나19 검사 받으세요.</t>
+          <t>[담양군청] 2021.10.29.(금)~11.1.(월) 끌텅카페(담양군 월산면 담장로623) 방문하신분은 주소지 관할 보건소에서 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2021/10/30 14:30:55</t>
+          <t>2021/11/02 17:41:41</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[안산시청]10월30일 14시기준 확진자 48명 발생 ▲발열,기침,호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/ynRGLX</t>
+          <t>[충주시청] 11월 2일 확진자 6명 발생(선행 확진자 접촉)▲핼러윈 기간 타지역을 방문하였거나 각종 모임에 참여하신 분은 보건소 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2021/10/30 14:13:26</t>
+          <t>2021/11/02 17:37:32</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[음성군청] 10.30.확진자 4명(내국1, 외국3)발생▲동선 및 접촉자 조사중▲타지역방문,모임,지인초청 자제▲유증상시 주민들께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[광주시청] 11월 2일 17시 기준 확진자 23명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2021/10/30 14:00:13</t>
+          <t>2021/11/02 17:31:56</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>충청북도 단양군</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[사천시청]10.30.(토) 14시 기준 확진자 3명(조사 중 2명, 타지역거주자 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[단양군청] 10.31.(일) 06:50분 구인사-&gt;동서울행(07:30분 시외버스터미널 경유) 버스를 타신분은 선별진료소에서 검사 받으시기 바랍니다.(18시까지)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2021/10/30 13:40:18</t>
+          <t>2021/11/02 17:26:33</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>서울특별시 서초구</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[서초구청]10.19(화)~10.29(금) 경부선 터미널 3층 꽃자재(신반포로194 3층) 방문자는 선별진료소에서 코로나19 검사바랍니다. seocho.go.kr</t>
+          <t>[고성군청]11. 2.17시기준,확진자1명(고성121번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2021/10/30 13:35:13</t>
+          <t>2021/11/02 17:03:41</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[대구광역시]아크(동구 반야월북로 158, 2층) 10/20~23 방문하신 분은 두류·국채보상공원·대구스타디움 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
+          <t>[사천시청] 10.25.(월) 12:00~13:00 제일냉면(벌리동 소재) 방문자는 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2021/10/30 13:00:11</t>
+          <t>2021/11/02 17:02:58</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2305,575 +2305,575 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[과천시청] 10월30일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[과천시청] 11월 2일 17시 기준 신규확진 4명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2021/10/30 12:51:45</t>
+          <t>2021/11/02 16:49:35</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>인천광역시 부평구</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[부평구청] 10/25(월) 텐코인노래방 (부평구 충선로203번길 12 뉴존프라자 3층, 삼산2동) 방문자는 가까운 선별검사소에서 코로나검사 바랍니다.</t>
+          <t>[의정부시청] 10.23(토)~10.27(수) 영제한의원(의정부시 범골로 32) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎:031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2021/10/30 12:44:22</t>
+          <t>2021/11/02 16:01:05</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[고흥군청] 10.30(토) 확진자 13명 발생 역학조사 중 외출 및 지인 모임 자제 외국인 및 고용사업주는 보건소 검사받으시기 바랍니다.</t>
+          <t>[진주시청] 2일 15시 기준 확진자 4명(타지역 확진자 접촉자 1명, 무료선제검사 등 일가족 3명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2021/10/30 12:29:48</t>
+          <t>2021/11/02 15:40:57</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[강진군청] 강진 19번 확진자 발생(서울 거주자 29일 강진 방문) 동선 파악 등 역학조사 중. 타지역 방문 자제 및 의심증상 시 검사바랍니다.</t>
+          <t>[사천시청]10.25.(월) 08:00~09:20, 11.1.(월) 08:00~09:50 도원탕(동금동 소재) 남탕 방문자는 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2021/10/30 12:16:26</t>
+          <t>2021/11/02 15:33:34</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[보성군]10.29.(금) 확진자 2명 발생(타지역 확진자 접촉)▲주말외출·모임자제▲백신접종을 완료했더라도 마스크착용, 유증상시 검사등 방역수칙을 잘 지켜주세요!</t>
+          <t>[남양주시청] 10.28(목)~10.31(일) 24시장작불한증막사우나(진접읍 장현로 77) 남탕 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2021/10/30 12:00:04</t>
+          <t>2021/11/02 15:09:34</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[전남도청] 전국 √요양시설√병원√학교 등에서 집단발생▲고위험시설(요양시설,병원) 방문 및 면회자제▲핼러윈데이,축제,행사,모임 자제 및 유증상시 검사 꼭 받으세요</t>
+          <t>[사천시청]10.29.(금) 06:30~19:20, 10.30.(토)~10.31.(일) 08:30~11:30 시원청(동금동 소재)여탕 방문자는 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2021/10/30 11:50:10</t>
+          <t>2021/11/02 14:45:42</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[부여군청] 10월30일 11시 기준 확진자 6명 발생 【부여425~430/자가격리 학생4, 수동감시2】 감기증상 시 코로나 검사 후 진료를 받으시기 바랍니다.</t>
+          <t>[진천군청]▲11.1 코로나 확진자 4명(내국인3, 외국인1) ▲손씻기, 마스크착용 등 방역수칙 준수바랍니다 ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2021/10/30 11:25:35</t>
+          <t>2021/11/02 14:00:15</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.30.0시 기준 확진자 12명 중 외국인9명. 파키스탄 확진자 다수 발생. 사업장, 농장 등 소속외국인은 코로나 검사를 꼭 받으시기 바랍니다.</t>
+          <t>[사천시청] 11.2.(화) 14시 기준 확진자 11명(접촉자 6, 조사중 4, 타지역거주1) 발생 ▲의심증상시 즉시 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2021/10/30 11:25:16</t>
+          <t>2021/11/02 13:51:17</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.20(수)~10.27(수) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 증상유무 상관없이 선별진료소에서 필히 검사 받으시기 바랍니다.</t>
+          <t>[금산군청]10.29(금) 금산출발-대전행 [14:30] / 10.29(금) 대전복합-금산행 [19:20] 시외버스를 타신 분은 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2021/10/30 11:01:48</t>
+          <t>2021/11/02 13:51:09</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[용인시청]10월30일 0시 기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[금산군청] 10.27(수) 텐코인 노래연습장 방문 / 10.28(목) 대전복합-금산행 [20:50] 시외버스를 타신 분은 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2021/10/30 10:51:00</t>
+          <t>2021/11/02 13:09:57</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 30일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[사천시청] 10.27.(수) 12:30~13:30 흥부추어탕(남양동 소재) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2021/10/30 10:45:20</t>
+          <t>2021/11/02 11:38:29</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[군산시청] ▲10/22(금)~10/28(목) 싱글앤싱글(동수송2길 19) 방문자는 보건소 선별검사(09시~18시) 바랍니다. ▲10/29(금) 검사자 제외</t>
+          <t>[고흥군청] ② 대흥여객을 이용하신 분은 보건소 또는 도양읍민회관 이동 선별검사소에서 금일중 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2021/10/30 10:26:09</t>
+          <t>2021/11/02 11:34:51</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[강원도청] 10.29.(금) 도내 코로나19 확진 25명(원주13,삼척5,홍천3,춘천1,강릉1,태백1,평창1) ▶접촉의심 및 감기증상 시 즉시검사 당부 드림</t>
+          <t>[포항시청] 10.29(금)~10.31(일) 잘란PC방(남구 오천읍 문덕리 231-8번지) 방문자는 가까운 보건소에 방문하여 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2021/10/30 10:17:18</t>
+          <t>2021/11/02 10:59:54</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 30일 0시 기준, 수원 확진자 61명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/5z8t3</t>
+          <t>[용인시청]11월2일 0시 기준 확진자 28명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2021/10/30 10:08:30</t>
+          <t>2021/11/02 10:48:14</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>강원도 삼척시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[삼척시청]10.27~28 중앙시장길 68-4 지하1층 ‘봉자클럽’이용자는 보건소 선별진료소에서 금일 15시까지 코로나 검사를 받으시기 바랍니다☎570-4649</t>
+          <t>[부여군청] 11월 2일 10시 기준 확진자 7명 발생 【부여441~447자가격리 및 수동감시(접종완료)】 감기증상시 코로나 검사 후 진료 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2021/10/30 10:06:13</t>
+          <t>2021/11/02 10:29:23</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>강원도 속초시</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[전주시청]10.30(토) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[속초시청]10.27(수) 오전 8:20~10:15 / 10.29(금) 오전 7:50~09:00 속초국민체육센터(조양로89) 여자샤워실 방문자는 코로나검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2021/10/30 09:37:38</t>
+          <t>2021/11/02 10:26:57</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>충청북도 청주시</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[의정부시청]10.23.(토), 10.25.(월) 정다운한식뷔페(산곡동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[청주시청]11월 1일 확진자 9명 발생(상당구2,서원구2,흥덕구2,청원구3)▲홈페이지 참조▲주기적 환기▲마스크 착용▲근육통 등 유증상 시 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2021/10/30 09:31:29</t>
+          <t>2021/11/02 10:17:24</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>전라남도 담양군</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲29일 도내 확진자 46명 발생</t>
+          <t>[담양군청] 11. 2. 10:00 기준 확진자 1명 발생(수도권 방문자 가족) / 코로나19 의심 증상 발현시 즉시 관할 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2021/10/30 09:30:28</t>
+          <t>2021/11/02 10:10:05</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>충청남도 서천군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[서천군청] 10.30.(토) 09:00기준 신규확진자 1명 발생(타 지역 거주자 방문 검사) ▲ 우리군 이동동선 및 접촉자 없습니다.</t>
+          <t>[전주시청]11.2(화) 현재기준 3명 발생(전일 1명) / (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2021/10/30 09:26:33</t>
+          <t>2021/11/02 10:08:11</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[창원시청]10.29.확진자139명 발생 ▲의창1,성산2,합포5,회원5,진해4,타지역1,격리중3,병원관련118 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[강원도청] 11.1.(월) 도내 코로나19 확진 29명(춘천13 원주9 횡성3 홍천2 동해1 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2021/10/30 09:11:04</t>
+          <t>2021/11/02 10:01:04</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.21(목)~10.29(금) 가톨릭 광주사회복지회 안셀모의 집(외국인 노동자 쉼터, 동구 동계천로 129-1, 동명동) 방문자는 검사 바랍니다</t>
+          <t>[수원시청] 11월 2일 0시 기준, 수원 확진자 48명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/5u0t5</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2021/10/30 09:07:39</t>
+          <t>2021/11/02 09:58:50</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>강원도 속초시</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[목포시청]10.29(금) 24시 기준, 확진자 1명(유증상자1) 발생 ▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
+          <t>[속초시청]10.27(수), 10.29(금) 속초국민체육센터 수영장(조양로 89) 이용객은 선별진료소에서 코로나검사 받으시기 바랍니다(속초시선별진료소 16시까지)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2021/10/30 08:58:51</t>
+          <t>2021/11/02 09:44:48</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[남원시청] 타지역 확진자 동선 관련 ▲ 10.22.(금)12:30~13:30, 남원이조갈비(남원시 향단로 18) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
+          <t>[고흥군청] ② 쌍충사앞 물양장: 11.2(화) 09:00~12:00까지 선별검사소를 운영하오니 군민들께서는 증상유무 상관없이 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2021/10/30 08:57:17</t>
+          <t>2021/11/02 09:44:04</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.30.(토) 전일확진자 5명 발생(남원 204~208번)/기확진자 접촉3, 자가격리중2▲타지역 방문자제 및 유증상시 즉시 검사 받으시기바랍니다.</t>
+          <t>[고흥군청] ① 이동 선별검사소 운영 안내 도양읍민회관 : 11.2(화) 09:00~17:00, 녹동전통시장 특별무대 : 11. 2 (화) 09:00~1200</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2021/10/30 08:50:56</t>
+          <t>2021/11/02 09:10:27</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>충청남도 예산군</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 30일 00시기준 확진자 21명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[예산군청] 10/27(수)12:00~10/30(토) 신미애 헤어샾(예산읍 주교리 214-1) 방문자는 가까운 선별진료소 또는 보건소에서 코로나 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2021/10/30 08:49:41</t>
+          <t>2021/11/02 09:05:44</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>전라남도 무안군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[무안군청] 10.30.(토) 08시30분기준 확진자 1명발생(타지역접촉) ▲발열·기침 등 의심증상 발현 시 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[사천시청]10.29(금)~10.31(일) 05:00~06:00, 11.1(월)04:00~05:00 시원청(동금동 소재) 방문자는 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2021/10/30 08:43:38</t>
+          <t>2021/11/02 09:05:12</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[진도군청]10.29(금) 24시 기준, 확진 2명(역학조사중)▲초, 중학생 지속발생▲아프면 검사받고 집에서 쉬기√주말 모임·행사, 핼러윈데이 파티 자제바랍니다</t>
+          <t>[양주시청] 11월 2일 00시기준 확진자 1명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2021/10/29 20:01:43</t>
+          <t>2021/11/02 08:51:10</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>경상북도 청도군</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[청도군청]청도원탕(청도군 화양읍 남성현로 504) 10/25.(08:00~11:00)방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
+          <t>[영암군청]11.1(월) 24시 기준 확진자 2명 발생(타지역접촉1,격리중1) ▲일상회복을 위해 ①실내외 마스크 착용②주기적 환기·소독③적극적인 진단검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2021/10/29 18:31:37</t>
+          <t>2021/11/02 08:34:17</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[홍성군청]10월29일(금) 18시 기준 확진자 1명(홍성307번) 발생. 증상발현으로 검사결과 확진. 역학조사 및 방역소독 완료</t>
+          <t>[진도군청]11.1(월) 24시기준, 확진1명(자가격리중) √학교전수검사 전원음성▲일상회복을 위해①실·내외 마스크착용②주기적 환기·소독③적극적인 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2021/10/29 18:21:44</t>
+          <t>2021/11/02 08:26:28</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[남양주시청]10.29.(금) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/te0g 증상의심시 코로나19 검사받으세요.</t>
+          <t>[고흥군청]11.1(월) 24시기준 확진자 27명 발생 역학조사 중, 기침 인후통 등 가벼운 감기 증상이라도 반드시 보건소 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2021/10/29 18:12:54</t>
+          <t>2021/11/02 08:00:01</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>전라남도 함평군</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[함평군청] 확진자 관련 10.23.(토) 13:10~13:50 함평읍 대흥식당 방문자는 보건소 또는 황소주차장에서 코로나 검사 받으시기 바랍니다.(시설소독완료)</t>
+          <t>[제천시청] 11. 2(화) 08시 현재. 확진자 1명 발생. 역학조사중. 위드코로나-일상회복 1단계에도 의심증상 발생시 즉시 검사받아 주시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2021/10/29 18:01:40</t>
+          <t>2021/11/01 19:07:20</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[논산시청] 10월29일 확진자 3명(내국인3/관내1,타지역1,조사중1) 발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
+          <t>[남양주시청]11.1.(월) 코로나19 확진자 18명 발생. 방역사항은 홈페이지, 블로그 참고 바랍니다. c11.kr/tgeb 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2021/10/29 18:00:31</t>
+          <t>2021/11/01 18:39:36</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[안성시청]10.29.코로나19 확진자4명(자가격리2,동반입소자1,자발적검사1)발생.역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람 ▲50세 이상 백신 추가접종 실시 ☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2021/10/29 17:51:18</t>
+          <t>2021/11/01 18:00:09</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[진도군청]확진자 동선▲진도한국병원 10.27(수)08:37~09:20▲진도읍 샹떼피시방 10.27(수)16시~18시▲방문자는 보건소 선별진료소에서 검사바랍니다</t>
+          <t>[수원시청]10.23.(토)~10.30.(토) 영성복장(팔달구 팔달문로4번길 19)방문자 중 유증상자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2021/10/29 17:25:19</t>
+          <t>2021/11/01 17:47:03</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2883,813 +2883,813 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 29일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[광주시청] 11월 1일 17시 기준 확진자 11명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2021/10/29 17:02:01</t>
+          <t>2021/11/01 17:31:20</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 29일 17시 기준 신규확진 4명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[충주시청] 11월 1일 확진자 4명 발생(선행 확진자 접촉1, 자가격리중2, 조사중1) ▲핼러윈 기간 각종 모임 참여자는 보건소 선별진료소에서 진단검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2021/10/29 17:00:12</t>
+          <t>2021/11/01 17:26:36</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[중대본] 10.17~10.27 서울 중구 명동7길 18-1 '예지식당' 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다(☎120,1339)</t>
+          <t>[고성군청]11. 1.17시기준,확진자1명(고성120번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2021/10/29 16:30:18</t>
+          <t>2021/11/01 17:00:50</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>경상남도 거제시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[거제시청] 코로나19 확진자 총22명 발생(확진자접촉 1, 타지역확진자접촉 21)/ 기침, 발열 등 유증상시 즉시 가까운 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[과천시청] 11월1일 17시 기준 신규확진 3명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2021/10/29 16:24:25</t>
+          <t>2021/11/01 15:29:02</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[중대본]10.13~10.26 경기 남양주시 진접읍 양진로962 2층 '롯데택배 서울북부지점' 근무자는 보건소에서 코로나검사를 받으시기바랍니다(☎120,1339)</t>
+          <t>[구례군청]타지역 확진자 관련 10.25(월) 10:55~11:08/10.28(목) 13:00~13:06 와이식자재마트 방문자는 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2021/10/29 15:47:33</t>
+          <t>2021/11/01 15:27:52</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[포항시청]10.28 305번버스 상대지구대정류장15:47→남구보건소정류장15:55 남구보건소정류장16:09→남부시장정류장16:23 탑승객은 보건소 검사바랍니다</t>
+          <t>[완도군청]노화읍 확진자 2명 발생▶10/26~10/31 관외출타 후 31일부터 격리중으로 우리군 접촉주민 없음▶관외출타, 타지인 접촉주민은 코로나 검사요망</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2021/10/29 15:34:52</t>
+          <t>2021/11/01 15:17:52</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>경상남도 거창군</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[거창군청]타지역 확진자 동선 관련 10. 20.(수) 17:00 거창출발→서울남부도착 버스탑승자께서는 보건소 선별진료소에서 검사바랍니다. 055-940-8335</t>
+          <t>[당진시청]10/28(목)~10/30(토) 상쾌한이비인후과의원(당진중앙3로 75)방문자는 당진시청 선별진료소에서 코로나검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2021/10/29 15:02:50</t>
+          <t>2021/11/01 15:16:10</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[음성군청]10월 29일 확진자 5명(내국인3,외국인2)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[진주시청] 1일 15시 기준 확진자 3명(타지역확진자 가족 1명, 무료선제검사 2명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2021/10/29 14:43:00</t>
+          <t>2021/11/01 15:13:13</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[안산시청]10월29일 14시기준 확진자 74명 발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z3DGp</t>
+          <t>[부산시]10.28(목)16:13~16:54/10.29(금)8:34~9:33 발리아쿠아랜드(동구 중앙대로195번길24(초량동)방문자 보건소검사바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2021/10/29 14:30:52</t>
+          <t>2021/11/01 15:08:05</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>경상북도 경산시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[경산시][일자수정] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/26 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
+          <t>[음성군청]11월 1일 확진자 7명(내국인2,외국인5)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2021/10/29 14:19:20</t>
+          <t>2021/11/01 14:46:39</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[창원시청]22(금)08:40~15:36/25(월)08:40~11:27 정태기내과(의창구동읍로9,방역완료)방문자는 선별진료소에서 검사바랍니다(28일이후검사자제외)</t>
+          <t>[안산시청]11월1일14시기준 확진자 38명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/xJu1H3C</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2021/10/29 14:01:55</t>
+          <t>2021/11/01 14:30:08</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>충청남도 청양군</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[청양군청] 10월 29일 기준 확진자 1명 발생. 청양99번(타지역 확진자 접촉, 접촉자 파악 완료 검사 중) ▲ 유증상 시 코로나19 검사 바랍니다.</t>
+          <t>[울산광역시] 10.24~10.31▲뉴옥천사우나(간판명-뉴옥천탕사우나헬스, 남구 화합로125번길 16, 삼산동, 소독완료) 남탕이용객은 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2021/10/29 13:59:12</t>
+          <t>2021/11/01 14:18:44</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경상북도 영덕군</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[진도군청]확진자 동선 안내▲진도읍 샹떼 피시방 10.28(목) 16:00~18:00 방문자는 보건소 선별진료소에서 검사바랍니다▲주말 행사·모임 자제 바랍니다</t>
+          <t>[영덕군청] 10.30(토) 영덕→포항 무궁화호(10:20~10:54), 포항→영덕 무궁화호(13:22~13:56) 탑승객은 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2021/10/29 13:55:20</t>
+          <t>2021/11/01 14:01:00</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[포항시청] 10.25(월) 12:00 ~ 10.28(목) 06:00 궁타이마사지(상도동 615-3번지) 해당기간 방문자는 보건소 검사바랍니다.</t>
+          <t>[사천시청] 11.1.(월) 14시 기준 확진자 9명(수도권관련1, 접촉자7, 타지역거주1) 발생 ▲의심증상시 즉시 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2021/10/29 13:44:25</t>
+          <t>2021/11/01 14:00:16</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.21(목)~10.24(일) GNS 강남스타일(태국음식점, 서구 상무시민로 130, 7층, 치평동) 방문자는 거주지 보건소에서 검사 바랍니다.</t>
+          <t>[구미시청] 10/27(수)~10/30(토) 충칭훠궈마라탕(상사서로4길 21, 상모동) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2021/10/29 11:09:29</t>
+          <t>2021/11/01 13:57:25</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[나주시청] 10. 29. 09시 기준. 확진자 1명 발생. 동선·접촉자 파악완료. 외국인 접종시급. 코로나19 증상(기침·발열 등) 발현시 지체없이 검사 요망.</t>
+          <t>[강진군청]강진 19번 서울 거주 확진자 동선관련 19명 전원 음성▶상시 마스크착용,주기적 환기,적극적인 진단검사▶12~15세 및 60세 이상 추가접종 사전예약</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2021/10/29 11:05:17</t>
+          <t>2021/11/01 13:24:14</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>[강화군청]10월25일(월)과 10월27일(수) 강화인삼센터 방문자께서는 가까운 선별진료소에서 코로나19 진단 검사 받으시길 바랍니다.</t>
+          <t>[고흥군청] ② 고흥여객을 이용하신분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2021/10/29 11:03:01</t>
+          <t>2021/11/01 13:22:28</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>경상북도 경산시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[경산시] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/22 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
+          <t>[고흥군청] 확진자 동선 관련 10.31(일)14:00(녹동터미널→풍양(죽시)고흥여객을 이용하신 분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2021/10/29 11:00:08</t>
+          <t>2021/11/01 13:21:48</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[용인시청]10월29일 0시기준 확진자 25명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[고흥군청] ② 10.30일(10:20~11:40) 도양읍 즐거운 내과 방문객은 녹동전통시장 특별무대 선별검사소에서 14시~17시까지 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2021/10/29 11:00:03</t>
+          <t>2021/11/01 13:21:22</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[전주시청]10.29(금) 현재기준 2명 발생(전일 21명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[창녕군청]11.1(월) 확진자1명 발생(창녕349/관내접촉1)▷단계적 일상회복을 위한백신접종 적극동참▷개인방역수칙 준수▷유증상시 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2021/10/29 10:46:34</t>
+          <t>2021/11/01 11:31:03</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[부여군청] 10월29일 10시 기준 확진자 3명 발생 【부여422~424/학생】 감기증상시(콧물, 목아픔, 두통 등) 코로나 검사 후 진료 받으시기 바랍니다.</t>
+          <t>[고흥군청] ②10.29일 17:10(오천→녹동시장 입구)을 이용하신 분은 금일중 보건소 또는 금산 김일체육관에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2021/10/29 10:40:01</t>
+          <t>2021/11/01 11:30:17</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>인천광역시 강화군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[강화군청]10월 25일(월), 10월 27일(수) 강화인삼센터(강화읍 알미골) 방문자는 가까운 선별진료소에서 코로나19 진단검사 받으시길 바랍니다.</t>
+          <t>[진천군청]▲10.31 코로나 확진자 3명(내국인1, 외국인2)▲실내외 마스크착용, 주기적 실내 환기, 증상발현시 즉시 진단검사받기 실천바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2021/10/29 10:37:39</t>
+          <t>2021/11/01 11:25:33</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[포항시청] 10.22(금)~10.25(월) ZENITH 제니스 라이브(상도동 601-1) 방문자는 가까운 보건소에 방문하여 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[사천시청] 10.24.(일)~10.31.(일) 제일동물병원(동금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2021/10/29 10:29:50</t>
+          <t>2021/11/01 11:11:09</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>강원도 평창군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[평창군청] 10.29일 평창군 확진자 1명(232번) 봉평면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
+          <t>[고흥군청] 확진자 동선 관련 10/27(수) 08:00~11:00 도양읍 우주사우나(구 봉암목욕탕) 여탕 이용객은 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2021/10/29 10:06:43</t>
+          <t>2021/11/01 11:08:11</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[부여군청]코로나19 군민행동요령 최근 학교,기업체 내 코로나 집단발생에 따른 지역확산은 없는 것으로 판단,감기증상시 코로나 검사후 진료받으시고 방역수칙 준수바람</t>
+          <t>[김제시청] 11.1.(월) 11시기준 확진자 1명 발생(자가격리중, 동선없음)/유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2021/10/29 10:05:48</t>
+          <t>2021/11/01 11:04:46</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[통영시청] 10.24(일) 11:00~13:30 안황스포츠센터(광도면 안정로 830) 목욕탕(여탕) 이용하신 분은 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[부여군청] 11월1일 11시기준 확진자3명 발생【부여438~440자가격리 및 수동감시(접종완료)중 발생으로 지역전파 없음】 감기증상시 코로나 검사 후 진료 바람</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2021/10/29 10:01:24</t>
+          <t>2021/11/01 10:59:51</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 29일 0시 기준, 수원 확진자 50명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/fwi9s</t>
+          <t>[용인시청]11월1일 0시 기준 확진자 23명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2021/10/29 09:56:45</t>
+          <t>2021/11/01 10:53:58</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 29.(금) 확진자 5명 발생 ▲ 10.19.(화)~10.27.(수) 극동슈퍼 이용자는 인근 보건소에서 코로나검사 받으시기 바랍니다.</t>
+          <t>[용인시청] 10월 25일(월)~29일(금) 기흥구 신갈동 소재 용인운전면허 기능시험응시자(방문자)는 유증상시 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2021/10/29 09:51:20</t>
+          <t>2021/11/01 10:18:47</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>[창원시청] 10.28. 확진자 18명 발생 ▲의창3,성산1,합포6,회원5,타지역3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[사천시청] 10.30(토)~10.31(일) 장수복집(동서금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2021/10/29 09:15:46</t>
+          <t>2021/11/01 10:15:57</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[진도군청]10.29(금) 08시기준 2명 추가확진(초,중학생)▲선별이동검사소 안내√진도서초교 09:30~11:00√진도중학교 09:30~14:00까지 운영합니다</t>
+          <t>[완주군청] 11월 1일(월) 0시 기준 확진자 2명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고 / 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2021/10/29 09:02:40</t>
+          <t>2021/11/01 10:09:58</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>전라남도 고흥군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[고흥군청] 10.29(금) 확진자 1명 발생, 역학조사 중. 외출 및 지인모임을 자제하고, 마스크 상시 착용바라며, 의심증상시 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[사천시청]10.26(화)~10.29(금) 잠언의료기기(선구동 소재)방문자는 삼천포보건센터 임시선별진료소에서 검사 바랍니다. ▲모임자제, 진단검사에 동참바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2021/10/29 09:02:19</t>
+          <t>2021/11/01 10:08:36</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 29일 00시 기준 확진자 12명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[전주시청]11.1(월) 현재기준 전일 8명 발생 / (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2021/10/29 08:56:55</t>
+          <t>2021/11/01 10:00:45</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>[남원시청] 관내 확진자 동선 관련▲10.24.(일) 09:00~18:00 행남자기(남원시 남문로 397) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
+          <t>[수원시청] 11월 1일 0시 기준, 수원 확진자 44명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/crhgw</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2021/10/29 08:56:40</t>
+          <t>2021/11/01 09:48:31</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.29(금 08시기준 전일확진자 2명발생(남원 202~203번)/기확진자 접촉 ▲가을철 여행등 타지역방문 후 유증상시 즉시 검사받으시기 바랍니다.</t>
+          <t>[창원시청] 10.31. 확진자 9명 발생 ▲의창2,성산1,회원1,진해2,병원관련3 △선별검사소-창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2021/10/29 08:55:32</t>
+          <t>2021/11/01 09:13:44</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 무안군,전라남도 보성군,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>[전남도청] 10.28. 24시기준 확진 13명(목포4,순천2,나주1,화순1,강진1,영광2,진도1/해외1(구례))▲증상 의심되면 외출 자제하고 검사 먼저 받으세요</t>
+          <t>[금산군청] 10.23(토) / 10.24(일) / 10.26(화) / 텐코인 노래연습장 방문한 분은 코로나 19 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2021/10/29 08:33:23</t>
+          <t>2021/11/01 09:10:42</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>전라남도 화순군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>[화순군청] 10.28. 24시 기준 확진자 1명 발생(화순128번). 동선 소독 완료하고 접촉자 조사중입니다. ▶접종완료자도 의심증상 있으면 즉시 검사바랍니다.</t>
+          <t>[사천시청] 11. 1.(월) 삼천포보건센터 임시선별진료소 금일17:00까지 운영 ▲의심 증상시 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2021/10/28 19:48:50</t>
+          <t>2021/11/01 09:06:07</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[영광군청]10.28.(목) 18:00시 확진자 1명(영광 47번)추가발생.영광46번 가족으로 역학조사중. 접종 완료자도 의심 즉시 보건소에서 진단검사 바랍니다.</t>
+          <t>[양주시청] 11월 01일 00시 기준 확진자 7명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2021/10/28 19:25:43</t>
+          <t>2021/11/01 08:56:37</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>전라북도 고창군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[고창군청] 10.28.(목) 19:00 기준 ▶관내 확진자(고창 63번) 발생 ▶코로나19 의심 증상 시 검사 바랍니다.</t>
+          <t>[고흥군청] 10.31(일) 24시기준 확진자 13명 발생 역학조사 중 증상 의심 되면 외출자제하시고 즉시 보건소 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2021/10/28 19:23:48</t>
+          <t>2021/11/01 08:45:24</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 25.(월) ~ 10. 27.(수) 택시(충북35아 5064) 이용자는 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[고흥군청]11.1(월)10시 또는 14시부터 금산전체마을에서 코로나 검사를 실시합니다. 주민들께서는 마을회관에서 꼭 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2021/10/28 19:00:34</t>
+          <t>2021/11/01 08:19:27</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[홍성군청]10월28일(목) 19시 기준 확진자 1명(홍성306번) 발생. 자가격리중 검사 결과 확진으로 접촉자 및 동선 없음</t>
+          <t>[고흥군청]확진자 동선 관련 10/26,28,29 9시부터 12시사이 대흥여객(오천→녹동,녹동→오천)을 이용하신 분은 금일중 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2021/10/28 18:34:01</t>
+          <t>2021/11/01 08:15:12</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 28일 17시 기준 확진자 40명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[목포시청]10.31.24시기준 확진자 2명발생(확진자접촉 2) ▲11/1부터 사적모임 12인까지 가능 ▲발열, 인후통 등 의심증상 발현 시 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2021/10/28 18:18:32</t>
+          <t>2021/11/01 08:12:59</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[진도군청]안내드린 57번확진자 동선관련▲진도읍 락스(Rock’s) PC방 방문자께서는√보건소 선별진료소를 오늘밤 9시(21시)까지 연장운영하니 방문검사 바랍니다</t>
+          <t>[순천시청] 10.31. 24시기준 확진자 1명발생(해외입국) √단계적 일상회복을위한 ① 실내외 마스크착용 ② 주기적 환기 ③ 적극적 진단검사 실천 부탁드립니다</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2021/10/28 18:15:20</t>
+          <t>2021/11/01 08:12:17</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[남양주시청]10.28.(목) 코로나19 확진자 24명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tct8 증상의심시 코로나19 검사받으세요.</t>
+          <t>[여수시청]10.31.24:00 기준 총1명 발생(타지역 방문 확진자 접촉)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2021/10/28 18:02:57</t>
+          <t>2021/10/31 19:07:25</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>서울특별시 중구</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[중구청] 10.14.~10.24. 중구 소재 중림식당(손기정로 1길 48) 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[홍성군청]10월31일(일) 19시 기준 확진자 6명(홍성311~316번)발생. 자가격리중 2명, 자발적검사 2명, 타지역거주자 2명. 역학조사 및 방역소독 완료</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2021/10/28 18:00:52</t>
+          <t>2021/10/31 18:40:04</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>서울특별시 전체</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[논산시청] 10월28일 확진자 5명(내국인5/관내4,훈련소1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
+          <t>[서울시청] 10.19(화)~28(목) 중랑구 소재 상봉아트홀 댄스학원(망우로 328) 방문자는 가까운 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎120</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2021/10/28 18:00:01</t>
+          <t>2021/10/31 18:27:51</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[안성시청]10.28. 코로나19확진자3명(자발적검사1확진자접촉1동반입소자1)발생. 역학조사,방역조치 완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[남양주시청]10.31.(일) 코로나19 확진자 33명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tevx 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2021/10/28 17:39:10</t>
+          <t>2021/10/31 18:01:11</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[진도군청]확진자 동선 추가▲진도읍 락피시방 √10.23(토) 16:10~21:05 √10.25(월) 17:30~10.26(화) 00:15▲방문자는 검사 바랍니다</t>
+          <t>[안성시청]10.31.코로나19 확진자9명(자발적검사7,확진자접촉1,자가격리1)발생. 역학조사,방역조치 완료anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2021/10/28 17:32:19</t>
+          <t>2021/10/31 17:11:04</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[진도군청]진도57번 확진자 발생(외국인근로자)▲진도읍 락피시방 √10.20(수)19:24~22:46 √10.22(금) 17:40~21:45▲방문자는 검사바랍니다</t>
+          <t>[사천시청]10.26.(화)~10.29.(금)09:00~15:00잠언의료기기(선구동 소재)방문자는 18:30까지 삼천포보건센터임시선별진료소에서검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2021/10/28 17:21:55</t>
+          <t>2021/10/31 17:07:06</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3699,269 +3699,269 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 28일 확진자 4명 발생(자가격리중2, 조사중2)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[충주시청] 10월 31일 확진자 5명 발생(선행확진자의 접촉자)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2021/10/28 17:13:14</t>
+          <t>2021/10/31 17:03:05</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>[창원시청] 10.23(토) 22:10~23:58 슬레이크(성산구 마디미로43번길 10)이용자는 관할 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[광주시청] 10월 31일 17시 기준 확진자 12명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2021/10/28 16:47:30</t>
+          <t>2021/10/31 16:51:53</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>[강진군청] 강진 18번 확진자 발생(서울 방문하여 가족 확진자 접촉) 접촉자 및 동선 없음. 타지역 방문 및 의심증상 시 선별진료소 검사바랍니다.</t>
+          <t>[사천시청]10.26.(화)~10.29.(금) 09:00~15:00 잠언의료기기(선구동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2021/10/28 16:28:17</t>
+          <t>2021/10/31 15:53:33</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[구미시청]10/15(금)~10/24(일) 금오산교회 신유기도원(형곡동로 3) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[포항시청] 10.24(일) 17:00~21:00 무카타부페-타이마트(상도동 629-3) 이용자는 보건소에서 검사바랍니다. ※검사시 KF94 마스크 착용바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2021/10/28 15:46:27</t>
+          <t>2021/10/31 15:29:15</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[의정부시청] 10.23.(토)~10.27.(수) 행복한영광교회(의정부동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[남양주시청]10.22(금)~10.27(수) 참소망교회(오남읍 진건오남로 896번길 24) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2021/10/28 15:31:39</t>
+          <t>2021/10/31 15:14:18</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>전라북도 정읍시</t>
+          <t>경상남도 거제시</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[정읍시청] 10.25(월) 11:45~12:00, 항상아름다운자리 음식점 (신태인, 소독완료/ 전주확진자 방문) 방문자는 보건소 선별진료소에서 검사바랍니다.</t>
+          <t>[거제시청] 코로나19확진자 총 5명 발생(확진자접촉3, 감염경로 조사중2)/ 기침, 발열 등 유증상시 즉시 선별진료소에서 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2021/10/28 15:28:28</t>
+          <t>2021/10/31 15:13:24</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[의정부시] 10/23(토)~10/24(일) 신곡동 서해아파트 103동 놀이터 방문자는 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[포항시청] 10.30(토) 11:30~13:20 포항역 3층 푸드코트(흥해읍 이인리 137-1) 이용자는 보건소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2021/10/28 15:00:34</t>
+          <t>2021/10/31 15:07:25</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[고성군청]10. 28.15시기준,확진자1명(고성119번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[창녕군청]10.29(금) 08:35 창녕→남지→부산(사상), 16:00 부산(사상)→남지→창녕→대구 시외버스(우등) 이용자는 가까운 선별진료소에 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2021/10/28 14:51:40</t>
+          <t>2021/10/31 14:40:04</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>서울특별시 전체</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[부산시]10.23.(토) 10:07~11:25 동신탕 여탕(부산광역시 동구 홍곡남로6, 수정동)이용자는 코로나19 검사 받으시기 바랍니다. (소독완료)</t>
+          <t>[서울시청] 10.19(화)~29(금) 서초구 소재 경부선 터미널 3층 꽃자재 상가(신반포로194 3층) 방문자는 코로나19 검사 받으시기 바랍니다. ☎120</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2021/10/28 14:27:38</t>
+          <t>2021/10/31 14:34:19</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[영광군청] 관내 확진자 동선 관련▲10.26.(화)19:10~20:10 영광성당 미사 참석자는 보건소에서 진단검사 바랍니다.▲접종자 포함 실내외에서 마스크 착용</t>
+          <t>[안산시청]10월31일14시기준 확진자 26명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yFEyhJ</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2021/10/28 14:25:30</t>
+          <t>2021/10/31 14:09:22</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[김천시청]10월28일 14시기준 13명 발생(신규2, 자가격리중11)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
+          <t>[완주군청] 10월 31일(일) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2021/10/28 13:51:17</t>
+          <t>2021/10/31 13:33:12</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>충청북도 옥천군</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[부여군청]10월28일 13시 기준 확진자17명 발생【부여405~421업체근로자14(외국인10,내국인4),학생3】 감기증상 시 코로나 검사(특히 학생) 바랍니다</t>
+          <t>[옥천군청] 10.28.(목) 18:30~21:00 맛있는 오칠구포차(옥천읍)이용자는 관할보건소에서 코로나검사 요망. 선별진료소 공휴일 운영 09:00~16:00</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2021/10/28 13:32:14</t>
+          <t>2021/10/31 13:25:09</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[보성군]보성40번 동선관련, 10.24.(일)~10.26.(화) 06:00~07:00 보성매일시장 내 보리밥집을 이용하신분은 지금 즉시 보건소에서 검사바랍니다.</t>
+          <t>[사천시청] 10.24(일)~10.29(금) 장수복집(동서금동 소재) 방문자는 삼천포보건센터 임시선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2021/10/28 13:26:55</t>
+          <t>2021/10/31 13:00:44</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>전라남도 순천시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>[순천시청] 10.24.(일)~10.27.(수) 07:00~10:00 천담수사우나(신월큰길 39) 여탕 이용자는 금일 중 보건소 선별진료소에서 검사하시기 바랍니다</t>
+          <t>[과천시청] 10월31일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2021/10/28 13:25:56</t>
+          <t>2021/10/31 11:53:23</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>전라남도 화순군</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>[화순군청] 10.23.(토) 13:40~14:25 옛날두부(화순읍 시장길 33)에서 23,000원 현금결제 하신 분은 거주지 보건소에서 코로나 진단검사바랍니다.</t>
+          <t>[사천시청] 10.27(수)08:00 삼천포시외버스터미널-&gt;부산서부시외버스터미널 시외버스 탑승자께서는 보건소 선별진료소에서 검사바랍니다.(055-831-3636)</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2021/10/28 12:58:41</t>
+          <t>2021/10/31 11:32:25</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[전주시청]10.28(목) 현재기준 7명 발생(전일 2명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[창녕군청]10.31(일) 확진자2명 발생(창녕347~348/타지역접촉2)▷단계적 일상회복을 위한 방역수칙 준수▷마스크착용▷유증상시 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2021/10/28 11:18:46</t>
+          <t>2021/10/31 11:20:37</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3971,116 +3971,116 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.28.(목) 11:00기준 신규확진자 29명 url.kr/iexuqk ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[안양시청]▲10.31.(일) 11:00기준 신규확진자 62명 url.kr/odmvxu ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2021/10/28 11:10:03</t>
+          <t>2021/10/31 11:05:22</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>전라남도 나주시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[나주시청] 10.28. 09시기준. 확진자2명 발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
+          <t>[부여군청] 10월31일 11시기준 확진자7명 발생【부여431~437자가격리 및 수동감시(접종완료)중 발생으로 지역전파 없음】감기증상시 코로나 검사 후 진료 바람</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2021/10/28 11:08:31</t>
+          <t>2021/10/31 11:02:34</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>전라북도 임실군</t>
+          <t>경상북도 전체</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[임실군청]서울 확진자 동선 관련/10.23(토) 09:30 서울강남터미널 출발→순창터미널 이동중 강진터미널에서 하차하신분은 선별진료소에서 검사 받으시길 바랍니다</t>
+          <t>[경상북도청] 10/22~10/25 제니스라이브(ZENITH)(포항시 남구 상도동 601-1)에 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2021/10/28 10:59:57</t>
+          <t>2021/10/31 10:53:30</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[용인시청]10월28일 0시기준 확진자 26명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[정읍시청]10.27(수)11:15~20:10,10.28(목)~10.29(금)9:30~20:30아양촌해물칼국수(시기동,소독완료)방문자는 선별진료소에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2021/10/28 10:59:56</t>
+          <t>2021/10/31 10:39:15</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>[보은군청] 221(13:25백록동방향),721(15:35석화방향),940(17:20신함방향),431(19:00천남방향)이용자는 코로나 검사받으시기 바랍니다.</t>
+          <t>[아산시청]10월 30일 확진자 13명(지인 7, 가족 5, 조사중 1) / 타지역 방문, 모임 자제 및 증상 발현 시 즉시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2021/10/28 10:44:26</t>
+          <t>2021/10/31 10:36:24</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 28일(목) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[전주시청]10.31(일) 현재기준 6명 발생(전일 1명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2021/10/28 10:42:34</t>
+          <t>2021/10/31 10:35:45</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>전라북도 순창군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[순창군청]서울 확진자 이동경로 안내 ▶10.23(토) 09:30 서울강남센트럴시티→ 12:50 순창터미널 도착▶고속버스 이용객은 가까운 선별진료소 검사 바랍니다</t>
+          <t>[진천군청]▲10.30 코로나 확진자 6명(내국인2, 외국인4)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2021/10/28 10:23:12</t>
+          <t>2021/10/31 10:33:14</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4090,371 +4090,371 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[강원도청] 10.27.(수) 도내 코로나19 확진 22명(원주13 춘천2 태백2 강릉1 홍천1 철원1 양구1 인제1)▶접촉의심 및 감기증상시 즉시검사 당부 드림</t>
+          <t>[강원도청] 10.30.(토) 도내 코로나19 확진 23명(원주11 홍천5 춘천2 태백2 횡성2 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2021/10/28 10:00:33</t>
+          <t>2021/10/31 10:30:27</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 28일 0시 기준, 수원 확진자 60명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/xvl74</t>
+          <t>[용인시청]10월31일 0시 기준 확진자 28명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2021/10/28 09:58:53</t>
+          <t>2021/10/31 10:25:15</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[영광군청] 확진자 동선 관련 ▲10.24.(일), 10.26.(화) 영광성당 방문자는 보건소에서 진단검사 받으시기 바랍니다.▲마스크착용, 타지역 방문·접촉 자제</t>
+          <t>[창원시청] 마산역 임시선별검사소 운영종료알림(11.1부터) ▲3개 보건소(09:00~18:00), 창원종합버스터미널(11:00~20:00) 정상운영</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2021/10/28 09:47:56</t>
+          <t>2021/10/31 10:06:03</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.27 코로나 확진자 3명(내국인2, 외국인1). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[광주광역시] 10.27.(수) ~ 10.30.(토) 앗싸로또판매점(남구 백운로 15-1, 백운동)을 방문하신 분은 거주지 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2021/10/28 09:42:42</t>
+          <t>2021/10/31 10:01:22</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>충청북도 영동군</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>[보은군청]10.28.(목) 확진자 8명 발생▲10. 23.(토)~10.24.(일) 시내버스(충북74자1014) 이용자는 보건소에서 코로나 검사 받으시기 바랍니다</t>
+          <t>[영동군청] 10. 31.(일) 기준 확진자 1명 발생. 이동 동선 및 접촉자 파악 중입니다. 타 지역 방문 자제 및 증상 발현 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2021/10/28 09:36:34</t>
+          <t>2021/10/31 10:00:50</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>[창원시청] 10.27. 확진자 22명 발생 ▲합포10,회원5,진해1,타지역1,격리중5 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[수원시청] 10월 31일 0시 기준, 수원 확진자 52명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사 바랍니다. me2.kr/ffgzf</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2021/10/28 09:33:21</t>
+          <t>2021/10/31 09:54:29</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[영광군청] 10.28.(목) 9시 기준, 확진자 1명(영광46번)발생▲10.24.(일)~10.27.(수)대동공업영광대리점 방문자는 보건소에서 진단검사 바랍니다.</t>
+          <t>[보은군청]10. 31.(일) 확진자 1명 발생 ▲ 10.20.(수) ~ 10.26.(화) 복신경외과의원 방문자는 즉시 보건소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2021/10/28 09:19:19</t>
+          <t>2021/10/31 09:53:21</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>강원도 원주시</t>
+          <t>경상북도 문경시</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[원주시청] 10.16.~10.24.'힐링타임아로마테라피(여대생마사지)[북원로2251, 단계동]' 이용자는 오늘 15시까지 보건소에서 코로나 검사 받으세요.</t>
+          <t>[문경시청] 10.24.(일) ~10.27.(수) 네네치킨(문경시 점촌로8)을 방문하신 분은 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2021/10/28 09:05:45</t>
+          <t>2021/10/31 09:42:30</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 28일 00시 기준 확진자 11명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[창원시청] 10.30. 확진자 48명 발생 ▲의창3,성산1,회원2,진해1,병원관련41 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2021/10/28 08:31:40</t>
+          <t>2021/10/31 09:40:17</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>전라남도 곡성군</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.28(목)08시 기준 확진자 30명 발생(남원 172~201번)/감염경로조사중 ▲ 유증상시 접종유무와 상관없이 즉시 선별진료소에서 검사바랍니다.</t>
+          <t>[곡성군청]10.31(일) 09시 기준 확진자 1명 발생(조사중). 유증상자 및 타지역 방문자는 증상 관계없이 선별진료소에서 검사바랍니다.(09:00~17:00)</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2021/10/28 08:30:09</t>
+          <t>2021/10/31 09:38:05</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>[목포시청]10.27. 24시 기준 확진자 1명(자가격리중 외국인) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
+          <t>[논산시청] 10월21일~29일 취암동 1056-14, 서원빌 401호에서 마사지를 받으신 분은 코로나 검사 받으시고 논산시보건소로 연락(746-6672)바랍니다</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2021/10/28 08:28:21</t>
+          <t>2021/10/31 09:34:05</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[여수시청]10.27.24:00 기준 총1명 발생(타지역거주자)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[천안시청] 확진자 7명[타시민2, 천안시민5] ▶ 환절기 감기증상 발현 시 코로나 의심하고 의료기관 방문 전 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2021/10/27 21:09:37</t>
+          <t>2021/10/31 09:09:11</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>[보성군] 10.27.(수) 확진자 3명 추가 발생(가족,지인모임/역학조사중) ▲외출 및 지인모임 자제, 마스크 상시 착용, 의심증상시 보건소에서 검사 받으세요.</t>
+          <t>[고흥군청]10.30(토) 24시기준 추가 확진자 8 발생 역학조사중,선별검사소운영 금산면금일체육관 09:00~17:00 운영,증상유뮤 관계없이 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2021/10/27 18:36:13</t>
+          <t>2021/10/31 09:06:43</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>[홍성군청]10월27일(수) 18시 기준 확진자 5명(홍성301~305번) 발생.자가격리 1명, 병원격리 3명, 자발적검사 1명. 역학조사 및 방역조치 완료</t>
+          <t>[전남도청] 10.30.24시 기준 확진자 30명(목포5,여수1,고흥21,강진1,영암1,무안1) ▲주말 행사·모임 자제 ▲증상 의심 즉시 보건소 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2021/10/27 18:35:33</t>
+          <t>2021/10/31 09:02:09</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
+          <t>[남원시청] ▲ 10.31(일) 08시 기준 확진자 9명 발생(남원 209~217번)/기확진자 접촉2, 자가격리중7 ▲ 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2021/10/27 18:25:04</t>
+          <t>2021/10/31 09:01:27</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>[남양주시청]10.27.(수) 코로나19 확진자 26명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tbit 증상의심시 코로나19 검사받으세요.</t>
+          <t>[양주시청] 10월 31일 00시기준 확진자 24명 발생/기침, 발열등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2021/10/27 18:03:16</t>
+          <t>2021/10/31 08:29:19</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 27일 확진자 7명 발생(선행 확진자 접촉1, 자가격리중4, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[목포시청]10.30.24시기준 확진자5명(자가격리중외국인2,가족접촉2,타지역접촉1) ▲발열,기침등 유증상발현으로 의료기관 방문시 사전 진단검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2021/10/27 17:47:38</t>
+          <t>2021/10/31 08:18:39</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>[통영시청] 10.26.(화) 10:40~17:55 통영전문장례식장(정량동) 3층 특실을 방문하신분은 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[여수시청] 10.30.24:00 기준 총1명 발생(자가격리중)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2021/10/27 17:44:59</t>
+          <t>2021/10/30 20:02:29</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>[구례군청]10.27.(수) 확진자 1명 발생(구례35번 가족), 접촉자 및 이동동선 없습니다. 타지역 방문을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[정읍시청1]10.30(토) 20시기준 정읍173번 확진자 발생 / 카카오톡채널 참고 / 유증상시 보건소에서 검사바랍니다. pf.kakao.com/_axcMvK</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2021/10/27 17:32:06</t>
+          <t>2021/10/30 19:16:05</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 27일 17시 기준 확진자 28명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[남양주시청]10.30.(토) 코로나19 확진자 37명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tehh 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2021/10/27 17:04:55</t>
+          <t>2021/10/30 18:27:55</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 27일 17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[논산시청] 10월30일 확진자 3명(내국인1,외국인2/타지역2,조사중1)발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2021/10/27 16:52:03</t>
+          <t>2021/10/30 18:01:00</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>[강북구청] 10.24.~27. 로얄PC방(도봉로 313, 지하1층) 방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
+          <t>[광주시청] 10월 30일 17시 기준 확진자 24명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2021/10/27 16:32:30</t>
+          <t>2021/10/30 17:27:10</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4464,949 +4464,949 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[창원시청] 10.21.(목)~10.23.(토), 10.25.(월) 대림식당(마산합포구 북성로 100, 상남동) 방문자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[창원시청] 10.27.(수) 09:50~11:40 경창탕 남탕(성산구 상남로 67) 이용자 관할 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2021/10/27 15:43:47</t>
+          <t>2021/10/30 17:13:37</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[부산시]10.23.(토) 13:30~15:30에 대원목욕탕(부산진구 황령대로18번길 43(범천동))여탕 이용자는 코로나19검사 받으시기 바랍니다.(소독완료)</t>
+          <t>[충주시청] 10월 30일 확진자 7명 발생(선행 확진자 접촉2, 자가격리중3, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2021/10/27 15:37:00</t>
+          <t>2021/10/30 17:03:49</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[화성시청] 10.22.(금) 킹노래방(화성시 봉담읍 와우안길 43) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[화순군청]10/25(월)12시경 금강민물식당(화순읍 칠충로145)에서 화순사랑상품권 3만원 결제하신 분은 거주지 보건소에서 코로나진단검사를 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2021/10/27 15:36:38</t>
+          <t>2021/10/30 17:00:55</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[화성시청] 10.23.(토) 블루노래연습장(화성시 봉담읍 와우리 45-5 지하1층) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[무안군청] 10.30.(토) 17시기준 확진자 1명발생(외국인,격리중확진)▲외국인 고용사업장 종사자 2주1회 검사▲미등록 외국인 여권 없이 예방접종 가능</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2021/10/27 15:36:10</t>
+          <t>2021/10/30 15:44:31</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>충청남도 서천군</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[서천군청] 10.24.~26. 기간 중 서면 홍원항어촌계 수산물판매장 내 한문이네를 방문한 분들은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
+          <t>[진천군청]10.29 코로나 확진자5명(내국인3,외국인2)발생.▲손씻기,마스크착용 등 방역수칙 준수바랍니다.▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2021/10/27 15:24:25</t>
+          <t>2021/10/30 15:17:04</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>인천광역시 미추홀구</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>[김천시청]10월27일 15시기준 관내 초·중학교 관련 22명 발생(신규15, 자가격리중7)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
+          <t>[미추홀구청]10/17(일),20(수),24(일),27(수) 주안할렐루야교회(미추홀구 구월로17) 방문자는 31(일) 오전중 거주지보건소에서 코로나19 검사바람</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2021/10/27 15:10:02</t>
+          <t>2021/10/30 15:12:55</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>[고성군청]10.24.(일)14:00~15:42병산수산고성왕새우(삼산면소재, 방역완료) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[창원시청]▲10.27(수)9:40~12:00 ▲10.29(금)9:50~11:00 소죽도찜질방 남탕(진해구 천자로 165,방역완료) 방문자 선별진료소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2021/10/27 15:02:56</t>
+          <t>2021/10/30 15:08:48</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>[보은군청]10. 23.(토) ~ 10. 26.(화) 보은개인택시(35아 5061 /소나타/은색)를 이용하신분은 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[진주시청] 30일 15시 기준 확진자 2명(타지역 확진자의 접촉자 1명, 시민무료 선제검사 1명)발생. 상세 현황은 시 누리집 참조바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:56</t>
+          <t>2021/10/30 14:58:20</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>[고성군청]10. 27.15시기준,확진자1명(고성118번, 관내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[금산군청]10.23(토)20:40-22:00, 10.24(일)16:00-19:00, 10.26(화)16:00-18:00 텐코인 노래연습장 방문한 분 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:14</t>
+          <t>2021/10/30 14:56:08</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>경기도 부천시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[부천시청] 10.19(화) 18시~22시 중동포차(조마루로291번길 46) 방문자는 증상유무에 관계없이 선별진료소에서 코로나19검사를 받으시기 바랍니다.</t>
+          <t>[남양주시청]10.22.(금)~10.29.(금) 외가집밥상 기사식당(남양주시 화도읍 북한강로 1412) 방문자는 가까운 보건소에서 코로나19 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2021/10/27 14:59:14</t>
+          <t>2021/10/30 14:30:55</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>[보은군청]10.19.(화)~10.22.(금)/10.25.(월)~10.26.(화)11:45~12:30즐거운집(보은읍 삼산리)이용자는 코로나 검사 받으시기 바랍니다</t>
+          <t>[안산시청]10월30일 14시기준 확진자 48명 발생 ▲발열,기침,호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/ynRGLX</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2021/10/27 14:57:46</t>
+          <t>2021/10/30 14:13:26</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>[김제시청] 10.27.(수) 14시기준 확진자 1명 발생(확진자 접촉1, 동선파악중)/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
+          <t>[음성군청] 10.30.확진자 4명(내국1, 외국3)발생▲동선 및 접촉자 조사중▲타지역방문,모임,지인초청 자제▲유증상시 주민들께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2021/10/27 14:47:14</t>
+          <t>2021/10/30 14:00:13</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>[울산광역시] 10.23.(토)18:10~21:10 ▲동강병원 장례식장 6호실(중구 태화로 240, 태화동, 소독완료) 방문자는 코로나19 검사 받으시기 바랍니다</t>
+          <t>[사천시청]10.30.(토) 14시 기준 확진자 3명(조사 중 2명, 타지역거주자 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2021/10/27 14:31:59</t>
+          <t>2021/10/30 13:40:18</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>서울특별시 서초구</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19(화), 10.21(목)~10.24(일) 환금휘트니스사우나(마산회원구 북성로 106, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[서초구청]10.19(화)~10.29(금) 경부선 터미널 3층 꽃자재(신반포로194 3층) 방문자는 선별진료소에서 코로나19 검사바랍니다. seocho.go.kr</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2021/10/27 14:00:07</t>
+          <t>2021/10/30 13:35:13</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>대구광역시 전체</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>[사천시청] 10.27.(수) 14시 기준 확진자 5명(확진자 접촉자4명, 해외입국자1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[대구광역시]아크(동구 반야월북로 158, 2층) 10/20~23 방문하신 분은 두류·국채보상공원·대구스타디움 검사소 및 보건소(예약)에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2021/10/27 13:40:54</t>
+          <t>2021/10/30 13:00:11</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[완도군청]외국인 확진자 자가격리중 1명 발생▶오늘 선별이동검사소 안내▶10/27(수)13:30~15:00 소안창조문화센터▶15:00~17:00 청산복지회관 2층</t>
+          <t>[과천시청] 10월30일13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2021/10/27 11:02:53</t>
+          <t>2021/10/30 12:51:45</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>인천광역시 부평구</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>[완도군청] 확진자동선▶10/22(금)보길보옥리→청별→노화이포 보길여객농어촌버스 첫차(08:00)▶노화 농협하나로마트09:00~09:10 동시간대 이용자 검사요망</t>
+          <t>[부평구청] 10/25(월) 텐코인노래방 (부평구 충선로203번길 12 뉴존프라자 3층, 삼산2동) 방문자는 가까운 선별검사소에서 코로나검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2021/10/27 11:00:04</t>
+          <t>2021/10/30 12:44:22</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>[용인시청]10월27일 0시기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
+          <t>[고흥군청] 10.30(토) 확진자 13명 발생 역학조사 중 외출 및 지인 모임 자제 외국인 및 고용사업주는 보건소 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2021/10/27 10:39:48</t>
+          <t>2021/10/30 12:29:48</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>충청남도 부여군</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>[부여군청]10월27일 10시 기준 확진자 18명 발생【부여387~404,학생등13,외국인5】 감기증상 시 보건소에서 코로나 검사(특히 학생) 받으시기 바랍니다.</t>
+          <t>[강진군청] 강진 19번 확진자 발생(서울 거주자 29일 강진 방문) 동선 파악 등 역학조사 중. 타지역 방문 자제 및 의심증상 시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2021/10/27 10:37:52</t>
+          <t>2021/10/30 12:16:26</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>강원도 전체</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>[강원도청] 10.26.(화) 도내 코로나19 확진 19명(원주6 태백5 춘천4 홍천3 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부 드림!!</t>
+          <t>[보성군]10.29.(금) 확진자 2명 발생(타지역 확진자 접촉)▲주말외출·모임자제▲백신접종을 완료했더라도 마스크착용, 유증상시 검사등 방역수칙을 잘 지켜주세요!</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2021/10/27 10:33:16</t>
+          <t>2021/10/30 12:00:04</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>전라남도 전체</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>[아산시청] 10월26일 확진자 10명(가족7, 지인1, 조사중 2) /단계적 일상 회복 전환을 위해 방역수칙을 준수해 주시고, 코로나 의심시 검사 받으세요.</t>
+          <t>[전남도청] 전국 √요양시설√병원√학교 등에서 집단발생▲고위험시설(요양시설,병원) 방문 및 면회자제▲핼러윈데이,축제,행사,모임 자제 및 유증상시 검사 꼭 받으세요</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2021/10/27 10:26:25</t>
+          <t>2021/10/30 11:50:10</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>전라북도 전주시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[전주시청]10.27(수) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
+          <t>[부여군청] 10월30일 11시 기준 확진자 6명 발생 【부여425~430/자가격리 학생4, 수동감시2】 감기증상 시 코로나 검사 후 진료를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2021/10/27 10:08:04</t>
+          <t>2021/10/30 11:25:35</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 27일(수) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[칠곡군청] 10.30.0시 기준 확진자 12명 중 외국인9명. 파키스탄 확진자 다수 발생. 사업장, 농장 등 소속외국인은 코로나 검사를 꼭 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2021/10/27 10:00:53</t>
+          <t>2021/10/30 11:25:16</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 27일 0시 기준, 수원 확진자 58명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/ghswi</t>
+          <t>[칠곡군청] 10.20(수)~10.27(수) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 증상유무 상관없이 선별진료소에서 필히 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2021/10/27 09:54:39</t>
+          <t>2021/10/30 11:01:48</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>경상북도 김천시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>[김천시청]코로나19이동선별검사소 운영안내▲장소:녹색미래과학관(율곡동)▲27일:13:00~16:00, 28일-29일:10:00~16:00▲의심증상시 검사바랍니다.</t>
+          <t>[용인시청]10월30일 0시 기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2021/10/27 09:53:25</t>
+          <t>2021/10/30 10:51:00</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[보은군청] 10. 27.(수) 확진자 4명 발생 ▲ 10. 18.(월) 이후 복신경외과 내원자 및 유증상자는 인근 보건소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[완주군청] 10월 30일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2021/10/27 09:46:27</t>
+          <t>2021/10/30 10:45:20</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>경상남도 함양군</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>[함양군청] 10. 18.(월) 14시 함양 출발 → 16시 부산(사상) 도착 시외버스 탑승객은 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
+          <t>[군산시청] ▲10/22(금)~10/28(목) 싱글앤싱글(동수송2길 19) 방문자는 보건소 선별검사(09시~18시) 바랍니다. ▲10/29(금) 검사자 제외</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2021/10/27 09:31:50</t>
+          <t>2021/10/30 10:26:09</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>[창원시청] 10.18(월)~23(토) 온정백반(대산면 주남로503번길 8, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.(10.24 이후 검사자 제외)</t>
+          <t>[강원도청] 10.29.(금) 도내 코로나19 확진 25명(원주13,삼척5,홍천3,춘천1,강릉1,태백1,평창1) ▶접촉의심 및 감기증상 시 즉시검사 당부 드림</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:51</t>
+          <t>2021/10/30 10:17:18</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.17(일)~10.25(월) JL연기학원 1층~4층(동구 구성로 167, 충장로5가)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
+          <t>[수원시청] 10월 30일 0시 기준, 수원 확진자 61명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/5z8t3</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:51</t>
+          <t>2021/10/30 10:08:30</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>강원도 삼척시</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>[창원시청] 10.26. 확진자 20명 발생 ▲의창4,합포6,회원4,진해2,타지역1,격리중3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[삼척시청]10.27~28 중앙시장길 68-4 지하1층 ‘봉자클럽’이용자는 보건소 선별진료소에서 금일 15시까지 코로나 검사를 받으시기 바랍니다☎570-4649</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:30</t>
+          <t>2021/10/30 10:06:13</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>[완도군청]확진자동선▶10/21(목) 12:10해남출발→13:00완도도착▶13:20완도터미널→화흥포셔틀버스▶13:50화흥포→노화동천 여객선실 이용자 코로나검사요망</t>
+          <t>[전주시청]10.30(토) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2021/10/27 09:30:26</t>
+          <t>2021/10/30 09:37:38</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲26일 도내 확진자 29명 발생</t>
+          <t>[의정부시청]10.23.(토), 10.25.(월) 정다운한식뷔페(산곡동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2021/10/27 09:11:43</t>
+          <t>2021/10/30 09:31:29</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>[포항시청]10.23 302번버스 영일고등학교정류장15:41→죽도시장정류장16:07 죽도시장정류장16:33→영일고등학교정류장17:01 탑승객은 보건소 검사바랍니다</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲29일 도내 확진자 46명 발생</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2021/10/27 09:09:58</t>
+          <t>2021/10/30 09:30:28</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>충청남도 서천군</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 27일 00시 기준 확진자 4명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[서천군청] 10.30.(토) 09:00기준 신규확진자 1명 발생(타 지역 거주자 방문 검사) ▲ 우리군 이동동선 및 접촉자 없습니다.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2021/10/27 09:05:04</t>
+          <t>2021/10/30 09:26:33</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>충청남도 천안시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>[천안시청] 확진자 17명 [타시민1, 천안시민16] ▶ 초·중·고교생 확진자 증가 ▶ 증상발현 시 병원 방문 전 검사 및 백신접종에 참여 바랍니다.</t>
+          <t>[창원시청]10.29.확진자139명 발생 ▲의창1,성산2,합포5,회원5,진해4,타지역1,격리중3,병원관련118 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2021/10/27 08:27:36</t>
+          <t>2021/10/30 09:11:04</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.27(수) 금일 확진자 1명 발생(남원 171번)/감염경로 조사중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[광주광역시] 10.21(목)~10.29(금) 가톨릭 광주사회복지회 안셀모의 집(외국인 노동자 쉼터, 동구 동계천로 129-1, 동명동) 방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2021/10/27 08:00:07</t>
+          <t>2021/10/30 09:07:39</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>[제천시청]10.27(수) 8시 현재. 확진자 2명 발생(타 지역 확진자 접촉 1, 격리중 1). 지역내 특이동선 없음. 증상발현시 선별진료소에서 검사 바랍니다.</t>
+          <t>[목포시청]10.29(금) 24시 기준, 확진자 1명(유증상자1) 발생 ▲기침, 발열 등 의심 증상 있을 시 즉시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2021/10/26 21:01:59</t>
+          <t>2021/10/30 08:58:51</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>충청북도 보은군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>[보은군청]10.26.(화) 확진자 3명 발생, 10.18.(월)~10.26.(화) 복신경외과의원(보은읍) 방문자는 인근보건소에서 코로나검사를 받으시기 바랍니다.</t>
+          <t>[남원시청] 타지역 확진자 동선 관련 ▲ 10.22.(금)12:30~13:30, 남원이조갈비(남원시 향단로 18) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2021/10/26 20:24:18</t>
+          <t>2021/10/30 08:57:17</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
+          <t>[남원시청]▲10.30.(토) 전일확진자 5명 발생(남원 204~208번)/기확진자 접촉3, 자가격리중2▲타지역 방문자제 및 유증상시 즉시 검사 받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2021/10/26 19:06:08</t>
+          <t>2021/10/30 08:50:56</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>[강북구청]10.19.(화) 19:00~21:10 보스당구클럽(오패산로130)방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
+          <t>[양주시청] 10월 30일 00시기준 확진자 21명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2021/10/26 19:04:20</t>
+          <t>2021/10/30 08:49:41</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[강북구청] 10.22.(금) 얼짱노래연습장(한천로 140길 35, 지층)방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
+          <t>[무안군청] 10.30.(토) 08시30분기준 확진자 1명발생(타지역접촉) ▲발열·기침 등 의심증상 발현 시 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2021/10/26 18:15:19</t>
+          <t>2021/10/30 08:43:38</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[남양주시청]10.26.(화) 코로나19 확진자 35명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/taaa 증상의심시 코로나19 검사받으세요.</t>
+          <t>[진도군청]10.29(금) 24시 기준, 확진 2명(역학조사중)▲초, 중학생 지속발생▲아프면 검사받고 집에서 쉬기√주말 모임·행사, 핼러윈데이 파티 자제바랍니다</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2021/10/26 18:00:02</t>
+          <t>2021/10/29 20:01:43</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>경상북도 청도군</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[안성시청]10.26코로나19확진자11명(자가격리2확진자접촉3자발적검사4해외입국2)발생.역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[청도군청]청도원탕(청도군 화양읍 남성현로 504) 10/25.(08:00~11:00)방문하신 분은 임시선별검사소 및 보건소(예약)에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2021/10/26 17:47:56</t>
+          <t>2021/10/29 18:31:37</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 26일, 확진자 4명 발생(자가격리중 3, 감염경로 조사중 1) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[홍성군청]10월29일(금) 18시 기준 확진자 1명(홍성307번) 발생. 증상발현으로 검사결과 확진. 역학조사 및 방역소독 완료</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2021/10/26 17:29:09</t>
+          <t>2021/10/29 18:21:44</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>[고성군청]10.26.17시기준,확진자1명(고성117번,조사중)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[남양주시청]10.29.(금) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/te0g 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2021/10/26 17:01:15</t>
+          <t>2021/10/29 18:12:54</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 26일 17시 기준 확진자 21명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[함평군청] 확진자 관련 10.23.(토) 13:10~13:50 함평읍 대흥식당 방문자는 보건소 또는 황소주차장에서 코로나 검사 받으시기 바랍니다.(시설소독완료)</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2021/10/26 17:01:12</t>
+          <t>2021/10/29 18:01:40</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>[창원시청] 10.16(토)~10.20(수) 17:00~17:20 감계식당(북면 감계로156번길 6-8,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[논산시청] 10월29일 확진자 3명(내국인3/관내1,타지역1,조사중1) 발생 ▶타지역 이동·방문 후에는 보건소 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2021/10/26 17:00:57</t>
+          <t>2021/10/29 18:00:31</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>[창원시청] 10.16.(토)~10.20.(수) 12:00~12:30 윤현식당(북면 감계로188번길 21,방역완료)이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[안성시청]10.29.코로나19 확진자4명(자가격리2,동반입소자1,자발적검사1)발생.역학조사, 방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2021/10/26 17:00:49</t>
+          <t>2021/10/29 17:51:18</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>[과천시청]10월26일 17시 기준 신규확진 2명 발생. https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 무료검사</t>
+          <t>[진도군청]확진자 동선▲진도한국병원 10.27(수)08:37~09:20▲진도읍 샹떼피시방 10.27(수)16시~18시▲방문자는 보건소 선별진료소에서 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2021/10/26 16:14:21</t>
+          <t>2021/10/29 17:25:19</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>[당진시청]10/26(화)16시기준 확진자17명발생(격리중5,관내접촉3,타지역접촉1,조사중8).총1080명 ▲유증상 시 등교자제 및 선별진료소 검사바랍니다.</t>
+          <t>[광주시청] 10월 29일 17시 기준 확진자 13명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2021/10/26 16:10:22</t>
+          <t>2021/10/29 17:02:01</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>[사천시청]10.14(목)~10.24(일) 사천시 서부시장길 21, 2층(선원휴게실) 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[과천시청] 10월 29일 17시 기준 신규확진 4명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2021/10/26 16:05:02</t>
+          <t>2021/10/29 17:00:12</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>[진주시청] 26일 15시 기준 확진자 9명(관내 소재 회사 외국인 종사자 8명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[중대본] 10.17~10.27 서울 중구 명동7길 18-1 '예지식당' 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2021/10/26 16:03:46</t>
+          <t>2021/10/29 16:30:18</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>경상북도 안동시</t>
+          <t>경상남도 거제시</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>[안동시청]금일 16시기준 확진자1명 발생▲10.24(일)13:04~18:30 엔제리너스안동옥동점(광명로 175)방문자는 선별진료소에서 코로나19 검사 바랍니다.</t>
+          <t>[거제시청] 코로나19 확진자 총22명 발생(확진자접촉 1, 타지역확진자접촉 21)/ 기침, 발열 등 유증상시 즉시 가까운 선별진료소에서 코로나 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2021/10/26 15:57:55</t>
+          <t>2021/10/29 16:24:25</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경기도 전체,서울특별시 전체,인천광역시 전체</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.18(월) 10.20(수) 10.22(금) 07:30~09:00 서광사우나 여탕(서구 죽봉대로109, 4층, 광천동) 방문자는 검사 바랍니다</t>
+          <t>[중대본]10.13~10.26 경기 남양주시 진접읍 양진로962 2층 '롯데택배 서울북부지점' 근무자는 보건소에서 코로나검사를 받으시기바랍니다(☎120,1339)</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2021/10/26 15:39:54</t>
+          <t>2021/10/29 15:47:33</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>전라남도 장성군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>[장성군청] 10.26.(화) 확진자 1명 발생. 자가격리 중 확진으로 이동동선 없음. 외국인사업장 등 방역취약시설 운영자 및 종사자는 2주 1회 검사 바랍니다.</t>
+          <t>[포항시청]10.28 305번버스 상대지구대정류장15:47→남구보건소정류장15:55 남구보건소정류장16:09→남부시장정류장16:23 탑승객은 보건소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2021/10/26 14:26:48</t>
+          <t>2021/10/29 15:34:52</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>전라남도 강진군</t>
+          <t>경상남도 거창군</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>[강진군청] 10월 23일 17:30 강진군 여성배드민턴 대회 후 회장 이취임식에 참석한 군민은 보건소 선별진료소에서 오후 5시까지 검사 받기 바랍니다.</t>
+          <t>[거창군청]타지역 확진자 동선 관련 10. 20.(수) 17:00 거창출발→서울남부도착 버스탑승자께서는 보건소 선별진료소에서 검사바랍니다. 055-940-8335</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2021/10/26 14:22:31</t>
+          <t>2021/10/29 15:02:50</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -5416,2336 +5416,2217 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>[음성군청]10월 26일 확진자 4명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
+          <t>[음성군청]10월 29일 확진자 5명(내국인3,외국인2)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2021/10/26 14:19:40</t>
+          <t>2021/10/29 14:43:00</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>충청남도 청양군</t>
+          <t>경기도 안산시</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>[청양군청] 10월 26일 기준 확진자 1명 발생. 청양98번(자가격리중 확진, 이동동선 없음). ▲타지역 방문 자제, 유증상 시 코로나19 검사 바랍니다.</t>
+          <t>[안산시청]10월29일 14시기준 확진자 74명 발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z3DGp</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2021/10/26 14:01:45</t>
+          <t>2021/10/29 14:30:52</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상북도 경산시</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>[사천시청]10.26.(화) 14시 기준 확진자 2명(확진자 접촉자1명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[경산시][일자수정] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/26 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2021/10/26 12:58:38</t>
+          <t>2021/10/29 14:19:20</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>[사천시청]10.14.(목)~10.24(일) 08:00~12:00 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[창원시청]22(금)08:40~15:36/25(월)08:40~11:27 정태기내과(의창구동읍로9,방역완료)방문자는 선별진료소에서 검사바랍니다(28일이후검사자제외)</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2021/10/26 11:52:38</t>
+          <t>2021/10/29 14:01:55</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>충청남도 청양군</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.22.(금)~10.25.(월) 산호장여관(왜관읍 중앙로5길 10, 왜관역 부근) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[청양군청] 10월 29일 기준 확진자 1명 발생. 청양99번(타지역 확진자 접촉, 접촉자 파악 완료 검사 중) ▲ 유증상 시 코로나19 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2021/10/26 11:52:08</t>
+          <t>2021/10/29 13:59:12</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.12.(화)~10.24.(일) 삼부사우나(왜관읍 자조1길 9) 여탕 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
+          <t>[진도군청]확진자 동선 안내▲진도읍 샹떼 피시방 10.28(목) 16:00~18:00 방문자는 보건소 선별진료소에서 검사바랍니다▲주말 행사·모임 자제 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2021/10/26 11:23:52</t>
+          <t>2021/10/29 13:55:20</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.26.(화) 11:00기준 신규확진자 24명 url.kr/eybpvx ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[포항시청] 10.25(월) 12:00 ~ 10.28(목) 06:00 궁타이마사지(상도동 615-3번지) 해당기간 방문자는 보건소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2021/10/26 11:11:36</t>
+          <t>2021/10/29 13:44:25</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>경상북도 성주군</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>[성주군] 10월23일(토) 13:50-14:20까지 박여사순대국밥(초전면 대장길 76) 방문자는 선별진료소에서 코로나19 PCR검사를 받으시기 바랍니다.</t>
+          <t>[광주광역시] 10.21(목)~10.24(일) GNS 강남스타일(태국음식점, 서구 상무시민로 130, 7층, 치평동) 방문자는 거주지 보건소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2021/10/26 10:59:58</t>
+          <t>2021/10/29 11:09:29</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자 5명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[나주시청] 10. 29. 09시 기준. 확진자 1명 발생. 동선·접촉자 파악완료. 외국인 접종시급. 코로나19 증상(기침·발열 등) 발현시 지체없이 검사 요망.</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2021/10/26 10:28:11</t>
+          <t>2021/10/29 11:05:17</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>[청주시청]10월 25일 확진자 13명 발생(상당구3,서원구1,흥덕구3,청원구5,타지역1)▲홈페이지 참조▲수시 환기▲이동·모임 자제▲유증상 시 무료검사 바랍니다.</t>
+          <t>[강화군청]10월25일(월)과 10월27일(수) 강화인삼센터 방문자께서는 가까운 선별진료소에서 코로나19 진단 검사 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2021/10/26 10:18:06</t>
+          <t>2021/10/29 11:03:01</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>경상북도 성주군</t>
+          <t>경상북도 경산시</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>[성주군청] 최근 타지역을 방문했거나 발열, 기침 등 코로나19 증상이 있을 경우 보건소 선별진료소를 방문하여 검사를 받으시기 바랍니다.</t>
+          <t>[경산시] 옥곡떡볶이(경산시 경산로7길 6)를 10/19 ~ 10/22 방문하신 분은 가까운 선별진료소에 예약 후 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2021/10/26 10:13:53</t>
+          <t>2021/10/29 11:00:08</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.25 코로나 확진자 11명(외국인11). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[용인시청]10월29일 0시기준 확진자 25명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2021/10/26 10:05:39</t>
+          <t>2021/10/29 11:00:03</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 26일(화) 0시 기준 확진자 8명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[전주시청]10.29(금) 현재기준 2명 발생(전일 21명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2021/10/26 10:00:58</t>
+          <t>2021/10/29 10:46:34</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>서울특별시 강북구</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>[강북구청]10.16.~22. 분홍미용실(강북구 도봉로97길 15), 방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다. ☎901-7704</t>
+          <t>[부여군청] 10월29일 10시 기준 확진자 3명 발생 【부여422~424/학생】 감기증상시(콧물, 목아픔, 두통 등) 코로나 검사 후 진료 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2021/10/26 10:00:05</t>
+          <t>2021/10/29 10:40:01</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 26일 0시 기준, 수원 확진자 20명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/mwbj1</t>
+          <t>[강화군청]10월 25일(월), 10월 27일(수) 강화인삼센터(강화읍 알미골) 방문자는 가까운 선별진료소에서 코로나19 진단검사 받으시길 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2021/10/26 09:57:38</t>
+          <t>2021/10/29 10:37:39</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>[창원시청] 10.21(목)~10.24(일) 05:00~12:00 진해스파랜드(진해구 진해대로 762,지하) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[포항시청] 10.22(금)~10.25(월) ZENITH 제니스 라이브(상도동 601-1) 방문자는 가까운 보건소에 방문하여 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2021/10/26 09:52:28</t>
+          <t>2021/10/29 10:29:50</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>강원도 평창군</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>[완도군청]확진자 2명 발생(신지면1, 보길면1) 자가격리 중 확진으로 이동동선 없음▶오전 금일, 보길, 금당, 생일 이동선별진료소 운영중▶주민들은 검사요망</t>
+          <t>[평창군청] 10.29일 평창군 확진자 1명(232번) 봉평면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2021/10/26 09:51:23</t>
+          <t>2021/10/29 10:06:43</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>[창원시청] 10.19.(화), 10.21.(목)~10.24.(일) 환금휘트니스사우나(회원구 북성로 106,방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
+          <t>[부여군청]코로나19 군민행동요령 최근 학교,기업체 내 코로나 집단발생에 따른 지역확산은 없는 것으로 판단,감기증상시 코로나 검사후 진료받으시고 방역수칙 준수바람</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2021/10/26 09:48:27</t>
+          <t>2021/10/29 10:05:48</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>[창원시청] 10.20.(수) 19:00~19:30 팔룡동 대동마트(의창구 반계로 97) 이용자는 가까운 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[통영시청] 10.24(일) 11:00~13:30 안황스포츠센터(광도면 안정로 830) 목욕탕(여탕) 이용하신 분은 코로나19 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2021/10/26 09:22:52</t>
+          <t>2021/10/29 10:01:24</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>[창원시청] 10.25. 확진자 6명 발생 ▲성산1,합포1,진해1,타지역1,격리중2 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
+          <t>[수원시청] 10월 29일 0시 기준, 수원 확진자 50명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/fwi9s</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2021/10/26 09:05:02</t>
+          <t>2021/10/29 09:56:45</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>[김제시청] 10.26.(화) 9시기준 확진자 1명 발생(자가격리중 확진, 외국인)/동선없음/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다</t>
+          <t>[보은군청] 10. 29.(금) 확진자 5명 발생 ▲ 10.19.(화)~10.27.(수) 극동슈퍼 이용자는 인근 보건소에서 코로나검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2021/10/26 09:01:46</t>
+          <t>2021/10/29 09:51:20</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>[영암군청] 10. 21.(목) 15:30~17:20 금정농협 경제사업부(금정면 용두로 24) 방문자는 선별진료소 검사바랍니다.(격리중 확진으로 역학조사 완료)</t>
+          <t>[창원시청] 10.28. 확진자 18명 발생 ▲의창3,성산1,합포6,회원5,타지역3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2021/10/26 08:51:07</t>
+          <t>2021/10/29 09:15:46</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>전라남도 영광군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>[영광군청] 10.25.(월) 22시기준 확진자1명(타지역 확진자 접촉)발생▲10.25.(월) 12시~13시 영광읍 양평해장국 방문자는 보건소에서 검사 바랍니다.</t>
+          <t>[진도군청]10.29(금) 08시기준 2명 추가확진(초,중학생)▲선별이동검사소 안내√진도서초교 09:30~11:00√진도중학교 09:30~14:00까지 운영합니다</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2021/10/26 08:50:31</t>
+          <t>2021/10/29 09:02:40</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>[전남도청] 10.25. 24시기준 확진 6명(여수1,나주1,장흥1,영암1,신안2) ▲방역취약시설 운영자 및 종사자는 10.31.까지 2주 1회 진단검사 받으세요</t>
+          <t>[고흥군청] 10.29(금) 확진자 1명 발생, 역학조사 중. 외출 및 지인모임을 자제하고, 마스크 상시 착용바라며, 의심증상시 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2021/10/26 08:46:39</t>
+          <t>2021/10/29 09:02:19</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>[보성군]타지역 확진자 동선 관련, 10.20.(수) 16:20 회천→광주행 광우고속 버스를 이용하신 분은 보건소 선별진료소에서 검사바랍니다.(09~18시 운영)</t>
+          <t>[양주시청] 10월 29일 00시 기준 확진자 12명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2021/10/26 08:45:13</t>
+          <t>2021/10/29 08:56:55</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>[신안군청] 10.25. 24시 기준 확진자 2명(신안 57번~58번/자가격리 중 2) 발생 ▲의심 증상 시 즉시 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[남원시청] 관내 확진자 동선 관련▲10.24.(일) 09:00~18:00 행남자기(남원시 남문로 397) 방문자는 가까운 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2021/10/26 08:08:23</t>
+          <t>2021/10/29 08:56:40</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>전라북도 군산시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>[군산시청] ▲ 10/24(일) 10:00~12:20 월명24시사우나찜질방(현충로95(나운동)) 남탕 이용자는 보건소 선별검사(09시~18시)바랍니다.</t>
+          <t>[남원시청]▲10.29(금 08시기준 전일확진자 2명발생(남원 202~203번)/기확진자 접촉 ▲가을철 여행등 타지역방문 후 유증상시 즉시 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2021/10/26 08:03:33</t>
+          <t>2021/10/29 08:55:32</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>전라남도 여수시</t>
+          <t>전라남도 강진군,전라남도 고흥군,전라남도 곡성군,전라남도 광양시,전라남도 구례군,전라남도 나주시,전라남도 담양군,전라남도 목포시,전라남도 무안군,전라남도 보성군,전라남도 신안군,전라남도 여수시,전라남도 영광군,전라남도 영암군,전라남도 완도군,전라남도 장성군,전라남도 장흥군,전라남도 진도군,전라남도 함평군,전라남도 해남군,전라남도 화순군</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>[여수시청] 10.25.24:00 기준 총1명 발생(타지역 방문)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
+          <t>[전남도청] 10.28. 24시기준 확진 13명(목포4,순천2,나주1,화순1,강진1,영광2,진도1/해외1(구례))▲증상 의심되면 외출 자제하고 검사 먼저 받으세요</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2021/10/25 21:53:43</t>
+          <t>2021/10/29 08:33:23</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>강원도 태백시</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>[태백시청] 10월 25일(월) 21시기준 확진자 8명 발생(역학조사 중, 필요시 이동동선 태백시 홈페이지 공개), 유증상자는 보건소 선별검사 받으시기 바랍니다.</t>
+          <t>[화순군청] 10.28. 24시 기준 확진자 1명 발생(화순128번). 동선 소독 완료하고 접촉자 조사중입니다. ▶접종완료자도 의심증상 있으면 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2021/10/25 18:53:55</t>
+          <t>2021/10/28 19:48:50</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>[남양주시청]10.25.(월) 코로나19 확진자 34명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t8vj 증상의심시 코로나19 검사받으세요.</t>
+          <t>[영광군청]10.28.(목) 18:00시 확진자 1명(영광 47번)추가발생.영광46번 가족으로 역학조사중. 접종 완료자도 의심 즉시 보건소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2021/10/25 18:34:29</t>
+          <t>2021/10/28 19:25:43</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>전라북도 고창군</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.24 코로나 확진자 4명(내국인2, 외국인2)▲손씻기, 마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
+          <t>[고창군청] 10.28.(목) 19:00 기준 ▶관내 확진자(고창 63번) 발생 ▶코로나19 의심 증상 시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2021/10/25 18:26:40</t>
+          <t>2021/10/28 19:23:48</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>전라남도 장흥군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>[장흥군청]10.25. 17시 기준 확진자 1명 발생(자가격리 중 확진) ▶이동동선 및 접촉자 없음 ▶유증상시 접종유무와 상관없이 즉시 선별진료소 검사바랍니다.</t>
+          <t>[보은군청] 10. 25.(월) ~ 10. 27.(수) 택시(충북35아 5064) 이용자는 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2021/10/25 18:00:49</t>
+          <t>2021/10/28 19:00:34</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>[안성시청]10.25. 코로나19확진자3명(자가격리1,확진자접촉1,자발적검사자1)발생.역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[홍성군청]10월28일(목) 19시 기준 확진자 1명(홍성306번) 발생. 자가격리중 검사 결과 확진으로 접촉자 및 동선 없음</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2021/10/25 17:56:29</t>
+          <t>2021/10/28 18:34:01</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>충청남도 논산시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>[논산시청] 10월25일 확진자 9명(내국인6,외국인3/관내6,타지역2,조사중1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받기 바랍니다.</t>
+          <t>[광주시청] 10월 28일 17시 기준 확진자 40명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2021/10/25 17:36:42</t>
+          <t>2021/10/28 18:18:32</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>경기도 의정부시</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>[의정부시]10.20.(수) 14시~16시 의정부백병원장례식장(신곡동) 2호실 방문자 중 유증상자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
+          <t>[진도군청]안내드린 57번확진자 동선관련▲진도읍 락스(Rock’s) PC방 방문자께서는√보건소 선별진료소를 오늘밤 9시(21시)까지 연장운영하니 방문검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2021/10/25 17:14:05</t>
+          <t>2021/10/28 18:15:20</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 25일, 확진자 3명 발생(선행 확진자의 접촉자1, 자가격리중1, 조사중1) ▲만남,모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[남양주시청]10.28.(목) 코로나19 확진자 24명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tct8 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2021/10/25 17:03:57</t>
+          <t>2021/10/28 18:02:57</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>서울특별시 중구</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 25일 17시 기준 확진자 16명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[중구청] 10.14.~10.24. 중구 소재 중림식당(손기정로 1길 48) 이용자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2021/10/25 17:00:23</t>
+          <t>2021/10/28 18:00:52</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>[과천시청] 10월25일17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[논산시청] 10월28일 확진자 5명(내국인5/관내4,훈련소1) 발생 ▶코로나 의심증상 발현 시 가까운 선별진료소에서 PCR검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2021/10/25 17:00:02</t>
+          <t>2021/10/28 18:00:01</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>[고성군청]10. 25. 16시기준, 확진자 1명(고성116번, 수도권 확진자 접촉, 타지역 거주)발생 ▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[안성시청]10.28. 코로나19확진자3명(자발적검사1확진자접촉1동반입소자1)발생. 역학조사,방역조치 완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2021/10/25 16:13:42</t>
+          <t>2021/10/28 17:39:10</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>전라남도 보성군</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>[보성군]타지역 확진자 관내동선 관련, 10.19.(화) 17:00~19:45까지 보성읍 우리장례식장을 이용하신분은 보건소 선별진료소에서 지금 즉시 검사받으세요.</t>
+          <t>[진도군청]확진자 동선 추가▲진도읍 락피시방 √10.23(토) 16:10~21:05 √10.25(월) 17:30~10.26(화) 00:15▲방문자는 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2021/10/25 15:59:49</t>
+          <t>2021/10/28 17:32:19</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>서울특별시 용산구</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>[용산구청] 10.8.(금)~10.14.(목) 한남동 소재 ‘Season9(엠타이인서울)’ 방문하신 분은 가까운 선별진료소에서 코로나 검사 받으시기 바랍니다.</t>
+          <t>[진도군청]진도57번 확진자 발생(외국인근로자)▲진도읍 락피시방 √10.20(수)19:24~22:46 √10.22(금) 17:40~21:45▲방문자는 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2021/10/25 15:56:47</t>
+          <t>2021/10/28 17:21:55</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>경기도 고양시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>[고양시청]10.18.(월)~20.(수) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
+          <t>[충주시청] 10월 28일 확진자 4명 발생(자가격리중2, 조사중2)▲만남,모임 자제 ▲마스크 착용▲거리두기 준수▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2021/10/25 15:41:41</t>
+          <t>2021/10/28 17:13:14</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>광주광역시 전체</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>[광주광역시] 10.14(목)~10.23(토) 설화머리방(서구 죽봉대로 111번길 14, 광천동)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다.</t>
+          <t>[창원시청] 10.23(토) 22:10~23:58 슬레이크(성산구 마디미로43번길 10)이용자는 관할 보건소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2021/10/25 15:32:37</t>
+          <t>2021/10/28 16:47:30</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>[김제시청] 10.18(월)~10.22(금)12:00~13:00 김제시 용지면 소재한 그린반점(소독완료) 방문자는 가까운 선별진료소 방문 및 검사 바랍니다.</t>
+          <t>[강진군청] 강진 18번 확진자 발생(서울 방문하여 가족 확진자 접촉) 접촉자 및 동선 없음. 타지역 방문 및 의심증상 시 선별진료소 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2021/10/25 15:09:24</t>
+          <t>2021/10/28 16:28:17</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>[진주시청] 25일 15시 기준 확진자 1명(무료선제검사) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[구미시청]10/15(금)~10/24(일) 금오산교회 신유기도원(형곡동로 3) 방문자는 가까운 선별진료소에서 코로나19 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2021/10/25 14:57:15</t>
+          <t>2021/10/28 15:46:27</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>경상남도 양산시</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>[양산시청]10.25.(월) 15시기준, 코로나19 확진자 6명발생(접촉자 1, 격리중 2, 격리면제 검사 3)▲코로나19 백신 당일접종 접종센터(9~15시)</t>
+          <t>[의정부시청] 10.23.(토)~10.27.(수) 행복한영광교회(의정부동) 방문자는 코로나19 검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2021/10/25 14:31:31</t>
+          <t>2021/10/28 15:31:39</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>[안산시청]10월25일14시기준 확진자 39명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/XeqOnC5</t>
+          <t>[정읍시청] 10.25(월) 11:45~12:00, 항상아름다운자리 음식점 (신태인, 소독완료/ 전주확진자 방문) 방문자는 보건소 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2021/10/25 14:18:04</t>
+          <t>2021/10/28 15:28:28</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>[화성시청] 10.18.(월) 18:00~19:00 둘리칼국수(화성시 남양읍 남양시장로61) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[의정부시] 10/23(토)~10/24(일) 신곡동 서해아파트 103동 놀이터 방문자는 선별진료소에서 코로나19검사를 받으시기 바랍니다. ☎031-870-6011</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2021/10/25 14:04:46</t>
+          <t>2021/10/28 15:00:34</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>경상남도 통영시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>[통영시청]10.14.(목) 통영출발(16:10)→고성·마산경유→부산사상터미널도착/현대고속(경남70아1030) 탑승자는 가까운 보건소에서 검사 받으시기 바랍니다.</t>
+          <t>[고성군청]10. 28.15시기준,확진자1명(고성119번, 도내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2021/10/25 13:44:21</t>
+          <t>2021/10/28 14:51:40</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.25.(월) 11:00기준 신규확진자 15명 url.kr/v4srn9 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[부산시]10.23.(토) 10:07~11:25 동신탕 여탕(부산광역시 동구 홍곡남로6, 수정동)이용자는 코로나19 검사 받으시기 바랍니다. (소독완료)</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2021/10/25 11:47:38</t>
+          <t>2021/10/28 14:27:38</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>[구미시청]외국인근로자 확진자 다수 발생. 외국인고용주께서는 근로자가 가까운 보건소에서 백신접종 및 진단검사를 할 수 있도록 관리에 철저를 기하여주시기 바랍니다.</t>
+          <t>[영광군청] 관내 확진자 동선 관련▲10.26.(화)19:10~20:10 영광성당 미사 참석자는 보건소에서 진단검사 바랍니다.▲접종자 포함 실내외에서 마스크 착용</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2021/10/25 11:19:05</t>
+          <t>2021/10/28 14:25:30</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>[김제시청] 10.25.(월)11시기준 확진자 2명발생(확진자접촉2, 동선파악중)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[김천시청]10월28일 14시기준 13명 발생(신규2, 자가격리중11)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2021/10/25 11:09:57</t>
+          <t>2021/10/28 13:51:17</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>충청남도 아산시</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>[아산시청] 10월 24일 확진자 1명(해외 입국자1) / 새로운 일상을 위한 방역의 생활화! 모두 함께 만들어 갑시다. 유증상시 즉시 검사 받으시기 바랍니다.</t>
+          <t>[부여군청]10월28일 13시 기준 확진자17명 발생【부여405~421업체근로자14(외국인10,내국인4),학생3】 감기증상 시 코로나 검사(특히 학생) 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2021/10/25 11:09:15</t>
+          <t>2021/10/28 13:32:14</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>전라북도 무주군</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>[무주군청] 10.25.(월)11시 기준 신규 확진자 1명 발생(무주 45번, 10.24.(일) 21시 확진)/감기몸살, 기침 등 이상증상시 진단 검사바랍니다.</t>
+          <t>[보성군]보성40번 동선관련, 10.24.(일)~10.26.(화) 06:00~07:00 보성매일시장 내 보리밥집을 이용하신분은 지금 즉시 보건소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2021/10/25 11:00:00</t>
+          <t>2021/10/28 13:26:55</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자 8명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[순천시청] 10.24.(일)~10.27.(수) 07:00~10:00 천담수사우나(신월큰길 39) 여탕 이용자는 금일 중 보건소 선별진료소에서 검사하시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:49</t>
+          <t>2021/10/28 13:25:56</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 25일(월) 0시 기준 확진자 3명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[화순군청] 10.23.(토) 13:40~14:25 옛날두부(화순읍 시장길 33)에서 23,000원 현금결제 하신 분은 거주지 보건소에서 코로나 진단검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:39</t>
+          <t>2021/10/28 12:58:41</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>경상북도 포항시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>[포항시청] 10.19(화)~10.22(금) 대구은행 상대동지점(대도동 640-7) 대출업무관련 방문자는 가까운 보건소에서 검사 바랍니다.</t>
+          <t>[전주시청]10.28(목) 현재기준 7명 발생(전일 2명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2021/10/25 10:42:32</t>
+          <t>2021/10/28 11:18:46</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경기도 안양시</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>[금산군청] 10.25(월) 10시 기준 확진자 8명 발생(격리중 3, 신규5), 역학조사중, 감기몸살, 오한 등 증상시 선별진료소 방문 검사바랍니다.</t>
+          <t>[안양시청]▲10.28.(목) 11:00기준 신규확진자 29명 url.kr/iexuqk ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2021/10/25 10:00:53</t>
+          <t>2021/10/28 11:10:03</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 25일 0시 기준, 수원 확진자 16명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/d1t0c</t>
+          <t>[나주시청] 10.28. 09시기준. 확진자2명 발생. 외국인고용사업장 종사자 2주1회검사당부. 외국인 백신접종 시급. 코로나 증상 발현 시 검사 필수.</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2021/10/25 09:30:14</t>
+          <t>2021/10/28 11:08:31</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>충청북도 전체</t>
+          <t>전라북도 임실군</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다.▲24일 도내 확진자 42명 발생</t>
+          <t>[임실군청]서울 확진자 동선 관련/10.23(토) 09:30 서울강남터미널 출발→순창터미널 이동중 강진터미널에서 하차하신분은 선별진료소에서 검사 받으시길 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2021/10/25 09:17:02</t>
+          <t>2021/10/28 10:59:57</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>강원도 강릉시</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>[강릉시청]어제(일) 4명 확진(친구간 밀접촉4)/10.20(수)~23(토) 기간중 카페썸(가톨릭관동대 내)을 방문하신 분은 오전중 보건소에서 반드시 검사바랍니다</t>
+          <t>[용인시청]10월28일 0시기준 확진자 26명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2021/10/25 09:14:30</t>
+          <t>2021/10/28 10:59:56</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>[창원시청]10월21일(07:50~11:00), 22일(08:50~10:40) 진해스파랜드(진해대로 762,지하)이용자는 관할보건소에서 검사받으시기 바랍니다.</t>
+          <t>[보은군청] 221(13:25백록동방향),721(15:35석화방향),940(17:20신함방향),431(19:00천남방향)이용자는 코로나 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2021/10/25 09:13:26</t>
+          <t>2021/10/28 10:44:26</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>[창원시청]10월18일(09:20~11:20),19일(07:40~11:10),20일(07:50~10:50)진해스파랜드(진해대로 762)이용자관할보건소에서 검사요망</t>
+          <t>[완주군청] 10월 28일(목) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2021/10/25 09:01:13</t>
+          <t>2021/10/28 10:42:34</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>전라북도 순창군</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 25일 00시 기준 확진자 9명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[순창군청]서울 확진자 이동경로 안내 ▶10.23(토) 09:30 서울강남센트럴시티→ 12:50 순창터미널 도착▶고속버스 이용객은 가까운 선별진료소 검사 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2021/10/25 08:53:36</t>
+          <t>2021/10/28 10:23:12</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>[전남도청] 10.24.24시기준 확진5명(구례1,장성1,완도1,신안1 /해외1(광양))※내국인3명,외국인2명(건설1,선원1) ▲의심증상 즉시 보건소 검사받으세요</t>
+          <t>[강원도청] 10.27.(수) 도내 코로나19 확진 22명(원주13 춘천2 태백2 강릉1 홍천1 철원1 양구1 인제1)▶접촉의심 및 감기증상시 즉시검사 당부 드림</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2021/10/25 08:45:15</t>
+          <t>2021/10/28 10:00:33</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>[신안군청]10.24.24시 기준 확진자 1명(건설근로자 외국인 1명)발생 ▲외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
+          <t>[수원시청] 10월 28일 0시 기준, 수원 확진자 60명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/xvl74</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2021/10/25 08:25:06</t>
+          <t>2021/10/28 09:58:53</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>전라남도 광양시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>[광양시청] 10. 24. 24시 기준 확진자 1명 발생(해외입국자 1) 가벼운 감기증상도 의료기관 방문 전 선별진료소 무료 검사 받으시기 바랍니다.</t>
+          <t>[영광군청] 확진자 동선 관련 ▲10.24.(일), 10.26.(화) 영광성당 방문자는 보건소에서 진단검사 받으시기 바랍니다.▲마스크착용, 타지역 방문·접촉 자제</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2021/10/25 08:07:08</t>
+          <t>2021/10/28 09:47:56</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>전라북도 남원시</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>[남원시청]▲10.25(월) 08시 기준 확진자 1명발생(남원 170번)/역학조사 중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시검사 받으시기 바랍니다.</t>
+          <t>[진천군청]▲10.27 코로나 확진자 3명(내국인2, 외국인1). ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2021/10/25 08:02:06</t>
+          <t>2021/10/28 09:42:42</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>[울산광역시]임시선별검사소▲문수경기장(평일9~20시)▲종합운동장,동구국민체육센터,농소운동장,온양체육공원(평일9~17시)입니다.(점심시간 12시~13시 미운영)</t>
+          <t>[보은군청]10.28.(목) 확진자 8명 발생▲10. 23.(토)~10.24.(일) 시내버스(충북74자1014) 이용자는 보건소에서 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2021/10/25 08:00:04</t>
+          <t>2021/10/28 09:36:34</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>충청북도 제천시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>[제천시청]10.25(월) 08시 현재. 확진자 1명 발생(외국인). 감염경로 조사중. 추가사항은 모바일콜센터 등으로 안내드리겠습니다. 증상 발현시 검사 바랍니다</t>
+          <t>[창원시청] 10.27. 확진자 22명 발생 ▲합포10,회원5,진해1,타지역1,격리중5 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2021/10/24 20:42:25</t>
+          <t>2021/10/28 09:33:21</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>강원도 강릉시</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>[강릉시청]10.20(수)~10.23(토) 기간 중 카페썸(가톨릭관동대 내)을 방문하신 분들은 내일 오전중으로 보건소 선별검사소에서 반드시 검사 바랍니다.</t>
+          <t>[영광군청] 10.28.(목) 9시 기준, 확진자 1명(영광46번)발생▲10.24.(일)~10.27.(수)대동공업영광대리점 방문자는 보건소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2021/10/24 18:35:44</t>
+          <t>2021/10/28 09:19:19</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>서울특별시 광진구</t>
+          <t>강원도 원주시</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-7400</t>
+          <t>[원주시청] 10.16.~10.24.'힐링타임아로마테라피(여대생마사지)[북원로2251, 단계동]' 이용자는 오늘 15시까지 보건소에서 코로나 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2021/10/24 18:11:09</t>
+          <t>2021/10/28 09:05:45</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>충청남도 홍성군</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>[홍성군청]10월24일(일) 18시 기준 확진자 4명(홍성290~293번) 발생. 확진자 접촉 2, 자가격리중 1, 자발적 검사 1. 정밀역학조사중</t>
+          <t>[양주시청] 10월 28일 00시 기준 확진자 11명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2021/10/24 18:08:20</t>
+          <t>2021/10/28 08:31:40</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>경기도 안성시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>[안성시청]10.24.코로나확진자4명(자발적검사2, 확진자접촉2)발생. 역학조사,방역조치완료 anseong.go.kr/corona_index.jsp</t>
+          <t>[남원시청]▲10.28(목)08시 기준 확진자 30명 발생(남원 172~201번)/감염경로조사중 ▲ 유증상시 접종유무와 상관없이 즉시 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2021/10/24 17:41:31</t>
+          <t>2021/10/28 08:30:09</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>[남양주시청]10.24.(일) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t7m6 증상의심시 코로나19 검사받으세요.</t>
+          <t>[목포시청]10.27. 24시 기준 확진자 1명(자가격리중 외국인) 발생▲외국인 근로자는 증상유무 상관없이 가까운 선별진료소에서 진단검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2021/10/24 17:23:07</t>
+          <t>2021/10/28 08:28:21</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>전라남도 장성군</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>[장성군청] 10. 24.(일) 확진자 1명(타지역 거주자) 발생. 관내 동선 및 접촉자 파악완료. 타지역 방문 및 접촉자는 증상이 없더라도 반드시 검사바랍니다.</t>
+          <t>[여수시청]10.27.24:00 기준 총1명 발생(타지역거주자)/타지역 방문·접촉 후 증상 유무 관계없이 보건소 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2021/10/24 17:04:10</t>
+          <t>2021/10/27 21:09:37</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 24일 17시 기준 확진자 5명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요..</t>
+          <t>[보성군] 10.27.(수) 확진자 3명 추가 발생(가족,지인모임/역학조사중) ▲외출 및 지인모임 자제, 마스크 상시 착용, 의심증상시 보건소에서 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2021/10/24 16:22:26</t>
+          <t>2021/10/27 18:36:13</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>[당진시청]10/24(일)16시기준 확진자4명 발생(격리중2,조사중2).총1053명▲신규채용 등 진단검사 의무화행정명령(10/25~11/8) vo.la/68SFm</t>
+          <t>[홍성군청]10월27일(수) 18시 기준 확진자 5명(홍성301~305번) 발생.자가격리 1명, 병원격리 3명, 자발적검사 1명. 역학조사 및 방역조치 완료</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2021/10/24 16:07:36</t>
+          <t>2021/10/27 18:35:33</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>[창원시청]10월19일여탕(13:50~18:40),남탕(17:00~18:40) 북면마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2021/10/24 16:07:15</t>
+          <t>2021/10/27 18:25:04</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>경상남도 창원시</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>[창원시청]10월15일 여탕(17:40~19:20),남탕(17:40~19:12)북면 마금산원탕보양온천 이용자는 관할보건소에서 검사받으시기 바랍니다.(가족탕 제외)</t>
+          <t>[남양주시청]10.27.(수) 코로나19 확진자 26명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/tbit 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2021/10/24 15:08:12</t>
+          <t>2021/10/27 18:03:16</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>[안산시청]10월24일14시기준 확진자 61명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/yU7Tmp1</t>
+          <t>[충주시청] 10월 27일 확진자 7명 발생(선행 확진자 접촉1, 자가격리중4, 조사중2) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2021/10/24 15:08:10</t>
+          <t>2021/10/27 17:47:38</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>경상남도 진주시</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>[진주시청] 24일 15시 기준 확진자 2명(타지역 확진자 접촉자 1명, 무료선제검사 1명) 발생. 상세 현황은 시 누리집 참조 바랍니다.</t>
+          <t>[통영시청] 10.26.(화) 10:40~17:55 통영전문장례식장(정량동) 3층 특실을 방문하신분은 보건소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2021/10/24 15:07:05</t>
+          <t>2021/10/27 17:44:59</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>부산광역시 전체</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>[부산시]10.15.(금)~10.23.(토) 뉴부산탕(금정구 서부로 2-1(서동)이용자는 선별검사소에서 코로나19검사 받으시기 바랍니다.</t>
+          <t>[구례군청]10.27.(수) 확진자 1명 발생(구례35번 가족), 접촉자 및 이동동선 없습니다. 타지역 방문을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2021/10/24 15:02:31</t>
+          <t>2021/10/27 17:32:06</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 24일 15시 기준, 확진자 7명 발생(선행 확진자의 접촉자)▲만남,모임,행사 자제▲마스크 착용▲증상 발생 시 선별진료소에서 진단검사 바랍니다</t>
+          <t>[광주시청] 10월 27일 17시 기준 확진자 28명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2021/10/24 14:59:35</t>
+          <t>2021/10/27 17:04:55</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>대구광역시 전체</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>[대구광역시]단디아로마(달서구 달서대로95길 7,2층) 10/13~10/22 방문하신 분은 임시선별검사소 및 보건소(예약)에서 반드시 검사받으시기 바랍니다</t>
+          <t>[과천시청] 10월 27일 17시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2021/10/24 14:52:33</t>
+          <t>2021/10/27 16:52:03</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.23. 코로나 확진자 3명(외국인3). ▲손씻기, 마스크착용 등 방역수칙 준수바랍니다. ▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다.</t>
+          <t>[강북구청] 10.24.~27. 로얄PC방(도봉로 313, 지하1층) 방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2021/10/24 14:21:57</t>
+          <t>2021/10/27 16:32:30</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>경상북도 안동시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>[안동시청]타지역확진자관련▲10/19(화) 09:50~10:20 콩심용상안동점(용상북1길6에이스아울렛E동1층)방문자는 선별진료소 방문하여 코로나19 검사바랍니다.</t>
+          <t>[창원시청] 10.21.(목)~10.23.(토), 10.25.(월) 대림식당(마산합포구 북성로 100, 상남동) 방문자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2021/10/24 14:13:44</t>
+          <t>2021/10/27 15:43:47</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>전라남도 구례군</t>
+          <t>부산광역시 전체</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>[구례군청]10.24.(일) 확진자 1명 발생(타지역 확진자 접촉). 타지역 방문 및 타지인과의 만남을 자제하시고 유증상 시 선별진료소에서 검사 바랍니다.</t>
+          <t>[부산시]10.23.(토) 13:30~15:30에 대원목욕탕(부산진구 황령대로18번길 43(범천동))여탕 이용자는 코로나19검사 받으시기 바랍니다.(소독완료)</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2021/10/24 14:02:29</t>
+          <t>2021/10/27 15:37:00</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>[당진시청]②10/17(월),22(금),23(토)18:00~22:00뉴럭셔리질러존노래연습장(북문로 1길 35-10)방문자 시청 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[화성시청] 10.22.(금) 킹노래방(화성시 봉담읍 와우안길 43) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2021/10/24 13:58:51</t>
+          <t>2021/10/27 15:36:38</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>[당진시청]①10.21(목) 17:55~18:30 CU편의점 당진원당점(수청동 983) 방문자는 15시30분까지 당진시청 선별진료소에서 코로나 검사바랍니다.</t>
+          <t>[화성시청] 10.23.(토) 블루노래연습장(화성시 봉담읍 와우리 45-5 지하1층) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2021/10/24 13:52:25</t>
+          <t>2021/10/27 15:36:10</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>충청남도 서천군</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>[남양주시청]10.13.(수)~10.24.(일) 롯데택배물류센터(진접읍 양진로 962)근무자 및 방문자는 관할 선별진료소에서 코로나19 검사 받으시기 바랍니다.</t>
+          <t>[서천군청] 10.24.~26. 기간 중 서면 홍원항어촌계 수산물판매장 내 한문이네를 방문한 분들은 가까운 선별진료소에서 진단검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2021/10/24 13:19:52</t>
+          <t>2021/10/27 15:24:25</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>울산광역시 전체</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>[울산광역시]10.19(화)17:29~19:44▲착한갈비(중구 반구정12길 55,반구동,소독완료)방문자는 코로나 검사후 중구보건소(☎290-4300)연락바랍니다.</t>
+          <t>[김천시청]10월27일 15시기준 관내 초·중학교 관련 22명 발생(신규15, 자가격리중7)▲방과후 놀이 자제 및 의심증상시 선별검사소에서 검사받으시기바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2021/10/24 13:09:20</t>
+          <t>2021/10/27 15:10:02</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 24일 13시 기준 신규확진 2명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[고성군청]10.24.(일)14:00~15:42병산수산고성왕새우(삼산면소재, 방역완료) 방문자는 가까운 선별진료소에서 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2021/10/24 12:49:40</t>
+          <t>2021/10/27 15:02:56</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>[화성시청] 10.18.(월)~10.21.(목) 대승철물(화성시 남양읍 남양성지로 233) 방문자는 가까운 선별진료소에서 검사를 받으시기 바랍니다.</t>
+          <t>[보은군청]10. 23.(토) ~ 10. 26.(화) 보은개인택시(35아 5061 /소나타/은색)를 이용하신분은 인근 보건소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2021/10/24 11:17:54</t>
+          <t>2021/10/27 14:59:56</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>경상북도 칠곡군</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>[칠곡군청] 10.4.(월) ~ 10.22.(금) 만남카페(칠곡군 왜관읍 중앙로5길 5-1, 왜관역 부근) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[고성군청]10. 27.15시기준,확진자1명(고성118번, 관내확진자접촉자)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2021/10/24 11:14:04</t>
+          <t>2021/10/27 14:59:14</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>충청남도 금산군</t>
+          <t>경기도 부천시</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>[금산군청] 10.24(일) 11시기준 확진자 6명(격리중 1, 신규 5) 발생, 역학조사 중 ▶ 감기몸살, 오한 등 유증상 시 선별진료소 방문 검사 바랍니다</t>
+          <t>[부천시청] 10.19(화) 18시~22시 중동포차(조마루로291번길 46) 방문자는 증상유무에 관계없이 선별진료소에서 코로나19검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2021/10/24 11:11:44</t>
+          <t>2021/10/27 14:59:14</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.24.(일) 11:00기준 신규확진자 10명 url.kr/pctb72 ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[보은군청]10.19.(화)~10.22.(금)/10.25.(월)~10.26.(화)11:45~12:30즐거운집(보은읍 삼산리)이용자는 코로나 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2021/10/24 10:59:35</t>
+          <t>2021/10/27 14:57:46</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>전라북도 완주군</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>[완주군청] 10월 24일(일) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
+          <t>[김제시청] 10.27.(수) 14시기준 확진자 1명 발생(확진자 접촉1, 동선파악중)/ 유증상 및 타지역 방문 후 진단검사 협조 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2021/10/24 10:54:30</t>
+          <t>2021/10/27 14:47:14</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>경상남도 고성군</t>
+          <t>울산광역시 전체</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>[고성군청]10.14(목)통영출발(16:00)→고성경유(16:38)→마산경유(17:35)→부산시외버스터미널도착(18:25)현대버스탑승자는 선별진료소에서검사바랍니다</t>
+          <t>[울산광역시] 10.23.(토)18:10~21:10 ▲동강병원 장례식장 6호실(중구 태화로 240, 태화동, 소독완료) 방문자는 코로나19 검사 받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2021/10/24 10:33:54</t>
+          <t>2021/10/27 14:31:59</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>[구미시청]10/16(토)~10/17(일) 이슬람교 구미성원 (구미중앙로31길 13, 원평동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[창원시청] 10.19(화), 10.21(목)~10.24(일) 환금휘트니스사우나(마산회원구 북성로 106, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2021/10/24 10:30:15</t>
+          <t>2021/10/27 14:00:07</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>충청북도 청주시</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>[청주시청]10월 23일 확진자 17명 발생(상당구6,서원구2,흥덕구5,청원구4)▲홈페이지 참조▲이동·모임 자제▲수시 환기▲유증상 시 신속히 무료검사 바랍니다.</t>
+          <t>[사천시청] 10.27.(수) 14시 기준 확진자 5명(확진자 접촉자4명, 해외입국자1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2021/10/24 10:30:10</t>
+          <t>2021/10/27 13:40:54</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>경기도 용인시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>[용인시청]금일 0시기준 확진자17명, 처인,기흥구 소재 외국인 고용 100인미만 사업장 내ㆍ외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
+          <t>[완도군청]외국인 확진자 자가격리중 1명 발생▶오늘 선별이동검사소 안내▶10/27(수)13:30~15:00 소안창조문화센터▶15:00~17:00 청산복지회관 2층</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2021/10/24 10:20:53</t>
+          <t>2021/10/27 11:02:53</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>경상북도 구미시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>[구미시청]10/7(목)~10/21(목) 드리사(delisha cafe)(1공단로 190 지하1층,공단동) 방문자는 가까운 선별진료소에서 코로나19 검사바랍니다.</t>
+          <t>[완도군청] 확진자동선▶10/22(금)보길보옥리→청별→노화이포 보길여객농어촌버스 첫차(08:00)▶노화 농협하나로마트09:00~09:10 동시간대 이용자 검사요망</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2021/10/24 10:16:16</t>
+          <t>2021/10/27 11:00:04</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>강원도 평창군</t>
+          <t>경기도 용인시</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>[평창군청] 10.24일 평창군 확진자 1명(231번) 대화면에서 발생, 역학조사 진행중이며, 감기증상시 코로나19 진단검사 당부 드립니다.</t>
+          <t>[용인시청]10월27일 0시기준 확진자 24명, 기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사 받으시기 바랍니다. corona.yongin.go.kr</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2021/10/24 10:10:06</t>
+          <t>2021/10/27 10:39:48</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>전라남도 완도군</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>[완도군청]근해어선 선원 자가격리중 1명 확진(기존10, 추가1)▶입출항 연근해어선▶(행정명령)외국인 고용사업장 내·외국인 진담검사 하시기 바랍니다.</t>
+          <t>[부여군청]10월27일 10시 기준 확진자 18명 발생【부여387~404,학생등13,외국인5】 감기증상 시 보건소에서 코로나 검사(특히 학생) 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2021/10/24 10:00:16</t>
+          <t>2021/10/27 10:37:52</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>강원도 전체</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>[수원시청] 10월 24일 0시 기준, 수원 확진자 48명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/p1eng</t>
+          <t>[강원도청] 10.26.(화) 도내 코로나19 확진 19명(원주6 태백5 춘천4 홍천3 속초1)▶감염확산 방지에는 선제검사가 최선▶의심되면 즉시검사 당부 드림!!</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2021/10/24 10:00:03</t>
+          <t>2021/10/27 10:33:16</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>[전남도청]전일 9명 발생(√타지역접촉4√외국인근로자4√가족접촉1)▲학교기숙사 등 일상생활 복귀전▲외국인고용사업장 신규채용 근로자는 근로전 진단검사 꼭 받으세요.</t>
+          <t>[아산시청] 10월26일 확진자 10명(가족7, 지인1, 조사중 2) /단계적 일상 회복 전환을 위해 방역수칙을 준수해 주시고, 코로나 의심시 검사 받으세요.</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2021/10/24 09:50:27</t>
+          <t>2021/10/27 10:26:25</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>강원도 원주시</t>
+          <t>전라북도 전주시</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>[원주시청] 10.15.또는10.20.'술파는노래방뿜빠이(장미공원길43-4,2층,단계동)' 이용자는 오늘 15시(12~13시 제외)까지 보건소 코로나 검사받으세요</t>
+          <t>[전주시청]10.27(수) 현재기준 1명 발생(전일 8명)/ (corona.jeonju.go.kr) 의심증상시 선별진료소 즉시 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2021/10/24 09:46:55</t>
+          <t>2021/10/27 10:08:04</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>전라남도 영암군</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>[영암군청] 10. 23.(토) 12:40~14:00 '고향식육식당'(금정면 용두로 15) 방문자는 증상유무관계없이 즉시 선별진료소 검사바랍니다.</t>
+          <t>[완주군청] 10월 27일(수) 0시 기준 확진자 7명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2021/10/24 09:00:06</t>
+          <t>2021/10/27 10:00:53</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>경기도 양주시</t>
+          <t>경기도 수원시</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>[양주시청] 10월 24일 00시기준 확진자 8명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
+          <t>[수원시청] 10월 27일 0시 기준, 수원 확진자 58명 발생. 기침, 발열 등 의심증상 있으면 가까운 선별진료소에서 검사받으세요. me2.kr/ghswi</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2021/10/24 08:56:28</t>
+          <t>2021/10/27 09:54:39</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>전라남도 신안군</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>[신안군청] 10.23. 24시 기준 확진자 3명(건설근로자 외국인 2명, 자가격리 중 1명) 발생 ▲ 외국인 고용 사업자는 2주 1회 검사 받으시기 바랍니다.</t>
+          <t>[김천시청]코로나19이동선별검사소 운영안내▲장소:녹색미래과학관(율곡동)▲27일:13:00~16:00, 28일-29일:10:00~16:00▲의심증상시 검사바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2021/10/24 08:53:21</t>
+          <t>2021/10/27 09:53:25</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>전라남도 전체</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>[전남도청]10.23. 24시기준 확진 9명(목포1, 곡성1, 영암3, 진도1, 신안3) ※내국인 5명, 외국인 4명(건설 4)▲의심증상시 무료 진단검사 받으세요</t>
+          <t>[보은군청] 10. 27.(수) 확진자 4명 발생 ▲ 10. 18.(월) 이후 복신경외과 내원자 및 유증상자는 인근 보건소에서 코로나 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2021/10/24 08:21:43</t>
+          <t>2021/10/27 09:46:27</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>전라남도 목포시</t>
+          <t>경상남도 함양군</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>[목포시청]10.23. 24시 기준 확진자 1명 (타지역방문접촉) 발생 ▲타지역 이동 자제하시고, 기침, 발열 등 의심 증상 있을 시 보건소 무료 검사받으세요.</t>
+          <t>[함양군청] 10. 18.(월) 14시 함양 출발 → 16시 부산(사상) 도착 시외버스 탑승객은 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2021/10/23 18:01:25</t>
+          <t>2021/10/27 09:31:50</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>[당진시청]신규채용 및 외국인근로자 등 코로나19진단검사 의무화됩니다.(10.25.~11.8.) 자세한 사항은 시홈페이지 공고 참고바랍니다. vo.la/68SFm</t>
+          <t>[창원시청] 10.18(월)~23(토) 온정백반(대산면 주남로503번길 8, 방역완료) 이용자는 가까운 선별진료소에서 검사바랍니다.(10.24 이후 검사자 제외)</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2021/10/23 18:00:23</t>
+          <t>2021/10/27 09:30:51</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>경기도 남양주시</t>
+          <t>광주광역시 전체</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>[남양주시청]10.23.(토) 코로나19 확진자 21명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/t799 증상의심시 코로나19 검사받으세요.</t>
+          <t>[광주광역시] 10.17(일)~10.25(월) JL연기학원 1층~4층(동구 구성로 167, 충장로5가)에 방문하신 분은 거주지 보건소에서 검사받으시기 바랍니다</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2021/10/23 18:00:09</t>
+          <t>2021/10/27 09:30:51</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>경기도 수원시</t>
+          <t>경상남도 창원시</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>[수원시청] 10.13.(수)~10.22.(금) 바이크마켓(팔달구 세지로 352, 1층) 방문자 중 유증상자는 가까운 보건소에서 코로나19 검사바랍니다.</t>
+          <t>[창원시청] 10.26. 확진자 20명 발생 ▲의창4,합포6,회원4,진해2,타지역1,격리중3 △선별검사소-마산역광장,창원종합버스터미널,3개보건소</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2021/10/23 17:14:08</t>
+          <t>2021/10/27 09:30:30</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>충청북도 충주시</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>[충주시청] 10월 23일 확진자 10명 발생(타지역접촉4, 자가격리중3, 조사중3) ▲모임, 행사 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
+          <t>[완도군청]확진자동선▶10/21(목) 12:10해남출발→13:00완도도착▶13:20완도터미널→화흥포셔틀버스▶13:50화흥포→노화동천 여객선실 이용자 코로나검사요망</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2021/10/23 17:01:05</t>
+          <t>2021/10/27 09:30:26</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>경기도 광주시</t>
+          <t>충청북도 전체</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>[광주시청] 10월 23일 17시 기준 확진자 18명 발생. 기침, 발열 등 의심 증상 발현 시 가까운 선별진료소에서 검사받으세요.</t>
+          <t>[충북도청]코로나19 확산방지를 위해▲감염이 의심되면 보건소에서 무료검사▲타시도 방문 자제 및 방역수칙 준수 바랍니다▲26일 도내 확진자 29명 발생</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2021/10/23 16:51:01</t>
+          <t>2021/10/27 09:11:43</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>전라남도 진도군</t>
+          <t>경상북도 포항시</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>[진도군청]10.23(토)확진자 1명발생(진도56번)▲타지역거주 외국인근로자,접촉자 전원음성▲입출항 근해어업 선원,외국인고용사업장 내·외국인 2주1회 검사받으세요</t>
+          <t>[포항시청]10.23 302번버스 영일고등학교정류장15:41→죽도시장정류장16:07 죽도시장정류장16:33→영일고등학교정류장17:01 탑승객은 보건소 검사바랍니다</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2021/10/23 16:34:08</t>
+          <t>2021/10/27 09:09:58</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>경기도 화성시</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>[화성시청] 코로나19 선별진료소(검사소) 주말 및 공휴일 운영시간이 09시부터 13시로 조정됨을 알려드립니다.</t>
+          <t>[양주시청] 10월 27일 00시 기준 확진자 4명 발생/기침, 발열 등 의심증상 발현시 가까운 선별진료소에서 검사받으시기 바랍니다. c11.kr/o1wn</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2021/10/23 16:08:38</t>
+          <t>2021/10/27 09:05:04</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>충청남도 당진시</t>
+          <t>충청남도 천안시</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>[당진시청]10/23(토) 16시기준 확진자17명(관내접촉2,타지역접촉2,격리중8,조사중5)발생.총1049명▲의심증상 시 외출·모임 자제 및 코로나검사 바랍니다.</t>
+          <t>[천안시청] 확진자 17명 [타시민1, 천안시민16] ▶ 초·중·고교생 확진자 증가 ▶ 증상발현 시 병원 방문 전 검사 및 백신접종에 참여 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2021/10/23 15:31:34</t>
+          <t>2021/10/27 08:27:36</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>[사천시청] 10.21.(목) 09:20~11:30 시원청사우나(동서금동소재) 남탕 방문자는 보건소 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[남원시청]▲10.27(수) 금일 확진자 1명 발생(남원 171번)/감염경로 조사중 ▲가을철 여행 등 타지역 방문 후 또는 유증상시 즉시 검사 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2021/10/23 15:27:27</t>
+          <t>2021/10/27 08:00:07</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>전라남도 곡성군</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>[곡성군청]금일 09시기준 확진자 1명 발생. 타지역 거주, 동선 및 접촉자 파악중, 타 지역방문 후 또는 유증상 시에 군 선별진료소에서 검사받으시기 바랍니다.</t>
+          <t>[제천시청]10.27(수) 8시 현재. 확진자 2명 발생(타 지역 확진자 접촉 1, 격리중 1). 지역내 특이동선 없음. 증상발현시 선별진료소에서 검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2021/10/23 15:24:22</t>
+          <t>2021/10/26 21:01:59</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>충청북도 음성군</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>[음성군청]10월 23일 확진자 5명(외국인)발생▲동선,접촉자 조사중▲타지역 방문,모임,지인초청 자제▲유증상시 주민께서는 PCR검사 받으시기 바랍니다</t>
+          <t>[보은군청]10.26.(화) 확진자 3명 발생, 10.18.(월)~10.26.(화) 복신경외과의원(보은읍) 방문자는 인근보건소에서 코로나검사를 받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2021/10/23 14:37:19</t>
+          <t>2021/10/26 20:24:18</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>경기도 안산시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>[안산시청]10월23일14시기준 확진자 77명발생▲발열, 기침, 호흡곤란 등 의심증상 발현 시 가까운 선별진료소에서 즉시 검사 바랍니다 asq.kr/Z9vSfk2</t>
+          <t>[광진구청] 확진자발생 관내동선 알림. 홈페이지 확인( han.gl/rvVRk )동시간대 이용자 검사바람▲2차접종은 잔여백신으로 접종주기 단축☎문의450-1000</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2021/10/23 14:18:11</t>
+          <t>2021/10/26 19:06:08</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>경기도 안양시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>[안양시청]▲10.23.(토) 13:30기준 신규확진자 33명 url.kr/qz7o2i ▲발열·권태감·기침·호흡곤란 등 의심증상이 있을 때 즉시 검사바랍니다.</t>
+          <t>[강북구청]10.19.(화) 19:00~21:10 보스당구클럽(오패산로130)방문자는 강북보건소(평일9~20:30,주말9~17:30)검사바랍니다.☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2021/10/23 14:02:09</t>
+          <t>2021/10/26 19:04:20</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>경상남도 사천시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>[사천시청] 10.23.(토) 14시 기준 확진자 3명(자가격리중 2명, 조사중 1명) 발생▲의심증상시 진단검사 바라며, 백신접종에 참여합시다.</t>
+          <t>[강북구청] 10.22.(금) 얼짱노래연습장(한천로 140길 35, 지층)방문자는 강북보건소(평일9~20:30,주말9~17:30) 검사바랍니다. ☎901-7704</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2021/10/23 14:00:25</t>
+          <t>2021/10/26 18:15:19</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>충청북도 괴산군</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>[괴산군청] 10월 23일 확진자 1명(타지역 1명) 발생. 자세한 사항은 역학조사후 홈페이지 게시예정. 증상발현시 즉시 코로나19검사 받으시기 바랍니다.</t>
+          <t>[남양주시청]10.26.(화) 코로나19 확진자 35명 발생. 방역사항은 홈페이지, 블로그 참고바랍니다. c11.kr/taaa 증상의심시 코로나19 검사받으세요.</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2021/10/23 13:11:08</t>
+          <t>2021/10/26 18:00:02</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>경기도 과천시</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>[과천시청] 10월 23일 13시 기준 신규확진 1명 발생 https://www.gccity.go.kr/corona.jsp 가벼운 의심증상도 무조건 코로나 검사</t>
+          <t>[안성시청]10.26코로나19확진자11명(자가격리2확진자접촉3자발적검사4해외입국2)발생.역학조사방역조치완료 anseong.go.kr/corona_index.jsp</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2021/10/23 12:47:56</t>
+          <t>2021/10/26 17:47:56</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>전라북도 김제시</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>[김제시청]10.23.(토) 11시 확진자 2명 발생(내국인1,외국인1)/ 유증상시 김제시 선별진료소(09:00~18:00) 방문 및 진단검사 바랍니다.</t>
+          <t>[충주시청] 10월 26일, 확진자 4명 발생(자가격리중 3, 감염경로 조사중 1) ▲만남, 모임 자제 ▲증상 발생 시 선별진료소에서 진단검사 바랍니다.</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2021/10/23 12:32:22</t>
+          <t>2021/10/26 17:29:09</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>충청북도 진천군</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>[진천군청]▲10.22 코로나 확진자 5명(내국인2, 외국인3)▲손씻기,마스크착용 등 방역수칙 준수바랍니다▲증상발현시 관할 보건소에서 코로나 무료검사 바랍니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>2021/10/23 11:35:53</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>인천광역시 강화군</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>[강화군청] 2021년 10월 16일(토) ~ 10월 22일(금)까지 강화읍 풍물시장 방문객은 가까운 선별 진료소에서 코로나 검사를 받으시길 바랍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>2021/10/23 11:08:06</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>전라북도 완주군</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>[완주군청] 10월 23일(토) 0시 기준 확진자 1명 발생 / 발생정보 pf.kakao.com/_dpxmcl 참고/ 의심증상 시 검사 및 방역수칙 준수 바랍니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>2021/10/23 11:00:04</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>경기도 용인시</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>[용인시청]금일 0시기준 확진자26명, 처인,기흥구 소재 외국인고용 100인미만 사업장 내·외국인은 행정명령에 따라 10.26까지 코로나 검사 받으시기 바랍니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>2021/10/23 10:49:46</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>경기도 고양시</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>[고양시청]10.17.(일) 설문동 소재 설문스파랜드(일산동구 은마길 239-3) 방문자는 가까운 보건소에서 코로나19 검사를 받으시기 바랍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>2021/10/23 10:42:05</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>강원도 전체</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>[강원도청] 10.22.(금) 코로나19 확진자 20명 (원주11, 춘천7, 속초1, 횡성1) ▶감기증상 시 즉시검사 실시 ▶개인 방역수칙 준수 철저 당부드림!</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>2021/10/23 10:37:32</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>전라북도 부안군</t>
-        </is>
-      </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>[부안군청]부안 128번 확진자 동선 관련 10.21(목) 17:15전주⇒부안 직행 시외버스 탑승자는 가까운 선별진료소에서 코로나 검사를 받으시기 바랍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>2021/10/23 10:03:18</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>전라남도 전체</t>
-        </is>
-      </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>[전남도청](행정명령강화) 외국인고용사업장(건설,어업,식당 등) ▲신규취업 ▲근무지 변경시 근무전 진단검사 의무 ▲내외국인 2주1회 진단검사 받으시기 바랍니다.</t>
+          <t>[고성군청]10.26.17시기준,확진자1명(고성117번,조사중)발생▲유증상시 거주지 선별진료소에서 검사받으시기 바랍니다.</t>
         </is>
       </c>
     </row>
